--- a/REGEN/Contour_Maelstrom.xlsx
+++ b/REGEN/Contour_Maelstrom.xlsx
@@ -59,7 +59,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="true"/>
+    <col min="1" max="1" width="14.5546875" customWidth="true"/>
     <col min="2" max="2" width="13.5546875" customWidth="true"/>
     <col min="3" max="3" width="11.5546875" customWidth="true"/>
   </cols>
@@ -72,2746 +72,2746 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C1" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.00061204819277108427</v>
+        <v>0.0010302811244979919</v>
       </c>
       <c r="B2" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C2" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0012240963855421685</v>
+        <v>0.0020605622489959837</v>
       </c>
       <c r="B3" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C3" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0018361445783132528</v>
+        <v>0.003090843373493976</v>
       </c>
       <c r="B4" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C4" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0024481927710843371</v>
+        <v>0.0041211244979919674</v>
       </c>
       <c r="B5" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C5" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0030602409638554214</v>
+        <v>0.0051514056224899593</v>
       </c>
       <c r="B6" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C6" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0036722891566265056</v>
+        <v>0.006181686746987952</v>
       </c>
       <c r="B7" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C7" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.004284337349397589</v>
+        <v>0.0072119678714859439</v>
       </c>
       <c r="B8" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C8" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0048963855421686742</v>
+        <v>0.0082422489959839348</v>
       </c>
       <c r="B9" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C9" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0055084337349397584</v>
+        <v>0.0092725301204819276</v>
       </c>
       <c r="B10" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C10" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0061204819277108427</v>
+        <v>0.010302811244979919</v>
       </c>
       <c r="B11" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C11" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0067325301204819261</v>
+        <v>0.01133309236947791</v>
       </c>
       <c r="B12" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C12" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0073445783132530112</v>
+        <v>0.012363373493975904</v>
       </c>
       <c r="B13" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C13" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0079566265060240955</v>
+        <v>0.013393654618473897</v>
       </c>
       <c r="B14" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C14" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0085686746987951781</v>
+        <v>0.014423935742971888</v>
       </c>
       <c r="B15" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C15" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0091807228915662641</v>
+        <v>0.015454216867469879</v>
       </c>
       <c r="B16" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C16" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0097927710843373483</v>
+        <v>0.01648449799196787</v>
       </c>
       <c r="B17" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C17" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.010404819277108433</v>
+        <v>0.017514779116465862</v>
       </c>
       <c r="B18" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C18" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.011016867469879517</v>
+        <v>0.018545060240963855</v>
       </c>
       <c r="B19" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C19" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.011628915662650601</v>
+        <v>0.019575341365461844</v>
       </c>
       <c r="B20" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C20" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.012240963855421685</v>
+        <v>0.020605622489959837</v>
       </c>
       <c r="B21" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C21" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.01285301204819277</v>
+        <v>0.02163590361445783</v>
       </c>
       <c r="B22" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C22" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.013465060240963852</v>
+        <v>0.022666184738955819</v>
       </c>
       <c r="B23" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C23" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.014077108433734938</v>
+        <v>0.023696465863453812</v>
       </c>
       <c r="B24" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C24" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.014689156626506022</v>
+        <v>0.024726746987951808</v>
       </c>
       <c r="B25" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C25" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.015301204819277107</v>
+        <v>0.025757028112449801</v>
       </c>
       <c r="B26" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C26" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.015913253012048191</v>
+        <v>0.026787309236947793</v>
       </c>
       <c r="B27" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C27" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.016525301204819275</v>
+        <v>0.027817590361445783</v>
       </c>
       <c r="B28" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C28" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.017137349397590356</v>
+        <v>0.028847871485943776</v>
       </c>
       <c r="B29" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C29" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.01774939759036144</v>
+        <v>0.029878152610441768</v>
       </c>
       <c r="B30" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C30" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.018361445783132528</v>
+        <v>0.030908433734939757</v>
       </c>
       <c r="B31" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C31" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.018973493975903612</v>
+        <v>0.03193871485943775</v>
       </c>
       <c r="B32" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C32" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.019585542168674697</v>
+        <v>0.032968995983935739</v>
       </c>
       <c r="B33" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C33" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.020197590361445781</v>
+        <v>0.033999277108433729</v>
       </c>
       <c r="B34" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C34" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.020809638554216865</v>
+        <v>0.035029558232931725</v>
       </c>
       <c r="B35" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C35" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.021421686746987949</v>
+        <v>0.036059839357429714</v>
       </c>
       <c r="B36" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C36" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.022033734939759034</v>
+        <v>0.03709012048192771</v>
       </c>
       <c r="B37" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C37" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.022645783132530115</v>
+        <v>0.0381204016064257</v>
       </c>
       <c r="B38" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C38" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.023257831325301202</v>
+        <v>0.039150682730923689</v>
       </c>
       <c r="B39" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C39" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.023869879518072287</v>
+        <v>0.040180963855421685</v>
       </c>
       <c r="B40" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C40" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.024481927710843371</v>
+        <v>0.041211244979919674</v>
       </c>
       <c r="B41" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C41" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.025093975903614455</v>
+        <v>0.042241526104417664</v>
       </c>
       <c r="B42" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C42" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.025706024096385539</v>
+        <v>0.04327180722891566</v>
       </c>
       <c r="B43" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C43" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.026318072289156624</v>
+        <v>0.044302088353413649</v>
       </c>
       <c r="B44" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C44" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.026930120481927705</v>
+        <v>0.045332369477911638</v>
       </c>
       <c r="B45" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C45" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.027542168674698789</v>
+        <v>0.046362650602409634</v>
       </c>
       <c r="B46" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C46" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.028154216867469876</v>
+        <v>0.047392931726907624</v>
       </c>
       <c r="B47" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C47" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.028766265060240961</v>
+        <v>0.048423212851405627</v>
       </c>
       <c r="B48" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C48" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.029378313253012045</v>
+        <v>0.049453493975903616</v>
       </c>
       <c r="B49" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C49" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.029990361445783129</v>
+        <v>0.050483775100401605</v>
       </c>
       <c r="B50" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C50" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.030602409638554214</v>
+        <v>0.051514056224899602</v>
       </c>
       <c r="B51" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C51" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.031214457831325298</v>
+        <v>0.052544337349397591</v>
       </c>
       <c r="B52" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C52" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.031826506024096382</v>
+        <v>0.053574618473895587</v>
       </c>
       <c r="B53" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C53" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.03243855421686747</v>
+        <v>0.054604899598393576</v>
       </c>
       <c r="B54" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C54" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.033050602409638551</v>
+        <v>0.055635180722891565</v>
       </c>
       <c r="B55" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C55" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.033662650602409638</v>
+        <v>0.056665461847389562</v>
       </c>
       <c r="B56" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C56" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.034274698795180712</v>
+        <v>0.057695742971887551</v>
       </c>
       <c r="B57" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C57" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.0348867469879518</v>
+        <v>0.05872602409638554</v>
       </c>
       <c r="B58" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C58" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.035498795180722881</v>
+        <v>0.059756305220883536</v>
       </c>
       <c r="B59" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C59" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.036110843373493969</v>
+        <v>0.060786586345381526</v>
       </c>
       <c r="B60" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C60" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.036722891566265056</v>
+        <v>0.061816867469879515</v>
       </c>
       <c r="B61" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C61" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.037334939759036137</v>
+        <v>0.062847148594377511</v>
       </c>
       <c r="B62" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C62" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.037946987951807225</v>
+        <v>0.0638774297188755</v>
       </c>
       <c r="B63" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C63" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.038559036144578306</v>
+        <v>0.06490771084337349</v>
       </c>
       <c r="B64" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C64" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.039171084337349393</v>
+        <v>0.065937991967871479</v>
       </c>
       <c r="B65" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C65" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.039783132530120474</v>
+        <v>0.066968273092369482</v>
       </c>
       <c r="B66" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C66" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.040395180722891562</v>
+        <v>0.067998554216867457</v>
       </c>
       <c r="B67" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C67" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.04100722891566265</v>
+        <v>0.06902883534136546</v>
       </c>
       <c r="B68" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C68" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.04161927710843373</v>
+        <v>0.07005911646586345</v>
       </c>
       <c r="B69" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C69" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.042231325301204818</v>
+        <v>0.071089397590361439</v>
       </c>
       <c r="B70" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C70" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.042843373493975899</v>
+        <v>0.072119678714859428</v>
       </c>
       <c r="B71" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C71" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.043455421686746987</v>
+        <v>0.073149959839357431</v>
       </c>
       <c r="B72" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C72" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.044067469879518067</v>
+        <v>0.074180240963855421</v>
       </c>
       <c r="B73" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C73" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.044679518072289148</v>
+        <v>0.07521052208835341</v>
       </c>
       <c r="B74" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C74" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.045291566265060229</v>
+        <v>0.076240803212851399</v>
       </c>
       <c r="B75" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C75" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0.045903614457831317</v>
+        <v>0.077271084337349402</v>
       </c>
       <c r="B76" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C76" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.046515662650602405</v>
+        <v>0.078301365461847378</v>
       </c>
       <c r="B77" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C77" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0.047127710843373485</v>
+        <v>0.079331646586345381</v>
       </c>
       <c r="B78" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C78" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.047739759036144573</v>
+        <v>0.08036192771084337</v>
       </c>
       <c r="B79" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C79" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.048351807228915654</v>
+        <v>0.081392208835341359</v>
       </c>
       <c r="B80" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C80" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.048963855421686742</v>
+        <v>0.082422489959839348</v>
       </c>
       <c r="B81" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C81" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.049575903614457823</v>
+        <v>0.083452771084337352</v>
       </c>
       <c r="B82" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C82" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0.05018795180722891</v>
+        <v>0.084483052208835327</v>
       </c>
       <c r="B83" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C83" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>0.050799999999999998</v>
+        <v>0.08551333333333333</v>
       </c>
       <c r="B84" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C84" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0.051412048192771079</v>
+        <v>0.086543614457831319</v>
       </c>
       <c r="B85" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C85" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>0.052024096385542167</v>
+        <v>0.087573895582329309</v>
       </c>
       <c r="B86" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C86" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0.052636144578313247</v>
+        <v>0.088604176706827298</v>
       </c>
       <c r="B87" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C87" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.053248192771084335</v>
+        <v>0.089634457831325301</v>
       </c>
       <c r="B88" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C88" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.053860240963855409</v>
+        <v>0.090664738955823276</v>
       </c>
       <c r="B89" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C89" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0.054472289156626497</v>
+        <v>0.09169502008032128</v>
       </c>
       <c r="B90" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C90" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.055084337349397577</v>
+        <v>0.092725301204819269</v>
       </c>
       <c r="B91" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C91" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>0.055696385542168665</v>
+        <v>0.093755582329317272</v>
       </c>
       <c r="B92" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C92" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0.056308433734939753</v>
+        <v>0.094785863453815247</v>
       </c>
       <c r="B93" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C93" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.056920481927710834</v>
+        <v>0.09581614457831325</v>
       </c>
       <c r="B94" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C94" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0.057532530120481921</v>
+        <v>0.096846425702811254</v>
       </c>
       <c r="B95" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C95" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.058144578313253002</v>
+        <v>0.097876706827309229</v>
       </c>
       <c r="B96" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C96" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.05875662650602409</v>
+        <v>0.098906987951807232</v>
       </c>
       <c r="B97" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C97" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0.059368674698795171</v>
+        <v>0.099937269076305221</v>
       </c>
       <c r="B98" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C98" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0.059980722891566259</v>
+        <v>0.10096755020080321</v>
       </c>
       <c r="B99" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C99" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.060592771084337339</v>
+        <v>0.1019978313253012</v>
       </c>
       <c r="B100" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C100" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.061204819277108427</v>
+        <v>0.1030281124497992</v>
       </c>
       <c r="B101" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C101" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0.061816867469879515</v>
+        <v>0.10405839357429718</v>
       </c>
       <c r="B102" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C102" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>0.062428915662650596</v>
+        <v>0.10508867469879518</v>
       </c>
       <c r="B103" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C103" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0.063040963855421683</v>
+        <v>0.10611895582329317</v>
       </c>
       <c r="B104" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C104" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>0.063653012048192764</v>
+        <v>0.10714923694779117</v>
       </c>
       <c r="B105" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C105" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0.064265060240963845</v>
+        <v>0.10817951807228915</v>
       </c>
       <c r="B106" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C106" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0.06487710843373494</v>
+        <v>0.10920979919678715</v>
       </c>
       <c r="B107" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C107" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0.065489156626506021</v>
+        <v>0.11024008032128514</v>
       </c>
       <c r="B108" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C108" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>0.066101204819277101</v>
+        <v>0.11127036144578313</v>
       </c>
       <c r="B109" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C109" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>0.066713253012048196</v>
+        <v>0.11230064257028112</v>
       </c>
       <c r="B110" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C110" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0.067325301204819277</v>
+        <v>0.11333092369477912</v>
       </c>
       <c r="B111" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C111" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>0.067937349397590358</v>
+        <v>0.1143612048192771</v>
       </c>
       <c r="B112" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C112" s="0">
-        <v>8.2732603946705385</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>0.068549397590361424</v>
+        <v>0.1153914859437751</v>
       </c>
       <c r="B113" s="0">
-        <v>0.043172720429257364</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C113" s="0">
-        <v>8.2704711076078183</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>0.069161445783132519</v>
+        <v>0.11642176706827309</v>
       </c>
       <c r="B114" s="0">
-        <v>0.04313718220341712</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C114" s="0">
-        <v>8.2568608048141545</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0.0697734939759036</v>
+        <v>0.11745204819277108</v>
       </c>
       <c r="B115" s="0">
-        <v>0.043071829286690719</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C115" s="0">
-        <v>8.2318614351755457</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>0.070385542168674681</v>
+        <v>0.11848232931726907</v>
       </c>
       <c r="B116" s="0">
-        <v>0.042976193910918496</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C116" s="0">
-        <v>8.1953464705785688</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>0.070997590361445762</v>
+        <v>0.11951261044176707</v>
       </c>
       <c r="B117" s="0">
-        <v>0.042849573709422738</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C117" s="0">
-        <v>8.1471259256023902</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>0.071609638554216856</v>
+        <v>0.12054289156626505</v>
       </c>
       <c r="B118" s="0">
-        <v>0.042691004842594201</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C118" s="0">
-        <v>8.086939088172274</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>0.072221686746987937</v>
+        <v>0.12157317269076305</v>
       </c>
       <c r="B119" s="0">
-        <v>0.042499222886623223</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C119" s="0">
-        <v>8.0144439402266983</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>0.072833734939759018</v>
+        <v>0.12260345381526104</v>
       </c>
       <c r="B120" s="0">
-        <v>0.042272607529730097</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C120" s="0">
-        <v>7.9292021984229173</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>0.073445783132530112</v>
+        <v>0.12363373493975903</v>
       </c>
       <c r="B121" s="0">
-        <v>0.042009104905482375</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C121" s="0">
-        <v>7.8306583058262449</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>0.074057831325301193</v>
+        <v>0.12466401606425702</v>
       </c>
       <c r="B122" s="0">
-        <v>0.041706117829082318</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C122" s="0">
-        <v>7.7181097415705446</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0.074669879518072274</v>
+        <v>0.12569429718875502</v>
       </c>
       <c r="B123" s="0">
-        <v>0.041360348207787903</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C123" s="0">
-        <v>7.5906643939463487</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0.075281927710843355</v>
+        <v>0.12672457831325301</v>
       </c>
       <c r="B124" s="0">
-        <v>0.040967565339602816</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C124" s="0">
-        <v>7.4471778867685705</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0.07589397590361445</v>
+        <v>0.127754859437751</v>
       </c>
       <c r="B125" s="0">
-        <v>0.04052225424900277</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C125" s="0">
-        <v>7.2861584565764748</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>0.07650602409638553</v>
+        <v>0.12878514056224899</v>
       </c>
       <c r="B126" s="0">
-        <v>0.040017059718290622</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C126" s="0">
-        <v>7.1056165668874485</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0.077118072289156611</v>
+        <v>0.12981542168674698</v>
       </c>
       <c r="B127" s="0">
-        <v>0.039441897890935135</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C127" s="0">
-        <v>6.9028275938356565</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0.077730120481927706</v>
+        <v>0.13084570281124497</v>
       </c>
       <c r="B128" s="0">
-        <v>0.03882984969816404</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C128" s="0">
-        <v>6.6902575470844274</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0.078342168674698787</v>
+        <v>0.13187598393574296</v>
       </c>
       <c r="B129" s="0">
-        <v>0.038217801505392959</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C129" s="0">
-        <v>6.4810118955833129</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>0.078954216867469867</v>
+        <v>0.13290626506024098</v>
       </c>
       <c r="B130" s="0">
-        <v>0.037605753312621879</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C130" s="0">
-        <v>6.2750906393323014</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0.079566265060240948</v>
+        <v>0.13393654618473896</v>
       </c>
       <c r="B131" s="0">
-        <v>0.036993705119850798</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C131" s="0">
-        <v>6.0724937783313981</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>0.080178313253012043</v>
+        <v>0.13496682730923695</v>
       </c>
       <c r="B132" s="0">
-        <v>0.036381656927079703</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C132" s="0">
-        <v>5.8732213125805943</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>0.080790361445783124</v>
+        <v>0.13599710843373491</v>
       </c>
       <c r="B133" s="0">
-        <v>0.035769608734308622</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C133" s="0">
-        <v>5.6772732420799033</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>0.081402409638554205</v>
+        <v>0.13702738955823293</v>
       </c>
       <c r="B134" s="0">
-        <v>0.035157560541537541</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C134" s="0">
-        <v>5.484649566829316</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>0.082014457831325299</v>
+        <v>0.13805767068273092</v>
       </c>
       <c r="B135" s="0">
-        <v>0.034545512348766447</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C135" s="0">
-        <v>5.2953502868288327</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>0.08262650602409638</v>
+        <v>0.13908795180722891</v>
       </c>
       <c r="B136" s="0">
-        <v>0.033933464155995366</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C136" s="0">
-        <v>5.1093754020784576</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>0.083238554216867461</v>
+        <v>0.1401182329317269</v>
       </c>
       <c r="B137" s="0">
-        <v>0.033321415963224292</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C137" s="0">
-        <v>4.9267249125781927</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>0.083850602409638542</v>
+        <v>0.14114851405622492</v>
       </c>
       <c r="B138" s="0">
-        <v>0.032709367770453211</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C138" s="0">
-        <v>4.7473988183280289</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>0.084462650602409636</v>
+        <v>0.14217879518072288</v>
       </c>
       <c r="B139" s="0">
-        <v>0.032097319577682117</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C139" s="0">
-        <v>4.5713971193279708</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>0.085074698795180717</v>
+        <v>0.14320907630522087</v>
       </c>
       <c r="B140" s="0">
-        <v>0.031485271384911036</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C140" s="0">
-        <v>4.3987198155780201</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>0.085686746987951798</v>
+        <v>0.14423935742971886</v>
       </c>
       <c r="B141" s="0">
-        <v>0.030873223192139955</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C141" s="0">
-        <v>4.2293669070781768</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>0.086298795180722893</v>
+        <v>0.14526963855421687</v>
       </c>
       <c r="B142" s="0">
-        <v>0.03026117499936886</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C142" s="0">
-        <v>4.0633383938284346</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>0.086910843373493973</v>
+        <v>0.14629991967871486</v>
       </c>
       <c r="B143" s="0">
-        <v>0.029649126806597779</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C143" s="0">
-        <v>3.9006342758288026</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>0.087522891566265054</v>
+        <v>0.14733020080321285</v>
       </c>
       <c r="B144" s="0">
-        <v>0.029037078613826699</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C144" s="0">
-        <v>3.7412545530792771</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>0.088134939759036135</v>
+        <v>0.14836048192771084</v>
       </c>
       <c r="B145" s="0">
-        <v>0.028425030421055618</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C145" s="0">
-        <v>3.5851992255798577</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>0.088746987951807216</v>
+        <v>0.14939076305220883</v>
       </c>
       <c r="B146" s="0">
-        <v>0.027812982228284537</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C146" s="0">
-        <v>3.4324682933305439</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>0.089359036144578297</v>
+        <v>0.15042104417670682</v>
       </c>
       <c r="B147" s="0">
-        <v>0.027200934035513456</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C147" s="0">
-        <v>3.2830617563313367</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>0.089971084337349377</v>
+        <v>0.15145132530120481</v>
       </c>
       <c r="B148" s="0">
-        <v>0.026588885842742375</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C148" s="0">
-        <v>3.1369796145822351</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>0.090583132530120458</v>
+        <v>0.1524816064257028</v>
       </c>
       <c r="B149" s="0">
-        <v>0.025976837649971295</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C149" s="0">
-        <v>2.9942218680832395</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>0.091195180722891553</v>
+        <v>0.15351188755020082</v>
       </c>
       <c r="B150" s="0">
-        <v>0.0253647894572002</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C150" s="0">
-        <v>2.854788516834347</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>0.091807228915662634</v>
+        <v>0.15454216867469881</v>
       </c>
       <c r="B151" s="0">
-        <v>0.024752741264429119</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C151" s="0">
-        <v>2.7186795608355636</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>0.092419277108433715</v>
+        <v>0.15557244979919677</v>
       </c>
       <c r="B152" s="0">
-        <v>0.024140693071658038</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C152" s="0">
-        <v>2.5858950000868863</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>0.093031325301204809</v>
+        <v>0.15660273092369476</v>
       </c>
       <c r="B153" s="0">
-        <v>0.023528644878886944</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C153" s="0">
-        <v>2.4564348345883125</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>0.09364337349397589</v>
+        <v>0.15763301204819277</v>
       </c>
       <c r="B154" s="0">
-        <v>0.022916596686115863</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C154" s="0">
-        <v>2.3302990643398474</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>0.094255421686746971</v>
+        <v>0.15866329317269076</v>
       </c>
       <c r="B155" s="0">
-        <v>0.022304548493344782</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C155" s="0">
-        <v>2.2074876893414883</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>0.094867469879518052</v>
+        <v>0.15969357429718875</v>
       </c>
       <c r="B156" s="0">
-        <v>0.021692500300573701</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C156" s="0">
-        <v>2.0880007095932349</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>0.095479518072289146</v>
+        <v>0.16072385542168674</v>
       </c>
       <c r="B157" s="0">
-        <v>0.021080452107802607</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C157" s="0">
-        <v>1.9718381250950856</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>0.096091566265060227</v>
+        <v>0.16175413654618473</v>
       </c>
       <c r="B158" s="0">
-        <v>0.020468403915031526</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C158" s="0">
-        <v>1.8589999358470446</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>0.096703614457831308</v>
+        <v>0.16278441767068272</v>
       </c>
       <c r="B159" s="0">
-        <v>0.019856355722260445</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C159" s="0">
-        <v>1.7494861418491097</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>0.097315662650602403</v>
+        <v>0.16381469879518071</v>
       </c>
       <c r="B160" s="0">
-        <v>0.01924430752948935</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C160" s="0">
-        <v>1.6432967431012786</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>0.097927710843373483</v>
+        <v>0.1648449799196787</v>
       </c>
       <c r="B161" s="0">
-        <v>0.01863225933671827</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C161" s="0">
-        <v>1.5404317396035558</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>0.098539759036144564</v>
+        <v>0.16587526104417671</v>
       </c>
       <c r="B162" s="0">
-        <v>0.018020211143947189</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C162" s="0">
-        <v>1.4408911313559392</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>0.099151807228915645</v>
+        <v>0.1669055421686747</v>
       </c>
       <c r="B163" s="0">
-        <v>0.017451471696563161</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C163" s="0">
-        <v>1.3513739164112666</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>0.09976385542168674</v>
+        <v>0.16793582329317269</v>
       </c>
       <c r="B164" s="0">
-        <v>0.016967251165243988</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C164" s="0">
-        <v>1.2774220108915422</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>0.10037590361445782</v>
+        <v>0.16896610441767065</v>
       </c>
       <c r="B165" s="0">
-        <v>0.01655341779910733</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C165" s="0">
-        <v>1.215868957918449</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>0.1009879518072289</v>
+        <v>0.16999638554216867</v>
       </c>
       <c r="B166" s="0">
-        <v>0.016200225587113544</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C166" s="0">
-        <v>1.1645376709988935</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>0.1016</v>
+        <v>0.17102666666666666</v>
       </c>
       <c r="B167" s="0">
-        <v>0.01590074104297835</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C167" s="0">
-        <v>1.1218793319263121</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>0.10221204819277108</v>
+        <v>0.17205694779116465</v>
       </c>
       <c r="B168" s="0">
-        <v>0.015649894936837237</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C168" s="0">
-        <v>1.0867615644060831</v>
+        <v>8.2698766303719147</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>0.10282409638554216</v>
+        <v>0.17308722891566264</v>
       </c>
       <c r="B169" s="0">
-        <v>0.015443923767301524</v>
+        <v>0.043152994721393292</v>
       </c>
       <c r="C169" s="0">
-        <v>1.0583436687912728</v>
+        <v>8.2595357093091852</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>0.10343614457831324</v>
+        <v>0.17411751004016066</v>
       </c>
       <c r="B170" s="0">
-        <v>0.015280023803178616</v>
+        <v>0.043043345190890973</v>
       </c>
       <c r="C170" s="0">
-        <v>1.0359993411217443</v>
+        <v>8.2176149291526137</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>0.10404819277108433</v>
+        <v>0.17514779116465862</v>
       </c>
       <c r="B171" s="0">
-        <v>0.01515612934485408</v>
+        <v>0.042847195768302163</v>
       </c>
       <c r="C171" s="0">
-        <v>1.0192671406387019</v>
+        <v>8.142889894194985</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>0.10466024096385541</v>
+        <v>0.17617807228915661</v>
       </c>
       <c r="B172" s="0">
-        <v>0.015070768161146525</v>
+        <v>0.042560333669503701</v>
       </c>
       <c r="C172" s="0">
-        <v>1.0078181969348898</v>
+        <v>8.0342215409820135</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>0.10527228915662649</v>
+        <v>0.1772083534136546</v>
       </c>
       <c r="B173" s="0">
-        <v>0.015022967864357304</v>
+        <v>0.042176086250134477</v>
       </c>
       <c r="C173" s="0">
-        <v>1.0014352957965991</v>
+        <v>7.8898057026936126</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>0.10588433734939758</v>
+        <v>0.17823863453815261</v>
       </c>
       <c r="B174" s="0">
-        <v>0.015012198254839038</v>
+        <v>0.04168443872684531</v>
       </c>
       <c r="C174" s="0">
-        <v>1</v>
+        <v>7.7069345563362033</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>0.10649638554216867</v>
+        <v>0.1792689156626506</v>
       </c>
       <c r="B175" s="0">
-        <v>0.015038341261126088</v>
+        <v>0.041070443919198271</v>
       </c>
       <c r="C175" s="0">
-        <v>1.0034859344679434</v>
+        <v>7.4815666446492859</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>0.10710843373493975</v>
+        <v>0.18029919678714859</v>
       </c>
       <c r="B176" s="0">
-        <v>0.015101684376830311</v>
+        <v>0.040311205380661248</v>
       </c>
       <c r="C176" s="0">
-        <v>1.0119573201885532</v>
+        <v>7.2075111672701251</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>0.10772048192771082</v>
+        <v>0.18132947791164655</v>
       </c>
       <c r="B177" s="0">
-        <v>0.0152029367243994</v>
+        <v>0.039370492268445217</v>
       </c>
       <c r="C177" s="0">
-        <v>1.0255725625747252</v>
+        <v>6.8750434123949447</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>0.10833253012048191</v>
+        <v>0.18235975903614457</v>
       </c>
       <c r="B178" s="0">
-        <v>0.01534103651552491</v>
+        <v>0.0383402111439472</v>
       </c>
       <c r="C178" s="0">
-        <v>1.0442892923364757</v>
+        <v>6.5199273322496509</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>0.10894457831325299</v>
+        <v>0.18339004016064256</v>
       </c>
       <c r="B179" s="0">
-        <v>0.015487976286142617</v>
+        <v>0.037309930019449211</v>
       </c>
       <c r="C179" s="0">
-        <v>1.0643899558388998</v>
+        <v>6.1742274426241668</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>0.10955662650602407</v>
+        <v>0.18442032128514055</v>
       </c>
       <c r="B180" s="0">
-        <v>0.015634916056760324</v>
+        <v>0.036279648894951222</v>
       </c>
       <c r="C180" s="0">
-        <v>1.084682230204981</v>
+        <v>5.8379437435184833</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>0.11016867469879515</v>
+        <v>0.18545060240963854</v>
       </c>
       <c r="B181" s="0">
-        <v>0.015781855827378035</v>
+        <v>0.035249367770453233</v>
       </c>
       <c r="C181" s="0">
-        <v>1.1051661154347194</v>
+        <v>5.5110762349326006</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>0.11078072289156625</v>
+        <v>0.18648088353413655</v>
       </c>
       <c r="B182" s="0">
-        <v>0.015928795597995746</v>
+        <v>0.034219086645955216</v>
       </c>
       <c r="C182" s="0">
-        <v>1.1258416115281151</v>
+        <v>5.1936249168665105</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>0.11139277108433733</v>
+        <v>0.18751116465863454</v>
       </c>
       <c r="B183" s="0">
-        <v>0.016075735368613456</v>
+        <v>0.033188805521457233</v>
       </c>
       <c r="C183" s="0">
-        <v>1.1467087184851677</v>
+        <v>4.8855897893202309</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>0.11200481927710841</v>
+        <v>0.18854144578313251</v>
       </c>
       <c r="B184" s="0">
-        <v>0.016222675139231164</v>
+        <v>0.032158524396959272</v>
       </c>
       <c r="C184" s="0">
-        <v>1.1677674363058761</v>
+        <v>4.5869708522937573</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>0.11261686746987951</v>
+        <v>0.1895717269076305</v>
       </c>
       <c r="B185" s="0">
-        <v>0.016369614909848874</v>
+        <v>0.031128243272461283</v>
       </c>
       <c r="C185" s="0">
-        <v>1.1890177649902427</v>
+        <v>4.2977681057870774</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>0.11322891566265059</v>
+        <v>0.19060200803212851</v>
       </c>
       <c r="B186" s="0">
-        <v>0.016516554680466585</v>
+        <v>0.030097962147963266</v>
       </c>
       <c r="C186" s="0">
-        <v>1.2104597045382664</v>
+        <v>4.0179815498001901</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>0.11384096385542167</v>
+        <v>0.1916322891566265</v>
       </c>
       <c r="B187" s="0">
-        <v>0.016663494451084292</v>
+        <v>0.029067681023465276</v>
       </c>
       <c r="C187" s="0">
-        <v>1.2320932549499464</v>
+        <v>3.7476111843331097</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>0.11445301204819275</v>
+        <v>0.19266257028112449</v>
       </c>
       <c r="B188" s="0">
-        <v>0.016810434221702003</v>
+        <v>0.028037399898967287</v>
       </c>
       <c r="C188" s="0">
-        <v>1.2539184162252839</v>
+        <v>3.4866570093858313</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>0.11506506024096384</v>
+        <v>0.19369285140562251</v>
       </c>
       <c r="B189" s="0">
-        <v>0.016957373992319714</v>
+        <v>0.02700711877446927</v>
       </c>
       <c r="C189" s="0">
-        <v>1.2759351883642782</v>
+        <v>3.235119024958347</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>0.11567710843373492</v>
+        <v>0.19472313253012047</v>
       </c>
       <c r="B190" s="0">
-        <v>0.017104313762937425</v>
+        <v>0.025976837649971309</v>
       </c>
       <c r="C190" s="0">
-        <v>1.2981435713669298</v>
+        <v>2.9929972310506758</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>0.116289156626506</v>
+        <v>0.19575341365461846</v>
       </c>
       <c r="B191" s="0">
-        <v>0.017251253533555132</v>
+        <v>0.024946556525473319</v>
       </c>
       <c r="C191" s="0">
-        <v>1.3205435652332373</v>
+        <v>2.7602916276627991</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>0.1169012048192771</v>
+        <v>0.19678369477911645</v>
       </c>
       <c r="B192" s="0">
-        <v>0.017398193304172842</v>
+        <v>0.02391627540097533</v>
       </c>
       <c r="C192" s="0">
-        <v>1.3431351699632028</v>
+        <v>2.5370022147947235</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>0.11751325301204818</v>
+        <v>0.19781397590361446</v>
       </c>
       <c r="B193" s="0">
-        <v>0.017545133074790553</v>
+        <v>0.022885994276477313</v>
       </c>
       <c r="C193" s="0">
-        <v>1.3659183855568253</v>
+        <v>2.323128992446442</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>0.11812530120481926</v>
+        <v>0.19884425702811245</v>
       </c>
       <c r="B194" s="0">
-        <v>0.01769207284540826</v>
+        <v>0.021855713151979324</v>
       </c>
       <c r="C194" s="0">
-        <v>1.3888932120141042</v>
+        <v>2.1186719606179669</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>0.11873734939759034</v>
+        <v>0.19987453815261044</v>
       </c>
       <c r="B195" s="0">
-        <v>0.017839012616025971</v>
+        <v>0.020825432027481335</v>
       </c>
       <c r="C195" s="0">
-        <v>1.4120596493350408</v>
+        <v>1.923631119309293</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>0.11934939759036144</v>
+        <v>0.20090481927710843</v>
       </c>
       <c r="B196" s="0">
-        <v>0.017985952386643682</v>
+        <v>0.019795150902983345</v>
       </c>
       <c r="C196" s="0">
-        <v>1.4354176975196342</v>
+        <v>1.7380064685204193</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>0.11996144578313252</v>
+        <v>0.20193510040160642</v>
       </c>
       <c r="B197" s="0">
-        <v>0.018132892157261389</v>
+        <v>0.018764869778485356</v>
       </c>
       <c r="C197" s="0">
-        <v>1.4589673565678836</v>
+        <v>1.5617980082513461</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>0.1205734939759036</v>
+        <v>0.20296538152610441</v>
       </c>
       <c r="B198" s="0">
-        <v>0.0182798319278791</v>
+        <v>0.017743173902211196</v>
       </c>
       <c r="C198" s="0">
-        <v>1.4827086264797911</v>
+        <v>1.3963566995708408</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>0.12118554216867468</v>
+        <v>0.2039956626506024</v>
       </c>
       <c r="B199" s="0">
-        <v>0.018426771698496807</v>
+        <v>0.016900967493117456</v>
       </c>
       <c r="C199" s="0">
-        <v>1.506641507255355</v>
+        <v>1.266942449719449</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>0.12179759036144577</v>
+        <v>0.20502594377510039</v>
       </c>
       <c r="B200" s="0">
-        <v>0.018573711469114521</v>
+        <v>0.016255200902237851</v>
       </c>
       <c r="C200" s="0">
-        <v>1.530765998894577</v>
+        <v>1.1719752429903643</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>0.12240963855421685</v>
+        <v>0.20605622489959841</v>
       </c>
       <c r="B201" s="0">
-        <v>0.018720651239732228</v>
+        <v>0.015765327468917956</v>
       </c>
       <c r="C201" s="0">
-        <v>1.555082101397455</v>
+        <v>1.1024013770035861</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>0.12302168674698793</v>
+        <v>0.2070865060240964</v>
       </c>
       <c r="B202" s="0">
-        <v>0.018867591010349939</v>
+        <v>0.015407853708921953</v>
       </c>
       <c r="C202" s="0">
-        <v>1.5795898147639904</v>
+        <v>1.052974969343464</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>0.12363373493975903</v>
+        <v>0.20811678714859436</v>
       </c>
       <c r="B203" s="0">
-        <v>0.01901453078096765</v>
+        <v>0.015168574723855376</v>
       </c>
       <c r="C203" s="0">
-        <v>1.6042891389941827</v>
+        <v>1.020524194751741</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>0.12424578313253011</v>
+        <v>0.20914706827309235</v>
       </c>
       <c r="B204" s="0">
-        <v>0.019161470551585357</v>
+        <v>0.015039113365624808</v>
       </c>
       <c r="C204" s="0">
-        <v>1.6291800740880311</v>
+        <v>1.0031785118716996</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>0.12485783132530119</v>
+        <v>0.21017734939759036</v>
       </c>
       <c r="B205" s="0">
-        <v>0.019308410322203068</v>
+        <v>0.015015269192147789</v>
       </c>
       <c r="C205" s="0">
-        <v>1.6542626200455375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>0.12546987951807229</v>
+        <v>0.21120763052208835</v>
       </c>
       <c r="B206" s="0">
-        <v>0.019455350092820779</v>
+        <v>0.015096292301306265</v>
       </c>
       <c r="C206" s="0">
-        <v>1.6795367768667009</v>
+        <v>1.0108212127802367</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>0.12608192771084337</v>
+        <v>0.21223791164658634</v>
       </c>
       <c r="B207" s="0">
-        <v>0.019602289863438489</v>
+        <v>0.015284760585954545</v>
       </c>
       <c r="C207" s="0">
-        <v>1.7050025445515213</v>
+        <v>1.0362177703570472</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>0.12669397590361445</v>
+        <v>0.21326819277108433</v>
       </c>
       <c r="B208" s="0">
-        <v>0.019749229634056197</v>
+        <v>0.015532058217327935</v>
       </c>
       <c r="C208" s="0">
-        <v>1.7306599230999982</v>
+        <v>1.0700197017796182</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>0.12730602409638553</v>
+        <v>0.21429847389558235</v>
       </c>
       <c r="B209" s="0">
-        <v>0.019896169404673904</v>
+        <v>0.015779406831201083</v>
       </c>
       <c r="C209" s="0">
-        <v>1.756508912512132</v>
+        <v>1.1043712744293157</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>0.12791807228915661</v>
+        <v>0.21532875502008031</v>
       </c>
       <c r="B210" s="0">
-        <v>0.020043109175291615</v>
+        <v>0.016026755445074224</v>
       </c>
       <c r="C210" s="0">
-        <v>1.7825495127879227</v>
+        <v>1.1392655756844024</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>0.12853012048192769</v>
+        <v>0.2163590361445783</v>
       </c>
       <c r="B211" s="0">
-        <v>0.020190048945909322</v>
+        <v>0.016274104058947365</v>
       </c>
       <c r="C211" s="0">
-        <v>1.8087817239273707</v>
+        <v>1.1747026055448802</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>0.1291421686746988</v>
+        <v>0.21738931726907629</v>
       </c>
       <c r="B212" s="0">
-        <v>0.020336988716527039</v>
+        <v>0.016521452672820507</v>
       </c>
       <c r="C212" s="0">
-        <v>1.8352055459304772</v>
+        <v>1.2106823640107483</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>0.12975421686746988</v>
+        <v>0.2184195983935743</v>
       </c>
       <c r="B213" s="0">
-        <v>0.020483928487144747</v>
+        <v>0.016768801286693662</v>
       </c>
       <c r="C213" s="0">
-        <v>1.8618209787972391</v>
+        <v>1.2472048510820097</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>0.13036626506024096</v>
+        <v>0.21944987951807229</v>
       </c>
       <c r="B214" s="0">
-        <v>0.020630868257762454</v>
+        <v>0.017016149900566803</v>
       </c>
       <c r="C214" s="0">
-        <v>1.8886280225276577</v>
+        <v>1.28427006675866</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>0.13097831325301204</v>
+        <v>0.22048016064257028</v>
       </c>
       <c r="B215" s="0">
-        <v>0.020777808028380161</v>
+        <v>0.017263498514439944</v>
       </c>
       <c r="C215" s="0">
-        <v>1.9156266771217334</v>
+        <v>1.3218780110407005</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>0.13159036144578312</v>
+        <v>0.22151044176706825</v>
       </c>
       <c r="B216" s="0">
-        <v>0.020924747798997875</v>
+        <v>0.017510847128313085</v>
       </c>
       <c r="C216" s="0">
-        <v>1.9428169425794675</v>
+        <v>1.3600286839281322</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>0.1322024096385542</v>
+        <v>0.22254072289156626</v>
       </c>
       <c r="B217" s="0">
-        <v>0.021071687569615583</v>
+        <v>0.017758195742186234</v>
       </c>
       <c r="C217" s="0">
-        <v>1.9701988189008566</v>
+        <v>1.3987220854209552</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>0.13281445783132528</v>
+        <v>0.22357100401606425</v>
       </c>
       <c r="B218" s="0">
-        <v>0.02121862734023329</v>
+        <v>0.018005544356059375</v>
       </c>
       <c r="C218" s="0">
-        <v>1.9977723060859034</v>
+        <v>1.4379582155191686</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>0.13342650602409639</v>
+        <v>0.22460128514056224</v>
       </c>
       <c r="B219" s="0">
-        <v>0.021365567110851004</v>
+        <v>0.018252892969932523</v>
       </c>
       <c r="C219" s="0">
-        <v>2.0255374041346084</v>
+        <v>1.4777370742227736</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>0.13403855421686747</v>
+        <v>0.22563156626506023</v>
       </c>
       <c r="B220" s="0">
-        <v>0.021512506881468711</v>
+        <v>0.018500241583805664</v>
       </c>
       <c r="C220" s="0">
-        <v>2.0534941130469693</v>
+        <v>1.5180586615317679</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>0.13465060240963855</v>
+        <v>0.22666184738955825</v>
       </c>
       <c r="B221" s="0">
-        <v>0.021659446652086425</v>
+        <v>0.018747590197678819</v>
       </c>
       <c r="C221" s="0">
-        <v>2.0816424328229881</v>
+        <v>1.5589229774461557</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>0.13526265060240963</v>
+        <v>0.22769212851405621</v>
       </c>
       <c r="B222" s="0">
-        <v>0.021806386422704133</v>
+        <v>0.018994938811551954</v>
       </c>
       <c r="C222" s="0">
-        <v>2.1099823634626627</v>
+        <v>1.6003300219659304</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>0.13587469879518072</v>
+        <v>0.2287224096385542</v>
       </c>
       <c r="B223" s="0">
-        <v>0.02195332619332184</v>
+        <v>0.019242287425425095</v>
       </c>
       <c r="C223" s="0">
-        <v>2.1385139049659938</v>
+        <v>1.6422797950910977</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>0.1364867469879518</v>
+        <v>0.22975269076305219</v>
       </c>
       <c r="B224" s="0">
-        <v>0.022100265963939547</v>
+        <v>0.019489636039298243</v>
       </c>
       <c r="C224" s="0">
-        <v>2.1672370573329824</v>
+        <v>1.6847722968216561</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>0.13709879518072285</v>
+        <v>0.2307829718875502</v>
       </c>
       <c r="B225" s="0">
-        <v>0.022247205734557254</v>
+        <v>0.019736984653171391</v>
       </c>
       <c r="C225" s="0">
-        <v>2.1961518205636281</v>
+        <v>1.7278075271576059</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>0.13771084337349396</v>
+        <v>0.23181325301204819</v>
       </c>
       <c r="B226" s="0">
-        <v>0.022394145505174969</v>
+        <v>0.019984333267044532</v>
       </c>
       <c r="C226" s="0">
-        <v>2.2252581946579322</v>
+        <v>1.7713854860989453</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>0.13832289156626504</v>
+        <v>0.23284353413654618</v>
       </c>
       <c r="B227" s="0">
-        <v>0.022541085275792676</v>
+        <v>0.02023168188091768</v>
       </c>
       <c r="C227" s="0">
-        <v>2.2545561796158919</v>
+        <v>1.8155061736456761</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>0.13893493975903612</v>
+        <v>0.23387381526104417</v>
       </c>
       <c r="B228" s="0">
-        <v>0.022688025046410383</v>
+        <v>0.020479030494790822</v>
       </c>
       <c r="C228" s="0">
-        <v>2.2840457754375083</v>
+        <v>1.8601695897977972</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>0.1395469879518072</v>
+        <v>0.23490409638554216</v>
       </c>
       <c r="B229" s="0">
-        <v>0.02283496481702809</v>
+        <v>0.02072637910866397</v>
       </c>
       <c r="C229" s="0">
-        <v>2.3137269821227813</v>
+        <v>1.9053757345553095</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>0.14015903614457828</v>
+        <v>0.23593437751004015</v>
       </c>
       <c r="B230" s="0">
-        <v>0.022981904587645805</v>
+        <v>0.020973727722537111</v>
       </c>
       <c r="C230" s="0">
-        <v>2.3435997996717135</v>
+        <v>1.9511246079182121</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>0.14077108433734936</v>
+        <v>0.23696465863453814</v>
       </c>
       <c r="B231" s="0">
-        <v>0.023128844358263512</v>
+        <v>0.021221076336410252</v>
       </c>
       <c r="C231" s="0">
-        <v>2.373664228084301</v>
+        <v>1.9974162098865047</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>0.14138313253012044</v>
+        <v>0.23799493975903613</v>
       </c>
       <c r="B232" s="0">
-        <v>0.023275784128881219</v>
+        <v>0.021468424950283401</v>
       </c>
       <c r="C232" s="0">
-        <v>2.4039202673605455</v>
+        <v>2.0442505404601903</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>0.14199518072289152</v>
+        <v>0.23902522088353415</v>
       </c>
       <c r="B233" s="0">
-        <v>0.023422723899498926</v>
+        <v>0.021715773564156549</v>
       </c>
       <c r="C233" s="0">
-        <v>2.4343679175004471</v>
+        <v>2.0916275996392662</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>0.14260722891566263</v>
+        <v>0.24005550200803213</v>
       </c>
       <c r="B234" s="0">
-        <v>0.02356966367011664</v>
+        <v>0.02196312217802969</v>
       </c>
       <c r="C234" s="0">
-        <v>2.4650071785040071</v>
+        <v>2.1395473874237312</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>0.14321927710843371</v>
+        <v>0.2410857831325301</v>
       </c>
       <c r="B235" s="0">
-        <v>0.023716603440734355</v>
+        <v>0.022210470791902831</v>
       </c>
       <c r="C235" s="0">
-        <v>2.4958380503712241</v>
+        <v>2.1880099038135876</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>0.14383132530120479</v>
+        <v>0.24211606425702809</v>
       </c>
       <c r="B236" s="0">
-        <v>0.023863543211352062</v>
+        <v>0.022457819405775972</v>
       </c>
       <c r="C236" s="0">
-        <v>2.5268605331020959</v>
+        <v>2.2370151488088341</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>0.14444337349397587</v>
+        <v>0.2431463453815261</v>
       </c>
       <c r="B237" s="0">
-        <v>0.024010482981969769</v>
+        <v>0.02270516801964912</v>
       </c>
       <c r="C237" s="0">
-        <v>2.5580746266966252</v>
+        <v>2.2865631224094733</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>0.14505542168674695</v>
+        <v>0.24417662650602409</v>
       </c>
       <c r="B238" s="0">
-        <v>0.024157422752587476</v>
+        <v>0.022952516633522269</v>
       </c>
       <c r="C238" s="0">
-        <v>2.589480331154812</v>
+        <v>2.3366538246155035</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>0.14566746987951804</v>
+        <v>0.24520690763052208</v>
       </c>
       <c r="B239" s="0">
-        <v>0.024304362523205184</v>
+        <v>0.02319986524739541</v>
       </c>
       <c r="C239" s="0">
-        <v>2.6210776464766554</v>
+        <v>2.3872872554269224</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>0.14627951807228912</v>
+        <v>0.24623718875502007</v>
       </c>
       <c r="B240" s="0">
-        <v>0.024451302293822898</v>
+        <v>0.023447213861268558</v>
       </c>
       <c r="C240" s="0">
-        <v>2.6528665726621577</v>
+        <v>2.4384634148437341</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>0.14689156626506022</v>
+        <v>0.24726746987951806</v>
       </c>
       <c r="B241" s="0">
-        <v>0.024598242064440612</v>
+        <v>0.023694562475141699</v>
       </c>
       <c r="C241" s="0">
-        <v>2.6848471097113165</v>
+        <v>2.490182302865934</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>0.14750361445783131</v>
+        <v>0.24829775100401605</v>
       </c>
       <c r="B242" s="0">
-        <v>0.024745181835058319</v>
+        <v>0.02394191108901484</v>
       </c>
       <c r="C242" s="0">
-        <v>2.7170192576241301</v>
+        <v>2.5424439194935262</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>0.14811566265060239</v>
+        <v>0.24932803212851404</v>
       </c>
       <c r="B243" s="0">
-        <v>0.024892121605676026</v>
+        <v>0.024189259702887989</v>
       </c>
       <c r="C243" s="0">
-        <v>2.7493830164006017</v>
+        <v>2.5952482647265094</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>0.14872771084337347</v>
+        <v>0.25035831325301206</v>
       </c>
       <c r="B244" s="0">
-        <v>0.025039061376293734</v>
+        <v>0.024436608316761137</v>
       </c>
       <c r="C244" s="0">
-        <v>2.7819383860407303</v>
+        <v>2.6485953385648839</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>0.14933975903614455</v>
+        <v>0.25138859437751004</v>
       </c>
       <c r="B245" s="0">
-        <v>0.025186001146911448</v>
+        <v>0.024683956930634278</v>
       </c>
       <c r="C245" s="0">
-        <v>2.8146853665445173</v>
+        <v>2.7024851410086481</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>0.14995180722891563</v>
+        <v>0.25241887550200803</v>
       </c>
       <c r="B246" s="0">
-        <v>0.025332940917529155</v>
+        <v>0.024931305544507426</v>
       </c>
       <c r="C246" s="0">
-        <v>2.8476239579119596</v>
+        <v>2.7569176720578037</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>0.15056385542168671</v>
+        <v>0.25344915662650602</v>
       </c>
       <c r="B247" s="0">
-        <v>0.025479880688146862</v>
+        <v>0.025178654158380567</v>
       </c>
       <c r="C247" s="0">
-        <v>2.8807541601430589</v>
+        <v>2.8118929317123493</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>0.15117590361445782</v>
+        <v>0.25447943775100401</v>
       </c>
       <c r="B248" s="0">
-        <v>0.025626820458764576</v>
+        <v>0.025426002772253709</v>
       </c>
       <c r="C248" s="0">
-        <v>2.9140759732378161</v>
+        <v>2.867410919972285</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>0.1517879518072289</v>
+        <v>0.255509718875502</v>
       </c>
       <c r="B249" s="0">
-        <v>0.025773760229382291</v>
+        <v>0.025673351386126857</v>
       </c>
       <c r="C249" s="0">
-        <v>2.9475893971962313</v>
+        <v>2.9234716368376139</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>0.15239999999999998</v>
+        <v>0.25653999999999999</v>
       </c>
       <c r="B250" s="0">
         <v>0.025920699999999998</v>
       </c>
       <c r="C250" s="0">
-        <v>2.9812944320183017</v>
+        <v>2.9800750823083311</v>
       </c>
     </row>
   </sheetData>

--- a/REGEN/Contour_Maelstrom.xlsx
+++ b/REGEN/Contour_Maelstrom.xlsx
@@ -59,7 +59,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="true"/>
+    <col min="1" max="1" width="15.5546875" customWidth="true"/>
     <col min="2" max="2" width="13.5546875" customWidth="true"/>
     <col min="3" max="3" width="11.5546875" customWidth="true"/>
   </cols>
@@ -72,2746 +72,2746 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C1" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0010302811244979919</v>
+        <v>0.0008772690763052209</v>
       </c>
       <c r="B2" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C2" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0020605622489959837</v>
+        <v>0.0017545381526104418</v>
       </c>
       <c r="B3" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C3" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.003090843373493976</v>
+        <v>0.0026318072289156628</v>
       </c>
       <c r="B4" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C4" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0041211244979919674</v>
+        <v>0.0035090763052208836</v>
       </c>
       <c r="B5" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C5" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0051514056224899593</v>
+        <v>0.0043863453815261048</v>
       </c>
       <c r="B6" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C6" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.006181686746987952</v>
+        <v>0.0052636144578313256</v>
       </c>
       <c r="B7" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C7" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0072119678714859439</v>
+        <v>0.0061408835341365464</v>
       </c>
       <c r="B8" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C8" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0082422489959839348</v>
+        <v>0.0070181526104417672</v>
       </c>
       <c r="B9" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C9" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0092725301204819276</v>
+        <v>0.0078954216867469871</v>
       </c>
       <c r="B10" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C10" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.010302811244979919</v>
+        <v>0.0087726907630522096</v>
       </c>
       <c r="B11" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C11" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.01133309236947791</v>
+        <v>0.0096499598393574287</v>
       </c>
       <c r="B12" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C12" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.012363373493975904</v>
+        <v>0.010527228915662651</v>
       </c>
       <c r="B13" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C13" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.013393654618473897</v>
+        <v>0.01140449799196787</v>
       </c>
       <c r="B14" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C14" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.014423935742971888</v>
+        <v>0.012281767068273093</v>
       </c>
       <c r="B15" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C15" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.015454216867469879</v>
+        <v>0.013159036144578312</v>
       </c>
       <c r="B16" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C16" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.01648449799196787</v>
+        <v>0.014036305220883534</v>
       </c>
       <c r="B17" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C17" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.017514779116465862</v>
+        <v>0.014913574297188755</v>
       </c>
       <c r="B18" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C18" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.018545060240963855</v>
+        <v>0.015790843373493974</v>
       </c>
       <c r="B19" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C19" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.019575341365461844</v>
+        <v>0.016668112449799197</v>
       </c>
       <c r="B20" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C20" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.020605622489959837</v>
+        <v>0.017545381526104419</v>
       </c>
       <c r="B21" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C21" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.02163590361445783</v>
+        <v>0.018422650602409638</v>
       </c>
       <c r="B22" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C22" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.022666184738955819</v>
+        <v>0.019299919678714857</v>
       </c>
       <c r="B23" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C23" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.023696465863453812</v>
+        <v>0.02017718875502008</v>
       </c>
       <c r="B24" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C24" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.024726746987951808</v>
+        <v>0.021054457831325302</v>
       </c>
       <c r="B25" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C25" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.025757028112449801</v>
+        <v>0.021931726907630525</v>
       </c>
       <c r="B26" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C26" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.026787309236947793</v>
+        <v>0.022808995983935741</v>
       </c>
       <c r="B27" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C27" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.027817590361445783</v>
+        <v>0.023686265060240963</v>
       </c>
       <c r="B28" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C28" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.028847871485943776</v>
+        <v>0.024563534136546186</v>
       </c>
       <c r="B29" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C29" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.029878152610441768</v>
+        <v>0.025440803212851405</v>
       </c>
       <c r="B30" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C30" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.030908433734939757</v>
+        <v>0.026318072289156624</v>
       </c>
       <c r="B31" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C31" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.03193871485943775</v>
+        <v>0.027195341365461846</v>
       </c>
       <c r="B32" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C32" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.032968995983935739</v>
+        <v>0.028072610441767069</v>
       </c>
       <c r="B33" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C33" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.033999277108433729</v>
+        <v>0.028949879518072288</v>
       </c>
       <c r="B34" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C34" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.035029558232931725</v>
+        <v>0.02982714859437751</v>
       </c>
       <c r="B35" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C35" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.036059839357429714</v>
+        <v>0.030704417670682729</v>
       </c>
       <c r="B36" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C36" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.03709012048192771</v>
+        <v>0.031581686746987948</v>
       </c>
       <c r="B37" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C37" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.0381204016064257</v>
+        <v>0.032458955823293167</v>
       </c>
       <c r="B38" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C38" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.039150682730923689</v>
+        <v>0.033336224899598394</v>
       </c>
       <c r="B39" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C39" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.040180963855421685</v>
+        <v>0.034213493975903612</v>
       </c>
       <c r="B40" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C40" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.041211244979919674</v>
+        <v>0.035090763052208838</v>
       </c>
       <c r="B41" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C41" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.042241526104417664</v>
+        <v>0.035968032128514058</v>
       </c>
       <c r="B42" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C42" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.04327180722891566</v>
+        <v>0.036845301204819277</v>
       </c>
       <c r="B43" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C43" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.044302088353413649</v>
+        <v>0.037722570281124496</v>
       </c>
       <c r="B44" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C44" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.045332369477911638</v>
+        <v>0.038599839357429715</v>
       </c>
       <c r="B45" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C45" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.046362650602409634</v>
+        <v>0.039477108433734941</v>
       </c>
       <c r="B46" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C46" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.047392931726907624</v>
+        <v>0.04035437751004016</v>
       </c>
       <c r="B47" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C47" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.048423212851405627</v>
+        <v>0.041231646586345379</v>
       </c>
       <c r="B48" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C48" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.049453493975903616</v>
+        <v>0.042108915662650605</v>
       </c>
       <c r="B49" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C49" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.050483775100401605</v>
+        <v>0.042986184738955824</v>
       </c>
       <c r="B50" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C50" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.051514056224899602</v>
+        <v>0.04386345381526105</v>
       </c>
       <c r="B51" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C51" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.052544337349397591</v>
+        <v>0.044740722891566262</v>
       </c>
       <c r="B52" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C52" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.053574618473895587</v>
+        <v>0.045617991967871481</v>
       </c>
       <c r="B53" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C53" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.054604899598393576</v>
+        <v>0.046495261044176707</v>
       </c>
       <c r="B54" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C54" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.055635180722891565</v>
+        <v>0.047372530120481926</v>
       </c>
       <c r="B55" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C55" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.056665461847389562</v>
+        <v>0.048249799196787145</v>
       </c>
       <c r="B56" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C56" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.057695742971887551</v>
+        <v>0.049127068273092371</v>
       </c>
       <c r="B57" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C57" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.05872602409638554</v>
+        <v>0.05000433734939759</v>
       </c>
       <c r="B58" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C58" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.059756305220883536</v>
+        <v>0.050881606425702809</v>
       </c>
       <c r="B59" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C59" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.060786586345381526</v>
+        <v>0.051758875502008028</v>
       </c>
       <c r="B60" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C60" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.061816867469879515</v>
+        <v>0.052636144578313247</v>
       </c>
       <c r="B61" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C61" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.062847148594377511</v>
+        <v>0.053513413654618473</v>
       </c>
       <c r="B62" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C62" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.0638774297188755</v>
+        <v>0.054390682730923692</v>
       </c>
       <c r="B63" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C63" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.06490771084337349</v>
+        <v>0.055267951807228918</v>
       </c>
       <c r="B64" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C64" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.065937991967871479</v>
+        <v>0.056145220883534137</v>
       </c>
       <c r="B65" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C65" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.066968273092369482</v>
+        <v>0.057022489959839356</v>
       </c>
       <c r="B66" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C66" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.067998554216867457</v>
+        <v>0.057899759036144576</v>
       </c>
       <c r="B67" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C67" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.06902883534136546</v>
+        <v>0.058777028112449795</v>
       </c>
       <c r="B68" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C68" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.07005911646586345</v>
+        <v>0.059654297188755021</v>
       </c>
       <c r="B69" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C69" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.071089397590361439</v>
+        <v>0.06053156626506024</v>
       </c>
       <c r="B70" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C70" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.072119678714859428</v>
+        <v>0.061408835341365459</v>
       </c>
       <c r="B71" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C71" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.073149959839357431</v>
+        <v>0.062286104417670685</v>
       </c>
       <c r="B72" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C72" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.074180240963855421</v>
+        <v>0.063163373493975897</v>
       </c>
       <c r="B73" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C73" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.07521052208835341</v>
+        <v>0.064040642570281123</v>
       </c>
       <c r="B74" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C74" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.076240803212851399</v>
+        <v>0.064917911646586335</v>
       </c>
       <c r="B75" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C75" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0.077271084337349402</v>
+        <v>0.065795180722891561</v>
       </c>
       <c r="B76" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C76" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.078301365461847378</v>
+        <v>0.066672449799196787</v>
       </c>
       <c r="B77" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C77" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0.079331646586345381</v>
+        <v>0.067549718875502013</v>
       </c>
       <c r="B78" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C78" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.08036192771084337</v>
+        <v>0.068426987951807225</v>
       </c>
       <c r="B79" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C79" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.081392208835341359</v>
+        <v>0.069304257028112451</v>
       </c>
       <c r="B80" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C80" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.082422489959839348</v>
+        <v>0.070181526104417677</v>
       </c>
       <c r="B81" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C81" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.083452771084337352</v>
+        <v>0.071058795180722889</v>
       </c>
       <c r="B82" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C82" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0.084483052208835327</v>
+        <v>0.071936064257028115</v>
       </c>
       <c r="B83" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C83" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>0.08551333333333333</v>
+        <v>0.072813333333333341</v>
       </c>
       <c r="B84" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C84" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0.086543614457831319</v>
+        <v>0.073690602409638553</v>
       </c>
       <c r="B85" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C85" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>0.087573895582329309</v>
+        <v>0.074567871485943765</v>
       </c>
       <c r="B86" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C86" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0.088604176706827298</v>
+        <v>0.075445140562248991</v>
       </c>
       <c r="B87" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C87" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.089634457831325301</v>
+        <v>0.076322409638554203</v>
       </c>
       <c r="B88" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C88" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.090664738955823276</v>
+        <v>0.077199678714859429</v>
       </c>
       <c r="B89" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C89" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0.09169502008032128</v>
+        <v>0.078076947791164655</v>
       </c>
       <c r="B90" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C90" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.092725301204819269</v>
+        <v>0.078954216867469881</v>
       </c>
       <c r="B91" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C91" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>0.093755582329317272</v>
+        <v>0.079831485943775093</v>
       </c>
       <c r="B92" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C92" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0.094785863453815247</v>
+        <v>0.08070875502008032</v>
       </c>
       <c r="B93" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C93" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.09581614457831325</v>
+        <v>0.081586024096385546</v>
       </c>
       <c r="B94" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C94" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0.096846425702811254</v>
+        <v>0.082463293172690758</v>
       </c>
       <c r="B95" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C95" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.097876706827309229</v>
+        <v>0.083340562248995984</v>
       </c>
       <c r="B96" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C96" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.098906987951807232</v>
+        <v>0.08421783132530121</v>
       </c>
       <c r="B97" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C97" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0.099937269076305221</v>
+        <v>0.085095100401606422</v>
       </c>
       <c r="B98" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C98" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0.10096755020080321</v>
+        <v>0.085972369477911648</v>
       </c>
       <c r="B99" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C99" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.1019978313253012</v>
+        <v>0.086849638554216874</v>
       </c>
       <c r="B100" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C100" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.1030281124497992</v>
+        <v>0.0877269076305221</v>
       </c>
       <c r="B101" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C101" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0.10405839357429718</v>
+        <v>0.088604176706827298</v>
       </c>
       <c r="B102" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C102" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>0.10508867469879518</v>
+        <v>0.089481445783132524</v>
       </c>
       <c r="B103" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C103" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0.10611895582329317</v>
+        <v>0.09035871485943775</v>
       </c>
       <c r="B104" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C104" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>0.10714923694779117</v>
+        <v>0.091235983935742962</v>
       </c>
       <c r="B105" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C105" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0.10817951807228915</v>
+        <v>0.092113253012048188</v>
       </c>
       <c r="B106" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C106" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0.10920979919678715</v>
+        <v>0.092990522088353414</v>
       </c>
       <c r="B107" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C107" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0.11024008032128514</v>
+        <v>0.093867791164658626</v>
       </c>
       <c r="B108" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C108" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>0.11127036144578313</v>
+        <v>0.094745060240963852</v>
       </c>
       <c r="B109" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C109" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>0.11230064257028112</v>
+        <v>0.095622329317269078</v>
       </c>
       <c r="B110" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C110" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0.11333092369477912</v>
+        <v>0.09649959839357429</v>
       </c>
       <c r="B111" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C111" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>0.1143612048192771</v>
+        <v>0.097376867469879516</v>
       </c>
       <c r="B112" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C112" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>0.1153914859437751</v>
+        <v>0.098254136546184742</v>
       </c>
       <c r="B113" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C113" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>0.11642176706827309</v>
+        <v>0.099131405622489968</v>
       </c>
       <c r="B114" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C114" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0.11745204819277108</v>
+        <v>0.10000867469879518</v>
       </c>
       <c r="B115" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C115" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>0.11848232931726907</v>
+        <v>0.10088594377510041</v>
       </c>
       <c r="B116" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C116" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>0.11951261044176707</v>
+        <v>0.10176321285140562</v>
       </c>
       <c r="B117" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C117" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>0.12054289156626505</v>
+        <v>0.10264048192771083</v>
       </c>
       <c r="B118" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C118" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>0.12157317269076305</v>
+        <v>0.10351775100401606</v>
       </c>
       <c r="B119" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C119" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>0.12260345381526104</v>
+        <v>0.10439502008032128</v>
       </c>
       <c r="B120" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C120" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>0.12363373493975903</v>
+        <v>0.10527228915662649</v>
       </c>
       <c r="B121" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C121" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>0.12466401606425702</v>
+        <v>0.10614955823293172</v>
       </c>
       <c r="B122" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C122" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0.12569429718875502</v>
+        <v>0.10702682730923695</v>
       </c>
       <c r="B123" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C123" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0.12672457831325301</v>
+        <v>0.10790409638554217</v>
       </c>
       <c r="B124" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C124" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0.127754859437751</v>
+        <v>0.10878136546184738</v>
       </c>
       <c r="B125" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C125" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>0.12878514056224899</v>
+        <v>0.10965863453815261</v>
       </c>
       <c r="B126" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C126" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0.12981542168674698</v>
+        <v>0.11053590361445784</v>
       </c>
       <c r="B127" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C127" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0.13084570281124497</v>
+        <v>0.11141317269076305</v>
       </c>
       <c r="B128" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C128" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0.13187598393574296</v>
+        <v>0.11229044176706827</v>
       </c>
       <c r="B129" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C129" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>0.13290626506024098</v>
+        <v>0.1131677108433735</v>
       </c>
       <c r="B130" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C130" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0.13393654618473896</v>
+        <v>0.11404497991967871</v>
       </c>
       <c r="B131" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C131" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>0.13496682730923695</v>
+        <v>0.11492224899598394</v>
       </c>
       <c r="B132" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C132" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>0.13599710843373491</v>
+        <v>0.11579951807228915</v>
       </c>
       <c r="B133" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C133" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>0.13702738955823293</v>
+        <v>0.11667678714859436</v>
       </c>
       <c r="B134" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C134" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>0.13805767068273092</v>
+        <v>0.11755405622489959</v>
       </c>
       <c r="B135" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C135" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>0.13908795180722891</v>
+        <v>0.11843132530120482</v>
       </c>
       <c r="B136" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C136" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>0.1401182329317269</v>
+        <v>0.11930859437751004</v>
       </c>
       <c r="B137" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C137" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>0.14114851405622492</v>
+        <v>0.12018586345381525</v>
       </c>
       <c r="B138" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C138" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>0.14217879518072288</v>
+        <v>0.12106313253012048</v>
       </c>
       <c r="B139" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C139" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>0.14320907630522087</v>
+        <v>0.12194040160642571</v>
       </c>
       <c r="B140" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C140" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>0.14423935742971886</v>
+        <v>0.12281767068273092</v>
       </c>
       <c r="B141" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C141" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>0.14526963855421687</v>
+        <v>0.12369493975903614</v>
       </c>
       <c r="B142" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C142" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>0.14629991967871486</v>
+        <v>0.12457220883534137</v>
       </c>
       <c r="B143" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C143" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>0.14733020080321285</v>
+        <v>0.12544947791164657</v>
       </c>
       <c r="B144" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C144" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>0.14836048192771084</v>
+        <v>0.12632674698795179</v>
       </c>
       <c r="B145" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C145" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>0.14939076305220883</v>
+        <v>0.12720401606425702</v>
       </c>
       <c r="B146" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C146" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>0.15042104417670682</v>
+        <v>0.12808128514056225</v>
       </c>
       <c r="B147" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C147" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>0.15145132530120481</v>
+        <v>0.12895855421686747</v>
       </c>
       <c r="B148" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C148" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>0.1524816064257028</v>
+        <v>0.12983582329317267</v>
       </c>
       <c r="B149" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C149" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>0.15351188755020082</v>
+        <v>0.1307130923694779</v>
       </c>
       <c r="B150" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C150" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>0.15454216867469881</v>
+        <v>0.13159036144578312</v>
       </c>
       <c r="B151" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C151" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>0.15557244979919677</v>
+        <v>0.13246763052208835</v>
       </c>
       <c r="B152" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.043179177500336327</v>
       </c>
       <c r="C152" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3477651779388937</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>0.15660273092369476</v>
+        <v>0.13334489959839357</v>
       </c>
       <c r="B153" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.043138827483513054</v>
       </c>
       <c r="C153" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.3340389359190654</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>0.15763301204819277</v>
+        <v>0.1342221686746988</v>
       </c>
       <c r="B154" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.043037209692649056</v>
       </c>
       <c r="C154" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.2995275177448633</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>0.15866329317269076</v>
+        <v>0.13509943775100403</v>
       </c>
       <c r="B155" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042872817081216472</v>
       </c>
       <c r="C155" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.2438688654090022</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>0.15969357429718875</v>
+        <v>0.13597670682730922</v>
       </c>
       <c r="B156" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.04264310458260305</v>
       </c>
       <c r="C156" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.1664515434123128</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>0.16072385542168674</v>
+        <v>0.13685397590361445</v>
       </c>
       <c r="B157" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042344278692853808</v>
       </c>
       <c r="C157" s="0">
-        <v>8.2698766303719147</v>
+        <v>7.0663641874026189</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>0.16175413654618473</v>
+        <v>0.13773124497991968</v>
       </c>
       <c r="B158" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.041970948727219508</v>
       </c>
       <c r="C158" s="0">
-        <v>8.2698766303719147</v>
+        <v>6.9423117208563223</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>0.16278441767068272</v>
+        <v>0.1386085140562249</v>
       </c>
       <c r="B159" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.041515555914270363</v>
       </c>
       <c r="C159" s="0">
-        <v>8.2698766303719147</v>
+        <v>6.7924781986975518</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>0.16381469879518071</v>
+        <v>0.13948578313253013</v>
       </c>
       <c r="B160" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.040967415504208113</v>
       </c>
       <c r="C160" s="0">
-        <v>8.2698766303719147</v>
+        <v>6.614296680126035</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>0.1648449799196787</v>
+        <v>0.14036305220883535</v>
       </c>
       <c r="B161" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.040311025964482994</v>
       </c>
       <c r="C161" s="0">
-        <v>8.2698766303719147</v>
+        <v>6.4040430239947961</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>0.16587526104417671</v>
+        <v>0.14124032128514055</v>
       </c>
       <c r="B162" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.039522845625481542</v>
       </c>
       <c r="C162" s="0">
-        <v>8.2698766303719147</v>
+        <v>6.1560614991563316</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>0.1669055421686747</v>
+        <v>0.14211759036144578</v>
       </c>
       <c r="B163" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.038646015850478291</v>
       </c>
       <c r="C163" s="0">
-        <v>8.2698766303719147</v>
+        <v>5.8859422006254709</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>0.16793582329317269</v>
+        <v>0.14299485943775101</v>
       </c>
       <c r="B164" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.037768746774173065</v>
       </c>
       <c r="C164" s="0">
-        <v>8.2698766303719147</v>
+        <v>5.6217520473418068</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>0.16896610441767065</v>
+        <v>0.14387212851405623</v>
       </c>
       <c r="B165" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.036891477697867839</v>
       </c>
       <c r="C165" s="0">
-        <v>8.2698766303719147</v>
+        <v>5.3636278908310029</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>0.16999638554216867</v>
+        <v>0.14474939759036146</v>
       </c>
       <c r="B166" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.036014208621562613</v>
       </c>
       <c r="C166" s="0">
-        <v>8.2698766303719147</v>
+        <v>5.1115697310930637</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>0.17102666666666666</v>
+        <v>0.14562666666666668</v>
       </c>
       <c r="B167" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.035136939545257387</v>
       </c>
       <c r="C167" s="0">
-        <v>8.2698766303719147</v>
+        <v>4.8655775681279847</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>0.17205694779116465</v>
+        <v>0.14650393574297191</v>
       </c>
       <c r="B168" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.034259670468952168</v>
       </c>
       <c r="C168" s="0">
-        <v>8.2698766303719147</v>
+        <v>4.6256514019357731</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>0.17308722891566264</v>
+        <v>0.14738120481927711</v>
       </c>
       <c r="B169" s="0">
-        <v>0.043152994721393292</v>
+        <v>0.03338240139264697</v>
       </c>
       <c r="C169" s="0">
-        <v>8.2595357093091852</v>
+        <v>4.391791232516427</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>0.17411751004016066</v>
+        <v>0.14825847389558233</v>
       </c>
       <c r="B170" s="0">
-        <v>0.043043345190890973</v>
+        <v>0.032505132316341744</v>
       </c>
       <c r="C170" s="0">
-        <v>8.2176149291526137</v>
+        <v>4.1639970598699376</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>0.17514779116465862</v>
+        <v>0.14913574297188753</v>
       </c>
       <c r="B171" s="0">
-        <v>0.042847195768302163</v>
+        <v>0.031627863240036545</v>
       </c>
       <c r="C171" s="0">
-        <v>8.142889894194985</v>
+        <v>3.9422688839963169</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>0.17617807228915661</v>
+        <v>0.15001301204819276</v>
       </c>
       <c r="B172" s="0">
-        <v>0.042560333669503701</v>
+        <v>0.030750594163731319</v>
       </c>
       <c r="C172" s="0">
-        <v>8.0342215409820135</v>
+        <v>3.7266067048955516</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>0.1772083534136546</v>
+        <v>0.15089028112449798</v>
       </c>
       <c r="B173" s="0">
-        <v>0.042176086250134477</v>
+        <v>0.029873325087426093</v>
       </c>
       <c r="C173" s="0">
-        <v>7.8898057026936126</v>
+        <v>3.5170105225676491</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>0.17823863453815261</v>
+        <v>0.15176755020080321</v>
       </c>
       <c r="B174" s="0">
-        <v>0.04168443872684531</v>
+        <v>0.028996056011120867</v>
       </c>
       <c r="C174" s="0">
-        <v>7.7069345563362033</v>
+        <v>3.3134803370126091</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>0.1792689156626506</v>
+        <v>0.15264481927710841</v>
       </c>
       <c r="B175" s="0">
-        <v>0.041070443919198271</v>
+        <v>0.028118786934815669</v>
       </c>
       <c r="C175" s="0">
-        <v>7.4815666446492859</v>
+        <v>3.1160161482304378</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>0.18029919678714859</v>
+        <v>0.15352208835341363</v>
       </c>
       <c r="B176" s="0">
-        <v>0.040311205380661248</v>
+        <v>0.027241517858510443</v>
       </c>
       <c r="C176" s="0">
-        <v>7.2075111672701251</v>
+        <v>2.9246179562211232</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>0.18132947791164655</v>
+        <v>0.15439935742971886</v>
       </c>
       <c r="B177" s="0">
-        <v>0.039370492268445217</v>
+        <v>0.026364248782205217</v>
       </c>
       <c r="C177" s="0">
-        <v>6.8750434123949447</v>
+        <v>2.7392857609846706</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>0.18235975903614457</v>
+        <v>0.15527662650602409</v>
       </c>
       <c r="B178" s="0">
-        <v>0.0383402111439472</v>
+        <v>0.025486979705899991</v>
       </c>
       <c r="C178" s="0">
-        <v>6.5199273322496509</v>
+        <v>2.5600195625210809</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>0.18339004016064256</v>
+        <v>0.15615389558232931</v>
       </c>
       <c r="B179" s="0">
-        <v>0.037309930019449211</v>
+        <v>0.024609710629594765</v>
       </c>
       <c r="C179" s="0">
-        <v>6.1742274426241668</v>
+        <v>2.3868193608303532</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>0.18442032128514055</v>
+        <v>0.15703116465863454</v>
       </c>
       <c r="B180" s="0">
-        <v>0.036279648894951222</v>
+        <v>0.023732441553289539</v>
       </c>
       <c r="C180" s="0">
-        <v>5.8379437435184833</v>
+        <v>2.2196851559124884</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>0.18545060240963854</v>
+        <v>0.15790843373493976</v>
       </c>
       <c r="B181" s="0">
-        <v>0.035249367770453233</v>
+        <v>0.022855172476984313</v>
       </c>
       <c r="C181" s="0">
-        <v>5.5110762349326006</v>
+        <v>2.0586169477674861</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>0.18648088353413655</v>
+        <v>0.15878570281124496</v>
       </c>
       <c r="B182" s="0">
-        <v>0.034219086645955216</v>
+        <v>0.021977903400679115</v>
       </c>
       <c r="C182" s="0">
-        <v>5.1936249168665105</v>
+        <v>1.9036147363953513</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>0.18751116465863454</v>
+        <v>0.15966297188755019</v>
       </c>
       <c r="B183" s="0">
-        <v>0.033188805521457233</v>
+        <v>0.021100634324373889</v>
       </c>
       <c r="C183" s="0">
-        <v>4.8855897893202309</v>
+        <v>1.7546785217960745</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>0.18854144578313251</v>
+        <v>0.16054024096385541</v>
       </c>
       <c r="B184" s="0">
-        <v>0.032158524396959272</v>
+        <v>0.020223365248068663</v>
       </c>
       <c r="C184" s="0">
-        <v>4.5869708522937573</v>
+        <v>1.6118083039696598</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>0.1895717269076305</v>
+        <v>0.16141751004016064</v>
       </c>
       <c r="B185" s="0">
-        <v>0.031128243272461283</v>
+        <v>0.019346096171763437</v>
       </c>
       <c r="C185" s="0">
-        <v>4.2977681057870774</v>
+        <v>1.4750040829161075</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>0.19060200803212851</v>
+        <v>0.16229477911646586</v>
       </c>
       <c r="B186" s="0">
-        <v>0.030097962147963266</v>
+        <v>0.018493455175667396</v>
       </c>
       <c r="C186" s="0">
-        <v>4.0179815498001901</v>
+        <v>1.3478533914019819</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>0.1916322891566265</v>
+        <v>0.16317204819277109</v>
       </c>
       <c r="B187" s="0">
-        <v>0.029067681023465276</v>
+        <v>0.017796062217276289</v>
       </c>
       <c r="C187" s="0">
-        <v>3.7476111843331097</v>
+        <v>1.2481143273854132</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>0.19266257028112449</v>
+        <v>0.16404931726907632</v>
       </c>
       <c r="B188" s="0">
-        <v>0.028037399898967287</v>
+        <v>0.017239523776832362</v>
       </c>
       <c r="C188" s="0">
-        <v>3.4866570093858313</v>
+        <v>1.1712701280009714</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>0.19369285140562251</v>
+        <v>0.16492658634538152</v>
       </c>
       <c r="B189" s="0">
-        <v>0.02700711877446927</v>
+        <v>0.016798483301277912</v>
       </c>
       <c r="C189" s="0">
-        <v>3.235119024958347</v>
+        <v>1.1121072748644763</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>0.19472313253012047</v>
+        <v>0.16580385542168674</v>
       </c>
       <c r="B190" s="0">
-        <v>0.025976837649971309</v>
+        <v>0.016457056684091087</v>
       </c>
       <c r="C190" s="0">
-        <v>2.9929972310506758</v>
+        <v>1.0673598634509929</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>0.19575341365461846</v>
+        <v>0.16668112449799197</v>
       </c>
       <c r="B191" s="0">
-        <v>0.024946556525473319</v>
+        <v>0.016204912278723324</v>
       </c>
       <c r="C191" s="0">
-        <v>2.7602916276627991</v>
+        <v>1.0349036212264258</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>0.19678369477911645</v>
+        <v>0.16755839357429719</v>
       </c>
       <c r="B192" s="0">
-        <v>0.02391627540097533</v>
+        <v>0.01603532814974297</v>
       </c>
       <c r="C192" s="0">
-        <v>2.5370022147947235</v>
+        <v>1.0133564623106308</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>0.19781397590361446</v>
+        <v>0.16843566265060242</v>
       </c>
       <c r="B193" s="0">
-        <v>0.022885994276477313</v>
+        <v>0.015944161838408015</v>
       </c>
       <c r="C193" s="0">
-        <v>2.323128992446442</v>
+        <v>1.0018666627031871</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>0.19884425702811245</v>
+        <v>0.16931293172690765</v>
       </c>
       <c r="B194" s="0">
-        <v>0.021855713151979324</v>
+        <v>0.015929301453550742</v>
       </c>
       <c r="C194" s="0">
-        <v>2.1186719606179669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>0.19987453815261044</v>
+        <v>0.17019020080321284</v>
       </c>
       <c r="B195" s="0">
-        <v>0.020825432027481335</v>
+        <v>0.015990410023237825</v>
       </c>
       <c r="C195" s="0">
-        <v>1.923631119309293</v>
+        <v>1.0076871899665227</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>0.20090481927710843</v>
+        <v>0.17106746987951807</v>
       </c>
       <c r="B196" s="0">
-        <v>0.019795150902983345</v>
+        <v>0.01612888618208877</v>
       </c>
       <c r="C196" s="0">
-        <v>1.7380064685204193</v>
+        <v>1.0252158035231778</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>0.20193510040160642</v>
+        <v>0.1719447389558233</v>
       </c>
       <c r="B197" s="0">
-        <v>0.018764869778485356</v>
+        <v>0.016332975425408</v>
       </c>
       <c r="C197" s="0">
-        <v>1.5617980082513461</v>
+        <v>1.0513253949065233</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>0.20296538152610441</v>
+        <v>0.17282200803212852</v>
       </c>
       <c r="B198" s="0">
-        <v>0.017743173902211196</v>
+        <v>0.016543589096626718</v>
       </c>
       <c r="C198" s="0">
-        <v>1.3963566995708408</v>
+        <v>1.0786138861908896</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>0.2039956626506024</v>
+        <v>0.17369927710843375</v>
       </c>
       <c r="B199" s="0">
-        <v>0.016900967493117456</v>
+        <v>0.016754202767845436</v>
       </c>
       <c r="C199" s="0">
-        <v>1.266942449719449</v>
+        <v>1.1062520082481162</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>0.20502594377510039</v>
+        <v>0.17457654618473897</v>
       </c>
       <c r="B200" s="0">
-        <v>0.016255200902237851</v>
+        <v>0.016964816439064154</v>
       </c>
       <c r="C200" s="0">
-        <v>1.1719752429903643</v>
+        <v>1.1342397610782034</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>0.20605622489959841</v>
+        <v>0.1754538152610442</v>
       </c>
       <c r="B201" s="0">
-        <v>0.015765327468917956</v>
+        <v>0.017175430110282872</v>
       </c>
       <c r="C201" s="0">
-        <v>1.1024013770035861</v>
+        <v>1.1625771446811515</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>0.2070865060240964</v>
+        <v>0.17633108433734937</v>
       </c>
       <c r="B202" s="0">
-        <v>0.015407853708921953</v>
+        <v>0.017386043781501576</v>
       </c>
       <c r="C202" s="0">
-        <v>1.052974969343464</v>
+        <v>1.1912641590569579</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>0.20811678714859436</v>
+        <v>0.1772083534136546</v>
       </c>
       <c r="B203" s="0">
-        <v>0.015168574723855376</v>
+        <v>0.017596657452720294</v>
       </c>
       <c r="C203" s="0">
-        <v>1.020524194751741</v>
+        <v>1.2203008042056269</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>0.20914706827309235</v>
+        <v>0.17808562248995982</v>
       </c>
       <c r="B204" s="0">
-        <v>0.015039113365624808</v>
+        <v>0.017807271123939011</v>
       </c>
       <c r="C204" s="0">
-        <v>1.0031785118716996</v>
+        <v>1.2496870801271571</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>0.21017734939759036</v>
+        <v>0.17896289156626505</v>
       </c>
       <c r="B205" s="0">
-        <v>0.015015269192147789</v>
+        <v>0.018017884795157729</v>
       </c>
       <c r="C205" s="0">
-        <v>1</v>
+        <v>1.2794229868215472</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>0.21120763052208835</v>
+        <v>0.17984016064257027</v>
       </c>
       <c r="B206" s="0">
-        <v>0.015096292301306265</v>
+        <v>0.018228498466376447</v>
       </c>
       <c r="C206" s="0">
-        <v>1.0108212127802367</v>
+        <v>1.3095085242887981</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>0.21223791164658634</v>
+        <v>0.1807174297188755</v>
       </c>
       <c r="B207" s="0">
-        <v>0.015284760585954545</v>
+        <v>0.018439112137595165</v>
       </c>
       <c r="C207" s="0">
-        <v>1.0362177703570472</v>
+        <v>1.3399436925289099</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>0.21326819277108433</v>
+        <v>0.1815946987951807</v>
       </c>
       <c r="B208" s="0">
-        <v>0.015532058217327935</v>
+        <v>0.018649725808813876</v>
       </c>
       <c r="C208" s="0">
-        <v>1.0700197017796182</v>
+        <v>1.3707284915418809</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>0.21429847389558235</v>
+        <v>0.18247196787148592</v>
       </c>
       <c r="B209" s="0">
-        <v>0.015779406831201083</v>
+        <v>0.018860339480032594</v>
       </c>
       <c r="C209" s="0">
-        <v>1.1043712744293157</v>
+        <v>1.4018629213277134</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>0.21532875502008031</v>
+        <v>0.18334923694779115</v>
       </c>
       <c r="B210" s="0">
-        <v>0.016026755445074224</v>
+        <v>0.019070953151251312</v>
       </c>
       <c r="C210" s="0">
-        <v>1.1392655756844024</v>
+        <v>1.4333469818864071</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>0.2163590361445783</v>
+        <v>0.18422650602409638</v>
       </c>
       <c r="B211" s="0">
-        <v>0.016274104058947365</v>
+        <v>0.019281566822470037</v>
       </c>
       <c r="C211" s="0">
-        <v>1.1747026055448802</v>
+        <v>1.465180673217962</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>0.21738931726907629</v>
+        <v>0.1851037751004016</v>
       </c>
       <c r="B212" s="0">
-        <v>0.016521452672820507</v>
+        <v>0.019492180493688754</v>
       </c>
       <c r="C212" s="0">
-        <v>1.2106823640107483</v>
+        <v>1.4973639953223763</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>0.2184195983935743</v>
+        <v>0.18598104417670683</v>
       </c>
       <c r="B213" s="0">
-        <v>0.016768801286693662</v>
+        <v>0.019702794164907472</v>
       </c>
       <c r="C213" s="0">
-        <v>1.2472048510820097</v>
+        <v>1.5298969481996521</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>0.21944987951807229</v>
+        <v>0.18685831325301205</v>
       </c>
       <c r="B214" s="0">
-        <v>0.017016149900566803</v>
+        <v>0.01991340783612619</v>
       </c>
       <c r="C214" s="0">
-        <v>1.28427006675866</v>
+        <v>1.5627795318497877</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>0.22048016064257028</v>
+        <v>0.18773558232931725</v>
       </c>
       <c r="B215" s="0">
-        <v>0.017263498514439944</v>
+        <v>0.020124021507344901</v>
       </c>
       <c r="C215" s="0">
-        <v>1.3218780110407005</v>
+        <v>1.5960117462727827</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>0.22151044176706825</v>
+        <v>0.18861285140562248</v>
       </c>
       <c r="B216" s="0">
-        <v>0.017510847128313085</v>
+        <v>0.020334635178563619</v>
       </c>
       <c r="C216" s="0">
-        <v>1.3600286839281322</v>
+        <v>1.6295935914686401</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>0.22254072289156626</v>
+        <v>0.18949012048192771</v>
       </c>
       <c r="B217" s="0">
-        <v>0.017758195742186234</v>
+        <v>0.020545248849782337</v>
       </c>
       <c r="C217" s="0">
-        <v>1.3987220854209552</v>
+        <v>1.6635250674373576</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>0.22357100401606425</v>
+        <v>0.19036738955823293</v>
       </c>
       <c r="B218" s="0">
-        <v>0.018005544356059375</v>
+        <v>0.020755862521001055</v>
       </c>
       <c r="C218" s="0">
-        <v>1.4379582155191686</v>
+        <v>1.6978061741789357</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>0.22460128514056224</v>
+        <v>0.19124465863453816</v>
       </c>
       <c r="B219" s="0">
-        <v>0.018252892969932523</v>
+        <v>0.020966476192219773</v>
       </c>
       <c r="C219" s="0">
-        <v>1.4777370742227736</v>
+        <v>1.7324369116933749</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>0.22563156626506023</v>
+        <v>0.19212192771084338</v>
       </c>
       <c r="B220" s="0">
-        <v>0.018500241583805664</v>
+        <v>0.02117708986343849</v>
       </c>
       <c r="C220" s="0">
-        <v>1.5180586615317679</v>
+        <v>1.767417279980674</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>0.22666184738955825</v>
+        <v>0.19299919678714858</v>
       </c>
       <c r="B221" s="0">
-        <v>0.018747590197678819</v>
+        <v>0.021387703534657201</v>
       </c>
       <c r="C221" s="0">
-        <v>1.5589229774461557</v>
+        <v>1.8027472790408328</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>0.22769212851405621</v>
+        <v>0.19387646586345381</v>
       </c>
       <c r="B222" s="0">
-        <v>0.018994938811551954</v>
+        <v>0.021598317205875919</v>
       </c>
       <c r="C222" s="0">
-        <v>1.6003300219659304</v>
+        <v>1.8384269088738538</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>0.2287224096385542</v>
+        <v>0.19475373493975903</v>
       </c>
       <c r="B223" s="0">
-        <v>0.019242287425425095</v>
+        <v>0.021808930877094637</v>
       </c>
       <c r="C223" s="0">
-        <v>1.6422797950910977</v>
+        <v>1.8744561694797348</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>0.22975269076305219</v>
+        <v>0.19563100401606426</v>
       </c>
       <c r="B224" s="0">
-        <v>0.019489636039298243</v>
+        <v>0.022019544548313355</v>
       </c>
       <c r="C224" s="0">
-        <v>1.6847722968216561</v>
+        <v>1.9108350608584765</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>0.2307829718875502</v>
+        <v>0.19650827309236948</v>
       </c>
       <c r="B225" s="0">
-        <v>0.019736984653171391</v>
+        <v>0.022230158219532073</v>
       </c>
       <c r="C225" s="0">
-        <v>1.7278075271576059</v>
+        <v>1.9475635830100795</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>0.23181325301204819</v>
+        <v>0.19738554216867471</v>
       </c>
       <c r="B226" s="0">
-        <v>0.019984333267044532</v>
+        <v>0.022440771890750791</v>
       </c>
       <c r="C226" s="0">
-        <v>1.7713854860989453</v>
+        <v>1.9846417359345423</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>0.23284353413654618</v>
+        <v>0.19826281124497994</v>
       </c>
       <c r="B227" s="0">
-        <v>0.02023168188091768</v>
+        <v>0.022651385561969516</v>
       </c>
       <c r="C227" s="0">
-        <v>1.8155061736456761</v>
+        <v>2.022069519631867</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>0.23387381526104417</v>
+        <v>0.19914008032128513</v>
       </c>
       <c r="B228" s="0">
-        <v>0.020479030494790822</v>
+        <v>0.022861999233188227</v>
       </c>
       <c r="C228" s="0">
-        <v>1.8601695897977972</v>
+        <v>2.0598469341020507</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>0.23490409638554216</v>
+        <v>0.20001734939759036</v>
       </c>
       <c r="B229" s="0">
-        <v>0.02072637910866397</v>
+        <v>0.023072612904406944</v>
       </c>
       <c r="C229" s="0">
-        <v>1.9053757345553095</v>
+        <v>2.0979739793450953</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>0.23593437751004015</v>
+        <v>0.20089461847389559</v>
       </c>
       <c r="B230" s="0">
-        <v>0.020973727722537111</v>
+        <v>0.023283226575625662</v>
       </c>
       <c r="C230" s="0">
-        <v>1.9511246079182121</v>
+        <v>2.1364506553610005</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>0.23696465863453814</v>
+        <v>0.20177188755020081</v>
       </c>
       <c r="B231" s="0">
-        <v>0.021221076336410252</v>
+        <v>0.02349384024684438</v>
       </c>
       <c r="C231" s="0">
-        <v>1.9974162098865047</v>
+        <v>2.1752769621497672</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>0.23799493975903613</v>
+        <v>0.20264915662650604</v>
       </c>
       <c r="B232" s="0">
-        <v>0.021468424950283401</v>
+        <v>0.023704453918063098</v>
       </c>
       <c r="C232" s="0">
-        <v>2.0442505404601903</v>
+        <v>2.2144528997113935</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>0.23902522088353415</v>
+        <v>0.20352642570281124</v>
       </c>
       <c r="B233" s="0">
-        <v>0.021715773564156549</v>
+        <v>0.023915067589281809</v>
       </c>
       <c r="C233" s="0">
-        <v>2.0916275996392662</v>
+        <v>2.2539784680458794</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>0.24005550200803213</v>
+        <v>0.20440369477911646</v>
       </c>
       <c r="B234" s="0">
-        <v>0.02196312217802969</v>
+        <v>0.024125681260500527</v>
       </c>
       <c r="C234" s="0">
-        <v>2.1395473874237312</v>
+        <v>2.2938536671532277</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>0.2410857831325301</v>
+        <v>0.20528096385542166</v>
       </c>
       <c r="B235" s="0">
-        <v>0.022210470791902831</v>
+        <v>0.024336294931719238</v>
       </c>
       <c r="C235" s="0">
-        <v>2.1880099038135876</v>
+        <v>2.3340784970334347</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>0.24211606425702809</v>
+        <v>0.20615823293172689</v>
       </c>
       <c r="B236" s="0">
-        <v>0.022457819405775972</v>
+        <v>0.024546908602937956</v>
       </c>
       <c r="C236" s="0">
-        <v>2.2370151488088341</v>
+        <v>2.3746529576865045</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>0.2431463453815261</v>
+        <v>0.20703550200803211</v>
       </c>
       <c r="B237" s="0">
-        <v>0.02270516801964912</v>
+        <v>0.024757522274156674</v>
       </c>
       <c r="C237" s="0">
-        <v>2.2865631224094733</v>
+        <v>2.415577049112434</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>0.24417662650602409</v>
+        <v>0.20791277108433734</v>
       </c>
       <c r="B238" s="0">
-        <v>0.022952516633522269</v>
+        <v>0.024968135945375392</v>
       </c>
       <c r="C238" s="0">
-        <v>2.3366538246155035</v>
+        <v>2.456850771311224</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>0.24520690763052208</v>
+        <v>0.20879004016064256</v>
       </c>
       <c r="B239" s="0">
-        <v>0.02319986524739541</v>
+        <v>0.025178749616594109</v>
       </c>
       <c r="C239" s="0">
-        <v>2.3872872554269224</v>
+        <v>2.4984741242828754</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>0.24623718875502007</v>
+        <v>0.20966730923694779</v>
       </c>
       <c r="B240" s="0">
-        <v>0.023447213861268558</v>
+        <v>0.025389363287812827</v>
       </c>
       <c r="C240" s="0">
-        <v>2.4384634148437341</v>
+        <v>2.5404471080273869</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>0.24726746987951806</v>
+        <v>0.21054457831325299</v>
       </c>
       <c r="B241" s="0">
-        <v>0.023694562475141699</v>
+        <v>0.025599976959031538</v>
       </c>
       <c r="C241" s="0">
-        <v>2.490182302865934</v>
+        <v>2.5827697225447572</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>0.24829775100401605</v>
+        <v>0.21142184738955822</v>
       </c>
       <c r="B242" s="0">
-        <v>0.02394191108901484</v>
+        <v>0.025810590630250263</v>
       </c>
       <c r="C242" s="0">
-        <v>2.5424439194935262</v>
+        <v>2.6254419678349912</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>0.24932803212851404</v>
+        <v>0.21229911646586344</v>
       </c>
       <c r="B243" s="0">
-        <v>0.024189259702887989</v>
+        <v>0.026021204301468981</v>
       </c>
       <c r="C243" s="0">
-        <v>2.5952482647265094</v>
+        <v>2.6684638438980852</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>0.25035831325301206</v>
+        <v>0.21317638554216867</v>
       </c>
       <c r="B244" s="0">
-        <v>0.024436608316761137</v>
+        <v>0.026231817972687699</v>
       </c>
       <c r="C244" s="0">
-        <v>2.6485953385648839</v>
+        <v>2.7118353507340389</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>0.25138859437751004</v>
+        <v>0.21405365461847389</v>
       </c>
       <c r="B245" s="0">
-        <v>0.024683956930634278</v>
+        <v>0.026442431643906417</v>
       </c>
       <c r="C245" s="0">
-        <v>2.7024851410086481</v>
+        <v>2.7555564883428536</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>0.25241887550200803</v>
+        <v>0.21493092369477912</v>
       </c>
       <c r="B246" s="0">
-        <v>0.024931305544507426</v>
+        <v>0.026653045315125135</v>
       </c>
       <c r="C246" s="0">
-        <v>2.7569176720578037</v>
+        <v>2.7996272567245293</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>0.25344915662650602</v>
+        <v>0.21580819277108435</v>
       </c>
       <c r="B247" s="0">
-        <v>0.025178654158380567</v>
+        <v>0.026863658986343853</v>
       </c>
       <c r="C247" s="0">
-        <v>2.8118929317123493</v>
+        <v>2.8440476558790646</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>0.25447943775100401</v>
+        <v>0.21668546184738954</v>
       </c>
       <c r="B248" s="0">
-        <v>0.025426002772253709</v>
+        <v>0.027074272657562563</v>
       </c>
       <c r="C248" s="0">
-        <v>2.867410919972285</v>
+        <v>2.88881768580646</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>0.255509718875502</v>
+        <v>0.21756273092369477</v>
       </c>
       <c r="B249" s="0">
-        <v>0.025673351386126857</v>
+        <v>0.027284886328781281</v>
       </c>
       <c r="C249" s="0">
-        <v>2.9234716368376139</v>
+        <v>2.9339373465067169</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>0.25653999999999999</v>
+        <v>0.21844</v>
       </c>
       <c r="B250" s="0">
-        <v>0.025920699999999998</v>
+        <v>0.027495499999999999</v>
       </c>
       <c r="C250" s="0">
-        <v>2.9800750823083311</v>
+        <v>2.9794066379798343</v>
       </c>
     </row>
   </sheetData>

--- a/REGEN/Contour_Maelstrom.xlsx
+++ b/REGEN/Contour_Maelstrom.xlsx
@@ -59,7 +59,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="true"/>
+    <col min="1" max="1" width="14.5546875" customWidth="true"/>
     <col min="2" max="2" width="13.5546875" customWidth="true"/>
     <col min="3" max="3" width="11.5546875" customWidth="true"/>
   </cols>
@@ -72,2746 +72,2746 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C1" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0008772690763052209</v>
+        <v>0.00095887550200803213</v>
       </c>
       <c r="B2" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C2" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0017545381526104418</v>
+        <v>0.0019177510040160643</v>
       </c>
       <c r="B3" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C3" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0026318072289156628</v>
+        <v>0.0028766265060240965</v>
       </c>
       <c r="B4" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C4" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0035090763052208836</v>
+        <v>0.0038355020080321285</v>
       </c>
       <c r="B5" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C5" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0043863453815261048</v>
+        <v>0.0047943775100401601</v>
       </c>
       <c r="B6" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C6" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0052636144578313256</v>
+        <v>0.005753253012048193</v>
       </c>
       <c r="B7" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C7" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0061408835341365464</v>
+        <v>0.0067121285140562242</v>
       </c>
       <c r="B8" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C8" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0070181526104417672</v>
+        <v>0.0076710040160642571</v>
       </c>
       <c r="B9" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C9" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0078954216867469871</v>
+        <v>0.0086298795180722882</v>
       </c>
       <c r="B10" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C10" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0087726907630522096</v>
+        <v>0.0095887550200803202</v>
       </c>
       <c r="B11" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C11" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0096499598393574287</v>
+        <v>0.010547630522088354</v>
       </c>
       <c r="B12" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C12" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.010527228915662651</v>
+        <v>0.011506506024096386</v>
       </c>
       <c r="B13" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C13" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.01140449799196787</v>
+        <v>0.012465381526104418</v>
       </c>
       <c r="B14" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C14" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.012281767068273093</v>
+        <v>0.013424257028112448</v>
       </c>
       <c r="B15" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C15" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.013159036144578312</v>
+        <v>0.014383132530120482</v>
       </c>
       <c r="B16" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C16" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.014036305220883534</v>
+        <v>0.015342008032128514</v>
       </c>
       <c r="B17" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C17" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.014913574297188755</v>
+        <v>0.016300883534136546</v>
       </c>
       <c r="B18" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C18" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.015790843373493974</v>
+        <v>0.017259759036144576</v>
       </c>
       <c r="B19" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C19" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.016668112449799197</v>
+        <v>0.01821863453815261</v>
       </c>
       <c r="B20" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C20" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.017545381526104419</v>
+        <v>0.01917751004016064</v>
       </c>
       <c r="B21" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C21" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.018422650602409638</v>
+        <v>0.020136385542168674</v>
       </c>
       <c r="B22" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C22" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.019299919678714857</v>
+        <v>0.021095261044176708</v>
       </c>
       <c r="B23" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C23" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.02017718875502008</v>
+        <v>0.022054136546184738</v>
       </c>
       <c r="B24" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C24" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.021054457831325302</v>
+        <v>0.023013012048192772</v>
       </c>
       <c r="B25" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C25" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.021931726907630525</v>
+        <v>0.023971887550200806</v>
       </c>
       <c r="B26" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C26" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.022808995983935741</v>
+        <v>0.024930763052208836</v>
       </c>
       <c r="B27" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C27" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.023686265060240963</v>
+        <v>0.025889638554216866</v>
       </c>
       <c r="B28" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C28" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.024563534136546186</v>
+        <v>0.026848514056224897</v>
       </c>
       <c r="B29" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C29" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.025440803212851405</v>
+        <v>0.027807389558232931</v>
       </c>
       <c r="B30" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C30" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.026318072289156624</v>
+        <v>0.028766265060240964</v>
       </c>
       <c r="B31" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C31" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.027195341365461846</v>
+        <v>0.029725140562248994</v>
       </c>
       <c r="B32" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C32" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.028072610441767069</v>
+        <v>0.030684016064257028</v>
       </c>
       <c r="B33" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C33" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.028949879518072288</v>
+        <v>0.031642891566265062</v>
       </c>
       <c r="B34" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C34" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.02982714859437751</v>
+        <v>0.032601767068273092</v>
       </c>
       <c r="B35" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C35" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.030704417670682729</v>
+        <v>0.033560642570281123</v>
       </c>
       <c r="B36" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C36" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.031581686746987948</v>
+        <v>0.034519518072289153</v>
       </c>
       <c r="B37" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C37" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.032458955823293167</v>
+        <v>0.03547839357429719</v>
       </c>
       <c r="B38" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C38" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.033336224899598394</v>
+        <v>0.03643726907630522</v>
       </c>
       <c r="B39" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C39" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.034213493975903612</v>
+        <v>0.037396144578313258</v>
       </c>
       <c r="B40" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C40" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.035090763052208838</v>
+        <v>0.038355020080321281</v>
       </c>
       <c r="B41" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C41" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.035968032128514058</v>
+        <v>0.039313895582329318</v>
       </c>
       <c r="B42" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C42" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.036845301204819277</v>
+        <v>0.040272771084337349</v>
       </c>
       <c r="B43" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C43" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.037722570281124496</v>
+        <v>0.041231646586345379</v>
       </c>
       <c r="B44" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C44" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.038599839357429715</v>
+        <v>0.042190522088353416</v>
       </c>
       <c r="B45" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C45" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.039477108433734941</v>
+        <v>0.043149397590361446</v>
       </c>
       <c r="B46" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C46" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.04035437751004016</v>
+        <v>0.044108273092369477</v>
       </c>
       <c r="B47" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C47" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.041231646586345379</v>
+        <v>0.045067148594377507</v>
       </c>
       <c r="B48" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C48" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.042108915662650605</v>
+        <v>0.046026024096385544</v>
       </c>
       <c r="B49" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C49" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.042986184738955824</v>
+        <v>0.046984899598393574</v>
       </c>
       <c r="B50" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C50" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.04386345381526105</v>
+        <v>0.047943775100401612</v>
       </c>
       <c r="B51" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C51" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.044740722891566262</v>
+        <v>0.048902650602409635</v>
       </c>
       <c r="B52" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C52" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.045617991967871481</v>
+        <v>0.049861526104417672</v>
       </c>
       <c r="B53" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C53" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.046495261044176707</v>
+        <v>0.050820401606425702</v>
       </c>
       <c r="B54" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C54" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.047372530120481926</v>
+        <v>0.051779277108433733</v>
       </c>
       <c r="B55" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C55" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.048249799196787145</v>
+        <v>0.05273815261044177</v>
       </c>
       <c r="B56" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C56" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.049127068273092371</v>
+        <v>0.053697028112449793</v>
       </c>
       <c r="B57" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C57" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.05000433734939759</v>
+        <v>0.054655903614457831</v>
       </c>
       <c r="B58" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C58" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.050881606425702809</v>
+        <v>0.055614779116465861</v>
       </c>
       <c r="B59" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C59" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.051758875502008028</v>
+        <v>0.056573654618473898</v>
       </c>
       <c r="B60" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C60" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.052636144578313247</v>
+        <v>0.057532530120481928</v>
       </c>
       <c r="B61" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C61" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.053513413654618473</v>
+        <v>0.058491405622489966</v>
       </c>
       <c r="B62" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C62" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.054390682730923692</v>
+        <v>0.059450281124497989</v>
       </c>
       <c r="B63" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C63" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.055267951807228918</v>
+        <v>0.060409156626506026</v>
       </c>
       <c r="B64" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C64" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.056145220883534137</v>
+        <v>0.061368032128514057</v>
       </c>
       <c r="B65" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C65" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.057022489959839356</v>
+        <v>0.062326907630522087</v>
       </c>
       <c r="B66" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C66" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.057899759036144576</v>
+        <v>0.063285783132530124</v>
       </c>
       <c r="B67" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C67" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.058777028112449795</v>
+        <v>0.064244658634538154</v>
       </c>
       <c r="B68" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C68" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.059654297188755021</v>
+        <v>0.065203534136546185</v>
       </c>
       <c r="B69" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C69" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.06053156626506024</v>
+        <v>0.066162409638554229</v>
       </c>
       <c r="B70" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C70" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.061408835341365459</v>
+        <v>0.067121285140562245</v>
       </c>
       <c r="B71" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C71" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.062286104417670685</v>
+        <v>0.068080160642570276</v>
       </c>
       <c r="B72" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C72" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.063163373493975897</v>
+        <v>0.069039036144578306</v>
       </c>
       <c r="B73" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C73" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.064040642570281123</v>
+        <v>0.06999791164658635</v>
       </c>
       <c r="B74" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C74" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.064917911646586335</v>
+        <v>0.07095678714859438</v>
       </c>
       <c r="B75" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C75" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0.065795180722891561</v>
+        <v>0.07191566265060241</v>
       </c>
       <c r="B76" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C76" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.066672449799196787</v>
+        <v>0.072874538152610441</v>
       </c>
       <c r="B77" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C77" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0.067549718875502013</v>
+        <v>0.073833413654618471</v>
       </c>
       <c r="B78" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C78" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.068426987951807225</v>
+        <v>0.074792289156626515</v>
       </c>
       <c r="B79" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C79" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.069304257028112451</v>
+        <v>0.075751164658634546</v>
       </c>
       <c r="B80" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C80" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.070181526104417677</v>
+        <v>0.076710040160642562</v>
       </c>
       <c r="B81" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C81" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.071058795180722889</v>
+        <v>0.077668915662650592</v>
       </c>
       <c r="B82" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C82" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0.071936064257028115</v>
+        <v>0.078627791164658636</v>
       </c>
       <c r="B83" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C83" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>0.072813333333333341</v>
+        <v>0.079586666666666667</v>
       </c>
       <c r="B84" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C84" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0.073690602409638553</v>
+        <v>0.080545542168674697</v>
       </c>
       <c r="B85" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C85" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>0.074567871485943765</v>
+        <v>0.081504417670682727</v>
       </c>
       <c r="B86" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C86" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0.075445140562248991</v>
+        <v>0.082463293172690758</v>
       </c>
       <c r="B87" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C87" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.076322409638554203</v>
+        <v>0.083422168674698802</v>
       </c>
       <c r="B88" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C88" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.077199678714859429</v>
+        <v>0.084381044176706832</v>
       </c>
       <c r="B89" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C89" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0.078076947791164655</v>
+        <v>0.085339919678714862</v>
       </c>
       <c r="B90" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C90" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.078954216867469881</v>
+        <v>0.086298795180722893</v>
       </c>
       <c r="B91" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C91" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>0.079831485943775093</v>
+        <v>0.087257670682730923</v>
       </c>
       <c r="B92" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C92" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0.08070875502008032</v>
+        <v>0.088216546184738953</v>
       </c>
       <c r="B93" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C93" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.081586024096385546</v>
+        <v>0.089175421686746983</v>
       </c>
       <c r="B94" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C94" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0.082463293172690758</v>
+        <v>0.090134297188755014</v>
       </c>
       <c r="B95" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C95" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.083340562248995984</v>
+        <v>0.091093172690763058</v>
       </c>
       <c r="B96" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C96" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.08421783132530121</v>
+        <v>0.092052048192771088</v>
       </c>
       <c r="B97" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C97" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0.085095100401606422</v>
+        <v>0.093010923694779119</v>
       </c>
       <c r="B98" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C98" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0.085972369477911648</v>
+        <v>0.093969799196787149</v>
       </c>
       <c r="B99" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C99" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.086849638554216874</v>
+        <v>0.094928674698795179</v>
       </c>
       <c r="B100" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C100" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.0877269076305221</v>
+        <v>0.095887550200803223</v>
       </c>
       <c r="B101" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C101" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0.088604176706827298</v>
+        <v>0.096846425702811254</v>
       </c>
       <c r="B102" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C102" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>0.089481445783132524</v>
+        <v>0.09780530120481927</v>
       </c>
       <c r="B103" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C103" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0.09035871485943775</v>
+        <v>0.0987641767068273</v>
       </c>
       <c r="B104" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C104" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>0.091235983935742962</v>
+        <v>0.099723052208835344</v>
       </c>
       <c r="B105" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C105" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0.092113253012048188</v>
+        <v>0.10068192771084337</v>
       </c>
       <c r="B106" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C106" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0.092990522088353414</v>
+        <v>0.1016408032128514</v>
       </c>
       <c r="B107" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C107" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0.093867791164658626</v>
+        <v>0.10259967871485944</v>
       </c>
       <c r="B108" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C108" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>0.094745060240963852</v>
+        <v>0.10355855421686747</v>
       </c>
       <c r="B109" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C109" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>0.095622329317269078</v>
+        <v>0.10451742971887551</v>
       </c>
       <c r="B110" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C110" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0.09649959839357429</v>
+        <v>0.10547630522088354</v>
       </c>
       <c r="B111" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C111" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>0.097376867469879516</v>
+        <v>0.10643518072289157</v>
       </c>
       <c r="B112" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C112" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>0.098254136546184742</v>
+        <v>0.10739405622489959</v>
       </c>
       <c r="B113" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C113" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>0.099131405622489968</v>
+        <v>0.10835293172690763</v>
       </c>
       <c r="B114" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C114" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0.10000867469879518</v>
+        <v>0.10931180722891566</v>
       </c>
       <c r="B115" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C115" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>0.10088594377510041</v>
+        <v>0.11027068273092369</v>
       </c>
       <c r="B116" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C116" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>0.10176321285140562</v>
+        <v>0.11122955823293172</v>
       </c>
       <c r="B117" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C117" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>0.10264048192771083</v>
+        <v>0.11218843373493977</v>
       </c>
       <c r="B118" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C118" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>0.10351775100401606</v>
+        <v>0.1131473092369478</v>
       </c>
       <c r="B119" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C119" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>0.10439502008032128</v>
+        <v>0.11410618473895583</v>
       </c>
       <c r="B120" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C120" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>0.10527228915662649</v>
+        <v>0.11506506024096386</v>
       </c>
       <c r="B121" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C121" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>0.10614955823293172</v>
+        <v>0.11602393574297189</v>
       </c>
       <c r="B122" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C122" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0.10702682730923695</v>
+        <v>0.11698281124497993</v>
       </c>
       <c r="B123" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C123" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0.10790409638554217</v>
+        <v>0.11794168674698795</v>
       </c>
       <c r="B124" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C124" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0.10878136546184738</v>
+        <v>0.11890056224899598</v>
       </c>
       <c r="B125" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C125" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>0.10965863453815261</v>
+        <v>0.11985943775100401</v>
       </c>
       <c r="B126" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C126" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0.11053590361445784</v>
+        <v>0.12081831325301205</v>
       </c>
       <c r="B127" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C127" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0.11141317269076305</v>
+        <v>0.12177718875502008</v>
       </c>
       <c r="B128" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C128" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0.11229044176706827</v>
+        <v>0.12273606425702811</v>
       </c>
       <c r="B129" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C129" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>0.1131677108433735</v>
+        <v>0.12369493975903614</v>
       </c>
       <c r="B130" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C130" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0.11404497991967871</v>
+        <v>0.12465381526104417</v>
       </c>
       <c r="B131" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C131" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>0.11492224899598394</v>
+        <v>0.1256126907630522</v>
       </c>
       <c r="B132" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C132" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>0.11579951807228915</v>
+        <v>0.12657156626506025</v>
       </c>
       <c r="B133" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C133" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>0.11667678714859436</v>
+        <v>0.12753044176706827</v>
       </c>
       <c r="B134" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C134" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>0.11755405622489959</v>
+        <v>0.12848931726907631</v>
       </c>
       <c r="B135" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C135" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>0.11843132530120482</v>
+        <v>0.12944819277108432</v>
       </c>
       <c r="B136" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C136" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>0.11930859437751004</v>
+        <v>0.13040706827309237</v>
       </c>
       <c r="B137" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C137" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>0.12018586345381525</v>
+        <v>0.13136594377510041</v>
       </c>
       <c r="B138" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C138" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>0.12106313253012048</v>
+        <v>0.13232481927710846</v>
       </c>
       <c r="B139" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C139" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>0.12194040160642571</v>
+        <v>0.13328369477911647</v>
       </c>
       <c r="B140" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C140" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>0.12281767068273092</v>
+        <v>0.13424257028112449</v>
       </c>
       <c r="B141" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C141" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>0.12369493975903614</v>
+        <v>0.13520144578313253</v>
       </c>
       <c r="B142" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C142" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>0.12457220883534137</v>
+        <v>0.13616032128514055</v>
       </c>
       <c r="B143" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C143" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>0.12544947791164657</v>
+        <v>0.1371191967871486</v>
       </c>
       <c r="B144" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C144" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>0.12632674698795179</v>
+        <v>0.13807807228915661</v>
       </c>
       <c r="B145" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C145" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>0.12720401606425702</v>
+        <v>0.13903694779116466</v>
       </c>
       <c r="B146" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C146" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>0.12808128514056225</v>
+        <v>0.1399958232931727</v>
       </c>
       <c r="B147" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C147" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>0.12895855421686747</v>
+        <v>0.14095469879518074</v>
       </c>
       <c r="B148" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C148" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>0.12983582329317267</v>
+        <v>0.14191357429718876</v>
       </c>
       <c r="B149" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C149" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>0.1307130923694779</v>
+        <v>0.14287244979919678</v>
       </c>
       <c r="B150" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C150" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>0.13159036144578312</v>
+        <v>0.14383132530120482</v>
       </c>
       <c r="B151" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C151" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>0.13246763052208835</v>
+        <v>0.14479020080321284</v>
       </c>
       <c r="B152" s="0">
-        <v>0.043179177500336327</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C152" s="0">
-        <v>7.3477651779388937</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>0.13334489959839357</v>
+        <v>0.14574907630522088</v>
       </c>
       <c r="B153" s="0">
-        <v>0.043138827483513054</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C153" s="0">
-        <v>7.3340389359190654</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>0.1342221686746988</v>
+        <v>0.1467079518072289</v>
       </c>
       <c r="B154" s="0">
-        <v>0.043037209692649056</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C154" s="0">
-        <v>7.2995275177448633</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>0.13509943775100403</v>
+        <v>0.14766682730923694</v>
       </c>
       <c r="B155" s="0">
-        <v>0.042872817081216472</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C155" s="0">
-        <v>7.2438688654090022</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>0.13597670682730922</v>
+        <v>0.14862570281124499</v>
       </c>
       <c r="B156" s="0">
-        <v>0.04264310458260305</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C156" s="0">
-        <v>7.1664515434123128</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>0.13685397590361445</v>
+        <v>0.14958457831325303</v>
       </c>
       <c r="B157" s="0">
-        <v>0.042344278692853808</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C157" s="0">
-        <v>7.0663641874026189</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>0.13773124497991968</v>
+        <v>0.15054345381526105</v>
       </c>
       <c r="B158" s="0">
-        <v>0.041970948727219508</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C158" s="0">
-        <v>6.9423117208563223</v>
+        <v>6.6128135255224567</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>0.1386085140562249</v>
+        <v>0.15150232931726909</v>
       </c>
       <c r="B159" s="0">
-        <v>0.041515555914270363</v>
+        <v>0.043166394565478709</v>
       </c>
       <c r="C159" s="0">
-        <v>6.7924781986975518</v>
+        <v>6.6086469656694868</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>0.13948578313253013</v>
+        <v>0.15246120481927711</v>
       </c>
       <c r="B160" s="0">
-        <v>0.040967415504208113</v>
+        <v>0.043085478963667503</v>
       </c>
       <c r="C160" s="0">
-        <v>6.614296680126035</v>
+        <v>6.58389430967362</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>0.14036305220883535</v>
+        <v>0.15342008032128512</v>
       </c>
       <c r="B161" s="0">
-        <v>0.040311025964482994</v>
+        <v>0.042930409964303105</v>
       </c>
       <c r="C161" s="0">
-        <v>6.4040430239947961</v>
+        <v>6.5365873904226328</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>0.14124032128514055</v>
+        <v>0.15437895582329317</v>
       </c>
       <c r="B162" s="0">
-        <v>0.039522845625481542</v>
+        <v>0.042698364546790608</v>
       </c>
       <c r="C162" s="0">
-        <v>6.1560614991563316</v>
+        <v>6.466115856432249</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>0.14211759036144578</v>
+        <v>0.15533783132530118</v>
       </c>
       <c r="B163" s="0">
-        <v>0.038646015850478291</v>
+        <v>0.04238484236185508</v>
       </c>
       <c r="C163" s="0">
-        <v>5.8859422006254709</v>
+        <v>6.3715067091828424</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>0.14299485943775101</v>
+        <v>0.15629670682730923</v>
       </c>
       <c r="B164" s="0">
-        <v>0.037768746774173065</v>
+        <v>0.041983183327508354</v>
       </c>
       <c r="C164" s="0">
-        <v>5.6217520473418068</v>
+        <v>6.2513200049013458</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>0.14387212851405623</v>
+        <v>0.15725558232931727</v>
       </c>
       <c r="B165" s="0">
-        <v>0.036891477697867839</v>
+        <v>0.041483740146659717</v>
       </c>
       <c r="C165" s="0">
-        <v>5.3636278908310029</v>
+        <v>6.1034699486384767</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>0.14474939759036146</v>
+        <v>0.15821445783132532</v>
       </c>
       <c r="B166" s="0">
-        <v>0.036014208621562613</v>
+        <v>0.040872424322912</v>
       </c>
       <c r="C166" s="0">
-        <v>5.1115697310930637</v>
+        <v>5.9249105354508975</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>0.14562666666666668</v>
+        <v>0.15917333333333333</v>
       </c>
       <c r="B167" s="0">
-        <v>0.035136939545257387</v>
+        <v>0.04012799382996244</v>
       </c>
       <c r="C167" s="0">
-        <v>4.8655775681279847</v>
+        <v>5.7110491306598821</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>0.14650393574297191</v>
+        <v>0.16013220883534138</v>
       </c>
       <c r="B168" s="0">
-        <v>0.034259670468952168</v>
+        <v>0.039222931329655403</v>
       </c>
       <c r="C168" s="0">
-        <v>4.6256514019357731</v>
+        <v>5.4563358638756201</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>0.14738120481927711</v>
+        <v>0.16109108433734939</v>
       </c>
       <c r="B169" s="0">
-        <v>0.03338240139264697</v>
+        <v>0.038264055827647386</v>
       </c>
       <c r="C169" s="0">
-        <v>4.391791232516427</v>
+        <v>5.1928168246791691</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>0.14825847389558233</v>
+        <v>0.16204995983935744</v>
       </c>
       <c r="B170" s="0">
-        <v>0.032505132316341744</v>
+        <v>0.037305180325639342</v>
       </c>
       <c r="C170" s="0">
-        <v>4.1639970598699376</v>
+        <v>4.9358197051047812</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>0.14913574297188753</v>
+        <v>0.16300883534136545</v>
       </c>
       <c r="B171" s="0">
-        <v>0.031627863240036545</v>
+        <v>0.036346304823631326</v>
       </c>
       <c r="C171" s="0">
-        <v>3.9422688839963169</v>
+        <v>4.6853445051524716</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>0.15001301204819276</v>
+        <v>0.16396771084337347</v>
       </c>
       <c r="B172" s="0">
-        <v>0.030750594163731319</v>
+        <v>0.035387429321623309</v>
       </c>
       <c r="C172" s="0">
-        <v>3.7266067048955516</v>
+        <v>4.4413912248222323</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>0.15089028112449798</v>
+        <v>0.16492658634538152</v>
       </c>
       <c r="B173" s="0">
-        <v>0.029873325087426093</v>
+        <v>0.034428553819615265</v>
       </c>
       <c r="C173" s="0">
-        <v>3.5170105225676491</v>
+        <v>4.2039598641140579</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>0.15176755020080321</v>
+        <v>0.16588546184738956</v>
       </c>
       <c r="B174" s="0">
-        <v>0.028996056011120867</v>
+        <v>0.033469678317607221</v>
       </c>
       <c r="C174" s="0">
-        <v>3.3134803370126091</v>
+        <v>3.9730504230279524</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>0.15264481927710841</v>
+        <v>0.1668443373493976</v>
       </c>
       <c r="B175" s="0">
-        <v>0.028118786934815669</v>
+        <v>0.032510802815599177</v>
       </c>
       <c r="C175" s="0">
-        <v>3.1160161482304378</v>
+        <v>3.7486629015639181</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>0.15352208835341363</v>
+        <v>0.16780321285140562</v>
       </c>
       <c r="B176" s="0">
-        <v>0.027241517858510443</v>
+        <v>0.031551927313591161</v>
       </c>
       <c r="C176" s="0">
-        <v>2.9246179562211232</v>
+        <v>3.5307972997219621</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>0.15439935742971886</v>
+        <v>0.16876208835341366</v>
       </c>
       <c r="B177" s="0">
-        <v>0.026364248782205217</v>
+        <v>0.030593051811583116</v>
       </c>
       <c r="C177" s="0">
-        <v>2.7392857609846706</v>
+        <v>3.3194536175020688</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>0.15527662650602409</v>
+        <v>0.16972096385542168</v>
       </c>
       <c r="B178" s="0">
-        <v>0.025486979705899991</v>
+        <v>0.0296341763095751</v>
       </c>
       <c r="C178" s="0">
-        <v>2.5600195625210809</v>
+        <v>3.1146318549042533</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>0.15615389558232931</v>
+        <v>0.17067983935742973</v>
       </c>
       <c r="B179" s="0">
-        <v>0.024609710629594765</v>
+        <v>0.028675300807567056</v>
       </c>
       <c r="C179" s="0">
-        <v>2.3868193608303532</v>
+        <v>2.9163320119285023</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>0.15703116465863454</v>
+        <v>0.17163871485943774</v>
       </c>
       <c r="B180" s="0">
-        <v>0.023732441553289539</v>
+        <v>0.027716425305559039</v>
       </c>
       <c r="C180" s="0">
-        <v>2.2196851559124884</v>
+        <v>2.7245540885748278</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>0.15790843373493976</v>
+        <v>0.17259759036144579</v>
       </c>
       <c r="B181" s="0">
-        <v>0.022855172476984313</v>
+        <v>0.026757549803550995</v>
       </c>
       <c r="C181" s="0">
-        <v>2.0586169477674861</v>
+        <v>2.5392980848432183</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>0.15878570281124496</v>
+        <v>0.17355646586345383</v>
       </c>
       <c r="B182" s="0">
-        <v>0.021977903400679115</v>
+        <v>0.025798674301542951</v>
       </c>
       <c r="C182" s="0">
-        <v>1.9036147363953513</v>
+        <v>2.3605640007336794</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>0.15966297188755019</v>
+        <v>0.17451534136546185</v>
       </c>
       <c r="B183" s="0">
-        <v>0.021100634324373889</v>
+        <v>0.024839798799534935</v>
       </c>
       <c r="C183" s="0">
-        <v>1.7546785217960745</v>
+        <v>2.1883518362462171</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>0.16054024096385541</v>
+        <v>0.17547421686746989</v>
       </c>
       <c r="B184" s="0">
-        <v>0.020223365248068663</v>
+        <v>0.02388092329752689</v>
       </c>
       <c r="C184" s="0">
-        <v>1.6118083039696598</v>
+        <v>2.0226615913808192</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>0.16141751004016064</v>
+        <v>0.17643309236947791</v>
       </c>
       <c r="B185" s="0">
-        <v>0.019346096171763437</v>
+        <v>0.022922047795518874</v>
       </c>
       <c r="C185" s="0">
-        <v>1.4750040829161075</v>
+        <v>1.8634932661374972</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>0.16229477911646586</v>
+        <v>0.17739196787148595</v>
       </c>
       <c r="B186" s="0">
-        <v>0.018493455175667396</v>
+        <v>0.02196317229351083</v>
       </c>
       <c r="C186" s="0">
-        <v>1.3478533914019819</v>
+        <v>1.7108468605162417</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>0.16317204819277109</v>
+        <v>0.17835084337349397</v>
       </c>
       <c r="B187" s="0">
-        <v>0.017796062217276289</v>
+        <v>0.021004296791502813</v>
       </c>
       <c r="C187" s="0">
-        <v>1.2481143273854132</v>
+        <v>1.5647223745170609</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>0.16404931726907632</v>
+        <v>0.17930971887550201</v>
       </c>
       <c r="B188" s="0">
-        <v>0.017239523776832362</v>
+        <v>0.020045421289494769</v>
       </c>
       <c r="C188" s="0">
-        <v>1.1712701280009714</v>
+        <v>1.4251198081399468</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>0.16492658634538152</v>
+        <v>0.18026859437751003</v>
       </c>
       <c r="B189" s="0">
-        <v>0.016798483301277912</v>
+        <v>0.019145340378242136</v>
       </c>
       <c r="C189" s="0">
-        <v>1.1121072748644763</v>
+        <v>1.3000114698923837</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>0.16580385542168674</v>
+        <v>0.18122746987951807</v>
       </c>
       <c r="B190" s="0">
-        <v>0.016457056684091087</v>
+        <v>0.018437059540459856</v>
       </c>
       <c r="C190" s="0">
-        <v>1.0673598634509929</v>
+        <v>1.2056029906054122</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>0.16668112449799197</v>
+        <v>0.18218634538152612</v>
       </c>
       <c r="B191" s="0">
-        <v>0.016204912278723324</v>
+        <v>0.01788421113480837</v>
       </c>
       <c r="C191" s="0">
-        <v>1.0349036212264258</v>
+        <v>1.1343852657709359</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>0.16755839357429719</v>
+        <v>0.18314522088353416</v>
       </c>
       <c r="B192" s="0">
-        <v>0.01603532814974297</v>
+        <v>0.017459591057383601</v>
       </c>
       <c r="C192" s="0">
-        <v>1.0133564623106308</v>
+        <v>1.0811579220710357</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>0.16843566265060242</v>
+        <v>0.18410409638554218</v>
       </c>
       <c r="B193" s="0">
-        <v>0.015944161838408015</v>
+        <v>0.017146522161506472</v>
       </c>
       <c r="C193" s="0">
-        <v>1.0018666627031871</v>
+        <v>1.0427329335771689</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>0.16931293172690765</v>
+        <v>0.18506297188755019</v>
       </c>
       <c r="B194" s="0">
-        <v>0.015929301453550742</v>
+        <v>0.016934537564160419</v>
       </c>
       <c r="C194" s="0">
-        <v>1</v>
+        <v>1.0171094367669416</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>0.17019020080321284</v>
+        <v>0.18602184738955824</v>
       </c>
       <c r="B195" s="0">
-        <v>0.015990410023237825</v>
+        <v>0.016817290602423818</v>
       </c>
       <c r="C195" s="0">
-        <v>1.0076871899665227</v>
+        <v>1.0030741949672455</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>0.17106746987951807</v>
+        <v>0.18698072289156625</v>
       </c>
       <c r="B196" s="0">
-        <v>0.01612888618208877</v>
+        <v>0.016791500235609228</v>
       </c>
       <c r="C196" s="0">
-        <v>1.0252158035231778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>0.1719447389558233</v>
+        <v>0.1879395983935743</v>
       </c>
       <c r="B197" s="0">
-        <v>0.016332975425408</v>
+        <v>0.016856465345219639</v>
       </c>
       <c r="C197" s="0">
-        <v>1.0513253949065233</v>
+        <v>1.0077528251044863</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>0.17282200803212852</v>
+        <v>0.18889847389558231</v>
       </c>
       <c r="B198" s="0">
-        <v>0.016543589096626718</v>
+        <v>0.017013966048167781</v>
       </c>
       <c r="C198" s="0">
-        <v>1.0786138861908896</v>
+        <v>1.0266729598387934</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>0.17369927710843375</v>
+        <v>0.18985734939759036</v>
       </c>
       <c r="B199" s="0">
-        <v>0.016754202767845436</v>
+        <v>0.017240912327645009</v>
       </c>
       <c r="C199" s="0">
-        <v>1.1062520082481162</v>
+        <v>1.0542448473181347</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>0.17457654618473897</v>
+        <v>0.1908162248995984</v>
       </c>
       <c r="B200" s="0">
-        <v>0.016964816439064154</v>
+        <v>0.01747111796827942</v>
       </c>
       <c r="C200" s="0">
-        <v>1.1342397610782034</v>
+        <v>1.0825859652439427</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>0.1754538152610442</v>
+        <v>0.19177510040160645</v>
       </c>
       <c r="B201" s="0">
-        <v>0.017175430110282872</v>
+        <v>0.017701323608913837</v>
       </c>
       <c r="C201" s="0">
-        <v>1.1625771446811515</v>
+        <v>1.1113029923374258</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>0.17633108433734937</v>
+        <v>0.19273397590361446</v>
       </c>
       <c r="B202" s="0">
-        <v>0.017386043781501576</v>
+        <v>0.017931529249548241</v>
       </c>
       <c r="C202" s="0">
-        <v>1.1912641590569579</v>
+        <v>1.140395928598581</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>0.1772083534136546</v>
+        <v>0.19369285140562251</v>
       </c>
       <c r="B203" s="0">
-        <v>0.017596657452720294</v>
+        <v>0.018161734890182659</v>
       </c>
       <c r="C203" s="0">
-        <v>1.2203008042056269</v>
+        <v>1.1698647740274113</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>0.17808562248995982</v>
+        <v>0.19465172690763052</v>
       </c>
       <c r="B204" s="0">
-        <v>0.017807271123939011</v>
+        <v>0.018391940530817063</v>
       </c>
       <c r="C204" s="0">
-        <v>1.2496870801271571</v>
+        <v>1.1997095286239143</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>0.17896289156626505</v>
+        <v>0.19561060240963854</v>
       </c>
       <c r="B205" s="0">
-        <v>0.018017884795157729</v>
+        <v>0.018622146171451474</v>
       </c>
       <c r="C205" s="0">
-        <v>1.2794229868215472</v>
+        <v>1.2299301923880921</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>0.17984016064257027</v>
+        <v>0.19656947791164659</v>
       </c>
       <c r="B206" s="0">
-        <v>0.018228498466376447</v>
+        <v>0.018852351812085891</v>
       </c>
       <c r="C206" s="0">
-        <v>1.3095085242887981</v>
+        <v>1.2605267653199448</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>0.1807174297188755</v>
+        <v>0.1975283534136546</v>
       </c>
       <c r="B207" s="0">
-        <v>0.018439112137595165</v>
+        <v>0.019082557452720295</v>
       </c>
       <c r="C207" s="0">
-        <v>1.3399436925289099</v>
+        <v>1.2914992474194693</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>0.1815946987951807</v>
+        <v>0.19848722891566265</v>
       </c>
       <c r="B208" s="0">
-        <v>0.018649725808813876</v>
+        <v>0.019312763093354713</v>
       </c>
       <c r="C208" s="0">
-        <v>1.3707284915418809</v>
+        <v>1.3228476386866694</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>0.18247196787148592</v>
+        <v>0.19944610441767069</v>
       </c>
       <c r="B209" s="0">
-        <v>0.018860339480032594</v>
+        <v>0.019542968733989124</v>
       </c>
       <c r="C209" s="0">
-        <v>1.4018629213277134</v>
+        <v>1.3545719391215427</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>0.18334923694779115</v>
+        <v>0.20040497991967873</v>
       </c>
       <c r="B210" s="0">
-        <v>0.019070953151251312</v>
+        <v>0.019773174374623542</v>
       </c>
       <c r="C210" s="0">
-        <v>1.4333469818864071</v>
+        <v>1.3866721487240912</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>0.18422650602409638</v>
+        <v>0.20136385542168675</v>
       </c>
       <c r="B211" s="0">
-        <v>0.019281566822470037</v>
+        <v>0.020003380015257945</v>
       </c>
       <c r="C211" s="0">
-        <v>1.465180673217962</v>
+        <v>1.4191482674943112</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>0.1851037751004016</v>
+        <v>0.20232273092369479</v>
       </c>
       <c r="B212" s="0">
-        <v>0.019492180493688754</v>
+        <v>0.020233585655892363</v>
       </c>
       <c r="C212" s="0">
-        <v>1.4973639953223763</v>
+        <v>1.4520002954322069</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>0.18598104417670683</v>
+        <v>0.20328160642570281</v>
       </c>
       <c r="B213" s="0">
-        <v>0.019702794164907472</v>
+        <v>0.020463791296526767</v>
       </c>
       <c r="C213" s="0">
-        <v>1.5298969481996521</v>
+        <v>1.4852282325377748</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>0.18685831325301205</v>
+        <v>0.20424048192771083</v>
       </c>
       <c r="B214" s="0">
-        <v>0.01991340783612619</v>
+        <v>0.020693996937161178</v>
       </c>
       <c r="C214" s="0">
-        <v>1.5627795318497877</v>
+        <v>1.5188320788110179</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>0.18773558232931725</v>
+        <v>0.20519935742971887</v>
       </c>
       <c r="B215" s="0">
-        <v>0.020124021507344901</v>
+        <v>0.020924202577795596</v>
       </c>
       <c r="C215" s="0">
-        <v>1.5960117462727827</v>
+        <v>1.5528118342519357</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>0.18861285140562248</v>
+        <v>0.20615823293172689</v>
       </c>
       <c r="B216" s="0">
-        <v>0.020334635178563619</v>
+        <v>0.021154408218429999</v>
       </c>
       <c r="C216" s="0">
-        <v>1.6295935914686401</v>
+        <v>1.5871674988605253</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>0.18949012048192771</v>
+        <v>0.20711710843373493</v>
       </c>
       <c r="B217" s="0">
-        <v>0.020545248849782337</v>
+        <v>0.021384613859064417</v>
       </c>
       <c r="C217" s="0">
-        <v>1.6635250674373576</v>
+        <v>1.6218990726367906</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>0.19036738955823293</v>
+        <v>0.20807598393574298</v>
       </c>
       <c r="B218" s="0">
-        <v>0.020755862521001055</v>
+        <v>0.021614819499698828</v>
       </c>
       <c r="C218" s="0">
-        <v>1.6978061741789357</v>
+        <v>1.657006555580729</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>0.19124465863453816</v>
+        <v>0.20903485943775102</v>
       </c>
       <c r="B219" s="0">
-        <v>0.020966476192219773</v>
+        <v>0.021845025140333246</v>
       </c>
       <c r="C219" s="0">
-        <v>1.7324369116933749</v>
+        <v>1.6924899476923425</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>0.19212192771084338</v>
+        <v>0.20999373493975904</v>
       </c>
       <c r="B220" s="0">
-        <v>0.02117708986343849</v>
+        <v>0.022075230780967649</v>
       </c>
       <c r="C220" s="0">
-        <v>1.767417279980674</v>
+        <v>1.7283492489716277</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>0.19299919678714858</v>
+        <v>0.21095261044176708</v>
       </c>
       <c r="B221" s="0">
-        <v>0.021387703534657201</v>
+        <v>0.022305436421602067</v>
       </c>
       <c r="C221" s="0">
-        <v>1.8027472790408328</v>
+        <v>1.7645844594185887</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>0.19387646586345381</v>
+        <v>0.2119114859437751</v>
       </c>
       <c r="B222" s="0">
-        <v>0.021598317205875919</v>
+        <v>0.022535642062236471</v>
       </c>
       <c r="C222" s="0">
-        <v>1.8384269088738538</v>
+        <v>1.8011955790332215</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>0.19475373493975903</v>
+        <v>0.21287036144578314</v>
       </c>
       <c r="B223" s="0">
-        <v>0.021808930877094637</v>
+        <v>0.022765847702870889</v>
       </c>
       <c r="C223" s="0">
-        <v>1.8744561694797348</v>
+        <v>1.8381826078155308</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>0.19563100401606426</v>
+        <v>0.21382923694779116</v>
       </c>
       <c r="B224" s="0">
-        <v>0.022019544548313355</v>
+        <v>0.0229960533435053</v>
       </c>
       <c r="C224" s="0">
-        <v>1.9108350608584765</v>
+        <v>1.8755455457655126</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>0.19650827309236948</v>
+        <v>0.21478811244979917</v>
       </c>
       <c r="B225" s="0">
-        <v>0.022230158219532073</v>
+        <v>0.023226258984139703</v>
       </c>
       <c r="C225" s="0">
-        <v>1.9475635830100795</v>
+        <v>1.9132843928831667</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>0.19738554216867471</v>
+        <v>0.21574698795180722</v>
       </c>
       <c r="B226" s="0">
-        <v>0.022440771890750791</v>
+        <v>0.023456464624774121</v>
       </c>
       <c r="C226" s="0">
-        <v>1.9846417359345423</v>
+        <v>1.9513991491684977</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>0.19826281124497994</v>
+        <v>0.21670586345381526</v>
       </c>
       <c r="B227" s="0">
-        <v>0.022651385561969516</v>
+        <v>0.023686670265408532</v>
       </c>
       <c r="C227" s="0">
-        <v>2.022069519631867</v>
+        <v>1.9898898146215012</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>0.19914008032128513</v>
+        <v>0.21766473895582331</v>
       </c>
       <c r="B228" s="0">
-        <v>0.022861999233188227</v>
+        <v>0.02391687590604295</v>
       </c>
       <c r="C228" s="0">
-        <v>2.0598469341020507</v>
+        <v>2.0287563892421798</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>0.20001734939759036</v>
+        <v>0.21862361445783132</v>
       </c>
       <c r="B229" s="0">
-        <v>0.023072612904406944</v>
+        <v>0.024147081546677354</v>
       </c>
       <c r="C229" s="0">
-        <v>2.0979739793450953</v>
+        <v>2.0679988730305294</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>0.20089461847389559</v>
+        <v>0.21958248995983937</v>
       </c>
       <c r="B230" s="0">
-        <v>0.023283226575625662</v>
+        <v>0.024377287187311771</v>
       </c>
       <c r="C230" s="0">
-        <v>2.1364506553610005</v>
+        <v>2.1076172659865562</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>0.20177188755020081</v>
+        <v>0.22054136546184738</v>
       </c>
       <c r="B231" s="0">
-        <v>0.02349384024684438</v>
+        <v>0.024607492827946182</v>
       </c>
       <c r="C231" s="0">
-        <v>2.1752769621497672</v>
+        <v>2.1476115681102557</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>0.20264915662650604</v>
+        <v>0.22150024096385543</v>
       </c>
       <c r="B232" s="0">
-        <v>0.023704453918063098</v>
+        <v>0.024837698468580593</v>
       </c>
       <c r="C232" s="0">
-        <v>2.2144528997113935</v>
+        <v>2.1879817794016288</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>0.20352642570281124</v>
+        <v>0.22245911646586344</v>
       </c>
       <c r="B233" s="0">
-        <v>0.023915067589281809</v>
+        <v>0.025067904109215004</v>
       </c>
       <c r="C233" s="0">
-        <v>2.2539784680458794</v>
+        <v>2.228727899860675</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>0.20440369477911646</v>
+        <v>0.22341799196787149</v>
       </c>
       <c r="B234" s="0">
-        <v>0.024125681260500527</v>
+        <v>0.025298109749849414</v>
       </c>
       <c r="C234" s="0">
-        <v>2.2938536671532277</v>
+        <v>2.2698499294873957</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>0.20528096385542166</v>
+        <v>0.22437686746987953</v>
       </c>
       <c r="B235" s="0">
-        <v>0.024336294931719238</v>
+        <v>0.025528315390483832</v>
       </c>
       <c r="C235" s="0">
-        <v>2.3340784970334347</v>
+        <v>2.3113478682817923</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>0.20615823293172689</v>
+        <v>0.22533574297188755</v>
       </c>
       <c r="B236" s="0">
-        <v>0.024546908602937956</v>
+        <v>0.025758521031118236</v>
       </c>
       <c r="C236" s="0">
-        <v>2.3746529576865045</v>
+        <v>2.3532217162438593</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>0.20703550200803211</v>
+        <v>0.22629461847389559</v>
       </c>
       <c r="B237" s="0">
-        <v>0.024757522274156674</v>
+        <v>0.025988726671752654</v>
       </c>
       <c r="C237" s="0">
-        <v>2.415577049112434</v>
+        <v>2.3954714733736027</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>0.20791277108433734</v>
+        <v>0.22725349397590361</v>
       </c>
       <c r="B238" s="0">
-        <v>0.024968135945375392</v>
+        <v>0.026218932312387058</v>
       </c>
       <c r="C238" s="0">
-        <v>2.456850771311224</v>
+        <v>2.4380971396710178</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>0.20879004016064256</v>
+        <v>0.22821236947791165</v>
       </c>
       <c r="B239" s="0">
-        <v>0.025178749616594109</v>
+        <v>0.026449137953021475</v>
       </c>
       <c r="C239" s="0">
-        <v>2.4984741242828754</v>
+        <v>2.4810987151361097</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>0.20966730923694779</v>
+        <v>0.22917124497991967</v>
       </c>
       <c r="B240" s="0">
-        <v>0.025389363287812827</v>
+        <v>0.026679343593655886</v>
       </c>
       <c r="C240" s="0">
-        <v>2.5404471080273869</v>
+        <v>2.5244761997688743</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>0.21054457831325299</v>
+        <v>0.23013012048192771</v>
       </c>
       <c r="B241" s="0">
-        <v>0.025599976959031538</v>
+        <v>0.026909549234290297</v>
       </c>
       <c r="C241" s="0">
-        <v>2.5827697225447572</v>
+        <v>2.5682295935693116</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>0.21142184738955822</v>
+        <v>0.23108899598393573</v>
       </c>
       <c r="B242" s="0">
-        <v>0.025810590630250263</v>
+        <v>0.027139754874924708</v>
       </c>
       <c r="C242" s="0">
-        <v>2.6254419678349912</v>
+        <v>2.6123588965374238</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>0.21229911646586344</v>
+        <v>0.23204787148594378</v>
       </c>
       <c r="B243" s="0">
-        <v>0.026021204301468981</v>
+        <v>0.027369960515559119</v>
       </c>
       <c r="C243" s="0">
-        <v>2.6684638438980852</v>
+        <v>2.6568641086732101</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>0.21317638554216867</v>
+        <v>0.23300674698795182</v>
       </c>
       <c r="B244" s="0">
-        <v>0.026231817972687699</v>
+        <v>0.027600166156193536</v>
       </c>
       <c r="C244" s="0">
-        <v>2.7118353507340389</v>
+        <v>2.7017452299766713</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>0.21405365461847389</v>
+        <v>0.23396562248995986</v>
       </c>
       <c r="B245" s="0">
-        <v>0.026442431643906417</v>
+        <v>0.027830371796827947</v>
       </c>
       <c r="C245" s="0">
-        <v>2.7555564883428536</v>
+        <v>2.7470022604478044</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>0.21493092369477912</v>
+        <v>0.23492449799196788</v>
       </c>
       <c r="B246" s="0">
-        <v>0.026653045315125135</v>
+        <v>0.028060577437462358</v>
       </c>
       <c r="C246" s="0">
-        <v>2.7996272567245293</v>
+        <v>2.7926352000866124</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>0.21580819277108435</v>
+        <v>0.2358833734939759</v>
       </c>
       <c r="B247" s="0">
-        <v>0.026863658986343853</v>
+        <v>0.028290783078096762</v>
       </c>
       <c r="C247" s="0">
-        <v>2.8440476558790646</v>
+        <v>2.8386440488930926</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>0.21668546184738954</v>
+        <v>0.23684224899598394</v>
       </c>
       <c r="B248" s="0">
-        <v>0.027074272657562563</v>
+        <v>0.028520988718731179</v>
       </c>
       <c r="C248" s="0">
-        <v>2.88881768580646</v>
+        <v>2.8850288068672496</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>0.21756273092369477</v>
+        <v>0.23780112449799196</v>
       </c>
       <c r="B249" s="0">
-        <v>0.027284886328781281</v>
+        <v>0.02875119435936559</v>
       </c>
       <c r="C249" s="0">
-        <v>2.9339373465067169</v>
+        <v>2.9317894740090789</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>0.21844</v>
+        <v>0.23876</v>
       </c>
       <c r="B250" s="0">
-        <v>0.027495499999999999</v>
+        <v>0.028981400000000001</v>
       </c>
       <c r="C250" s="0">
-        <v>2.9794066379798343</v>
+        <v>2.9789260503185817</v>
       </c>
     </row>
   </sheetData>

--- a/REGEN/Contour_Maelstrom.xlsx
+++ b/REGEN/Contour_Maelstrom.xlsx
@@ -59,7 +59,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="true"/>
+    <col min="1" max="1" width="15.5546875" customWidth="true"/>
     <col min="2" max="2" width="13.5546875" customWidth="true"/>
     <col min="3" max="3" width="11.5546875" customWidth="true"/>
   </cols>
@@ -72,2746 +72,2746 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C1" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.00095887550200803213</v>
+        <v>0.0008772690763052209</v>
       </c>
       <c r="B2" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C2" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0019177510040160643</v>
+        <v>0.0017545381526104418</v>
       </c>
       <c r="B3" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C3" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0028766265060240965</v>
+        <v>0.0026318072289156628</v>
       </c>
       <c r="B4" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C4" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0038355020080321285</v>
+        <v>0.0035090763052208836</v>
       </c>
       <c r="B5" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C5" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0047943775100401601</v>
+        <v>0.0043863453815261048</v>
       </c>
       <c r="B6" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C6" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.005753253012048193</v>
+        <v>0.0052636144578313256</v>
       </c>
       <c r="B7" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C7" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0067121285140562242</v>
+        <v>0.0061408835341365464</v>
       </c>
       <c r="B8" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C8" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0076710040160642571</v>
+        <v>0.0070181526104417672</v>
       </c>
       <c r="B9" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C9" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0086298795180722882</v>
+        <v>0.0078954216867469871</v>
       </c>
       <c r="B10" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C10" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0095887550200803202</v>
+        <v>0.0087726907630522096</v>
       </c>
       <c r="B11" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C11" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.010547630522088354</v>
+        <v>0.0096499598393574287</v>
       </c>
       <c r="B12" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C12" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.011506506024096386</v>
+        <v>0.010527228915662651</v>
       </c>
       <c r="B13" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C13" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.012465381526104418</v>
+        <v>0.01140449799196787</v>
       </c>
       <c r="B14" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C14" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.013424257028112448</v>
+        <v>0.012281767068273093</v>
       </c>
       <c r="B15" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C15" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.014383132530120482</v>
+        <v>0.013159036144578312</v>
       </c>
       <c r="B16" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C16" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.015342008032128514</v>
+        <v>0.014036305220883534</v>
       </c>
       <c r="B17" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C17" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.016300883534136546</v>
+        <v>0.014913574297188755</v>
       </c>
       <c r="B18" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C18" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.017259759036144576</v>
+        <v>0.015790843373493974</v>
       </c>
       <c r="B19" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C19" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.01821863453815261</v>
+        <v>0.016668112449799197</v>
       </c>
       <c r="B20" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C20" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.01917751004016064</v>
+        <v>0.017545381526104419</v>
       </c>
       <c r="B21" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C21" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.020136385542168674</v>
+        <v>0.018422650602409638</v>
       </c>
       <c r="B22" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C22" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.021095261044176708</v>
+        <v>0.019299919678714857</v>
       </c>
       <c r="B23" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C23" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.022054136546184738</v>
+        <v>0.02017718875502008</v>
       </c>
       <c r="B24" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C24" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.023013012048192772</v>
+        <v>0.021054457831325302</v>
       </c>
       <c r="B25" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C25" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.023971887550200806</v>
+        <v>0.021931726907630525</v>
       </c>
       <c r="B26" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C26" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.024930763052208836</v>
+        <v>0.022808995983935741</v>
       </c>
       <c r="B27" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C27" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.025889638554216866</v>
+        <v>0.023686265060240963</v>
       </c>
       <c r="B28" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C28" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.026848514056224897</v>
+        <v>0.024563534136546186</v>
       </c>
       <c r="B29" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C29" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.027807389558232931</v>
+        <v>0.025440803212851405</v>
       </c>
       <c r="B30" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C30" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.028766265060240964</v>
+        <v>0.026318072289156624</v>
       </c>
       <c r="B31" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C31" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.029725140562248994</v>
+        <v>0.027195341365461846</v>
       </c>
       <c r="B32" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C32" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.030684016064257028</v>
+        <v>0.028072610441767069</v>
       </c>
       <c r="B33" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C33" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.031642891566265062</v>
+        <v>0.028949879518072288</v>
       </c>
       <c r="B34" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C34" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.032601767068273092</v>
+        <v>0.02982714859437751</v>
       </c>
       <c r="B35" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C35" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.033560642570281123</v>
+        <v>0.030704417670682729</v>
       </c>
       <c r="B36" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C36" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.034519518072289153</v>
+        <v>0.031581686746987948</v>
       </c>
       <c r="B37" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C37" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.03547839357429719</v>
+        <v>0.032458955823293167</v>
       </c>
       <c r="B38" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C38" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.03643726907630522</v>
+        <v>0.033336224899598394</v>
       </c>
       <c r="B39" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C39" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.037396144578313258</v>
+        <v>0.034213493975903612</v>
       </c>
       <c r="B40" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C40" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.038355020080321281</v>
+        <v>0.035090763052208838</v>
       </c>
       <c r="B41" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C41" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.039313895582329318</v>
+        <v>0.035968032128514058</v>
       </c>
       <c r="B42" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C42" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.040272771084337349</v>
+        <v>0.036845301204819277</v>
       </c>
       <c r="B43" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C43" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.041231646586345379</v>
+        <v>0.037722570281124496</v>
       </c>
       <c r="B44" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C44" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.042190522088353416</v>
+        <v>0.038599839357429715</v>
       </c>
       <c r="B45" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C45" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.043149397590361446</v>
+        <v>0.039477108433734941</v>
       </c>
       <c r="B46" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C46" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.044108273092369477</v>
+        <v>0.04035437751004016</v>
       </c>
       <c r="B47" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C47" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.045067148594377507</v>
+        <v>0.041231646586345379</v>
       </c>
       <c r="B48" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C48" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.046026024096385544</v>
+        <v>0.042108915662650605</v>
       </c>
       <c r="B49" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C49" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.046984899598393574</v>
+        <v>0.042986184738955824</v>
       </c>
       <c r="B50" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C50" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.047943775100401612</v>
+        <v>0.04386345381526105</v>
       </c>
       <c r="B51" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C51" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.048902650602409635</v>
+        <v>0.044740722891566262</v>
       </c>
       <c r="B52" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C52" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.049861526104417672</v>
+        <v>0.045617991967871481</v>
       </c>
       <c r="B53" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C53" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.050820401606425702</v>
+        <v>0.046495261044176707</v>
       </c>
       <c r="B54" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C54" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.051779277108433733</v>
+        <v>0.047372530120481926</v>
       </c>
       <c r="B55" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C55" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.05273815261044177</v>
+        <v>0.048249799196787145</v>
       </c>
       <c r="B56" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C56" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.053697028112449793</v>
+        <v>0.049127068273092371</v>
       </c>
       <c r="B57" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C57" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.054655903614457831</v>
+        <v>0.05000433734939759</v>
       </c>
       <c r="B58" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C58" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.055614779116465861</v>
+        <v>0.050881606425702809</v>
       </c>
       <c r="B59" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C59" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.056573654618473898</v>
+        <v>0.051758875502008028</v>
       </c>
       <c r="B60" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C60" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.057532530120481928</v>
+        <v>0.052636144578313247</v>
       </c>
       <c r="B61" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C61" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.058491405622489966</v>
+        <v>0.053513413654618473</v>
       </c>
       <c r="B62" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C62" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.059450281124497989</v>
+        <v>0.054390682730923692</v>
       </c>
       <c r="B63" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C63" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.060409156626506026</v>
+        <v>0.055267951807228918</v>
       </c>
       <c r="B64" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C64" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.061368032128514057</v>
+        <v>0.056145220883534137</v>
       </c>
       <c r="B65" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C65" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.062326907630522087</v>
+        <v>0.057022489959839356</v>
       </c>
       <c r="B66" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C66" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.063285783132530124</v>
+        <v>0.057899759036144576</v>
       </c>
       <c r="B67" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C67" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.064244658634538154</v>
+        <v>0.058777028112449795</v>
       </c>
       <c r="B68" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C68" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.065203534136546185</v>
+        <v>0.059654297188755021</v>
       </c>
       <c r="B69" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C69" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.066162409638554229</v>
+        <v>0.06053156626506024</v>
       </c>
       <c r="B70" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C70" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.067121285140562245</v>
+        <v>0.061408835341365459</v>
       </c>
       <c r="B71" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C71" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.068080160642570276</v>
+        <v>0.062286104417670685</v>
       </c>
       <c r="B72" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C72" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.069039036144578306</v>
+        <v>0.063163373493975897</v>
       </c>
       <c r="B73" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C73" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.06999791164658635</v>
+        <v>0.064040642570281123</v>
       </c>
       <c r="B74" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C74" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.07095678714859438</v>
+        <v>0.064917911646586335</v>
       </c>
       <c r="B75" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C75" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0.07191566265060241</v>
+        <v>0.065795180722891561</v>
       </c>
       <c r="B76" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C76" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.072874538152610441</v>
+        <v>0.066672449799196787</v>
       </c>
       <c r="B77" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C77" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0.073833413654618471</v>
+        <v>0.067549718875502013</v>
       </c>
       <c r="B78" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C78" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.074792289156626515</v>
+        <v>0.068426987951807225</v>
       </c>
       <c r="B79" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C79" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.075751164658634546</v>
+        <v>0.069304257028112451</v>
       </c>
       <c r="B80" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C80" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.076710040160642562</v>
+        <v>0.070181526104417677</v>
       </c>
       <c r="B81" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C81" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.077668915662650592</v>
+        <v>0.071058795180722889</v>
       </c>
       <c r="B82" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C82" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0.078627791164658636</v>
+        <v>0.071936064257028115</v>
       </c>
       <c r="B83" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C83" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>0.079586666666666667</v>
+        <v>0.072813333333333341</v>
       </c>
       <c r="B84" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C84" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0.080545542168674697</v>
+        <v>0.073690602409638553</v>
       </c>
       <c r="B85" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C85" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>0.081504417670682727</v>
+        <v>0.074567871485943765</v>
       </c>
       <c r="B86" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C86" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0.082463293172690758</v>
+        <v>0.075445140562248991</v>
       </c>
       <c r="B87" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C87" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.083422168674698802</v>
+        <v>0.076322409638554203</v>
       </c>
       <c r="B88" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C88" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.084381044176706832</v>
+        <v>0.077199678714859429</v>
       </c>
       <c r="B89" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C89" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0.085339919678714862</v>
+        <v>0.078076947791164655</v>
       </c>
       <c r="B90" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C90" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.086298795180722893</v>
+        <v>0.078954216867469881</v>
       </c>
       <c r="B91" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C91" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>0.087257670682730923</v>
+        <v>0.079831485943775093</v>
       </c>
       <c r="B92" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C92" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0.088216546184738953</v>
+        <v>0.08070875502008032</v>
       </c>
       <c r="B93" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C93" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.089175421686746983</v>
+        <v>0.081586024096385546</v>
       </c>
       <c r="B94" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C94" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0.090134297188755014</v>
+        <v>0.082463293172690758</v>
       </c>
       <c r="B95" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C95" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.091093172690763058</v>
+        <v>0.083340562248995984</v>
       </c>
       <c r="B96" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C96" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.092052048192771088</v>
+        <v>0.08421783132530121</v>
       </c>
       <c r="B97" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C97" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0.093010923694779119</v>
+        <v>0.085095100401606422</v>
       </c>
       <c r="B98" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C98" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0.093969799196787149</v>
+        <v>0.085972369477911648</v>
       </c>
       <c r="B99" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C99" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.094928674698795179</v>
+        <v>0.086849638554216874</v>
       </c>
       <c r="B100" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C100" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.095887550200803223</v>
+        <v>0.0877269076305221</v>
       </c>
       <c r="B101" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C101" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0.096846425702811254</v>
+        <v>0.088604176706827298</v>
       </c>
       <c r="B102" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C102" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>0.09780530120481927</v>
+        <v>0.089481445783132524</v>
       </c>
       <c r="B103" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C103" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0.0987641767068273</v>
+        <v>0.09035871485943775</v>
       </c>
       <c r="B104" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C104" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>0.099723052208835344</v>
+        <v>0.091235983935742962</v>
       </c>
       <c r="B105" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C105" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0.10068192771084337</v>
+        <v>0.092113253012048188</v>
       </c>
       <c r="B106" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C106" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0.1016408032128514</v>
+        <v>0.092990522088353414</v>
       </c>
       <c r="B107" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C107" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0.10259967871485944</v>
+        <v>0.093867791164658626</v>
       </c>
       <c r="B108" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C108" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>0.10355855421686747</v>
+        <v>0.094745060240963852</v>
       </c>
       <c r="B109" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C109" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>0.10451742971887551</v>
+        <v>0.095622329317269078</v>
       </c>
       <c r="B110" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C110" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0.10547630522088354</v>
+        <v>0.09649959839357429</v>
       </c>
       <c r="B111" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C111" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>0.10643518072289157</v>
+        <v>0.097376867469879516</v>
       </c>
       <c r="B112" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C112" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>0.10739405622489959</v>
+        <v>0.098254136546184742</v>
       </c>
       <c r="B113" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C113" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>0.10835293172690763</v>
+        <v>0.099131405622489968</v>
       </c>
       <c r="B114" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C114" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0.10931180722891566</v>
+        <v>0.10000867469879518</v>
       </c>
       <c r="B115" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C115" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>0.11027068273092369</v>
+        <v>0.10088594377510041</v>
       </c>
       <c r="B116" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C116" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>0.11122955823293172</v>
+        <v>0.10176321285140562</v>
       </c>
       <c r="B117" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C117" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>0.11218843373493977</v>
+        <v>0.10264048192771083</v>
       </c>
       <c r="B118" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C118" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>0.1131473092369478</v>
+        <v>0.10351775100401606</v>
       </c>
       <c r="B119" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C119" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>0.11410618473895583</v>
+        <v>0.10439502008032128</v>
       </c>
       <c r="B120" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C120" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>0.11506506024096386</v>
+        <v>0.10527228915662649</v>
       </c>
       <c r="B121" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C121" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>0.11602393574297189</v>
+        <v>0.10614955823293172</v>
       </c>
       <c r="B122" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C122" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0.11698281124497993</v>
+        <v>0.10702682730923695</v>
       </c>
       <c r="B123" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C123" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0.11794168674698795</v>
+        <v>0.10790409638554217</v>
       </c>
       <c r="B124" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C124" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0.11890056224899598</v>
+        <v>0.10878136546184738</v>
       </c>
       <c r="B125" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C125" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>0.11985943775100401</v>
+        <v>0.10965863453815261</v>
       </c>
       <c r="B126" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C126" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0.12081831325301205</v>
+        <v>0.11053590361445784</v>
       </c>
       <c r="B127" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C127" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0.12177718875502008</v>
+        <v>0.11141317269076305</v>
       </c>
       <c r="B128" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C128" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0.12273606425702811</v>
+        <v>0.11229044176706827</v>
       </c>
       <c r="B129" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C129" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>0.12369493975903614</v>
+        <v>0.1131677108433735</v>
       </c>
       <c r="B130" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C130" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0.12465381526104417</v>
+        <v>0.11404497991967871</v>
       </c>
       <c r="B131" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C131" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>0.1256126907630522</v>
+        <v>0.11492224899598394</v>
       </c>
       <c r="B132" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C132" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>0.12657156626506025</v>
+        <v>0.11579951807228915</v>
       </c>
       <c r="B133" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C133" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>0.12753044176706827</v>
+        <v>0.11667678714859436</v>
       </c>
       <c r="B134" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C134" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>0.12848931726907631</v>
+        <v>0.11755405622489959</v>
       </c>
       <c r="B135" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C135" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>0.12944819277108432</v>
+        <v>0.11843132530120482</v>
       </c>
       <c r="B136" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C136" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>0.13040706827309237</v>
+        <v>0.11930859437751004</v>
       </c>
       <c r="B137" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C137" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>0.13136594377510041</v>
+        <v>0.12018586345381525</v>
       </c>
       <c r="B138" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C138" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>0.13232481927710846</v>
+        <v>0.12106313253012048</v>
       </c>
       <c r="B139" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C139" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>0.13328369477911647</v>
+        <v>0.12194040160642571</v>
       </c>
       <c r="B140" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C140" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>0.13424257028112449</v>
+        <v>0.12281767068273092</v>
       </c>
       <c r="B141" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C141" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>0.13520144578313253</v>
+        <v>0.12369493975903614</v>
       </c>
       <c r="B142" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C142" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>0.13616032128514055</v>
+        <v>0.12457220883534137</v>
       </c>
       <c r="B143" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C143" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>0.1371191967871486</v>
+        <v>0.12544947791164657</v>
       </c>
       <c r="B144" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C144" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>0.13807807228915661</v>
+        <v>0.12632674698795179</v>
       </c>
       <c r="B145" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C145" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>0.13903694779116466</v>
+        <v>0.12720401606425702</v>
       </c>
       <c r="B146" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C146" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>0.1399958232931727</v>
+        <v>0.12808128514056225</v>
       </c>
       <c r="B147" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C147" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>0.14095469879518074</v>
+        <v>0.12895855421686747</v>
       </c>
       <c r="B148" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C148" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>0.14191357429718876</v>
+        <v>0.12983582329317267</v>
       </c>
       <c r="B149" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C149" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>0.14287244979919678</v>
+        <v>0.1307130923694779</v>
       </c>
       <c r="B150" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C150" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>0.14383132530120482</v>
+        <v>0.13159036144578312</v>
       </c>
       <c r="B151" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C151" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3480451087897176</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>0.14479020080321284</v>
+        <v>0.13246763052208835</v>
       </c>
       <c r="B152" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.043179177500336327</v>
       </c>
       <c r="C152" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3477651779388937</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>0.14574907630522088</v>
+        <v>0.13334489959839357</v>
       </c>
       <c r="B153" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.043138827483513054</v>
       </c>
       <c r="C153" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3340389359190654</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>0.1467079518072289</v>
+        <v>0.1342221686746988</v>
       </c>
       <c r="B154" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.043037209692649056</v>
       </c>
       <c r="C154" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.2995275177448633</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>0.14766682730923694</v>
+        <v>0.13509943775100403</v>
       </c>
       <c r="B155" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042872817081216472</v>
       </c>
       <c r="C155" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.2438688654090022</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>0.14862570281124499</v>
+        <v>0.13597670682730922</v>
       </c>
       <c r="B156" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.04264310458260305</v>
       </c>
       <c r="C156" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.1664515434123128</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>0.14958457831325303</v>
+        <v>0.13685397590361445</v>
       </c>
       <c r="B157" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042344278692853808</v>
       </c>
       <c r="C157" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.0663641874026189</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>0.15054345381526105</v>
+        <v>0.13773124497991968</v>
       </c>
       <c r="B158" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.041970948727219508</v>
       </c>
       <c r="C158" s="0">
-        <v>6.6128135255224567</v>
+        <v>6.9423117208563223</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>0.15150232931726909</v>
+        <v>0.1386085140562249</v>
       </c>
       <c r="B159" s="0">
-        <v>0.043166394565478709</v>
+        <v>0.041515555914270363</v>
       </c>
       <c r="C159" s="0">
-        <v>6.6086469656694868</v>
+        <v>6.7924781986975518</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>0.15246120481927711</v>
+        <v>0.13948578313253013</v>
       </c>
       <c r="B160" s="0">
-        <v>0.043085478963667503</v>
+        <v>0.040967415504208113</v>
       </c>
       <c r="C160" s="0">
-        <v>6.58389430967362</v>
+        <v>6.614296680126035</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>0.15342008032128512</v>
+        <v>0.14036305220883535</v>
       </c>
       <c r="B161" s="0">
-        <v>0.042930409964303105</v>
+        <v>0.040311025964482994</v>
       </c>
       <c r="C161" s="0">
-        <v>6.5365873904226328</v>
+        <v>6.4040430239947961</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>0.15437895582329317</v>
+        <v>0.14124032128514055</v>
       </c>
       <c r="B162" s="0">
-        <v>0.042698364546790608</v>
+        <v>0.039522845625481542</v>
       </c>
       <c r="C162" s="0">
-        <v>6.466115856432249</v>
+        <v>6.1560614991563316</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>0.15533783132530118</v>
+        <v>0.14211759036144578</v>
       </c>
       <c r="B163" s="0">
-        <v>0.04238484236185508</v>
+        <v>0.038646015850478291</v>
       </c>
       <c r="C163" s="0">
-        <v>6.3715067091828424</v>
+        <v>5.8859422006254709</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>0.15629670682730923</v>
+        <v>0.14299485943775101</v>
       </c>
       <c r="B164" s="0">
-        <v>0.041983183327508354</v>
+        <v>0.037768746774173065</v>
       </c>
       <c r="C164" s="0">
-        <v>6.2513200049013458</v>
+        <v>5.6217520473418068</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>0.15725558232931727</v>
+        <v>0.14387212851405623</v>
       </c>
       <c r="B165" s="0">
-        <v>0.041483740146659717</v>
+        <v>0.036891477697867839</v>
       </c>
       <c r="C165" s="0">
-        <v>6.1034699486384767</v>
+        <v>5.3636278908310029</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>0.15821445783132532</v>
+        <v>0.14474939759036146</v>
       </c>
       <c r="B166" s="0">
-        <v>0.040872424322912</v>
+        <v>0.036014208621562613</v>
       </c>
       <c r="C166" s="0">
-        <v>5.9249105354508975</v>
+        <v>5.1115697310930637</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>0.15917333333333333</v>
+        <v>0.14562666666666668</v>
       </c>
       <c r="B167" s="0">
-        <v>0.04012799382996244</v>
+        <v>0.035136939545257387</v>
       </c>
       <c r="C167" s="0">
-        <v>5.7110491306598821</v>
+        <v>4.8655775681279847</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>0.16013220883534138</v>
+        <v>0.14650393574297191</v>
       </c>
       <c r="B168" s="0">
-        <v>0.039222931329655403</v>
+        <v>0.034259670468952168</v>
       </c>
       <c r="C168" s="0">
-        <v>5.4563358638756201</v>
+        <v>4.6256514019357731</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>0.16109108433734939</v>
+        <v>0.14738120481927711</v>
       </c>
       <c r="B169" s="0">
-        <v>0.038264055827647386</v>
+        <v>0.03338240139264697</v>
       </c>
       <c r="C169" s="0">
-        <v>5.1928168246791691</v>
+        <v>4.391791232516427</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>0.16204995983935744</v>
+        <v>0.14825847389558233</v>
       </c>
       <c r="B170" s="0">
-        <v>0.037305180325639342</v>
+        <v>0.032505132316341744</v>
       </c>
       <c r="C170" s="0">
-        <v>4.9358197051047812</v>
+        <v>4.1639970598699376</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>0.16300883534136545</v>
+        <v>0.14913574297188753</v>
       </c>
       <c r="B171" s="0">
-        <v>0.036346304823631326</v>
+        <v>0.031627863240036545</v>
       </c>
       <c r="C171" s="0">
-        <v>4.6853445051524716</v>
+        <v>3.9422688839963169</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>0.16396771084337347</v>
+        <v>0.15001301204819276</v>
       </c>
       <c r="B172" s="0">
-        <v>0.035387429321623309</v>
+        <v>0.030750594163731319</v>
       </c>
       <c r="C172" s="0">
-        <v>4.4413912248222323</v>
+        <v>3.7266067048955516</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>0.16492658634538152</v>
+        <v>0.15089028112449798</v>
       </c>
       <c r="B173" s="0">
-        <v>0.034428553819615265</v>
+        <v>0.029873325087426093</v>
       </c>
       <c r="C173" s="0">
-        <v>4.2039598641140579</v>
+        <v>3.5170105225676491</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>0.16588546184738956</v>
+        <v>0.15176755020080321</v>
       </c>
       <c r="B174" s="0">
-        <v>0.033469678317607221</v>
+        <v>0.028996056011120867</v>
       </c>
       <c r="C174" s="0">
-        <v>3.9730504230279524</v>
+        <v>3.3134803370126091</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>0.1668443373493976</v>
+        <v>0.15264481927710841</v>
       </c>
       <c r="B175" s="0">
-        <v>0.032510802815599177</v>
+        <v>0.028118786934815669</v>
       </c>
       <c r="C175" s="0">
-        <v>3.7486629015639181</v>
+        <v>3.1160161482304378</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>0.16780321285140562</v>
+        <v>0.15352208835341363</v>
       </c>
       <c r="B176" s="0">
-        <v>0.031551927313591161</v>
+        <v>0.027241517858510443</v>
       </c>
       <c r="C176" s="0">
-        <v>3.5307972997219621</v>
+        <v>2.9246179562211232</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>0.16876208835341366</v>
+        <v>0.15439935742971886</v>
       </c>
       <c r="B177" s="0">
-        <v>0.030593051811583116</v>
+        <v>0.026364248782205217</v>
       </c>
       <c r="C177" s="0">
-        <v>3.3194536175020688</v>
+        <v>2.7392857609846706</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>0.16972096385542168</v>
+        <v>0.15527662650602409</v>
       </c>
       <c r="B178" s="0">
-        <v>0.0296341763095751</v>
+        <v>0.025486979705899991</v>
       </c>
       <c r="C178" s="0">
-        <v>3.1146318549042533</v>
+        <v>2.5600195625210809</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>0.17067983935742973</v>
+        <v>0.15615389558232931</v>
       </c>
       <c r="B179" s="0">
-        <v>0.028675300807567056</v>
+        <v>0.024609710629594765</v>
       </c>
       <c r="C179" s="0">
-        <v>2.9163320119285023</v>
+        <v>2.3868193608303532</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>0.17163871485943774</v>
+        <v>0.15703116465863454</v>
       </c>
       <c r="B180" s="0">
-        <v>0.027716425305559039</v>
+        <v>0.023732441553289539</v>
       </c>
       <c r="C180" s="0">
-        <v>2.7245540885748278</v>
+        <v>2.2196851559124884</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>0.17259759036144579</v>
+        <v>0.15790843373493976</v>
       </c>
       <c r="B181" s="0">
-        <v>0.026757549803550995</v>
+        <v>0.022855172476984313</v>
       </c>
       <c r="C181" s="0">
-        <v>2.5392980848432183</v>
+        <v>2.0586169477674861</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>0.17355646586345383</v>
+        <v>0.15878570281124496</v>
       </c>
       <c r="B182" s="0">
-        <v>0.025798674301542951</v>
+        <v>0.021977903400679115</v>
       </c>
       <c r="C182" s="0">
-        <v>2.3605640007336794</v>
+        <v>1.9036147363953513</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>0.17451534136546185</v>
+        <v>0.15966297188755019</v>
       </c>
       <c r="B183" s="0">
-        <v>0.024839798799534935</v>
+        <v>0.021100634324373889</v>
       </c>
       <c r="C183" s="0">
-        <v>2.1883518362462171</v>
+        <v>1.7546785217960745</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>0.17547421686746989</v>
+        <v>0.16054024096385541</v>
       </c>
       <c r="B184" s="0">
-        <v>0.02388092329752689</v>
+        <v>0.020223365248068663</v>
       </c>
       <c r="C184" s="0">
-        <v>2.0226615913808192</v>
+        <v>1.6118083039696598</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>0.17643309236947791</v>
+        <v>0.16141751004016064</v>
       </c>
       <c r="B185" s="0">
-        <v>0.022922047795518874</v>
+        <v>0.019346096171763437</v>
       </c>
       <c r="C185" s="0">
-        <v>1.8634932661374972</v>
+        <v>1.4750040829161075</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>0.17739196787148595</v>
+        <v>0.16229477911646586</v>
       </c>
       <c r="B186" s="0">
-        <v>0.02196317229351083</v>
+        <v>0.018493455175667396</v>
       </c>
       <c r="C186" s="0">
-        <v>1.7108468605162417</v>
+        <v>1.3478533914019819</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>0.17835084337349397</v>
+        <v>0.16317204819277109</v>
       </c>
       <c r="B187" s="0">
-        <v>0.021004296791502813</v>
+        <v>0.017796062217276289</v>
       </c>
       <c r="C187" s="0">
-        <v>1.5647223745170609</v>
+        <v>1.2481143273854132</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>0.17930971887550201</v>
+        <v>0.16404931726907632</v>
       </c>
       <c r="B188" s="0">
-        <v>0.020045421289494769</v>
+        <v>0.017239523776832362</v>
       </c>
       <c r="C188" s="0">
-        <v>1.4251198081399468</v>
+        <v>1.1712701280009714</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>0.18026859437751003</v>
+        <v>0.16492658634538152</v>
       </c>
       <c r="B189" s="0">
-        <v>0.019145340378242136</v>
+        <v>0.016798483301277912</v>
       </c>
       <c r="C189" s="0">
-        <v>1.3000114698923837</v>
+        <v>1.1121072748644763</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>0.18122746987951807</v>
+        <v>0.16580385542168674</v>
       </c>
       <c r="B190" s="0">
-        <v>0.018437059540459856</v>
+        <v>0.016457056684091087</v>
       </c>
       <c r="C190" s="0">
-        <v>1.2056029906054122</v>
+        <v>1.0673598634509929</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>0.18218634538152612</v>
+        <v>0.16668112449799197</v>
       </c>
       <c r="B191" s="0">
-        <v>0.01788421113480837</v>
+        <v>0.016204912278723324</v>
       </c>
       <c r="C191" s="0">
-        <v>1.1343852657709359</v>
+        <v>1.0349036212264258</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>0.18314522088353416</v>
+        <v>0.16755839357429719</v>
       </c>
       <c r="B192" s="0">
-        <v>0.017459591057383601</v>
+        <v>0.01603532814974297</v>
       </c>
       <c r="C192" s="0">
-        <v>1.0811579220710357</v>
+        <v>1.0133564623106308</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>0.18410409638554218</v>
+        <v>0.16843566265060242</v>
       </c>
       <c r="B193" s="0">
-        <v>0.017146522161506472</v>
+        <v>0.015944161838408015</v>
       </c>
       <c r="C193" s="0">
-        <v>1.0427329335771689</v>
+        <v>1.0018666627031871</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>0.18506297188755019</v>
+        <v>0.16931293172690765</v>
       </c>
       <c r="B194" s="0">
-        <v>0.016934537564160419</v>
+        <v>0.015929301453550742</v>
       </c>
       <c r="C194" s="0">
-        <v>1.0171094367669416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>0.18602184738955824</v>
+        <v>0.17019020080321284</v>
       </c>
       <c r="B195" s="0">
-        <v>0.016817290602423818</v>
+        <v>0.015990410023237825</v>
       </c>
       <c r="C195" s="0">
-        <v>1.0030741949672455</v>
+        <v>1.0076871899665227</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>0.18698072289156625</v>
+        <v>0.17106746987951807</v>
       </c>
       <c r="B196" s="0">
-        <v>0.016791500235609228</v>
+        <v>0.01612888618208877</v>
       </c>
       <c r="C196" s="0">
-        <v>1</v>
+        <v>1.0252158035231778</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>0.1879395983935743</v>
+        <v>0.1719447389558233</v>
       </c>
       <c r="B197" s="0">
-        <v>0.016856465345219639</v>
+        <v>0.016332975425408</v>
       </c>
       <c r="C197" s="0">
-        <v>1.0077528251044863</v>
+        <v>1.0513253949065233</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>0.18889847389558231</v>
+        <v>0.17282200803212852</v>
       </c>
       <c r="B198" s="0">
-        <v>0.017013966048167781</v>
+        <v>0.016543589096626718</v>
       </c>
       <c r="C198" s="0">
-        <v>1.0266729598387934</v>
+        <v>1.0786138861908896</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>0.18985734939759036</v>
+        <v>0.17369927710843375</v>
       </c>
       <c r="B199" s="0">
-        <v>0.017240912327645009</v>
+        <v>0.016754202767845436</v>
       </c>
       <c r="C199" s="0">
-        <v>1.0542448473181347</v>
+        <v>1.1062520082481162</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>0.1908162248995984</v>
+        <v>0.17457654618473897</v>
       </c>
       <c r="B200" s="0">
-        <v>0.01747111796827942</v>
+        <v>0.016964816439064154</v>
       </c>
       <c r="C200" s="0">
-        <v>1.0825859652439427</v>
+        <v>1.1342397610782034</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>0.19177510040160645</v>
+        <v>0.1754538152610442</v>
       </c>
       <c r="B201" s="0">
-        <v>0.017701323608913837</v>
+        <v>0.017175430110282872</v>
       </c>
       <c r="C201" s="0">
-        <v>1.1113029923374258</v>
+        <v>1.1625771446811515</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>0.19273397590361446</v>
+        <v>0.17633108433734937</v>
       </c>
       <c r="B202" s="0">
-        <v>0.017931529249548241</v>
+        <v>0.017386043781501576</v>
       </c>
       <c r="C202" s="0">
-        <v>1.140395928598581</v>
+        <v>1.1912641590569579</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>0.19369285140562251</v>
+        <v>0.1772083534136546</v>
       </c>
       <c r="B203" s="0">
-        <v>0.018161734890182659</v>
+        <v>0.017596657452720294</v>
       </c>
       <c r="C203" s="0">
-        <v>1.1698647740274113</v>
+        <v>1.2203008042056269</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>0.19465172690763052</v>
+        <v>0.17808562248995982</v>
       </c>
       <c r="B204" s="0">
-        <v>0.018391940530817063</v>
+        <v>0.017807271123939011</v>
       </c>
       <c r="C204" s="0">
-        <v>1.1997095286239143</v>
+        <v>1.2496870801271571</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>0.19561060240963854</v>
+        <v>0.17896289156626505</v>
       </c>
       <c r="B205" s="0">
-        <v>0.018622146171451474</v>
+        <v>0.018017884795157729</v>
       </c>
       <c r="C205" s="0">
-        <v>1.2299301923880921</v>
+        <v>1.2794229868215472</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>0.19656947791164659</v>
+        <v>0.17984016064257027</v>
       </c>
       <c r="B206" s="0">
-        <v>0.018852351812085891</v>
+        <v>0.018228498466376447</v>
       </c>
       <c r="C206" s="0">
-        <v>1.2605267653199448</v>
+        <v>1.3095085242887981</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>0.1975283534136546</v>
+        <v>0.1807174297188755</v>
       </c>
       <c r="B207" s="0">
-        <v>0.019082557452720295</v>
+        <v>0.018439112137595165</v>
       </c>
       <c r="C207" s="0">
-        <v>1.2914992474194693</v>
+        <v>1.3399436925289099</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>0.19848722891566265</v>
+        <v>0.1815946987951807</v>
       </c>
       <c r="B208" s="0">
-        <v>0.019312763093354713</v>
+        <v>0.018649725808813876</v>
       </c>
       <c r="C208" s="0">
-        <v>1.3228476386866694</v>
+        <v>1.3707284915418809</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>0.19944610441767069</v>
+        <v>0.18247196787148592</v>
       </c>
       <c r="B209" s="0">
-        <v>0.019542968733989124</v>
+        <v>0.018860339480032594</v>
       </c>
       <c r="C209" s="0">
-        <v>1.3545719391215427</v>
+        <v>1.4018629213277134</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>0.20040497991967873</v>
+        <v>0.18334923694779115</v>
       </c>
       <c r="B210" s="0">
-        <v>0.019773174374623542</v>
+        <v>0.019070953151251312</v>
       </c>
       <c r="C210" s="0">
-        <v>1.3866721487240912</v>
+        <v>1.4333469818864071</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>0.20136385542168675</v>
+        <v>0.18422650602409638</v>
       </c>
       <c r="B211" s="0">
-        <v>0.020003380015257945</v>
+        <v>0.019281566822470037</v>
       </c>
       <c r="C211" s="0">
-        <v>1.4191482674943112</v>
+        <v>1.465180673217962</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>0.20232273092369479</v>
+        <v>0.1851037751004016</v>
       </c>
       <c r="B212" s="0">
-        <v>0.020233585655892363</v>
+        <v>0.019492180493688754</v>
       </c>
       <c r="C212" s="0">
-        <v>1.4520002954322069</v>
+        <v>1.4973639953223763</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>0.20328160642570281</v>
+        <v>0.18598104417670683</v>
       </c>
       <c r="B213" s="0">
-        <v>0.020463791296526767</v>
+        <v>0.019702794164907472</v>
       </c>
       <c r="C213" s="0">
-        <v>1.4852282325377748</v>
+        <v>1.5298969481996521</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>0.20424048192771083</v>
+        <v>0.18685831325301205</v>
       </c>
       <c r="B214" s="0">
-        <v>0.020693996937161178</v>
+        <v>0.01991340783612619</v>
       </c>
       <c r="C214" s="0">
-        <v>1.5188320788110179</v>
+        <v>1.5627795318497877</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>0.20519935742971887</v>
+        <v>0.18773558232931725</v>
       </c>
       <c r="B215" s="0">
-        <v>0.020924202577795596</v>
+        <v>0.020124021507344901</v>
       </c>
       <c r="C215" s="0">
-        <v>1.5528118342519357</v>
+        <v>1.5960117462727827</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>0.20615823293172689</v>
+        <v>0.18861285140562248</v>
       </c>
       <c r="B216" s="0">
-        <v>0.021154408218429999</v>
+        <v>0.020334635178563619</v>
       </c>
       <c r="C216" s="0">
-        <v>1.5871674988605253</v>
+        <v>1.6295935914686401</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>0.20711710843373493</v>
+        <v>0.18949012048192771</v>
       </c>
       <c r="B217" s="0">
-        <v>0.021384613859064417</v>
+        <v>0.020545248849782337</v>
       </c>
       <c r="C217" s="0">
-        <v>1.6218990726367906</v>
+        <v>1.6635250674373576</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>0.20807598393574298</v>
+        <v>0.19036738955823293</v>
       </c>
       <c r="B218" s="0">
-        <v>0.021614819499698828</v>
+        <v>0.020755862521001055</v>
       </c>
       <c r="C218" s="0">
-        <v>1.657006555580729</v>
+        <v>1.6978061741789357</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>0.20903485943775102</v>
+        <v>0.19124465863453816</v>
       </c>
       <c r="B219" s="0">
-        <v>0.021845025140333246</v>
+        <v>0.020966476192219773</v>
       </c>
       <c r="C219" s="0">
-        <v>1.6924899476923425</v>
+        <v>1.7324369116933749</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>0.20999373493975904</v>
+        <v>0.19212192771084338</v>
       </c>
       <c r="B220" s="0">
-        <v>0.022075230780967649</v>
+        <v>0.02117708986343849</v>
       </c>
       <c r="C220" s="0">
-        <v>1.7283492489716277</v>
+        <v>1.767417279980674</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>0.21095261044176708</v>
+        <v>0.19299919678714858</v>
       </c>
       <c r="B221" s="0">
-        <v>0.022305436421602067</v>
+        <v>0.021387703534657201</v>
       </c>
       <c r="C221" s="0">
-        <v>1.7645844594185887</v>
+        <v>1.8027472790408328</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>0.2119114859437751</v>
+        <v>0.19387646586345381</v>
       </c>
       <c r="B222" s="0">
-        <v>0.022535642062236471</v>
+        <v>0.021598317205875919</v>
       </c>
       <c r="C222" s="0">
-        <v>1.8011955790332215</v>
+        <v>1.8384269088738538</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>0.21287036144578314</v>
+        <v>0.19475373493975903</v>
       </c>
       <c r="B223" s="0">
-        <v>0.022765847702870889</v>
+        <v>0.021808930877094637</v>
       </c>
       <c r="C223" s="0">
-        <v>1.8381826078155308</v>
+        <v>1.8744561694797348</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>0.21382923694779116</v>
+        <v>0.19563100401606426</v>
       </c>
       <c r="B224" s="0">
-        <v>0.0229960533435053</v>
+        <v>0.022019544548313355</v>
       </c>
       <c r="C224" s="0">
-        <v>1.8755455457655126</v>
+        <v>1.9108350608584765</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>0.21478811244979917</v>
+        <v>0.19650827309236948</v>
       </c>
       <c r="B225" s="0">
-        <v>0.023226258984139703</v>
+        <v>0.022230158219532073</v>
       </c>
       <c r="C225" s="0">
-        <v>1.9132843928831667</v>
+        <v>1.9475635830100795</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>0.21574698795180722</v>
+        <v>0.19738554216867471</v>
       </c>
       <c r="B226" s="0">
-        <v>0.023456464624774121</v>
+        <v>0.022440771890750791</v>
       </c>
       <c r="C226" s="0">
-        <v>1.9513991491684977</v>
+        <v>1.9846417359345423</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>0.21670586345381526</v>
+        <v>0.19826281124497994</v>
       </c>
       <c r="B227" s="0">
-        <v>0.023686670265408532</v>
+        <v>0.022651385561969516</v>
       </c>
       <c r="C227" s="0">
-        <v>1.9898898146215012</v>
+        <v>2.022069519631867</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>0.21766473895582331</v>
+        <v>0.19914008032128513</v>
       </c>
       <c r="B228" s="0">
-        <v>0.02391687590604295</v>
+        <v>0.022861999233188227</v>
       </c>
       <c r="C228" s="0">
-        <v>2.0287563892421798</v>
+        <v>2.0598469341020507</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>0.21862361445783132</v>
+        <v>0.20001734939759036</v>
       </c>
       <c r="B229" s="0">
-        <v>0.024147081546677354</v>
+        <v>0.023072612904406944</v>
       </c>
       <c r="C229" s="0">
-        <v>2.0679988730305294</v>
+        <v>2.0979739793450953</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>0.21958248995983937</v>
+        <v>0.20089461847389559</v>
       </c>
       <c r="B230" s="0">
-        <v>0.024377287187311771</v>
+        <v>0.023283226575625662</v>
       </c>
       <c r="C230" s="0">
-        <v>2.1076172659865562</v>
+        <v>2.1364506553610005</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>0.22054136546184738</v>
+        <v>0.20177188755020081</v>
       </c>
       <c r="B231" s="0">
-        <v>0.024607492827946182</v>
+        <v>0.02349384024684438</v>
       </c>
       <c r="C231" s="0">
-        <v>2.1476115681102557</v>
+        <v>2.1752769621497672</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>0.22150024096385543</v>
+        <v>0.20264915662650604</v>
       </c>
       <c r="B232" s="0">
-        <v>0.024837698468580593</v>
+        <v>0.023704453918063098</v>
       </c>
       <c r="C232" s="0">
-        <v>2.1879817794016288</v>
+        <v>2.2144528997113935</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>0.22245911646586344</v>
+        <v>0.20352642570281124</v>
       </c>
       <c r="B233" s="0">
-        <v>0.025067904109215004</v>
+        <v>0.023915067589281809</v>
       </c>
       <c r="C233" s="0">
-        <v>2.228727899860675</v>
+        <v>2.2539784680458794</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>0.22341799196787149</v>
+        <v>0.20440369477911646</v>
       </c>
       <c r="B234" s="0">
-        <v>0.025298109749849414</v>
+        <v>0.024125681260500527</v>
       </c>
       <c r="C234" s="0">
-        <v>2.2698499294873957</v>
+        <v>2.2938536671532277</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>0.22437686746987953</v>
+        <v>0.20528096385542166</v>
       </c>
       <c r="B235" s="0">
-        <v>0.025528315390483832</v>
+        <v>0.024336294931719238</v>
       </c>
       <c r="C235" s="0">
-        <v>2.3113478682817923</v>
+        <v>2.3340784970334347</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>0.22533574297188755</v>
+        <v>0.20615823293172689</v>
       </c>
       <c r="B236" s="0">
-        <v>0.025758521031118236</v>
+        <v>0.024546908602937956</v>
       </c>
       <c r="C236" s="0">
-        <v>2.3532217162438593</v>
+        <v>2.3746529576865045</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>0.22629461847389559</v>
+        <v>0.20703550200803211</v>
       </c>
       <c r="B237" s="0">
-        <v>0.025988726671752654</v>
+        <v>0.024757522274156674</v>
       </c>
       <c r="C237" s="0">
-        <v>2.3954714733736027</v>
+        <v>2.415577049112434</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>0.22725349397590361</v>
+        <v>0.20791277108433734</v>
       </c>
       <c r="B238" s="0">
-        <v>0.026218932312387058</v>
+        <v>0.024968135945375392</v>
       </c>
       <c r="C238" s="0">
-        <v>2.4380971396710178</v>
+        <v>2.456850771311224</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>0.22821236947791165</v>
+        <v>0.20879004016064256</v>
       </c>
       <c r="B239" s="0">
-        <v>0.026449137953021475</v>
+        <v>0.025178749616594109</v>
       </c>
       <c r="C239" s="0">
-        <v>2.4810987151361097</v>
+        <v>2.4984741242828754</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>0.22917124497991967</v>
+        <v>0.20966730923694779</v>
       </c>
       <c r="B240" s="0">
-        <v>0.026679343593655886</v>
+        <v>0.025389363287812827</v>
       </c>
       <c r="C240" s="0">
-        <v>2.5244761997688743</v>
+        <v>2.5404471080273869</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>0.23013012048192771</v>
+        <v>0.21054457831325299</v>
       </c>
       <c r="B241" s="0">
-        <v>0.026909549234290297</v>
+        <v>0.025599976959031538</v>
       </c>
       <c r="C241" s="0">
-        <v>2.5682295935693116</v>
+        <v>2.5827697225447572</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>0.23108899598393573</v>
+        <v>0.21142184738955822</v>
       </c>
       <c r="B242" s="0">
-        <v>0.027139754874924708</v>
+        <v>0.025810590630250263</v>
       </c>
       <c r="C242" s="0">
-        <v>2.6123588965374238</v>
+        <v>2.6254419678349912</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>0.23204787148594378</v>
+        <v>0.21229911646586344</v>
       </c>
       <c r="B243" s="0">
-        <v>0.027369960515559119</v>
+        <v>0.026021204301468981</v>
       </c>
       <c r="C243" s="0">
-        <v>2.6568641086732101</v>
+        <v>2.6684638438980852</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>0.23300674698795182</v>
+        <v>0.21317638554216867</v>
       </c>
       <c r="B244" s="0">
-        <v>0.027600166156193536</v>
+        <v>0.026231817972687699</v>
       </c>
       <c r="C244" s="0">
-        <v>2.7017452299766713</v>
+        <v>2.7118353507340389</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>0.23396562248995986</v>
+        <v>0.21405365461847389</v>
       </c>
       <c r="B245" s="0">
-        <v>0.027830371796827947</v>
+        <v>0.026442431643906417</v>
       </c>
       <c r="C245" s="0">
-        <v>2.7470022604478044</v>
+        <v>2.7555564883428536</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>0.23492449799196788</v>
+        <v>0.21493092369477912</v>
       </c>
       <c r="B246" s="0">
-        <v>0.028060577437462358</v>
+        <v>0.026653045315125135</v>
       </c>
       <c r="C246" s="0">
-        <v>2.7926352000866124</v>
+        <v>2.7996272567245293</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>0.2358833734939759</v>
+        <v>0.21580819277108435</v>
       </c>
       <c r="B247" s="0">
-        <v>0.028290783078096762</v>
+        <v>0.026863658986343853</v>
       </c>
       <c r="C247" s="0">
-        <v>2.8386440488930926</v>
+        <v>2.8440476558790646</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>0.23684224899598394</v>
+        <v>0.21668546184738954</v>
       </c>
       <c r="B248" s="0">
-        <v>0.028520988718731179</v>
+        <v>0.027074272657562563</v>
       </c>
       <c r="C248" s="0">
-        <v>2.8850288068672496</v>
+        <v>2.88881768580646</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>0.23780112449799196</v>
+        <v>0.21756273092369477</v>
       </c>
       <c r="B249" s="0">
-        <v>0.02875119435936559</v>
+        <v>0.027284886328781281</v>
       </c>
       <c r="C249" s="0">
-        <v>2.9317894740090789</v>
+        <v>2.9339373465067169</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>0.23876</v>
+        <v>0.21844</v>
       </c>
       <c r="B250" s="0">
-        <v>0.028981400000000001</v>
+        <v>0.027495499999999999</v>
       </c>
       <c r="C250" s="0">
-        <v>2.9789260503185817</v>
+        <v>2.9794066379798343</v>
       </c>
     </row>
   </sheetData>

--- a/REGEN/Contour_Maelstrom.xlsx
+++ b/REGEN/Contour_Maelstrom.xlsx
@@ -53,13 +53,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C250"/>
+  <dimension ref="A1:C700"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="true"/>
+    <col min="1" max="1" width="15.5546875" customWidth="true"/>
     <col min="2" max="2" width="13.5546875" customWidth="true"/>
     <col min="3" max="3" width="11.5546875" customWidth="true"/>
   </cols>
@@ -72,2746 +72,7696 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C1" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.00095887550200803213</v>
+        <v>0.00031250357653791127</v>
       </c>
       <c r="B2" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C2" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0019177510040160643</v>
+        <v>0.00062500715307582254</v>
       </c>
       <c r="B3" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C3" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0028766265060240965</v>
+        <v>0.00093751072961373392</v>
       </c>
       <c r="B4" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C4" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0038355020080321285</v>
+        <v>0.0012500143061516451</v>
       </c>
       <c r="B5" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C5" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0047943775100401601</v>
+        <v>0.0015625178826895567</v>
       </c>
       <c r="B6" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C6" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.005753253012048193</v>
+        <v>0.0018750214592274678</v>
       </c>
       <c r="B7" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C7" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0067121285140562242</v>
+        <v>0.002187525035765379</v>
       </c>
       <c r="B8" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C8" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0076710040160642571</v>
+        <v>0.0025000286123032902</v>
       </c>
       <c r="B9" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C9" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0086298795180722882</v>
+        <v>0.0028125321888412018</v>
       </c>
       <c r="B10" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C10" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0095887550200803202</v>
+        <v>0.0031250357653791134</v>
       </c>
       <c r="B11" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C11" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.010547630522088354</v>
+        <v>0.0034375393419170241</v>
       </c>
       <c r="B12" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C12" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.011506506024096386</v>
+        <v>0.0037500429184549357</v>
       </c>
       <c r="B13" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C13" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.012465381526104418</v>
+        <v>0.0040625464949928464</v>
       </c>
       <c r="B14" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C14" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.013424257028112448</v>
+        <v>0.004375050071530758</v>
       </c>
       <c r="B15" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C15" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.014383132530120482</v>
+        <v>0.0046875536480686687</v>
       </c>
       <c r="B16" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C16" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.015342008032128514</v>
+        <v>0.0050000572246065803</v>
       </c>
       <c r="B17" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C17" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.016300883534136546</v>
+        <v>0.0053125608011444919</v>
       </c>
       <c r="B18" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C18" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.017259759036144576</v>
+        <v>0.0056250643776824035</v>
       </c>
       <c r="B19" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C19" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.01821863453815261</v>
+        <v>0.0059375679542203151</v>
       </c>
       <c r="B20" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C20" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.01917751004016064</v>
+        <v>0.0062500715307582267</v>
       </c>
       <c r="B21" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C21" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.020136385542168674</v>
+        <v>0.0065625751072961366</v>
       </c>
       <c r="B22" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C22" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.021095261044176708</v>
+        <v>0.0068750786838340482</v>
       </c>
       <c r="B23" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C23" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.022054136546184738</v>
+        <v>0.0071875822603719598</v>
       </c>
       <c r="B24" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C24" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.023013012048192772</v>
+        <v>0.0075000858369098714</v>
       </c>
       <c r="B25" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C25" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.023971887550200806</v>
+        <v>0.0078125894134477829</v>
       </c>
       <c r="B26" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C26" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.024930763052208836</v>
+        <v>0.0081250929899856928</v>
       </c>
       <c r="B27" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C27" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.025889638554216866</v>
+        <v>0.0084375965665236044</v>
       </c>
       <c r="B28" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C28" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.026848514056224897</v>
+        <v>0.008750100143061516</v>
       </c>
       <c r="B29" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C29" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.027807389558232931</v>
+        <v>0.0090626037195994276</v>
       </c>
       <c r="B30" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C30" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.028766265060240964</v>
+        <v>0.0093751072961373375</v>
       </c>
       <c r="B31" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C31" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.029725140562248994</v>
+        <v>0.009687610872675249</v>
       </c>
       <c r="B32" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C32" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.030684016064257028</v>
+        <v>0.010000114449213161</v>
       </c>
       <c r="B33" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C33" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.031642891566265062</v>
+        <v>0.010312618025751072</v>
       </c>
       <c r="B34" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C34" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.032601767068273092</v>
+        <v>0.010625121602288984</v>
       </c>
       <c r="B35" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C35" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.033560642570281123</v>
+        <v>0.010937625178826895</v>
       </c>
       <c r="B36" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C36" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.034519518072289153</v>
+        <v>0.011250128755364807</v>
       </c>
       <c r="B37" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C37" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.03547839357429719</v>
+        <v>0.011562632331902717</v>
       </c>
       <c r="B38" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C38" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.03643726907630522</v>
+        <v>0.01187513590844063</v>
       </c>
       <c r="B39" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C39" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.037396144578313258</v>
+        <v>0.01218763948497854</v>
       </c>
       <c r="B40" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C40" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.038355020080321281</v>
+        <v>0.012500143061516453</v>
       </c>
       <c r="B41" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C41" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.039313895582329318</v>
+        <v>0.012812646638054363</v>
       </c>
       <c r="B42" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C42" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.040272771084337349</v>
+        <v>0.013125150214592273</v>
       </c>
       <c r="B43" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C43" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.041231646586345379</v>
+        <v>0.013437653791130186</v>
       </c>
       <c r="B44" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C44" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.042190522088353416</v>
+        <v>0.013750157367668096</v>
       </c>
       <c r="B45" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C45" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.043149397590361446</v>
+        <v>0.01406266094420601</v>
       </c>
       <c r="B46" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C46" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.044108273092369477</v>
+        <v>0.01437516452074392</v>
       </c>
       <c r="B47" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C47" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.045067148594377507</v>
+        <v>0.014687668097281829</v>
       </c>
       <c r="B48" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C48" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.046026024096385544</v>
+        <v>0.015000171673819743</v>
       </c>
       <c r="B49" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C49" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.046984899598393574</v>
+        <v>0.015312675250357653</v>
       </c>
       <c r="B50" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C50" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.047943775100401612</v>
+        <v>0.015625178826895566</v>
       </c>
       <c r="B51" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C51" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.048902650602409635</v>
+        <v>0.015937682403433476</v>
       </c>
       <c r="B52" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C52" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.049861526104417672</v>
+        <v>0.016250185979971386</v>
       </c>
       <c r="B53" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C53" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.050820401606425702</v>
+        <v>0.016562689556509299</v>
       </c>
       <c r="B54" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C54" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.051779277108433733</v>
+        <v>0.016875193133047209</v>
       </c>
       <c r="B55" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C55" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.05273815261044177</v>
+        <v>0.017187696709585119</v>
       </c>
       <c r="B56" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C56" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.053697028112449793</v>
+        <v>0.017500200286123032</v>
       </c>
       <c r="B57" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C57" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.054655903614457831</v>
+        <v>0.017812703862660942</v>
       </c>
       <c r="B58" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C58" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.055614779116465861</v>
+        <v>0.018125207439198855</v>
       </c>
       <c r="B59" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C59" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.056573654618473898</v>
+        <v>0.018437711015736765</v>
       </c>
       <c r="B60" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C60" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.057532530120481928</v>
+        <v>0.018750214592274675</v>
       </c>
       <c r="B61" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C61" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.058491405622489966</v>
+        <v>0.019062718168812588</v>
       </c>
       <c r="B62" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C62" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.059450281124497989</v>
+        <v>0.019375221745350498</v>
       </c>
       <c r="B63" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C63" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.060409156626506026</v>
+        <v>0.019687725321888412</v>
       </c>
       <c r="B64" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C64" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.061368032128514057</v>
+        <v>0.020000228898426321</v>
       </c>
       <c r="B65" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C65" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.062326907630522087</v>
+        <v>0.020312732474964235</v>
       </c>
       <c r="B66" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C66" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.063285783132530124</v>
+        <v>0.020625236051502144</v>
       </c>
       <c r="B67" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C67" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.064244658634538154</v>
+        <v>0.020937739628040058</v>
       </c>
       <c r="B68" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C68" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.065203534136546185</v>
+        <v>0.021250243204577968</v>
       </c>
       <c r="B69" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C69" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.066162409638554229</v>
+        <v>0.021562746781115881</v>
       </c>
       <c r="B70" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C70" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.067121285140562245</v>
+        <v>0.021875250357653791</v>
       </c>
       <c r="B71" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C71" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.068080160642570276</v>
+        <v>0.022187753934191704</v>
       </c>
       <c r="B72" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C72" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.069039036144578306</v>
+        <v>0.022500257510729614</v>
       </c>
       <c r="B73" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C73" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.06999791164658635</v>
+        <v>0.022812761087267527</v>
       </c>
       <c r="B74" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C74" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.07095678714859438</v>
+        <v>0.023125264663805434</v>
       </c>
       <c r="B75" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C75" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0.07191566265060241</v>
+        <v>0.023437768240343347</v>
       </c>
       <c r="B76" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C76" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.072874538152610441</v>
+        <v>0.023750271816881261</v>
       </c>
       <c r="B77" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C77" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0.073833413654618471</v>
+        <v>0.024062775393419174</v>
       </c>
       <c r="B78" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C78" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.074792289156626515</v>
+        <v>0.02437527896995708</v>
       </c>
       <c r="B79" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C79" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.075751164658634546</v>
+        <v>0.024687782546494993</v>
       </c>
       <c r="B80" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C80" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.076710040160642562</v>
+        <v>0.025000286123032907</v>
       </c>
       <c r="B81" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C81" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.077668915662650592</v>
+        <v>0.025312789699570813</v>
       </c>
       <c r="B82" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C82" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0.078627791164658636</v>
+        <v>0.025625293276108727</v>
       </c>
       <c r="B83" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C83" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>0.079586666666666667</v>
+        <v>0.02593779685264664</v>
       </c>
       <c r="B84" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C84" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0.080545542168674697</v>
+        <v>0.026250300429184546</v>
       </c>
       <c r="B85" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C85" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>0.081504417670682727</v>
+        <v>0.02656280400572246</v>
       </c>
       <c r="B86" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C86" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0.082463293172690758</v>
+        <v>0.026875307582260373</v>
       </c>
       <c r="B87" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C87" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.083422168674698802</v>
+        <v>0.027187811158798279</v>
       </c>
       <c r="B88" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C88" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.084381044176706832</v>
+        <v>0.027500314735336193</v>
       </c>
       <c r="B89" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C89" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0.085339919678714862</v>
+        <v>0.027812818311874106</v>
       </c>
       <c r="B90" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C90" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.086298795180722893</v>
+        <v>0.028125321888412019</v>
       </c>
       <c r="B91" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C91" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>0.087257670682730923</v>
+        <v>0.028437825464949926</v>
       </c>
       <c r="B92" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C92" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0.088216546184738953</v>
+        <v>0.028750329041487839</v>
       </c>
       <c r="B93" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C93" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.089175421686746983</v>
+        <v>0.029062832618025752</v>
       </c>
       <c r="B94" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C94" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0.090134297188755014</v>
+        <v>0.029375336194563659</v>
       </c>
       <c r="B95" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C95" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.091093172690763058</v>
+        <v>0.029687839771101572</v>
       </c>
       <c r="B96" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C96" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.092052048192771088</v>
+        <v>0.030000343347639486</v>
       </c>
       <c r="B97" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C97" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0.093010923694779119</v>
+        <v>0.030312846924177392</v>
       </c>
       <c r="B98" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C98" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0.093969799196787149</v>
+        <v>0.030625350500715305</v>
       </c>
       <c r="B99" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C99" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.094928674698795179</v>
+        <v>0.030937854077253218</v>
       </c>
       <c r="B100" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C100" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.095887550200803223</v>
+        <v>0.031250357653791132</v>
       </c>
       <c r="B101" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C101" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0.096846425702811254</v>
+        <v>0.031562861230329038</v>
       </c>
       <c r="B102" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C102" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>0.09780530120481927</v>
+        <v>0.031875364806866952</v>
       </c>
       <c r="B103" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C103" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0.0987641767068273</v>
+        <v>0.032187868383404865</v>
       </c>
       <c r="B104" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C104" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>0.099723052208835344</v>
+        <v>0.032500371959942771</v>
       </c>
       <c r="B105" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C105" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0.10068192771084337</v>
+        <v>0.032812875536480685</v>
       </c>
       <c r="B106" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C106" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0.1016408032128514</v>
+        <v>0.033125379113018598</v>
       </c>
       <c r="B107" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C107" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0.10259967871485944</v>
+        <v>0.033437882689556504</v>
       </c>
       <c r="B108" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C108" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>0.10355855421686747</v>
+        <v>0.033750386266094418</v>
       </c>
       <c r="B109" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C109" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>0.10451742971887551</v>
+        <v>0.034062889842632331</v>
       </c>
       <c r="B110" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C110" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0.10547630522088354</v>
+        <v>0.034375393419170237</v>
       </c>
       <c r="B111" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C111" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>0.10643518072289157</v>
+        <v>0.034687896995708151</v>
       </c>
       <c r="B112" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C112" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>0.10739405622489959</v>
+        <v>0.035000400572246064</v>
       </c>
       <c r="B113" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C113" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>0.10835293172690763</v>
+        <v>0.035312904148783977</v>
       </c>
       <c r="B114" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C114" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0.10931180722891566</v>
+        <v>0.035625407725321884</v>
       </c>
       <c r="B115" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C115" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>0.11027068273092369</v>
+        <v>0.035937911301859797</v>
       </c>
       <c r="B116" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C116" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>0.11122955823293172</v>
+        <v>0.03625041487839771</v>
       </c>
       <c r="B117" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C117" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>0.11218843373493977</v>
+        <v>0.036562918454935617</v>
       </c>
       <c r="B118" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C118" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>0.1131473092369478</v>
+        <v>0.03687542203147353</v>
       </c>
       <c r="B119" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C119" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>0.11410618473895583</v>
+        <v>0.037187925608011443</v>
       </c>
       <c r="B120" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C120" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>0.11506506024096386</v>
+        <v>0.03750042918454935</v>
       </c>
       <c r="B121" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C121" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>0.11602393574297189</v>
+        <v>0.037812932761087263</v>
       </c>
       <c r="B122" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C122" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0.11698281124497993</v>
+        <v>0.038125436337625177</v>
       </c>
       <c r="B123" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C123" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0.11794168674698795</v>
+        <v>0.03843793991416309</v>
       </c>
       <c r="B124" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C124" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0.11890056224899598</v>
+        <v>0.038750443490700996</v>
       </c>
       <c r="B125" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C125" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>0.11985943775100401</v>
+        <v>0.03906294706723891</v>
       </c>
       <c r="B126" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C126" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0.12081831325301205</v>
+        <v>0.039375450643776823</v>
       </c>
       <c r="B127" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C127" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0.12177718875502008</v>
+        <v>0.039687954220314736</v>
       </c>
       <c r="B128" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C128" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0.12273606425702811</v>
+        <v>0.040000457796852643</v>
       </c>
       <c r="B129" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C129" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>0.12369493975903614</v>
+        <v>0.040312961373390556</v>
       </c>
       <c r="B130" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C130" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0.12465381526104417</v>
+        <v>0.040625464949928469</v>
       </c>
       <c r="B131" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C131" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>0.1256126907630522</v>
+        <v>0.040937968526466383</v>
       </c>
       <c r="B132" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C132" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>0.12657156626506025</v>
+        <v>0.041250472103004289</v>
       </c>
       <c r="B133" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C133" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>0.12753044176706827</v>
+        <v>0.041562975679542202</v>
       </c>
       <c r="B134" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C134" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>0.12848931726907631</v>
+        <v>0.041875479256080116</v>
       </c>
       <c r="B135" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C135" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>0.12944819277108432</v>
+        <v>0.042187982832618029</v>
       </c>
       <c r="B136" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C136" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>0.13040706827309237</v>
+        <v>0.042500486409155935</v>
       </c>
       <c r="B137" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C137" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>0.13136594377510041</v>
+        <v>0.042812989985693849</v>
       </c>
       <c r="B138" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C138" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>0.13232481927710846</v>
+        <v>0.043125493562231762</v>
       </c>
       <c r="B139" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C139" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>0.13328369477911647</v>
+        <v>0.043437997138769668</v>
       </c>
       <c r="B140" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C140" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>0.13424257028112449</v>
+        <v>0.043750500715307582</v>
       </c>
       <c r="B141" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C141" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>0.13520144578313253</v>
+        <v>0.044063004291845495</v>
       </c>
       <c r="B142" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C142" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>0.13616032128514055</v>
+        <v>0.044375507868383408</v>
       </c>
       <c r="B143" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C143" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>0.1371191967871486</v>
+        <v>0.044688011444921315</v>
       </c>
       <c r="B144" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C144" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>0.13807807228915661</v>
+        <v>0.045000515021459228</v>
       </c>
       <c r="B145" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C145" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>0.13903694779116466</v>
+        <v>0.045313018597997141</v>
       </c>
       <c r="B146" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C146" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>0.1399958232931727</v>
+        <v>0.045625522174535055</v>
       </c>
       <c r="B147" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C147" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>0.14095469879518074</v>
+        <v>0.045938025751072961</v>
       </c>
       <c r="B148" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C148" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>0.14191357429718876</v>
+        <v>0.046250529327610868</v>
       </c>
       <c r="B149" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C149" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>0.14287244979919678</v>
+        <v>0.046563032904148781</v>
       </c>
       <c r="B150" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C150" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>0.14383132530120482</v>
+        <v>0.046875536480686694</v>
       </c>
       <c r="B151" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C151" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>0.14479020080321284</v>
+        <v>0.047188040057224608</v>
       </c>
       <c r="B152" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C152" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>0.14574907630522088</v>
+        <v>0.047500543633762521</v>
       </c>
       <c r="B153" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C153" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>0.1467079518072289</v>
+        <v>0.047813047210300434</v>
       </c>
       <c r="B154" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C154" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>0.14766682730923694</v>
+        <v>0.048125550786838348</v>
       </c>
       <c r="B155" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C155" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>0.14862570281124499</v>
+        <v>0.048438054363376247</v>
       </c>
       <c r="B156" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C156" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>0.14958457831325303</v>
+        <v>0.04875055793991416</v>
       </c>
       <c r="B157" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C157" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>0.15054345381526105</v>
+        <v>0.049063061516452074</v>
       </c>
       <c r="B158" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C158" s="0">
-        <v>6.6128135255224567</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>0.15150232931726909</v>
+        <v>0.049375565092989987</v>
       </c>
       <c r="B159" s="0">
-        <v>0.043166394565478709</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C159" s="0">
-        <v>6.6086469656694868</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>0.15246120481927711</v>
+        <v>0.0496880686695279</v>
       </c>
       <c r="B160" s="0">
-        <v>0.043085478963667503</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C160" s="0">
-        <v>6.58389430967362</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>0.15342008032128512</v>
+        <v>0.050000572246065814</v>
       </c>
       <c r="B161" s="0">
-        <v>0.042930409964303105</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C161" s="0">
-        <v>6.5365873904226328</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>0.15437895582329317</v>
+        <v>0.050313075822603713</v>
       </c>
       <c r="B162" s="0">
-        <v>0.042698364546790608</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C162" s="0">
-        <v>6.466115856432249</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>0.15533783132530118</v>
+        <v>0.050625579399141626</v>
       </c>
       <c r="B163" s="0">
-        <v>0.04238484236185508</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C163" s="0">
-        <v>6.3715067091828424</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>0.15629670682730923</v>
+        <v>0.05093808297567954</v>
       </c>
       <c r="B164" s="0">
-        <v>0.041983183327508354</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C164" s="0">
-        <v>6.2513200049013458</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>0.15725558232931727</v>
+        <v>0.051250586552217453</v>
       </c>
       <c r="B165" s="0">
-        <v>0.041483740146659717</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C165" s="0">
-        <v>6.1034699486384767</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>0.15821445783132532</v>
+        <v>0.051563090128755366</v>
       </c>
       <c r="B166" s="0">
-        <v>0.040872424322912</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C166" s="0">
-        <v>5.9249105354508975</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>0.15917333333333333</v>
+        <v>0.05187559370529328</v>
       </c>
       <c r="B167" s="0">
-        <v>0.04012799382996244</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C167" s="0">
-        <v>5.7110491306598821</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>0.16013220883534138</v>
+        <v>0.052188097281831193</v>
       </c>
       <c r="B168" s="0">
-        <v>0.039222931329655403</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C168" s="0">
-        <v>5.4563358638756201</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>0.16109108433734939</v>
+        <v>0.052500600858369093</v>
       </c>
       <c r="B169" s="0">
-        <v>0.038264055827647386</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C169" s="0">
-        <v>5.1928168246791691</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>0.16204995983935744</v>
+        <v>0.052813104434907006</v>
       </c>
       <c r="B170" s="0">
-        <v>0.037305180325639342</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C170" s="0">
-        <v>4.9358197051047812</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>0.16300883534136545</v>
+        <v>0.053125608011444919</v>
       </c>
       <c r="B171" s="0">
-        <v>0.036346304823631326</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C171" s="0">
-        <v>4.6853445051524716</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>0.16396771084337347</v>
+        <v>0.053438111587982833</v>
       </c>
       <c r="B172" s="0">
-        <v>0.035387429321623309</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C172" s="0">
-        <v>4.4413912248222323</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>0.16492658634538152</v>
+        <v>0.053750615164520746</v>
       </c>
       <c r="B173" s="0">
-        <v>0.034428553819615265</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C173" s="0">
-        <v>4.2039598641140579</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>0.16588546184738956</v>
+        <v>0.054063118741058659</v>
       </c>
       <c r="B174" s="0">
-        <v>0.033469678317607221</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C174" s="0">
-        <v>3.9730504230279524</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>0.1668443373493976</v>
+        <v>0.054375622317596559</v>
       </c>
       <c r="B175" s="0">
-        <v>0.032510802815599177</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C175" s="0">
-        <v>3.7486629015639181</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>0.16780321285140562</v>
+        <v>0.054688125894134472</v>
       </c>
       <c r="B176" s="0">
-        <v>0.031551927313591161</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C176" s="0">
-        <v>3.5307972997219621</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>0.16876208835341366</v>
+        <v>0.055000629470672385</v>
       </c>
       <c r="B177" s="0">
-        <v>0.030593051811583116</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C177" s="0">
-        <v>3.3194536175020688</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>0.16972096385542168</v>
+        <v>0.055313133047210299</v>
       </c>
       <c r="B178" s="0">
-        <v>0.0296341763095751</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C178" s="0">
-        <v>3.1146318549042533</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>0.17067983935742973</v>
+        <v>0.055625636623748212</v>
       </c>
       <c r="B179" s="0">
-        <v>0.028675300807567056</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C179" s="0">
-        <v>2.9163320119285023</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>0.17163871485943774</v>
+        <v>0.055938140200286125</v>
       </c>
       <c r="B180" s="0">
-        <v>0.027716425305559039</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C180" s="0">
-        <v>2.7245540885748278</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>0.17259759036144579</v>
+        <v>0.056250643776824039</v>
       </c>
       <c r="B181" s="0">
-        <v>0.026757549803550995</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C181" s="0">
-        <v>2.5392980848432183</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>0.17355646586345383</v>
+        <v>0.056563147353361938</v>
       </c>
       <c r="B182" s="0">
-        <v>0.025798674301542951</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C182" s="0">
-        <v>2.3605640007336794</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>0.17451534136546185</v>
+        <v>0.056875650929899851</v>
       </c>
       <c r="B183" s="0">
-        <v>0.024839798799534935</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C183" s="0">
-        <v>2.1883518362462171</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>0.17547421686746989</v>
+        <v>0.057188154506437765</v>
       </c>
       <c r="B184" s="0">
-        <v>0.02388092329752689</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C184" s="0">
-        <v>2.0226615913808192</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>0.17643309236947791</v>
+        <v>0.057500658082975678</v>
       </c>
       <c r="B185" s="0">
-        <v>0.022922047795518874</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C185" s="0">
-        <v>1.8634932661374972</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>0.17739196787148595</v>
+        <v>0.057813161659513591</v>
       </c>
       <c r="B186" s="0">
-        <v>0.02196317229351083</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C186" s="0">
-        <v>1.7108468605162417</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>0.17835084337349397</v>
+        <v>0.058125665236051505</v>
       </c>
       <c r="B187" s="0">
-        <v>0.021004296791502813</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C187" s="0">
-        <v>1.5647223745170609</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>0.17930971887550201</v>
+        <v>0.058438168812589418</v>
       </c>
       <c r="B188" s="0">
-        <v>0.020045421289494769</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C188" s="0">
-        <v>1.4251198081399468</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>0.18026859437751003</v>
+        <v>0.058750672389127318</v>
       </c>
       <c r="B189" s="0">
-        <v>0.019145340378242136</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C189" s="0">
-        <v>1.3000114698923837</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>0.18122746987951807</v>
+        <v>0.059063175965665231</v>
       </c>
       <c r="B190" s="0">
-        <v>0.018437059540459856</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C190" s="0">
-        <v>1.2056029906054122</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>0.18218634538152612</v>
+        <v>0.059375679542203144</v>
       </c>
       <c r="B191" s="0">
-        <v>0.01788421113480837</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C191" s="0">
-        <v>1.1343852657709359</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>0.18314522088353416</v>
+        <v>0.059688183118741057</v>
       </c>
       <c r="B192" s="0">
-        <v>0.017459591057383601</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C192" s="0">
-        <v>1.0811579220710357</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>0.18410409638554218</v>
+        <v>0.060000686695278971</v>
       </c>
       <c r="B193" s="0">
-        <v>0.017146522161506472</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C193" s="0">
-        <v>1.0427329335771689</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>0.18506297188755019</v>
+        <v>0.060313190271816884</v>
       </c>
       <c r="B194" s="0">
-        <v>0.016934537564160419</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C194" s="0">
-        <v>1.0171094367669416</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>0.18602184738955824</v>
+        <v>0.060625693848354784</v>
       </c>
       <c r="B195" s="0">
-        <v>0.016817290602423818</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C195" s="0">
-        <v>1.0030741949672455</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>0.18698072289156625</v>
+        <v>0.060938197424892697</v>
       </c>
       <c r="B196" s="0">
-        <v>0.016791500235609228</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C196" s="0">
-        <v>1</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>0.1879395983935743</v>
+        <v>0.06125070100143061</v>
       </c>
       <c r="B197" s="0">
-        <v>0.016856465345219639</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C197" s="0">
-        <v>1.0077528251044863</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>0.18889847389558231</v>
+        <v>0.061563204577968524</v>
       </c>
       <c r="B198" s="0">
-        <v>0.017013966048167781</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C198" s="0">
-        <v>1.0266729598387934</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>0.18985734939759036</v>
+        <v>0.061875708154506437</v>
       </c>
       <c r="B199" s="0">
-        <v>0.017240912327645009</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C199" s="0">
-        <v>1.0542448473181347</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>0.1908162248995984</v>
+        <v>0.06218821173104435</v>
       </c>
       <c r="B200" s="0">
-        <v>0.01747111796827942</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C200" s="0">
-        <v>1.0825859652439427</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>0.19177510040160645</v>
+        <v>0.062500715307582264</v>
       </c>
       <c r="B201" s="0">
-        <v>0.017701323608913837</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C201" s="0">
-        <v>1.1113029923374258</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>0.19273397590361446</v>
+        <v>0.06281321888412017</v>
       </c>
       <c r="B202" s="0">
-        <v>0.017931529249548241</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C202" s="0">
-        <v>1.140395928598581</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>0.19369285140562251</v>
+        <v>0.063125722460658076</v>
       </c>
       <c r="B203" s="0">
-        <v>0.018161734890182659</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C203" s="0">
-        <v>1.1698647740274113</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>0.19465172690763052</v>
+        <v>0.063438226037195997</v>
       </c>
       <c r="B204" s="0">
-        <v>0.018391940530817063</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C204" s="0">
-        <v>1.1997095286239143</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>0.19561060240963854</v>
+        <v>0.063750729613733903</v>
       </c>
       <c r="B205" s="0">
-        <v>0.018622146171451474</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C205" s="0">
-        <v>1.2299301923880921</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>0.19656947791164659</v>
+        <v>0.064063233190271823</v>
       </c>
       <c r="B206" s="0">
-        <v>0.018852351812085891</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C206" s="0">
-        <v>1.2605267653199448</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>0.1975283534136546</v>
+        <v>0.06437573676680973</v>
       </c>
       <c r="B207" s="0">
-        <v>0.019082557452720295</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C207" s="0">
-        <v>1.2914992474194693</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>0.19848722891566265</v>
+        <v>0.064688240343347636</v>
       </c>
       <c r="B208" s="0">
-        <v>0.019312763093354713</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C208" s="0">
-        <v>1.3228476386866694</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>0.19944610441767069</v>
+        <v>0.065000743919885542</v>
       </c>
       <c r="B209" s="0">
-        <v>0.019542968733989124</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C209" s="0">
-        <v>1.3545719391215427</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>0.20040497991967873</v>
+        <v>0.065313247496423463</v>
       </c>
       <c r="B210" s="0">
-        <v>0.019773174374623542</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C210" s="0">
-        <v>1.3866721487240912</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>0.20136385542168675</v>
+        <v>0.065625751072961369</v>
       </c>
       <c r="B211" s="0">
-        <v>0.020003380015257945</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C211" s="0">
-        <v>1.4191482674943112</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>0.20232273092369479</v>
+        <v>0.065938254649499289</v>
       </c>
       <c r="B212" s="0">
-        <v>0.020233585655892363</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C212" s="0">
-        <v>1.4520002954322069</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>0.20328160642570281</v>
+        <v>0.066250758226037196</v>
       </c>
       <c r="B213" s="0">
-        <v>0.020463791296526767</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C213" s="0">
-        <v>1.4852282325377748</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>0.20424048192771083</v>
+        <v>0.066563261802575116</v>
       </c>
       <c r="B214" s="0">
-        <v>0.020693996937161178</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C214" s="0">
-        <v>1.5188320788110179</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>0.20519935742971887</v>
+        <v>0.066875765379113009</v>
       </c>
       <c r="B215" s="0">
-        <v>0.020924202577795596</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C215" s="0">
-        <v>1.5528118342519357</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>0.20615823293172689</v>
+        <v>0.067188268955650929</v>
       </c>
       <c r="B216" s="0">
-        <v>0.021154408218429999</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C216" s="0">
-        <v>1.5871674988605253</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>0.20711710843373493</v>
+        <v>0.067500772532188835</v>
       </c>
       <c r="B217" s="0">
-        <v>0.021384613859064417</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C217" s="0">
-        <v>1.6218990726367906</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>0.20807598393574298</v>
+        <v>0.067813276108726756</v>
       </c>
       <c r="B218" s="0">
-        <v>0.021614819499698828</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C218" s="0">
-        <v>1.657006555580729</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>0.20903485943775102</v>
+        <v>0.068125779685264662</v>
       </c>
       <c r="B219" s="0">
-        <v>0.021845025140333246</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C219" s="0">
-        <v>1.6924899476923425</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>0.20999373493975904</v>
+        <v>0.068438283261802582</v>
       </c>
       <c r="B220" s="0">
-        <v>0.022075230780967649</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C220" s="0">
-        <v>1.7283492489716277</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>0.21095261044176708</v>
+        <v>0.068750786838340475</v>
       </c>
       <c r="B221" s="0">
-        <v>0.022305436421602067</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C221" s="0">
-        <v>1.7645844594185887</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>0.2119114859437751</v>
+        <v>0.069063290414878395</v>
       </c>
       <c r="B222" s="0">
-        <v>0.022535642062236471</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C222" s="0">
-        <v>1.8011955790332215</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>0.21287036144578314</v>
+        <v>0.069375793991416301</v>
       </c>
       <c r="B223" s="0">
-        <v>0.022765847702870889</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C223" s="0">
-        <v>1.8381826078155308</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>0.21382923694779116</v>
+        <v>0.069688297567954222</v>
       </c>
       <c r="B224" s="0">
-        <v>0.0229960533435053</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C224" s="0">
-        <v>1.8755455457655126</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>0.21478811244979917</v>
+        <v>0.070000801144492128</v>
       </c>
       <c r="B225" s="0">
-        <v>0.023226258984139703</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C225" s="0">
-        <v>1.9132843928831667</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>0.21574698795180722</v>
+        <v>0.070313304721030048</v>
       </c>
       <c r="B226" s="0">
-        <v>0.023456464624774121</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C226" s="0">
-        <v>1.9513991491684977</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>0.21670586345381526</v>
+        <v>0.070625808297567955</v>
       </c>
       <c r="B227" s="0">
-        <v>0.023686670265408532</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C227" s="0">
-        <v>1.9898898146215012</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>0.21766473895582331</v>
+        <v>0.070938311874105861</v>
       </c>
       <c r="B228" s="0">
-        <v>0.02391687590604295</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C228" s="0">
-        <v>2.0287563892421798</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>0.21862361445783132</v>
+        <v>0.071250815450643767</v>
       </c>
       <c r="B229" s="0">
-        <v>0.024147081546677354</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C229" s="0">
-        <v>2.0679988730305294</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>0.21958248995983937</v>
+        <v>0.071563319027181688</v>
       </c>
       <c r="B230" s="0">
-        <v>0.024377287187311771</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C230" s="0">
-        <v>2.1076172659865562</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>0.22054136546184738</v>
+        <v>0.071875822603719594</v>
       </c>
       <c r="B231" s="0">
-        <v>0.024607492827946182</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C231" s="0">
-        <v>2.1476115681102557</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>0.22150024096385543</v>
+        <v>0.072188326180257514</v>
       </c>
       <c r="B232" s="0">
-        <v>0.024837698468580593</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C232" s="0">
-        <v>2.1879817794016288</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>0.22245911646586344</v>
+        <v>0.072500829756795421</v>
       </c>
       <c r="B233" s="0">
-        <v>0.025067904109215004</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C233" s="0">
-        <v>2.228727899860675</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>0.22341799196787149</v>
+        <v>0.072813333333333341</v>
       </c>
       <c r="B234" s="0">
-        <v>0.025298109749849414</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C234" s="0">
-        <v>2.2698499294873957</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>0.22437686746987953</v>
+        <v>0.073125836909871234</v>
       </c>
       <c r="B235" s="0">
-        <v>0.025528315390483832</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C235" s="0">
-        <v>2.3113478682817923</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>0.22533574297188755</v>
+        <v>0.073438340486409154</v>
       </c>
       <c r="B236" s="0">
-        <v>0.025758521031118236</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C236" s="0">
-        <v>2.3532217162438593</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>0.22629461847389559</v>
+        <v>0.07375084406294706</v>
       </c>
       <c r="B237" s="0">
-        <v>0.025988726671752654</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C237" s="0">
-        <v>2.3954714733736027</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>0.22725349397590361</v>
+        <v>0.07406334763948498</v>
       </c>
       <c r="B238" s="0">
-        <v>0.026218932312387058</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C238" s="0">
-        <v>2.4380971396710178</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>0.22821236947791165</v>
+        <v>0.074375851216022887</v>
       </c>
       <c r="B239" s="0">
-        <v>0.026449137953021475</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C239" s="0">
-        <v>2.4810987151361097</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>0.22917124497991967</v>
+        <v>0.074688354792560807</v>
       </c>
       <c r="B240" s="0">
-        <v>0.026679343593655886</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C240" s="0">
-        <v>2.5244761997688743</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>0.23013012048192771</v>
+        <v>0.0750008583690987</v>
       </c>
       <c r="B241" s="0">
-        <v>0.026909549234290297</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C241" s="0">
-        <v>2.5682295935693116</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>0.23108899598393573</v>
+        <v>0.07531336194563662</v>
       </c>
       <c r="B242" s="0">
-        <v>0.027139754874924708</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C242" s="0">
-        <v>2.6123588965374238</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>0.23204787148594378</v>
+        <v>0.075625865522174526</v>
       </c>
       <c r="B243" s="0">
-        <v>0.027369960515559119</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C243" s="0">
-        <v>2.6568641086732101</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>0.23300674698795182</v>
+        <v>0.075938369098712447</v>
       </c>
       <c r="B244" s="0">
-        <v>0.027600166156193536</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C244" s="0">
-        <v>2.7017452299766713</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>0.23396562248995986</v>
+        <v>0.076250872675250353</v>
       </c>
       <c r="B245" s="0">
-        <v>0.027830371796827947</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C245" s="0">
-        <v>2.7470022604478044</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>0.23492449799196788</v>
+        <v>0.076563376251788273</v>
       </c>
       <c r="B246" s="0">
-        <v>0.028060577437462358</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C246" s="0">
-        <v>2.7926352000866124</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>0.2358833734939759</v>
+        <v>0.07687587982832618</v>
       </c>
       <c r="B247" s="0">
-        <v>0.028290783078096762</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C247" s="0">
-        <v>2.8386440488930926</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>0.23684224899598394</v>
+        <v>0.077188383404864086</v>
       </c>
       <c r="B248" s="0">
-        <v>0.028520988718731179</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C248" s="0">
-        <v>2.8850288068672496</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>0.23780112449799196</v>
+        <v>0.077500886981401992</v>
       </c>
       <c r="B249" s="0">
-        <v>0.02875119435936559</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C249" s="0">
-        <v>2.9317894740090789</v>
+        <v>7.3512614726242029</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>0.23876</v>
+        <v>0.077813390557939913</v>
       </c>
       <c r="B250" s="0">
-        <v>0.028981400000000001</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C250" s="0">
-        <v>2.9789260503185817</v>
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0">
+        <v>0.078125894134477819</v>
+      </c>
+      <c r="B251" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C251" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0">
+        <v>0.078438397711015739</v>
+      </c>
+      <c r="B252" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C252" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0">
+        <v>0.078750901287553646</v>
+      </c>
+      <c r="B253" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C253" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0">
+        <v>0.079063404864091552</v>
+      </c>
+      <c r="B254" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C254" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0">
+        <v>0.079375908440629472</v>
+      </c>
+      <c r="B255" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C255" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0">
+        <v>0.079688412017167379</v>
+      </c>
+      <c r="B256" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C256" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0">
+        <v>0.080000915593705285</v>
+      </c>
+      <c r="B257" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C257" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0">
+        <v>0.080313419170243205</v>
+      </c>
+      <c r="B258" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C258" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0">
+        <v>0.080625922746781112</v>
+      </c>
+      <c r="B259" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C259" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0">
+        <v>0.080938426323319032</v>
+      </c>
+      <c r="B260" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C260" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0">
+        <v>0.081250929899856938</v>
+      </c>
+      <c r="B261" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C261" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0">
+        <v>0.081563433476394845</v>
+      </c>
+      <c r="B262" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C262" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0">
+        <v>0.081875937052932765</v>
+      </c>
+      <c r="B263" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C263" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0">
+        <v>0.082188440629470672</v>
+      </c>
+      <c r="B264" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C264" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0">
+        <v>0.082500944206008578</v>
+      </c>
+      <c r="B265" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C265" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0">
+        <v>0.082813447782546498</v>
+      </c>
+      <c r="B266" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C266" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0">
+        <v>0.083125951359084405</v>
+      </c>
+      <c r="B267" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C267" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0">
+        <v>0.083438454935622311</v>
+      </c>
+      <c r="B268" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C268" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0">
+        <v>0.083750958512160231</v>
+      </c>
+      <c r="B269" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C269" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0">
+        <v>0.084063462088698138</v>
+      </c>
+      <c r="B270" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C270" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0">
+        <v>0.084375965665236058</v>
+      </c>
+      <c r="B271" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C271" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0">
+        <v>0.084688469241773964</v>
+      </c>
+      <c r="B272" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C272" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0">
+        <v>0.085000972818311871</v>
+      </c>
+      <c r="B273" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C273" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0">
+        <v>0.085313476394849777</v>
+      </c>
+      <c r="B274" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C274" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0">
+        <v>0.085625979971387697</v>
+      </c>
+      <c r="B275" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C275" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0">
+        <v>0.085938483547925604</v>
+      </c>
+      <c r="B276" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C276" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0">
+        <v>0.086250987124463524</v>
+      </c>
+      <c r="B277" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C277" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0">
+        <v>0.08656349070100143</v>
+      </c>
+      <c r="B278" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C278" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0">
+        <v>0.086875994277539337</v>
+      </c>
+      <c r="B279" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C279" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0">
+        <v>0.087188497854077243</v>
+      </c>
+      <c r="B280" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C280" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0">
+        <v>0.087501001430615164</v>
+      </c>
+      <c r="B281" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C281" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0">
+        <v>0.08781350500715307</v>
+      </c>
+      <c r="B282" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C282" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0">
+        <v>0.08812600858369099</v>
+      </c>
+      <c r="B283" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C283" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0">
+        <v>0.088438512160228897</v>
+      </c>
+      <c r="B284" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C284" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0">
+        <v>0.088751015736766817</v>
+      </c>
+      <c r="B285" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C285" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0">
+        <v>0.089063519313304723</v>
+      </c>
+      <c r="B286" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C286" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0">
+        <v>0.08937602288984263</v>
+      </c>
+      <c r="B287" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C287" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0">
+        <v>0.089688526466380536</v>
+      </c>
+      <c r="B288" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C288" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0">
+        <v>0.090001030042918456</v>
+      </c>
+      <c r="B289" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C289" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0">
+        <v>0.090313533619456363</v>
+      </c>
+      <c r="B290" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C290" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0">
+        <v>0.090626037195994283</v>
+      </c>
+      <c r="B291" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C291" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0">
+        <v>0.090938540772532189</v>
+      </c>
+      <c r="B292" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C292" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0">
+        <v>0.09125104434907011</v>
+      </c>
+      <c r="B293" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C293" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0">
+        <v>0.091563547925608016</v>
+      </c>
+      <c r="B294" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C294" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0">
+        <v>0.091876051502145922</v>
+      </c>
+      <c r="B295" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C295" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0">
+        <v>0.092188555078683843</v>
+      </c>
+      <c r="B296" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C296" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0">
+        <v>0.092501058655221735</v>
+      </c>
+      <c r="B297" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C297" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0">
+        <v>0.092813562231759642</v>
+      </c>
+      <c r="B298" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C298" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0">
+        <v>0.093126065808297562</v>
+      </c>
+      <c r="B299" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C299" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0">
+        <v>0.093438569384835468</v>
+      </c>
+      <c r="B300" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C300" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0">
+        <v>0.093751072961373389</v>
+      </c>
+      <c r="B301" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C301" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="0">
+        <v>0.094063576537911295</v>
+      </c>
+      <c r="B302" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C302" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="0">
+        <v>0.094376080114449215</v>
+      </c>
+      <c r="B303" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C303" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="0">
+        <v>0.094688583690987122</v>
+      </c>
+      <c r="B304" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C304" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="0">
+        <v>0.095001087267525042</v>
+      </c>
+      <c r="B305" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C305" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0">
+        <v>0.095313590844062948</v>
+      </c>
+      <c r="B306" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C306" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="0">
+        <v>0.095626094420600868</v>
+      </c>
+      <c r="B307" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C307" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="0">
+        <v>0.095938597997138775</v>
+      </c>
+      <c r="B308" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C308" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="0">
+        <v>0.096251101573676695</v>
+      </c>
+      <c r="B309" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C309" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0">
+        <v>0.096563605150214588</v>
+      </c>
+      <c r="B310" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C310" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="0">
+        <v>0.096876108726752494</v>
+      </c>
+      <c r="B311" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C311" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="0">
+        <v>0.0971886123032904</v>
+      </c>
+      <c r="B312" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C312" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="0">
+        <v>0.097501115879828321</v>
+      </c>
+      <c r="B313" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C313" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="0">
+        <v>0.097813619456366227</v>
+      </c>
+      <c r="B314" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C314" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="0">
+        <v>0.098126123032904147</v>
+      </c>
+      <c r="B315" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C315" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="0">
+        <v>0.098438626609442054</v>
+      </c>
+      <c r="B316" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C316" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="0">
+        <v>0.098751130185979974</v>
+      </c>
+      <c r="B317" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C317" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="0">
+        <v>0.09906363376251788</v>
+      </c>
+      <c r="B318" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C318" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="0">
+        <v>0.099376137339055801</v>
+      </c>
+      <c r="B319" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C319" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="0">
+        <v>0.099688640915593707</v>
+      </c>
+      <c r="B320" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C320" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="0">
+        <v>0.10000114449213163</v>
+      </c>
+      <c r="B321" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C321" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="0">
+        <v>0.10031364806866953</v>
+      </c>
+      <c r="B322" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C322" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="0">
+        <v>0.10062615164520743</v>
+      </c>
+      <c r="B323" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C323" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="0">
+        <v>0.10093865522174535</v>
+      </c>
+      <c r="B324" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C324" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="0">
+        <v>0.10125115879828325</v>
+      </c>
+      <c r="B325" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C325" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="0">
+        <v>0.10156366237482116</v>
+      </c>
+      <c r="B326" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C326" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="0">
+        <v>0.10187616595135908</v>
+      </c>
+      <c r="B327" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C327" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="0">
+        <v>0.10218866952789699</v>
+      </c>
+      <c r="B328" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C328" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="0">
+        <v>0.10250117310443491</v>
+      </c>
+      <c r="B329" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C329" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="0">
+        <v>0.10281367668097281</v>
+      </c>
+      <c r="B330" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C330" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="0">
+        <v>0.10312618025751073</v>
+      </c>
+      <c r="B331" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C331" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="0">
+        <v>0.10343868383404864</v>
+      </c>
+      <c r="B332" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C332" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="0">
+        <v>0.10375118741058656</v>
+      </c>
+      <c r="B333" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C333" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="0">
+        <v>0.10406369098712447</v>
+      </c>
+      <c r="B334" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C334" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="0">
+        <v>0.10437619456366239</v>
+      </c>
+      <c r="B335" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C335" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="0">
+        <v>0.10468869814020028</v>
+      </c>
+      <c r="B336" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C336" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="0">
+        <v>0.10500120171673819</v>
+      </c>
+      <c r="B337" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C337" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="0">
+        <v>0.10531370529327611</v>
+      </c>
+      <c r="B338" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C338" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="0">
+        <v>0.10562620886981401</v>
+      </c>
+      <c r="B339" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C339" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="0">
+        <v>0.10593871244635193</v>
+      </c>
+      <c r="B340" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C340" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="0">
+        <v>0.10625121602288984</v>
+      </c>
+      <c r="B341" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C341" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="0">
+        <v>0.10656371959942774</v>
+      </c>
+      <c r="B342" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C342" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="0">
+        <v>0.10687622317596567</v>
+      </c>
+      <c r="B343" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C343" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="0">
+        <v>0.10718872675250357</v>
+      </c>
+      <c r="B344" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C344" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="0">
+        <v>0.10750123032904149</v>
+      </c>
+      <c r="B345" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C345" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="0">
+        <v>0.1078137339055794</v>
+      </c>
+      <c r="B346" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C346" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="0">
+        <v>0.10812623748211732</v>
+      </c>
+      <c r="B347" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C347" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="0">
+        <v>0.10843874105865522</v>
+      </c>
+      <c r="B348" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C348" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="0">
+        <v>0.10875124463519312</v>
+      </c>
+      <c r="B349" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C349" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="0">
+        <v>0.10906374821173104</v>
+      </c>
+      <c r="B350" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C350" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="0">
+        <v>0.10937625178826894</v>
+      </c>
+      <c r="B351" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C351" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="0">
+        <v>0.10968875536480686</v>
+      </c>
+      <c r="B352" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C352" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="0">
+        <v>0.11000125894134477</v>
+      </c>
+      <c r="B353" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C353" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="0">
+        <v>0.11031376251788269</v>
+      </c>
+      <c r="B354" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C354" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="0">
+        <v>0.1106262660944206</v>
+      </c>
+      <c r="B355" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C355" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="0">
+        <v>0.11093876967095852</v>
+      </c>
+      <c r="B356" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C356" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="0">
+        <v>0.11125127324749642</v>
+      </c>
+      <c r="B357" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C357" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="0">
+        <v>0.11156377682403433</v>
+      </c>
+      <c r="B358" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C358" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="0">
+        <v>0.11187628040057225</v>
+      </c>
+      <c r="B359" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C359" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="0">
+        <v>0.11218878397711016</v>
+      </c>
+      <c r="B360" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C360" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="0">
+        <v>0.11250128755364808</v>
+      </c>
+      <c r="B361" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C361" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="0">
+        <v>0.11281379113018598</v>
+      </c>
+      <c r="B362" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C362" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="0">
+        <v>0.11312629470672388</v>
+      </c>
+      <c r="B363" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C363" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="0">
+        <v>0.1134387982832618</v>
+      </c>
+      <c r="B364" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C364" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="0">
+        <v>0.1137513018597997</v>
+      </c>
+      <c r="B365" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C365" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="0">
+        <v>0.11406380543633762</v>
+      </c>
+      <c r="B366" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C366" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="0">
+        <v>0.11437630901287553</v>
+      </c>
+      <c r="B367" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C367" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="0">
+        <v>0.11468881258941345</v>
+      </c>
+      <c r="B368" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C368" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="0">
+        <v>0.11500131616595136</v>
+      </c>
+      <c r="B369" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C369" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="0">
+        <v>0.11531381974248928</v>
+      </c>
+      <c r="B370" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C370" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="0">
+        <v>0.11562632331902718</v>
+      </c>
+      <c r="B371" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C371" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="0">
+        <v>0.11593882689556509</v>
+      </c>
+      <c r="B372" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C372" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="0">
+        <v>0.11625133047210301</v>
+      </c>
+      <c r="B373" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C373" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="0">
+        <v>0.11656383404864092</v>
+      </c>
+      <c r="B374" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C374" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="0">
+        <v>0.11687633762517884</v>
+      </c>
+      <c r="B375" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C375" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="0">
+        <v>0.11718884120171673</v>
+      </c>
+      <c r="B376" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C376" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="0">
+        <v>0.11750134477825464</v>
+      </c>
+      <c r="B377" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C377" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="0">
+        <v>0.11781384835479256</v>
+      </c>
+      <c r="B378" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C378" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="0">
+        <v>0.11812635193133046</v>
+      </c>
+      <c r="B379" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C379" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="0">
+        <v>0.11843885550786838</v>
+      </c>
+      <c r="B380" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C380" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="0">
+        <v>0.11875135908440629</v>
+      </c>
+      <c r="B381" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C381" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="0">
+        <v>0.11906386266094421</v>
+      </c>
+      <c r="B382" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C382" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="0">
+        <v>0.11937636623748211</v>
+      </c>
+      <c r="B383" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C383" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="0">
+        <v>0.11968886981402004</v>
+      </c>
+      <c r="B384" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C384" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="0">
+        <v>0.12000137339055794</v>
+      </c>
+      <c r="B385" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C385" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0">
+        <v>0.12031387696709586</v>
+      </c>
+      <c r="B386" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C386" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0">
+        <v>0.12062638054363377</v>
+      </c>
+      <c r="B387" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C387" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0">
+        <v>0.12093888412017167</v>
+      </c>
+      <c r="B388" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C388" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0">
+        <v>0.12125138769670957</v>
+      </c>
+      <c r="B389" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C389" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0">
+        <v>0.12156389127324749</v>
+      </c>
+      <c r="B390" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C390" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0">
+        <v>0.12187639484978539</v>
+      </c>
+      <c r="B391" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C391" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0">
+        <v>0.12218889842632331</v>
+      </c>
+      <c r="B392" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C392" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0">
+        <v>0.12250140200286122</v>
+      </c>
+      <c r="B393" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C393" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0">
+        <v>0.12281390557939914</v>
+      </c>
+      <c r="B394" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C394" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0">
+        <v>0.12312640915593705</v>
+      </c>
+      <c r="B395" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C395" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0">
+        <v>0.12343891273247497</v>
+      </c>
+      <c r="B396" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C396" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0">
+        <v>0.12375141630901287</v>
+      </c>
+      <c r="B397" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C397" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0">
+        <v>0.12406391988555079</v>
+      </c>
+      <c r="B398" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C398" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0">
+        <v>0.1243764234620887</v>
+      </c>
+      <c r="B399" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C399" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0">
+        <v>0.12468892703862662</v>
+      </c>
+      <c r="B400" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C400" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0">
+        <v>0.12500143061516453</v>
+      </c>
+      <c r="B401" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C401" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0">
+        <v>0.12531393419170242</v>
+      </c>
+      <c r="B402" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C402" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0">
+        <v>0.12562643776824034</v>
+      </c>
+      <c r="B403" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C403" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0">
+        <v>0.12593894134477823</v>
+      </c>
+      <c r="B404" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C404" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0">
+        <v>0.12625144492131615</v>
+      </c>
+      <c r="B405" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C405" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0">
+        <v>0.12656394849785407</v>
+      </c>
+      <c r="B406" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C406" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0">
+        <v>0.12687645207439199</v>
+      </c>
+      <c r="B407" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C407" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0">
+        <v>0.12718895565092989</v>
+      </c>
+      <c r="B408" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C408" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0">
+        <v>0.12750145922746781</v>
+      </c>
+      <c r="B409" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C409" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0">
+        <v>0.12781396280400573</v>
+      </c>
+      <c r="B410" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C410" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0">
+        <v>0.12812646638054365</v>
+      </c>
+      <c r="B411" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C411" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0">
+        <v>0.12843896995708154</v>
+      </c>
+      <c r="B412" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C412" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0">
+        <v>0.12875147353361946</v>
+      </c>
+      <c r="B413" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C413" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0">
+        <v>0.12906397711015738</v>
+      </c>
+      <c r="B414" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C414" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0">
+        <v>0.12937648068669527</v>
+      </c>
+      <c r="B415" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C415" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0">
+        <v>0.12968898426323319</v>
+      </c>
+      <c r="B416" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C416" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="0">
+        <v>0.13000148783977109</v>
+      </c>
+      <c r="B417" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C417" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0">
+        <v>0.13031399141630901</v>
+      </c>
+      <c r="B418" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C418" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0">
+        <v>0.13062649499284693</v>
+      </c>
+      <c r="B419" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C419" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0">
+        <v>0.13093899856938482</v>
+      </c>
+      <c r="B420" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C420" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="0">
+        <v>0.13125150214592274</v>
+      </c>
+      <c r="B421" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C421" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0">
+        <v>0.13156400572246066</v>
+      </c>
+      <c r="B422" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C422" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0">
+        <v>0.13187650929899858</v>
+      </c>
+      <c r="B423" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C423" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0">
+        <v>0.13218901287553647</v>
+      </c>
+      <c r="B424" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C424" s="0">
+        <v>7.3512614726242029</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="0">
+        <v>0.13250151645207439</v>
+      </c>
+      <c r="B425" s="0">
+        <v>0.043178746608142624</v>
+      </c>
+      <c r="C425" s="0">
+        <v>7.3508347066425905</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0">
+        <v>0.13281402002861231</v>
+      </c>
+      <c r="B426" s="0">
+        <v>0.043170507933284821</v>
+      </c>
+      <c r="C426" s="0">
+        <v>7.3480298378501114</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="0">
+        <v>0.13312652360515023</v>
+      </c>
+      <c r="B427" s="0">
+        <v>0.04315456116877496</v>
+      </c>
+      <c r="C427" s="0">
+        <v>7.3426022593958269</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0">
+        <v>0.13343902718168813</v>
+      </c>
+      <c r="B428" s="0">
+        <v>0.043130877165895386</v>
+      </c>
+      <c r="C428" s="0">
+        <v>7.334544965426975</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="0">
+        <v>0.13375153075822602</v>
+      </c>
+      <c r="B429" s="0">
+        <v>0.04309941236117714</v>
+      </c>
+      <c r="C429" s="0">
+        <v>7.3238474855258451</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0">
+        <v>0.13406403433476394</v>
+      </c>
+      <c r="B430" s="0">
+        <v>0.043060108371774451</v>
+      </c>
+      <c r="C430" s="0">
+        <v>7.3104957874586205</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0">
+        <v>0.13437653791130186</v>
+      </c>
+      <c r="B431" s="0">
+        <v>0.043012891445275141</v>
+      </c>
+      <c r="C431" s="0">
+        <v>7.294472144938096</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0">
+        <v>0.13468904148783978</v>
+      </c>
+      <c r="B432" s="0">
+        <v>0.042957671751645582</v>
+      </c>
+      <c r="C432" s="0">
+        <v>7.2757549674436453</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="0">
+        <v>0.13500154506437767</v>
+      </c>
+      <c r="B433" s="0">
+        <v>0.042894342501070264</v>
+      </c>
+      <c r="C433" s="0">
+        <v>7.254318588195237</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0">
+        <v>0.13531404864091559</v>
+      </c>
+      <c r="B434" s="0">
+        <v>0.042822778866821148</v>
+      </c>
+      <c r="C434" s="0">
+        <v>7.2301330052665982</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="0">
+        <v>0.13562655221745351</v>
+      </c>
+      <c r="B435" s="0">
+        <v>0.042742836686750579</v>
+      </c>
+      <c r="C435" s="0">
+        <v>7.2031635694908962</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0">
+        <v>0.1359390557939914</v>
+      </c>
+      <c r="B436" s="0">
+        <v>0.042654350910249279</v>
+      </c>
+      <c r="C436" s="0">
+        <v>7.1733706111893039</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="0">
+        <v>0.13625155937052932</v>
+      </c>
+      <c r="B437" s="0">
+        <v>0.042557133749162535</v>
+      </c>
+      <c r="C437" s="0">
+        <v>7.1407089957463361</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="0">
+        <v>0.13656406294706725</v>
+      </c>
+      <c r="B438" s="0">
+        <v>0.042450972480702481</v>
+      </c>
+      <c r="C438" s="0">
+        <v>7.1051275955429514</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="0">
+        <v>0.13687656652360517</v>
+      </c>
+      <c r="B439" s="0">
+        <v>0.042335626837144189</v>
+      </c>
+      <c r="C439" s="0">
+        <v>7.0665686625737196</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0">
+        <v>0.13718907010014306</v>
+      </c>
+      <c r="B440" s="0">
+        <v>0.042210825900114331</v>
+      </c>
+      <c r="C440" s="0">
+        <v>7.024967081993533</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="0">
+        <v>0.13750157367668095</v>
+      </c>
+      <c r="B441" s="0">
+        <v>0.04207626439528156</v>
+      </c>
+      <c r="C441" s="0">
+        <v>6.9802494815517049</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="0">
+        <v>0.13781407725321887</v>
+      </c>
+      <c r="B442" s="0">
+        <v>0.041931598254438471</v>
+      </c>
+      <c r="C442" s="0">
+        <v>6.9323331649447111</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="0">
+        <v>0.13812658082975679</v>
+      </c>
+      <c r="B443" s="0">
+        <v>0.041776439273777548</v>
+      </c>
+      <c r="C443" s="0">
+        <v>6.8811248279404014</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="0">
+        <v>0.13843908440629471</v>
+      </c>
+      <c r="B444" s="0">
+        <v>0.04161034864595585</v>
+      </c>
+      <c r="C444" s="0">
+        <v>6.8265190038189783</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="0">
+        <v>0.1387515879828326</v>
+      </c>
+      <c r="B445" s="0">
+        <v>0.041432829073998236</v>
+      </c>
+      <c r="C445" s="0">
+        <v>6.768396167960856</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="0">
+        <v>0.13906409155937052</v>
+      </c>
+      <c r="B446" s="0">
+        <v>0.041243315079343007</v>
+      </c>
+      <c r="C446" s="0">
+        <v>6.7066204083992451</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="0">
+        <v>0.13937659513590844</v>
+      </c>
+      <c r="B447" s="0">
+        <v>0.041041160982558035</v>
+      </c>
+      <c r="C447" s="0">
+        <v>6.6410365370023934</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="0">
+        <v>0.13968909871244636</v>
+      </c>
+      <c r="B448" s="0">
+        <v>0.040825625845307849</v>
+      </c>
+      <c r="C448" s="0">
+        <v>6.5714664702968273</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="0">
+        <v>0.14000160228898426</v>
+      </c>
+      <c r="B449" s="0">
+        <v>0.040595854387643182</v>
+      </c>
+      <c r="C449" s="0">
+        <v>6.4977046429650738</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="0">
+        <v>0.14031410586552218</v>
+      </c>
+      <c r="B450" s="0">
+        <v>0.040350852490144876</v>
+      </c>
+      <c r="C450" s="0">
+        <v>6.4195121198208431</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="0">
+        <v>0.1406266094420601</v>
+      </c>
+      <c r="B451" s="0">
+        <v>0.040089455281216567</v>
+      </c>
+      <c r="C451" s="0">
+        <v>6.3366089256352947</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0">
+        <v>0.14093911301859799</v>
+      </c>
+      <c r="B452" s="0">
+        <v>0.039810284869740323</v>
+      </c>
+      <c r="C452" s="0">
+        <v>6.2486638862410144</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="0">
+        <v>0.14125161659513591</v>
+      </c>
+      <c r="B453" s="0">
+        <v>0.039511693292434744</v>
+      </c>
+      <c r="C453" s="0">
+        <v>6.1552809160108168</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="0">
+        <v>0.1415641201716738</v>
+      </c>
+      <c r="B454" s="0">
+        <v>0.039199486040250267</v>
+      </c>
+      <c r="C454" s="0">
+        <v>6.0583915753194253</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="0">
+        <v>0.14187662374821172</v>
+      </c>
+      <c r="B455" s="0">
+        <v>0.038886982463712347</v>
+      </c>
+      <c r="C455" s="0">
+        <v>5.9621799905203341</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="0">
+        <v>0.14218912732474964</v>
+      </c>
+      <c r="B456" s="0">
+        <v>0.038574478887174427</v>
+      </c>
+      <c r="C456" s="0">
+        <v>5.8667384870152253</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="0">
+        <v>0.14250163090128754</v>
+      </c>
+      <c r="B457" s="0">
+        <v>0.038261975310636534</v>
+      </c>
+      <c r="C457" s="0">
+        <v>5.7720670648041113</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="0">
+        <v>0.14281413447782546</v>
+      </c>
+      <c r="B458" s="0">
+        <v>0.037949471734098614</v>
+      </c>
+      <c r="C458" s="0">
+        <v>5.6781657238869725</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="0">
+        <v>0.14312663805436338</v>
+      </c>
+      <c r="B459" s="0">
+        <v>0.037636968157560693</v>
+      </c>
+      <c r="C459" s="0">
+        <v>5.5850344642638179</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="0">
+        <v>0.1434391416309013</v>
+      </c>
+      <c r="B460" s="0">
+        <v>0.037324464581022773</v>
+      </c>
+      <c r="C460" s="0">
+        <v>5.4926732859346483</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="0">
+        <v>0.14375164520743919</v>
+      </c>
+      <c r="B461" s="0">
+        <v>0.037011961004484881</v>
+      </c>
+      <c r="C461" s="0">
+        <v>5.4010821888994682</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="0">
+        <v>0.14406414878397711</v>
+      </c>
+      <c r="B462" s="0">
+        <v>0.036699457427946961</v>
+      </c>
+      <c r="C462" s="0">
+        <v>5.310261173158267</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="0">
+        <v>0.14437665236051503</v>
+      </c>
+      <c r="B463" s="0">
+        <v>0.03638695385140904</v>
+      </c>
+      <c r="C463" s="0">
+        <v>5.2202102387110498</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="0">
+        <v>0.14468915593705292</v>
+      </c>
+      <c r="B464" s="0">
+        <v>0.036074450274871148</v>
+      </c>
+      <c r="C464" s="0">
+        <v>5.1309293855578249</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="0">
+        <v>0.14500165951359084</v>
+      </c>
+      <c r="B465" s="0">
+        <v>0.035761946698333227</v>
+      </c>
+      <c r="C465" s="0">
+        <v>5.0424186136985742</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="0">
+        <v>0.14531416309012876</v>
+      </c>
+      <c r="B466" s="0">
+        <v>0.035449443121795307</v>
+      </c>
+      <c r="C466" s="0">
+        <v>4.9546779231333096</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="0">
+        <v>0.14562666666666668</v>
+      </c>
+      <c r="B467" s="0">
+        <v>0.035136939545257387</v>
+      </c>
+      <c r="C467" s="0">
+        <v>4.8677073138620299</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="0">
+        <v>0.14593917024320458</v>
+      </c>
+      <c r="B468" s="0">
+        <v>0.034824435968719494</v>
+      </c>
+      <c r="C468" s="0">
+        <v>4.7815067858847415</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="0">
+        <v>0.14625167381974247</v>
+      </c>
+      <c r="B469" s="0">
+        <v>0.034511932392181609</v>
+      </c>
+      <c r="C469" s="0">
+        <v>4.69607633920144</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="0">
+        <v>0.14656417739628039</v>
+      </c>
+      <c r="B470" s="0">
+        <v>0.034199428815643688</v>
+      </c>
+      <c r="C470" s="0">
+        <v>4.6114159738121101</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="0">
+        <v>0.14687668097281831</v>
+      </c>
+      <c r="B471" s="0">
+        <v>0.033886925239105768</v>
+      </c>
+      <c r="C471" s="0">
+        <v>4.5275256897167671</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="0">
+        <v>0.14718918454935623</v>
+      </c>
+      <c r="B472" s="0">
+        <v>0.033574421662567848</v>
+      </c>
+      <c r="C472" s="0">
+        <v>4.4444054869154082</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="0">
+        <v>0.14750168812589412</v>
+      </c>
+      <c r="B473" s="0">
+        <v>0.033261918086029956</v>
+      </c>
+      <c r="C473" s="0">
+        <v>4.3620553654080414</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="0">
+        <v>0.14781419170243204</v>
+      </c>
+      <c r="B474" s="0">
+        <v>0.032949414509492035</v>
+      </c>
+      <c r="C474" s="0">
+        <v>4.2804753251946508</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="0">
+        <v>0.14812669527896996</v>
+      </c>
+      <c r="B475" s="0">
+        <v>0.032636910932954115</v>
+      </c>
+      <c r="C475" s="0">
+        <v>4.1996653662752435</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="0">
+        <v>0.14843919885550788</v>
+      </c>
+      <c r="B476" s="0">
+        <v>0.032324407356416195</v>
+      </c>
+      <c r="C476" s="0">
+        <v>4.1196254886498212</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="0">
+        <v>0.14875170243204577</v>
+      </c>
+      <c r="B477" s="0">
+        <v>0.032011903779878302</v>
+      </c>
+      <c r="C477" s="0">
+        <v>4.040355692318391</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="0">
+        <v>0.14906420600858369</v>
+      </c>
+      <c r="B478" s="0">
+        <v>0.031699400203340382</v>
+      </c>
+      <c r="C478" s="0">
+        <v>3.961855977280937</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="0">
+        <v>0.14937670958512161</v>
+      </c>
+      <c r="B479" s="0">
+        <v>0.031386896626802462</v>
+      </c>
+      <c r="C479" s="0">
+        <v>3.884126343537468</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="0">
+        <v>0.14968921316165951</v>
+      </c>
+      <c r="B480" s="0">
+        <v>0.031074393050264569</v>
+      </c>
+      <c r="C480" s="0">
+        <v>3.8071667910879894</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="0">
+        <v>0.1500017167381974</v>
+      </c>
+      <c r="B481" s="0">
+        <v>0.030761889473726677</v>
+      </c>
+      <c r="C481" s="0">
+        <v>3.7309773199324958</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="0">
+        <v>0.15031422031473532</v>
+      </c>
+      <c r="B482" s="0">
+        <v>0.030449385897188756</v>
+      </c>
+      <c r="C482" s="0">
+        <v>3.6555579300709788</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="0">
+        <v>0.15062672389127324</v>
+      </c>
+      <c r="B483" s="0">
+        <v>0.030136882320650836</v>
+      </c>
+      <c r="C483" s="0">
+        <v>3.5809086215034469</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="0">
+        <v>0.15093922746781116</v>
+      </c>
+      <c r="B484" s="0">
+        <v>0.029824378744112916</v>
+      </c>
+      <c r="C484" s="0">
+        <v>3.5070293942298991</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="0">
+        <v>0.15125173104434905</v>
+      </c>
+      <c r="B485" s="0">
+        <v>0.029511875167575023</v>
+      </c>
+      <c r="C485" s="0">
+        <v>3.4339202482503417</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="0">
+        <v>0.15156423462088697</v>
+      </c>
+      <c r="B486" s="0">
+        <v>0.029199371591037103</v>
+      </c>
+      <c r="C486" s="0">
+        <v>3.3615811835647627</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="0">
+        <v>0.15187673819742489</v>
+      </c>
+      <c r="B487" s="0">
+        <v>0.028886868014499183</v>
+      </c>
+      <c r="C487" s="0">
+        <v>3.2900122001731669</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="0">
+        <v>0.15218924177396281</v>
+      </c>
+      <c r="B488" s="0">
+        <v>0.028574364437961263</v>
+      </c>
+      <c r="C488" s="0">
+        <v>3.2192132980755566</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="0">
+        <v>0.15250174535050071</v>
+      </c>
+      <c r="B489" s="0">
+        <v>0.02826186086142337</v>
+      </c>
+      <c r="C489" s="0">
+        <v>3.1491844772719357</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="0">
+        <v>0.15281424892703863</v>
+      </c>
+      <c r="B490" s="0">
+        <v>0.02794935728488545</v>
+      </c>
+      <c r="C490" s="0">
+        <v>3.0799257377622937</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="0">
+        <v>0.15312675250357655</v>
+      </c>
+      <c r="B491" s="0">
+        <v>0.027636853708347529</v>
+      </c>
+      <c r="C491" s="0">
+        <v>3.0114370795466359</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="0">
+        <v>0.15343925608011447</v>
+      </c>
+      <c r="B492" s="0">
+        <v>0.027324350131809609</v>
+      </c>
+      <c r="C492" s="0">
+        <v>2.9437185026249617</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="0">
+        <v>0.15375175965665236</v>
+      </c>
+      <c r="B493" s="0">
+        <v>0.027011846555271717</v>
+      </c>
+      <c r="C493" s="0">
+        <v>2.8767700069972784</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="0">
+        <v>0.15406426323319025</v>
+      </c>
+      <c r="B494" s="0">
+        <v>0.026699342978733824</v>
+      </c>
+      <c r="C494" s="0">
+        <v>2.8105915926635787</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="0">
+        <v>0.15437676680972817</v>
+      </c>
+      <c r="B495" s="0">
+        <v>0.026386839402195904</v>
+      </c>
+      <c r="C495" s="0">
+        <v>2.7451832596238579</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="0">
+        <v>0.15468927038626609</v>
+      </c>
+      <c r="B496" s="0">
+        <v>0.026074335825657984</v>
+      </c>
+      <c r="C496" s="0">
+        <v>2.6805450078781208</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="0">
+        <v>0.15500177396280399</v>
+      </c>
+      <c r="B497" s="0">
+        <v>0.025761832249120091</v>
+      </c>
+      <c r="C497" s="0">
+        <v>2.6166768374263745</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="0">
+        <v>0.15531427753934191</v>
+      </c>
+      <c r="B498" s="0">
+        <v>0.025449328672582171</v>
+      </c>
+      <c r="C498" s="0">
+        <v>2.5535787482686065</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="0">
+        <v>0.15562678111587983</v>
+      </c>
+      <c r="B499" s="0">
+        <v>0.02513682509604425</v>
+      </c>
+      <c r="C499" s="0">
+        <v>2.4912507404048223</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="0">
+        <v>0.15593928469241775</v>
+      </c>
+      <c r="B500" s="0">
+        <v>0.02482432151950633</v>
+      </c>
+      <c r="C500" s="0">
+        <v>2.4296928138350227</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="0">
+        <v>0.15625178826895564</v>
+      </c>
+      <c r="B501" s="0">
+        <v>0.024511817942968438</v>
+      </c>
+      <c r="C501" s="0">
+        <v>2.3689049685592125</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="0">
+        <v>0.15656429184549356</v>
+      </c>
+      <c r="B502" s="0">
+        <v>0.024199314366430518</v>
+      </c>
+      <c r="C502" s="0">
+        <v>2.3088872045773816</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="0">
+        <v>0.15687679542203148</v>
+      </c>
+      <c r="B503" s="0">
+        <v>0.023886810789892597</v>
+      </c>
+      <c r="C503" s="0">
+        <v>2.2496395218895344</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="0">
+        <v>0.1571892989985694</v>
+      </c>
+      <c r="B504" s="0">
+        <v>0.023574307213354677</v>
+      </c>
+      <c r="C504" s="0">
+        <v>2.1911619204956723</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="0">
+        <v>0.15750180257510729</v>
+      </c>
+      <c r="B505" s="0">
+        <v>0.023261803636816784</v>
+      </c>
+      <c r="C505" s="0">
+        <v>2.1334544003957991</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="0">
+        <v>0.15781430615164521</v>
+      </c>
+      <c r="B506" s="0">
+        <v>0.022949300060278864</v>
+      </c>
+      <c r="C506" s="0">
+        <v>2.0765169615899049</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="0">
+        <v>0.1581268097281831</v>
+      </c>
+      <c r="B507" s="0">
+        <v>0.022636796483740972</v>
+      </c>
+      <c r="C507" s="0">
+        <v>2.0203496040780005</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="0">
+        <v>0.15843931330472102</v>
+      </c>
+      <c r="B508" s="0">
+        <v>0.022324292907203051</v>
+      </c>
+      <c r="C508" s="0">
+        <v>1.9649523278600747</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="0">
+        <v>0.15875181688125894</v>
+      </c>
+      <c r="B509" s="0">
+        <v>0.022011789330665131</v>
+      </c>
+      <c r="C509" s="0">
+        <v>1.9103251329361337</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="0">
+        <v>0.15906432045779684</v>
+      </c>
+      <c r="B510" s="0">
+        <v>0.021699285754127239</v>
+      </c>
+      <c r="C510" s="0">
+        <v>1.8564680193061811</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="0">
+        <v>0.15937682403433476</v>
+      </c>
+      <c r="B511" s="0">
+        <v>0.021386782177589318</v>
+      </c>
+      <c r="C511" s="0">
+        <v>1.8033809869702087</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="0">
+        <v>0.15968932761087268</v>
+      </c>
+      <c r="B512" s="0">
+        <v>0.021074278601051398</v>
+      </c>
+      <c r="C512" s="0">
+        <v>1.7510640359282206</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="0">
+        <v>0.16000183118741057</v>
+      </c>
+      <c r="B513" s="0">
+        <v>0.020761775024513505</v>
+      </c>
+      <c r="C513" s="0">
+        <v>1.6995171661802206</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="0">
+        <v>0.16031433476394849</v>
+      </c>
+      <c r="B514" s="0">
+        <v>0.020449271447975585</v>
+      </c>
+      <c r="C514" s="0">
+        <v>1.6487403777262011</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="0">
+        <v>0.16062683834048641</v>
+      </c>
+      <c r="B515" s="0">
+        <v>0.020136767871437665</v>
+      </c>
+      <c r="C515" s="0">
+        <v>1.598733670566165</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="0">
+        <v>0.16093934191702433</v>
+      </c>
+      <c r="B516" s="0">
+        <v>0.019824264294899745</v>
+      </c>
+      <c r="C516" s="0">
+        <v>1.549497044700114</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="0">
+        <v>0.16125184549356222</v>
+      </c>
+      <c r="B517" s="0">
+        <v>0.019511760718361852</v>
+      </c>
+      <c r="C517" s="0">
+        <v>1.5010305001280511</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="0">
+        <v>0.16156434907010014</v>
+      </c>
+      <c r="B518" s="0">
+        <v>0.019199257141823932</v>
+      </c>
+      <c r="C518" s="0">
+        <v>1.4533340368499683</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="0">
+        <v>0.16187685264663807</v>
+      </c>
+      <c r="B519" s="0">
+        <v>0.018886784162631929</v>
+      </c>
+      <c r="C519" s="0">
+        <v>1.4064122117502729</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="0">
+        <v>0.16218935622317596</v>
+      </c>
+      <c r="B520" s="0">
+        <v>0.018588528901546934</v>
+      </c>
+      <c r="C520" s="0">
+        <v>1.362343538370743</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="0">
+        <v>0.16250185979971388</v>
+      </c>
+      <c r="B521" s="0">
+        <v>0.018314249199160734</v>
+      </c>
+      <c r="C521" s="0">
+        <v>1.3224365159036615</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="0">
+        <v>0.16281436337625177</v>
+      </c>
+      <c r="B522" s="0">
+        <v>0.018061486147361076</v>
+      </c>
+      <c r="C522" s="0">
+        <v>1.2861853510750429</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="0">
+        <v>0.16312686695278969</v>
+      </c>
+      <c r="B523" s="0">
+        <v>0.017828263636738694</v>
+      </c>
+      <c r="C523" s="0">
+        <v>1.2531835614942368</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="0">
+        <v>0.16343937052932761</v>
+      </c>
+      <c r="B524" s="0">
+        <v>0.017612967899408451</v>
+      </c>
+      <c r="C524" s="0">
+        <v>1.2230991978142915</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="0">
+        <v>0.16375187410586553</v>
+      </c>
+      <c r="B525" s="0">
+        <v>0.017414263582020285</v>
+      </c>
+      <c r="C525" s="0">
+        <v>1.1956575800910942</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="0">
+        <v>0.16406437768240342</v>
+      </c>
+      <c r="B526" s="0">
+        <v>0.017231033660836438</v>
+      </c>
+      <c r="C526" s="0">
+        <v>1.1706289384155431</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="0">
+        <v>0.16437688125894134</v>
+      </c>
+      <c r="B527" s="0">
+        <v>0.017062335420176905</v>
+      </c>
+      <c r="C527" s="0">
+        <v>1.1478193577536267</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="0">
+        <v>0.16468938483547926</v>
+      </c>
+      <c r="B528" s="0">
+        <v>0.016907367554600518</v>
+      </c>
+      <c r="C528" s="0">
+        <v>1.127064010920249</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="0">
+        <v>0.16500188841201716</v>
+      </c>
+      <c r="B529" s="0">
+        <v>0.016765445161502506</v>
+      </c>
+      <c r="C529" s="0">
+        <v>1.1082220145985005</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="0">
+        <v>0.16531439198855508</v>
+      </c>
+      <c r="B530" s="0">
+        <v>0.016635980451164816</v>
+      </c>
+      <c r="C530" s="0">
+        <v>1.091172461429369</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="0">
+        <v>0.165626895565093</v>
+      </c>
+      <c r="B531" s="0">
+        <v>0.016518467679813062</v>
+      </c>
+      <c r="C531" s="0">
+        <v>1.0758113207668265</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="0">
+        <v>0.16593939914163092</v>
+      </c>
+      <c r="B532" s="0">
+        <v>0.016412471256824691</v>
+      </c>
+      <c r="C532" s="0">
+        <v>1.0620489923504965</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="0">
+        <v>0.16625190271816881</v>
+      </c>
+      <c r="B533" s="0">
+        <v>0.016317616276733352</v>
+      </c>
+      <c r="C533" s="0">
+        <v>1.0498083587548366</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="0">
+        <v>0.1665644062947067</v>
+      </c>
+      <c r="B534" s="0">
+        <v>0.016233580932259808</v>
+      </c>
+      <c r="C534" s="0">
+        <v>1.0390232247623261</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="0">
+        <v>0.16687690987124462</v>
+      </c>
+      <c r="B535" s="0">
+        <v>0.01616009040847469</v>
+      </c>
+      <c r="C535" s="0">
+        <v>1.0296370614029831</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="0">
+        <v>0.16718941344778254</v>
+      </c>
+      <c r="B536" s="0">
+        <v>0.016096911960725876</v>
+      </c>
+      <c r="C536" s="0">
+        <v>1.0216019934922846</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="0">
+        <v>0.16750191702432046</v>
+      </c>
+      <c r="B537" s="0">
+        <v>0.016043850953310318</v>
+      </c>
+      <c r="C537" s="0">
+        <v>1.0148779847926062</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="0">
+        <v>0.16781442060085836</v>
+      </c>
+      <c r="B538" s="0">
+        <v>0.016000747690727041</v>
+      </c>
+      <c r="C538" s="0">
+        <v>1.0094321862072788</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="0">
+        <v>0.16812692417739628</v>
+      </c>
+      <c r="B539" s="0">
+        <v>0.015967474914565453</v>
+      </c>
+      <c r="C539" s="0">
+        <v>1.0052384208947149</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="0">
+        <v>0.1684394277539342</v>
+      </c>
+      <c r="B540" s="0">
+        <v>0.015943935870679479</v>
+      </c>
+      <c r="C540" s="0">
+        <v>1.0022767866893665</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="0">
+        <v>0.16875193133047212</v>
+      </c>
+      <c r="B541" s="0">
+        <v>0.015930062876089966</v>
+      </c>
+      <c r="C541" s="0">
+        <v>1.0005333613159571</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="0">
+        <v>0.16906443490701001</v>
+      </c>
+      <c r="B542" s="0">
+        <v>0.015925816335070578</v>
+      </c>
+      <c r="C542" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="0">
+        <v>0.16937693848354793</v>
+      </c>
+      <c r="B543" s="0">
+        <v>0.01593118417060483</v>
+      </c>
+      <c r="C543" s="0">
+        <v>1.0006742185194624</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="0">
+        <v>0.16968944206008585</v>
+      </c>
+      <c r="B544" s="0">
+        <v>0.015946181652010998</v>
+      </c>
+      <c r="C544" s="0">
+        <v>1.0025591577475002</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="0">
+        <v>0.17000194563662374</v>
+      </c>
+      <c r="B545" s="0">
+        <v>0.015970851612961655</v>
+      </c>
+      <c r="C545" s="0">
+        <v>1.0056636284987106</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="0">
+        <v>0.17031444921316163</v>
+      </c>
+      <c r="B546" s="0">
+        <v>0.016005265067203726</v>
+      </c>
+      <c r="C546" s="0">
+        <v>1.0100022381817131</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="0">
+        <v>0.17062695278969955</v>
+      </c>
+      <c r="B547" s="0">
+        <v>0.016049522242808124</v>
+      </c>
+      <c r="C547" s="0">
+        <v>1.0155956035425666</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="0">
+        <v>0.17093945636623747</v>
+      </c>
+      <c r="B548" s="0">
+        <v>0.016103754070583287</v>
+      </c>
+      <c r="C548" s="0">
+        <v>1.0224706568289361</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="0">
+        <v>0.17125195994277539</v>
+      </c>
+      <c r="B549" s="0">
+        <v>0.016168124179336815</v>
+      </c>
+      <c r="C549" s="0">
+        <v>1.0306610562120657</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="0">
+        <v>0.17156446351931329</v>
+      </c>
+      <c r="B550" s="0">
+        <v>0.016241679370502027</v>
+      </c>
+      <c r="C550" s="0">
+        <v>1.0400601573175181</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="0">
+        <v>0.17187696709585121</v>
+      </c>
+      <c r="B551" s="0">
+        <v>0.016316704841365347</v>
+      </c>
+      <c r="C551" s="0">
+        <v>1.0496910860197513</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="0">
+        <v>0.17218947067238913</v>
+      </c>
+      <c r="B552" s="0">
+        <v>0.016391730312228667</v>
+      </c>
+      <c r="C552" s="0">
+        <v>1.0593664005217245</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="0">
+        <v>0.17250197424892705</v>
+      </c>
+      <c r="B553" s="0">
+        <v>0.016466755783091994</v>
+      </c>
+      <c r="C553" s="0">
+        <v>1.0690861008234376</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="0">
+        <v>0.17281447782546494</v>
+      </c>
+      <c r="B554" s="0">
+        <v>0.016541781253955307</v>
+      </c>
+      <c r="C554" s="0">
+        <v>1.0788501869248885</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="0">
+        <v>0.17312698140200286</v>
+      </c>
+      <c r="B555" s="0">
+        <v>0.016616806724818627</v>
+      </c>
+      <c r="C555" s="0">
+        <v>1.08865865882608</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="0">
+        <v>0.17343948497854078</v>
+      </c>
+      <c r="B556" s="0">
+        <v>0.016691832195681953</v>
+      </c>
+      <c r="C556" s="0">
+        <v>1.0985115165270125</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="0">
+        <v>0.17375198855507867</v>
+      </c>
+      <c r="B557" s="0">
+        <v>0.016766857666545267</v>
+      </c>
+      <c r="C557" s="0">
+        <v>1.1084087600276822</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="0">
+        <v>0.17406449213161659</v>
+      </c>
+      <c r="B558" s="0">
+        <v>0.016841883137408586</v>
+      </c>
+      <c r="C558" s="0">
+        <v>1.1183503893280924</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="0">
+        <v>0.17437699570815449</v>
+      </c>
+      <c r="B559" s="0">
+        <v>0.0169169086082719</v>
+      </c>
+      <c r="C559" s="0">
+        <v>1.1283364044282411</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="0">
+        <v>0.17468949928469241</v>
+      </c>
+      <c r="B560" s="0">
+        <v>0.016991934079135226</v>
+      </c>
+      <c r="C560" s="0">
+        <v>1.1383668053281315</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="0">
+        <v>0.17500200286123033</v>
+      </c>
+      <c r="B561" s="0">
+        <v>0.017066959549998546</v>
+      </c>
+      <c r="C561" s="0">
+        <v>1.1484415920277609</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="0">
+        <v>0.17531450643776822</v>
+      </c>
+      <c r="B562" s="0">
+        <v>0.017141985020861859</v>
+      </c>
+      <c r="C562" s="0">
+        <v>1.1585607645271285</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="0">
+        <v>0.17562701001430614</v>
+      </c>
+      <c r="B563" s="0">
+        <v>0.017217010491725186</v>
+      </c>
+      <c r="C563" s="0">
+        <v>1.1687243228262376</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="0">
+        <v>0.17593951359084406</v>
+      </c>
+      <c r="B564" s="0">
+        <v>0.017292035962588506</v>
+      </c>
+      <c r="C564" s="0">
+        <v>1.1789322669250852</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="0">
+        <v>0.17625201716738198</v>
+      </c>
+      <c r="B565" s="0">
+        <v>0.017367061433451826</v>
+      </c>
+      <c r="C565" s="0">
+        <v>1.189184596823673</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="0">
+        <v>0.17656452074391987</v>
+      </c>
+      <c r="B566" s="0">
+        <v>0.017442086904315146</v>
+      </c>
+      <c r="C566" s="0">
+        <v>1.1994813125219999</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="0">
+        <v>0.17687702432045779</v>
+      </c>
+      <c r="B567" s="0">
+        <v>0.017517112375178466</v>
+      </c>
+      <c r="C567" s="0">
+        <v>1.2098224140200662</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="0">
+        <v>0.17718952789699571</v>
+      </c>
+      <c r="B568" s="0">
+        <v>0.017592137846041786</v>
+      </c>
+      <c r="C568" s="0">
+        <v>1.2202079013178722</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="0">
+        <v>0.17750203147353363</v>
+      </c>
+      <c r="B569" s="0">
+        <v>0.017667163316905106</v>
+      </c>
+      <c r="C569" s="0">
+        <v>1.2306377744154178</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="0">
+        <v>0.17781453505007153</v>
+      </c>
+      <c r="B570" s="0">
+        <v>0.017742188787768426</v>
+      </c>
+      <c r="C570" s="0">
+        <v>1.2411120333127035</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="0">
+        <v>0.17812703862660945</v>
+      </c>
+      <c r="B571" s="0">
+        <v>0.017817214258631746</v>
+      </c>
+      <c r="C571" s="0">
+        <v>1.2516306780097282</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="0">
+        <v>0.17843954220314737</v>
+      </c>
+      <c r="B572" s="0">
+        <v>0.017892239729495066</v>
+      </c>
+      <c r="C572" s="0">
+        <v>1.2621937085064925</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="0">
+        <v>0.17875204577968526</v>
+      </c>
+      <c r="B573" s="0">
+        <v>0.017967265200358386</v>
+      </c>
+      <c r="C573" s="0">
+        <v>1.2728011248029962</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="0">
+        <v>0.17906454935622315</v>
+      </c>
+      <c r="B574" s="0">
+        <v>0.018042290671221699</v>
+      </c>
+      <c r="C574" s="0">
+        <v>1.2834529268992392</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="0">
+        <v>0.17937705293276107</v>
+      </c>
+      <c r="B575" s="0">
+        <v>0.018117316142085019</v>
+      </c>
+      <c r="C575" s="0">
+        <v>1.2941491147952224</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="0">
+        <v>0.17968955650929899</v>
+      </c>
+      <c r="B576" s="0">
+        <v>0.018192341612948346</v>
+      </c>
+      <c r="C576" s="0">
+        <v>1.304889688490946</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="0">
+        <v>0.18000206008583691</v>
+      </c>
+      <c r="B577" s="0">
+        <v>0.018267367083811666</v>
+      </c>
+      <c r="C577" s="0">
+        <v>1.3156746479864081</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="0">
+        <v>0.18031456366237481</v>
+      </c>
+      <c r="B578" s="0">
+        <v>0.018342392554674979</v>
+      </c>
+      <c r="C578" s="0">
+        <v>1.326503993281609</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="0">
+        <v>0.18062706723891273</v>
+      </c>
+      <c r="B579" s="0">
+        <v>0.018417418025538299</v>
+      </c>
+      <c r="C579" s="0">
+        <v>1.3373777243765508</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="0">
+        <v>0.18093957081545065</v>
+      </c>
+      <c r="B580" s="0">
+        <v>0.018492443496401626</v>
+      </c>
+      <c r="C580" s="0">
+        <v>1.3482958412712327</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="0">
+        <v>0.18125207439198857</v>
+      </c>
+      <c r="B581" s="0">
+        <v>0.018567468967264945</v>
+      </c>
+      <c r="C581" s="0">
+        <v>1.3592583439656531</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="0">
+        <v>0.18156457796852646</v>
+      </c>
+      <c r="B582" s="0">
+        <v>0.018642494438128259</v>
+      </c>
+      <c r="C582" s="0">
+        <v>1.3702652324598124</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="0">
+        <v>0.18187708154506438</v>
+      </c>
+      <c r="B583" s="0">
+        <v>0.018717519908991585</v>
+      </c>
+      <c r="C583" s="0">
+        <v>1.3813165067537134</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="0">
+        <v>0.1821895851216023</v>
+      </c>
+      <c r="B584" s="0">
+        <v>0.018792545379854905</v>
+      </c>
+      <c r="C584" s="0">
+        <v>1.3924121668473528</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="0">
+        <v>0.18250208869814022</v>
+      </c>
+      <c r="B585" s="0">
+        <v>0.018867570850718225</v>
+      </c>
+      <c r="C585" s="0">
+        <v>1.4035522127407316</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="0">
+        <v>0.18281459227467811</v>
+      </c>
+      <c r="B586" s="0">
+        <v>0.018942596321581545</v>
+      </c>
+      <c r="C586" s="0">
+        <v>1.4147366444338501</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="0">
+        <v>0.18312709585121603</v>
+      </c>
+      <c r="B587" s="0">
+        <v>0.019017621792444865</v>
+      </c>
+      <c r="C587" s="0">
+        <v>1.4259654619267079</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="0">
+        <v>0.18343959942775392</v>
+      </c>
+      <c r="B588" s="0">
+        <v>0.019092647263308178</v>
+      </c>
+      <c r="C588" s="0">
+        <v>1.437238665219305</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="0">
+        <v>0.18375210300429184</v>
+      </c>
+      <c r="B589" s="0">
+        <v>0.019167672734171505</v>
+      </c>
+      <c r="C589" s="0">
+        <v>1.4485562543116433</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="0">
+        <v>0.18406460658082974</v>
+      </c>
+      <c r="B590" s="0">
+        <v>0.019242698205034818</v>
+      </c>
+      <c r="C590" s="0">
+        <v>1.459918229203719</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="0">
+        <v>0.18437711015736769</v>
+      </c>
+      <c r="B591" s="0">
+        <v>0.019317723675898145</v>
+      </c>
+      <c r="C591" s="0">
+        <v>1.4713245898955363</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="0">
+        <v>0.18468961373390558</v>
+      </c>
+      <c r="B592" s="0">
+        <v>0.019392749146761458</v>
+      </c>
+      <c r="C592" s="0">
+        <v>1.4827753363870917</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="0">
+        <v>0.18500211731044347</v>
+      </c>
+      <c r="B593" s="0">
+        <v>0.019467774617624778</v>
+      </c>
+      <c r="C593" s="0">
+        <v>1.494270468678387</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="0">
+        <v>0.18531462088698139</v>
+      </c>
+      <c r="B594" s="0">
+        <v>0.019542800088488098</v>
+      </c>
+      <c r="C594" s="0">
+        <v>1.5058099867694221</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="0">
+        <v>0.18562712446351928</v>
+      </c>
+      <c r="B595" s="0">
+        <v>0.019617825559351411</v>
+      </c>
+      <c r="C595" s="0">
+        <v>1.5173938906601956</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="0">
+        <v>0.18593962804005723</v>
+      </c>
+      <c r="B596" s="0">
+        <v>0.019692851030214745</v>
+      </c>
+      <c r="C596" s="0">
+        <v>1.529022180350712</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="0">
+        <v>0.18625213161659512</v>
+      </c>
+      <c r="B597" s="0">
+        <v>0.019767876501078058</v>
+      </c>
+      <c r="C597" s="0">
+        <v>1.5406948558409652</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="0">
+        <v>0.18656463519313304</v>
+      </c>
+      <c r="B598" s="0">
+        <v>0.019842901971941378</v>
+      </c>
+      <c r="C598" s="0">
+        <v>1.5524119171309585</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="0">
+        <v>0.18687713876967094</v>
+      </c>
+      <c r="B599" s="0">
+        <v>0.019917927442804698</v>
+      </c>
+      <c r="C599" s="0">
+        <v>1.5641733642206914</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="0">
+        <v>0.18718964234620889</v>
+      </c>
+      <c r="B600" s="0">
+        <v>0.019992952913668025</v>
+      </c>
+      <c r="C600" s="0">
+        <v>1.5759791971101651</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="0">
+        <v>0.18750214592274678</v>
+      </c>
+      <c r="B601" s="0">
+        <v>0.020067978384531338</v>
+      </c>
+      <c r="C601" s="0">
+        <v>1.5878294157993766</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="0">
+        <v>0.1878146494992847</v>
+      </c>
+      <c r="B602" s="0">
+        <v>0.020143003855394657</v>
+      </c>
+      <c r="C602" s="0">
+        <v>1.5997240202883283</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="0">
+        <v>0.18812715307582259</v>
+      </c>
+      <c r="B603" s="0">
+        <v>0.020218029326257978</v>
+      </c>
+      <c r="C603" s="0">
+        <v>1.6116630105770196</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="0">
+        <v>0.18843965665236054</v>
+      </c>
+      <c r="B604" s="0">
+        <v>0.020293054797121304</v>
+      </c>
+      <c r="C604" s="0">
+        <v>1.6236463866654516</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="0">
+        <v>0.18875216022889843</v>
+      </c>
+      <c r="B605" s="0">
+        <v>0.020368080267984617</v>
+      </c>
+      <c r="C605" s="0">
+        <v>1.6356741485536208</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="0">
+        <v>0.18906466380543632</v>
+      </c>
+      <c r="B606" s="0">
+        <v>0.020443105738847937</v>
+      </c>
+      <c r="C606" s="0">
+        <v>1.6477462962415312</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="0">
+        <v>0.18937716738197424</v>
+      </c>
+      <c r="B607" s="0">
+        <v>0.020518131209711257</v>
+      </c>
+      <c r="C607" s="0">
+        <v>1.6598628297291809</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="0">
+        <v>0.18968967095851214</v>
+      </c>
+      <c r="B608" s="0">
+        <v>0.02059315668057457</v>
+      </c>
+      <c r="C608" s="0">
+        <v>1.6720237490165688</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="0">
+        <v>0.19000217453505008</v>
+      </c>
+      <c r="B609" s="0">
+        <v>0.020668182151437904</v>
+      </c>
+      <c r="C609" s="0">
+        <v>1.6842290541036999</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="0">
+        <v>0.19031467811158798</v>
+      </c>
+      <c r="B610" s="0">
+        <v>0.020743207622301217</v>
+      </c>
+      <c r="C610" s="0">
+        <v>1.6964787449905676</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="0">
+        <v>0.1906271816881259</v>
+      </c>
+      <c r="B611" s="0">
+        <v>0.020818233093164537</v>
+      </c>
+      <c r="C611" s="0">
+        <v>1.7087728216771756</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="0">
+        <v>0.19093968526466379</v>
+      </c>
+      <c r="B612" s="0">
+        <v>0.02089325856402785</v>
+      </c>
+      <c r="C612" s="0">
+        <v>1.7211112841635219</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="0">
+        <v>0.19125218884120174</v>
+      </c>
+      <c r="B613" s="0">
+        <v>0.020968284034891184</v>
+      </c>
+      <c r="C613" s="0">
+        <v>1.7334941324496112</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="0">
+        <v>0.19156469241773963</v>
+      </c>
+      <c r="B614" s="0">
+        <v>0.021043309505754497</v>
+      </c>
+      <c r="C614" s="0">
+        <v>1.7459213665354365</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="0">
+        <v>0.19187719599427755</v>
+      </c>
+      <c r="B615" s="0">
+        <v>0.021118334976617817</v>
+      </c>
+      <c r="C615" s="0">
+        <v>1.7583929864210033</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="0">
+        <v>0.19218969957081544</v>
+      </c>
+      <c r="B616" s="0">
+        <v>0.021193360447481137</v>
+      </c>
+      <c r="C616" s="0">
+        <v>1.7709089921063093</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="0">
+        <v>0.19250220314735339</v>
+      </c>
+      <c r="B617" s="0">
+        <v>0.021268385918344464</v>
+      </c>
+      <c r="C617" s="0">
+        <v>1.7834693835913558</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="0">
+        <v>0.19281470672389128</v>
+      </c>
+      <c r="B618" s="0">
+        <v>0.021343411389207777</v>
+      </c>
+      <c r="C618" s="0">
+        <v>1.7960741608761395</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="0">
+        <v>0.19312721030042918</v>
+      </c>
+      <c r="B619" s="0">
+        <v>0.021418436860071097</v>
+      </c>
+      <c r="C619" s="0">
+        <v>1.8087233239606646</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="0">
+        <v>0.1934397138769671</v>
+      </c>
+      <c r="B620" s="0">
+        <v>0.021493462330934417</v>
+      </c>
+      <c r="C620" s="0">
+        <v>1.8214168728449287</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="0">
+        <v>0.19375221745350499</v>
+      </c>
+      <c r="B621" s="0">
+        <v>0.02156848780179773</v>
+      </c>
+      <c r="C621" s="0">
+        <v>1.8341548075289311</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="0">
+        <v>0.19406472103004291</v>
+      </c>
+      <c r="B622" s="0">
+        <v>0.02164351327266105</v>
+      </c>
+      <c r="C622" s="0">
+        <v>1.8469371280126743</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="0">
+        <v>0.1943772246065808</v>
+      </c>
+      <c r="B623" s="0">
+        <v>0.02171853874352437</v>
+      </c>
+      <c r="C623" s="0">
+        <v>1.8597638342961571</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="0">
+        <v>0.19468972818311875</v>
+      </c>
+      <c r="B624" s="0">
+        <v>0.021793564214387696</v>
+      </c>
+      <c r="C624" s="0">
+        <v>1.8726349263793813</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="0">
+        <v>0.19500223175965664</v>
+      </c>
+      <c r="B625" s="0">
+        <v>0.021868589685251009</v>
+      </c>
+      <c r="C625" s="0">
+        <v>1.8855504042623421</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="0">
+        <v>0.19531473533619456</v>
+      </c>
+      <c r="B626" s="0">
+        <v>0.021943615156114336</v>
+      </c>
+      <c r="C626" s="0">
+        <v>1.898510267945045</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="0">
+        <v>0.19562723891273245</v>
+      </c>
+      <c r="B627" s="0">
+        <v>0.022018640626977649</v>
+      </c>
+      <c r="C627" s="0">
+        <v>1.9115145174274848</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="0">
+        <v>0.1959397424892704</v>
+      </c>
+      <c r="B628" s="0">
+        <v>0.022093666097840976</v>
+      </c>
+      <c r="C628" s="0">
+        <v>1.9245631527096674</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="0">
+        <v>0.19625224606580829</v>
+      </c>
+      <c r="B629" s="0">
+        <v>0.022168691568704296</v>
+      </c>
+      <c r="C629" s="0">
+        <v>1.9376561737915876</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="0">
+        <v>0.19656474964234621</v>
+      </c>
+      <c r="B630" s="0">
+        <v>0.022243717039567616</v>
+      </c>
+      <c r="C630" s="0">
+        <v>1.9507935806732475</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="0">
+        <v>0.19687725321888411</v>
+      </c>
+      <c r="B631" s="0">
+        <v>0.022318742510430929</v>
+      </c>
+      <c r="C631" s="0">
+        <v>1.9639753733546457</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="0">
+        <v>0.197189756795422</v>
+      </c>
+      <c r="B632" s="0">
+        <v>0.022393767981294249</v>
+      </c>
+      <c r="C632" s="0">
+        <v>1.9772015518357848</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="0">
+        <v>0.19750226037195995</v>
+      </c>
+      <c r="B633" s="0">
+        <v>0.022468793452157576</v>
+      </c>
+      <c r="C633" s="0">
+        <v>1.9904721161166652</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="0">
+        <v>0.19781476394849784</v>
+      </c>
+      <c r="B634" s="0">
+        <v>0.022543818923020889</v>
+      </c>
+      <c r="C634" s="0">
+        <v>2.0037870661972823</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="0">
+        <v>0.19812726752503576</v>
+      </c>
+      <c r="B635" s="0">
+        <v>0.022618844393884209</v>
+      </c>
+      <c r="C635" s="0">
+        <v>2.01714640207764</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="0">
+        <v>0.19843977110157365</v>
+      </c>
+      <c r="B636" s="0">
+        <v>0.022693869864747529</v>
+      </c>
+      <c r="C636" s="0">
+        <v>2.0305501237577373</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="0">
+        <v>0.1987522746781116</v>
+      </c>
+      <c r="B637" s="0">
+        <v>0.022768895335610856</v>
+      </c>
+      <c r="C637" s="0">
+        <v>2.043998231237576</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="0">
+        <v>0.19906477825464949</v>
+      </c>
+      <c r="B638" s="0">
+        <v>0.022843920806474169</v>
+      </c>
+      <c r="C638" s="0">
+        <v>2.0574907245171512</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="0">
+        <v>0.19937728183118741</v>
+      </c>
+      <c r="B639" s="0">
+        <v>0.022918946277337496</v>
+      </c>
+      <c r="C639" s="0">
+        <v>2.0710276035964688</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="0">
+        <v>0.19968978540772531</v>
+      </c>
+      <c r="B640" s="0">
+        <v>0.022993971748200809</v>
+      </c>
+      <c r="C640" s="0">
+        <v>2.0846088684755229</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="0">
+        <v>0.20000228898426326</v>
+      </c>
+      <c r="B641" s="0">
+        <v>0.023068997219064136</v>
+      </c>
+      <c r="C641" s="0">
+        <v>2.0982345191543197</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="0">
+        <v>0.20031479256080115</v>
+      </c>
+      <c r="B642" s="0">
+        <v>0.023144022689927449</v>
+      </c>
+      <c r="C642" s="0">
+        <v>2.111904555632854</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="0">
+        <v>0.20062729613733907</v>
+      </c>
+      <c r="B643" s="0">
+        <v>0.023219048160790776</v>
+      </c>
+      <c r="C643" s="0">
+        <v>2.1256189779111296</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="0">
+        <v>0.20093979971387696</v>
+      </c>
+      <c r="B644" s="0">
+        <v>0.023294073631654089</v>
+      </c>
+      <c r="C644" s="0">
+        <v>2.1393777859891423</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="0">
+        <v>0.20125230329041485</v>
+      </c>
+      <c r="B645" s="0">
+        <v>0.023369099102517402</v>
+      </c>
+      <c r="C645" s="0">
+        <v>2.1531809798668942</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="0">
+        <v>0.2015648068669528</v>
+      </c>
+      <c r="B646" s="0">
+        <v>0.023444124573380736</v>
+      </c>
+      <c r="C646" s="0">
+        <v>2.1670285595443906</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="0">
+        <v>0.20187731044349069</v>
+      </c>
+      <c r="B647" s="0">
+        <v>0.023519150044244048</v>
+      </c>
+      <c r="C647" s="0">
+        <v>2.1809205250216221</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="0">
+        <v>0.20218981402002861</v>
+      </c>
+      <c r="B648" s="0">
+        <v>0.023594175515107369</v>
+      </c>
+      <c r="C648" s="0">
+        <v>2.1948568762985943</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="0">
+        <v>0.20250231759656651</v>
+      </c>
+      <c r="B649" s="0">
+        <v>0.023669200985970688</v>
+      </c>
+      <c r="C649" s="0">
+        <v>2.2088376133753065</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="0">
+        <v>0.20281482117310443</v>
+      </c>
+      <c r="B650" s="0">
+        <v>0.023744226456834008</v>
+      </c>
+      <c r="C650" s="0">
+        <v>2.2228627362517579</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="0">
+        <v>0.20312732474964232</v>
+      </c>
+      <c r="B651" s="0">
+        <v>0.023819251927697321</v>
+      </c>
+      <c r="C651" s="0">
+        <v>2.2369322449279481</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="0">
+        <v>0.20343982832618027</v>
+      </c>
+      <c r="B652" s="0">
+        <v>0.023894277398560655</v>
+      </c>
+      <c r="C652" s="0">
+        <v>2.2510461394038814</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="0">
+        <v>0.20375233190271816</v>
+      </c>
+      <c r="B653" s="0">
+        <v>0.023969302869423968</v>
+      </c>
+      <c r="C653" s="0">
+        <v>2.26520441967955</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="0">
+        <v>0.20406483547925608</v>
+      </c>
+      <c r="B654" s="0">
+        <v>0.024044328340287288</v>
+      </c>
+      <c r="C654" s="0">
+        <v>2.27940708575496</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="0">
+        <v>0.20437733905579397</v>
+      </c>
+      <c r="B655" s="0">
+        <v>0.024119353811150601</v>
+      </c>
+      <c r="C655" s="0">
+        <v>2.2936541376301087</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="0">
+        <v>0.20468984263233192</v>
+      </c>
+      <c r="B656" s="0">
+        <v>0.024194379282013935</v>
+      </c>
+      <c r="C656" s="0">
+        <v>2.3079455753050002</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="0">
+        <v>0.20500234620886981</v>
+      </c>
+      <c r="B657" s="0">
+        <v>0.024269404752877248</v>
+      </c>
+      <c r="C657" s="0">
+        <v>2.3222813987796274</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="0">
+        <v>0.20531484978540771</v>
+      </c>
+      <c r="B658" s="0">
+        <v>0.024344430223740561</v>
+      </c>
+      <c r="C658" s="0">
+        <v>2.3366616080539942</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="0">
+        <v>0.20562735336194563</v>
+      </c>
+      <c r="B659" s="0">
+        <v>0.024419455694603888</v>
+      </c>
+      <c r="C659" s="0">
+        <v>2.3510862031281032</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="0">
+        <v>0.20593985693848352</v>
+      </c>
+      <c r="B660" s="0">
+        <v>0.024494481165467201</v>
+      </c>
+      <c r="C660" s="0">
+        <v>2.3655551840019498</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="0">
+        <v>0.20625236051502147</v>
+      </c>
+      <c r="B661" s="0">
+        <v>0.024569506636330528</v>
+      </c>
+      <c r="C661" s="0">
+        <v>2.3800685506755377</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="0">
+        <v>0.20656486409155936</v>
+      </c>
+      <c r="B662" s="0">
+        <v>0.024644532107193848</v>
+      </c>
+      <c r="C662" s="0">
+        <v>2.3946263031488644</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="0">
+        <v>0.20687736766809728</v>
+      </c>
+      <c r="B663" s="0">
+        <v>0.024719557578057168</v>
+      </c>
+      <c r="C663" s="0">
+        <v>2.4092284414219303</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="0">
+        <v>0.20718987124463517</v>
+      </c>
+      <c r="B664" s="0">
+        <v>0.024794583048920481</v>
+      </c>
+      <c r="C664" s="0">
+        <v>2.4238749654947349</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="0">
+        <v>0.20750237482117312</v>
+      </c>
+      <c r="B665" s="0">
+        <v>0.024869608519783808</v>
+      </c>
+      <c r="C665" s="0">
+        <v>2.4385658753672814</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="0">
+        <v>0.20781487839771101</v>
+      </c>
+      <c r="B666" s="0">
+        <v>0.024944633990647128</v>
+      </c>
+      <c r="C666" s="0">
+        <v>2.4533011710395663</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="0">
+        <v>0.20812738197424893</v>
+      </c>
+      <c r="B667" s="0">
+        <v>0.025019659461510448</v>
+      </c>
+      <c r="C667" s="0">
+        <v>2.4680808525115907</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="0">
+        <v>0.20843988555078682</v>
+      </c>
+      <c r="B668" s="0">
+        <v>0.025094684932373761</v>
+      </c>
+      <c r="C668" s="0">
+        <v>2.482904919783353</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="0">
+        <v>0.20875238912732477</v>
+      </c>
+      <c r="B669" s="0">
+        <v>0.025169710403237094</v>
+      </c>
+      <c r="C669" s="0">
+        <v>2.4977733728548599</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="0">
+        <v>0.20906489270386266</v>
+      </c>
+      <c r="B670" s="0">
+        <v>0.025244735874100407</v>
+      </c>
+      <c r="C670" s="0">
+        <v>2.5126862117261015</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="0">
+        <v>0.20937739628040056</v>
+      </c>
+      <c r="B671" s="0">
+        <v>0.025319761344963721</v>
+      </c>
+      <c r="C671" s="0">
+        <v>2.5276434363970828</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="0">
+        <v>0.20968989985693848</v>
+      </c>
+      <c r="B672" s="0">
+        <v>0.025394786815827047</v>
+      </c>
+      <c r="C672" s="0">
+        <v>2.5426450468678064</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="0">
+        <v>0.21000240343347637</v>
+      </c>
+      <c r="B673" s="0">
+        <v>0.02546981228669036</v>
+      </c>
+      <c r="C673" s="0">
+        <v>2.5576910431382673</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="0">
+        <v>0.21031490701001432</v>
+      </c>
+      <c r="B674" s="0">
+        <v>0.025544837757553687</v>
+      </c>
+      <c r="C674" s="0">
+        <v>2.5727814252084702</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="0">
+        <v>0.21062741058655221</v>
+      </c>
+      <c r="B675" s="0">
+        <v>0.025619863228417</v>
+      </c>
+      <c r="C675" s="0">
+        <v>2.5879161930784096</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="0">
+        <v>0.21093991416309013</v>
+      </c>
+      <c r="B676" s="0">
+        <v>0.025694888699280327</v>
+      </c>
+      <c r="C676" s="0">
+        <v>2.6030953467480917</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="0">
+        <v>0.21125241773962802</v>
+      </c>
+      <c r="B677" s="0">
+        <v>0.02576991417014364</v>
+      </c>
+      <c r="C677" s="0">
+        <v>2.6183188862175104</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="0">
+        <v>0.21156492131616597</v>
+      </c>
+      <c r="B678" s="0">
+        <v>0.025844939641006967</v>
+      </c>
+      <c r="C678" s="0">
+        <v>2.6335868114866719</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="0">
+        <v>0.21187742489270386</v>
+      </c>
+      <c r="B679" s="0">
+        <v>0.025919965111870287</v>
+      </c>
+      <c r="C679" s="0">
+        <v>2.6488991225555711</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="0">
+        <v>0.21218992846924179</v>
+      </c>
+      <c r="B680" s="0">
+        <v>0.025994990582733607</v>
+      </c>
+      <c r="C680" s="0">
+        <v>2.6642558194242101</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="0">
+        <v>0.21250243204577968</v>
+      </c>
+      <c r="B681" s="0">
+        <v>0.02607001605359692</v>
+      </c>
+      <c r="C681" s="0">
+        <v>2.6796569020925869</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="0">
+        <v>0.2128149356223176</v>
+      </c>
+      <c r="B682" s="0">
+        <v>0.026145041524460247</v>
+      </c>
+      <c r="C682" s="0">
+        <v>2.6951023705607073</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="0">
+        <v>0.21312743919885549</v>
+      </c>
+      <c r="B683" s="0">
+        <v>0.02622006699532356</v>
+      </c>
+      <c r="C683" s="0">
+        <v>2.7105922248285634</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="0">
+        <v>0.21343994277539338</v>
+      </c>
+      <c r="B684" s="0">
+        <v>0.026295092466186873</v>
+      </c>
+      <c r="C684" s="0">
+        <v>2.7261264648961587</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="0">
+        <v>0.21375244635193133</v>
+      </c>
+      <c r="B685" s="0">
+        <v>0.0263701179370502</v>
+      </c>
+      <c r="C685" s="0">
+        <v>2.7417050907634972</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="0">
+        <v>0.21406494992846922</v>
+      </c>
+      <c r="B686" s="0">
+        <v>0.02644514340791352</v>
+      </c>
+      <c r="C686" s="0">
+        <v>2.7573281024305731</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="0">
+        <v>0.21437745350500714</v>
+      </c>
+      <c r="B687" s="0">
+        <v>0.02652016887877684</v>
+      </c>
+      <c r="C687" s="0">
+        <v>2.77299549989739</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="0">
+        <v>0.21468995708154504</v>
+      </c>
+      <c r="B688" s="0">
+        <v>0.026595194349640153</v>
+      </c>
+      <c r="C688" s="0">
+        <v>2.7887072831639439</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="0">
+        <v>0.21500246065808298</v>
+      </c>
+      <c r="B689" s="0">
+        <v>0.026670219820503487</v>
+      </c>
+      <c r="C689" s="0">
+        <v>2.8044634522302419</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="0">
+        <v>0.21531496423462088</v>
+      </c>
+      <c r="B690" s="0">
+        <v>0.0267452452913668</v>
+      </c>
+      <c r="C690" s="0">
+        <v>2.820264007096275</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="0">
+        <v>0.2156274678111588</v>
+      </c>
+      <c r="B691" s="0">
+        <v>0.02682027076223012</v>
+      </c>
+      <c r="C691" s="0">
+        <v>2.83610894776205</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="0">
+        <v>0.21593997138769669</v>
+      </c>
+      <c r="B692" s="0">
+        <v>0.02689529623309344</v>
+      </c>
+      <c r="C692" s="0">
+        <v>2.8519982742275638</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="0">
+        <v>0.21625247496423464</v>
+      </c>
+      <c r="B693" s="0">
+        <v>0.026970321703956766</v>
+      </c>
+      <c r="C693" s="0">
+        <v>2.8679319864928186</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="0">
+        <v>0.21656497854077253</v>
+      </c>
+      <c r="B694" s="0">
+        <v>0.027045347174820079</v>
+      </c>
+      <c r="C694" s="0">
+        <v>2.8839100845578098</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="0">
+        <v>0.21687748211731045</v>
+      </c>
+      <c r="B695" s="0">
+        <v>0.027120372645683399</v>
+      </c>
+      <c r="C695" s="0">
+        <v>2.8999325684225426</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="0">
+        <v>0.21718998569384834</v>
+      </c>
+      <c r="B696" s="0">
+        <v>0.027195398116546719</v>
+      </c>
+      <c r="C696" s="0">
+        <v>2.9159994380870153</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="0">
+        <v>0.21750248927038624</v>
+      </c>
+      <c r="B697" s="0">
+        <v>0.027270423587410032</v>
+      </c>
+      <c r="C697" s="0">
+        <v>2.9321106935512251</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="0">
+        <v>0.21781499284692418</v>
+      </c>
+      <c r="B698" s="0">
+        <v>0.027345449058273359</v>
+      </c>
+      <c r="C698" s="0">
+        <v>2.9482663348151781</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="0">
+        <v>0.21812749642346208</v>
+      </c>
+      <c r="B699" s="0">
+        <v>0.027420474529136679</v>
+      </c>
+      <c r="C699" s="0">
+        <v>2.9644663618788689</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="0">
+        <v>0.21844</v>
+      </c>
+      <c r="B700" s="0">
+        <v>0.027495499999999999</v>
+      </c>
+      <c r="C700" s="0">
+        <v>2.9807107747422999</v>
       </c>
     </row>
   </sheetData>

--- a/REGEN/Contour_Maelstrom.xlsx
+++ b/REGEN/Contour_Maelstrom.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C250"/>
+  <dimension ref="A1:C700"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -72,2746 +72,7696 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C1" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0008772690763052209</v>
+        <v>0.00034157367668097283</v>
       </c>
       <c r="B2" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C2" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0017545381526104418</v>
+        <v>0.00068314735336194566</v>
       </c>
       <c r="B3" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C3" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0026318072289156628</v>
+        <v>0.0010247210300429186</v>
       </c>
       <c r="B4" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C4" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0035090763052208836</v>
+        <v>0.0013662947067238913</v>
       </c>
       <c r="B5" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C5" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0043863453815261048</v>
+        <v>0.001707868383404864</v>
       </c>
       <c r="B6" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C6" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0052636144578313256</v>
+        <v>0.0020494420600858372</v>
       </c>
       <c r="B7" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C7" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0061408835341365464</v>
+        <v>0.0023910157367668097</v>
       </c>
       <c r="B8" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C8" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0070181526104417672</v>
+        <v>0.0027325894134477826</v>
       </c>
       <c r="B9" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C9" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0078954216867469871</v>
+        <v>0.0030741630901287551</v>
       </c>
       <c r="B10" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C10" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0087726907630522096</v>
+        <v>0.0034157367668097281</v>
       </c>
       <c r="B11" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C11" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0096499598393574287</v>
+        <v>0.003757310443490701</v>
       </c>
       <c r="B12" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C12" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.010527228915662651</v>
+        <v>0.0040988841201716744</v>
       </c>
       <c r="B13" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C13" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.01140449799196787</v>
+        <v>0.0044404577968526473</v>
       </c>
       <c r="B14" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C14" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.012281767068273093</v>
+        <v>0.0047820314735336194</v>
       </c>
       <c r="B15" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C15" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.013159036144578312</v>
+        <v>0.0051236051502145923</v>
       </c>
       <c r="B16" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C16" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.014036305220883534</v>
+        <v>0.0054651788268955653</v>
       </c>
       <c r="B17" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C17" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.014913574297188755</v>
+        <v>0.0058067525035765373</v>
       </c>
       <c r="B18" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C18" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.015790843373493974</v>
+        <v>0.0061483261802575103</v>
       </c>
       <c r="B19" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C19" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.016668112449799197</v>
+        <v>0.0064898998569384832</v>
       </c>
       <c r="B20" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C20" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.017545381526104419</v>
+        <v>0.0068314735336194561</v>
       </c>
       <c r="B21" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C21" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.018422650602409638</v>
+        <v>0.0071730472103004291</v>
       </c>
       <c r="B22" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C22" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.019299919678714857</v>
+        <v>0.007514620886981402</v>
       </c>
       <c r="B23" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C23" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.02017718875502008</v>
+        <v>0.0078561945636623758</v>
       </c>
       <c r="B24" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C24" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.021054457831325302</v>
+        <v>0.0081977682403433488</v>
       </c>
       <c r="B25" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C25" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.021931726907630525</v>
+        <v>0.0085393419170243217</v>
       </c>
       <c r="B26" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C26" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.022808995983935741</v>
+        <v>0.0088809155937052946</v>
       </c>
       <c r="B27" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C27" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.023686265060240963</v>
+        <v>0.0092224892703862658</v>
       </c>
       <c r="B28" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C28" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.024563534136546186</v>
+        <v>0.0095640629470672388</v>
       </c>
       <c r="B29" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C29" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.025440803212851405</v>
+        <v>0.0099056366237482117</v>
       </c>
       <c r="B30" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C30" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.026318072289156624</v>
+        <v>0.010247210300429185</v>
       </c>
       <c r="B31" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C31" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.027195341365461846</v>
+        <v>0.010588783977110158</v>
       </c>
       <c r="B32" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C32" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.028072610441767069</v>
+        <v>0.010930357653791131</v>
       </c>
       <c r="B33" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C33" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.028949879518072288</v>
+        <v>0.011271931330472103</v>
       </c>
       <c r="B34" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C34" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.02982714859437751</v>
+        <v>0.011613505007153075</v>
       </c>
       <c r="B35" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C35" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.030704417670682729</v>
+        <v>0.011955078683834049</v>
       </c>
       <c r="B36" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C36" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.031581686746987948</v>
+        <v>0.012296652360515021</v>
       </c>
       <c r="B37" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C37" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.032458955823293167</v>
+        <v>0.012638226037195995</v>
       </c>
       <c r="B38" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C38" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.033336224899598394</v>
+        <v>0.012979799713876966</v>
       </c>
       <c r="B39" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C39" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.034213493975903612</v>
+        <v>0.013321373390557941</v>
       </c>
       <c r="B40" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C40" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.035090763052208838</v>
+        <v>0.013662947067238912</v>
       </c>
       <c r="B41" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C41" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.035968032128514058</v>
+        <v>0.014004520743919887</v>
       </c>
       <c r="B42" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C42" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.036845301204819277</v>
+        <v>0.014346094420600858</v>
       </c>
       <c r="B43" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C43" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.037722570281124496</v>
+        <v>0.014687668097281829</v>
       </c>
       <c r="B44" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C44" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.038599839357429715</v>
+        <v>0.015029241773962804</v>
       </c>
       <c r="B45" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C45" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.039477108433734941</v>
+        <v>0.015370815450643775</v>
       </c>
       <c r="B46" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C46" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.04035437751004016</v>
+        <v>0.015712389127324752</v>
       </c>
       <c r="B47" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C47" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.041231646586345379</v>
+        <v>0.016053962804005721</v>
       </c>
       <c r="B48" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C48" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.042108915662650605</v>
+        <v>0.016395536480686698</v>
       </c>
       <c r="B49" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C49" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.042986184738955824</v>
+        <v>0.016737110157367667</v>
       </c>
       <c r="B50" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C50" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.04386345381526105</v>
+        <v>0.017078683834048643</v>
       </c>
       <c r="B51" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C51" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.044740722891566262</v>
+        <v>0.017420257510729613</v>
       </c>
       <c r="B52" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C52" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.045617991967871481</v>
+        <v>0.017761831187410589</v>
       </c>
       <c r="B53" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C53" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.046495261044176707</v>
+        <v>0.018103404864091559</v>
       </c>
       <c r="B54" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C54" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.047372530120481926</v>
+        <v>0.018444978540772532</v>
       </c>
       <c r="B55" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C55" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.048249799196787145</v>
+        <v>0.018786552217453505</v>
       </c>
       <c r="B56" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C56" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.049127068273092371</v>
+        <v>0.019128125894134478</v>
       </c>
       <c r="B57" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C57" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.05000433734939759</v>
+        <v>0.01946969957081545</v>
       </c>
       <c r="B58" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C58" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.050881606425702809</v>
+        <v>0.019811273247496423</v>
       </c>
       <c r="B59" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C59" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.051758875502008028</v>
+        <v>0.020152846924177396</v>
       </c>
       <c r="B60" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C60" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.052636144578313247</v>
+        <v>0.020494420600858369</v>
       </c>
       <c r="B61" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C61" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.053513413654618473</v>
+        <v>0.020835994277539342</v>
       </c>
       <c r="B62" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C62" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.054390682730923692</v>
+        <v>0.021177567954220315</v>
       </c>
       <c r="B63" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C63" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.055267951807228918</v>
+        <v>0.021519141630901288</v>
       </c>
       <c r="B64" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C64" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.056145220883534137</v>
+        <v>0.021860715307582261</v>
       </c>
       <c r="B65" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C65" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.057022489959839356</v>
+        <v>0.022202288984263231</v>
       </c>
       <c r="B66" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C66" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.057899759036144576</v>
+        <v>0.022543862660944207</v>
       </c>
       <c r="B67" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C67" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.058777028112449795</v>
+        <v>0.022885436337625177</v>
       </c>
       <c r="B68" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C68" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.059654297188755021</v>
+        <v>0.023227010014306149</v>
       </c>
       <c r="B69" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C69" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.06053156626506024</v>
+        <v>0.023568583690987126</v>
       </c>
       <c r="B70" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C70" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.061408835341365459</v>
+        <v>0.023910157367668099</v>
       </c>
       <c r="B71" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C71" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.062286104417670685</v>
+        <v>0.024251731044349068</v>
       </c>
       <c r="B72" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C72" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.063163373493975897</v>
+        <v>0.024593304721030041</v>
       </c>
       <c r="B73" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C73" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.064040642570281123</v>
+        <v>0.024934878397711018</v>
       </c>
       <c r="B74" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C74" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.064917911646586335</v>
+        <v>0.02527645207439199</v>
       </c>
       <c r="B75" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C75" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0.065795180722891561</v>
+        <v>0.02561802575107296</v>
       </c>
       <c r="B76" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C76" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.066672449799196787</v>
+        <v>0.025959599427753933</v>
       </c>
       <c r="B77" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C77" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0.067549718875502013</v>
+        <v>0.026301173104434906</v>
       </c>
       <c r="B78" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C78" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.068426987951807225</v>
+        <v>0.026642746781115882</v>
       </c>
       <c r="B79" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C79" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.069304257028112451</v>
+        <v>0.026984320457796852</v>
       </c>
       <c r="B80" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C80" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.070181526104417677</v>
+        <v>0.027325894134477825</v>
       </c>
       <c r="B81" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C81" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.071058795180722889</v>
+        <v>0.027667467811158798</v>
       </c>
       <c r="B82" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C82" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0.071936064257028115</v>
+        <v>0.028009041487839774</v>
       </c>
       <c r="B83" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C83" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>0.072813333333333341</v>
+        <v>0.028350615164520743</v>
       </c>
       <c r="B84" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C84" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0.073690602409638553</v>
+        <v>0.028692188841201716</v>
       </c>
       <c r="B85" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C85" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>0.074567871485943765</v>
+        <v>0.029033762517882689</v>
       </c>
       <c r="B86" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C86" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0.075445140562248991</v>
+        <v>0.029375336194563659</v>
       </c>
       <c r="B87" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C87" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.076322409638554203</v>
+        <v>0.029716909871244635</v>
       </c>
       <c r="B88" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C88" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.077199678714859429</v>
+        <v>0.030058483547925608</v>
       </c>
       <c r="B89" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C89" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0.078076947791164655</v>
+        <v>0.030400057224606581</v>
       </c>
       <c r="B90" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C90" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.078954216867469881</v>
+        <v>0.030741630901287551</v>
       </c>
       <c r="B91" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C91" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>0.079831485943775093</v>
+        <v>0.031083204577968527</v>
       </c>
       <c r="B92" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C92" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0.08070875502008032</v>
+        <v>0.031424778254649503</v>
       </c>
       <c r="B93" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C93" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.081586024096385546</v>
+        <v>0.031766351931330469</v>
       </c>
       <c r="B94" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C94" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0.082463293172690758</v>
+        <v>0.032107925608011442</v>
       </c>
       <c r="B95" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C95" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.083340562248995984</v>
+        <v>0.032449499284692422</v>
       </c>
       <c r="B96" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C96" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.08421783132530121</v>
+        <v>0.032791072961373395</v>
       </c>
       <c r="B97" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C97" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0.085095100401606422</v>
+        <v>0.033132646638054361</v>
       </c>
       <c r="B98" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C98" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0.085972369477911648</v>
+        <v>0.033474220314735334</v>
       </c>
       <c r="B99" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C99" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.086849638554216874</v>
+        <v>0.033815793991416307</v>
       </c>
       <c r="B100" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C100" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.0877269076305221</v>
+        <v>0.034157367668097287</v>
       </c>
       <c r="B101" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C101" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0.088604176706827298</v>
+        <v>0.034498941344778253</v>
       </c>
       <c r="B102" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C102" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>0.089481445783132524</v>
+        <v>0.034840515021459226</v>
       </c>
       <c r="B103" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C103" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0.09035871485943775</v>
+        <v>0.035182088698140199</v>
       </c>
       <c r="B104" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C104" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>0.091235983935742962</v>
+        <v>0.035523662374821179</v>
       </c>
       <c r="B105" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C105" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0.092113253012048188</v>
+        <v>0.035865236051502145</v>
       </c>
       <c r="B106" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C106" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0.092990522088353414</v>
+        <v>0.036206809728183117</v>
       </c>
       <c r="B107" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C107" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0.093867791164658626</v>
+        <v>0.03654838340486409</v>
       </c>
       <c r="B108" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C108" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>0.094745060240963852</v>
+        <v>0.036889957081545063</v>
       </c>
       <c r="B109" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C109" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>0.095622329317269078</v>
+        <v>0.037231530758226036</v>
       </c>
       <c r="B110" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C110" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0.09649959839357429</v>
+        <v>0.037573104434907009</v>
       </c>
       <c r="B111" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C111" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>0.097376867469879516</v>
+        <v>0.037914678111587982</v>
       </c>
       <c r="B112" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C112" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>0.098254136546184742</v>
+        <v>0.038256251788268955</v>
       </c>
       <c r="B113" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C113" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>0.099131405622489968</v>
+        <v>0.038597825464949928</v>
       </c>
       <c r="B114" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C114" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0.10000867469879518</v>
+        <v>0.038939399141630901</v>
       </c>
       <c r="B115" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C115" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>0.10088594377510041</v>
+        <v>0.039280972818311874</v>
       </c>
       <c r="B116" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C116" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>0.10176321285140562</v>
+        <v>0.039622546494992847</v>
       </c>
       <c r="B117" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C117" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>0.10264048192771083</v>
+        <v>0.03996412017167382</v>
       </c>
       <c r="B118" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C118" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>0.10351775100401606</v>
+        <v>0.040305693848354793</v>
       </c>
       <c r="B119" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C119" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>0.10439502008032128</v>
+        <v>0.040647267525035766</v>
       </c>
       <c r="B120" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C120" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>0.10527228915662649</v>
+        <v>0.040988841201716739</v>
       </c>
       <c r="B121" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C121" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>0.10614955823293172</v>
+        <v>0.041330414878397712</v>
       </c>
       <c r="B122" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C122" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0.10702682730923695</v>
+        <v>0.041671988555078684</v>
       </c>
       <c r="B123" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C123" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0.10790409638554217</v>
+        <v>0.042013562231759657</v>
       </c>
       <c r="B124" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C124" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0.10878136546184738</v>
+        <v>0.04235513590844063</v>
       </c>
       <c r="B125" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C125" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>0.10965863453815261</v>
+        <v>0.042696709585121603</v>
       </c>
       <c r="B126" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C126" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0.11053590361445784</v>
+        <v>0.043038283261802576</v>
       </c>
       <c r="B127" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C127" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0.11141317269076305</v>
+        <v>0.043379856938483549</v>
       </c>
       <c r="B128" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C128" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0.11229044176706827</v>
+        <v>0.043721430615164522</v>
       </c>
       <c r="B129" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C129" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>0.1131677108433735</v>
+        <v>0.044063004291845495</v>
       </c>
       <c r="B130" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C130" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0.11404497991967871</v>
+        <v>0.044404577968526461</v>
       </c>
       <c r="B131" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C131" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>0.11492224899598394</v>
+        <v>0.044746151645207441</v>
       </c>
       <c r="B132" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C132" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>0.11579951807228915</v>
+        <v>0.045087725321888414</v>
       </c>
       <c r="B133" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C133" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>0.11667678714859436</v>
+        <v>0.045429298998569387</v>
       </c>
       <c r="B134" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C134" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>0.11755405622489959</v>
+        <v>0.045770872675250353</v>
       </c>
       <c r="B135" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C135" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>0.11843132530120482</v>
+        <v>0.046112446351931326</v>
       </c>
       <c r="B136" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C136" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>0.11930859437751004</v>
+        <v>0.046454020028612299</v>
       </c>
       <c r="B137" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C137" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>0.12018586345381525</v>
+        <v>0.046795593705293279</v>
       </c>
       <c r="B138" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C138" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>0.12106313253012048</v>
+        <v>0.047137167381974252</v>
       </c>
       <c r="B139" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C139" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>0.12194040160642571</v>
+        <v>0.047478741058655225</v>
       </c>
       <c r="B140" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C140" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>0.12281767068273092</v>
+        <v>0.047820314735336197</v>
       </c>
       <c r="B141" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C141" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>0.12369493975903614</v>
+        <v>0.04816188841201717</v>
       </c>
       <c r="B142" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C142" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>0.12457220883534137</v>
+        <v>0.048503462088698136</v>
       </c>
       <c r="B143" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C143" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>0.12544947791164657</v>
+        <v>0.048845035765379109</v>
       </c>
       <c r="B144" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C144" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>0.12632674698795179</v>
+        <v>0.049186609442060082</v>
       </c>
       <c r="B145" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C145" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>0.12720401606425702</v>
+        <v>0.049528183118741055</v>
       </c>
       <c r="B146" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C146" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>0.12808128514056225</v>
+        <v>0.049869756795422035</v>
       </c>
       <c r="B147" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C147" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>0.12895855421686747</v>
+        <v>0.050211330472103008</v>
       </c>
       <c r="B148" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C148" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>0.12983582329317267</v>
+        <v>0.050552904148783981</v>
       </c>
       <c r="B149" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C149" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>0.1307130923694779</v>
+        <v>0.050894477825464954</v>
       </c>
       <c r="B150" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C150" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>0.13159036144578312</v>
+        <v>0.05123605150214592</v>
       </c>
       <c r="B151" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C151" s="0">
-        <v>7.3480451087897176</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>0.13246763052208835</v>
+        <v>0.051577625178826893</v>
       </c>
       <c r="B152" s="0">
-        <v>0.043179177500336327</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C152" s="0">
-        <v>7.3477651779388937</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>0.13334489959839357</v>
+        <v>0.051919198855507866</v>
       </c>
       <c r="B153" s="0">
-        <v>0.043138827483513054</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C153" s="0">
-        <v>7.3340389359190654</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>0.1342221686746988</v>
+        <v>0.052260772532188839</v>
       </c>
       <c r="B154" s="0">
-        <v>0.043037209692649056</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C154" s="0">
-        <v>7.2995275177448633</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>0.13509943775100403</v>
+        <v>0.052602346208869812</v>
       </c>
       <c r="B155" s="0">
-        <v>0.042872817081216472</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C155" s="0">
-        <v>7.2438688654090022</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>0.13597670682730922</v>
+        <v>0.052943919885550791</v>
       </c>
       <c r="B156" s="0">
-        <v>0.04264310458260305</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C156" s="0">
-        <v>7.1664515434123128</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>0.13685397590361445</v>
+        <v>0.053285493562231764</v>
       </c>
       <c r="B157" s="0">
-        <v>0.042344278692853808</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C157" s="0">
-        <v>7.0663641874026189</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>0.13773124497991968</v>
+        <v>0.053627067238912737</v>
       </c>
       <c r="B158" s="0">
-        <v>0.041970948727219508</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C158" s="0">
-        <v>6.9423117208563223</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>0.1386085140562249</v>
+        <v>0.053968640915593703</v>
       </c>
       <c r="B159" s="0">
-        <v>0.041515555914270363</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C159" s="0">
-        <v>6.7924781986975518</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>0.13948578313253013</v>
+        <v>0.054310214592274676</v>
       </c>
       <c r="B160" s="0">
-        <v>0.040967415504208113</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C160" s="0">
-        <v>6.614296680126035</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>0.14036305220883535</v>
+        <v>0.054651788268955649</v>
       </c>
       <c r="B161" s="0">
-        <v>0.040311025964482994</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C161" s="0">
-        <v>6.4040430239947961</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>0.14124032128514055</v>
+        <v>0.054993361945636622</v>
       </c>
       <c r="B162" s="0">
-        <v>0.039522845625481542</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C162" s="0">
-        <v>6.1560614991563316</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>0.14211759036144578</v>
+        <v>0.055334935622317595</v>
       </c>
       <c r="B163" s="0">
-        <v>0.038646015850478291</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C163" s="0">
-        <v>5.8859422006254709</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>0.14299485943775101</v>
+        <v>0.055676509298998568</v>
       </c>
       <c r="B164" s="0">
-        <v>0.037768746774173065</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C164" s="0">
-        <v>5.6217520473418068</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>0.14387212851405623</v>
+        <v>0.056018082975679548</v>
       </c>
       <c r="B165" s="0">
-        <v>0.036891477697867839</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C165" s="0">
-        <v>5.3636278908310029</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>0.14474939759036146</v>
+        <v>0.056359656652360521</v>
       </c>
       <c r="B166" s="0">
-        <v>0.036014208621562613</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C166" s="0">
-        <v>5.1115697310930637</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>0.14562666666666668</v>
+        <v>0.056701230329041487</v>
       </c>
       <c r="B167" s="0">
-        <v>0.035136939545257387</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C167" s="0">
-        <v>4.8655775681279847</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>0.14650393574297191</v>
+        <v>0.05704280400572246</v>
       </c>
       <c r="B168" s="0">
-        <v>0.034259670468952168</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C168" s="0">
-        <v>4.6256514019357731</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>0.14738120481927711</v>
+        <v>0.057384377682403433</v>
       </c>
       <c r="B169" s="0">
-        <v>0.03338240139264697</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C169" s="0">
-        <v>4.391791232516427</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>0.14825847389558233</v>
+        <v>0.057725951359084406</v>
       </c>
       <c r="B170" s="0">
-        <v>0.032505132316341744</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C170" s="0">
-        <v>4.1639970598699376</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>0.14913574297188753</v>
+        <v>0.058067525035765379</v>
       </c>
       <c r="B171" s="0">
-        <v>0.031627863240036545</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C171" s="0">
-        <v>3.9422688839963169</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>0.15001301204819276</v>
+        <v>0.058409098712446351</v>
       </c>
       <c r="B172" s="0">
-        <v>0.030750594163731319</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C172" s="0">
-        <v>3.7266067048955516</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>0.15089028112449798</v>
+        <v>0.058750672389127318</v>
       </c>
       <c r="B173" s="0">
-        <v>0.029873325087426093</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C173" s="0">
-        <v>3.5170105225676491</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>0.15176755020080321</v>
+        <v>0.059092246065808304</v>
       </c>
       <c r="B174" s="0">
-        <v>0.028996056011120867</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C174" s="0">
-        <v>3.3134803370126091</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>0.15264481927710841</v>
+        <v>0.05943381974248927</v>
       </c>
       <c r="B175" s="0">
-        <v>0.028118786934815669</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C175" s="0">
-        <v>3.1160161482304378</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>0.15352208835341363</v>
+        <v>0.059775393419170243</v>
       </c>
       <c r="B176" s="0">
-        <v>0.027241517858510443</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C176" s="0">
-        <v>2.9246179562211232</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>0.15439935742971886</v>
+        <v>0.060116967095851216</v>
       </c>
       <c r="B177" s="0">
-        <v>0.026364248782205217</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C177" s="0">
-        <v>2.7392857609846706</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>0.15527662650602409</v>
+        <v>0.060458540772532189</v>
       </c>
       <c r="B178" s="0">
-        <v>0.025486979705899991</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C178" s="0">
-        <v>2.5600195625210809</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>0.15615389558232931</v>
+        <v>0.060800114449213162</v>
       </c>
       <c r="B179" s="0">
-        <v>0.024609710629594765</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C179" s="0">
-        <v>2.3868193608303532</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>0.15703116465863454</v>
+        <v>0.061141688125894135</v>
       </c>
       <c r="B180" s="0">
-        <v>0.023732441553289539</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C180" s="0">
-        <v>2.2196851559124884</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>0.15790843373493976</v>
+        <v>0.061483261802575101</v>
       </c>
       <c r="B181" s="0">
-        <v>0.022855172476984313</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C181" s="0">
-        <v>2.0586169477674861</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>0.15878570281124496</v>
+        <v>0.061824835479256088</v>
       </c>
       <c r="B182" s="0">
-        <v>0.021977903400679115</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C182" s="0">
-        <v>1.9036147363953513</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>0.15966297188755019</v>
+        <v>0.062166409155937054</v>
       </c>
       <c r="B183" s="0">
-        <v>0.021100634324373889</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C183" s="0">
-        <v>1.7546785217960745</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>0.16054024096385541</v>
+        <v>0.062507982832618034</v>
       </c>
       <c r="B184" s="0">
-        <v>0.020223365248068663</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C184" s="0">
-        <v>1.6118083039696598</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>0.16141751004016064</v>
+        <v>0.062849556509299007</v>
       </c>
       <c r="B185" s="0">
-        <v>0.019346096171763437</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C185" s="0">
-        <v>1.4750040829161075</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>0.16229477911646586</v>
+        <v>0.063191130185979966</v>
       </c>
       <c r="B186" s="0">
-        <v>0.018493455175667396</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C186" s="0">
-        <v>1.3478533914019819</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>0.16317204819277109</v>
+        <v>0.063532703862660939</v>
       </c>
       <c r="B187" s="0">
-        <v>0.017796062217276289</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C187" s="0">
-        <v>1.2481143273854132</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>0.16404931726907632</v>
+        <v>0.063874277539341912</v>
       </c>
       <c r="B188" s="0">
-        <v>0.017239523776832362</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C188" s="0">
-        <v>1.1712701280009714</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>0.16492658634538152</v>
+        <v>0.064215851216022885</v>
       </c>
       <c r="B189" s="0">
-        <v>0.016798483301277912</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C189" s="0">
-        <v>1.1121072748644763</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>0.16580385542168674</v>
+        <v>0.064557424892703858</v>
       </c>
       <c r="B190" s="0">
-        <v>0.016457056684091087</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C190" s="0">
-        <v>1.0673598634509929</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>0.16668112449799197</v>
+        <v>0.064898998569384844</v>
       </c>
       <c r="B191" s="0">
-        <v>0.016204912278723324</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C191" s="0">
-        <v>1.0349036212264258</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>0.16755839357429719</v>
+        <v>0.065240572246065817</v>
       </c>
       <c r="B192" s="0">
-        <v>0.01603532814974297</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C192" s="0">
-        <v>1.0133564623106308</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>0.16843566265060242</v>
+        <v>0.06558214592274679</v>
       </c>
       <c r="B193" s="0">
-        <v>0.015944161838408015</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C193" s="0">
-        <v>1.0018666627031871</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>0.16931293172690765</v>
+        <v>0.065923719599427749</v>
       </c>
       <c r="B194" s="0">
-        <v>0.015929301453550742</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C194" s="0">
-        <v>1</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>0.17019020080321284</v>
+        <v>0.066265293276108722</v>
       </c>
       <c r="B195" s="0">
-        <v>0.015990410023237825</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C195" s="0">
-        <v>1.0076871899665227</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>0.17106746987951807</v>
+        <v>0.066606866952789695</v>
       </c>
       <c r="B196" s="0">
-        <v>0.01612888618208877</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C196" s="0">
-        <v>1.0252158035231778</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>0.1719447389558233</v>
+        <v>0.066948440629470668</v>
       </c>
       <c r="B197" s="0">
-        <v>0.016332975425408</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C197" s="0">
-        <v>1.0513253949065233</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>0.17282200803212852</v>
+        <v>0.067290014306151641</v>
       </c>
       <c r="B198" s="0">
-        <v>0.016543589096626718</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C198" s="0">
-        <v>1.0786138861908896</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>0.17369927710843375</v>
+        <v>0.067631587982832614</v>
       </c>
       <c r="B199" s="0">
-        <v>0.016754202767845436</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C199" s="0">
-        <v>1.1062520082481162</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>0.17457654618473897</v>
+        <v>0.067973161659513601</v>
       </c>
       <c r="B200" s="0">
-        <v>0.016964816439064154</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C200" s="0">
-        <v>1.1342397610782034</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>0.1754538152610442</v>
+        <v>0.068314735336194574</v>
       </c>
       <c r="B201" s="0">
-        <v>0.017175430110282872</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C201" s="0">
-        <v>1.1625771446811515</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>0.17633108433734937</v>
+        <v>0.068656309012875533</v>
       </c>
       <c r="B202" s="0">
-        <v>0.017386043781501576</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C202" s="0">
-        <v>1.1912641590569579</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>0.1772083534136546</v>
+        <v>0.068997882689556506</v>
       </c>
       <c r="B203" s="0">
-        <v>0.017596657452720294</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C203" s="0">
-        <v>1.2203008042056269</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>0.17808562248995982</v>
+        <v>0.069339456366237479</v>
       </c>
       <c r="B204" s="0">
-        <v>0.017807271123939011</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C204" s="0">
-        <v>1.2496870801271571</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>0.17896289156626505</v>
+        <v>0.069681030042918451</v>
       </c>
       <c r="B205" s="0">
-        <v>0.018017884795157729</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C205" s="0">
-        <v>1.2794229868215472</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>0.17984016064257027</v>
+        <v>0.070022603719599424</v>
       </c>
       <c r="B206" s="0">
-        <v>0.018228498466376447</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C206" s="0">
-        <v>1.3095085242887981</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>0.1807174297188755</v>
+        <v>0.070364177396280397</v>
       </c>
       <c r="B207" s="0">
-        <v>0.018439112137595165</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C207" s="0">
-        <v>1.3399436925289099</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>0.1815946987951807</v>
+        <v>0.07070575107296137</v>
       </c>
       <c r="B208" s="0">
-        <v>0.018649725808813876</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C208" s="0">
-        <v>1.3707284915418809</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>0.18247196787148592</v>
+        <v>0.071047324749642357</v>
       </c>
       <c r="B209" s="0">
-        <v>0.018860339480032594</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C209" s="0">
-        <v>1.4018629213277134</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>0.18334923694779115</v>
+        <v>0.071388898426323316</v>
       </c>
       <c r="B210" s="0">
-        <v>0.019070953151251312</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C210" s="0">
-        <v>1.4333469818864071</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>0.18422650602409638</v>
+        <v>0.071730472103004289</v>
       </c>
       <c r="B211" s="0">
-        <v>0.019281566822470037</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C211" s="0">
-        <v>1.465180673217962</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>0.1851037751004016</v>
+        <v>0.072072045779685262</v>
       </c>
       <c r="B212" s="0">
-        <v>0.019492180493688754</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C212" s="0">
-        <v>1.4973639953223763</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>0.18598104417670683</v>
+        <v>0.072413619456366235</v>
       </c>
       <c r="B213" s="0">
-        <v>0.019702794164907472</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C213" s="0">
-        <v>1.5298969481996521</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>0.18685831325301205</v>
+        <v>0.072755193133047208</v>
       </c>
       <c r="B214" s="0">
-        <v>0.01991340783612619</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C214" s="0">
-        <v>1.5627795318497877</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>0.18773558232931725</v>
+        <v>0.073096766809728181</v>
       </c>
       <c r="B215" s="0">
-        <v>0.020124021507344901</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C215" s="0">
-        <v>1.5960117462727827</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>0.18861285140562248</v>
+        <v>0.073438340486409154</v>
       </c>
       <c r="B216" s="0">
-        <v>0.020334635178563619</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C216" s="0">
-        <v>1.6295935914686401</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>0.18949012048192771</v>
+        <v>0.073779914163090127</v>
       </c>
       <c r="B217" s="0">
-        <v>0.020545248849782337</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C217" s="0">
-        <v>1.6635250674373576</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>0.19036738955823293</v>
+        <v>0.0741214878397711</v>
       </c>
       <c r="B218" s="0">
-        <v>0.020755862521001055</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C218" s="0">
-        <v>1.6978061741789357</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>0.19124465863453816</v>
+        <v>0.074463061516452073</v>
       </c>
       <c r="B219" s="0">
-        <v>0.020966476192219773</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C219" s="0">
-        <v>1.7324369116933749</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>0.19212192771084338</v>
+        <v>0.074804635193133046</v>
       </c>
       <c r="B220" s="0">
-        <v>0.02117708986343849</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C220" s="0">
-        <v>1.767417279980674</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>0.19299919678714858</v>
+        <v>0.075146208869814018</v>
       </c>
       <c r="B221" s="0">
-        <v>0.021387703534657201</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C221" s="0">
-        <v>1.8027472790408328</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>0.19387646586345381</v>
+        <v>0.075487782546494991</v>
       </c>
       <c r="B222" s="0">
-        <v>0.021598317205875919</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C222" s="0">
-        <v>1.8384269088738538</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>0.19475373493975903</v>
+        <v>0.075829356223175964</v>
       </c>
       <c r="B223" s="0">
-        <v>0.021808930877094637</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C223" s="0">
-        <v>1.8744561694797348</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>0.19563100401606426</v>
+        <v>0.076170929899856937</v>
       </c>
       <c r="B224" s="0">
-        <v>0.022019544548313355</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C224" s="0">
-        <v>1.9108350608584765</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>0.19650827309236948</v>
+        <v>0.07651250357653791</v>
       </c>
       <c r="B225" s="0">
-        <v>0.022230158219532073</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C225" s="0">
-        <v>1.9475635830100795</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>0.19738554216867471</v>
+        <v>0.076854077253218883</v>
       </c>
       <c r="B226" s="0">
-        <v>0.022440771890750791</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C226" s="0">
-        <v>1.9846417359345423</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>0.19826281124497994</v>
+        <v>0.077195650929899856</v>
       </c>
       <c r="B227" s="0">
-        <v>0.022651385561969516</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C227" s="0">
-        <v>2.022069519631867</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>0.19914008032128513</v>
+        <v>0.077537224606580829</v>
       </c>
       <c r="B228" s="0">
-        <v>0.022861999233188227</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C228" s="0">
-        <v>2.0598469341020507</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>0.20001734939759036</v>
+        <v>0.077878798283261802</v>
       </c>
       <c r="B229" s="0">
-        <v>0.023072612904406944</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C229" s="0">
-        <v>2.0979739793450953</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>0.20089461847389559</v>
+        <v>0.078220371959942775</v>
       </c>
       <c r="B230" s="0">
-        <v>0.023283226575625662</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C230" s="0">
-        <v>2.1364506553610005</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>0.20177188755020081</v>
+        <v>0.078561945636623748</v>
       </c>
       <c r="B231" s="0">
-        <v>0.02349384024684438</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C231" s="0">
-        <v>2.1752769621497672</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>0.20264915662650604</v>
+        <v>0.078903519313304721</v>
       </c>
       <c r="B232" s="0">
-        <v>0.023704453918063098</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C232" s="0">
-        <v>2.2144528997113935</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>0.20352642570281124</v>
+        <v>0.079245092989985694</v>
       </c>
       <c r="B233" s="0">
-        <v>0.023915067589281809</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C233" s="0">
-        <v>2.2539784680458794</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>0.20440369477911646</v>
+        <v>0.079586666666666667</v>
       </c>
       <c r="B234" s="0">
-        <v>0.024125681260500527</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C234" s="0">
-        <v>2.2938536671532277</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>0.20528096385542166</v>
+        <v>0.07992824034334764</v>
       </c>
       <c r="B235" s="0">
-        <v>0.024336294931719238</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C235" s="0">
-        <v>2.3340784970334347</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>0.20615823293172689</v>
+        <v>0.080269814020028613</v>
       </c>
       <c r="B236" s="0">
-        <v>0.024546908602937956</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C236" s="0">
-        <v>2.3746529576865045</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>0.20703550200803211</v>
+        <v>0.080611387696709585</v>
       </c>
       <c r="B237" s="0">
-        <v>0.024757522274156674</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C237" s="0">
-        <v>2.415577049112434</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>0.20791277108433734</v>
+        <v>0.080952961373390558</v>
       </c>
       <c r="B238" s="0">
-        <v>0.024968135945375392</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C238" s="0">
-        <v>2.456850771311224</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>0.20879004016064256</v>
+        <v>0.081294535050071531</v>
       </c>
       <c r="B239" s="0">
-        <v>0.025178749616594109</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C239" s="0">
-        <v>2.4984741242828754</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>0.20966730923694779</v>
+        <v>0.081636108726752504</v>
       </c>
       <c r="B240" s="0">
-        <v>0.025389363287812827</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C240" s="0">
-        <v>2.5404471080273869</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>0.21054457831325299</v>
+        <v>0.081977682403433477</v>
       </c>
       <c r="B241" s="0">
-        <v>0.025599976959031538</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C241" s="0">
-        <v>2.5827697225447572</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>0.21142184738955822</v>
+        <v>0.08231925608011445</v>
       </c>
       <c r="B242" s="0">
-        <v>0.025810590630250263</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C242" s="0">
-        <v>2.6254419678349912</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>0.21229911646586344</v>
+        <v>0.082660829756795423</v>
       </c>
       <c r="B243" s="0">
-        <v>0.026021204301468981</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C243" s="0">
-        <v>2.6684638438980852</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>0.21317638554216867</v>
+        <v>0.083002403433476396</v>
       </c>
       <c r="B244" s="0">
-        <v>0.026231817972687699</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C244" s="0">
-        <v>2.7118353507340389</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>0.21405365461847389</v>
+        <v>0.083343977110157369</v>
       </c>
       <c r="B245" s="0">
-        <v>0.026442431643906417</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C245" s="0">
-        <v>2.7555564883428536</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>0.21493092369477912</v>
+        <v>0.083685550786838342</v>
       </c>
       <c r="B246" s="0">
-        <v>0.026653045315125135</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C246" s="0">
-        <v>2.7996272567245293</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>0.21580819277108435</v>
+        <v>0.084027124463519315</v>
       </c>
       <c r="B247" s="0">
-        <v>0.026863658986343853</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C247" s="0">
-        <v>2.8440476558790646</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>0.21668546184738954</v>
+        <v>0.084368698140200288</v>
       </c>
       <c r="B248" s="0">
-        <v>0.027074272657562563</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C248" s="0">
-        <v>2.88881768580646</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>0.21756273092369477</v>
+        <v>0.084710271816881261</v>
       </c>
       <c r="B249" s="0">
-        <v>0.027284886328781281</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C249" s="0">
-        <v>2.9339373465067169</v>
+        <v>6.5940184258028882</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>0.21844</v>
+        <v>0.085051845493562234</v>
       </c>
       <c r="B250" s="0">
-        <v>0.027495499999999999</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C250" s="0">
-        <v>2.9794066379798343</v>
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0">
+        <v>0.085393419170243207</v>
+      </c>
+      <c r="B251" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C251" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0">
+        <v>0.08573499284692418</v>
+      </c>
+      <c r="B252" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C252" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0">
+        <v>0.086076566523605153</v>
+      </c>
+      <c r="B253" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C253" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0">
+        <v>0.086418140200286126</v>
+      </c>
+      <c r="B254" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C254" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0">
+        <v>0.086759713876967098</v>
+      </c>
+      <c r="B255" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C255" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0">
+        <v>0.087101287553648071</v>
+      </c>
+      <c r="B256" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C256" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0">
+        <v>0.087442861230329044</v>
+      </c>
+      <c r="B257" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C257" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0">
+        <v>0.087784434907010017</v>
+      </c>
+      <c r="B258" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C258" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0">
+        <v>0.08812600858369099</v>
+      </c>
+      <c r="B259" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C259" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0">
+        <v>0.088467582260371963</v>
+      </c>
+      <c r="B260" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C260" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0">
+        <v>0.088809155937052922</v>
+      </c>
+      <c r="B261" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C261" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0">
+        <v>0.089150729613733909</v>
+      </c>
+      <c r="B262" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C262" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0">
+        <v>0.089492303290414882</v>
+      </c>
+      <c r="B263" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C263" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0">
+        <v>0.089833876967095855</v>
+      </c>
+      <c r="B264" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C264" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0">
+        <v>0.090175450643776828</v>
+      </c>
+      <c r="B265" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C265" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0">
+        <v>0.090517024320457801</v>
+      </c>
+      <c r="B266" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C266" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0">
+        <v>0.090858597997138774</v>
+      </c>
+      <c r="B267" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C267" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0">
+        <v>0.091200171673819747</v>
+      </c>
+      <c r="B268" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C268" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0">
+        <v>0.091541745350500706</v>
+      </c>
+      <c r="B269" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C269" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0">
+        <v>0.091883319027181679</v>
+      </c>
+      <c r="B270" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C270" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0">
+        <v>0.092224892703862652</v>
+      </c>
+      <c r="B271" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C271" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0">
+        <v>0.092566466380543625</v>
+      </c>
+      <c r="B272" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C272" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0">
+        <v>0.092908040057224597</v>
+      </c>
+      <c r="B273" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C273" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0">
+        <v>0.09324961373390557</v>
+      </c>
+      <c r="B274" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C274" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0">
+        <v>0.093591187410586557</v>
+      </c>
+      <c r="B275" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C275" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0">
+        <v>0.09393276108726753</v>
+      </c>
+      <c r="B276" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C276" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0">
+        <v>0.094274334763948503</v>
+      </c>
+      <c r="B277" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C277" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0">
+        <v>0.094615908440629476</v>
+      </c>
+      <c r="B278" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C278" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0">
+        <v>0.094957482117310449</v>
+      </c>
+      <c r="B279" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C279" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0">
+        <v>0.095299055793991422</v>
+      </c>
+      <c r="B280" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C280" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0">
+        <v>0.095640629470672395</v>
+      </c>
+      <c r="B281" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C281" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0">
+        <v>0.095982203147353368</v>
+      </c>
+      <c r="B282" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C282" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0">
+        <v>0.096323776824034341</v>
+      </c>
+      <c r="B283" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C283" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0">
+        <v>0.096665350500715314</v>
+      </c>
+      <c r="B284" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C284" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0">
+        <v>0.097006924177396273</v>
+      </c>
+      <c r="B285" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C285" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0">
+        <v>0.097348497854077246</v>
+      </c>
+      <c r="B286" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C286" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0">
+        <v>0.097690071530758219</v>
+      </c>
+      <c r="B287" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C287" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0">
+        <v>0.098031645207439192</v>
+      </c>
+      <c r="B288" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C288" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0">
+        <v>0.098373218884120164</v>
+      </c>
+      <c r="B289" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C289" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0">
+        <v>0.098714792560801137</v>
+      </c>
+      <c r="B290" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C290" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0">
+        <v>0.09905636623748211</v>
+      </c>
+      <c r="B291" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C291" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0">
+        <v>0.099397939914163083</v>
+      </c>
+      <c r="B292" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C292" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0">
+        <v>0.09973951359084407</v>
+      </c>
+      <c r="B293" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C293" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0">
+        <v>0.10008108726752504</v>
+      </c>
+      <c r="B294" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C294" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0">
+        <v>0.10042266094420602</v>
+      </c>
+      <c r="B295" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C295" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0">
+        <v>0.10076423462088699</v>
+      </c>
+      <c r="B296" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C296" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0">
+        <v>0.10110580829756796</v>
+      </c>
+      <c r="B297" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C297" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0">
+        <v>0.10144738197424893</v>
+      </c>
+      <c r="B298" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C298" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0">
+        <v>0.10178895565092991</v>
+      </c>
+      <c r="B299" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C299" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0">
+        <v>0.10213052932761088</v>
+      </c>
+      <c r="B300" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C300" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0">
+        <v>0.10247210300429184</v>
+      </c>
+      <c r="B301" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C301" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="0">
+        <v>0.10281367668097281</v>
+      </c>
+      <c r="B302" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C302" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="0">
+        <v>0.10315525035765379</v>
+      </c>
+      <c r="B303" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C303" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="0">
+        <v>0.10349682403433476</v>
+      </c>
+      <c r="B304" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C304" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="0">
+        <v>0.10383839771101573</v>
+      </c>
+      <c r="B305" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C305" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0">
+        <v>0.1041799713876967</v>
+      </c>
+      <c r="B306" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C306" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="0">
+        <v>0.10452154506437768</v>
+      </c>
+      <c r="B307" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C307" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="0">
+        <v>0.10486311874105865</v>
+      </c>
+      <c r="B308" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C308" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="0">
+        <v>0.10520469241773962</v>
+      </c>
+      <c r="B309" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C309" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0">
+        <v>0.10554626609442061</v>
+      </c>
+      <c r="B310" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C310" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="0">
+        <v>0.10588783977110158</v>
+      </c>
+      <c r="B311" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C311" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="0">
+        <v>0.10622941344778256</v>
+      </c>
+      <c r="B312" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C312" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="0">
+        <v>0.10657098712446353</v>
+      </c>
+      <c r="B313" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C313" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="0">
+        <v>0.1069125608011445</v>
+      </c>
+      <c r="B314" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C314" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="0">
+        <v>0.10725413447782547</v>
+      </c>
+      <c r="B315" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C315" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="0">
+        <v>0.10759570815450645</v>
+      </c>
+      <c r="B316" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C316" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="0">
+        <v>0.10793728183118741</v>
+      </c>
+      <c r="B317" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C317" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="0">
+        <v>0.10827885550786838</v>
+      </c>
+      <c r="B318" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C318" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="0">
+        <v>0.10862042918454935</v>
+      </c>
+      <c r="B319" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C319" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="0">
+        <v>0.10896200286123033</v>
+      </c>
+      <c r="B320" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C320" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="0">
+        <v>0.1093035765379113</v>
+      </c>
+      <c r="B321" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C321" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="0">
+        <v>0.10964515021459227</v>
+      </c>
+      <c r="B322" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C322" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="0">
+        <v>0.10998672389127324</v>
+      </c>
+      <c r="B323" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C323" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="0">
+        <v>0.11032829756795422</v>
+      </c>
+      <c r="B324" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C324" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="0">
+        <v>0.11066987124463519</v>
+      </c>
+      <c r="B325" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C325" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="0">
+        <v>0.11101144492131616</v>
+      </c>
+      <c r="B326" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C326" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="0">
+        <v>0.11135301859799714</v>
+      </c>
+      <c r="B327" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C327" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="0">
+        <v>0.11169459227467812</v>
+      </c>
+      <c r="B328" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C328" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="0">
+        <v>0.1120361659513591</v>
+      </c>
+      <c r="B329" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C329" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="0">
+        <v>0.11237773962804007</v>
+      </c>
+      <c r="B330" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C330" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="0">
+        <v>0.11271931330472104</v>
+      </c>
+      <c r="B331" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C331" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="0">
+        <v>0.11306088698140201</v>
+      </c>
+      <c r="B332" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C332" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="0">
+        <v>0.11340246065808297</v>
+      </c>
+      <c r="B333" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C333" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="0">
+        <v>0.11374403433476395</v>
+      </c>
+      <c r="B334" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C334" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="0">
+        <v>0.11408560801144492</v>
+      </c>
+      <c r="B335" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C335" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="0">
+        <v>0.11442718168812589</v>
+      </c>
+      <c r="B336" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C336" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="0">
+        <v>0.11476875536480687</v>
+      </c>
+      <c r="B337" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C337" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="0">
+        <v>0.11511032904148784</v>
+      </c>
+      <c r="B338" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C338" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="0">
+        <v>0.11545190271816881</v>
+      </c>
+      <c r="B339" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C339" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="0">
+        <v>0.11579347639484978</v>
+      </c>
+      <c r="B340" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C340" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="0">
+        <v>0.11613505007153076</v>
+      </c>
+      <c r="B341" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C341" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="0">
+        <v>0.11647662374821173</v>
+      </c>
+      <c r="B342" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C342" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="0">
+        <v>0.1168181974248927</v>
+      </c>
+      <c r="B343" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C343" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="0">
+        <v>0.11715977110157366</v>
+      </c>
+      <c r="B344" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C344" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="0">
+        <v>0.11750134477825464</v>
+      </c>
+      <c r="B345" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C345" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="0">
+        <v>0.11784291845493564</v>
+      </c>
+      <c r="B346" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C346" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="0">
+        <v>0.11818449213161661</v>
+      </c>
+      <c r="B347" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C347" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="0">
+        <v>0.11852606580829758</v>
+      </c>
+      <c r="B348" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C348" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="0">
+        <v>0.11886763948497854</v>
+      </c>
+      <c r="B349" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C349" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="0">
+        <v>0.11920921316165951</v>
+      </c>
+      <c r="B350" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C350" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="0">
+        <v>0.11955078683834049</v>
+      </c>
+      <c r="B351" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C351" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="0">
+        <v>0.11989236051502146</v>
+      </c>
+      <c r="B352" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C352" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="0">
+        <v>0.12023393419170243</v>
+      </c>
+      <c r="B353" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C353" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="0">
+        <v>0.12057550786838341</v>
+      </c>
+      <c r="B354" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C354" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="0">
+        <v>0.12091708154506438</v>
+      </c>
+      <c r="B355" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C355" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="0">
+        <v>0.12125865522174535</v>
+      </c>
+      <c r="B356" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C356" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="0">
+        <v>0.12160022889842632</v>
+      </c>
+      <c r="B357" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C357" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="0">
+        <v>0.1219418025751073</v>
+      </c>
+      <c r="B358" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C358" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="0">
+        <v>0.12228337625178827</v>
+      </c>
+      <c r="B359" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C359" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="0">
+        <v>0.12262494992846923</v>
+      </c>
+      <c r="B360" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C360" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="0">
+        <v>0.1229665236051502</v>
+      </c>
+      <c r="B361" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C361" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="0">
+        <v>0.12330809728183117</v>
+      </c>
+      <c r="B362" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C362" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="0">
+        <v>0.12364967095851218</v>
+      </c>
+      <c r="B363" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C363" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="0">
+        <v>0.12399124463519315</v>
+      </c>
+      <c r="B364" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C364" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="0">
+        <v>0.12433281831187411</v>
+      </c>
+      <c r="B365" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C365" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="0">
+        <v>0.12467439198855508</v>
+      </c>
+      <c r="B366" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C366" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="0">
+        <v>0.12501596566523607</v>
+      </c>
+      <c r="B367" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C367" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="0">
+        <v>0.12535753934191704</v>
+      </c>
+      <c r="B368" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C368" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="0">
+        <v>0.12569911301859801</v>
+      </c>
+      <c r="B369" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C369" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="0">
+        <v>0.12604068669527896</v>
+      </c>
+      <c r="B370" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C370" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="0">
+        <v>0.12638226037195993</v>
+      </c>
+      <c r="B371" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C371" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="0">
+        <v>0.12672383404864091</v>
+      </c>
+      <c r="B372" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C372" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="0">
+        <v>0.12706540772532188</v>
+      </c>
+      <c r="B373" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C373" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="0">
+        <v>0.12740698140200285</v>
+      </c>
+      <c r="B374" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C374" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="0">
+        <v>0.12774855507868382</v>
+      </c>
+      <c r="B375" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C375" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="0">
+        <v>0.1280901287553648</v>
+      </c>
+      <c r="B376" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C376" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="0">
+        <v>0.12843170243204577</v>
+      </c>
+      <c r="B377" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C377" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="0">
+        <v>0.12877327610872674</v>
+      </c>
+      <c r="B378" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C378" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="0">
+        <v>0.12911484978540771</v>
+      </c>
+      <c r="B379" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C379" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="0">
+        <v>0.12945642346208869</v>
+      </c>
+      <c r="B380" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C380" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="0">
+        <v>0.12979799713876969</v>
+      </c>
+      <c r="B381" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C381" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="0">
+        <v>0.13013957081545066</v>
+      </c>
+      <c r="B382" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C382" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="0">
+        <v>0.13048114449213163</v>
+      </c>
+      <c r="B383" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C383" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="0">
+        <v>0.13082271816881261</v>
+      </c>
+      <c r="B384" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C384" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="0">
+        <v>0.13116429184549358</v>
+      </c>
+      <c r="B385" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C385" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0">
+        <v>0.13150586552217453</v>
+      </c>
+      <c r="B386" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C386" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0">
+        <v>0.1318474391988555</v>
+      </c>
+      <c r="B387" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C387" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0">
+        <v>0.13218901287553647</v>
+      </c>
+      <c r="B388" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C388" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0">
+        <v>0.13253058655221744</v>
+      </c>
+      <c r="B389" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C389" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0">
+        <v>0.13287216022889842</v>
+      </c>
+      <c r="B390" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C390" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0">
+        <v>0.13321373390557939</v>
+      </c>
+      <c r="B391" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C391" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0">
+        <v>0.13355530758226036</v>
+      </c>
+      <c r="B392" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C392" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0">
+        <v>0.13389688125894134</v>
+      </c>
+      <c r="B393" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C393" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0">
+        <v>0.13423845493562231</v>
+      </c>
+      <c r="B394" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C394" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0">
+        <v>0.13458002861230328</v>
+      </c>
+      <c r="B395" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C395" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0">
+        <v>0.13492160228898426</v>
+      </c>
+      <c r="B396" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C396" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0">
+        <v>0.13526317596566523</v>
+      </c>
+      <c r="B397" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C397" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0">
+        <v>0.1356047496423462</v>
+      </c>
+      <c r="B398" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C398" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0">
+        <v>0.1359463233190272</v>
+      </c>
+      <c r="B399" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C399" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0">
+        <v>0.13628789699570818</v>
+      </c>
+      <c r="B400" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C400" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0">
+        <v>0.13662947067238915</v>
+      </c>
+      <c r="B401" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C401" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0">
+        <v>0.13697104434907009</v>
+      </c>
+      <c r="B402" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C402" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0">
+        <v>0.13731261802575107</v>
+      </c>
+      <c r="B403" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C403" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0">
+        <v>0.13765419170243204</v>
+      </c>
+      <c r="B404" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C404" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0">
+        <v>0.13799576537911301</v>
+      </c>
+      <c r="B405" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C405" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0">
+        <v>0.13833733905579398</v>
+      </c>
+      <c r="B406" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C406" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0">
+        <v>0.13867891273247496</v>
+      </c>
+      <c r="B407" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C407" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0">
+        <v>0.13902048640915593</v>
+      </c>
+      <c r="B408" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C408" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0">
+        <v>0.1393620600858369</v>
+      </c>
+      <c r="B409" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C409" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0">
+        <v>0.13970363376251788</v>
+      </c>
+      <c r="B410" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C410" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0">
+        <v>0.14004520743919885</v>
+      </c>
+      <c r="B411" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C411" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0">
+        <v>0.14038678111587982</v>
+      </c>
+      <c r="B412" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C412" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0">
+        <v>0.1407283547925608</v>
+      </c>
+      <c r="B413" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C413" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0">
+        <v>0.14106992846924177</v>
+      </c>
+      <c r="B414" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C414" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0">
+        <v>0.14141150214592274</v>
+      </c>
+      <c r="B415" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C415" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0">
+        <v>0.14175307582260374</v>
+      </c>
+      <c r="B416" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C416" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="0">
+        <v>0.14209464949928472</v>
+      </c>
+      <c r="B417" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C417" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0">
+        <v>0.14243622317596566</v>
+      </c>
+      <c r="B418" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C418" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0">
+        <v>0.14277779685264663</v>
+      </c>
+      <c r="B419" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C419" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0">
+        <v>0.14311937052932761</v>
+      </c>
+      <c r="B420" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C420" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="0">
+        <v>0.14346094420600858</v>
+      </c>
+      <c r="B421" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C421" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0">
+        <v>0.14380251788268955</v>
+      </c>
+      <c r="B422" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C422" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0">
+        <v>0.14414409155937053</v>
+      </c>
+      <c r="B423" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C423" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0">
+        <v>0.1444856652360515</v>
+      </c>
+      <c r="B424" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C424" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="0">
+        <v>0.14482723891273247</v>
+      </c>
+      <c r="B425" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C425" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0">
+        <v>0.14516881258941344</v>
+      </c>
+      <c r="B426" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C426" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="0">
+        <v>0.14551038626609442</v>
+      </c>
+      <c r="B427" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C427" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0">
+        <v>0.14585195994277539</v>
+      </c>
+      <c r="B428" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C428" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="0">
+        <v>0.14619353361945636</v>
+      </c>
+      <c r="B429" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C429" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0">
+        <v>0.14653510729613734</v>
+      </c>
+      <c r="B430" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C430" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0">
+        <v>0.14687668097281831</v>
+      </c>
+      <c r="B431" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C431" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0">
+        <v>0.14721825464949928</v>
+      </c>
+      <c r="B432" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C432" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="0">
+        <v>0.14755982832618025</v>
+      </c>
+      <c r="B433" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C433" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0">
+        <v>0.14790140200286123</v>
+      </c>
+      <c r="B434" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C434" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="0">
+        <v>0.1482429756795422</v>
+      </c>
+      <c r="B435" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C435" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0">
+        <v>0.14858454935622317</v>
+      </c>
+      <c r="B436" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C436" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="0">
+        <v>0.14892612303290415</v>
+      </c>
+      <c r="B437" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C437" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="0">
+        <v>0.14926769670958512</v>
+      </c>
+      <c r="B438" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C438" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="0">
+        <v>0.14960927038626609</v>
+      </c>
+      <c r="B439" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C439" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0">
+        <v>0.14995084406294707</v>
+      </c>
+      <c r="B440" s="0">
+        <v>0.043179999999999996</v>
+      </c>
+      <c r="C440" s="0">
+        <v>6.5940184258028882</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="0">
+        <v>0.15029241773962804</v>
+      </c>
+      <c r="B441" s="0">
+        <v>0.043178444275440944</v>
+      </c>
+      <c r="C441" s="0">
+        <v>6.5935432849225046</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="0">
+        <v>0.15063399141630901</v>
+      </c>
+      <c r="B442" s="0">
+        <v>0.043168499488770842</v>
+      </c>
+      <c r="C442" s="0">
+        <v>6.5905064070857202</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="0">
+        <v>0.15097556509298998</v>
+      </c>
+      <c r="B443" s="0">
+        <v>0.043149341197686417</v>
+      </c>
+      <c r="C443" s="0">
+        <v>6.5846579377736472</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="0">
+        <v>0.15131713876967096</v>
+      </c>
+      <c r="B444" s="0">
+        <v>0.043120927510948232</v>
+      </c>
+      <c r="C444" s="0">
+        <v>6.575988845628479</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="0">
+        <v>0.15165871244635193</v>
+      </c>
+      <c r="B445" s="0">
+        <v>0.043083195830324106</v>
+      </c>
+      <c r="C445" s="0">
+        <v>6.5644856350592375</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="0">
+        <v>0.1520002861230329</v>
+      </c>
+      <c r="B446" s="0">
+        <v>0.043036062152790863</v>
+      </c>
+      <c r="C446" s="0">
+        <v>6.5501301958030211</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="0">
+        <v>0.15234185979971388</v>
+      </c>
+      <c r="B447" s="0">
+        <v>0.042979420117701159</v>
+      </c>
+      <c r="C447" s="0">
+        <v>6.5328995975031292</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="0">
+        <v>0.15268343347639485</v>
+      </c>
+      <c r="B448" s="0">
+        <v>0.042913139773188239</v>
+      </c>
+      <c r="C448" s="0">
+        <v>6.5127658237575066</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="0">
+        <v>0.15302500715307582</v>
+      </c>
+      <c r="B449" s="0">
+        <v>0.042837066027470894</v>
+      </c>
+      <c r="C449" s="0">
+        <v>6.4896954382346399</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="0">
+        <v>0.15336658082975679</v>
+      </c>
+      <c r="B450" s="0">
+        <v>0.042751016740340333</v>
+      </c>
+      <c r="C450" s="0">
+        <v>6.4636491732160462</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="0">
+        <v>0.15370815450643777</v>
+      </c>
+      <c r="B451" s="0">
+        <v>0.042654780397319181</v>
+      </c>
+      <c r="C451" s="0">
+        <v>6.4345814281668004</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0">
+        <v>0.15404972818311874</v>
+      </c>
+      <c r="B452" s="0">
+        <v>0.042548113292929402</v>
+      </c>
+      <c r="C452" s="0">
+        <v>6.4024396624745519</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="0">
+        <v>0.15439130185979971</v>
+      </c>
+      <c r="B453" s="0">
+        <v>0.042430736129034412</v>
+      </c>
+      <c r="C453" s="0">
+        <v>6.3671636620840237</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="0">
+        <v>0.15473287553648069</v>
+      </c>
+      <c r="B454" s="0">
+        <v>0.042302329907739626</v>
+      </c>
+      <c r="C454" s="0">
+        <v>6.3286846540449524</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="0">
+        <v>0.15507444921316166</v>
+      </c>
+      <c r="B455" s="0">
+        <v>0.042162530963616517</v>
+      </c>
+      <c r="C455" s="0">
+        <v>6.2869242355062402</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="0">
+        <v>0.15541602288984263</v>
+      </c>
+      <c r="B456" s="0">
+        <v>0.04201092493389319</v>
+      </c>
+      <c r="C456" s="0">
+        <v>6.241793073745673</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="0">
+        <v>0.1557575965665236</v>
+      </c>
+      <c r="B457" s="0">
+        <v>0.041847039403164657</v>
+      </c>
+      <c r="C457" s="0">
+        <v>6.1931893204385293</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="0">
+        <v>0.15609917024320458</v>
+      </c>
+      <c r="B458" s="0">
+        <v>0.041670334874431309</v>
+      </c>
+      <c r="C458" s="0">
+        <v>6.1409966650982781</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="0">
+        <v>0.15644074391988555</v>
+      </c>
+      <c r="B459" s="0">
+        <v>0.041480193600911146</v>
+      </c>
+      <c r="C459" s="0">
+        <v>6.0850819273201662</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="0">
+        <v>0.15678231759656652</v>
+      </c>
+      <c r="B460" s="0">
+        <v>0.041275905647973066</v>
+      </c>
+      <c r="C460" s="0">
+        <v>6.0252920518649393</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="0">
+        <v>0.1571238912732475</v>
+      </c>
+      <c r="B461" s="0">
+        <v>0.041056651318311682</v>
+      </c>
+      <c r="C461" s="0">
+        <v>5.9614503196915853</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="0">
+        <v>0.15746546494992847</v>
+      </c>
+      <c r="B462" s="0">
+        <v>0.040821478729134872</v>
+      </c>
+      <c r="C462" s="0">
+        <v>5.8933515138095416</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="0">
+        <v>0.15780703862660944</v>
+      </c>
+      <c r="B463" s="0">
+        <v>0.040569274817743389</v>
+      </c>
+      <c r="C463" s="0">
+        <v>5.8207556683539581</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="0">
+        <v>0.15814861230329041</v>
+      </c>
+      <c r="B464" s="0">
+        <v>0.040298727271777656</v>
+      </c>
+      <c r="C464" s="0">
+        <v>5.7433798611044393</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="0">
+        <v>0.15849018597997139</v>
+      </c>
+      <c r="B465" s="0">
+        <v>0.040008273661789259</v>
+      </c>
+      <c r="C465" s="0">
+        <v>5.6608872469451565</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="0">
+        <v>0.15883175965665236</v>
+      </c>
+      <c r="B466" s="0">
+        <v>0.039696032093973023</v>
+      </c>
+      <c r="C466" s="0">
+        <v>5.5728721072451482</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="0">
+        <v>0.15917333333333333</v>
+      </c>
+      <c r="B467" s="0">
+        <v>0.039360817918381127</v>
+      </c>
+      <c r="C467" s="0">
+        <v>5.4791489819214796</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="0">
+        <v>0.15951490701001431</v>
+      </c>
+      <c r="B468" s="0">
+        <v>0.039019244241700154</v>
+      </c>
+      <c r="C468" s="0">
+        <v>5.3844653565515035</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="0">
+        <v>0.15985648068669528</v>
+      </c>
+      <c r="B469" s="0">
+        <v>0.038677670565019182</v>
+      </c>
+      <c r="C469" s="0">
+        <v>5.2906069776319065</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="0">
+        <v>0.16019805436337625</v>
+      </c>
+      <c r="B470" s="0">
+        <v>0.038336096888338209</v>
+      </c>
+      <c r="C470" s="0">
+        <v>5.1975738451626921</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="0">
+        <v>0.16053962804005723</v>
+      </c>
+      <c r="B471" s="0">
+        <v>0.037994523211657236</v>
+      </c>
+      <c r="C471" s="0">
+        <v>5.1053659591438576</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="0">
+        <v>0.1608812017167382</v>
+      </c>
+      <c r="B472" s="0">
+        <v>0.037652949534976263</v>
+      </c>
+      <c r="C472" s="0">
+        <v>5.0139833195754022</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="0">
+        <v>0.16122277539341917</v>
+      </c>
+      <c r="B473" s="0">
+        <v>0.03731137585829529</v>
+      </c>
+      <c r="C473" s="0">
+        <v>4.9234259264573295</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="0">
+        <v>0.16156434907010014</v>
+      </c>
+      <c r="B474" s="0">
+        <v>0.036969802181614317</v>
+      </c>
+      <c r="C474" s="0">
+        <v>4.8336937797896376</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="0">
+        <v>0.16190592274678112</v>
+      </c>
+      <c r="B475" s="0">
+        <v>0.036628228504933344</v>
+      </c>
+      <c r="C475" s="0">
+        <v>4.7447868795723238</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="0">
+        <v>0.16224749642346209</v>
+      </c>
+      <c r="B476" s="0">
+        <v>0.036286654828252371</v>
+      </c>
+      <c r="C476" s="0">
+        <v>4.6567052258053918</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="0">
+        <v>0.16258907010014306</v>
+      </c>
+      <c r="B477" s="0">
+        <v>0.035945081151571398</v>
+      </c>
+      <c r="C477" s="0">
+        <v>4.5694488184888416</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="0">
+        <v>0.16293064377682404</v>
+      </c>
+      <c r="B478" s="0">
+        <v>0.035603507474890425</v>
+      </c>
+      <c r="C478" s="0">
+        <v>4.4830176576226695</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="0">
+        <v>0.16327221745350501</v>
+      </c>
+      <c r="B479" s="0">
+        <v>0.035261933798209459</v>
+      </c>
+      <c r="C479" s="0">
+        <v>4.3974117432068818</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="0">
+        <v>0.16361379113018598</v>
+      </c>
+      <c r="B480" s="0">
+        <v>0.034920360121528486</v>
+      </c>
+      <c r="C480" s="0">
+        <v>4.3126310752414705</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="0">
+        <v>0.16395536480686695</v>
+      </c>
+      <c r="B481" s="0">
+        <v>0.034578786444847513</v>
+      </c>
+      <c r="C481" s="0">
+        <v>4.2286756537264418</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="0">
+        <v>0.16429693848354793</v>
+      </c>
+      <c r="B482" s="0">
+        <v>0.03423721276816654</v>
+      </c>
+      <c r="C482" s="0">
+        <v>4.145545478661794</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="0">
+        <v>0.1646385121602289</v>
+      </c>
+      <c r="B483" s="0">
+        <v>0.033895639091485567</v>
+      </c>
+      <c r="C483" s="0">
+        <v>4.0632405500475244</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="0">
+        <v>0.16498008583690987</v>
+      </c>
+      <c r="B484" s="0">
+        <v>0.033554065414804595</v>
+      </c>
+      <c r="C484" s="0">
+        <v>3.9817608678836374</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="0">
+        <v>0.16532165951359085</v>
+      </c>
+      <c r="B485" s="0">
+        <v>0.033212491738123622</v>
+      </c>
+      <c r="C485" s="0">
+        <v>3.9011064321701299</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="0">
+        <v>0.16566323319027182</v>
+      </c>
+      <c r="B486" s="0">
+        <v>0.032870918061442649</v>
+      </c>
+      <c r="C486" s="0">
+        <v>3.8212772429070041</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="0">
+        <v>0.16600480686695279</v>
+      </c>
+      <c r="B487" s="0">
+        <v>0.032529344384761676</v>
+      </c>
+      <c r="C487" s="0">
+        <v>3.7422733000942574</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="0">
+        <v>0.16634638054363377</v>
+      </c>
+      <c r="B488" s="0">
+        <v>0.032187770708080703</v>
+      </c>
+      <c r="C488" s="0">
+        <v>3.664094603731892</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="0">
+        <v>0.16668795422031474</v>
+      </c>
+      <c r="B489" s="0">
+        <v>0.03184619703139973</v>
+      </c>
+      <c r="C489" s="0">
+        <v>3.5867411538199074</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="0">
+        <v>0.16702952789699571</v>
+      </c>
+      <c r="B490" s="0">
+        <v>0.031504623354718757</v>
+      </c>
+      <c r="C490" s="0">
+        <v>3.5102129503583028</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="0">
+        <v>0.16737110157367668</v>
+      </c>
+      <c r="B491" s="0">
+        <v>0.031163049678037784</v>
+      </c>
+      <c r="C491" s="0">
+        <v>3.4345099933470786</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="0">
+        <v>0.16771267525035766</v>
+      </c>
+      <c r="B492" s="0">
+        <v>0.030821476001356811</v>
+      </c>
+      <c r="C492" s="0">
+        <v>3.3596322827862362</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="0">
+        <v>0.16805424892703863</v>
+      </c>
+      <c r="B493" s="0">
+        <v>0.030479902324675838</v>
+      </c>
+      <c r="C493" s="0">
+        <v>3.2855798186757728</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="0">
+        <v>0.1683958226037196</v>
+      </c>
+      <c r="B494" s="0">
+        <v>0.030138328647994865</v>
+      </c>
+      <c r="C494" s="0">
+        <v>3.2123526010156907</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="0">
+        <v>0.16873739628040058</v>
+      </c>
+      <c r="B495" s="0">
+        <v>0.029796754971313892</v>
+      </c>
+      <c r="C495" s="0">
+        <v>3.1399506298059885</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="0">
+        <v>0.16907896995708155</v>
+      </c>
+      <c r="B496" s="0">
+        <v>0.029455181294632919</v>
+      </c>
+      <c r="C496" s="0">
+        <v>3.0683739050466681</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="0">
+        <v>0.16942054363376252</v>
+      </c>
+      <c r="B497" s="0">
+        <v>0.029113607617951946</v>
+      </c>
+      <c r="C497" s="0">
+        <v>2.9976224267377272</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="0">
+        <v>0.16976211731044349</v>
+      </c>
+      <c r="B498" s="0">
+        <v>0.028772033941270973</v>
+      </c>
+      <c r="C498" s="0">
+        <v>2.9276961948791667</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="0">
+        <v>0.17010369098712447</v>
+      </c>
+      <c r="B499" s="0">
+        <v>0.02843046026459</v>
+      </c>
+      <c r="C499" s="0">
+        <v>2.8585952094709879</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="0">
+        <v>0.17044526466380544</v>
+      </c>
+      <c r="B500" s="0">
+        <v>0.028088886587909027</v>
+      </c>
+      <c r="C500" s="0">
+        <v>2.7903194705131886</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="0">
+        <v>0.17078683834048641</v>
+      </c>
+      <c r="B501" s="0">
+        <v>0.027747312911228054</v>
+      </c>
+      <c r="C501" s="0">
+        <v>2.7228689780057698</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="0">
+        <v>0.17112841201716739</v>
+      </c>
+      <c r="B502" s="0">
+        <v>0.027405739234547082</v>
+      </c>
+      <c r="C502" s="0">
+        <v>2.6562437319487327</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="0">
+        <v>0.17146998569384836</v>
+      </c>
+      <c r="B503" s="0">
+        <v>0.027064165557866109</v>
+      </c>
+      <c r="C503" s="0">
+        <v>2.590443732342075</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="0">
+        <v>0.17181155937052931</v>
+      </c>
+      <c r="B504" s="0">
+        <v>0.026722591881185164</v>
+      </c>
+      <c r="C504" s="0">
+        <v>2.5254689791858036</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="0">
+        <v>0.1721531330472103</v>
+      </c>
+      <c r="B505" s="0">
+        <v>0.026381018204504163</v>
+      </c>
+      <c r="C505" s="0">
+        <v>2.4613194724799019</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="0">
+        <v>0.17249470672389128</v>
+      </c>
+      <c r="B506" s="0">
+        <v>0.02603944452782319</v>
+      </c>
+      <c r="C506" s="0">
+        <v>2.3979952122243859</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="0">
+        <v>0.17283628040057225</v>
+      </c>
+      <c r="B507" s="0">
+        <v>0.025697870851142217</v>
+      </c>
+      <c r="C507" s="0">
+        <v>2.3354961984192508</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="0">
+        <v>0.17317785407725322</v>
+      </c>
+      <c r="B508" s="0">
+        <v>0.025356297174461244</v>
+      </c>
+      <c r="C508" s="0">
+        <v>2.2738224310644961</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="0">
+        <v>0.1735194277539342</v>
+      </c>
+      <c r="B509" s="0">
+        <v>0.025014723497780271</v>
+      </c>
+      <c r="C509" s="0">
+        <v>2.2129739101601222</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="0">
+        <v>0.17386100143061517</v>
+      </c>
+      <c r="B510" s="0">
+        <v>0.024673149821099298</v>
+      </c>
+      <c r="C510" s="0">
+        <v>2.1529506357061283</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="0">
+        <v>0.17420257510729614</v>
+      </c>
+      <c r="B511" s="0">
+        <v>0.024331576144418325</v>
+      </c>
+      <c r="C511" s="0">
+        <v>2.0937526077025153</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="0">
+        <v>0.17454414878397712</v>
+      </c>
+      <c r="B512" s="0">
+        <v>0.023990002467737352</v>
+      </c>
+      <c r="C512" s="0">
+        <v>2.035379826149283</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="0">
+        <v>0.17488572246065809</v>
+      </c>
+      <c r="B513" s="0">
+        <v>0.023648428791056379</v>
+      </c>
+      <c r="C513" s="0">
+        <v>1.977832291046431</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="0">
+        <v>0.17522729613733906</v>
+      </c>
+      <c r="B514" s="0">
+        <v>0.023306855114375406</v>
+      </c>
+      <c r="C514" s="0">
+        <v>1.9211100023939596</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="0">
+        <v>0.17556886981402003</v>
+      </c>
+      <c r="B515" s="0">
+        <v>0.022965281437694433</v>
+      </c>
+      <c r="C515" s="0">
+        <v>1.865212960191869</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="0">
+        <v>0.17591044349070101</v>
+      </c>
+      <c r="B516" s="0">
+        <v>0.02262370776101346</v>
+      </c>
+      <c r="C516" s="0">
+        <v>1.8101411644401586</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="0">
+        <v>0.17625201716738198</v>
+      </c>
+      <c r="B517" s="0">
+        <v>0.022282134084332487</v>
+      </c>
+      <c r="C517" s="0">
+        <v>1.7558946151388286</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="0">
+        <v>0.17659359084406295</v>
+      </c>
+      <c r="B518" s="0">
+        <v>0.021940560407651515</v>
+      </c>
+      <c r="C518" s="0">
+        <v>1.7024733122878799</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="0">
+        <v>0.17693516452074393</v>
+      </c>
+      <c r="B519" s="0">
+        <v>0.021598986730970542</v>
+      </c>
+      <c r="C519" s="0">
+        <v>1.6498772558873109</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="0">
+        <v>0.17727673819742487</v>
+      </c>
+      <c r="B520" s="0">
+        <v>0.021257413054289597</v>
+      </c>
+      <c r="C520" s="0">
+        <v>1.598106445937127</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="0">
+        <v>0.17761831187410585</v>
+      </c>
+      <c r="B521" s="0">
+        <v>0.020915839377608624</v>
+      </c>
+      <c r="C521" s="0">
+        <v>1.5471608824373193</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="0">
+        <v>0.17795988555078685</v>
+      </c>
+      <c r="B522" s="0">
+        <v>0.020574265700927623</v>
+      </c>
+      <c r="C522" s="0">
+        <v>1.4970405653878882</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="0">
+        <v>0.17830145922746782</v>
+      </c>
+      <c r="B523" s="0">
+        <v>0.02023269202424665</v>
+      </c>
+      <c r="C523" s="0">
+        <v>1.4477454947888415</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="0">
+        <v>0.17864303290414879</v>
+      </c>
+      <c r="B524" s="0">
+        <v>0.019891118347565677</v>
+      </c>
+      <c r="C524" s="0">
+        <v>1.3992756706401754</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="0">
+        <v>0.17898460658082976</v>
+      </c>
+      <c r="B525" s="0">
+        <v>0.019557374160750256</v>
+      </c>
+      <c r="C525" s="0">
+        <v>1.352713952032121</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="0">
+        <v>0.17932618025751074</v>
+      </c>
+      <c r="B526" s="0">
+        <v>0.019251799864001044</v>
+      </c>
+      <c r="C526" s="0">
+        <v>1.3107732108533399</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="0">
+        <v>0.17966775393419171</v>
+      </c>
+      <c r="B527" s="0">
+        <v>0.01897243091532843</v>
+      </c>
+      <c r="C527" s="0">
+        <v>1.2730071430686627</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="0">
+        <v>0.18000932761087268</v>
+      </c>
+      <c r="B528" s="0">
+        <v>0.018716607359913914</v>
+      </c>
+      <c r="C528" s="0">
+        <v>1.2389082354466845</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="0">
+        <v>0.18035090128755366</v>
+      </c>
+      <c r="B529" s="0">
+        <v>0.018482201149175006</v>
+      </c>
+      <c r="C529" s="0">
+        <v>1.2080704612364333</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="0">
+        <v>0.18069247496423463</v>
+      </c>
+      <c r="B530" s="0">
+        <v>0.018267482407991927</v>
+      </c>
+      <c r="C530" s="0">
+        <v>1.1801637642633229</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="0">
+        <v>0.1810340486409156</v>
+      </c>
+      <c r="B531" s="0">
+        <v>0.01807102670425904</v>
+      </c>
+      <c r="C531" s="0">
+        <v>1.1549163661738941</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="0">
+        <v>0.18137562231759658</v>
+      </c>
+      <c r="B532" s="0">
+        <v>0.017891648949697928</v>
+      </c>
+      <c r="C532" s="0">
+        <v>1.1321021548637238</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="0">
+        <v>0.18171719599427755</v>
+      </c>
+      <c r="B533" s="0">
+        <v>0.017728355172388972</v>
+      </c>
+      <c r="C533" s="0">
+        <v>1.1115314827879201</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="0">
+        <v>0.18205876967095852</v>
+      </c>
+      <c r="B534" s="0">
+        <v>0.017580306626523004</v>
+      </c>
+      <c r="C534" s="0">
+        <v>1.0930443191846919</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="0">
+        <v>0.18240034334763949</v>
+      </c>
+      <c r="B535" s="0">
+        <v>0.017446792633013509</v>
+      </c>
+      <c r="C535" s="0">
+        <v>1.0765050681269259</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="0">
+        <v>0.18274191702432044</v>
+      </c>
+      <c r="B536" s="0">
+        <v>0.017327209737494464</v>
+      </c>
+      <c r="C536" s="0">
+        <v>1.0617985919163517</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="0">
+        <v>0.18308349070100141</v>
+      </c>
+      <c r="B537" s="0">
+        <v>0.017221045532727824</v>
+      </c>
+      <c r="C537" s="0">
+        <v>1.0488271244362801</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="0">
+        <v>0.18342506437768241</v>
+      </c>
+      <c r="B538" s="0">
+        <v>0.017127865990407491</v>
+      </c>
+      <c r="C538" s="0">
+        <v>1.0375078540890796</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="0">
+        <v>0.18376663805436336</v>
+      </c>
+      <c r="B539" s="0">
+        <v>0.017047305481366189</v>
+      </c>
+      <c r="C539" s="0">
+        <v>1.0277710196747125</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="0">
+        <v>0.18410821173104436</v>
+      </c>
+      <c r="B540" s="0">
+        <v>0.016979058892281344</v>
+      </c>
+      <c r="C540" s="0">
+        <v>1.0195584062764427</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="0">
+        <v>0.1844497854077253</v>
+      </c>
+      <c r="B541" s="0">
+        <v>0.016922875407447295</v>
+      </c>
+      <c r="C541" s="0">
+        <v>1.0128221588373401</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="0">
+        <v>0.1847913590844063</v>
+      </c>
+      <c r="B542" s="0">
+        <v>0.016878553638951126</v>
+      </c>
+      <c r="C542" s="0">
+        <v>1.0075238530090907</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="0">
+        <v>0.18513293276108725</v>
+      </c>
+      <c r="B543" s="0">
+        <v>0.016845937872474688</v>
+      </c>
+      <c r="C543" s="0">
+        <v>1.0036337788596941</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="0">
+        <v>0.18547450643776825</v>
+      </c>
+      <c r="B544" s="0">
+        <v>0.016824915258751072</v>
+      </c>
+      <c r="C544" s="0">
+        <v>1.0011304050098524</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="0">
+        <v>0.18581608011444919</v>
+      </c>
+      <c r="B545" s="0">
+        <v>0.016815413829091033</v>
+      </c>
+      <c r="C545" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="0">
+        <v>0.1861576537911302</v>
+      </c>
+      <c r="B546" s="0">
+        <v>0.016817401252019679</v>
+      </c>
+      <c r="C546" s="0">
+        <v>1.0002363950594551</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="0">
+        <v>0.18649922746781114</v>
+      </c>
+      <c r="B547" s="0">
+        <v>0.016830884280314366</v>
+      </c>
+      <c r="C547" s="0">
+        <v>1.0018408786025299</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="0">
+        <v>0.18684080114449214</v>
+      </c>
+      <c r="B548" s="0">
+        <v>0.016855908866209912</v>
+      </c>
+      <c r="C548" s="0">
+        <v>1.0048222182094169</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="0">
+        <v>0.18718237482117312</v>
+      </c>
+      <c r="B549" s="0">
+        <v>0.016892560949387119</v>
+      </c>
+      <c r="C549" s="0">
+        <v>1.0091968109725817</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="0">
+        <v>0.18752394849785409</v>
+      </c>
+      <c r="B550" s="0">
+        <v>0.016940967949546477</v>
+      </c>
+      <c r="C550" s="0">
+        <v>1.0149889682763722</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="0">
+        <v>0.18786552217453506</v>
+      </c>
+      <c r="B551" s="0">
+        <v>0.017001301024890489</v>
+      </c>
+      <c r="C551" s="0">
+        <v>1.0222313467102255</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="0">
+        <v>0.18820709585121601</v>
+      </c>
+      <c r="B552" s="0">
+        <v>0.017073778191968762</v>
+      </c>
+      <c r="C552" s="0">
+        <v>1.0309655433279068</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="0">
+        <v>0.18854866952789701</v>
+      </c>
+      <c r="B553" s="0">
+        <v>0.017155326088495893</v>
+      </c>
+      <c r="C553" s="0">
+        <v>1.0408372712715537</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="0">
+        <v>0.18889024320457795</v>
+      </c>
+      <c r="B554" s="0">
+        <v>0.017237330672927886</v>
+      </c>
+      <c r="C554" s="0">
+        <v>1.0508117162260091</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="0">
+        <v>0.18923181688125895</v>
+      </c>
+      <c r="B555" s="0">
+        <v>0.017319335257359892</v>
+      </c>
+      <c r="C555" s="0">
+        <v>1.0608337265790395</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="0">
+        <v>0.1895733905579399</v>
+      </c>
+      <c r="B556" s="0">
+        <v>0.017401339841791891</v>
+      </c>
+      <c r="C556" s="0">
+        <v>1.0709033023306429</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="0">
+        <v>0.1899149642346209</v>
+      </c>
+      <c r="B557" s="0">
+        <v>0.017483344426223898</v>
+      </c>
+      <c r="C557" s="0">
+        <v>1.0810204434808204</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="0">
+        <v>0.19025653791130184</v>
+      </c>
+      <c r="B558" s="0">
+        <v>0.01756534901065589</v>
+      </c>
+      <c r="C558" s="0">
+        <v>1.09118515002957</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="0">
+        <v>0.19059811158798284</v>
+      </c>
+      <c r="B559" s="0">
+        <v>0.017647353595087897</v>
+      </c>
+      <c r="C559" s="0">
+        <v>1.1013974219768949</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="0">
+        <v>0.19093968526466379</v>
+      </c>
+      <c r="B560" s="0">
+        <v>0.017729358179519889</v>
+      </c>
+      <c r="C560" s="0">
+        <v>1.1116572593227914</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="0">
+        <v>0.19128125894134479</v>
+      </c>
+      <c r="B561" s="0">
+        <v>0.017811362763951903</v>
+      </c>
+      <c r="C561" s="0">
+        <v>1.1219646620672643</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="0">
+        <v>0.19162283261802573</v>
+      </c>
+      <c r="B562" s="0">
+        <v>0.017893367348383895</v>
+      </c>
+      <c r="C562" s="0">
+        <v>1.132319630210308</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="0">
+        <v>0.19196440629470674</v>
+      </c>
+      <c r="B563" s="0">
+        <v>0.017975371932815901</v>
+      </c>
+      <c r="C563" s="0">
+        <v>1.1427221637519267</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="0">
+        <v>0.19230597997138768</v>
+      </c>
+      <c r="B564" s="0">
+        <v>0.018057376517247894</v>
+      </c>
+      <c r="C564" s="0">
+        <v>1.1531722626921177</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="0">
+        <v>0.19264755364806868</v>
+      </c>
+      <c r="B565" s="0">
+        <v>0.0181393811016799</v>
+      </c>
+      <c r="C565" s="0">
+        <v>1.1636699270308839</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="0">
+        <v>0.19298912732474966</v>
+      </c>
+      <c r="B566" s="0">
+        <v>0.018221385686111907</v>
+      </c>
+      <c r="C566" s="0">
+        <v>1.1742151567682233</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="0">
+        <v>0.19333070100143063</v>
+      </c>
+      <c r="B567" s="0">
+        <v>0.018303390270543906</v>
+      </c>
+      <c r="C567" s="0">
+        <v>1.1848079519041357</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="0">
+        <v>0.1936722746781116</v>
+      </c>
+      <c r="B568" s="0">
+        <v>0.018385394854975905</v>
+      </c>
+      <c r="C568" s="0">
+        <v>1.1954483124386213</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="0">
+        <v>0.19401384835479255</v>
+      </c>
+      <c r="B569" s="0">
+        <v>0.018467399439407898</v>
+      </c>
+      <c r="C569" s="0">
+        <v>1.2061362383716796</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="0">
+        <v>0.19435542203147355</v>
+      </c>
+      <c r="B570" s="0">
+        <v>0.018549404023839904</v>
+      </c>
+      <c r="C570" s="0">
+        <v>1.2168717297033136</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="0">
+        <v>0.19469699570815449</v>
+      </c>
+      <c r="B571" s="0">
+        <v>0.018631408608271904</v>
+      </c>
+      <c r="C571" s="0">
+        <v>1.2276547864335199</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="0">
+        <v>0.19503856938483549</v>
+      </c>
+      <c r="B572" s="0">
+        <v>0.01871341319270391</v>
+      </c>
+      <c r="C572" s="0">
+        <v>1.2384854085623009</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="0">
+        <v>0.19538014306151644</v>
+      </c>
+      <c r="B573" s="0">
+        <v>0.018795417777135903</v>
+      </c>
+      <c r="C573" s="0">
+        <v>1.2493635960896536</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="0">
+        <v>0.19572171673819744</v>
+      </c>
+      <c r="B574" s="0">
+        <v>0.018877422361567909</v>
+      </c>
+      <c r="C574" s="0">
+        <v>1.2602893490155813</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="0">
+        <v>0.19606329041487838</v>
+      </c>
+      <c r="B575" s="0">
+        <v>0.018959426945999901</v>
+      </c>
+      <c r="C575" s="0">
+        <v>1.2712626673400811</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="0">
+        <v>0.19640486409155938</v>
+      </c>
+      <c r="B576" s="0">
+        <v>0.019041431530431908</v>
+      </c>
+      <c r="C576" s="0">
+        <v>1.2822835510631563</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="0">
+        <v>0.19674643776824033</v>
+      </c>
+      <c r="B577" s="0">
+        <v>0.019123436114863907</v>
+      </c>
+      <c r="C577" s="0">
+        <v>1.2933520001848036</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="0">
+        <v>0.19708801144492133</v>
+      </c>
+      <c r="B578" s="0">
+        <v>0.019205440699295914</v>
+      </c>
+      <c r="C578" s="0">
+        <v>1.3044680147050261</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="0">
+        <v>0.19742958512160227</v>
+      </c>
+      <c r="B579" s="0">
+        <v>0.019287445283727906</v>
+      </c>
+      <c r="C579" s="0">
+        <v>1.31563159462382</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="0">
+        <v>0.19777115879828328</v>
+      </c>
+      <c r="B580" s="0">
+        <v>0.019369449868159913</v>
+      </c>
+      <c r="C580" s="0">
+        <v>1.3268427399411888</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="0">
+        <v>0.19811273247496422</v>
+      </c>
+      <c r="B581" s="0">
+        <v>0.019451454452591905</v>
+      </c>
+      <c r="C581" s="0">
+        <v>1.3381014506571298</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="0">
+        <v>0.19845430615164522</v>
+      </c>
+      <c r="B582" s="0">
+        <v>0.019533459037023918</v>
+      </c>
+      <c r="C582" s="0">
+        <v>1.3494077267716469</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="0">
+        <v>0.19879587982832617</v>
+      </c>
+      <c r="B583" s="0">
+        <v>0.019615463621455911</v>
+      </c>
+      <c r="C583" s="0">
+        <v>1.3607615682847349</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="0">
+        <v>0.19913745350500714</v>
+      </c>
+      <c r="B584" s="0">
+        <v>0.01969746820588791</v>
+      </c>
+      <c r="C584" s="0">
+        <v>1.3721629751963975</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="0">
+        <v>0.19947902718168814</v>
+      </c>
+      <c r="B585" s="0">
+        <v>0.019779472790319917</v>
+      </c>
+      <c r="C585" s="0">
+        <v>1.3836119475066342</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="0">
+        <v>0.19982060085836909</v>
+      </c>
+      <c r="B586" s="0">
+        <v>0.019861477374751909</v>
+      </c>
+      <c r="C586" s="0">
+        <v>1.395108485215443</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="0">
+        <v>0.20016217453505009</v>
+      </c>
+      <c r="B587" s="0">
+        <v>0.019943481959183922</v>
+      </c>
+      <c r="C587" s="0">
+        <v>1.4066525883228283</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="0">
+        <v>0.20050374821173103</v>
+      </c>
+      <c r="B588" s="0">
+        <v>0.020025486543615915</v>
+      </c>
+      <c r="C588" s="0">
+        <v>1.4182442568287839</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="0">
+        <v>0.20084532188841203</v>
+      </c>
+      <c r="B589" s="0">
+        <v>0.020107491128047921</v>
+      </c>
+      <c r="C589" s="0">
+        <v>1.4298834907333147</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="0">
+        <v>0.20118689556509298</v>
+      </c>
+      <c r="B590" s="0">
+        <v>0.020189495712479914</v>
+      </c>
+      <c r="C590" s="0">
+        <v>1.4415702900364176</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="0">
+        <v>0.20152846924177398</v>
+      </c>
+      <c r="B591" s="0">
+        <v>0.02027150029691192</v>
+      </c>
+      <c r="C591" s="0">
+        <v>1.4533046547380954</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="0">
+        <v>0.20187004291845492</v>
+      </c>
+      <c r="B592" s="0">
+        <v>0.02035350488134392</v>
+      </c>
+      <c r="C592" s="0">
+        <v>1.4650865848383465</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="0">
+        <v>0.20221161659513592</v>
+      </c>
+      <c r="B593" s="0">
+        <v>0.020435509465775926</v>
+      </c>
+      <c r="C593" s="0">
+        <v>1.4769160803371719</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="0">
+        <v>0.20255319027181687</v>
+      </c>
+      <c r="B594" s="0">
+        <v>0.020517514050207918</v>
+      </c>
+      <c r="C594" s="0">
+        <v>1.4887931412345685</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="0">
+        <v>0.20289476394849787</v>
+      </c>
+      <c r="B595" s="0">
+        <v>0.020599518634639925</v>
+      </c>
+      <c r="C595" s="0">
+        <v>1.500717767530541</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="0">
+        <v>0.20323633762517882</v>
+      </c>
+      <c r="B596" s="0">
+        <v>0.020681523219071917</v>
+      </c>
+      <c r="C596" s="0">
+        <v>1.5126899592250851</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="0">
+        <v>0.20357791130185982</v>
+      </c>
+      <c r="B597" s="0">
+        <v>0.020763527803503923</v>
+      </c>
+      <c r="C597" s="0">
+        <v>1.5247097163182044</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="0">
+        <v>0.20391948497854076</v>
+      </c>
+      <c r="B598" s="0">
+        <v>0.020845532387935923</v>
+      </c>
+      <c r="C598" s="0">
+        <v>1.5367770388098965</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="0">
+        <v>0.20426105865522176</v>
+      </c>
+      <c r="B599" s="0">
+        <v>0.020927536972367929</v>
+      </c>
+      <c r="C599" s="0">
+        <v>1.5488919267001633</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="0">
+        <v>0.20460263233190271</v>
+      </c>
+      <c r="B600" s="0">
+        <v>0.021009541556799922</v>
+      </c>
+      <c r="C600" s="0">
+        <v>1.5610543799890009</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="0">
+        <v>0.20494420600858368</v>
+      </c>
+      <c r="B601" s="0">
+        <v>0.021091546141231921</v>
+      </c>
+      <c r="C601" s="0">
+        <v>1.5732643986764137</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="0">
+        <v>0.20528577968526468</v>
+      </c>
+      <c r="B602" s="0">
+        <v>0.021173550725663928</v>
+      </c>
+      <c r="C602" s="0">
+        <v>1.5855219827624012</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="0">
+        <v>0.20562735336194563</v>
+      </c>
+      <c r="B603" s="0">
+        <v>0.021255555310095927</v>
+      </c>
+      <c r="C603" s="0">
+        <v>1.5978271322469606</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="0">
+        <v>0.20596892703862663</v>
+      </c>
+      <c r="B604" s="0">
+        <v>0.021337559894527933</v>
+      </c>
+      <c r="C604" s="0">
+        <v>1.6101798471300952</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="0">
+        <v>0.20631050071530757</v>
+      </c>
+      <c r="B605" s="0">
+        <v>0.021419564478959926</v>
+      </c>
+      <c r="C605" s="0">
+        <v>1.622580127411801</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="0">
+        <v>0.20665207439198857</v>
+      </c>
+      <c r="B606" s="0">
+        <v>0.021501569063391932</v>
+      </c>
+      <c r="C606" s="0">
+        <v>1.635027973092082</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="0">
+        <v>0.20699364806866952</v>
+      </c>
+      <c r="B607" s="0">
+        <v>0.021583573647823925</v>
+      </c>
+      <c r="C607" s="0">
+        <v>1.6475233841709349</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="0">
+        <v>0.20733522174535052</v>
+      </c>
+      <c r="B608" s="0">
+        <v>0.021665578232255938</v>
+      </c>
+      <c r="C608" s="0">
+        <v>1.6600663606483643</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="0">
+        <v>0.20767679542203146</v>
+      </c>
+      <c r="B609" s="0">
+        <v>0.021747582816687931</v>
+      </c>
+      <c r="C609" s="0">
+        <v>1.6726569025243643</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="0">
+        <v>0.20801836909871246</v>
+      </c>
+      <c r="B610" s="0">
+        <v>0.021829587401119937</v>
+      </c>
+      <c r="C610" s="0">
+        <v>1.6852950097989401</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="0">
+        <v>0.20835994277539341</v>
+      </c>
+      <c r="B611" s="0">
+        <v>0.021911591985551929</v>
+      </c>
+      <c r="C611" s="0">
+        <v>1.6979806824720873</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="0">
+        <v>0.20870151645207441</v>
+      </c>
+      <c r="B612" s="0">
+        <v>0.021993596569983936</v>
+      </c>
+      <c r="C612" s="0">
+        <v>1.7107139205438096</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="0">
+        <v>0.20904309012875536</v>
+      </c>
+      <c r="B613" s="0">
+        <v>0.022075601154415935</v>
+      </c>
+      <c r="C613" s="0">
+        <v>1.723494724014105</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="0">
+        <v>0.20938466380543636</v>
+      </c>
+      <c r="B614" s="0">
+        <v>0.022157605738847942</v>
+      </c>
+      <c r="C614" s="0">
+        <v>1.7363230928829743</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="0">
+        <v>0.2097262374821173</v>
+      </c>
+      <c r="B615" s="0">
+        <v>0.022239610323279934</v>
+      </c>
+      <c r="C615" s="0">
+        <v>1.7491990271504157</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="0">
+        <v>0.21006781115879827</v>
+      </c>
+      <c r="B616" s="0">
+        <v>0.022321614907711933</v>
+      </c>
+      <c r="C616" s="0">
+        <v>1.7621225268164316</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="0">
+        <v>0.21040938483547925</v>
+      </c>
+      <c r="B617" s="0">
+        <v>0.022403619492143933</v>
+      </c>
+      <c r="C617" s="0">
+        <v>1.7750935918810205</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="0">
+        <v>0.21075095851216022</v>
+      </c>
+      <c r="B618" s="0">
+        <v>0.022485624076575939</v>
+      </c>
+      <c r="C618" s="0">
+        <v>1.7881122223441846</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="0">
+        <v>0.21109253218884122</v>
+      </c>
+      <c r="B619" s="0">
+        <v>0.022567628661007946</v>
+      </c>
+      <c r="C619" s="0">
+        <v>1.8011784182059223</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="0">
+        <v>0.21143410586552217</v>
+      </c>
+      <c r="B620" s="0">
+        <v>0.022649633245439938</v>
+      </c>
+      <c r="C620" s="0">
+        <v>1.8142921794662308</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="0">
+        <v>0.21177567954220317</v>
+      </c>
+      <c r="B621" s="0">
+        <v>0.022731637829871945</v>
+      </c>
+      <c r="C621" s="0">
+        <v>1.8274535061251156</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="0">
+        <v>0.21211725321888411</v>
+      </c>
+      <c r="B622" s="0">
+        <v>0.022813642414303937</v>
+      </c>
+      <c r="C622" s="0">
+        <v>1.8406623981825716</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="0">
+        <v>0.21245882689556511</v>
+      </c>
+      <c r="B623" s="0">
+        <v>0.022895646998735943</v>
+      </c>
+      <c r="C623" s="0">
+        <v>1.8539188556386028</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="0">
+        <v>0.21280040057224606</v>
+      </c>
+      <c r="B624" s="0">
+        <v>0.022977651583167943</v>
+      </c>
+      <c r="C624" s="0">
+        <v>1.867222878493207</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="0">
+        <v>0.21314197424892706</v>
+      </c>
+      <c r="B625" s="0">
+        <v>0.023059656167599949</v>
+      </c>
+      <c r="C625" s="0">
+        <v>1.8805744667463855</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="0">
+        <v>0.213483547925608</v>
+      </c>
+      <c r="B626" s="0">
+        <v>0.023141660752031942</v>
+      </c>
+      <c r="C626" s="0">
+        <v>1.8939736203981357</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="0">
+        <v>0.213825121602289</v>
+      </c>
+      <c r="B627" s="0">
+        <v>0.023223665336463948</v>
+      </c>
+      <c r="C627" s="0">
+        <v>1.9074203394484617</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="0">
+        <v>0.21416669527896995</v>
+      </c>
+      <c r="B628" s="0">
+        <v>0.02330566992089594</v>
+      </c>
+      <c r="C628" s="0">
+        <v>1.9209146238973589</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="0">
+        <v>0.21450826895565095</v>
+      </c>
+      <c r="B629" s="0">
+        <v>0.023387674505327954</v>
+      </c>
+      <c r="C629" s="0">
+        <v>1.9344564737448329</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="0">
+        <v>0.2148498426323319</v>
+      </c>
+      <c r="B630" s="0">
+        <v>0.023469679089759946</v>
+      </c>
+      <c r="C630" s="0">
+        <v>1.9480458889908772</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="0">
+        <v>0.2151914163090129</v>
+      </c>
+      <c r="B631" s="0">
+        <v>0.023551683674191953</v>
+      </c>
+      <c r="C631" s="0">
+        <v>1.9616828696354967</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="0">
+        <v>0.21553298998569384</v>
+      </c>
+      <c r="B632" s="0">
+        <v>0.023633688258623945</v>
+      </c>
+      <c r="C632" s="0">
+        <v>1.975367415678688</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="0">
+        <v>0.21587456366237481</v>
+      </c>
+      <c r="B633" s="0">
+        <v>0.023715692843055945</v>
+      </c>
+      <c r="C633" s="0">
+        <v>1.9890995271204544</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="0">
+        <v>0.21621613733905579</v>
+      </c>
+      <c r="B634" s="0">
+        <v>0.023797697427487951</v>
+      </c>
+      <c r="C634" s="0">
+        <v>2.0028792039607946</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="0">
+        <v>0.21655771101573676</v>
+      </c>
+      <c r="B635" s="0">
+        <v>0.02387970201191995</v>
+      </c>
+      <c r="C635" s="0">
+        <v>2.016706446199708</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="0">
+        <v>0.21689928469241773</v>
+      </c>
+      <c r="B636" s="0">
+        <v>0.02396170659635195</v>
+      </c>
+      <c r="C636" s="0">
+        <v>2.0305812538371946</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="0">
+        <v>0.21724085836909871</v>
+      </c>
+      <c r="B637" s="0">
+        <v>0.024043711180783949</v>
+      </c>
+      <c r="C637" s="0">
+        <v>2.0445036268732544</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="0">
+        <v>0.21758243204577971</v>
+      </c>
+      <c r="B638" s="0">
+        <v>0.024125715765215956</v>
+      </c>
+      <c r="C638" s="0">
+        <v>2.0584735653078892</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="0">
+        <v>0.21792400572246065</v>
+      </c>
+      <c r="B639" s="0">
+        <v>0.024207720349647955</v>
+      </c>
+      <c r="C639" s="0">
+        <v>2.0724910691410967</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="0">
+        <v>0.21826557939914165</v>
+      </c>
+      <c r="B640" s="0">
+        <v>0.024289724934079961</v>
+      </c>
+      <c r="C640" s="0">
+        <v>2.0865561383728784</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="0">
+        <v>0.2186071530758226</v>
+      </c>
+      <c r="B641" s="0">
+        <v>0.024371729518511954</v>
+      </c>
+      <c r="C641" s="0">
+        <v>2.1006687730032314</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="0">
+        <v>0.2189487267525036</v>
+      </c>
+      <c r="B642" s="0">
+        <v>0.02445373410294396</v>
+      </c>
+      <c r="C642" s="0">
+        <v>2.1148289730321608</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="0">
+        <v>0.21929030042918454</v>
+      </c>
+      <c r="B643" s="0">
+        <v>0.024535738687375953</v>
+      </c>
+      <c r="C643" s="0">
+        <v>2.1290367384596602</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="0">
+        <v>0.21963187410586554</v>
+      </c>
+      <c r="B644" s="0">
+        <v>0.024617743271807959</v>
+      </c>
+      <c r="C644" s="0">
+        <v>2.1432920692857369</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="0">
+        <v>0.21997344778254649</v>
+      </c>
+      <c r="B645" s="0">
+        <v>0.024699747856239958</v>
+      </c>
+      <c r="C645" s="0">
+        <v>2.1575949655103854</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="0">
+        <v>0.22031502145922749</v>
+      </c>
+      <c r="B646" s="0">
+        <v>0.024781752440671965</v>
+      </c>
+      <c r="C646" s="0">
+        <v>2.1719454271336081</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="0">
+        <v>0.22065659513590844</v>
+      </c>
+      <c r="B647" s="0">
+        <v>0.024863757025103957</v>
+      </c>
+      <c r="C647" s="0">
+        <v>2.1863434541554026</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="0">
+        <v>0.22099816881258941</v>
+      </c>
+      <c r="B648" s="0">
+        <v>0.024945761609535957</v>
+      </c>
+      <c r="C648" s="0">
+        <v>2.200789046575772</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="0">
+        <v>0.22133974248927038</v>
+      </c>
+      <c r="B649" s="0">
+        <v>0.025027766193967956</v>
+      </c>
+      <c r="C649" s="0">
+        <v>2.2152822043947142</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="0">
+        <v>0.22168131616595135</v>
+      </c>
+      <c r="B650" s="0">
+        <v>0.025109770778399963</v>
+      </c>
+      <c r="C650" s="0">
+        <v>2.2298229276122319</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="0">
+        <v>0.22202288984263233</v>
+      </c>
+      <c r="B651" s="0">
+        <v>0.025191775362831962</v>
+      </c>
+      <c r="C651" s="0">
+        <v>2.244411216228321</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="0">
+        <v>0.2223644635193133</v>
+      </c>
+      <c r="B652" s="0">
+        <v>0.025273779947263962</v>
+      </c>
+      <c r="C652" s="0">
+        <v>2.2590470702429846</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="0">
+        <v>0.22270603719599427</v>
+      </c>
+      <c r="B653" s="0">
+        <v>0.025355784531695961</v>
+      </c>
+      <c r="C653" s="0">
+        <v>2.2737304896562214</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="0">
+        <v>0.22304761087267524</v>
+      </c>
+      <c r="B654" s="0">
+        <v>0.02543778911612796</v>
+      </c>
+      <c r="C654" s="0">
+        <v>2.288461474468031</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="0">
+        <v>0.22338918454935625</v>
+      </c>
+      <c r="B655" s="0">
+        <v>0.025519793700559974</v>
+      </c>
+      <c r="C655" s="0">
+        <v>2.3032400246784177</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="0">
+        <v>0.22373075822603719</v>
+      </c>
+      <c r="B656" s="0">
+        <v>0.025601798284991966</v>
+      </c>
+      <c r="C656" s="0">
+        <v>2.3180661402873741</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="0">
+        <v>0.22407233190271819</v>
+      </c>
+      <c r="B657" s="0">
+        <v>0.025683802869423972</v>
+      </c>
+      <c r="C657" s="0">
+        <v>2.332939821294906</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="0">
+        <v>0.22441390557939914</v>
+      </c>
+      <c r="B658" s="0">
+        <v>0.025765807453855965</v>
+      </c>
+      <c r="C658" s="0">
+        <v>2.3478610677010092</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="0">
+        <v>0.22475547925608014</v>
+      </c>
+      <c r="B659" s="0">
+        <v>0.025847812038287971</v>
+      </c>
+      <c r="C659" s="0">
+        <v>2.3628298795056888</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="0">
+        <v>0.22509705293276108</v>
+      </c>
+      <c r="B660" s="0">
+        <v>0.025929816622719964</v>
+      </c>
+      <c r="C660" s="0">
+        <v>2.3778462567089385</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="0">
+        <v>0.22543862660944208</v>
+      </c>
+      <c r="B661" s="0">
+        <v>0.026011821207151977</v>
+      </c>
+      <c r="C661" s="0">
+        <v>2.3929101993107667</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="0">
+        <v>0.22578020028612303</v>
+      </c>
+      <c r="B662" s="0">
+        <v>0.02609382579158397</v>
+      </c>
+      <c r="C662" s="0">
+        <v>2.4080217073111641</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="0">
+        <v>0.22612177396280403</v>
+      </c>
+      <c r="B663" s="0">
+        <v>0.026175830376015976</v>
+      </c>
+      <c r="C663" s="0">
+        <v>2.4231807807101373</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="0">
+        <v>0.22646334763948497</v>
+      </c>
+      <c r="B664" s="0">
+        <v>0.026257834960447968</v>
+      </c>
+      <c r="C664" s="0">
+        <v>2.4383874195076816</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="0">
+        <v>0.22680492131616595</v>
+      </c>
+      <c r="B665" s="0">
+        <v>0.026339839544879968</v>
+      </c>
+      <c r="C665" s="0">
+        <v>2.4536416237038012</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="0">
+        <v>0.22714649499284692</v>
+      </c>
+      <c r="B666" s="0">
+        <v>0.026421844129311974</v>
+      </c>
+      <c r="C666" s="0">
+        <v>2.468943393298495</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="0">
+        <v>0.22748806866952789</v>
+      </c>
+      <c r="B667" s="0">
+        <v>0.026503848713743974</v>
+      </c>
+      <c r="C667" s="0">
+        <v>2.4842927282917615</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="0">
+        <v>0.22782964234620887</v>
+      </c>
+      <c r="B668" s="0">
+        <v>0.026585853298175973</v>
+      </c>
+      <c r="C668" s="0">
+        <v>2.4996896286836017</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="0">
+        <v>0.22817121602288984</v>
+      </c>
+      <c r="B669" s="0">
+        <v>0.026667857882607972</v>
+      </c>
+      <c r="C669" s="0">
+        <v>2.5151340944740146</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="0">
+        <v>0.22851278969957078</v>
+      </c>
+      <c r="B670" s="0">
+        <v>0.026749862467039965</v>
+      </c>
+      <c r="C670" s="0">
+        <v>2.5306261256630003</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="0">
+        <v>0.22885436337625178</v>
+      </c>
+      <c r="B671" s="0">
+        <v>0.026831867051471978</v>
+      </c>
+      <c r="C671" s="0">
+        <v>2.5461657222505632</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="0">
+        <v>0.22919593705293279</v>
+      </c>
+      <c r="B672" s="0">
+        <v>0.026913871635903985</v>
+      </c>
+      <c r="C672" s="0">
+        <v>2.5617528842366988</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="0">
+        <v>0.22953751072961373</v>
+      </c>
+      <c r="B673" s="0">
+        <v>0.026995876220335977</v>
+      </c>
+      <c r="C673" s="0">
+        <v>2.577387611621405</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="0">
+        <v>0.22987908440629473</v>
+      </c>
+      <c r="B674" s="0">
+        <v>0.027077880804767984</v>
+      </c>
+      <c r="C674" s="0">
+        <v>2.593069904404687</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="0">
+        <v>0.23022065808297568</v>
+      </c>
+      <c r="B675" s="0">
+        <v>0.027159885389199976</v>
+      </c>
+      <c r="C675" s="0">
+        <v>2.6087997625865405</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="0">
+        <v>0.23056223175965668</v>
+      </c>
+      <c r="B676" s="0">
+        <v>0.027241889973631982</v>
+      </c>
+      <c r="C676" s="0">
+        <v>2.6245771861669702</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="0">
+        <v>0.23090380543633762</v>
+      </c>
+      <c r="B677" s="0">
+        <v>0.027323894558063982</v>
+      </c>
+      <c r="C677" s="0">
+        <v>2.6404021751459714</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="0">
+        <v>0.23124537911301862</v>
+      </c>
+      <c r="B678" s="0">
+        <v>0.027405899142495988</v>
+      </c>
+      <c r="C678" s="0">
+        <v>2.6562747295235485</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="0">
+        <v>0.23158695278969957</v>
+      </c>
+      <c r="B679" s="0">
+        <v>0.027487903726927981</v>
+      </c>
+      <c r="C679" s="0">
+        <v>2.6721948492996961</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="0">
+        <v>0.23192852646638054</v>
+      </c>
+      <c r="B680" s="0">
+        <v>0.02756990831135998</v>
+      </c>
+      <c r="C680" s="0">
+        <v>2.6881625344744178</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="0">
+        <v>0.23227010014306151</v>
+      </c>
+      <c r="B681" s="0">
+        <v>0.02765191289579198</v>
+      </c>
+      <c r="C681" s="0">
+        <v>2.704177785047714</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="0">
+        <v>0.23261167381974249</v>
+      </c>
+      <c r="B682" s="0">
+        <v>0.027733917480223986</v>
+      </c>
+      <c r="C682" s="0">
+        <v>2.7202406010195852</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="0">
+        <v>0.23295324749642346</v>
+      </c>
+      <c r="B683" s="0">
+        <v>0.027815922064655985</v>
+      </c>
+      <c r="C683" s="0">
+        <v>2.7363509823900278</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="0">
+        <v>0.23329482117310443</v>
+      </c>
+      <c r="B684" s="0">
+        <v>0.027897926649087985</v>
+      </c>
+      <c r="C684" s="0">
+        <v>2.7525089291590445</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="0">
+        <v>0.23363639484978541</v>
+      </c>
+      <c r="B685" s="0">
+        <v>0.027979931233519984</v>
+      </c>
+      <c r="C685" s="0">
+        <v>2.7687144413266349</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="0">
+        <v>0.23397796852646638</v>
+      </c>
+      <c r="B686" s="0">
+        <v>0.028061935817951984</v>
+      </c>
+      <c r="C686" s="0">
+        <v>2.784967518892798</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="0">
+        <v>0.23431954220314733</v>
+      </c>
+      <c r="B687" s="0">
+        <v>0.028143940402383983</v>
+      </c>
+      <c r="C687" s="0">
+        <v>2.8012681618575353</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="0">
+        <v>0.23466111587982832</v>
+      </c>
+      <c r="B688" s="0">
+        <v>0.028225944986815989</v>
+      </c>
+      <c r="C688" s="0">
+        <v>2.817616370220847</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="0">
+        <v>0.23500268955650927</v>
+      </c>
+      <c r="B689" s="0">
+        <v>0.028307949571247982</v>
+      </c>
+      <c r="C689" s="0">
+        <v>2.8340121439827297</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="0">
+        <v>0.23534426323319027</v>
+      </c>
+      <c r="B690" s="0">
+        <v>0.028389954155679988</v>
+      </c>
+      <c r="C690" s="0">
+        <v>2.8504554831431892</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="0">
+        <v>0.23568583690987127</v>
+      </c>
+      <c r="B691" s="0">
+        <v>0.028471958740111995</v>
+      </c>
+      <c r="C691" s="0">
+        <v>2.8669463877022214</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="0">
+        <v>0.23602741058655222</v>
+      </c>
+      <c r="B692" s="0">
+        <v>0.028553963324543994</v>
+      </c>
+      <c r="C692" s="0">
+        <v>2.8834848576598264</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="0">
+        <v>0.23636898426323322</v>
+      </c>
+      <c r="B693" s="0">
+        <v>0.028635967908976</v>
+      </c>
+      <c r="C693" s="0">
+        <v>2.9000708930160069</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="0">
+        <v>0.23671055793991416</v>
+      </c>
+      <c r="B694" s="0">
+        <v>0.028717972493407993</v>
+      </c>
+      <c r="C694" s="0">
+        <v>2.9167044937707565</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="0">
+        <v>0.23705213161659516</v>
+      </c>
+      <c r="B695" s="0">
+        <v>0.028799977077839999</v>
+      </c>
+      <c r="C695" s="0">
+        <v>2.9333856599240837</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="0">
+        <v>0.23739370529327611</v>
+      </c>
+      <c r="B696" s="0">
+        <v>0.028881981662271992</v>
+      </c>
+      <c r="C696" s="0">
+        <v>2.9501143914759815</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="0">
+        <v>0.23773527896995708</v>
+      </c>
+      <c r="B697" s="0">
+        <v>0.028963986246703998</v>
+      </c>
+      <c r="C697" s="0">
+        <v>2.9668906884264552</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="0">
+        <v>0.23807685264663805</v>
+      </c>
+      <c r="B698" s="0">
+        <v>0.029045990831135998</v>
+      </c>
+      <c r="C698" s="0">
+        <v>2.9837145507755016</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="0">
+        <v>0.23841842632331903</v>
+      </c>
+      <c r="B699" s="0">
+        <v>0.029127995415567997</v>
+      </c>
+      <c r="C699" s="0">
+        <v>3.0005859785231213</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="0">
+        <v>0.23876</v>
+      </c>
+      <c r="B700" s="0">
+        <v>0.029209999999999996</v>
+      </c>
+      <c r="C700" s="0">
+        <v>3.0175049716693141</v>
       </c>
     </row>
   </sheetData>

--- a/REGEN/Contour_Maelstrom.xlsx
+++ b/REGEN/Contour_Maelstrom.xlsx
@@ -72,7 +72,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C1" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="2">
@@ -83,7 +83,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C2" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="3">
@@ -94,7 +94,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C3" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="4">
@@ -105,7 +105,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C4" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="5">
@@ -116,7 +116,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C5" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="6">
@@ -127,7 +127,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C6" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="7">
@@ -138,7 +138,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C7" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="8">
@@ -149,7 +149,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C8" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="9">
@@ -160,7 +160,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C9" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="10">
@@ -171,7 +171,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C10" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="11">
@@ -182,7 +182,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C11" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="12">
@@ -193,7 +193,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C12" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="13">
@@ -204,7 +204,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C13" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="14">
@@ -215,7 +215,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C14" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="15">
@@ -226,7 +226,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C15" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="16">
@@ -237,7 +237,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C16" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="17">
@@ -248,7 +248,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C17" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="18">
@@ -259,7 +259,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C18" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="19">
@@ -270,7 +270,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C19" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="20">
@@ -281,7 +281,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C20" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="21">
@@ -292,7 +292,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C21" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="22">
@@ -303,7 +303,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C22" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="23">
@@ -314,7 +314,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C23" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="24">
@@ -325,7 +325,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C24" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="25">
@@ -336,7 +336,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C25" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="26">
@@ -347,7 +347,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C26" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="27">
@@ -358,7 +358,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C27" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="28">
@@ -369,7 +369,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C28" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="29">
@@ -380,7 +380,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C29" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="30">
@@ -391,7 +391,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C30" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="31">
@@ -402,7 +402,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C31" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="32">
@@ -413,7 +413,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C32" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="33">
@@ -424,7 +424,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C33" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="34">
@@ -435,7 +435,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C34" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="35">
@@ -446,7 +446,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C35" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="36">
@@ -457,7 +457,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C36" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="37">
@@ -468,7 +468,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C37" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="38">
@@ -479,7 +479,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C38" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="39">
@@ -490,7 +490,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C39" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="40">
@@ -501,7 +501,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C40" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="41">
@@ -512,7 +512,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C41" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="42">
@@ -523,7 +523,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C42" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="43">
@@ -534,7 +534,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C43" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="44">
@@ -545,7 +545,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C44" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="45">
@@ -556,7 +556,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C45" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="46">
@@ -567,7 +567,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C46" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="47">
@@ -578,7 +578,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C47" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="48">
@@ -589,7 +589,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C48" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="49">
@@ -600,7 +600,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C49" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="50">
@@ -611,7 +611,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C50" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="51">
@@ -622,7 +622,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C51" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="52">
@@ -633,7 +633,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C52" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="53">
@@ -644,7 +644,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C53" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="54">
@@ -655,7 +655,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C54" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="55">
@@ -666,7 +666,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C55" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="56">
@@ -677,7 +677,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C56" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="57">
@@ -688,7 +688,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C57" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="58">
@@ -699,7 +699,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C58" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="59">
@@ -710,7 +710,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C59" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="60">
@@ -721,7 +721,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C60" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="61">
@@ -732,7 +732,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C61" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="62">
@@ -743,7 +743,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C62" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="63">
@@ -754,7 +754,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C63" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="64">
@@ -765,7 +765,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C64" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="65">
@@ -776,7 +776,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C65" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="66">
@@ -787,7 +787,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C66" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="67">
@@ -798,7 +798,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C67" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="68">
@@ -809,7 +809,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C68" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="69">
@@ -820,7 +820,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C69" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="70">
@@ -831,7 +831,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C70" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="71">
@@ -842,7 +842,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C71" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="72">
@@ -853,7 +853,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C72" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="73">
@@ -864,7 +864,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C73" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="74">
@@ -875,7 +875,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C74" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="75">
@@ -886,7 +886,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C75" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="76">
@@ -897,7 +897,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C76" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="77">
@@ -908,7 +908,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C77" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="78">
@@ -919,7 +919,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C78" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="79">
@@ -930,7 +930,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C79" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="80">
@@ -941,7 +941,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C80" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="81">
@@ -952,7 +952,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C81" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="82">
@@ -963,7 +963,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C82" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="83">
@@ -974,7 +974,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C83" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="84">
@@ -985,7 +985,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C84" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="85">
@@ -996,7 +996,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C85" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="86">
@@ -1007,7 +1007,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C86" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="87">
@@ -1018,7 +1018,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C87" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="88">
@@ -1029,7 +1029,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C88" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="89">
@@ -1040,7 +1040,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C89" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="90">
@@ -1051,7 +1051,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C90" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="91">
@@ -1062,7 +1062,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C91" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="92">
@@ -1073,7 +1073,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C92" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="93">
@@ -1084,7 +1084,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C93" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="94">
@@ -1095,7 +1095,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C94" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="95">
@@ -1106,7 +1106,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C95" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="96">
@@ -1117,7 +1117,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C96" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="97">
@@ -1128,7 +1128,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C97" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="98">
@@ -1139,7 +1139,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C98" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="99">
@@ -1150,7 +1150,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C99" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="100">
@@ -1161,7 +1161,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C100" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="101">
@@ -1172,7 +1172,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C101" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="102">
@@ -1183,7 +1183,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C102" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="103">
@@ -1194,7 +1194,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C103" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="104">
@@ -1205,7 +1205,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C104" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="105">
@@ -1216,7 +1216,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C105" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="106">
@@ -1227,7 +1227,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C106" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="107">
@@ -1238,7 +1238,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C107" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="108">
@@ -1249,7 +1249,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C108" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="109">
@@ -1260,7 +1260,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C109" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="110">
@@ -1271,7 +1271,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C110" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="111">
@@ -1282,7 +1282,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C111" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="112">
@@ -1293,7 +1293,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C112" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="113">
@@ -1304,7 +1304,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C113" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="114">
@@ -1315,7 +1315,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C114" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="115">
@@ -1326,7 +1326,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C115" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="116">
@@ -1337,7 +1337,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C116" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="117">
@@ -1348,7 +1348,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C117" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="118">
@@ -1359,7 +1359,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C118" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="119">
@@ -1370,7 +1370,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C119" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="120">
@@ -1381,7 +1381,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C120" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="121">
@@ -1392,7 +1392,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C121" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C122" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="123">
@@ -1414,7 +1414,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C123" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="124">
@@ -1425,7 +1425,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C124" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="125">
@@ -1436,7 +1436,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C125" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="126">
@@ -1447,7 +1447,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C126" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="127">
@@ -1458,7 +1458,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C127" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="128">
@@ -1469,7 +1469,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C128" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="129">
@@ -1480,7 +1480,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C129" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="130">
@@ -1491,7 +1491,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C130" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="131">
@@ -1502,7 +1502,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C131" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="132">
@@ -1513,7 +1513,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C132" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="133">
@@ -1524,7 +1524,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C133" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="134">
@@ -1535,7 +1535,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C134" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="135">
@@ -1546,7 +1546,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C135" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="136">
@@ -1557,7 +1557,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C136" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="137">
@@ -1568,7 +1568,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C137" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="138">
@@ -1579,7 +1579,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C138" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="139">
@@ -1590,7 +1590,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C139" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="140">
@@ -1601,7 +1601,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C140" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="141">
@@ -1612,7 +1612,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C141" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="142">
@@ -1623,7 +1623,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C142" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="143">
@@ -1634,7 +1634,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C143" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="144">
@@ -1645,7 +1645,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C144" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="145">
@@ -1656,7 +1656,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C145" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="146">
@@ -1667,7 +1667,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C146" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="147">
@@ -1678,7 +1678,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C147" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="148">
@@ -1689,7 +1689,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C148" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="149">
@@ -1700,7 +1700,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C149" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="150">
@@ -1711,7 +1711,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C150" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="151">
@@ -1722,7 +1722,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C151" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="152">
@@ -1733,7 +1733,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C152" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="153">
@@ -1744,7 +1744,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C153" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="154">
@@ -1755,7 +1755,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C154" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="155">
@@ -1766,7 +1766,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C155" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="156">
@@ -1777,7 +1777,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C156" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="157">
@@ -1788,7 +1788,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C157" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="158">
@@ -1799,7 +1799,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C158" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="159">
@@ -1810,7 +1810,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C159" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="160">
@@ -1821,7 +1821,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C160" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="161">
@@ -1832,7 +1832,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C161" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="162">
@@ -1843,7 +1843,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C162" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="163">
@@ -1854,7 +1854,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C163" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="164">
@@ -1865,7 +1865,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C164" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="165">
@@ -1876,7 +1876,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C165" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="166">
@@ -1887,7 +1887,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C166" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="167">
@@ -1898,7 +1898,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C167" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="168">
@@ -1909,7 +1909,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C168" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="169">
@@ -1920,7 +1920,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C169" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="170">
@@ -1931,7 +1931,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C170" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="171">
@@ -1942,7 +1942,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C171" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="172">
@@ -1953,7 +1953,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C172" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="173">
@@ -1964,7 +1964,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C173" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="174">
@@ -1975,7 +1975,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C174" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="175">
@@ -1986,7 +1986,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C175" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="176">
@@ -1997,7 +1997,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C176" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="177">
@@ -2008,7 +2008,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C177" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="178">
@@ -2019,7 +2019,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C178" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="179">
@@ -2030,7 +2030,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C179" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="180">
@@ -2041,7 +2041,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C180" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="181">
@@ -2052,7 +2052,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C181" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="182">
@@ -2063,7 +2063,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C182" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="183">
@@ -2074,7 +2074,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C183" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="184">
@@ -2085,7 +2085,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C184" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="185">
@@ -2096,7 +2096,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C185" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="186">
@@ -2107,7 +2107,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C186" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="187">
@@ -2118,7 +2118,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C187" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="188">
@@ -2129,7 +2129,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C188" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="189">
@@ -2140,7 +2140,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C189" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="190">
@@ -2151,7 +2151,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C190" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="191">
@@ -2162,7 +2162,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C191" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="192">
@@ -2173,7 +2173,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C192" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="193">
@@ -2184,7 +2184,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C193" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="194">
@@ -2195,7 +2195,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C194" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="195">
@@ -2206,7 +2206,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C195" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="196">
@@ -2217,7 +2217,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C196" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="197">
@@ -2228,7 +2228,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C197" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="198">
@@ -2239,7 +2239,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C198" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="199">
@@ -2250,7 +2250,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C199" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="200">
@@ -2261,7 +2261,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C200" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="201">
@@ -2272,7 +2272,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C201" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="202">
@@ -2283,7 +2283,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C202" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="203">
@@ -2294,7 +2294,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C203" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="204">
@@ -2305,7 +2305,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C204" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="205">
@@ -2316,7 +2316,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C205" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="206">
@@ -2327,7 +2327,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C206" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="207">
@@ -2338,7 +2338,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C207" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="208">
@@ -2349,7 +2349,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C208" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="209">
@@ -2360,7 +2360,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C209" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="210">
@@ -2371,7 +2371,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C210" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="211">
@@ -2382,7 +2382,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C211" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="212">
@@ -2393,7 +2393,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C212" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="213">
@@ -2404,7 +2404,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C213" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="214">
@@ -2415,7 +2415,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C214" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="215">
@@ -2426,7 +2426,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C215" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="216">
@@ -2437,7 +2437,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C216" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="217">
@@ -2448,7 +2448,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C217" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="218">
@@ -2459,7 +2459,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C218" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="219">
@@ -2470,7 +2470,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C219" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="220">
@@ -2481,7 +2481,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C220" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="221">
@@ -2492,7 +2492,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C221" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="222">
@@ -2503,7 +2503,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C222" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="223">
@@ -2514,7 +2514,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C223" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="224">
@@ -2525,7 +2525,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C224" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="225">
@@ -2536,7 +2536,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C225" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="226">
@@ -2547,7 +2547,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C226" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="227">
@@ -2558,7 +2558,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C227" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="228">
@@ -2569,7 +2569,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C228" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="229">
@@ -2580,7 +2580,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C229" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="230">
@@ -2591,7 +2591,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C230" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="231">
@@ -2602,7 +2602,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C231" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="232">
@@ -2613,7 +2613,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C232" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="233">
@@ -2624,7 +2624,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C233" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="234">
@@ -2635,7 +2635,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C234" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="235">
@@ -2646,7 +2646,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C235" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="236">
@@ -2657,7 +2657,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C236" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="237">
@@ -2668,7 +2668,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C237" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="238">
@@ -2679,7 +2679,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C238" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="239">
@@ -2690,7 +2690,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C239" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="240">
@@ -2701,7 +2701,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C240" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="241">
@@ -2712,7 +2712,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C241" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="242">
@@ -2723,7 +2723,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C242" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="243">
@@ -2734,7 +2734,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C243" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="244">
@@ -2745,7 +2745,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C244" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="245">
@@ -2756,7 +2756,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C245" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="246">
@@ -2767,7 +2767,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C246" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="247">
@@ -2778,7 +2778,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C247" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="248">
@@ -2789,7 +2789,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C248" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="249">
@@ -2800,7 +2800,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C249" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="250">
@@ -2811,7 +2811,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C250" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="251">
@@ -2822,7 +2822,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C251" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="252">
@@ -2833,7 +2833,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C252" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="253">
@@ -2844,7 +2844,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C253" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="254">
@@ -2855,7 +2855,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C254" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="255">
@@ -2866,7 +2866,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C255" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="256">
@@ -2877,7 +2877,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C256" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="257">
@@ -2888,7 +2888,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C257" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="258">
@@ -2899,7 +2899,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C258" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="259">
@@ -2910,7 +2910,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C259" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="260">
@@ -2921,7 +2921,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C260" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="261">
@@ -2932,7 +2932,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C261" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="262">
@@ -2943,7 +2943,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C262" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="263">
@@ -2954,7 +2954,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C263" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="264">
@@ -2965,7 +2965,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C264" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="265">
@@ -2976,7 +2976,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C265" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="266">
@@ -2987,7 +2987,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C266" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="267">
@@ -2998,7 +2998,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C267" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="268">
@@ -3009,7 +3009,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C268" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="269">
@@ -3020,7 +3020,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C269" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="270">
@@ -3031,7 +3031,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C270" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="271">
@@ -3042,7 +3042,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C271" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="272">
@@ -3053,7 +3053,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C272" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="273">
@@ -3064,7 +3064,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C273" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="274">
@@ -3075,7 +3075,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C274" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="275">
@@ -3086,7 +3086,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C275" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="276">
@@ -3097,7 +3097,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C276" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="277">
@@ -3108,7 +3108,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C277" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="278">
@@ -3119,7 +3119,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C278" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="279">
@@ -3130,7 +3130,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C279" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="280">
@@ -3141,7 +3141,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C280" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="281">
@@ -3152,7 +3152,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C281" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="282">
@@ -3163,7 +3163,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C282" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="283">
@@ -3174,7 +3174,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C283" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="284">
@@ -3185,7 +3185,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C284" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="285">
@@ -3196,7 +3196,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C285" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="286">
@@ -3207,7 +3207,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C286" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="287">
@@ -3218,7 +3218,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C287" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="288">
@@ -3229,7 +3229,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C288" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="289">
@@ -3240,7 +3240,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C289" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="290">
@@ -3251,7 +3251,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C290" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="291">
@@ -3262,7 +3262,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C291" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="292">
@@ -3273,7 +3273,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C292" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="293">
@@ -3284,7 +3284,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C293" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="294">
@@ -3295,7 +3295,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C294" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="295">
@@ -3306,7 +3306,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C295" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="296">
@@ -3317,7 +3317,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C296" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="297">
@@ -3328,7 +3328,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C297" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="298">
@@ -3339,7 +3339,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C298" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="299">
@@ -3350,7 +3350,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C299" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="300">
@@ -3361,7 +3361,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C300" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="301">
@@ -3372,7 +3372,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C301" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="302">
@@ -3383,7 +3383,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C302" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="303">
@@ -3394,7 +3394,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C303" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="304">
@@ -3405,7 +3405,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C304" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="305">
@@ -3416,7 +3416,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C305" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="306">
@@ -3427,7 +3427,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C306" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="307">
@@ -3438,7 +3438,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C307" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="308">
@@ -3449,7 +3449,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C308" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="309">
@@ -3460,7 +3460,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C309" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="310">
@@ -3471,7 +3471,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C310" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="311">
@@ -3482,7 +3482,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C311" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="312">
@@ -3493,7 +3493,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C312" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="313">
@@ -3504,7 +3504,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C313" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="314">
@@ -3515,7 +3515,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C314" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="315">
@@ -3526,7 +3526,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C315" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="316">
@@ -3537,7 +3537,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C316" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="317">
@@ -3548,7 +3548,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C317" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="318">
@@ -3559,7 +3559,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C318" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="319">
@@ -3570,7 +3570,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C319" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="320">
@@ -3581,7 +3581,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C320" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="321">
@@ -3592,7 +3592,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C321" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="322">
@@ -3603,7 +3603,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C322" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="323">
@@ -3614,7 +3614,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C323" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="324">
@@ -3625,7 +3625,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C324" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="325">
@@ -3636,7 +3636,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C325" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="326">
@@ -3647,7 +3647,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C326" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="327">
@@ -3658,7 +3658,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C327" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="328">
@@ -3669,7 +3669,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C328" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="329">
@@ -3680,7 +3680,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C329" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="330">
@@ -3691,7 +3691,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C330" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="331">
@@ -3702,7 +3702,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C331" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="332">
@@ -3713,7 +3713,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C332" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="333">
@@ -3724,7 +3724,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C333" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="334">
@@ -3735,7 +3735,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C334" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="335">
@@ -3746,7 +3746,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C335" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="336">
@@ -3757,7 +3757,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C336" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="337">
@@ -3768,7 +3768,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C337" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="338">
@@ -3779,7 +3779,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C338" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="339">
@@ -3790,7 +3790,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C339" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="340">
@@ -3801,7 +3801,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C340" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="341">
@@ -3812,7 +3812,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C341" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="342">
@@ -3823,7 +3823,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C342" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="343">
@@ -3834,7 +3834,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C343" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="344">
@@ -3845,7 +3845,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C344" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="345">
@@ -3856,7 +3856,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C345" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="346">
@@ -3867,7 +3867,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C346" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="347">
@@ -3878,7 +3878,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C347" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="348">
@@ -3889,7 +3889,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C348" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="349">
@@ -3900,7 +3900,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C349" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="350">
@@ -3911,7 +3911,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C350" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="351">
@@ -3922,7 +3922,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C351" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="352">
@@ -3933,7 +3933,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C352" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="353">
@@ -3944,7 +3944,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C353" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="354">
@@ -3955,7 +3955,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C354" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="355">
@@ -3966,7 +3966,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C355" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="356">
@@ -3977,7 +3977,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C356" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="357">
@@ -3988,7 +3988,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C357" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="358">
@@ -3999,7 +3999,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C358" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="359">
@@ -4010,7 +4010,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C359" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="360">
@@ -4021,7 +4021,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C360" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="361">
@@ -4032,7 +4032,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C361" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="362">
@@ -4043,7 +4043,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C362" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="363">
@@ -4054,7 +4054,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C363" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="364">
@@ -4065,7 +4065,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C364" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="365">
@@ -4076,7 +4076,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C365" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="366">
@@ -4087,7 +4087,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C366" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="367">
@@ -4098,7 +4098,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C367" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="368">
@@ -4109,7 +4109,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C368" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="369">
@@ -4120,7 +4120,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C369" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="370">
@@ -4131,7 +4131,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C370" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="371">
@@ -4142,7 +4142,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C371" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="372">
@@ -4153,7 +4153,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C372" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="373">
@@ -4164,7 +4164,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C373" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="374">
@@ -4175,7 +4175,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C374" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="375">
@@ -4186,7 +4186,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C375" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="376">
@@ -4197,7 +4197,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C376" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="377">
@@ -4208,7 +4208,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C377" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="378">
@@ -4219,7 +4219,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C378" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="379">
@@ -4230,7 +4230,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C379" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="380">
@@ -4241,7 +4241,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C380" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="381">
@@ -4252,7 +4252,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C381" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="382">
@@ -4263,7 +4263,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C382" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="383">
@@ -4274,7 +4274,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C383" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="384">
@@ -4285,7 +4285,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C384" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="385">
@@ -4296,7 +4296,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C385" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="386">
@@ -4307,7 +4307,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C386" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="387">
@@ -4318,7 +4318,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C387" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="388">
@@ -4329,7 +4329,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C388" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="389">
@@ -4340,7 +4340,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C389" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="390">
@@ -4351,7 +4351,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C390" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="391">
@@ -4362,7 +4362,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C391" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="392">
@@ -4373,7 +4373,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C392" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="393">
@@ -4384,7 +4384,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C393" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="394">
@@ -4395,7 +4395,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C394" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="395">
@@ -4406,7 +4406,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C395" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="396">
@@ -4417,7 +4417,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C396" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="397">
@@ -4428,7 +4428,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C397" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="398">
@@ -4439,7 +4439,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C398" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="399">
@@ -4450,7 +4450,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C399" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="400">
@@ -4461,7 +4461,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C400" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="401">
@@ -4472,7 +4472,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C401" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="402">
@@ -4483,7 +4483,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C402" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="403">
@@ -4494,7 +4494,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C403" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="404">
@@ -4505,7 +4505,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C404" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="405">
@@ -4516,7 +4516,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C405" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="406">
@@ -4527,7 +4527,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C406" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="407">
@@ -4538,7 +4538,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C407" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="408">
@@ -4549,7 +4549,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C408" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="409">
@@ -4560,7 +4560,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C409" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="410">
@@ -4571,7 +4571,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C410" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="411">
@@ -4582,7 +4582,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C411" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="412">
@@ -4593,7 +4593,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C412" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="413">
@@ -4604,7 +4604,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C413" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="414">
@@ -4615,7 +4615,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C414" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="415">
@@ -4626,7 +4626,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C415" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="416">
@@ -4637,7 +4637,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C416" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="417">
@@ -4648,7 +4648,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C417" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="418">
@@ -4659,7 +4659,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C418" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="419">
@@ -4670,7 +4670,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C419" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="420">
@@ -4681,7 +4681,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C420" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="421">
@@ -4692,7 +4692,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C421" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="422">
@@ -4703,7 +4703,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C422" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="423">
@@ -4714,7 +4714,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C423" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="424">
@@ -4725,7 +4725,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C424" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="425">
@@ -4736,7 +4736,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C425" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="426">
@@ -4747,7 +4747,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C426" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="427">
@@ -4758,7 +4758,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C427" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="428">
@@ -4769,7 +4769,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C428" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="429">
@@ -4780,7 +4780,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C429" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="430">
@@ -4791,7 +4791,7 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C430" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406894813062</v>
       </c>
     </row>
     <row r="431">
@@ -4799,10 +4799,10 @@
         <v>0.14687668097281831</v>
       </c>
       <c r="B431" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.043179999931026024</v>
       </c>
       <c r="C431" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6139406683516277</v>
       </c>
     </row>
     <row r="432">
@@ -4810,10 +4810,10 @@
         <v>0.14721825464949928</v>
       </c>
       <c r="B432" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.043175370079362299</v>
       </c>
       <c r="C432" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6125224227471193</v>
       </c>
     </row>
     <row r="433">
@@ -4821,10 +4821,10 @@
         <v>0.14755982832618025</v>
       </c>
       <c r="B433" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.043161541684774415</v>
       </c>
       <c r="C433" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6082873264121442</v>
       </c>
     </row>
     <row r="434">
@@ -4832,10 +4832,10 @@
         <v>0.14790140200286123</v>
       </c>
       <c r="B434" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.04313848460125351</v>
       </c>
       <c r="C434" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.6012288605145253</v>
       </c>
     </row>
     <row r="435">
@@ -4843,10 +4843,10 @@
         <v>0.1482429756795422</v>
       </c>
       <c r="B435" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.043106148270334488</v>
       </c>
       <c r="C435" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.5913360921924404</v>
       </c>
     </row>
     <row r="436">
@@ -4854,10 +4854,10 @@
         <v>0.14858454935622317</v>
       </c>
       <c r="B436" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.043064461161907812</v>
       </c>
       <c r="C436" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.5785935536344722</v>
       </c>
     </row>
     <row r="437">
@@ -4865,10 +4865,10 @@
         <v>0.14892612303290415</v>
       </c>
       <c r="B437" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.043013329971458458</v>
       </c>
       <c r="C437" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.5629810684889858</v>
       </c>
     </row>
     <row r="438">
@@ -4876,10 +4876,10 @@
         <v>0.14926769670958512</v>
       </c>
       <c r="B438" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042952638552373315</v>
       </c>
       <c r="C438" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.5444735209841767</v>
       </c>
     </row>
     <row r="439">
@@ -4887,10 +4887,10 @@
         <v>0.14960927038626609</v>
       </c>
       <c r="B439" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042882246554138345</v>
       </c>
       <c r="C439" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.5230405614491573</v>
       </c>
     </row>
     <row r="440">
@@ -4898,10 +4898,10 @@
         <v>0.14995084406294707</v>
       </c>
       <c r="B440" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042801987727956931</v>
       </c>
       <c r="C440" s="0">
-        <v>6.5940184258028882</v>
+        <v>6.4986462399175284</v>
       </c>
     </row>
     <row r="441">
@@ -4909,10 +4909,10 @@
         <v>0.15029241773962804</v>
       </c>
       <c r="B441" s="0">
-        <v>0.043178444275440944</v>
+        <v>0.042711667850011431</v>
       </c>
       <c r="C441" s="0">
-        <v>6.5935432849225046</v>
+        <v>6.4712485570493907</v>
       </c>
     </row>
     <row r="442">
@@ -4920,10 +4920,10 @@
         <v>0.15063399141630901</v>
       </c>
       <c r="B442" s="0">
-        <v>0.043168499488770842</v>
+        <v>0.042611062198541501</v>
       </c>
       <c r="C442" s="0">
-        <v>6.5905064070857202</v>
+        <v>6.4407989185697909</v>
       </c>
     </row>
     <row r="443">
@@ -4931,10 +4931,10 @@
         <v>0.15097556509298998</v>
       </c>
       <c r="B443" s="0">
-        <v>0.043149341197686417</v>
+        <v>0.042499912503157378</v>
       </c>
       <c r="C443" s="0">
-        <v>6.5846579377736472</v>
+        <v>6.4072414755822473</v>
       </c>
     </row>
     <row r="444">
@@ -4942,10 +4942,10 @@
         <v>0.15131713876967096</v>
       </c>
       <c r="B444" s="0">
-        <v>0.043120927510948232</v>
+        <v>0.042377923262024886</v>
       </c>
       <c r="C444" s="0">
-        <v>6.575988845628479</v>
+        <v>6.370512328189589</v>
       </c>
     </row>
     <row r="445">
@@ -4953,10 +4953,10 @@
         <v>0.15165871244635193</v>
       </c>
       <c r="B445" s="0">
-        <v>0.043083195830324106</v>
+        <v>0.042244757292919565</v>
       </c>
       <c r="C445" s="0">
-        <v>6.5644856350592375</v>
+        <v>6.3305385634451659</v>
       </c>
     </row>
     <row r="446">
@@ -4964,10 +4964,10 @@
         <v>0.1520002861230329</v>
       </c>
       <c r="B446" s="0">
-        <v>0.043036062152790863</v>
+        <v>0.042100030345071073</v>
       </c>
       <c r="C446" s="0">
-        <v>6.5501301958030211</v>
+        <v>6.287237090207487</v>
       </c>
     </row>
     <row r="447">
@@ -4975,10 +4975,10 @@
         <v>0.15234185979971388</v>
       </c>
       <c r="B447" s="0">
-        <v>0.042979420117701159</v>
+        <v>0.041943304546518789</v>
       </c>
       <c r="C447" s="0">
-        <v>6.5328995975031292</v>
+        <v>6.2405132221835435</v>
       </c>
     </row>
     <row r="448">
@@ -4986,10 +4986,10 @@
         <v>0.15268343347639485</v>
       </c>
       <c r="B448" s="0">
-        <v>0.042913139773188239</v>
+        <v>0.04177408039102349</v>
       </c>
       <c r="C448" s="0">
-        <v>6.5127658237575066</v>
+        <v>6.1902589451628227</v>
       </c>
     </row>
     <row r="449">
@@ -4997,10 +4997,10 @@
         <v>0.15302500715307582</v>
       </c>
       <c r="B449" s="0">
-        <v>0.042837066027470894</v>
+        <v>0.041591786871532477</v>
       </c>
       <c r="C449" s="0">
-        <v>6.4896954382346399</v>
+        <v>6.1363507834584405</v>
       </c>
     </row>
     <row r="450">
@@ -5008,10 +5008,10 @@
         <v>0.15336658082975679</v>
       </c>
       <c r="B450" s="0">
-        <v>0.042751016740340333</v>
+        <v>0.041395769231924021</v>
       </c>
       <c r="C450" s="0">
-        <v>6.4636491732160462</v>
+        <v>6.078647151320288</v>
       </c>
     </row>
     <row r="451">
@@ -5019,10 +5019,10 @@
         <v>0.15370815450643777</v>
       </c>
       <c r="B451" s="0">
-        <v>0.042654780397319181</v>
+        <v>0.041185273617132534</v>
       </c>
       <c r="C451" s="0">
-        <v>6.4345814281668004</v>
+        <v>6.0169850336479431</v>
       </c>
     </row>
     <row r="452">
@@ -5030,10 +5030,10 @@
         <v>0.15404972818311874</v>
       </c>
       <c r="B452" s="0">
-        <v>0.042548113292929402</v>
+        <v>0.040959427625472972</v>
       </c>
       <c r="C452" s="0">
-        <v>6.4024396624745519</v>
+        <v>5.9511757805870991</v>
       </c>
     </row>
     <row r="453">
@@ -5041,10 +5041,10 @@
         <v>0.15439130185979971</v>
       </c>
       <c r="B453" s="0">
-        <v>0.042430736129034412</v>
+        <v>0.040717215360837902</v>
       </c>
       <c r="C453" s="0">
-        <v>6.3671636620840237</v>
+        <v>5.8809997127676326</v>
       </c>
     </row>
     <row r="454">
@@ -5052,10 +5052,10 @@
         <v>0.15473287553648069</v>
       </c>
       <c r="B454" s="0">
-        <v>0.042302329907739626</v>
+        <v>0.040457444972417649</v>
       </c>
       <c r="C454" s="0">
-        <v>6.3286846540449524</v>
+        <v>5.8061991020289323</v>
       </c>
     </row>
     <row r="455">
@@ -5063,10 +5063,10 @@
         <v>0.15507444921316166</v>
       </c>
       <c r="B455" s="0">
-        <v>0.042162530963616517</v>
+        <v>0.04017870573106877</v>
       </c>
       <c r="C455" s="0">
-        <v>6.2869242355062402</v>
+        <v>5.7264688895294738</v>
       </c>
     </row>
     <row r="456">
@@ -5074,10 +5074,10 @@
         <v>0.15541602288984263</v>
       </c>
       <c r="B456" s="0">
-        <v>0.04201092493389319</v>
+        <v>0.039879310207930549</v>
       </c>
       <c r="C456" s="0">
-        <v>6.241793073745673</v>
+        <v>5.6414441823372634</v>
       </c>
     </row>
     <row r="457">
@@ -5085,10 +5085,10 @@
         <v>0.1557575965665236</v>
       </c>
       <c r="B457" s="0">
-        <v>0.041847039403164657</v>
+        <v>0.039557214702690802</v>
       </c>
       <c r="C457" s="0">
-        <v>6.1931893204385293</v>
+        <v>5.5506830466817005</v>
       </c>
     </row>
     <row r="458">
@@ -5096,10 +5096,10 @@
         <v>0.15609917024320458</v>
       </c>
       <c r="B458" s="0">
-        <v>0.041670334874431309</v>
+        <v>0.039216699363473745</v>
       </c>
       <c r="C458" s="0">
-        <v>6.1409966650982781</v>
+        <v>5.4555318783141136</v>
       </c>
     </row>
     <row r="459">
@@ -5107,10 +5107,10 @@
         <v>0.15644074391988555</v>
       </c>
       <c r="B459" s="0">
-        <v>0.041480193600911146</v>
+        <v>0.038875125686792772</v>
       </c>
       <c r="C459" s="0">
-        <v>6.0850819273201662</v>
+        <v>5.3609114330988499</v>
       </c>
     </row>
     <row r="460">
@@ -5118,10 +5118,10 @@
         <v>0.15678231759656652</v>
       </c>
       <c r="B460" s="0">
-        <v>0.041275905647973066</v>
+        <v>0.038533552010111799</v>
       </c>
       <c r="C460" s="0">
-        <v>6.0252920518649393</v>
+        <v>5.267118727620506</v>
       </c>
     </row>
     <row r="461">
@@ -5129,10 +5129,10 @@
         <v>0.1571238912732475</v>
       </c>
       <c r="B461" s="0">
-        <v>0.041056651318311682</v>
+        <v>0.038191978333430826</v>
       </c>
       <c r="C461" s="0">
-        <v>5.9614503196915853</v>
+        <v>5.1741537618790856</v>
       </c>
     </row>
     <row r="462">
@@ -5140,10 +5140,10 @@
         <v>0.15746546494992847</v>
       </c>
       <c r="B462" s="0">
-        <v>0.040821478729134872</v>
+        <v>0.037850404656749853</v>
       </c>
       <c r="C462" s="0">
-        <v>5.8933515138095416</v>
+        <v>5.0820165358745824</v>
       </c>
     </row>
     <row r="463">
@@ -5151,10 +5151,10 @@
         <v>0.15780703862660944</v>
       </c>
       <c r="B463" s="0">
-        <v>0.040569274817743389</v>
+        <v>0.03750883098006888</v>
       </c>
       <c r="C463" s="0">
-        <v>5.8207556683539581</v>
+        <v>4.9907070496069998</v>
       </c>
     </row>
     <row r="464">
@@ -5162,10 +5162,10 @@
         <v>0.15814861230329041</v>
       </c>
       <c r="B464" s="0">
-        <v>0.040298727271777656</v>
+        <v>0.037167257303387907</v>
       </c>
       <c r="C464" s="0">
-        <v>5.7433798611044393</v>
+        <v>4.9002253030763399</v>
       </c>
     </row>
     <row r="465">
@@ -5173,10 +5173,10 @@
         <v>0.15849018597997139</v>
       </c>
       <c r="B465" s="0">
-        <v>0.040008273661789259</v>
+        <v>0.036825683626706934</v>
       </c>
       <c r="C465" s="0">
-        <v>5.6608872469451565</v>
+        <v>4.8105712962825979</v>
       </c>
     </row>
     <row r="466">
@@ -5184,10 +5184,10 @@
         <v>0.15883175965665236</v>
       </c>
       <c r="B466" s="0">
-        <v>0.039696032093973023</v>
+        <v>0.036484109950025961</v>
       </c>
       <c r="C466" s="0">
-        <v>5.5728721072451482</v>
+        <v>4.7217450292257768</v>
       </c>
     </row>
     <row r="467">
@@ -5195,10 +5195,10 @@
         <v>0.15917333333333333</v>
       </c>
       <c r="B467" s="0">
-        <v>0.039360817918381127</v>
+        <v>0.036142536273344988</v>
       </c>
       <c r="C467" s="0">
-        <v>5.4791489819214796</v>
+        <v>4.6337465019058781</v>
       </c>
     </row>
     <row r="468">
@@ -5206,10 +5206,10 @@
         <v>0.15951490701001431</v>
       </c>
       <c r="B468" s="0">
-        <v>0.039019244241700154</v>
+        <v>0.035800962596664015</v>
       </c>
       <c r="C468" s="0">
-        <v>5.3844653565515035</v>
+        <v>4.5465757143228966</v>
       </c>
     </row>
     <row r="469">
@@ -5217,10 +5217,10 @@
         <v>0.15985648068669528</v>
       </c>
       <c r="B469" s="0">
-        <v>0.038677670565019182</v>
+        <v>0.035459388919983043</v>
       </c>
       <c r="C469" s="0">
-        <v>5.2906069776319065</v>
+        <v>4.4602326664768368</v>
       </c>
     </row>
     <row r="470">
@@ -5228,10 +5228,10 @@
         <v>0.16019805436337625</v>
       </c>
       <c r="B470" s="0">
-        <v>0.038336096888338209</v>
+        <v>0.03511781524330207</v>
       </c>
       <c r="C470" s="0">
-        <v>5.1975738451626921</v>
+        <v>4.3747173583676968</v>
       </c>
     </row>
     <row r="471">
@@ -5239,10 +5239,10 @@
         <v>0.16053962804005723</v>
       </c>
       <c r="B471" s="0">
-        <v>0.037994523211657236</v>
+        <v>0.034776241566621097</v>
       </c>
       <c r="C471" s="0">
-        <v>5.1053659591438576</v>
+        <v>4.2900297899954785</v>
       </c>
     </row>
     <row r="472">
@@ -5250,10 +5250,10 @@
         <v>0.1608812017167382</v>
       </c>
       <c r="B472" s="0">
-        <v>0.037652949534976263</v>
+        <v>0.034434667889940124</v>
       </c>
       <c r="C472" s="0">
-        <v>5.0139833195754022</v>
+        <v>4.2061699613601791</v>
       </c>
     </row>
     <row r="473">
@@ -5261,10 +5261,10 @@
         <v>0.16122277539341917</v>
       </c>
       <c r="B473" s="0">
-        <v>0.03731137585829529</v>
+        <v>0.034093094213259151</v>
       </c>
       <c r="C473" s="0">
-        <v>4.9234259264573295</v>
+        <v>4.1231378724618004</v>
       </c>
     </row>
     <row r="474">
@@ -5272,10 +5272,10 @@
         <v>0.16156434907010014</v>
       </c>
       <c r="B474" s="0">
-        <v>0.036969802181614317</v>
+        <v>0.033751520536578178</v>
       </c>
       <c r="C474" s="0">
-        <v>4.8336937797896376</v>
+        <v>4.0409335233003434</v>
       </c>
     </row>
     <row r="475">
@@ -5283,10 +5283,10 @@
         <v>0.16190592274678112</v>
       </c>
       <c r="B475" s="0">
-        <v>0.036628228504933344</v>
+        <v>0.033409946859897205</v>
       </c>
       <c r="C475" s="0">
-        <v>4.7447868795723238</v>
+        <v>3.9595569138758053</v>
       </c>
     </row>
     <row r="476">
@@ -5294,10 +5294,10 @@
         <v>0.16224749642346209</v>
       </c>
       <c r="B476" s="0">
-        <v>0.036286654828252371</v>
+        <v>0.033068373183216232</v>
       </c>
       <c r="C476" s="0">
-        <v>4.6567052258053918</v>
+        <v>3.879008044188188</v>
       </c>
     </row>
     <row r="477">
@@ -5305,10 +5305,10 @@
         <v>0.16258907010014306</v>
       </c>
       <c r="B477" s="0">
-        <v>0.035945081151571398</v>
+        <v>0.032726799506535259</v>
       </c>
       <c r="C477" s="0">
-        <v>4.5694488184888416</v>
+        <v>3.799286914237491</v>
       </c>
     </row>
     <row r="478">
@@ -5316,10 +5316,10 @@
         <v>0.16293064377682404</v>
       </c>
       <c r="B478" s="0">
-        <v>0.035603507474890425</v>
+        <v>0.032385225829854286</v>
       </c>
       <c r="C478" s="0">
-        <v>4.4830176576226695</v>
+        <v>3.7203935240237138</v>
       </c>
     </row>
     <row r="479">
@@ -5327,10 +5327,10 @@
         <v>0.16327221745350501</v>
       </c>
       <c r="B479" s="0">
-        <v>0.035261933798209459</v>
+        <v>0.032043652153173313</v>
       </c>
       <c r="C479" s="0">
-        <v>4.3974117432068818</v>
+        <v>3.6423278735468574</v>
       </c>
     </row>
     <row r="480">
@@ -5338,10 +5338,10 @@
         <v>0.16361379113018598</v>
       </c>
       <c r="B480" s="0">
-        <v>0.034920360121528486</v>
+        <v>0.03170207847649234</v>
       </c>
       <c r="C480" s="0">
-        <v>4.3126310752414705</v>
+        <v>3.5650899628069217</v>
       </c>
     </row>
     <row r="481">
@@ -5349,10 +5349,10 @@
         <v>0.16395536480686695</v>
       </c>
       <c r="B481" s="0">
-        <v>0.034578786444847513</v>
+        <v>0.031360504799811367</v>
       </c>
       <c r="C481" s="0">
-        <v>4.2286756537264418</v>
+        <v>3.4886797918039054</v>
       </c>
     </row>
     <row r="482">
@@ -5360,10 +5360,10 @@
         <v>0.16429693848354793</v>
       </c>
       <c r="B482" s="0">
-        <v>0.03423721276816654</v>
+        <v>0.031018931123130394</v>
       </c>
       <c r="C482" s="0">
-        <v>4.145545478661794</v>
+        <v>3.4130973605378103</v>
       </c>
     </row>
     <row r="483">
@@ -5371,10 +5371,10 @@
         <v>0.1646385121602289</v>
       </c>
       <c r="B483" s="0">
-        <v>0.033895639091485567</v>
+        <v>0.030677357446449421</v>
       </c>
       <c r="C483" s="0">
-        <v>4.0632405500475244</v>
+        <v>3.3383426690086355</v>
       </c>
     </row>
     <row r="484">
@@ -5382,10 +5382,10 @@
         <v>0.16498008583690987</v>
       </c>
       <c r="B484" s="0">
-        <v>0.033554065414804595</v>
+        <v>0.030335783769768448</v>
       </c>
       <c r="C484" s="0">
-        <v>3.9817608678836374</v>
+        <v>3.2644157172163801</v>
       </c>
     </row>
     <row r="485">
@@ -5393,10 +5393,10 @@
         <v>0.16532165951359085</v>
       </c>
       <c r="B485" s="0">
-        <v>0.033212491738123622</v>
+        <v>0.029994210093087476</v>
       </c>
       <c r="C485" s="0">
-        <v>3.9011064321701299</v>
+        <v>3.1913165051610459</v>
       </c>
     </row>
     <row r="486">
@@ -5404,10 +5404,10 @@
         <v>0.16566323319027182</v>
       </c>
       <c r="B486" s="0">
-        <v>0.032870918061442649</v>
+        <v>0.029652636416406503</v>
       </c>
       <c r="C486" s="0">
-        <v>3.8212772429070041</v>
+        <v>3.119045032842632</v>
       </c>
     </row>
     <row r="487">
@@ -5415,10 +5415,10 @@
         <v>0.16600480686695279</v>
       </c>
       <c r="B487" s="0">
-        <v>0.032529344384761676</v>
+        <v>0.02931106273972553</v>
       </c>
       <c r="C487" s="0">
-        <v>3.7422733000942574</v>
+        <v>3.0476013002611375</v>
       </c>
     </row>
     <row r="488">
@@ -5426,10 +5426,10 @@
         <v>0.16634638054363377</v>
       </c>
       <c r="B488" s="0">
-        <v>0.032187770708080703</v>
+        <v>0.028969489063044557</v>
       </c>
       <c r="C488" s="0">
-        <v>3.664094603731892</v>
+        <v>2.9769853074165642</v>
       </c>
     </row>
     <row r="489">
@@ -5437,10 +5437,10 @@
         <v>0.16668795422031474</v>
       </c>
       <c r="B489" s="0">
-        <v>0.03184619703139973</v>
+        <v>0.028627915386363584</v>
       </c>
       <c r="C489" s="0">
-        <v>3.5867411538199074</v>
+        <v>2.9071970543089107</v>
       </c>
     </row>
     <row r="490">
@@ -5448,10 +5448,10 @@
         <v>0.16702952789699571</v>
       </c>
       <c r="B490" s="0">
-        <v>0.031504623354718757</v>
+        <v>0.028286341709682611</v>
       </c>
       <c r="C490" s="0">
-        <v>3.5102129503583028</v>
+        <v>2.838236540938178</v>
       </c>
     </row>
     <row r="491">
@@ -5459,10 +5459,10 @@
         <v>0.16737110157367668</v>
       </c>
       <c r="B491" s="0">
-        <v>0.031163049678037784</v>
+        <v>0.027944768033001638</v>
       </c>
       <c r="C491" s="0">
-        <v>3.4345099933470786</v>
+        <v>2.7701037673043656</v>
       </c>
     </row>
     <row r="492">
@@ -5470,10 +5470,10 @@
         <v>0.16771267525035766</v>
       </c>
       <c r="B492" s="0">
-        <v>0.030821476001356811</v>
+        <v>0.027603194356320665</v>
       </c>
       <c r="C492" s="0">
-        <v>3.3596322827862362</v>
+        <v>2.702798733407473</v>
       </c>
     </row>
     <row r="493">
@@ -5481,10 +5481,10 @@
         <v>0.16805424892703863</v>
       </c>
       <c r="B493" s="0">
-        <v>0.030479902324675838</v>
+        <v>0.027261620679639692</v>
       </c>
       <c r="C493" s="0">
-        <v>3.2855798186757728</v>
+        <v>2.6363214392475012</v>
       </c>
     </row>
     <row r="494">
@@ -5492,10 +5492,10 @@
         <v>0.1683958226037196</v>
       </c>
       <c r="B494" s="0">
-        <v>0.030138328647994865</v>
+        <v>0.026920047002958719</v>
       </c>
       <c r="C494" s="0">
-        <v>3.2123526010156907</v>
+        <v>2.5706718848244501</v>
       </c>
     </row>
     <row r="495">
@@ -5503,10 +5503,10 @@
         <v>0.16873739628040058</v>
       </c>
       <c r="B495" s="0">
-        <v>0.029796754971313892</v>
+        <v>0.026578473326277746</v>
       </c>
       <c r="C495" s="0">
-        <v>3.1399506298059885</v>
+        <v>2.5058500701383184</v>
       </c>
     </row>
     <row r="496">
@@ -5514,10 +5514,10 @@
         <v>0.16907896995708155</v>
       </c>
       <c r="B496" s="0">
-        <v>0.029455181294632919</v>
+        <v>0.026236899649596773</v>
       </c>
       <c r="C496" s="0">
-        <v>3.0683739050466681</v>
+        <v>2.4418559951891079</v>
       </c>
     </row>
     <row r="497">
@@ -5525,10 +5525,10 @@
         <v>0.16942054363376252</v>
       </c>
       <c r="B497" s="0">
-        <v>0.029113607617951946</v>
+        <v>0.0258953259729158</v>
       </c>
       <c r="C497" s="0">
-        <v>2.9976224267377272</v>
+        <v>2.3786896599768173</v>
       </c>
     </row>
     <row r="498">
@@ -5536,10 +5536,10 @@
         <v>0.16976211731044349</v>
       </c>
       <c r="B498" s="0">
-        <v>0.028772033941270973</v>
+        <v>0.025553752296234827</v>
       </c>
       <c r="C498" s="0">
-        <v>2.9276961948791667</v>
+        <v>2.3163510645014469</v>
       </c>
     </row>
     <row r="499">
@@ -5547,10 +5547,10 @@
         <v>0.17010369098712447</v>
       </c>
       <c r="B499" s="0">
-        <v>0.02843046026459</v>
+        <v>0.025212178619553855</v>
       </c>
       <c r="C499" s="0">
-        <v>2.8585952094709879</v>
+        <v>2.2548402087629973</v>
       </c>
     </row>
     <row r="500">
@@ -5558,10 +5558,10 @@
         <v>0.17044526466380544</v>
       </c>
       <c r="B500" s="0">
-        <v>0.028088886587909027</v>
+        <v>0.024870604942872881</v>
       </c>
       <c r="C500" s="0">
-        <v>2.7903194705131886</v>
+        <v>2.194157092761468</v>
       </c>
     </row>
     <row r="501">
@@ -5569,10 +5569,10 @@
         <v>0.17078683834048641</v>
       </c>
       <c r="B501" s="0">
-        <v>0.027747312911228054</v>
+        <v>0.024529031266191909</v>
       </c>
       <c r="C501" s="0">
-        <v>2.7228689780057698</v>
+        <v>2.1343017164968581</v>
       </c>
     </row>
     <row r="502">
@@ -5580,10 +5580,10 @@
         <v>0.17112841201716739</v>
       </c>
       <c r="B502" s="0">
-        <v>0.027405739234547082</v>
+        <v>0.024187457589510936</v>
       </c>
       <c r="C502" s="0">
-        <v>2.6562437319487327</v>
+        <v>2.0752740799691693</v>
       </c>
     </row>
     <row r="503">
@@ -5591,10 +5591,10 @@
         <v>0.17146998569384836</v>
       </c>
       <c r="B503" s="0">
-        <v>0.027064165557866109</v>
+        <v>0.023845883912829963</v>
       </c>
       <c r="C503" s="0">
-        <v>2.590443732342075</v>
+        <v>2.0170741831784009</v>
       </c>
     </row>
     <row r="504">
@@ -5602,10 +5602,10 @@
         <v>0.17181155937052931</v>
       </c>
       <c r="B504" s="0">
-        <v>0.026722591881185164</v>
+        <v>0.023504310236149018</v>
       </c>
       <c r="C504" s="0">
-        <v>2.5254689791858036</v>
+        <v>1.9597020261245575</v>
       </c>
     </row>
     <row r="505">
@@ -5613,10 +5613,10 @@
         <v>0.1721531330472103</v>
       </c>
       <c r="B505" s="0">
-        <v>0.026381018204504163</v>
+        <v>0.023162736559468017</v>
       </c>
       <c r="C505" s="0">
-        <v>2.4613194724799019</v>
+        <v>1.9031576088076247</v>
       </c>
     </row>
     <row r="506">
@@ -5624,10 +5624,10 @@
         <v>0.17249470672389128</v>
       </c>
       <c r="B506" s="0">
-        <v>0.02603944452782319</v>
+        <v>0.022821162882787044</v>
       </c>
       <c r="C506" s="0">
-        <v>2.3979952122243859</v>
+        <v>1.8474409312276172</v>
       </c>
     </row>
     <row r="507">
@@ -5635,10 +5635,10 @@
         <v>0.17283628040057225</v>
       </c>
       <c r="B507" s="0">
-        <v>0.025697870851142217</v>
+        <v>0.022479589206106071</v>
       </c>
       <c r="C507" s="0">
-        <v>2.3354961984192508</v>
+        <v>1.7925519933845298</v>
       </c>
     </row>
     <row r="508">
@@ -5646,10 +5646,10 @@
         <v>0.17317785407725322</v>
       </c>
       <c r="B508" s="0">
-        <v>0.025356297174461244</v>
+        <v>0.022138015529425098</v>
       </c>
       <c r="C508" s="0">
-        <v>2.2738224310644961</v>
+        <v>1.7384907952783628</v>
       </c>
     </row>
     <row r="509">
@@ -5657,10 +5657,10 @@
         <v>0.1735194277539342</v>
       </c>
       <c r="B509" s="0">
-        <v>0.025014723497780271</v>
+        <v>0.021796441852744125</v>
       </c>
       <c r="C509" s="0">
-        <v>2.2129739101601222</v>
+        <v>1.6852573369091166</v>
       </c>
     </row>
     <row r="510">
@@ -5668,10 +5668,10 @@
         <v>0.17386100143061517</v>
       </c>
       <c r="B510" s="0">
-        <v>0.024673149821099298</v>
+        <v>0.021454868176063152</v>
       </c>
       <c r="C510" s="0">
-        <v>2.1529506357061283</v>
+        <v>1.6328516182767898</v>
       </c>
     </row>
     <row r="511">
@@ -5679,10 +5679,10 @@
         <v>0.17420257510729614</v>
       </c>
       <c r="B511" s="0">
-        <v>0.024331576144418325</v>
+        <v>0.021113294499382179</v>
       </c>
       <c r="C511" s="0">
-        <v>2.0937526077025153</v>
+        <v>1.581273639381384</v>
       </c>
     </row>
     <row r="512">
@@ -5690,10 +5690,10 @@
         <v>0.17454414878397712</v>
       </c>
       <c r="B512" s="0">
-        <v>0.023990002467737352</v>
+        <v>0.020772919151017873</v>
       </c>
       <c r="C512" s="0">
-        <v>2.035379826149283</v>
+        <v>1.5306999982476399</v>
       </c>
     </row>
     <row r="513">
@@ -5701,10 +5701,10 @@
         <v>0.17488572246065809</v>
       </c>
       <c r="B513" s="0">
-        <v>0.023648428791056379</v>
+        <v>0.02044985516922055</v>
       </c>
       <c r="C513" s="0">
-        <v>1.977832291046431</v>
+        <v>1.4834588137532161</v>
       </c>
     </row>
     <row r="514">
@@ -5712,10 +5712,10 @@
         <v>0.17522729613733906</v>
       </c>
       <c r="B514" s="0">
-        <v>0.023306855114375406</v>
+        <v>0.020147600702264807</v>
       </c>
       <c r="C514" s="0">
-        <v>1.9211100023939596</v>
+        <v>1.4399310288890419</v>
       </c>
     </row>
     <row r="515">
@@ -5723,10 +5723,10 @@
         <v>0.17556886981402003</v>
       </c>
       <c r="B515" s="0">
-        <v>0.022965281437694433</v>
+        <v>0.019864423685212886</v>
       </c>
       <c r="C515" s="0">
-        <v>1.865212960191869</v>
+        <v>1.3997386651998181</v>
       </c>
     </row>
     <row r="516">
@@ -5734,10 +5734,10 @@
         <v>0.17591044349070101</v>
       </c>
       <c r="B516" s="0">
-        <v>0.02262370776101346</v>
+        <v>0.019598871862365627</v>
       </c>
       <c r="C516" s="0">
-        <v>1.8101411644401586</v>
+        <v>1.3625648053726305</v>
       </c>
     </row>
     <row r="517">
@@ -5745,10 +5745,10 @@
         <v>0.17625201716738198</v>
       </c>
       <c r="B517" s="0">
-        <v>0.022282134084332487</v>
+        <v>0.019349714528047575</v>
       </c>
       <c r="C517" s="0">
-        <v>1.7558946151388286</v>
+        <v>1.328140879667397</v>
       </c>
     </row>
     <row r="518">
@@ -5756,10 +5756,10 @@
         <v>0.17659359084406295</v>
       </c>
       <c r="B518" s="0">
-        <v>0.021940560407651515</v>
+        <v>0.019115899165902325</v>
       </c>
       <c r="C518" s="0">
-        <v>1.7024733122878799</v>
+        <v>1.2962372035625409</v>
       </c>
     </row>
     <row r="519">
@@ -5767,10 +5767,10 @@
         <v>0.17693516452074393</v>
       </c>
       <c r="B519" s="0">
-        <v>0.021598986730970542</v>
+        <v>0.018896518578305627</v>
       </c>
       <c r="C519" s="0">
-        <v>1.6498772558873109</v>
+        <v>1.2666558045980283</v>
       </c>
     </row>
     <row r="520">
@@ -5778,10 +5778,10 @@
         <v>0.17727673819742487</v>
       </c>
       <c r="B520" s="0">
-        <v>0.021257413054289597</v>
+        <v>0.018690785563225305</v>
       </c>
       <c r="C520" s="0">
-        <v>1.598106445937127</v>
+        <v>1.2392248962538237</v>
       </c>
     </row>
     <row r="521">
@@ -5789,10 +5789,10 @@
         <v>0.17761831187410585</v>
       </c>
       <c r="B521" s="0">
-        <v>0.020915839377608624</v>
+        <v>0.018498013126213277</v>
       </c>
       <c r="C521" s="0">
-        <v>1.5471608824373193</v>
+        <v>1.2137945597280284</v>
       </c>
     </row>
     <row r="522">
@@ -5800,10 +5800,10 @@
         <v>0.17795988555078685</v>
       </c>
       <c r="B522" s="0">
-        <v>0.020574265700927623</v>
+        <v>0.018317598821689447</v>
       </c>
       <c r="C522" s="0">
-        <v>1.4970405653878882</v>
+        <v>1.1902333268263485</v>
       </c>
     </row>
     <row r="523">
@@ -5811,10 +5811,10 @@
         <v>0.17830145922746782</v>
       </c>
       <c r="B523" s="0">
-        <v>0.02023269202424665</v>
+        <v>0.018149012222483114</v>
       </c>
       <c r="C523" s="0">
-        <v>1.4477454947888415</v>
+        <v>1.1684254455130117</v>
       </c>
     </row>
     <row r="524">
@@ -5822,10 +5822,10 @@
         <v>0.17864303290414879</v>
       </c>
       <c r="B524" s="0">
-        <v>0.019891118347565677</v>
+        <v>0.017991784792574538</v>
       </c>
       <c r="C524" s="0">
-        <v>1.3992756706401754</v>
+        <v>1.14826866989808</v>
       </c>
     </row>
     <row r="525">
@@ -5833,10 +5833,10 @@
         <v>0.17898460658082976</v>
       </c>
       <c r="B525" s="0">
-        <v>0.019557374160750256</v>
+        <v>0.017845501629747358</v>
       </c>
       <c r="C525" s="0">
-        <v>1.352713952032121</v>
+        <v>1.1296724582845186</v>
       </c>
     </row>
     <row r="526">
@@ -5844,10 +5844,10 @@
         <v>0.17932618025751074</v>
       </c>
       <c r="B526" s="0">
-        <v>0.019251799864001044</v>
+        <v>0.017709794680437915</v>
       </c>
       <c r="C526" s="0">
-        <v>1.3107732108533399</v>
+        <v>1.1125564924842342</v>
       </c>
     </row>
     <row r="527">
@@ -5855,10 +5855,10 @@
         <v>0.17966775393419171</v>
       </c>
       <c r="B527" s="0">
-        <v>0.01897243091532843</v>
+        <v>0.0175843371264396</v>
       </c>
       <c r="C527" s="0">
-        <v>1.2730071430686627</v>
+        <v>1.0968494528612221</v>
       </c>
     </row>
     <row r="528">
@@ -5866,10 +5866,10 @@
         <v>0.18000932761087268</v>
       </c>
       <c r="B528" s="0">
-        <v>0.018716607359913914</v>
+        <v>0.017468838714072555</v>
       </c>
       <c r="C528" s="0">
-        <v>1.2389082354466845</v>
+        <v>1.0824879990434411</v>
       </c>
     </row>
     <row r="529">
@@ -5877,10 +5877,10 @@
         <v>0.18035090128755366</v>
       </c>
       <c r="B529" s="0">
-        <v>0.018482201149175006</v>
+        <v>0.017363041848826435</v>
       </c>
       <c r="C529" s="0">
-        <v>1.2080704612364333</v>
+        <v>1.0694159176794216</v>
       </c>
     </row>
     <row r="530">
@@ -5888,10 +5888,10 @@
         <v>0.18069247496423463</v>
       </c>
       <c r="B530" s="0">
-        <v>0.018267482407991927</v>
+        <v>0.017266718317664468</v>
       </c>
       <c r="C530" s="0">
-        <v>1.1801637642633229</v>
+        <v>1.0575834071657497</v>
       </c>
     </row>
     <row r="531">
@@ -5899,10 +5899,10 @@
         <v>0.1810340486409156</v>
       </c>
       <c r="B531" s="0">
-        <v>0.01807102670425904</v>
+        <v>0.017179666530820703</v>
       </c>
       <c r="C531" s="0">
-        <v>1.1549163661738941</v>
+        <v>1.046946475740524</v>
       </c>
     </row>
     <row r="532">
@@ -5910,10 +5910,10 @@
         <v>0.18137562231759658</v>
       </c>
       <c r="B532" s="0">
-        <v>0.017891648949697928</v>
+        <v>0.017101709197603669</v>
       </c>
       <c r="C532" s="0">
-        <v>1.1321021548637238</v>
+        <v>1.0374664342875115</v>
       </c>
     </row>
     <row r="533">
@@ -5921,10 +5921,10 @@
         <v>0.18171719599427755</v>
       </c>
       <c r="B533" s="0">
-        <v>0.017728355172388972</v>
+        <v>0.017032691368264147</v>
       </c>
       <c r="C533" s="0">
-        <v>1.1115314827879201</v>
+        <v>1.0291094690243405</v>
       </c>
     </row>
     <row r="534">
@@ -5932,10 +5932,10 @@
         <v>0.18205876967095852</v>
       </c>
       <c r="B534" s="0">
-        <v>0.017580306626523004</v>
+        <v>0.016972478787703214</v>
       </c>
       <c r="C534" s="0">
-        <v>1.0930443191846919</v>
+        <v>1.0218462822417849</v>
       </c>
     </row>
     <row r="535">
@@ -5943,10 +5943,10 @@
         <v>0.18240034334763949</v>
       </c>
       <c r="B535" s="0">
-        <v>0.017446792633013509</v>
+        <v>0.016920956517643186</v>
       </c>
       <c r="C535" s="0">
-        <v>1.0765050681269259</v>
+        <v>1.0156517916281438</v>
       </c>
     </row>
     <row r="536">
@@ -5954,10 +5954,10 @@
         <v>0.18274191702432044</v>
       </c>
       <c r="B536" s="0">
-        <v>0.017327209737494464</v>
+        <v>0.016878027792560067</v>
       </c>
       <c r="C536" s="0">
-        <v>1.0617985919163517</v>
+        <v>1.0105048806060377</v>
       </c>
     </row>
     <row r="537">
@@ -5965,10 +5965,10 @@
         <v>0.18308349070100141</v>
       </c>
       <c r="B537" s="0">
-        <v>0.017221045532727824</v>
+        <v>0.016843613081705181</v>
       </c>
       <c r="C537" s="0">
-        <v>1.0488271244362801</v>
+        <v>1.0063881936428434</v>
       </c>
     </row>
     <row r="538">
@@ -5976,10 +5976,10 @@
         <v>0.18342506437768241</v>
       </c>
       <c r="B538" s="0">
-        <v>0.017127865990407491</v>
+        <v>0.016817649335320838</v>
       </c>
       <c r="C538" s="0">
-        <v>1.0375078540890796</v>
+        <v>1.0032879717567231</v>
       </c>
     </row>
     <row r="539">
@@ -5987,10 +5987,10 @@
         <v>0.18376663805436336</v>
       </c>
       <c r="B539" s="0">
-        <v>0.017047305481366189</v>
+        <v>0.016800089397983303</v>
       </c>
       <c r="C539" s="0">
-        <v>1.0277710196747125</v>
+        <v>1.0011939244938763</v>
       </c>
     </row>
     <row r="540">
@@ -5998,10 +5998,10 @@
         <v>0.18410821173104436</v>
       </c>
       <c r="B540" s="0">
-        <v>0.016979058892281344</v>
+        <v>0.016790901576122543</v>
       </c>
       <c r="C540" s="0">
-        <v>1.0195584062764427</v>
+        <v>1.0000991355508882</v>
       </c>
     </row>
     <row r="541">
@@ -6009,10 +6009,10 @@
         <v>0.1844497854077253</v>
       </c>
       <c r="B541" s="0">
-        <v>0.016922875407447295</v>
+        <v>0.016790069350360572</v>
       </c>
       <c r="C541" s="0">
-        <v>1.0128221588373401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -6020,10 +6020,10 @@
         <v>0.1847913590844063</v>
       </c>
       <c r="B542" s="0">
-        <v>0.016878553638951126</v>
+        <v>0.016797591226533674</v>
       </c>
       <c r="C542" s="0">
-        <v>1.0075238530090907</v>
+        <v>1.0008961917785562</v>
       </c>
     </row>
     <row r="543">
@@ -6031,10 +6031,10 @@
         <v>0.18513293276108725</v>
       </c>
       <c r="B543" s="0">
-        <v>0.016845937872474688</v>
+        <v>0.016813480722249807</v>
       </c>
       <c r="C543" s="0">
-        <v>1.0036337788596941</v>
+        <v>1.0027906607555042</v>
       </c>
     </row>
     <row r="544">
@@ -6042,10 +6042,10 @@
         <v>0.18547450643776825</v>
       </c>
       <c r="B544" s="0">
-        <v>0.016824915258751072</v>
+        <v>0.016837766488698079</v>
       </c>
       <c r="C544" s="0">
-        <v>1.0011304050098524</v>
+        <v>1.0056896593131683</v>
       </c>
     </row>
     <row r="545">
@@ -6053,10 +6053,10 @@
         <v>0.18581608011444919</v>
       </c>
       <c r="B545" s="0">
-        <v>0.016815413829091033</v>
+        <v>0.016870492570281764</v>
       </c>
       <c r="C545" s="0">
-        <v>1</v>
+        <v>1.0096027990054535</v>
       </c>
     </row>
     <row r="546">
@@ -6064,10 +6064,10 @@
         <v>0.1861576537911302</v>
       </c>
       <c r="B546" s="0">
-        <v>0.016817401252019679</v>
+        <v>0.016911718807599691</v>
       </c>
       <c r="C546" s="0">
-        <v>1.0002363950594551</v>
+        <v>1.0145431384981252</v>
       </c>
     </row>
     <row r="547">
@@ -6075,10 +6075,10 @@
         <v>0.18649922746781114</v>
       </c>
       <c r="B547" s="0">
-        <v>0.016830884280314366</v>
+        <v>0.016961521392466539</v>
       </c>
       <c r="C547" s="0">
-        <v>1.0018408786025299</v>
+        <v>1.0205273046876666</v>
       </c>
     </row>
     <row r="548">
@@ -6086,10 +6086,10 @@
         <v>0.18684080114449214</v>
       </c>
       <c r="B548" s="0">
-        <v>0.016855908866209912</v>
+        <v>0.017019993587170552</v>
       </c>
       <c r="C548" s="0">
-        <v>1.0048222182094169</v>
+        <v>1.027575649660698</v>
       </c>
     </row>
     <row r="549">
@@ -6097,10 +6097,10 @@
         <v>0.18718237482117312</v>
       </c>
       <c r="B549" s="0">
-        <v>0.016892560949387119</v>
+        <v>0.017087246624164661</v>
       </c>
       <c r="C549" s="0">
-        <v>1.0091968109725817</v>
+        <v>1.0357124470283423</v>
       </c>
     </row>
     <row r="550">
@@ -6108,10 +6108,10 @@
         <v>0.18752394849785409</v>
       </c>
       <c r="B550" s="0">
-        <v>0.016940967949546477</v>
+        <v>0.017163410807056748</v>
       </c>
       <c r="C550" s="0">
-        <v>1.0149889682763722</v>
+        <v>1.0449661321889241</v>
       </c>
     </row>
     <row r="551">
@@ -6119,10 +6119,10 @@
         <v>0.18786552217453506</v>
       </c>
       <c r="B551" s="0">
-        <v>0.017001301024890489</v>
+        <v>0.017245316919631895</v>
       </c>
       <c r="C551" s="0">
-        <v>1.0222313467102255</v>
+        <v>1.0549633682890272</v>
       </c>
     </row>
     <row r="552">
@@ -6130,10 +6130,10 @@
         <v>0.18820709585121601</v>
       </c>
       <c r="B552" s="0">
-        <v>0.017073778191968762</v>
+        <v>0.017327321504063888</v>
       </c>
       <c r="C552" s="0">
-        <v>1.0309655433279068</v>
+        <v>1.065020304056056</v>
       </c>
     </row>
     <row r="553">
@@ -6141,10 +6141,10 @@
         <v>0.18854866952789701</v>
       </c>
       <c r="B553" s="0">
-        <v>0.017155326088495893</v>
+        <v>0.017409326088495894</v>
       </c>
       <c r="C553" s="0">
-        <v>1.0408372712715537</v>
+        <v>1.0751249489292374</v>
       </c>
     </row>
     <row r="554">
@@ -6152,10 +6152,10 @@
         <v>0.18889024320457795</v>
       </c>
       <c r="B554" s="0">
-        <v>0.017237330672927886</v>
+        <v>0.017491330672927887</v>
       </c>
       <c r="C554" s="0">
-        <v>1.0508117162260091</v>
+        <v>1.0852773029085678</v>
       </c>
     </row>
     <row r="555">
@@ -6163,10 +6163,10 @@
         <v>0.18923181688125895</v>
       </c>
       <c r="B555" s="0">
-        <v>0.017319335257359892</v>
+        <v>0.017573335257359893</v>
       </c>
       <c r="C555" s="0">
-        <v>1.0608337265790395</v>
+        <v>1.0954773659940507</v>
       </c>
     </row>
     <row r="556">
@@ -6174,10 +6174,10 @@
         <v>0.1895733905579399</v>
       </c>
       <c r="B556" s="0">
-        <v>0.017401339841791891</v>
+        <v>0.017655339841791892</v>
       </c>
       <c r="C556" s="0">
-        <v>1.0709033023306429</v>
+        <v>1.1057251381856841</v>
       </c>
     </row>
     <row r="557">
@@ -6185,10 +6185,10 @@
         <v>0.1899149642346209</v>
       </c>
       <c r="B557" s="0">
-        <v>0.017483344426223898</v>
+        <v>0.017737344426223899</v>
       </c>
       <c r="C557" s="0">
-        <v>1.0810204434808204</v>
+        <v>1.1160206194834688</v>
       </c>
     </row>
     <row r="558">
@@ -6196,10 +6196,10 @@
         <v>0.19025653791130184</v>
       </c>
       <c r="B558" s="0">
-        <v>0.01756534901065589</v>
+        <v>0.017819349010655891</v>
       </c>
       <c r="C558" s="0">
-        <v>1.09118515002957</v>
+        <v>1.1263638098874023</v>
       </c>
     </row>
     <row r="559">
@@ -6207,10 +6207,10 @@
         <v>0.19059811158798284</v>
       </c>
       <c r="B559" s="0">
-        <v>0.017647353595087897</v>
+        <v>0.017901353595087898</v>
       </c>
       <c r="C559" s="0">
-        <v>1.1013974219768949</v>
+        <v>1.1367547093974883</v>
       </c>
     </row>
     <row r="560">
@@ -6218,10 +6218,10 @@
         <v>0.19093968526466379</v>
       </c>
       <c r="B560" s="0">
-        <v>0.017729358179519889</v>
+        <v>0.01798335817951989</v>
       </c>
       <c r="C560" s="0">
-        <v>1.1116572593227914</v>
+        <v>1.1471933180137235</v>
       </c>
     </row>
     <row r="561">
@@ -6229,10 +6229,10 @@
         <v>0.19128125894134479</v>
       </c>
       <c r="B561" s="0">
-        <v>0.017811362763951903</v>
+        <v>0.018065362763951903</v>
       </c>
       <c r="C561" s="0">
-        <v>1.1219646620672643</v>
+        <v>1.1576796357361123</v>
       </c>
     </row>
     <row r="562">
@@ -6240,10 +6240,10 @@
         <v>0.19162283261802573</v>
       </c>
       <c r="B562" s="0">
-        <v>0.017893367348383895</v>
+        <v>0.018147367348383896</v>
       </c>
       <c r="C562" s="0">
-        <v>1.132319630210308</v>
+        <v>1.1682136625646489</v>
       </c>
     </row>
     <row r="563">
@@ -6251,10 +6251,10 @@
         <v>0.19196440629470674</v>
       </c>
       <c r="B563" s="0">
-        <v>0.017975371932815901</v>
+        <v>0.018229371932815902</v>
       </c>
       <c r="C563" s="0">
-        <v>1.1427221637519267</v>
+        <v>1.1787953984993385</v>
       </c>
     </row>
     <row r="564">
@@ -6262,10 +6262,10 @@
         <v>0.19230597997138768</v>
       </c>
       <c r="B564" s="0">
-        <v>0.018057376517247894</v>
+        <v>0.018311376517247895</v>
       </c>
       <c r="C564" s="0">
-        <v>1.1531722626921177</v>
+        <v>1.1894248435401771</v>
       </c>
     </row>
     <row r="565">
@@ -6273,10 +6273,10 @@
         <v>0.19264755364806868</v>
       </c>
       <c r="B565" s="0">
-        <v>0.0181393811016799</v>
+        <v>0.018393381101679901</v>
       </c>
       <c r="C565" s="0">
-        <v>1.1636699270308839</v>
+        <v>1.2001019976871681</v>
       </c>
     </row>
     <row r="566">
@@ -6284,10 +6284,10 @@
         <v>0.19298912732474966</v>
       </c>
       <c r="B566" s="0">
-        <v>0.018221385686111907</v>
+        <v>0.018475385686111907</v>
       </c>
       <c r="C566" s="0">
-        <v>1.1742151567682233</v>
+        <v>1.2108268609403099</v>
       </c>
     </row>
     <row r="567">
@@ -6295,10 +6295,10 @@
         <v>0.19333070100143063</v>
       </c>
       <c r="B567" s="0">
-        <v>0.018303390270543906</v>
+        <v>0.018557390270543907</v>
       </c>
       <c r="C567" s="0">
-        <v>1.1848079519041357</v>
+        <v>1.2215994332996016</v>
       </c>
     </row>
     <row r="568">
@@ -6306,10 +6306,10 @@
         <v>0.1936722746781116</v>
       </c>
       <c r="B568" s="0">
-        <v>0.018385394854975905</v>
+        <v>0.018639394854975906</v>
       </c>
       <c r="C568" s="0">
-        <v>1.1954483124386213</v>
+        <v>1.232419714765044</v>
       </c>
     </row>
     <row r="569">
@@ -6317,10 +6317,10 @@
         <v>0.19401384835479255</v>
       </c>
       <c r="B569" s="0">
-        <v>0.018467399439407898</v>
+        <v>0.018721399439407899</v>
       </c>
       <c r="C569" s="0">
-        <v>1.2061362383716796</v>
+        <v>1.2432877053366362</v>
       </c>
     </row>
     <row r="570">
@@ -6328,10 +6328,10 @@
         <v>0.19435542203147355</v>
       </c>
       <c r="B570" s="0">
-        <v>0.018549404023839904</v>
+        <v>0.018803404023839905</v>
       </c>
       <c r="C570" s="0">
-        <v>1.2168717297033136</v>
+        <v>1.2542034050143813</v>
       </c>
     </row>
     <row r="571">
@@ -6339,10 +6339,10 @@
         <v>0.19469699570815449</v>
       </c>
       <c r="B571" s="0">
-        <v>0.018631408608271904</v>
+        <v>0.018885408608271904</v>
       </c>
       <c r="C571" s="0">
-        <v>1.2276547864335199</v>
+        <v>1.2651668137982766</v>
       </c>
     </row>
     <row r="572">
@@ -6350,10 +6350,10 @@
         <v>0.19503856938483549</v>
       </c>
       <c r="B572" s="0">
-        <v>0.01871341319270391</v>
+        <v>0.018967413192703911</v>
       </c>
       <c r="C572" s="0">
-        <v>1.2384854085623009</v>
+        <v>1.2761779316883231</v>
       </c>
     </row>
     <row r="573">
@@ -6361,10 +6361,10 @@
         <v>0.19538014306151644</v>
       </c>
       <c r="B573" s="0">
-        <v>0.018795417777135903</v>
+        <v>0.019049417777135903</v>
       </c>
       <c r="C573" s="0">
-        <v>1.2493635960896536</v>
+        <v>1.2872367586845186</v>
       </c>
     </row>
     <row r="574">
@@ -6372,10 +6372,10 @@
         <v>0.19572171673819744</v>
       </c>
       <c r="B574" s="0">
-        <v>0.018877422361567909</v>
+        <v>0.01913142236156791</v>
       </c>
       <c r="C574" s="0">
-        <v>1.2602893490155813</v>
+        <v>1.2983432947868667</v>
       </c>
     </row>
     <row r="575">
@@ -6383,10 +6383,10 @@
         <v>0.19606329041487838</v>
       </c>
       <c r="B575" s="0">
-        <v>0.018959426945999901</v>
+        <v>0.019213426945999902</v>
       </c>
       <c r="C575" s="0">
-        <v>1.2712626673400811</v>
+        <v>1.3094975399953637</v>
       </c>
     </row>
     <row r="576">
@@ -6394,10 +6394,10 @@
         <v>0.19640486409155938</v>
       </c>
       <c r="B576" s="0">
-        <v>0.019041431530431908</v>
+        <v>0.019295431530431909</v>
       </c>
       <c r="C576" s="0">
-        <v>1.2822835510631563</v>
+        <v>1.3206994943100134</v>
       </c>
     </row>
     <row r="577">
@@ -6405,10 +6405,10 @@
         <v>0.19674643776824033</v>
       </c>
       <c r="B577" s="0">
-        <v>0.019123436114863907</v>
+        <v>0.019377436114863908</v>
       </c>
       <c r="C577" s="0">
-        <v>1.2933520001848036</v>
+        <v>1.3319491577308131</v>
       </c>
     </row>
     <row r="578">
@@ -6416,10 +6416,10 @@
         <v>0.19708801144492133</v>
       </c>
       <c r="B578" s="0">
-        <v>0.019205440699295914</v>
+        <v>0.019459440699295914</v>
       </c>
       <c r="C578" s="0">
-        <v>1.3044680147050261</v>
+        <v>1.3432465302577645</v>
       </c>
     </row>
     <row r="579">
@@ -6427,10 +6427,10 @@
         <v>0.19742958512160227</v>
       </c>
       <c r="B579" s="0">
-        <v>0.019287445283727906</v>
+        <v>0.019541445283727907</v>
       </c>
       <c r="C579" s="0">
-        <v>1.31563159462382</v>
+        <v>1.3545916118908652</v>
       </c>
     </row>
     <row r="580">
@@ -6438,10 +6438,10 @@
         <v>0.19777115879828328</v>
       </c>
       <c r="B580" s="0">
-        <v>0.019369449868159913</v>
+        <v>0.019623449868159913</v>
       </c>
       <c r="C580" s="0">
-        <v>1.3268427399411888</v>
+        <v>1.3659844026301182</v>
       </c>
     </row>
     <row r="581">
@@ -6449,10 +6449,10 @@
         <v>0.19811273247496422</v>
       </c>
       <c r="B581" s="0">
-        <v>0.019451454452591905</v>
+        <v>0.019705454452591906</v>
       </c>
       <c r="C581" s="0">
-        <v>1.3381014506571298</v>
+        <v>1.3774249024755199</v>
       </c>
     </row>
     <row r="582">
@@ -6460,10 +6460,10 @@
         <v>0.19845430615164522</v>
       </c>
       <c r="B582" s="0">
-        <v>0.019533459037023918</v>
+        <v>0.019787459037023919</v>
       </c>
       <c r="C582" s="0">
-        <v>1.3494077267716469</v>
+        <v>1.3889131114270756</v>
       </c>
     </row>
     <row r="583">
@@ -6471,10 +6471,10 @@
         <v>0.19879587982832617</v>
       </c>
       <c r="B583" s="0">
-        <v>0.019615463621455911</v>
+        <v>0.019869463621455911</v>
       </c>
       <c r="C583" s="0">
-        <v>1.3607615682847349</v>
+        <v>1.4004490294847789</v>
       </c>
     </row>
     <row r="584">
@@ -6482,10 +6482,10 @@
         <v>0.19913745350500714</v>
       </c>
       <c r="B584" s="0">
-        <v>0.01969746820588791</v>
+        <v>0.019951468205887911</v>
       </c>
       <c r="C584" s="0">
-        <v>1.3721629751963975</v>
+        <v>1.4120326566486341</v>
       </c>
     </row>
     <row r="585">
@@ -6493,10 +6493,10 @@
         <v>0.19947902718168814</v>
       </c>
       <c r="B585" s="0">
-        <v>0.019779472790319917</v>
+        <v>0.020033472790319917</v>
       </c>
       <c r="C585" s="0">
-        <v>1.3836119475066342</v>
+        <v>1.423663992918641</v>
       </c>
     </row>
     <row r="586">
@@ -6504,10 +6504,10 @@
         <v>0.19982060085836909</v>
       </c>
       <c r="B586" s="0">
-        <v>0.019861477374751909</v>
+        <v>0.02011547737475191</v>
       </c>
       <c r="C586" s="0">
-        <v>1.395108485215443</v>
+        <v>1.4353430382947974</v>
       </c>
     </row>
     <row r="587">
@@ -6515,10 +6515,10 @@
         <v>0.20016217453505009</v>
       </c>
       <c r="B587" s="0">
-        <v>0.019943481959183922</v>
+        <v>0.020197481959183923</v>
       </c>
       <c r="C587" s="0">
-        <v>1.4066525883228283</v>
+        <v>1.4470697927771063</v>
       </c>
     </row>
     <row r="588">
@@ -6526,10 +6526,10 @@
         <v>0.20050374821173103</v>
       </c>
       <c r="B588" s="0">
-        <v>0.020025486543615915</v>
+        <v>0.020279486543615916</v>
       </c>
       <c r="C588" s="0">
-        <v>1.4182442568287839</v>
+        <v>1.4588442563655642</v>
       </c>
     </row>
     <row r="589">
@@ -6537,10 +6537,10 @@
         <v>0.20084532188841203</v>
       </c>
       <c r="B589" s="0">
-        <v>0.020107491128047921</v>
+        <v>0.020361491128047922</v>
       </c>
       <c r="C589" s="0">
-        <v>1.4298834907333147</v>
+        <v>1.4706664290601745</v>
       </c>
     </row>
     <row r="590">
@@ -6548,10 +6548,10 @@
         <v>0.20118689556509298</v>
       </c>
       <c r="B590" s="0">
-        <v>0.020189495712479914</v>
+        <v>0.020443495712479914</v>
       </c>
       <c r="C590" s="0">
-        <v>1.4415702900364176</v>
+        <v>1.4825363108609333</v>
       </c>
     </row>
     <row r="591">
@@ -6559,10 +6559,10 @@
         <v>0.20152846924177398</v>
       </c>
       <c r="B591" s="0">
-        <v>0.02027150029691192</v>
+        <v>0.020525500296911921</v>
       </c>
       <c r="C591" s="0">
-        <v>1.4533046547380954</v>
+        <v>1.4944539017678451</v>
       </c>
     </row>
     <row r="592">
@@ -6570,10 +6570,10 @@
         <v>0.20187004291845492</v>
       </c>
       <c r="B592" s="0">
-        <v>0.02035350488134392</v>
+        <v>0.02060750488134392</v>
       </c>
       <c r="C592" s="0">
-        <v>1.4650865848383465</v>
+        <v>1.5064192017809066</v>
       </c>
     </row>
     <row r="593">
@@ -6581,10 +6581,10 @@
         <v>0.20221161659513592</v>
       </c>
       <c r="B593" s="0">
-        <v>0.020435509465775926</v>
+        <v>0.020689509465775927</v>
       </c>
       <c r="C593" s="0">
-        <v>1.4769160803371719</v>
+        <v>1.51843221090012</v>
       </c>
     </row>
     <row r="594">
@@ -6592,10 +6592,10 @@
         <v>0.20255319027181687</v>
       </c>
       <c r="B594" s="0">
-        <v>0.020517514050207918</v>
+        <v>0.020771514050207919</v>
       </c>
       <c r="C594" s="0">
-        <v>1.4887931412345685</v>
+        <v>1.5304929291254821</v>
       </c>
     </row>
     <row r="595">
@@ -6603,10 +6603,10 @@
         <v>0.20289476394849787</v>
       </c>
       <c r="B595" s="0">
-        <v>0.020599518634639925</v>
+        <v>0.020853518634639925</v>
       </c>
       <c r="C595" s="0">
-        <v>1.500717767530541</v>
+        <v>1.5426013564569976</v>
       </c>
     </row>
     <row r="596">
@@ -6614,10 +6614,10 @@
         <v>0.20323633762517882</v>
       </c>
       <c r="B596" s="0">
-        <v>0.020681523219071917</v>
+        <v>0.020935523219071918</v>
       </c>
       <c r="C596" s="0">
-        <v>1.5126899592250851</v>
+        <v>1.5547574928946613</v>
       </c>
     </row>
     <row r="597">
@@ -6625,10 +6625,10 @@
         <v>0.20357791130185982</v>
       </c>
       <c r="B597" s="0">
-        <v>0.020763527803503923</v>
+        <v>0.021017527803503924</v>
       </c>
       <c r="C597" s="0">
-        <v>1.5247097163182044</v>
+        <v>1.5669613384384777</v>
       </c>
     </row>
     <row r="598">
@@ -6636,10 +6636,10 @@
         <v>0.20391948497854076</v>
       </c>
       <c r="B598" s="0">
-        <v>0.020845532387935923</v>
+        <v>0.021099532387935924</v>
       </c>
       <c r="C598" s="0">
-        <v>1.5367770388098965</v>
+        <v>1.5792128930884442</v>
       </c>
     </row>
     <row r="599">
@@ -6647,10 +6647,10 @@
         <v>0.20426105865522176</v>
       </c>
       <c r="B599" s="0">
-        <v>0.020927536972367929</v>
+        <v>0.02118153697236793</v>
       </c>
       <c r="C599" s="0">
-        <v>1.5488919267001633</v>
+        <v>1.5915121568445623</v>
       </c>
     </row>
     <row r="600">
@@ -6658,10 +6658,10 @@
         <v>0.20460263233190271</v>
       </c>
       <c r="B600" s="0">
-        <v>0.021009541556799922</v>
+        <v>0.021263541556799923</v>
       </c>
       <c r="C600" s="0">
-        <v>1.5610543799890009</v>
+        <v>1.6038591297068292</v>
       </c>
     </row>
     <row r="601">
@@ -6669,10 +6669,10 @@
         <v>0.20494420600858368</v>
       </c>
       <c r="B601" s="0">
-        <v>0.021091546141231921</v>
+        <v>0.021345546141231922</v>
       </c>
       <c r="C601" s="0">
-        <v>1.5732643986764137</v>
+        <v>1.6162538116752479</v>
       </c>
     </row>
     <row r="602">
@@ -6680,10 +6680,10 @@
         <v>0.20528577968526468</v>
       </c>
       <c r="B602" s="0">
-        <v>0.021173550725663928</v>
+        <v>0.021427550725663928</v>
       </c>
       <c r="C602" s="0">
-        <v>1.5855219827624012</v>
+        <v>1.6286962027498184</v>
       </c>
     </row>
     <row r="603">
@@ -6691,10 +6691,10 @@
         <v>0.20562735336194563</v>
       </c>
       <c r="B603" s="0">
-        <v>0.021255555310095927</v>
+        <v>0.021509555310095928</v>
       </c>
       <c r="C603" s="0">
-        <v>1.5978271322469606</v>
+        <v>1.6411863029305394</v>
       </c>
     </row>
     <row r="604">
@@ -6702,10 +6702,10 @@
         <v>0.20596892703862663</v>
       </c>
       <c r="B604" s="0">
-        <v>0.021337559894527933</v>
+        <v>0.021591559894527934</v>
       </c>
       <c r="C604" s="0">
-        <v>1.6101798471300952</v>
+        <v>1.6537241122174116</v>
       </c>
     </row>
     <row r="605">
@@ -6713,10 +6713,10 @@
         <v>0.20631050071530757</v>
       </c>
       <c r="B605" s="0">
-        <v>0.021419564478959926</v>
+        <v>0.021673564478959927</v>
       </c>
       <c r="C605" s="0">
-        <v>1.622580127411801</v>
+        <v>1.6663096306104321</v>
       </c>
     </row>
     <row r="606">
@@ -6724,10 +6724,10 @@
         <v>0.20665207439198857</v>
       </c>
       <c r="B606" s="0">
-        <v>0.021501569063391932</v>
+        <v>0.021755569063391933</v>
       </c>
       <c r="C606" s="0">
-        <v>1.635027973092082</v>
+        <v>1.678942858109606</v>
       </c>
     </row>
     <row r="607">
@@ -6735,10 +6735,10 @@
         <v>0.20699364806866952</v>
       </c>
       <c r="B607" s="0">
-        <v>0.021583573647823925</v>
+        <v>0.021837573647823926</v>
       </c>
       <c r="C607" s="0">
-        <v>1.6475233841709349</v>
+        <v>1.6916237947149284</v>
       </c>
     </row>
     <row r="608">
@@ -6746,10 +6746,10 @@
         <v>0.20733522174535052</v>
       </c>
       <c r="B608" s="0">
-        <v>0.021665578232255938</v>
+        <v>0.021919578232255939</v>
       </c>
       <c r="C608" s="0">
-        <v>1.6600663606483643</v>
+        <v>1.704352440426405</v>
       </c>
     </row>
     <row r="609">
@@ -6757,10 +6757,10 @@
         <v>0.20767679542203146</v>
       </c>
       <c r="B609" s="0">
-        <v>0.021747582816687931</v>
+        <v>0.022001582816687931</v>
       </c>
       <c r="C609" s="0">
-        <v>1.6726569025243643</v>
+        <v>1.7171287952440288</v>
       </c>
     </row>
     <row r="610">
@@ -6768,10 +6768,10 @@
         <v>0.20801836909871246</v>
       </c>
       <c r="B610" s="0">
-        <v>0.021829587401119937</v>
+        <v>0.022083587401119938</v>
       </c>
       <c r="C610" s="0">
-        <v>1.6852950097989401</v>
+        <v>1.7299528591678057</v>
       </c>
     </row>
     <row r="611">
@@ -6779,10 +6779,10 @@
         <v>0.20835994277539341</v>
       </c>
       <c r="B611" s="0">
-        <v>0.021911591985551929</v>
+        <v>0.02216559198555193</v>
       </c>
       <c r="C611" s="0">
-        <v>1.6979806824720873</v>
+        <v>1.7428246321977319</v>
       </c>
     </row>
     <row r="612">
@@ -6790,10 +6790,10 @@
         <v>0.20870151645207441</v>
       </c>
       <c r="B612" s="0">
-        <v>0.021993596569983936</v>
+        <v>0.022247596569983936</v>
       </c>
       <c r="C612" s="0">
-        <v>1.7107139205438096</v>
+        <v>1.7557441143338106</v>
       </c>
     </row>
     <row r="613">
@@ -6801,10 +6801,10 @@
         <v>0.20904309012875536</v>
       </c>
       <c r="B613" s="0">
-        <v>0.022075601154415935</v>
+        <v>0.022329601154415936</v>
       </c>
       <c r="C613" s="0">
-        <v>1.723494724014105</v>
+        <v>1.7687113055760388</v>
       </c>
     </row>
     <row r="614">
@@ -6812,10 +6812,10 @@
         <v>0.20938466380543636</v>
       </c>
       <c r="B614" s="0">
-        <v>0.022157605738847942</v>
+        <v>0.022411605738847942</v>
       </c>
       <c r="C614" s="0">
-        <v>1.7363230928829743</v>
+        <v>1.781726205924419</v>
       </c>
     </row>
     <row r="615">
@@ -6823,10 +6823,10 @@
         <v>0.2097262374821173</v>
       </c>
       <c r="B615" s="0">
-        <v>0.022239610323279934</v>
+        <v>0.022493610323279935</v>
       </c>
       <c r="C615" s="0">
-        <v>1.7491990271504157</v>
+        <v>1.7947888153789475</v>
       </c>
     </row>
     <row r="616">
@@ -6834,10 +6834,10 @@
         <v>0.21006781115879827</v>
       </c>
       <c r="B616" s="0">
-        <v>0.022321614907711933</v>
+        <v>0.022575614907711934</v>
       </c>
       <c r="C616" s="0">
-        <v>1.7621225268164316</v>
+        <v>1.8078991339396282</v>
       </c>
     </row>
     <row r="617">
@@ -6845,10 +6845,10 @@
         <v>0.21040938483547925</v>
       </c>
       <c r="B617" s="0">
-        <v>0.022403619492143933</v>
+        <v>0.022657619492143934</v>
       </c>
       <c r="C617" s="0">
-        <v>1.7750935918810205</v>
+        <v>1.8210571616064597</v>
       </c>
     </row>
     <row r="618">
@@ -6856,10 +6856,10 @@
         <v>0.21075095851216022</v>
       </c>
       <c r="B618" s="0">
-        <v>0.022485624076575939</v>
+        <v>0.02273962407657594</v>
       </c>
       <c r="C618" s="0">
-        <v>1.7881122223441846</v>
+        <v>1.8342628983794431</v>
       </c>
     </row>
     <row r="619">
@@ -6867,10 +6867,10 @@
         <v>0.21109253218884122</v>
       </c>
       <c r="B619" s="0">
-        <v>0.022567628661007946</v>
+        <v>0.022821628661007946</v>
       </c>
       <c r="C619" s="0">
-        <v>1.8011784182059223</v>
+        <v>1.8475163442585774</v>
       </c>
     </row>
     <row r="620">
@@ -6878,10 +6878,10 @@
         <v>0.21143410586552217</v>
       </c>
       <c r="B620" s="0">
-        <v>0.022649633245439938</v>
+        <v>0.022903633245439939</v>
       </c>
       <c r="C620" s="0">
-        <v>1.8142921794662308</v>
+        <v>1.8608174992438604</v>
       </c>
     </row>
     <row r="621">
@@ -6889,10 +6889,10 @@
         <v>0.21177567954220317</v>
       </c>
       <c r="B621" s="0">
-        <v>0.022731637829871945</v>
+        <v>0.022985637829871945</v>
       </c>
       <c r="C621" s="0">
-        <v>1.8274535061251156</v>
+        <v>1.8741663633352963</v>
       </c>
     </row>
     <row r="622">
@@ -6900,10 +6900,10 @@
         <v>0.21211725321888411</v>
       </c>
       <c r="B622" s="0">
-        <v>0.022813642414303937</v>
+        <v>0.023067642414303938</v>
       </c>
       <c r="C622" s="0">
-        <v>1.8406623981825716</v>
+        <v>1.8875629365328806</v>
       </c>
     </row>
     <row r="623">
@@ -6911,10 +6911,10 @@
         <v>0.21245882689556511</v>
       </c>
       <c r="B623" s="0">
-        <v>0.022895646998735943</v>
+        <v>0.023149646998735944</v>
       </c>
       <c r="C623" s="0">
-        <v>1.8539188556386028</v>
+        <v>1.9010072188366178</v>
       </c>
     </row>
     <row r="624">
@@ -6922,10 +6922,10 @@
         <v>0.21280040057224606</v>
       </c>
       <c r="B624" s="0">
-        <v>0.022977651583167943</v>
+        <v>0.023231651583167943</v>
       </c>
       <c r="C624" s="0">
-        <v>1.867222878493207</v>
+        <v>1.9144992102465048</v>
       </c>
     </row>
     <row r="625">
@@ -6933,10 +6933,10 @@
         <v>0.21314197424892706</v>
       </c>
       <c r="B625" s="0">
-        <v>0.023059656167599949</v>
+        <v>0.02331365616759995</v>
       </c>
       <c r="C625" s="0">
-        <v>1.8805744667463855</v>
+        <v>1.928038910762544</v>
       </c>
     </row>
     <row r="626">
@@ -6944,10 +6944,10 @@
         <v>0.213483547925608</v>
       </c>
       <c r="B626" s="0">
-        <v>0.023141660752031942</v>
+        <v>0.023395660752031942</v>
       </c>
       <c r="C626" s="0">
-        <v>1.8939736203981357</v>
+        <v>1.9416263203847319</v>
       </c>
     </row>
     <row r="627">
@@ -6955,10 +6955,10 @@
         <v>0.213825121602289</v>
       </c>
       <c r="B627" s="0">
-        <v>0.023223665336463948</v>
+        <v>0.023477665336463949</v>
       </c>
       <c r="C627" s="0">
-        <v>1.9074203394484617</v>
+        <v>1.9552614391130725</v>
       </c>
     </row>
     <row r="628">
@@ -6966,10 +6966,10 @@
         <v>0.21416669527896995</v>
       </c>
       <c r="B628" s="0">
-        <v>0.02330566992089594</v>
+        <v>0.023559669920895941</v>
       </c>
       <c r="C628" s="0">
-        <v>1.9209146238973589</v>
+        <v>1.9689442669475614</v>
       </c>
     </row>
     <row r="629">
@@ -6977,10 +6977,10 @@
         <v>0.21450826895565095</v>
       </c>
       <c r="B629" s="0">
-        <v>0.023387674505327954</v>
+        <v>0.023641674505327955</v>
       </c>
       <c r="C629" s="0">
-        <v>1.9344564737448329</v>
+        <v>1.9826748038882049</v>
       </c>
     </row>
     <row r="630">
@@ -6988,10 +6988,10 @@
         <v>0.2148498426323319</v>
       </c>
       <c r="B630" s="0">
-        <v>0.023469679089759946</v>
+        <v>0.023723679089759947</v>
       </c>
       <c r="C630" s="0">
-        <v>1.9480458889908772</v>
+        <v>1.9964530499349955</v>
       </c>
     </row>
     <row r="631">
@@ -6999,10 +6999,10 @@
         <v>0.2151914163090129</v>
       </c>
       <c r="B631" s="0">
-        <v>0.023551683674191953</v>
+        <v>0.023805683674191953</v>
       </c>
       <c r="C631" s="0">
-        <v>1.9616828696354967</v>
+        <v>2.0102790050879391</v>
       </c>
     </row>
     <row r="632">
@@ -7010,10 +7010,10 @@
         <v>0.21553298998569384</v>
       </c>
       <c r="B632" s="0">
-        <v>0.023633688258623945</v>
+        <v>0.023887688258623946</v>
       </c>
       <c r="C632" s="0">
-        <v>1.975367415678688</v>
+        <v>2.0241526693470315</v>
       </c>
     </row>
     <row r="633">
@@ -7021,10 +7021,10 @@
         <v>0.21587456366237481</v>
       </c>
       <c r="B633" s="0">
-        <v>0.023715692843055945</v>
+        <v>0.023969692843055945</v>
       </c>
       <c r="C633" s="0">
-        <v>1.9890995271204544</v>
+        <v>2.0380740427122763</v>
       </c>
     </row>
     <row r="634">
@@ -7032,10 +7032,10 @@
         <v>0.21621613733905579</v>
       </c>
       <c r="B634" s="0">
-        <v>0.023797697427487951</v>
+        <v>0.024051697427487952</v>
       </c>
       <c r="C634" s="0">
-        <v>2.0028792039607946</v>
+        <v>2.0520431251836726</v>
       </c>
     </row>
     <row r="635">
@@ -7043,10 +7043,10 @@
         <v>0.21655771101573676</v>
       </c>
       <c r="B635" s="0">
-        <v>0.02387970201191995</v>
+        <v>0.024133702011919951</v>
       </c>
       <c r="C635" s="0">
-        <v>2.016706446199708</v>
+        <v>2.0660599167612182</v>
       </c>
     </row>
     <row r="636">
@@ -7054,10 +7054,10 @@
         <v>0.21689928469241773</v>
       </c>
       <c r="B636" s="0">
-        <v>0.02396170659635195</v>
+        <v>0.024215706596351951</v>
       </c>
       <c r="C636" s="0">
-        <v>2.0305812538371946</v>
+        <v>2.0801244174449147</v>
       </c>
     </row>
     <row r="637">
@@ -7065,10 +7065,10 @@
         <v>0.21724085836909871</v>
       </c>
       <c r="B637" s="0">
-        <v>0.024043711180783949</v>
+        <v>0.02429771118078395</v>
       </c>
       <c r="C637" s="0">
-        <v>2.0445036268732544</v>
+        <v>2.0942366272347619</v>
       </c>
     </row>
     <row r="638">
@@ -7076,10 +7076,10 @@
         <v>0.21758243204577971</v>
       </c>
       <c r="B638" s="0">
-        <v>0.024125715765215956</v>
+        <v>0.024379715765215956</v>
       </c>
       <c r="C638" s="0">
-        <v>2.0584735653078892</v>
+        <v>2.1083965461307614</v>
       </c>
     </row>
     <row r="639">
@@ -7087,10 +7087,10 @@
         <v>0.21792400572246065</v>
       </c>
       <c r="B639" s="0">
-        <v>0.024207720349647955</v>
+        <v>0.024461720349647956</v>
       </c>
       <c r="C639" s="0">
-        <v>2.0724910691410967</v>
+        <v>2.1226041741329103</v>
       </c>
     </row>
     <row r="640">
@@ -7098,10 +7098,10 @@
         <v>0.21826557939914165</v>
       </c>
       <c r="B640" s="0">
-        <v>0.024289724934079961</v>
+        <v>0.024543724934079962</v>
       </c>
       <c r="C640" s="0">
-        <v>2.0865561383728784</v>
+        <v>2.1368595112412114</v>
       </c>
     </row>
     <row r="641">
@@ -7109,10 +7109,10 @@
         <v>0.2186071530758226</v>
       </c>
       <c r="B641" s="0">
-        <v>0.024371729518511954</v>
+        <v>0.024625729518511955</v>
       </c>
       <c r="C641" s="0">
-        <v>2.1006687730032314</v>
+        <v>2.1511625574556605</v>
       </c>
     </row>
     <row r="642">
@@ -7120,10 +7120,10 @@
         <v>0.2189487267525036</v>
       </c>
       <c r="B642" s="0">
-        <v>0.02445373410294396</v>
+        <v>0.024707734102943961</v>
       </c>
       <c r="C642" s="0">
-        <v>2.1148289730321608</v>
+        <v>2.1655133127762634</v>
       </c>
     </row>
     <row r="643">
@@ -7131,10 +7131,10 @@
         <v>0.21929030042918454</v>
       </c>
       <c r="B643" s="0">
-        <v>0.024535738687375953</v>
+        <v>0.024789738687375953</v>
       </c>
       <c r="C643" s="0">
-        <v>2.1290367384596602</v>
+        <v>2.1799117772030145</v>
       </c>
     </row>
     <row r="644">
@@ -7142,10 +7142,10 @@
         <v>0.21963187410586554</v>
       </c>
       <c r="B644" s="0">
-        <v>0.024617743271807959</v>
+        <v>0.02487174327180796</v>
       </c>
       <c r="C644" s="0">
-        <v>2.1432920692857369</v>
+        <v>2.194357950735919</v>
       </c>
     </row>
     <row r="645">
@@ -7153,10 +7153,10 @@
         <v>0.21997344778254649</v>
       </c>
       <c r="B645" s="0">
-        <v>0.024699747856239958</v>
+        <v>0.024953747856239959</v>
       </c>
       <c r="C645" s="0">
-        <v>2.1575949655103854</v>
+        <v>2.2088518333749727</v>
       </c>
     </row>
     <row r="646">
@@ -7164,10 +7164,10 @@
         <v>0.22031502145922749</v>
       </c>
       <c r="B646" s="0">
-        <v>0.024781752440671965</v>
+        <v>0.025035752440671966</v>
       </c>
       <c r="C646" s="0">
-        <v>2.1719454271336081</v>
+        <v>2.2233934251201783</v>
       </c>
     </row>
     <row r="647">
@@ -7175,10 +7175,10 @@
         <v>0.22065659513590844</v>
       </c>
       <c r="B647" s="0">
-        <v>0.024863757025103957</v>
+        <v>0.025117757025103958</v>
       </c>
       <c r="C647" s="0">
-        <v>2.1863434541554026</v>
+        <v>2.2379827259715324</v>
       </c>
     </row>
     <row r="648">
@@ -7186,10 +7186,10 @@
         <v>0.22099816881258941</v>
       </c>
       <c r="B648" s="0">
-        <v>0.024945761609535957</v>
+        <v>0.025199761609535958</v>
       </c>
       <c r="C648" s="0">
-        <v>2.200789046575772</v>
+        <v>2.2526197359290387</v>
       </c>
     </row>
     <row r="649">
@@ -7197,10 +7197,10 @@
         <v>0.22133974248927038</v>
       </c>
       <c r="B649" s="0">
-        <v>0.025027766193967956</v>
+        <v>0.025281766193967957</v>
       </c>
       <c r="C649" s="0">
-        <v>2.2152822043947142</v>
+        <v>2.2673044549926962</v>
       </c>
     </row>
     <row r="650">
@@ -7208,10 +7208,10 @@
         <v>0.22168131616595135</v>
       </c>
       <c r="B650" s="0">
-        <v>0.025109770778399963</v>
+        <v>0.025363770778399963</v>
       </c>
       <c r="C650" s="0">
-        <v>2.2298229276122319</v>
+        <v>2.2820368831625051</v>
       </c>
     </row>
     <row r="651">
@@ -7219,10 +7219,10 @@
         <v>0.22202288984263233</v>
       </c>
       <c r="B651" s="0">
-        <v>0.025191775362831962</v>
+        <v>0.025445775362831963</v>
       </c>
       <c r="C651" s="0">
-        <v>2.244411216228321</v>
+        <v>2.2968170204384637</v>
       </c>
     </row>
     <row r="652">
@@ -7230,10 +7230,10 @@
         <v>0.2223644635193133</v>
       </c>
       <c r="B652" s="0">
-        <v>0.025273779947263962</v>
+        <v>0.025527779947263962</v>
       </c>
       <c r="C652" s="0">
-        <v>2.2590470702429846</v>
+        <v>2.3116448668205729</v>
       </c>
     </row>
     <row r="653">
@@ -7241,10 +7241,10 @@
         <v>0.22270603719599427</v>
       </c>
       <c r="B653" s="0">
-        <v>0.025355784531695961</v>
+        <v>0.025609784531695962</v>
       </c>
       <c r="C653" s="0">
-        <v>2.2737304896562214</v>
+        <v>2.3265204223088332</v>
       </c>
     </row>
     <row r="654">
@@ -7252,10 +7252,10 @@
         <v>0.22304761087267524</v>
       </c>
       <c r="B654" s="0">
-        <v>0.02543778911612796</v>
+        <v>0.025691789116127961</v>
       </c>
       <c r="C654" s="0">
-        <v>2.288461474468031</v>
+        <v>2.341443686903244</v>
       </c>
     </row>
     <row r="655">
@@ -7263,10 +7263,10 @@
         <v>0.22338918454935625</v>
       </c>
       <c r="B655" s="0">
-        <v>0.025519793700559974</v>
+        <v>0.025773793700559974</v>
       </c>
       <c r="C655" s="0">
-        <v>2.3032400246784177</v>
+        <v>2.3564146606038081</v>
       </c>
     </row>
     <row r="656">
@@ -7274,10 +7274,10 @@
         <v>0.22373075822603719</v>
       </c>
       <c r="B656" s="0">
-        <v>0.025601798284991966</v>
+        <v>0.025855798284991967</v>
       </c>
       <c r="C656" s="0">
-        <v>2.3180661402873741</v>
+        <v>2.3714333434105193</v>
       </c>
     </row>
     <row r="657">
@@ -7285,10 +7285,10 @@
         <v>0.22407233190271819</v>
       </c>
       <c r="B657" s="0">
-        <v>0.025683802869423972</v>
+        <v>0.025937802869423973</v>
       </c>
       <c r="C657" s="0">
-        <v>2.332939821294906</v>
+        <v>2.3864997353233841</v>
       </c>
     </row>
     <row r="658">
@@ -7296,10 +7296,10 @@
         <v>0.22441390557939914</v>
       </c>
       <c r="B658" s="0">
-        <v>0.025765807453855965</v>
+        <v>0.026019807453855966</v>
       </c>
       <c r="C658" s="0">
-        <v>2.3478610677010092</v>
+        <v>2.4016138363423973</v>
       </c>
     </row>
     <row r="659">
@@ -7307,10 +7307,10 @@
         <v>0.22475547925608014</v>
       </c>
       <c r="B659" s="0">
-        <v>0.025847812038287971</v>
+        <v>0.026101812038287972</v>
       </c>
       <c r="C659" s="0">
-        <v>2.3628298795056888</v>
+        <v>2.4167756464675634</v>
       </c>
     </row>
     <row r="660">
@@ -7318,10 +7318,10 @@
         <v>0.22509705293276108</v>
       </c>
       <c r="B660" s="0">
-        <v>0.025929816622719964</v>
+        <v>0.026183816622719965</v>
       </c>
       <c r="C660" s="0">
-        <v>2.3778462567089385</v>
+        <v>2.4319851656988778</v>
       </c>
     </row>
     <row r="661">
@@ -7329,10 +7329,10 @@
         <v>0.22543862660944208</v>
       </c>
       <c r="B661" s="0">
-        <v>0.026011821207151977</v>
+        <v>0.026265821207151978</v>
       </c>
       <c r="C661" s="0">
-        <v>2.3929101993107667</v>
+        <v>2.4472423940363472</v>
       </c>
     </row>
     <row r="662">
@@ -7340,10 +7340,10 @@
         <v>0.22578020028612303</v>
       </c>
       <c r="B662" s="0">
-        <v>0.02609382579158397</v>
+        <v>0.02634782579158397</v>
       </c>
       <c r="C662" s="0">
-        <v>2.4080217073111641</v>
+        <v>2.4625473314799629</v>
       </c>
     </row>
     <row r="663">
@@ -7351,10 +7351,10 @@
         <v>0.22612177396280403</v>
       </c>
       <c r="B663" s="0">
-        <v>0.026175830376015976</v>
+        <v>0.026429830376015977</v>
       </c>
       <c r="C663" s="0">
-        <v>2.4231807807101373</v>
+        <v>2.4778999780297322</v>
       </c>
     </row>
     <row r="664">
@@ -7362,10 +7362,10 @@
         <v>0.22646334763948497</v>
       </c>
       <c r="B664" s="0">
-        <v>0.026257834960447968</v>
+        <v>0.026511834960447969</v>
       </c>
       <c r="C664" s="0">
-        <v>2.4383874195076816</v>
+        <v>2.4933003336856499</v>
       </c>
     </row>
     <row r="665">
@@ -7373,10 +7373,10 @@
         <v>0.22680492131616595</v>
       </c>
       <c r="B665" s="0">
-        <v>0.026339839544879968</v>
+        <v>0.026593839544879969</v>
       </c>
       <c r="C665" s="0">
-        <v>2.4536416237038012</v>
+        <v>2.5087483984477199</v>
       </c>
     </row>
     <row r="666">
@@ -7384,10 +7384,10 @@
         <v>0.22714649499284692</v>
       </c>
       <c r="B666" s="0">
-        <v>0.026421844129311974</v>
+        <v>0.026675844129311975</v>
       </c>
       <c r="C666" s="0">
-        <v>2.468943393298495</v>
+        <v>2.5242441723159419</v>
       </c>
     </row>
     <row r="667">
@@ -7395,10 +7395,10 @@
         <v>0.22748806866952789</v>
       </c>
       <c r="B667" s="0">
-        <v>0.026503848713743974</v>
+        <v>0.026757848713743974</v>
       </c>
       <c r="C667" s="0">
-        <v>2.4842927282917615</v>
+        <v>2.5397876552903131</v>
       </c>
     </row>
     <row r="668">
@@ -7406,10 +7406,10 @@
         <v>0.22782964234620887</v>
       </c>
       <c r="B668" s="0">
-        <v>0.026585853298175973</v>
+        <v>0.026839853298175974</v>
       </c>
       <c r="C668" s="0">
-        <v>2.4996896286836017</v>
+        <v>2.555378847370835</v>
       </c>
     </row>
     <row r="669">
@@ -7417,10 +7417,10 @@
         <v>0.22817121602288984</v>
       </c>
       <c r="B669" s="0">
-        <v>0.026667857882607972</v>
+        <v>0.026921857882607973</v>
       </c>
       <c r="C669" s="0">
-        <v>2.5151340944740146</v>
+        <v>2.5710177485575079</v>
       </c>
     </row>
     <row r="670">
@@ -7428,10 +7428,10 @@
         <v>0.22851278969957078</v>
       </c>
       <c r="B670" s="0">
-        <v>0.026749862467039965</v>
+        <v>0.027003862467039966</v>
       </c>
       <c r="C670" s="0">
-        <v>2.5306261256630003</v>
+        <v>2.58670435885033</v>
       </c>
     </row>
     <row r="671">
@@ -7439,10 +7439,10 @@
         <v>0.22885436337625178</v>
       </c>
       <c r="B671" s="0">
-        <v>0.026831867051471978</v>
+        <v>0.027085867051471979</v>
       </c>
       <c r="C671" s="0">
-        <v>2.5461657222505632</v>
+        <v>2.6024386782493072</v>
       </c>
     </row>
     <row r="672">
@@ -7450,10 +7450,10 @@
         <v>0.22919593705293279</v>
       </c>
       <c r="B672" s="0">
-        <v>0.026913871635903985</v>
+        <v>0.027167871635903985</v>
       </c>
       <c r="C672" s="0">
-        <v>2.5617528842366988</v>
+        <v>2.6182207067544341</v>
       </c>
     </row>
     <row r="673">
@@ -7461,10 +7461,10 @@
         <v>0.22953751072961373</v>
       </c>
       <c r="B673" s="0">
-        <v>0.026995876220335977</v>
+        <v>0.027249876220335978</v>
       </c>
       <c r="C673" s="0">
-        <v>2.577387611621405</v>
+        <v>2.6340504443657094</v>
       </c>
     </row>
     <row r="674">
@@ -7472,10 +7472,10 @@
         <v>0.22987908440629473</v>
       </c>
       <c r="B674" s="0">
-        <v>0.027077880804767984</v>
+        <v>0.027331880804767984</v>
       </c>
       <c r="C674" s="0">
-        <v>2.593069904404687</v>
+        <v>2.6499278910831374</v>
       </c>
     </row>
     <row r="675">
@@ -7483,10 +7483,10 @@
         <v>0.23022065808297568</v>
       </c>
       <c r="B675" s="0">
-        <v>0.027159885389199976</v>
+        <v>0.027413885389199977</v>
       </c>
       <c r="C675" s="0">
-        <v>2.6087997625865405</v>
+        <v>2.6658530469067139</v>
       </c>
     </row>
     <row r="676">
@@ -7494,10 +7494,10 @@
         <v>0.23056223175965668</v>
       </c>
       <c r="B676" s="0">
-        <v>0.027241889973631982</v>
+        <v>0.027495889973631983</v>
       </c>
       <c r="C676" s="0">
-        <v>2.6245771861669702</v>
+        <v>2.6818259118364436</v>
       </c>
     </row>
     <row r="677">
@@ -7505,10 +7505,10 @@
         <v>0.23090380543633762</v>
       </c>
       <c r="B677" s="0">
-        <v>0.027323894558063982</v>
+        <v>0.027577894558063983</v>
       </c>
       <c r="C677" s="0">
-        <v>2.6404021751459714</v>
+        <v>2.6978464858723226</v>
       </c>
     </row>
     <row r="678">
@@ -7516,10 +7516,10 @@
         <v>0.23124537911301862</v>
       </c>
       <c r="B678" s="0">
-        <v>0.027405899142495988</v>
+        <v>0.027659899142495989</v>
       </c>
       <c r="C678" s="0">
-        <v>2.6562747295235485</v>
+        <v>2.7139147690143539</v>
       </c>
     </row>
     <row r="679">
@@ -7527,10 +7527,10 @@
         <v>0.23158695278969957</v>
       </c>
       <c r="B679" s="0">
-        <v>0.027487903726927981</v>
+        <v>0.027741903726927981</v>
       </c>
       <c r="C679" s="0">
-        <v>2.6721948492996961</v>
+        <v>2.7300307612625336</v>
       </c>
     </row>
     <row r="680">
@@ -7538,10 +7538,10 @@
         <v>0.23192852646638054</v>
       </c>
       <c r="B680" s="0">
-        <v>0.02756990831135998</v>
+        <v>0.027823908311359981</v>
       </c>
       <c r="C680" s="0">
-        <v>2.6881625344744178</v>
+        <v>2.7461944626168648</v>
       </c>
     </row>
     <row r="681">
@@ -7549,10 +7549,10 @@
         <v>0.23227010014306151</v>
       </c>
       <c r="B681" s="0">
-        <v>0.02765191289579198</v>
+        <v>0.02790591289579198</v>
       </c>
       <c r="C681" s="0">
-        <v>2.704177785047714</v>
+        <v>2.762405873077348</v>
       </c>
     </row>
     <row r="682">
@@ -7560,10 +7560,10 @@
         <v>0.23261167381974249</v>
       </c>
       <c r="B682" s="0">
-        <v>0.027733917480223986</v>
+        <v>0.027987917480223987</v>
       </c>
       <c r="C682" s="0">
-        <v>2.7202406010195852</v>
+        <v>2.7786649926439826</v>
       </c>
     </row>
     <row r="683">
@@ -7571,10 +7571,10 @@
         <v>0.23295324749642346</v>
       </c>
       <c r="B683" s="0">
-        <v>0.027815922064655985</v>
+        <v>0.028069922064655986</v>
       </c>
       <c r="C683" s="0">
-        <v>2.7363509823900278</v>
+        <v>2.7949718213167665</v>
       </c>
     </row>
     <row r="684">
@@ -7582,10 +7582,10 @@
         <v>0.23329482117310443</v>
       </c>
       <c r="B684" s="0">
-        <v>0.027897926649087985</v>
+        <v>0.028151926649087985</v>
       </c>
       <c r="C684" s="0">
-        <v>2.7525089291590445</v>
+        <v>2.8113263590957014</v>
       </c>
     </row>
     <row r="685">
@@ -7593,10 +7593,10 @@
         <v>0.23363639484978541</v>
       </c>
       <c r="B685" s="0">
-        <v>0.027979931233519984</v>
+        <v>0.028233931233519985</v>
       </c>
       <c r="C685" s="0">
-        <v>2.7687144413266349</v>
+        <v>2.8277286059807869</v>
       </c>
     </row>
     <row r="686">
@@ -7604,10 +7604,10 @@
         <v>0.23397796852646638</v>
       </c>
       <c r="B686" s="0">
-        <v>0.028061935817951984</v>
+        <v>0.028315935817951984</v>
       </c>
       <c r="C686" s="0">
-        <v>2.784967518892798</v>
+        <v>2.8441785619720235</v>
       </c>
     </row>
     <row r="687">
@@ -7615,10 +7615,10 @@
         <v>0.23431954220314733</v>
       </c>
       <c r="B687" s="0">
-        <v>0.028143940402383983</v>
+        <v>0.028397940402383984</v>
       </c>
       <c r="C687" s="0">
-        <v>2.8012681618575353</v>
+        <v>2.8606762270694106</v>
       </c>
     </row>
     <row r="688">
@@ -7626,10 +7626,10 @@
         <v>0.23466111587982832</v>
       </c>
       <c r="B688" s="0">
-        <v>0.028225944986815989</v>
+        <v>0.02847994498681599</v>
       </c>
       <c r="C688" s="0">
-        <v>2.817616370220847</v>
+        <v>2.8772216012729497</v>
       </c>
     </row>
     <row r="689">
@@ -7637,10 +7637,10 @@
         <v>0.23500268955650927</v>
       </c>
       <c r="B689" s="0">
-        <v>0.028307949571247982</v>
+        <v>0.028561949571247983</v>
       </c>
       <c r="C689" s="0">
-        <v>2.8340121439827297</v>
+        <v>2.893814684582638</v>
       </c>
     </row>
     <row r="690">
@@ -7648,10 +7648,10 @@
         <v>0.23534426323319027</v>
       </c>
       <c r="B690" s="0">
-        <v>0.028389954155679988</v>
+        <v>0.028643954155679989</v>
       </c>
       <c r="C690" s="0">
-        <v>2.8504554831431892</v>
+        <v>2.9104554769984787</v>
       </c>
     </row>
     <row r="691">
@@ -7659,10 +7659,10 @@
         <v>0.23568583690987127</v>
       </c>
       <c r="B691" s="0">
-        <v>0.028471958740111995</v>
+        <v>0.028725958740111995</v>
       </c>
       <c r="C691" s="0">
-        <v>2.8669463877022214</v>
+        <v>2.9271439785204709</v>
       </c>
     </row>
     <row r="692">
@@ -7670,10 +7670,10 @@
         <v>0.23602741058655222</v>
       </c>
       <c r="B692" s="0">
-        <v>0.028553963324543994</v>
+        <v>0.028807963324543995</v>
       </c>
       <c r="C692" s="0">
-        <v>2.8834848576598264</v>
+        <v>2.9438801891486119</v>
       </c>
     </row>
     <row r="693">
@@ -7681,10 +7681,10 @@
         <v>0.23636898426323322</v>
       </c>
       <c r="B693" s="0">
-        <v>0.028635967908976</v>
+        <v>0.028889967908976001</v>
       </c>
       <c r="C693" s="0">
-        <v>2.9000708930160069</v>
+        <v>2.9606641088829053</v>
       </c>
     </row>
     <row r="694">
@@ -7692,10 +7692,10 @@
         <v>0.23671055793991416</v>
       </c>
       <c r="B694" s="0">
-        <v>0.028717972493407993</v>
+        <v>0.028971972493407994</v>
       </c>
       <c r="C694" s="0">
-        <v>2.9167044937707565</v>
+        <v>2.9774957377233466</v>
       </c>
     </row>
     <row r="695">
@@ -7703,10 +7703,10 @@
         <v>0.23705213161659516</v>
       </c>
       <c r="B695" s="0">
-        <v>0.028799977077839999</v>
+        <v>0.02905397707784</v>
       </c>
       <c r="C695" s="0">
-        <v>2.9333856599240837</v>
+        <v>2.9943750756699417</v>
       </c>
     </row>
     <row r="696">
@@ -7714,10 +7714,10 @@
         <v>0.23739370529327611</v>
       </c>
       <c r="B696" s="0">
-        <v>0.028881981662271992</v>
+        <v>0.029135981662271993</v>
       </c>
       <c r="C696" s="0">
-        <v>2.9501143914759815</v>
+        <v>3.011302122722685</v>
       </c>
     </row>
     <row r="697">
@@ -7725,10 +7725,10 @@
         <v>0.23773527896995708</v>
       </c>
       <c r="B697" s="0">
-        <v>0.028963986246703998</v>
+        <v>0.029217986246703999</v>
       </c>
       <c r="C697" s="0">
-        <v>2.9668906884264552</v>
+        <v>3.0282768788815817</v>
       </c>
     </row>
     <row r="698">
@@ -7736,10 +7736,10 @@
         <v>0.23807685264663805</v>
       </c>
       <c r="B698" s="0">
-        <v>0.029045990831135998</v>
+        <v>0.029299990831135998</v>
       </c>
       <c r="C698" s="0">
-        <v>2.9837145507755016</v>
+        <v>3.0452993441466276</v>
       </c>
     </row>
     <row r="699">
@@ -7747,10 +7747,10 @@
         <v>0.23841842632331903</v>
       </c>
       <c r="B699" s="0">
-        <v>0.029127995415567997</v>
+        <v>0.029381995415567998</v>
       </c>
       <c r="C699" s="0">
-        <v>3.0005859785231213</v>
+        <v>3.0623695185178241</v>
       </c>
     </row>
     <row r="700">
@@ -7758,10 +7758,10 @@
         <v>0.23876</v>
       </c>
       <c r="B700" s="0">
-        <v>0.029209999999999996</v>
+        <v>0.029463999999999997</v>
       </c>
       <c r="C700" s="0">
-        <v>3.0175049716693141</v>
+        <v>3.0794874019951717</v>
       </c>
     </row>
   </sheetData>

--- a/REGEN/Contour_Maelstrom.xlsx
+++ b/REGEN/Contour_Maelstrom.xlsx
@@ -72,7696 +72,7696 @@
         <v>0.043179999999999996</v>
       </c>
       <c r="C1" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.00034157367668097283</v>
+        <v>0.00034884120171673817</v>
       </c>
       <c r="B2" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C2" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.00068314735336194566</v>
+        <v>0.00069768240343347633</v>
       </c>
       <c r="B3" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C3" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0010247210300429186</v>
+        <v>0.0010465236051502146</v>
       </c>
       <c r="B4" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C4" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0013662947067238913</v>
+        <v>0.0013953648068669527</v>
       </c>
       <c r="B5" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C5" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.001707868383404864</v>
+        <v>0.0017442060085836907</v>
       </c>
       <c r="B6" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C6" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0020494420600858372</v>
+        <v>0.0020930472103004292</v>
       </c>
       <c r="B7" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C7" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0023910157367668097</v>
+        <v>0.002441888412017167</v>
       </c>
       <c r="B8" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C8" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0027325894134477826</v>
+        <v>0.0027907296137339053</v>
       </c>
       <c r="B9" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C9" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0030741630901287551</v>
+        <v>0.0031395708154506432</v>
       </c>
       <c r="B10" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C10" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0034157367668097281</v>
+        <v>0.0034884120171673814</v>
       </c>
       <c r="B11" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C11" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.003757310443490701</v>
+        <v>0.0038372532188841197</v>
       </c>
       <c r="B12" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C12" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0040988841201716744</v>
+        <v>0.0041860944206008584</v>
       </c>
       <c r="B13" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C13" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0044404577968526473</v>
+        <v>0.0045349356223175962</v>
       </c>
       <c r="B14" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C14" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0047820314735336194</v>
+        <v>0.0048837768240343341</v>
       </c>
       <c r="B15" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C15" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0051236051502145923</v>
+        <v>0.0052326180257510719</v>
       </c>
       <c r="B16" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C16" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0054651788268955653</v>
+        <v>0.0055814592274678106</v>
       </c>
       <c r="B17" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C17" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0058067525035765373</v>
+        <v>0.0059303004291845485</v>
       </c>
       <c r="B18" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C18" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0061483261802575103</v>
+        <v>0.0062791416309012863</v>
       </c>
       <c r="B19" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C19" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0064898998569384832</v>
+        <v>0.006627982832618025</v>
       </c>
       <c r="B20" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C20" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0068314735336194561</v>
+        <v>0.0069768240343347629</v>
       </c>
       <c r="B21" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C21" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0071730472103004291</v>
+        <v>0.0073256652360515016</v>
       </c>
       <c r="B22" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C22" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.007514620886981402</v>
+        <v>0.0076745064377682394</v>
       </c>
       <c r="B23" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C23" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0078561945636623758</v>
+        <v>0.0080233476394849772</v>
       </c>
       <c r="B24" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C24" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0081977682403433488</v>
+        <v>0.0083721888412017168</v>
       </c>
       <c r="B25" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C25" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0085393419170243217</v>
+        <v>0.0087210300429184529</v>
       </c>
       <c r="B26" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C26" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0088809155937052946</v>
+        <v>0.0090698712446351925</v>
       </c>
       <c r="B27" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C27" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0092224892703862658</v>
+        <v>0.0094187124463519303</v>
       </c>
       <c r="B28" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C28" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0095640629470672388</v>
+        <v>0.0097675536480686682</v>
       </c>
       <c r="B29" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C29" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0099056366237482117</v>
+        <v>0.010116394849785408</v>
       </c>
       <c r="B30" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C30" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.010247210300429185</v>
+        <v>0.010465236051502144</v>
       </c>
       <c r="B31" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C31" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.010588783977110158</v>
+        <v>0.010814077253218883</v>
       </c>
       <c r="B32" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C32" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.010930357653791131</v>
+        <v>0.011162918454935621</v>
       </c>
       <c r="B33" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C33" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.011271931330472103</v>
+        <v>0.011511759656652359</v>
       </c>
       <c r="B34" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C34" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.011613505007153075</v>
+        <v>0.011860600858369097</v>
       </c>
       <c r="B35" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C35" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.011955078683834049</v>
+        <v>0.012209442060085837</v>
       </c>
       <c r="B36" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C36" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.012296652360515021</v>
+        <v>0.012558283261802573</v>
       </c>
       <c r="B37" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C37" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.012638226037195995</v>
+        <v>0.012907124463519312</v>
       </c>
       <c r="B38" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C38" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.012979799713876966</v>
+        <v>0.01325596566523605</v>
       </c>
       <c r="B39" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C39" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.013321373390557941</v>
+        <v>0.013604806866952788</v>
       </c>
       <c r="B40" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C40" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.013662947067238912</v>
+        <v>0.013953648068669526</v>
       </c>
       <c r="B41" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C41" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.014004520743919887</v>
+        <v>0.014302489270386265</v>
       </c>
       <c r="B42" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C42" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.014346094420600858</v>
+        <v>0.014651330472103003</v>
       </c>
       <c r="B43" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C43" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.014687668097281829</v>
+        <v>0.015000171673819741</v>
       </c>
       <c r="B44" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C44" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.015029241773962804</v>
+        <v>0.015349012875536479</v>
       </c>
       <c r="B45" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C45" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.015370815450643775</v>
+        <v>0.015697854077253218</v>
       </c>
       <c r="B46" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C46" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.015712389127324752</v>
+        <v>0.016046695278969955</v>
       </c>
       <c r="B47" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C47" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.016053962804005721</v>
+        <v>0.016395536480686694</v>
       </c>
       <c r="B48" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C48" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.016395536480686698</v>
+        <v>0.016744377682403434</v>
       </c>
       <c r="B49" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C49" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.016737110157367667</v>
+        <v>0.01709321888412017</v>
       </c>
       <c r="B50" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C50" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.017078683834048643</v>
+        <v>0.017442060085836906</v>
       </c>
       <c r="B51" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C51" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.017420257510729613</v>
+        <v>0.017790901287553645</v>
       </c>
       <c r="B52" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C52" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.017761831187410589</v>
+        <v>0.018139742489270385</v>
       </c>
       <c r="B53" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C53" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.018103404864091559</v>
+        <v>0.018488583690987121</v>
       </c>
       <c r="B54" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C54" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.018444978540772532</v>
+        <v>0.018837424892703861</v>
       </c>
       <c r="B55" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C55" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.018786552217453505</v>
+        <v>0.0191862660944206</v>
       </c>
       <c r="B56" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C56" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.019128125894134478</v>
+        <v>0.019535107296137336</v>
       </c>
       <c r="B57" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C57" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.01946969957081545</v>
+        <v>0.019883948497854076</v>
       </c>
       <c r="B58" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C58" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.019811273247496423</v>
+        <v>0.020232789699570816</v>
       </c>
       <c r="B59" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C59" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.020152846924177396</v>
+        <v>0.020581630901287552</v>
       </c>
       <c r="B60" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C60" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.020494420600858369</v>
+        <v>0.020930472103004288</v>
       </c>
       <c r="B61" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C61" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.020835994277539342</v>
+        <v>0.021279313304721027</v>
       </c>
       <c r="B62" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C62" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.021177567954220315</v>
+        <v>0.021628154506437767</v>
       </c>
       <c r="B63" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C63" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.021519141630901288</v>
+        <v>0.021976995708154503</v>
       </c>
       <c r="B64" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C64" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.021860715307582261</v>
+        <v>0.022325836909871243</v>
       </c>
       <c r="B65" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C65" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.022202288984263231</v>
+        <v>0.022674678111587982</v>
       </c>
       <c r="B66" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C66" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.022543862660944207</v>
+        <v>0.023023519313304718</v>
       </c>
       <c r="B67" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C67" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.022885436337625177</v>
+        <v>0.023372360515021458</v>
       </c>
       <c r="B68" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C68" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.023227010014306149</v>
+        <v>0.023721201716738194</v>
       </c>
       <c r="B69" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C69" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.023568583690987126</v>
+        <v>0.02407004291845493</v>
       </c>
       <c r="B70" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C70" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.023910157367668099</v>
+        <v>0.024418884120171673</v>
       </c>
       <c r="B71" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C71" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.024251731044349068</v>
+        <v>0.024767725321888409</v>
       </c>
       <c r="B72" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C72" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.024593304721030041</v>
+        <v>0.025116566523605145</v>
       </c>
       <c r="B73" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C73" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.024934878397711018</v>
+        <v>0.025465407725321888</v>
       </c>
       <c r="B74" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C74" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.02527645207439199</v>
+        <v>0.025814248927038624</v>
       </c>
       <c r="B75" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C75" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0.02561802575107296</v>
+        <v>0.02616309012875536</v>
       </c>
       <c r="B76" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C76" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.025959599427753933</v>
+        <v>0.0265119313304721</v>
       </c>
       <c r="B77" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C77" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0.026301173104434906</v>
+        <v>0.02686077253218884</v>
       </c>
       <c r="B78" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C78" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.026642746781115882</v>
+        <v>0.027209613733905576</v>
       </c>
       <c r="B79" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C79" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.026984320457796852</v>
+        <v>0.027558454935622315</v>
       </c>
       <c r="B80" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C80" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.027325894134477825</v>
+        <v>0.027907296137339052</v>
       </c>
       <c r="B81" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C81" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.027667467811158798</v>
+        <v>0.028256137339055788</v>
       </c>
       <c r="B82" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C82" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0.028009041487839774</v>
+        <v>0.028604978540772531</v>
       </c>
       <c r="B83" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C83" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>0.028350615164520743</v>
+        <v>0.028953819742489267</v>
       </c>
       <c r="B84" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C84" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0.028692188841201716</v>
+        <v>0.029302660944206006</v>
       </c>
       <c r="B85" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C85" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>0.029033762517882689</v>
+        <v>0.029651502145922746</v>
       </c>
       <c r="B86" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C86" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0.029375336194563659</v>
+        <v>0.030000343347639482</v>
       </c>
       <c r="B87" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C87" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.029716909871244635</v>
+        <v>0.030349184549356222</v>
       </c>
       <c r="B88" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C88" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.030058483547925608</v>
+        <v>0.030698025751072958</v>
       </c>
       <c r="B89" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C89" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0.030400057224606581</v>
+        <v>0.031046866952789694</v>
       </c>
       <c r="B90" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C90" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.030741630901287551</v>
+        <v>0.031395708154506437</v>
       </c>
       <c r="B91" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C91" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>0.031083204577968527</v>
+        <v>0.031744549356223173</v>
       </c>
       <c r="B92" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C92" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0.031424778254649503</v>
+        <v>0.032093390557939909</v>
       </c>
       <c r="B93" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C93" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.031766351931330469</v>
+        <v>0.032442231759656652</v>
       </c>
       <c r="B94" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C94" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0.032107925608011442</v>
+        <v>0.032791072961373388</v>
       </c>
       <c r="B95" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C95" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.032449499284692422</v>
+        <v>0.033139914163090124</v>
       </c>
       <c r="B96" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C96" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.032791072961373395</v>
+        <v>0.033488755364806867</v>
       </c>
       <c r="B97" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C97" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0.033132646638054361</v>
+        <v>0.033837596566523603</v>
       </c>
       <c r="B98" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C98" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0.033474220314735334</v>
+        <v>0.034186437768240339</v>
       </c>
       <c r="B99" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C99" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.033815793991416307</v>
+        <v>0.034535278969957076</v>
       </c>
       <c r="B100" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C100" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.034157367668097287</v>
+        <v>0.034884120171673812</v>
       </c>
       <c r="B101" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C101" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0.034498941344778253</v>
+        <v>0.035232961373390555</v>
       </c>
       <c r="B102" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C102" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>0.034840515021459226</v>
+        <v>0.035581802575107291</v>
       </c>
       <c r="B103" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C103" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0.035182088698140199</v>
+        <v>0.035930643776824027</v>
       </c>
       <c r="B104" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C104" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>0.035523662374821179</v>
+        <v>0.03627948497854077</v>
       </c>
       <c r="B105" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C105" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0.035865236051502145</v>
+        <v>0.036628326180257506</v>
       </c>
       <c r="B106" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C106" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0.036206809728183117</v>
+        <v>0.036977167381974242</v>
       </c>
       <c r="B107" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C107" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0.03654838340486409</v>
+        <v>0.037326008583690985</v>
       </c>
       <c r="B108" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C108" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>0.036889957081545063</v>
+        <v>0.037674849785407721</v>
       </c>
       <c r="B109" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C109" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>0.037231530758226036</v>
+        <v>0.038023690987124457</v>
       </c>
       <c r="B110" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C110" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0.037573104434907009</v>
+        <v>0.038372532188841201</v>
       </c>
       <c r="B111" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C111" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>0.037914678111587982</v>
+        <v>0.038721373390557937</v>
       </c>
       <c r="B112" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C112" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>0.038256251788268955</v>
+        <v>0.039070214592274673</v>
       </c>
       <c r="B113" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C113" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>0.038597825464949928</v>
+        <v>0.039419055793991416</v>
       </c>
       <c r="B114" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C114" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0.038939399141630901</v>
+        <v>0.039767896995708152</v>
       </c>
       <c r="B115" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C115" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>0.039280972818311874</v>
+        <v>0.040116738197424888</v>
       </c>
       <c r="B116" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C116" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>0.039622546494992847</v>
+        <v>0.040465579399141631</v>
       </c>
       <c r="B117" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C117" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>0.03996412017167382</v>
+        <v>0.040814420600858367</v>
       </c>
       <c r="B118" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C118" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>0.040305693848354793</v>
+        <v>0.041163261802575103</v>
       </c>
       <c r="B119" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C119" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>0.040647267525035766</v>
+        <v>0.041512103004291839</v>
       </c>
       <c r="B120" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C120" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>0.040988841201716739</v>
+        <v>0.041860944206008576</v>
       </c>
       <c r="B121" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C121" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>0.041330414878397712</v>
+        <v>0.042209785407725318</v>
       </c>
       <c r="B122" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C122" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0.041671988555078684</v>
+        <v>0.042558626609442055</v>
       </c>
       <c r="B123" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C123" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0.042013562231759657</v>
+        <v>0.042907467811158791</v>
       </c>
       <c r="B124" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C124" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0.04235513590844063</v>
+        <v>0.043256309012875534</v>
       </c>
       <c r="B125" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C125" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>0.042696709585121603</v>
+        <v>0.04360515021459227</v>
       </c>
       <c r="B126" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C126" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0.043038283261802576</v>
+        <v>0.043953991416309006</v>
       </c>
       <c r="B127" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C127" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0.043379856938483549</v>
+        <v>0.044302832618025749</v>
       </c>
       <c r="B128" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C128" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0.043721430615164522</v>
+        <v>0.044651673819742485</v>
       </c>
       <c r="B129" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C129" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>0.044063004291845495</v>
+        <v>0.045000515021459221</v>
       </c>
       <c r="B130" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C130" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0.044404577968526461</v>
+        <v>0.045349356223175964</v>
       </c>
       <c r="B131" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C131" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>0.044746151645207441</v>
+        <v>0.0456981974248927</v>
       </c>
       <c r="B132" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C132" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>0.045087725321888414</v>
+        <v>0.046047038626609436</v>
       </c>
       <c r="B133" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C133" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>0.045429298998569387</v>
+        <v>0.046395879828326173</v>
       </c>
       <c r="B134" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C134" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>0.045770872675250353</v>
+        <v>0.046744721030042916</v>
       </c>
       <c r="B135" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C135" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>0.046112446351931326</v>
+        <v>0.047093562231759652</v>
       </c>
       <c r="B136" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C136" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>0.046454020028612299</v>
+        <v>0.047442403433476388</v>
       </c>
       <c r="B137" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C137" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>0.046795593705293279</v>
+        <v>0.047791244635193124</v>
       </c>
       <c r="B138" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C138" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>0.047137167381974252</v>
+        <v>0.04814008583690986</v>
       </c>
       <c r="B139" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C139" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>0.047478741058655225</v>
+        <v>0.048488927038626603</v>
       </c>
       <c r="B140" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C140" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>0.047820314735336197</v>
+        <v>0.048837768240343346</v>
       </c>
       <c r="B141" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C141" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>0.04816188841201717</v>
+        <v>0.049186609442060082</v>
       </c>
       <c r="B142" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C142" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>0.048503462088698136</v>
+        <v>0.049535450643776818</v>
       </c>
       <c r="B143" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C143" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>0.048845035765379109</v>
+        <v>0.049884291845493554</v>
       </c>
       <c r="B144" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C144" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>0.049186609442060082</v>
+        <v>0.050233133047210291</v>
       </c>
       <c r="B145" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C145" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>0.049528183118741055</v>
+        <v>0.050581974248927027</v>
       </c>
       <c r="B146" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C146" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>0.049869756795422035</v>
+        <v>0.050930815450643777</v>
       </c>
       <c r="B147" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C147" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>0.050211330472103008</v>
+        <v>0.051279656652360513</v>
       </c>
       <c r="B148" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C148" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>0.050552904148783981</v>
+        <v>0.051628497854077249</v>
       </c>
       <c r="B149" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C149" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>0.050894477825464954</v>
+        <v>0.051977339055793985</v>
       </c>
       <c r="B150" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C150" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>0.05123605150214592</v>
+        <v>0.052326180257510721</v>
       </c>
       <c r="B151" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C151" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>0.051577625178826893</v>
+        <v>0.052675021459227464</v>
       </c>
       <c r="B152" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C152" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>0.051919198855507866</v>
+        <v>0.0530238626609442</v>
       </c>
       <c r="B153" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C153" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>0.052260772532188839</v>
+        <v>0.053372703862660936</v>
       </c>
       <c r="B154" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C154" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>0.052602346208869812</v>
+        <v>0.053721545064377679</v>
       </c>
       <c r="B155" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C155" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>0.052943919885550791</v>
+        <v>0.054070386266094415</v>
       </c>
       <c r="B156" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C156" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>0.053285493562231764</v>
+        <v>0.054419227467811151</v>
       </c>
       <c r="B157" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C157" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>0.053627067238912737</v>
+        <v>0.054768068669527895</v>
       </c>
       <c r="B158" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C158" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>0.053968640915593703</v>
+        <v>0.055116909871244631</v>
       </c>
       <c r="B159" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C159" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>0.054310214592274676</v>
+        <v>0.055465751072961367</v>
       </c>
       <c r="B160" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C160" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>0.054651788268955649</v>
+        <v>0.055814592274678103</v>
       </c>
       <c r="B161" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C161" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>0.054993361945636622</v>
+        <v>0.056163433476394839</v>
       </c>
       <c r="B162" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C162" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>0.055334935622317595</v>
+        <v>0.056512274678111575</v>
       </c>
       <c r="B163" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C163" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>0.055676509298998568</v>
+        <v>0.056861115879828325</v>
       </c>
       <c r="B164" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C164" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>0.056018082975679548</v>
+        <v>0.057209957081545061</v>
       </c>
       <c r="B165" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C165" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>0.056359656652360521</v>
+        <v>0.057558798283261797</v>
       </c>
       <c r="B166" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C166" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>0.056701230329041487</v>
+        <v>0.057907639484978533</v>
       </c>
       <c r="B167" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C167" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>0.05704280400572246</v>
+        <v>0.05825648068669527</v>
       </c>
       <c r="B168" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C168" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>0.057384377682403433</v>
+        <v>0.058605321888412013</v>
       </c>
       <c r="B169" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C169" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>0.057725951359084406</v>
+        <v>0.058954163090128749</v>
       </c>
       <c r="B170" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C170" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>0.058067525035765379</v>
+        <v>0.059303004291845492</v>
       </c>
       <c r="B171" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C171" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>0.058409098712446351</v>
+        <v>0.059651845493562228</v>
       </c>
       <c r="B172" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C172" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>0.058750672389127318</v>
+        <v>0.060000686695278964</v>
       </c>
       <c r="B173" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C173" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>0.059092246065808304</v>
+        <v>0.0603495278969957</v>
       </c>
       <c r="B174" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C174" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>0.05943381974248927</v>
+        <v>0.060698369098712443</v>
       </c>
       <c r="B175" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C175" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>0.059775393419170243</v>
+        <v>0.061047210300429179</v>
       </c>
       <c r="B176" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C176" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>0.060116967095851216</v>
+        <v>0.061396051502145915</v>
       </c>
       <c r="B177" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C177" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>0.060458540772532189</v>
+        <v>0.061744892703862651</v>
       </c>
       <c r="B178" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C178" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>0.060800114449213162</v>
+        <v>0.062093733905579388</v>
       </c>
       <c r="B179" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C179" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>0.061141688125894135</v>
+        <v>0.062442575107296124</v>
       </c>
       <c r="B180" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C180" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>0.061483261802575101</v>
+        <v>0.062791416309012874</v>
       </c>
       <c r="B181" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C181" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>0.061824835479256088</v>
+        <v>0.063140257510729603</v>
       </c>
       <c r="B182" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C182" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>0.062166409155937054</v>
+        <v>0.063489098712446346</v>
       </c>
       <c r="B183" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C183" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>0.062507982832618034</v>
+        <v>0.063837939914163075</v>
       </c>
       <c r="B184" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C184" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>0.062849556509299007</v>
+        <v>0.064186781115879818</v>
       </c>
       <c r="B185" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C185" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>0.063191130185979966</v>
+        <v>0.064535622317596561</v>
       </c>
       <c r="B186" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C186" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>0.063532703862660939</v>
+        <v>0.064884463519313304</v>
       </c>
       <c r="B187" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C187" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>0.063874277539341912</v>
+        <v>0.065233304721030033</v>
       </c>
       <c r="B188" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C188" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>0.064215851216022885</v>
+        <v>0.065582145922746776</v>
       </c>
       <c r="B189" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C189" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>0.064557424892703858</v>
+        <v>0.065930987124463505</v>
       </c>
       <c r="B190" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C190" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>0.064898998569384844</v>
+        <v>0.066279828326180249</v>
       </c>
       <c r="B191" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C191" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>0.065240572246065817</v>
+        <v>0.066628669527896991</v>
       </c>
       <c r="B192" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C192" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>0.06558214592274679</v>
+        <v>0.066977510729613735</v>
       </c>
       <c r="B193" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C193" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>0.065923719599427749</v>
+        <v>0.067326351931330464</v>
       </c>
       <c r="B194" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C194" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>0.066265293276108722</v>
+        <v>0.067675193133047207</v>
       </c>
       <c r="B195" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C195" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>0.066606866952789695</v>
+        <v>0.068024034334763936</v>
       </c>
       <c r="B196" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C196" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>0.066948440629470668</v>
+        <v>0.068372875536480679</v>
       </c>
       <c r="B197" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C197" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>0.067290014306151641</v>
+        <v>0.068721716738197422</v>
       </c>
       <c r="B198" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C198" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>0.067631587982832614</v>
+        <v>0.069070557939914151</v>
       </c>
       <c r="B199" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C199" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>0.067973161659513601</v>
+        <v>0.069419399141630894</v>
       </c>
       <c r="B200" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C200" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>0.068314735336194574</v>
+        <v>0.069768240343347623</v>
       </c>
       <c r="B201" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C201" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>0.068656309012875533</v>
+        <v>0.070117081545064367</v>
       </c>
       <c r="B202" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C202" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>0.068997882689556506</v>
+        <v>0.070465922746781109</v>
       </c>
       <c r="B203" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C203" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>0.069339456366237479</v>
+        <v>0.070814763948497853</v>
       </c>
       <c r="B204" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C204" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>0.069681030042918451</v>
+        <v>0.071163605150214582</v>
       </c>
       <c r="B205" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C205" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>0.070022603719599424</v>
+        <v>0.071512446351931325</v>
       </c>
       <c r="B206" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C206" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>0.070364177396280397</v>
+        <v>0.071861287553648054</v>
       </c>
       <c r="B207" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C207" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>0.07070575107296137</v>
+        <v>0.072210128755364797</v>
       </c>
       <c r="B208" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C208" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>0.071047324749642357</v>
+        <v>0.07255896995708154</v>
       </c>
       <c r="B209" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C209" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>0.071388898426323316</v>
+        <v>0.072907811158798283</v>
       </c>
       <c r="B210" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C210" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>0.071730472103004289</v>
+        <v>0.073256652360515012</v>
       </c>
       <c r="B211" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C211" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>0.072072045779685262</v>
+        <v>0.073605493562231755</v>
       </c>
       <c r="B212" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C212" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>0.072413619456366235</v>
+        <v>0.073954334763948484</v>
       </c>
       <c r="B213" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C213" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>0.072755193133047208</v>
+        <v>0.074303175965665228</v>
       </c>
       <c r="B214" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C214" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>0.073096766809728181</v>
+        <v>0.07465201716738197</v>
       </c>
       <c r="B215" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C215" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>0.073438340486409154</v>
+        <v>0.0750008583690987</v>
       </c>
       <c r="B216" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C216" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>0.073779914163090127</v>
+        <v>0.075349699570815443</v>
       </c>
       <c r="B217" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C217" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>0.0741214878397711</v>
+        <v>0.075698540772532186</v>
       </c>
       <c r="B218" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C218" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>0.074463061516452073</v>
+        <v>0.076047381974248915</v>
       </c>
       <c r="B219" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C219" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>0.074804635193133046</v>
+        <v>0.076396223175965658</v>
       </c>
       <c r="B220" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C220" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>0.075146208869814018</v>
+        <v>0.076745064377682401</v>
       </c>
       <c r="B221" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C221" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>0.075487782546494991</v>
+        <v>0.07709390557939913</v>
       </c>
       <c r="B222" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C222" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>0.075829356223175964</v>
+        <v>0.077442746781115873</v>
       </c>
       <c r="B223" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C223" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>0.076170929899856937</v>
+        <v>0.077791587982832602</v>
       </c>
       <c r="B224" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C224" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>0.07651250357653791</v>
+        <v>0.078140429184549345</v>
       </c>
       <c r="B225" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C225" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>0.076854077253218883</v>
+        <v>0.078489270386266088</v>
       </c>
       <c r="B226" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C226" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>0.077195650929899856</v>
+        <v>0.078838111587982832</v>
       </c>
       <c r="B227" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C227" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>0.077537224606580829</v>
+        <v>0.079186952789699561</v>
       </c>
       <c r="B228" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C228" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>0.077878798283261802</v>
+        <v>0.079535793991416304</v>
       </c>
       <c r="B229" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C229" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>0.078220371959942775</v>
+        <v>0.079884635193133033</v>
       </c>
       <c r="B230" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C230" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>0.078561945636623748</v>
+        <v>0.080233476394849776</v>
       </c>
       <c r="B231" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C231" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>0.078903519313304721</v>
+        <v>0.080582317596566519</v>
       </c>
       <c r="B232" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C232" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>0.079245092989985694</v>
+        <v>0.080931158798283262</v>
       </c>
       <c r="B233" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C233" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>0.079586666666666667</v>
+        <v>0.081279999999999991</v>
       </c>
       <c r="B234" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C234" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>0.07992824034334764</v>
+        <v>0.081628841201716734</v>
       </c>
       <c r="B235" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C235" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>0.080269814020028613</v>
+        <v>0.081977682403433463</v>
       </c>
       <c r="B236" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C236" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>0.080611387696709585</v>
+        <v>0.082326523605150206</v>
       </c>
       <c r="B237" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C237" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>0.080952961373390558</v>
+        <v>0.082675364806866949</v>
       </c>
       <c r="B238" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C238" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>0.081294535050071531</v>
+        <v>0.083024206008583679</v>
       </c>
       <c r="B239" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C239" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>0.081636108726752504</v>
+        <v>0.083373047210300422</v>
       </c>
       <c r="B240" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C240" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>0.081977682403433477</v>
+        <v>0.083721888412017151</v>
       </c>
       <c r="B241" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C241" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>0.08231925608011445</v>
+        <v>0.084070729613733894</v>
       </c>
       <c r="B242" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C242" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>0.082660829756795423</v>
+        <v>0.084419570815450637</v>
       </c>
       <c r="B243" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C243" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>0.083002403433476396</v>
+        <v>0.08476841201716738</v>
       </c>
       <c r="B244" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C244" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>0.083343977110157369</v>
+        <v>0.085117253218884109</v>
       </c>
       <c r="B245" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C245" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>0.083685550786838342</v>
+        <v>0.085466094420600852</v>
       </c>
       <c r="B246" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C246" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>0.084027124463519315</v>
+        <v>0.085814935622317581</v>
       </c>
       <c r="B247" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C247" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>0.084368698140200288</v>
+        <v>0.086163776824034324</v>
       </c>
       <c r="B248" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C248" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>0.084710271816881261</v>
+        <v>0.086512618025751067</v>
       </c>
       <c r="B249" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C249" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>0.085051845493562234</v>
+        <v>0.086861459227467811</v>
       </c>
       <c r="B250" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C250" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>0.085393419170243207</v>
+        <v>0.08721030042918454</v>
       </c>
       <c r="B251" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C251" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>0.08573499284692418</v>
+        <v>0.087559141630901283</v>
       </c>
       <c r="B252" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C252" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>0.086076566523605153</v>
+        <v>0.087907982832618012</v>
       </c>
       <c r="B253" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C253" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>0.086418140200286126</v>
+        <v>0.088256824034334755</v>
       </c>
       <c r="B254" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C254" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>0.086759713876967098</v>
+        <v>0.088605665236051498</v>
       </c>
       <c r="B255" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C255" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>0.087101287553648071</v>
+        <v>0.088954506437768227</v>
       </c>
       <c r="B256" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C256" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>0.087442861230329044</v>
+        <v>0.08930334763948497</v>
       </c>
       <c r="B257" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C257" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>0.087784434907010017</v>
+        <v>0.089652188841201699</v>
       </c>
       <c r="B258" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C258" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>0.08812600858369099</v>
+        <v>0.090001030042918442</v>
       </c>
       <c r="B259" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C259" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>0.088467582260371963</v>
+        <v>0.090349871244635185</v>
       </c>
       <c r="B260" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C260" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>0.088809155937052922</v>
+        <v>0.090698712446351928</v>
       </c>
       <c r="B261" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C261" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>0.089150729613733909</v>
+        <v>0.091047553648068658</v>
       </c>
       <c r="B262" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C262" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>0.089492303290414882</v>
+        <v>0.091396394849785401</v>
       </c>
       <c r="B263" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C263" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>0.089833876967095855</v>
+        <v>0.091745236051502144</v>
       </c>
       <c r="B264" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C264" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>0.090175450643776828</v>
+        <v>0.092094077253218873</v>
       </c>
       <c r="B265" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C265" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>0.090517024320457801</v>
+        <v>0.092442918454935616</v>
       </c>
       <c r="B266" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C266" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>0.090858597997138774</v>
+        <v>0.092791759656652345</v>
       </c>
       <c r="B267" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C267" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>0.091200171673819747</v>
+        <v>0.093140600858369088</v>
       </c>
       <c r="B268" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C268" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>0.091541745350500706</v>
+        <v>0.093489442060085831</v>
       </c>
       <c r="B269" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C269" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>0.091883319027181679</v>
+        <v>0.09383828326180256</v>
       </c>
       <c r="B270" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C270" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>0.092224892703862652</v>
+        <v>0.094187124463519303</v>
       </c>
       <c r="B271" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C271" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>0.092566466380543625</v>
+        <v>0.094535965665236033</v>
       </c>
       <c r="B272" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C272" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>0.092908040057224597</v>
+        <v>0.094884806866952776</v>
       </c>
       <c r="B273" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C273" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>0.09324961373390557</v>
+        <v>0.095233648068669505</v>
       </c>
       <c r="B274" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C274" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>0.093591187410586557</v>
+        <v>0.095582489270386248</v>
       </c>
       <c r="B275" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C275" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>0.09393276108726753</v>
+        <v>0.095931330472103005</v>
       </c>
       <c r="B276" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C276" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>0.094274334763948503</v>
+        <v>0.09628017167381972</v>
       </c>
       <c r="B277" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C277" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>0.094615908440629476</v>
+        <v>0.096629012875536477</v>
       </c>
       <c r="B278" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C278" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>0.094957482117310449</v>
+        <v>0.096977854077253206</v>
       </c>
       <c r="B279" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C279" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>0.095299055793991422</v>
+        <v>0.097326695278969949</v>
       </c>
       <c r="B280" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C280" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>0.095640629470672395</v>
+        <v>0.097675536480686692</v>
       </c>
       <c r="B281" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C281" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>0.095982203147353368</v>
+        <v>0.098024377682403421</v>
       </c>
       <c r="B282" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C282" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>0.096323776824034341</v>
+        <v>0.098373218884120164</v>
       </c>
       <c r="B283" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C283" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>0.096665350500715314</v>
+        <v>0.098722060085836894</v>
       </c>
       <c r="B284" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C284" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>0.097006924177396273</v>
+        <v>0.099070901287553637</v>
       </c>
       <c r="B285" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C285" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>0.097348497854077246</v>
+        <v>0.09941974248927038</v>
       </c>
       <c r="B286" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C286" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>0.097690071530758219</v>
+        <v>0.099768583690987109</v>
       </c>
       <c r="B287" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C287" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>0.098031645207439192</v>
+        <v>0.10011742489270385</v>
       </c>
       <c r="B288" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C288" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>0.098373218884120164</v>
+        <v>0.10046626609442058</v>
       </c>
       <c r="B289" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C289" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>0.098714792560801137</v>
+        <v>0.10081510729613732</v>
       </c>
       <c r="B290" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C290" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>0.09905636623748211</v>
+        <v>0.10116394849785405</v>
       </c>
       <c r="B291" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C291" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>0.099397939914163083</v>
+        <v>0.1015127896995708</v>
       </c>
       <c r="B292" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C292" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>0.09973951359084407</v>
+        <v>0.10186163090128755</v>
       </c>
       <c r="B293" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C293" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>0.10008108726752504</v>
+        <v>0.10221047210300428</v>
       </c>
       <c r="B294" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C294" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>0.10042266094420602</v>
+        <v>0.10255931330472103</v>
       </c>
       <c r="B295" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C295" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>0.10076423462088699</v>
+        <v>0.10290815450643775</v>
       </c>
       <c r="B296" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C296" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>0.10110580829756796</v>
+        <v>0.1032569957081545</v>
       </c>
       <c r="B297" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C297" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>0.10144738197424893</v>
+        <v>0.10360583690987124</v>
       </c>
       <c r="B298" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C298" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>0.10178895565092991</v>
+        <v>0.10395467811158797</v>
       </c>
       <c r="B299" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C299" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>0.10213052932761088</v>
+        <v>0.10430351931330471</v>
       </c>
       <c r="B300" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C300" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>0.10247210300429184</v>
+        <v>0.10465236051502144</v>
       </c>
       <c r="B301" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C301" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>0.10281367668097281</v>
+        <v>0.10500120171673819</v>
       </c>
       <c r="B302" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C302" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>0.10315525035765379</v>
+        <v>0.10535004291845493</v>
       </c>
       <c r="B303" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C303" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>0.10349682403433476</v>
+        <v>0.10569888412017166</v>
       </c>
       <c r="B304" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C304" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>0.10383839771101573</v>
+        <v>0.1060477253218884</v>
       </c>
       <c r="B305" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C305" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>0.1041799713876967</v>
+        <v>0.10639656652360513</v>
       </c>
       <c r="B306" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C306" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>0.10452154506437768</v>
+        <v>0.10674540772532187</v>
       </c>
       <c r="B307" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C307" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>0.10486311874105865</v>
+        <v>0.1070942489270386</v>
       </c>
       <c r="B308" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C308" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>0.10520469241773962</v>
+        <v>0.10744309012875536</v>
       </c>
       <c r="B309" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C309" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>0.10554626609442061</v>
+        <v>0.1077919313304721</v>
       </c>
       <c r="B310" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C310" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>0.10588783977110158</v>
+        <v>0.10814077253218883</v>
       </c>
       <c r="B311" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C311" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>0.10622941344778256</v>
+        <v>0.10848961373390557</v>
       </c>
       <c r="B312" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C312" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>0.10657098712446353</v>
+        <v>0.1088384549356223</v>
       </c>
       <c r="B313" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C313" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>0.1069125608011445</v>
+        <v>0.10918729613733905</v>
       </c>
       <c r="B314" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C314" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>0.10725413447782547</v>
+        <v>0.10953613733905579</v>
       </c>
       <c r="B315" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C315" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>0.10759570815450645</v>
+        <v>0.10988497854077252</v>
       </c>
       <c r="B316" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C316" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>0.10793728183118741</v>
+        <v>0.11023381974248926</v>
       </c>
       <c r="B317" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C317" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>0.10827885550786838</v>
+        <v>0.11058266094420599</v>
       </c>
       <c r="B318" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C318" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>0.10862042918454935</v>
+        <v>0.11093150214592273</v>
       </c>
       <c r="B319" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C319" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>0.10896200286123033</v>
+        <v>0.11128034334763948</v>
       </c>
       <c r="B320" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C320" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>0.1093035765379113</v>
+        <v>0.11162918454935621</v>
       </c>
       <c r="B321" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C321" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>0.10964515021459227</v>
+        <v>0.11197802575107295</v>
       </c>
       <c r="B322" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C322" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>0.10998672389127324</v>
+        <v>0.11232686695278968</v>
       </c>
       <c r="B323" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C323" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>0.11032829756795422</v>
+        <v>0.11267570815450642</v>
       </c>
       <c r="B324" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C324" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>0.11066987124463519</v>
+        <v>0.11302454935622315</v>
       </c>
       <c r="B325" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C325" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>0.11101144492131616</v>
+        <v>0.11337339055793991</v>
       </c>
       <c r="B326" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C326" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>0.11135301859799714</v>
+        <v>0.11372223175965665</v>
       </c>
       <c r="B327" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C327" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>0.11169459227467812</v>
+        <v>0.11407107296137338</v>
       </c>
       <c r="B328" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C328" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>0.1120361659513591</v>
+        <v>0.11441991416309012</v>
       </c>
       <c r="B329" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C329" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>0.11237773962804007</v>
+        <v>0.11476875536480685</v>
       </c>
       <c r="B330" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C330" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>0.11271931330472104</v>
+        <v>0.11511759656652359</v>
       </c>
       <c r="B331" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C331" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>0.11306088698140201</v>
+        <v>0.11546643776824034</v>
       </c>
       <c r="B332" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C332" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>0.11340246065808297</v>
+        <v>0.11581527896995707</v>
       </c>
       <c r="B333" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C333" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>0.11374403433476395</v>
+        <v>0.11616412017167381</v>
       </c>
       <c r="B334" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C334" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>0.11408560801144492</v>
+        <v>0.11651296137339054</v>
       </c>
       <c r="B335" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C335" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>0.11442718168812589</v>
+        <v>0.11686180257510728</v>
       </c>
       <c r="B336" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C336" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>0.11476875536480687</v>
+        <v>0.11721064377682403</v>
       </c>
       <c r="B337" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C337" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>0.11511032904148784</v>
+        <v>0.11755948497854075</v>
       </c>
       <c r="B338" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C338" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>0.11545190271816881</v>
+        <v>0.1179083261802575</v>
       </c>
       <c r="B339" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C339" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>0.11579347639484978</v>
+        <v>0.11825716738197423</v>
       </c>
       <c r="B340" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C340" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>0.11613505007153076</v>
+        <v>0.11860600858369098</v>
       </c>
       <c r="B341" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C341" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>0.11647662374821173</v>
+        <v>0.1189548497854077</v>
       </c>
       <c r="B342" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C342" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>0.1168181974248927</v>
+        <v>0.11930369098712446</v>
       </c>
       <c r="B343" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C343" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>0.11715977110157366</v>
+        <v>0.1196525321888412</v>
       </c>
       <c r="B344" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C344" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>0.11750134477825464</v>
+        <v>0.12000137339055793</v>
       </c>
       <c r="B345" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C345" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>0.11784291845493564</v>
+        <v>0.12035021459227467</v>
       </c>
       <c r="B346" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C346" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>0.11818449213161661</v>
+        <v>0.1206990557939914</v>
       </c>
       <c r="B347" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C347" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>0.11852606580829758</v>
+        <v>0.12104789699570814</v>
       </c>
       <c r="B348" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C348" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>0.11886763948497854</v>
+        <v>0.12139673819742489</v>
       </c>
       <c r="B349" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C349" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>0.11920921316165951</v>
+        <v>0.12174557939914162</v>
       </c>
       <c r="B350" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C350" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>0.11955078683834049</v>
+        <v>0.12209442060085836</v>
       </c>
       <c r="B351" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C351" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>0.11989236051502146</v>
+        <v>0.12244326180257509</v>
       </c>
       <c r="B352" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C352" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>0.12023393419170243</v>
+        <v>0.12279210300429183</v>
       </c>
       <c r="B353" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C353" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>0.12057550786838341</v>
+        <v>0.12314094420600857</v>
       </c>
       <c r="B354" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C354" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>0.12091708154506438</v>
+        <v>0.1234897854077253</v>
       </c>
       <c r="B355" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C355" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>0.12125865522174535</v>
+        <v>0.12383862660944206</v>
       </c>
       <c r="B356" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C356" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>0.12160022889842632</v>
+        <v>0.12418746781115877</v>
       </c>
       <c r="B357" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C357" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>0.1219418025751073</v>
+        <v>0.12453630901287553</v>
       </c>
       <c r="B358" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C358" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>0.12228337625178827</v>
+        <v>0.12488515021459225</v>
       </c>
       <c r="B359" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C359" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>0.12262494992846923</v>
+        <v>0.125233991416309</v>
       </c>
       <c r="B360" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C360" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>0.1229665236051502</v>
+        <v>0.12558283261802575</v>
       </c>
       <c r="B361" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C361" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>0.12330809728183117</v>
+        <v>0.12593167381974246</v>
       </c>
       <c r="B362" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C362" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>0.12364967095851218</v>
+        <v>0.12628051502145921</v>
       </c>
       <c r="B363" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C363" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>0.12399124463519315</v>
+        <v>0.12662935622317595</v>
       </c>
       <c r="B364" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C364" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>0.12433281831187411</v>
+        <v>0.12697819742489269</v>
       </c>
       <c r="B365" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C365" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>0.12467439198855508</v>
+        <v>0.12732703862660944</v>
       </c>
       <c r="B366" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C366" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>0.12501596566523607</v>
+        <v>0.12767587982832615</v>
       </c>
       <c r="B367" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C367" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>0.12535753934191704</v>
+        <v>0.12802472103004292</v>
       </c>
       <c r="B368" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C368" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>0.12569911301859801</v>
+        <v>0.12837356223175964</v>
       </c>
       <c r="B369" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C369" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>0.12604068669527896</v>
+        <v>0.12872240343347638</v>
       </c>
       <c r="B370" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C370" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>0.12638226037195993</v>
+        <v>0.12907124463519312</v>
       </c>
       <c r="B371" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C371" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>0.12672383404864091</v>
+        <v>0.12942008583690987</v>
       </c>
       <c r="B372" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C372" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>0.12706540772532188</v>
+        <v>0.12976892703862661</v>
       </c>
       <c r="B373" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C373" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>0.12740698140200285</v>
+        <v>0.13011776824034332</v>
       </c>
       <c r="B374" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C374" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>0.12774855507868382</v>
+        <v>0.13046660944206007</v>
       </c>
       <c r="B375" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C375" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>0.1280901287553648</v>
+        <v>0.13081545064377681</v>
       </c>
       <c r="B376" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C376" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>0.12843170243204577</v>
+        <v>0.13116429184549355</v>
       </c>
       <c r="B377" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C377" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>0.12877327610872674</v>
+        <v>0.1315131330472103</v>
       </c>
       <c r="B378" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C378" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>0.12911484978540771</v>
+        <v>0.13186197424892701</v>
       </c>
       <c r="B379" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C379" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>0.12945642346208869</v>
+        <v>0.13221081545064375</v>
       </c>
       <c r="B380" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C380" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>0.12979799713876969</v>
+        <v>0.1325596566523605</v>
       </c>
       <c r="B381" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C381" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>0.13013957081545066</v>
+        <v>0.13290849785407724</v>
       </c>
       <c r="B382" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C382" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>0.13048114449213163</v>
+        <v>0.13325733905579398</v>
       </c>
       <c r="B383" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C383" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>0.13082271816881261</v>
+        <v>0.1336061802575107</v>
       </c>
       <c r="B384" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C384" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>0.13116429184549358</v>
+        <v>0.13395502145922747</v>
       </c>
       <c r="B385" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C385" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>0.13150586552217453</v>
+        <v>0.13430386266094419</v>
       </c>
       <c r="B386" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C386" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>0.1318474391988555</v>
+        <v>0.13465270386266093</v>
       </c>
       <c r="B387" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C387" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>0.13218901287553647</v>
+        <v>0.13500154506437767</v>
       </c>
       <c r="B388" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C388" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>0.13253058655221744</v>
+        <v>0.13535038626609441</v>
       </c>
       <c r="B389" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C389" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>0.13287216022889842</v>
+        <v>0.13569922746781116</v>
       </c>
       <c r="B390" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C390" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>0.13321373390557939</v>
+        <v>0.13604806866952787</v>
       </c>
       <c r="B391" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C391" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>0.13355530758226036</v>
+        <v>0.13639690987124461</v>
       </c>
       <c r="B392" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C392" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>0.13389688125894134</v>
+        <v>0.13674575107296136</v>
       </c>
       <c r="B393" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C393" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>0.13423845493562231</v>
+        <v>0.1370945922746781</v>
       </c>
       <c r="B394" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C394" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>0.13458002861230328</v>
+        <v>0.13744343347639484</v>
       </c>
       <c r="B395" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C395" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>0.13492160228898426</v>
+        <v>0.13779227467811156</v>
       </c>
       <c r="B396" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C396" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>0.13526317596566523</v>
+        <v>0.1381411158798283</v>
       </c>
       <c r="B397" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C397" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>0.1356047496423462</v>
+        <v>0.13848995708154505</v>
       </c>
       <c r="B398" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C398" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>0.1359463233190272</v>
+        <v>0.13883879828326179</v>
       </c>
       <c r="B399" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C399" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>0.13628789699570818</v>
+        <v>0.13918763948497853</v>
       </c>
       <c r="B400" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C400" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0">
-        <v>0.13662947067238915</v>
+        <v>0.13953648068669525</v>
       </c>
       <c r="B401" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C401" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0">
-        <v>0.13697104434907009</v>
+        <v>0.13988532188841202</v>
       </c>
       <c r="B402" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C402" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0">
-        <v>0.13731261802575107</v>
+        <v>0.14023416309012873</v>
       </c>
       <c r="B403" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C403" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
-        <v>0.13765419170243204</v>
+        <v>0.14058300429184548</v>
       </c>
       <c r="B404" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C404" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0">
-        <v>0.13799576537911301</v>
+        <v>0.14093184549356222</v>
       </c>
       <c r="B405" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C405" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0">
-        <v>0.13833733905579398</v>
+        <v>0.14128068669527896</v>
       </c>
       <c r="B406" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C406" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0">
-        <v>0.13867891273247496</v>
+        <v>0.14162952789699571</v>
       </c>
       <c r="B407" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C407" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0">
-        <v>0.13902048640915593</v>
+        <v>0.14197836909871242</v>
       </c>
       <c r="B408" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C408" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0">
-        <v>0.1393620600858369</v>
+        <v>0.14232721030042916</v>
       </c>
       <c r="B409" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C409" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0">
-        <v>0.13970363376251788</v>
+        <v>0.14267605150214591</v>
       </c>
       <c r="B410" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C410" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0">
-        <v>0.14004520743919885</v>
+        <v>0.14302489270386265</v>
       </c>
       <c r="B411" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C411" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0">
-        <v>0.14038678111587982</v>
+        <v>0.14337373390557939</v>
       </c>
       <c r="B412" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C412" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0">
-        <v>0.1407283547925608</v>
+        <v>0.14372257510729611</v>
       </c>
       <c r="B413" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C413" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0">
-        <v>0.14106992846924177</v>
+        <v>0.14407141630901285</v>
       </c>
       <c r="B414" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C414" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0">
-        <v>0.14141150214592274</v>
+        <v>0.14442025751072959</v>
       </c>
       <c r="B415" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C415" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0">
-        <v>0.14175307582260374</v>
+        <v>0.14476909871244634</v>
       </c>
       <c r="B416" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C416" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0">
-        <v>0.14209464949928472</v>
+        <v>0.14511793991416308</v>
       </c>
       <c r="B417" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C417" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0">
-        <v>0.14243622317596566</v>
+        <v>0.14546678111587982</v>
       </c>
       <c r="B418" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C418" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0">
-        <v>0.14277779685264663</v>
+        <v>0.14581562231759657</v>
       </c>
       <c r="B419" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C419" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0">
-        <v>0.14311937052932761</v>
+        <v>0.14616446351931328</v>
       </c>
       <c r="B420" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C420" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0">
-        <v>0.14346094420600858</v>
+        <v>0.14651330472103002</v>
       </c>
       <c r="B421" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C421" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0">
-        <v>0.14380251788268955</v>
+        <v>0.14686214592274677</v>
       </c>
       <c r="B422" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C422" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0">
-        <v>0.14414409155937053</v>
+        <v>0.14721098712446351</v>
       </c>
       <c r="B423" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C423" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0">
-        <v>0.1444856652360515</v>
+        <v>0.14755982832618025</v>
       </c>
       <c r="B424" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C424" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0">
-        <v>0.14482723891273247</v>
+        <v>0.14790866952789697</v>
       </c>
       <c r="B425" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C425" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0">
-        <v>0.14516881258941344</v>
+        <v>0.14825751072961371</v>
       </c>
       <c r="B426" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C426" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0">
-        <v>0.14551038626609442</v>
+        <v>0.14860635193133046</v>
       </c>
       <c r="B427" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C427" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0">
-        <v>0.14585195994277539</v>
+        <v>0.1489551931330472</v>
       </c>
       <c r="B428" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C428" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0">
-        <v>0.14619353361945636</v>
+        <v>0.14930403433476394</v>
       </c>
       <c r="B429" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C429" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0">
-        <v>0.14653510729613734</v>
+        <v>0.14965287553648066</v>
       </c>
       <c r="B430" s="0">
         <v>0.043179999999999996</v>
       </c>
       <c r="C430" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0">
-        <v>0.14687668097281831</v>
+        <v>0.1500017167381974</v>
       </c>
       <c r="B431" s="0">
-        <v>0.043179999931026024</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C431" s="0">
-        <v>6.6139406683516277</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0">
-        <v>0.14721825464949928</v>
+        <v>0.15035055793991414</v>
       </c>
       <c r="B432" s="0">
-        <v>0.043175370079362299</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C432" s="0">
-        <v>6.6125224227471193</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0">
-        <v>0.14755982832618025</v>
+        <v>0.15069939914163089</v>
       </c>
       <c r="B433" s="0">
-        <v>0.043161541684774415</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C433" s="0">
-        <v>6.6082873264121442</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0">
-        <v>0.14790140200286123</v>
+        <v>0.15104824034334763</v>
       </c>
       <c r="B434" s="0">
-        <v>0.04313848460125351</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C434" s="0">
-        <v>6.6012288605145253</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0">
-        <v>0.1482429756795422</v>
+        <v>0.15139708154506437</v>
       </c>
       <c r="B435" s="0">
-        <v>0.043106148270334488</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C435" s="0">
-        <v>6.5913360921924404</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0">
-        <v>0.14858454935622317</v>
+        <v>0.15174592274678112</v>
       </c>
       <c r="B436" s="0">
-        <v>0.043064461161907812</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C436" s="0">
-        <v>6.5785935536344722</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0">
-        <v>0.14892612303290415</v>
+        <v>0.15209476394849783</v>
       </c>
       <c r="B437" s="0">
-        <v>0.043013329971458458</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C437" s="0">
-        <v>6.5629810684889858</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0">
-        <v>0.14926769670958512</v>
+        <v>0.15244360515021457</v>
       </c>
       <c r="B438" s="0">
-        <v>0.042952638552373315</v>
+        <v>0.043179999999999996</v>
       </c>
       <c r="C438" s="0">
-        <v>6.5444735209841767</v>
+        <v>6.6138871255240268</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0">
-        <v>0.14960927038626609</v>
+        <v>0.15279244635193132</v>
       </c>
       <c r="B439" s="0">
-        <v>0.042882246554138345</v>
+        <v>0.043177435752564164</v>
       </c>
       <c r="C439" s="0">
-        <v>6.5230405614491573</v>
+        <v>6.6131016165139442</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0">
-        <v>0.14995084406294707</v>
+        <v>0.15314128755364806</v>
       </c>
       <c r="B440" s="0">
-        <v>0.042801987727956931</v>
+        <v>0.043165627234102721</v>
       </c>
       <c r="C440" s="0">
-        <v>6.4986462399175284</v>
+        <v>6.6094849008525589</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0">
-        <v>0.15029241773962804</v>
+        <v>0.1534901287553648</v>
       </c>
       <c r="B441" s="0">
-        <v>0.042711667850011431</v>
+        <v>0.043144202366777476</v>
       </c>
       <c r="C441" s="0">
-        <v>6.4712485570493907</v>
+        <v>6.6029254134361999</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0">
-        <v>0.15063399141630901</v>
+        <v>0.15383896995708152</v>
       </c>
       <c r="B442" s="0">
-        <v>0.042611062198541501</v>
+        <v>0.043113112224734872</v>
       </c>
       <c r="C442" s="0">
-        <v>6.4407989185697909</v>
+        <v>6.5934125745278536</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0">
-        <v>0.15097556509298998</v>
+        <v>0.15418781115879826</v>
       </c>
       <c r="B443" s="0">
-        <v>0.042499912503157378</v>
+        <v>0.043072285217972496</v>
       </c>
       <c r="C443" s="0">
-        <v>6.4072414755822473</v>
+        <v>6.5809309034901284</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0">
-        <v>0.15131713876967096</v>
+        <v>0.154536652360515</v>
       </c>
       <c r="B444" s="0">
-        <v>0.042377923262024886</v>
+        <v>0.04302162625701951</v>
       </c>
       <c r="C444" s="0">
-        <v>6.370512328189589</v>
+        <v>6.5654598381555589</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0">
-        <v>0.15165871244635193</v>
+        <v>0.15488549356223175</v>
       </c>
       <c r="B445" s="0">
-        <v>0.042244757292919565</v>
+        <v>0.042961015622244983</v>
       </c>
       <c r="C445" s="0">
-        <v>6.3305385634451659</v>
+        <v>6.5469734903256134</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0">
-        <v>0.1520002861230329</v>
+        <v>0.15523433476394849</v>
       </c>
       <c r="B446" s="0">
-        <v>0.042100030345071073</v>
+        <v>0.042890307505725041</v>
       </c>
       <c r="C446" s="0">
-        <v>6.287237090207487</v>
+        <v>6.5254403304637227</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0">
-        <v>0.15234185979971388</v>
+        <v>0.15558317596566521</v>
       </c>
       <c r="B447" s="0">
-        <v>0.041943304546518789</v>
+        <v>0.042809328182936687</v>
       </c>
       <c r="C447" s="0">
-        <v>6.2405132221835435</v>
+        <v>6.5008227923419684</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0">
-        <v>0.15268343347639485</v>
+        <v>0.15593201716738195</v>
       </c>
       <c r="B448" s="0">
-        <v>0.04177408039102349</v>
+        <v>0.042717873758559045</v>
       </c>
       <c r="C448" s="0">
-        <v>6.1902589451628227</v>
+        <v>6.4730767855926663</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0">
-        <v>0.15302500715307582</v>
+        <v>0.15628085836909869</v>
       </c>
       <c r="B449" s="0">
-        <v>0.041591786871532477</v>
+        <v>0.042615707414496648</v>
       </c>
       <c r="C449" s="0">
-        <v>6.1363507834584405</v>
+        <v>6.4421511006203263</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0">
-        <v>0.15336658082975679</v>
+        <v>0.15662969957081543</v>
       </c>
       <c r="B450" s="0">
-        <v>0.041395769231924021</v>
+        <v>0.042502556067745299</v>
       </c>
       <c r="C450" s="0">
-        <v>6.078647151320288</v>
+        <v>6.4079866858978587</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0">
-        <v>0.15370815450643777</v>
+        <v>0.15697854077253218</v>
       </c>
       <c r="B451" s="0">
-        <v>0.041185273617132534</v>
+        <v>0.042378106319320708</v>
       </c>
       <c r="C451" s="0">
-        <v>6.0169850336479431</v>
+        <v>6.3705157719620331</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0">
-        <v>0.15404972818311874</v>
+        <v>0.15732738197424892</v>
       </c>
       <c r="B452" s="0">
-        <v>0.040959427625472972</v>
+        <v>0.042241999540962798</v>
       </c>
       <c r="C452" s="0">
-        <v>5.9511757805870991</v>
+        <v>6.3296608089613793</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0">
-        <v>0.15439130185979971</v>
+        <v>0.15767622317596566</v>
       </c>
       <c r="B453" s="0">
-        <v>0.040717215360837902</v>
+        <v>0.042093825900594878</v>
       </c>
       <c r="C453" s="0">
-        <v>5.8809997127676326</v>
+        <v>6.285333174720197</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0">
-        <v>0.15473287553648069</v>
+        <v>0.15802506437768238</v>
       </c>
       <c r="B454" s="0">
-        <v>0.040457444972417649</v>
+        <v>0.041933117066066235</v>
       </c>
       <c r="C454" s="0">
-        <v>5.8061991020289323</v>
+        <v>6.2374315969942948</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0">
-        <v>0.15507444921316166</v>
+        <v>0.15837390557939912</v>
       </c>
       <c r="B455" s="0">
-        <v>0.04017870573106877</v>
+        <v>0.041759337242971165</v>
       </c>
       <c r="C455" s="0">
-        <v>5.7264688895294738</v>
+        <v>6.1858402154870706</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0">
-        <v>0.15541602288984263</v>
+        <v>0.15872274678111587</v>
       </c>
       <c r="B456" s="0">
-        <v>0.039879310207930549</v>
+        <v>0.04157187208654628</v>
       </c>
       <c r="C456" s="0">
-        <v>5.6414441823372634</v>
+        <v>6.1304261841558194</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0">
-        <v>0.1557575965665236</v>
+        <v>0.15907158798283261</v>
       </c>
       <c r="B457" s="0">
-        <v>0.039557214702690802</v>
+        <v>0.041370014864999152</v>
       </c>
       <c r="C457" s="0">
-        <v>5.5506830466817005</v>
+        <v>6.0710366791669621</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0">
-        <v>0.15609917024320458</v>
+        <v>0.15942042918454935</v>
       </c>
       <c r="B458" s="0">
-        <v>0.039216699363473745</v>
+        <v>0.041152949019248146</v>
       </c>
       <c r="C458" s="0">
-        <v>5.4555318783141136</v>
+        <v>6.0074951276104755</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0">
-        <v>0.15644074391988555</v>
+        <v>0.15976927038626607</v>
       </c>
       <c r="B459" s="0">
-        <v>0.038875125686792772</v>
+        <v>0.040919725925856847</v>
       </c>
       <c r="C459" s="0">
-        <v>5.3609114330988499</v>
+        <v>5.9395963989520793</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0">
-        <v>0.15678231759656652</v>
+        <v>0.16011811158798281</v>
       </c>
       <c r="B460" s="0">
-        <v>0.038533552010111799</v>
+        <v>0.040669236167569893</v>
       </c>
       <c r="C460" s="0">
-        <v>5.267118727620506</v>
+        <v>5.867100592567776</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0">
-        <v>0.1571238912732475</v>
+        <v>0.16046695278969955</v>
       </c>
       <c r="B461" s="0">
-        <v>0.038191978333430826</v>
+        <v>0.040400171852442421</v>
       </c>
       <c r="C461" s="0">
-        <v>5.1741537618790856</v>
+        <v>5.7897248896243667</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0">
-        <v>0.15746546494992847</v>
+        <v>0.16081579399141629</v>
       </c>
       <c r="B462" s="0">
-        <v>0.037850404656749853</v>
+        <v>0.040110976332513593</v>
       </c>
       <c r="C462" s="0">
-        <v>5.0820165358745824</v>
+        <v>5.7071326802346913</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0">
-        <v>0.15780703862660944</v>
+        <v>0.16116463519313304</v>
       </c>
       <c r="B463" s="0">
-        <v>0.03750883098006888</v>
+        <v>0.03979977576365723</v>
       </c>
       <c r="C463" s="0">
-        <v>4.9907070496069998</v>
+        <v>5.6189187639451168</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0">
-        <v>0.15814861230329041</v>
+        <v>0.16151347639484975</v>
       </c>
       <c r="B464" s="0">
-        <v>0.037167257303387907</v>
+        <v>0.039464283782485871</v>
       </c>
       <c r="C464" s="0">
-        <v>4.9002253030763399</v>
+        <v>5.5245887370489406</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0">
-        <v>0.15849018597997139</v>
+        <v>0.16186231759656652</v>
       </c>
       <c r="B465" s="0">
-        <v>0.036825683626706934</v>
+        <v>0.039115444387993387</v>
       </c>
       <c r="C465" s="0">
-        <v>4.8105712962825979</v>
+        <v>5.4273526331602371</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0">
-        <v>0.15883175965665236</v>
+        <v>0.16221115879828324</v>
       </c>
       <c r="B466" s="0">
-        <v>0.036484109950025961</v>
+        <v>0.038766603186276671</v>
       </c>
       <c r="C466" s="0">
-        <v>4.7217450292257768</v>
+        <v>5.3309793537113848</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0">
-        <v>0.15917333333333333</v>
+        <v>0.16255999999999998</v>
       </c>
       <c r="B467" s="0">
-        <v>0.036142536273344988</v>
+        <v>0.038417761984559928</v>
       </c>
       <c r="C467" s="0">
-        <v>4.6337465019058781</v>
+        <v>5.2354694046875325</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0">
-        <v>0.15951490701001431</v>
+        <v>0.16290884120171673</v>
       </c>
       <c r="B468" s="0">
-        <v>0.035800962596664015</v>
+        <v>0.038068920782843185</v>
       </c>
       <c r="C468" s="0">
-        <v>4.5465757143228966</v>
+        <v>5.1408227860886848</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0">
-        <v>0.15985648068669528</v>
+        <v>0.16325768240343347</v>
       </c>
       <c r="B469" s="0">
-        <v>0.035459388919983043</v>
+        <v>0.037720079581126442</v>
       </c>
       <c r="C469" s="0">
-        <v>4.4602326664768368</v>
+        <v>5.0470394979148452</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0">
-        <v>0.16019805436337625</v>
+        <v>0.16360652360515021</v>
       </c>
       <c r="B470" s="0">
-        <v>0.03511781524330207</v>
+        <v>0.037371238379409699</v>
       </c>
       <c r="C470" s="0">
-        <v>4.3747173583676968</v>
+        <v>4.9541195401660101</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0">
-        <v>0.16053962804005723</v>
+        <v>0.16395536480686693</v>
       </c>
       <c r="B471" s="0">
-        <v>0.034776241566621097</v>
+        <v>0.037022397177692984</v>
       </c>
       <c r="C471" s="0">
-        <v>4.2900297899954785</v>
+        <v>4.8620629128421884</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0">
-        <v>0.1608812017167382</v>
+        <v>0.16430420600858367</v>
       </c>
       <c r="B472" s="0">
-        <v>0.034434667889940124</v>
+        <v>0.036673555975976241</v>
       </c>
       <c r="C472" s="0">
-        <v>4.2061699613601791</v>
+        <v>4.7708696159433677</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0">
-        <v>0.16122277539341917</v>
+        <v>0.16465304721030041</v>
       </c>
       <c r="B473" s="0">
-        <v>0.034093094213259151</v>
+        <v>0.036324714774259498</v>
       </c>
       <c r="C473" s="0">
-        <v>4.1231378724618004</v>
+        <v>4.6805396494695506</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0">
-        <v>0.16156434907010014</v>
+        <v>0.16500188841201716</v>
       </c>
       <c r="B474" s="0">
-        <v>0.033751520536578178</v>
+        <v>0.035975873572542755</v>
       </c>
       <c r="C474" s="0">
-        <v>4.0409335233003434</v>
+        <v>4.5910730134207416</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0">
-        <v>0.16190592274678112</v>
+        <v>0.1653507296137339</v>
       </c>
       <c r="B475" s="0">
-        <v>0.033409946859897205</v>
+        <v>0.035627032370826012</v>
       </c>
       <c r="C475" s="0">
-        <v>3.9595569138758053</v>
+        <v>4.5024697077969371</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0">
-        <v>0.16224749642346209</v>
+        <v>0.16569957081545062</v>
       </c>
       <c r="B476" s="0">
-        <v>0.033068373183216232</v>
+        <v>0.035278191169109297</v>
       </c>
       <c r="C476" s="0">
-        <v>3.879008044188188</v>
+        <v>4.4147297325981469</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0">
-        <v>0.16258907010014306</v>
+        <v>0.16604841201716736</v>
       </c>
       <c r="B477" s="0">
-        <v>0.032726799506535259</v>
+        <v>0.034929349967392553</v>
       </c>
       <c r="C477" s="0">
-        <v>3.799286914237491</v>
+        <v>4.327853087824356</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0">
-        <v>0.16293064377682404</v>
+        <v>0.1663972532188841</v>
       </c>
       <c r="B478" s="0">
-        <v>0.032385225829854286</v>
+        <v>0.03458050876567581</v>
       </c>
       <c r="C478" s="0">
-        <v>3.7203935240237138</v>
+        <v>4.2418397734755704</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0">
-        <v>0.16327221745350501</v>
+        <v>0.16674609442060084</v>
       </c>
       <c r="B479" s="0">
-        <v>0.032043652153173313</v>
+        <v>0.034231667563959067</v>
       </c>
       <c r="C479" s="0">
-        <v>3.6423278735468574</v>
+        <v>4.1566897895517929</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0">
-        <v>0.16361379113018598</v>
+        <v>0.16709493562231759</v>
       </c>
       <c r="B480" s="0">
-        <v>0.03170207847649234</v>
+        <v>0.033882826362242324</v>
       </c>
       <c r="C480" s="0">
-        <v>3.5650899628069217</v>
+        <v>4.0724031360530191</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0">
-        <v>0.16395536480686695</v>
+        <v>0.1674437768240343</v>
       </c>
       <c r="B481" s="0">
-        <v>0.031360504799811367</v>
+        <v>0.033533985160525609</v>
       </c>
       <c r="C481" s="0">
-        <v>3.4886797918039054</v>
+        <v>3.9889798129792595</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0">
-        <v>0.16429693848354793</v>
+        <v>0.16779261802575107</v>
       </c>
       <c r="B482" s="0">
-        <v>0.031018931123130394</v>
+        <v>0.033185143958808838</v>
       </c>
       <c r="C482" s="0">
-        <v>3.4130973605378103</v>
+        <v>3.9064198203304925</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0">
-        <v>0.1646385121602289</v>
+        <v>0.16814145922746779</v>
       </c>
       <c r="B483" s="0">
-        <v>0.030677357446449421</v>
+        <v>0.032836302757092123</v>
       </c>
       <c r="C483" s="0">
-        <v>3.3383426690086355</v>
+        <v>3.8247231581067451</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0">
-        <v>0.16498008583690987</v>
+        <v>0.16849030042918453</v>
       </c>
       <c r="B484" s="0">
-        <v>0.030335783769768448</v>
+        <v>0.03248746155537538</v>
       </c>
       <c r="C484" s="0">
-        <v>3.2644157172163801</v>
+        <v>3.7438898263079974</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0">
-        <v>0.16532165951359085</v>
+        <v>0.16883914163090127</v>
       </c>
       <c r="B485" s="0">
-        <v>0.029994210093087476</v>
+        <v>0.032138620353658637</v>
       </c>
       <c r="C485" s="0">
-        <v>3.1913165051610459</v>
+        <v>3.6639198249342546</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0">
-        <v>0.16566323319027182</v>
+        <v>0.16918798283261802</v>
       </c>
       <c r="B486" s="0">
-        <v>0.029652636416406503</v>
+        <v>0.031789779151941894</v>
       </c>
       <c r="C486" s="0">
-        <v>3.119045032842632</v>
+        <v>3.584813153985519</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0">
-        <v>0.16600480686695279</v>
+        <v>0.16953682403433476</v>
       </c>
       <c r="B487" s="0">
-        <v>0.02931106273972553</v>
+        <v>0.031440937950225151</v>
       </c>
       <c r="C487" s="0">
-        <v>3.0476013002611375</v>
+        <v>3.5065698134617898</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0">
-        <v>0.16634638054363377</v>
+        <v>0.16988566523605148</v>
       </c>
       <c r="B488" s="0">
-        <v>0.028969489063044557</v>
+        <v>0.031092096748508435</v>
       </c>
       <c r="C488" s="0">
-        <v>2.9769853074165642</v>
+        <v>3.429189803363073</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0">
-        <v>0.16668795422031474</v>
+        <v>0.17023450643776822</v>
       </c>
       <c r="B489" s="0">
-        <v>0.028627915386363584</v>
+        <v>0.030743255546791692</v>
       </c>
       <c r="C489" s="0">
-        <v>2.9071970543089107</v>
+        <v>3.3526731236893563</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0">
-        <v>0.16702952789699571</v>
+        <v>0.17058334763948496</v>
       </c>
       <c r="B490" s="0">
-        <v>0.028286341709682611</v>
+        <v>0.030394414345074949</v>
       </c>
       <c r="C490" s="0">
-        <v>2.838236540938178</v>
+        <v>3.2770197744406451</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0">
-        <v>0.16737110157367668</v>
+        <v>0.1709321888412017</v>
       </c>
       <c r="B491" s="0">
-        <v>0.027944768033001638</v>
+        <v>0.030045573143358206</v>
       </c>
       <c r="C491" s="0">
-        <v>2.7701037673043656</v>
+        <v>3.2022297556169406</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0">
-        <v>0.16771267525035766</v>
+        <v>0.17128103004291845</v>
       </c>
       <c r="B492" s="0">
-        <v>0.027603194356320665</v>
+        <v>0.029696731941641463</v>
       </c>
       <c r="C492" s="0">
-        <v>2.702798733407473</v>
+        <v>3.1283030672182419</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0">
-        <v>0.16805424892703863</v>
+        <v>0.17162987124463516</v>
       </c>
       <c r="B493" s="0">
-        <v>0.027261620679639692</v>
+        <v>0.029347890739924748</v>
       </c>
       <c r="C493" s="0">
-        <v>2.6363214392475012</v>
+        <v>3.0552397092445554</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0">
-        <v>0.1683958226037196</v>
+        <v>0.17197871244635191</v>
       </c>
       <c r="B494" s="0">
-        <v>0.026920047002958719</v>
+        <v>0.028999049538208005</v>
       </c>
       <c r="C494" s="0">
-        <v>2.5706718848244501</v>
+        <v>2.9830396816958693</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0">
-        <v>0.16873739628040058</v>
+        <v>0.17232755364806865</v>
       </c>
       <c r="B495" s="0">
-        <v>0.026578473326277746</v>
+        <v>0.028650208336491262</v>
       </c>
       <c r="C495" s="0">
-        <v>2.5058500701383184</v>
+        <v>2.9117029845721891</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0">
-        <v>0.16907896995708155</v>
+        <v>0.17267639484978539</v>
       </c>
       <c r="B496" s="0">
-        <v>0.026236899649596773</v>
+        <v>0.028301367134774519</v>
       </c>
       <c r="C496" s="0">
-        <v>2.4418559951891079</v>
+        <v>2.8412296178735152</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0">
-        <v>0.16942054363376252</v>
+        <v>0.17302523605150214</v>
       </c>
       <c r="B497" s="0">
-        <v>0.0258953259729158</v>
+        <v>0.027952525933057776</v>
       </c>
       <c r="C497" s="0">
-        <v>2.3786896599768173</v>
+        <v>2.7716195815998477</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0">
-        <v>0.16976211731044349</v>
+        <v>0.17337407725321885</v>
       </c>
       <c r="B498" s="0">
-        <v>0.025553752296234827</v>
+        <v>0.02760368473134106</v>
       </c>
       <c r="C498" s="0">
-        <v>2.3163510645014469</v>
+        <v>2.7028728757511917</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0">
-        <v>0.17010369098712447</v>
+        <v>0.17372291845493562</v>
       </c>
       <c r="B499" s="0">
-        <v>0.025212178619553855</v>
+        <v>0.02725484352962429</v>
       </c>
       <c r="C499" s="0">
-        <v>2.2548402087629973</v>
+        <v>2.6349895003275314</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0">
-        <v>0.17044526466380544</v>
+        <v>0.17407175965665234</v>
       </c>
       <c r="B500" s="0">
-        <v>0.024870604942872881</v>
+        <v>0.026906002327907574</v>
       </c>
       <c r="C500" s="0">
-        <v>2.194157092761468</v>
+        <v>2.5679694553288872</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0">
-        <v>0.17078683834048641</v>
+        <v>0.17442060085836908</v>
       </c>
       <c r="B501" s="0">
-        <v>0.024529031266191909</v>
+        <v>0.026557161126190831</v>
       </c>
       <c r="C501" s="0">
-        <v>2.1343017164968581</v>
+        <v>2.5018127407552444</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0">
-        <v>0.17112841201716739</v>
+        <v>0.17476944206008582</v>
       </c>
       <c r="B502" s="0">
-        <v>0.024187457589510936</v>
+        <v>0.026208319924474088</v>
       </c>
       <c r="C502" s="0">
-        <v>2.0752740799691693</v>
+        <v>2.4365193566066075</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0">
-        <v>0.17146998569384836</v>
+        <v>0.17511828326180257</v>
       </c>
       <c r="B503" s="0">
-        <v>0.023845883912829963</v>
+        <v>0.025859478722757345</v>
       </c>
       <c r="C503" s="0">
-        <v>2.0170741831784009</v>
+        <v>2.3720893028829773</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0">
-        <v>0.17181155937052931</v>
+        <v>0.17546712446351931</v>
       </c>
       <c r="B504" s="0">
-        <v>0.023504310236149018</v>
+        <v>0.025510637521040602</v>
       </c>
       <c r="C504" s="0">
-        <v>1.9597020261245575</v>
+        <v>2.3085225795843529</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0">
-        <v>0.1721531330472103</v>
+        <v>0.17581596566523602</v>
       </c>
       <c r="B505" s="0">
-        <v>0.023162736559468017</v>
+        <v>0.025161796319323887</v>
       </c>
       <c r="C505" s="0">
-        <v>1.9031576088076247</v>
+        <v>2.2458191867107393</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0">
-        <v>0.17249470672389128</v>
+        <v>0.17616480686695277</v>
       </c>
       <c r="B506" s="0">
-        <v>0.022821162882787044</v>
+        <v>0.024812955117607144</v>
       </c>
       <c r="C506" s="0">
-        <v>1.8474409312276172</v>
+        <v>2.1839791242621276</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0">
-        <v>0.17283628040057225</v>
+        <v>0.17651364806866951</v>
       </c>
       <c r="B507" s="0">
-        <v>0.022479589206106071</v>
+        <v>0.024464113915890401</v>
       </c>
       <c r="C507" s="0">
-        <v>1.7925519933845298</v>
+        <v>2.1230023922385217</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0">
-        <v>0.17317785407725322</v>
+        <v>0.17686248927038625</v>
       </c>
       <c r="B508" s="0">
-        <v>0.022138015529425098</v>
+        <v>0.024115272714173658</v>
       </c>
       <c r="C508" s="0">
-        <v>1.7384907952783628</v>
+        <v>2.0628889906399222</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0">
-        <v>0.1735194277539342</v>
+        <v>0.177211330472103</v>
       </c>
       <c r="B509" s="0">
-        <v>0.021796441852744125</v>
+        <v>0.023766431512456915</v>
       </c>
       <c r="C509" s="0">
-        <v>1.6852573369091166</v>
+        <v>2.0036389194663284</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0">
-        <v>0.17386100143061517</v>
+        <v>0.17756017167381971</v>
       </c>
       <c r="B510" s="0">
-        <v>0.021454868176063152</v>
+        <v>0.023417590310740199</v>
       </c>
       <c r="C510" s="0">
-        <v>1.6328516182767898</v>
+        <v>1.9452521787177457</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0">
-        <v>0.17420257510729614</v>
+        <v>0.17790901287553645</v>
       </c>
       <c r="B511" s="0">
-        <v>0.021113294499382179</v>
+        <v>0.023068749109023456</v>
       </c>
       <c r="C511" s="0">
-        <v>1.581273639381384</v>
+        <v>1.8877287683941646</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0">
-        <v>0.17454414878397712</v>
+        <v>0.1782578540772532</v>
       </c>
       <c r="B512" s="0">
-        <v>0.020772919151017873</v>
+        <v>0.022719907907306713</v>
       </c>
       <c r="C512" s="0">
-        <v>1.5306999982476399</v>
+        <v>1.8310686884955898</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0">
-        <v>0.17488572246065809</v>
+        <v>0.17860669527896994</v>
       </c>
       <c r="B513" s="0">
-        <v>0.02044985516922055</v>
+        <v>0.02237106670558997</v>
       </c>
       <c r="C513" s="0">
-        <v>1.4834588137532161</v>
+        <v>1.7752719390220211</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0">
-        <v>0.17522729613733906</v>
+        <v>0.17895553648068668</v>
       </c>
       <c r="B514" s="0">
-        <v>0.020147600702264807</v>
+        <v>0.022022225503873227</v>
       </c>
       <c r="C514" s="0">
-        <v>1.4399310288890419</v>
+        <v>1.7203385199734587</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0">
-        <v>0.17556886981402003</v>
+        <v>0.1793043776824034</v>
       </c>
       <c r="B515" s="0">
-        <v>0.019864423685212886</v>
+        <v>0.021673384302156512</v>
       </c>
       <c r="C515" s="0">
-        <v>1.3997386651998181</v>
+        <v>1.6662684313499068</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0">
-        <v>0.17591044349070101</v>
+        <v>0.17965321888412017</v>
       </c>
       <c r="B516" s="0">
-        <v>0.019598871862365627</v>
+        <v>0.021324543100439741</v>
       </c>
       <c r="C516" s="0">
-        <v>1.3625648053726305</v>
+        <v>1.6130616731513521</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0">
-        <v>0.17625201716738198</v>
+        <v>0.18000206008583689</v>
       </c>
       <c r="B517" s="0">
-        <v>0.019349714528047575</v>
+        <v>0.020975701898723026</v>
       </c>
       <c r="C517" s="0">
-        <v>1.328140879667397</v>
+        <v>1.5607182453778121</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0">
-        <v>0.17659359084406295</v>
+        <v>0.18035090128755363</v>
       </c>
       <c r="B518" s="0">
-        <v>0.019115899165902325</v>
+        <v>0.020633242836342443</v>
       </c>
       <c r="C518" s="0">
-        <v>1.2962372035625409</v>
+        <v>1.5101722366852397</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0">
-        <v>0.17693516452074393</v>
+        <v>0.18069974248927037</v>
       </c>
       <c r="B519" s="0">
-        <v>0.018896518578305627</v>
+        <v>0.020312779444620763</v>
       </c>
       <c r="C519" s="0">
-        <v>1.2666558045980283</v>
+        <v>1.4636263137490568</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0">
-        <v>0.17727673819742487</v>
+        <v>0.18104858369098711</v>
       </c>
       <c r="B520" s="0">
-        <v>0.018690785563225305</v>
+        <v>0.020013176347710778</v>
       </c>
       <c r="C520" s="0">
-        <v>1.2392248962538237</v>
+        <v>1.4207692443056894</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0">
-        <v>0.17761831187410585</v>
+        <v>0.18139742489270386</v>
       </c>
       <c r="B521" s="0">
-        <v>0.018498013126213277</v>
+        <v>0.019732733043301878</v>
       </c>
       <c r="C521" s="0">
-        <v>1.2137945597280284</v>
+        <v>1.3812299406336819</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0">
-        <v>0.17795988555078685</v>
+        <v>0.18174626609442057</v>
       </c>
       <c r="B522" s="0">
-        <v>0.018317598821689447</v>
+        <v>0.019470021576241441</v>
       </c>
       <c r="C522" s="0">
-        <v>1.1902333268263485</v>
+        <v>1.3446967909106771</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0">
-        <v>0.17830145922746782</v>
+        <v>0.18209510729613732</v>
       </c>
       <c r="B523" s="0">
-        <v>0.018149012222483114</v>
+        <v>0.019223830406447952</v>
       </c>
       <c r="C523" s="0">
-        <v>1.1684254455130117</v>
+        <v>1.3109054099338498</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0">
-        <v>0.17864303290414879</v>
+        <v>0.18244394849785406</v>
       </c>
       <c r="B524" s="0">
-        <v>0.017991784792574538</v>
+        <v>0.018993122503165691</v>
       </c>
       <c r="C524" s="0">
-        <v>1.14826866989808</v>
+        <v>1.2796294943469373</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0">
-        <v>0.17898460658082976</v>
+        <v>0.1827927896995708</v>
       </c>
       <c r="B525" s="0">
-        <v>0.017845501629747358</v>
+        <v>0.018777003493069263</v>
       </c>
       <c r="C525" s="0">
-        <v>1.1296724582845186</v>
+        <v>1.2506738718426849</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0">
-        <v>0.17932618025751074</v>
+        <v>0.18314163090128755</v>
       </c>
       <c r="B526" s="0">
-        <v>0.017709794680437915</v>
+        <v>0.018574697065661713</v>
       </c>
       <c r="C526" s="0">
-        <v>1.1125564924842342</v>
+        <v>1.2238691340694203</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0">
-        <v>0.17966775393419171</v>
+        <v>0.18349047210300429</v>
       </c>
       <c r="B527" s="0">
-        <v>0.0175843371264396</v>
+        <v>0.018385525716704251</v>
       </c>
       <c r="C527" s="0">
-        <v>1.0968494528612221</v>
+        <v>1.1990674344157737</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0">
-        <v>0.18000932761087268</v>
+        <v>0.183839313304721</v>
       </c>
       <c r="B528" s="0">
-        <v>0.017468838714072555</v>
+        <v>0.018208895484582585</v>
       </c>
       <c r="C528" s="0">
-        <v>1.0824879990434411</v>
+        <v>1.1761391571436726</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0">
-        <v>0.18035090128755366</v>
+        <v>0.18418815450643775</v>
       </c>
       <c r="B529" s="0">
-        <v>0.017363041848826435</v>
+        <v>0.018044283719124386</v>
       </c>
       <c r="C529" s="0">
-        <v>1.0694159176794216</v>
+        <v>1.1549702482701545</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0">
-        <v>0.18069247496423463</v>
+        <v>0.18453699570815449</v>
       </c>
       <c r="B530" s="0">
-        <v>0.017266718317664468</v>
+        <v>0.0178912291854346</v>
       </c>
       <c r="C530" s="0">
-        <v>1.0575834071657497</v>
+        <v>1.1354600560023946</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0">
-        <v>0.1810340486409156</v>
+        <v>0.18488583690987123</v>
       </c>
       <c r="B531" s="0">
-        <v>0.017179666530820703</v>
+        <v>0.017749323988636844</v>
       </c>
       <c r="C531" s="0">
-        <v>1.046946475740524</v>
+        <v>1.1175195685352779</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0">
-        <v>0.18137562231759658</v>
+        <v>0.18523467811158797</v>
       </c>
       <c r="B532" s="0">
-        <v>0.017101709197603669</v>
+        <v>0.017618206935364235</v>
       </c>
       <c r="C532" s="0">
-        <v>1.0374664342875115</v>
+        <v>1.1010699653798906</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0">
-        <v>0.18171719599427755</v>
+        <v>0.18558351931330469</v>
       </c>
       <c r="B533" s="0">
-        <v>0.017032691368264147</v>
+        <v>0.017497558041411274</v>
       </c>
       <c r="C533" s="0">
-        <v>1.0291094690243405</v>
+        <v>1.0860414188100469</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0">
-        <v>0.18205876967095852</v>
+        <v>0.18593236051502143</v>
       </c>
       <c r="B534" s="0">
-        <v>0.016972478787703214</v>
+        <v>0.017387093963302076</v>
       </c>
       <c r="C534" s="0">
-        <v>1.0218462822417849</v>
+        <v>1.0723720969280806</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0">
-        <v>0.18240034334763949</v>
+        <v>0.18628120171673818</v>
       </c>
       <c r="B535" s="0">
-        <v>0.016920956517643186</v>
+        <v>0.01728656418211813</v>
       </c>
       <c r="C535" s="0">
-        <v>1.0156517916281438</v>
+        <v>1.060007330890512</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0">
-        <v>0.18274191702432044</v>
+        <v>0.18663004291845492</v>
       </c>
       <c r="B536" s="0">
-        <v>0.016878027792560067</v>
+        <v>0.017195747805842883</v>
       </c>
       <c r="C536" s="0">
-        <v>1.0105048806060377</v>
+        <v>1.0488989171079677</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0">
-        <v>0.18308349070100141</v>
+        <v>0.18697888412017166</v>
       </c>
       <c r="B537" s="0">
-        <v>0.016843613081705181</v>
+        <v>0.017114450885236124</v>
       </c>
       <c r="C537" s="0">
-        <v>1.0063881936428434</v>
+        <v>1.0390045315088019</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0">
-        <v>0.18342506437768241</v>
+        <v>0.18732772532188838</v>
       </c>
       <c r="B538" s="0">
-        <v>0.016817649335320838</v>
+        <v>0.017042504160310282</v>
       </c>
       <c r="C538" s="0">
-        <v>1.0032879717567231</v>
+        <v>1.0302872377697114</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0">
-        <v>0.18376663805436336</v>
+        <v>0.18767656652360512</v>
       </c>
       <c r="B539" s="0">
-        <v>0.016800089397983303</v>
+        <v>0.016979761171595657</v>
       </c>
       <c r="C539" s="0">
-        <v>1.0011939244938763</v>
+        <v>1.0227150751514744</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0">
-        <v>0.18410821173104436</v>
+        <v>0.18802540772532186</v>
       </c>
       <c r="B540" s="0">
-        <v>0.016790901576122543</v>
+        <v>0.016926096683813743</v>
       </c>
       <c r="C540" s="0">
-        <v>1.0000991355508882</v>
+        <v>1.0162607145091338</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0">
-        <v>0.1844497854077253</v>
+        <v>0.18837424892703861</v>
       </c>
       <c r="B541" s="0">
-        <v>0.016790069350360572</v>
+        <v>0.016881405380246017</v>
       </c>
       <c r="C541" s="0">
-        <v>1</v>
+        <v>1.010901173374001</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0">
-        <v>0.1847913590844063</v>
+        <v>0.18872309012875535</v>
       </c>
       <c r="B542" s="0">
-        <v>0.016797591226533674</v>
+        <v>0.01684560079467147</v>
       </c>
       <c r="C542" s="0">
-        <v>1.0008961917785562</v>
+        <v>1.0066175828784845</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0">
-        <v>0.18513293276108725</v>
+        <v>0.18907193133047207</v>
       </c>
       <c r="B543" s="0">
-        <v>0.016813480722249807</v>
+        <v>0.016818614454757193</v>
       </c>
       <c r="C543" s="0">
-        <v>1.0027906607555042</v>
+        <v>1.0033950008247155</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0">
-        <v>0.18547450643776825</v>
+        <v>0.18942077253218881</v>
       </c>
       <c r="B544" s="0">
-        <v>0.016837766488698079</v>
+        <v>0.016800395216611232</v>
       </c>
       <c r="C544" s="0">
-        <v>1.0056896593131683</v>
+        <v>1.001222266469064</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="0">
-        <v>0.18581608011444919</v>
+        <v>0.18976961373390555</v>
       </c>
       <c r="B545" s="0">
-        <v>0.016870492570281764</v>
+        <v>0.016790908775144688</v>
       </c>
       <c r="C545" s="0">
-        <v>1.0096027990054535</v>
+        <v>1.0000918936721732</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0">
-        <v>0.1861576537911302</v>
+        <v>0.19011845493562232</v>
       </c>
       <c r="B546" s="0">
-        <v>0.016911718807599691</v>
+        <v>0.016790137339178605</v>
       </c>
       <c r="C546" s="0">
-        <v>1.0145431384981252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0">
-        <v>0.18649922746781114</v>
+        <v>0.19046729613733901</v>
       </c>
       <c r="B547" s="0">
-        <v>0.016961521392466539</v>
+        <v>0.016798079464064031</v>
       </c>
       <c r="C547" s="0">
-        <v>1.0205273046876666</v>
+        <v>1.0009462701977603</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0">
-        <v>0.18684080114449214</v>
+        <v>0.19081613733905575</v>
       </c>
       <c r="B548" s="0">
-        <v>0.017019993587170552</v>
+        <v>0.016814750038124094</v>
       </c>
       <c r="C548" s="0">
-        <v>1.027575649660698</v>
+        <v>1.0029339532312873</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0">
-        <v>0.18718237482117312</v>
+        <v>0.1911649785407725</v>
       </c>
       <c r="B549" s="0">
-        <v>0.017087246624164661</v>
+        <v>0.016840180422620182</v>
       </c>
       <c r="C549" s="0">
-        <v>1.0357124470283423</v>
+        <v>1.0059698928307885</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0">
-        <v>0.18752394849785409</v>
+        <v>0.19151381974248927</v>
       </c>
       <c r="B550" s="0">
-        <v>0.017163410807056748</v>
+        <v>0.016874418748325546</v>
       </c>
       <c r="C550" s="0">
-        <v>1.0449661321889241</v>
+        <v>1.0100645922098528</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0">
-        <v>0.18786552217453506</v>
+        <v>0.19186266094420601</v>
       </c>
       <c r="B551" s="0">
-        <v>0.017245316919631895</v>
+        <v>0.016917530375294015</v>
       </c>
       <c r="C551" s="0">
-        <v>1.0549633682890272</v>
+        <v>1.015232314397291</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0">
-        <v>0.18820709585121601</v>
+        <v>0.1922115021459227</v>
       </c>
       <c r="B552" s="0">
-        <v>0.017327321504063888</v>
+        <v>0.016969598526181198</v>
       </c>
       <c r="C552" s="0">
-        <v>1.065020304056056</v>
+        <v>1.0214912204420203</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0">
-        <v>0.18854866952789701</v>
+        <v>0.19256034334763944</v>
       </c>
       <c r="B553" s="0">
-        <v>0.017409326088495894</v>
+        <v>0.01703072510767038</v>
       </c>
       <c r="C553" s="0">
-        <v>1.0751249489292374</v>
+        <v>1.0288635486666009</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0">
-        <v>0.18889024320457795</v>
+        <v>0.19290918454935621</v>
       </c>
       <c r="B554" s="0">
-        <v>0.017491330672927887</v>
+        <v>0.017101031739362213</v>
       </c>
       <c r="C554" s="0">
-        <v>1.0852773029085678</v>
+        <v>1.037375839194036</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0">
-        <v>0.18923181688125895</v>
+        <v>0.19325802575107295</v>
       </c>
       <c r="B555" s="0">
-        <v>0.017573335257359893</v>
+        <v>0.017180642390495219</v>
       </c>
       <c r="C555" s="0">
-        <v>1.0954773659940507</v>
+        <v>1.0470569390838498</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0">
-        <v>0.1895733905579399</v>
+        <v>0.1936068669527897</v>
       </c>
       <c r="B556" s="0">
-        <v>0.017655339841791892</v>
+        <v>0.017264391753319393</v>
       </c>
       <c r="C556" s="0">
-        <v>1.1057251381856841</v>
+        <v>1.0572898603826686</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0">
-        <v>0.1899149642346209</v>
+        <v>0.19395570815450641</v>
       </c>
       <c r="B557" s="0">
-        <v>0.017737344426223899</v>
+        <v>0.017348141116143554</v>
       </c>
       <c r="C557" s="0">
-        <v>1.1160206194834688</v>
+        <v>1.0675725421569735</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0">
-        <v>0.19025653791130184</v>
+        <v>0.19430454935622316</v>
       </c>
       <c r="B558" s="0">
-        <v>0.017819349010655891</v>
+        <v>0.017431890478967729</v>
       </c>
       <c r="C558" s="0">
-        <v>1.1263638098874023</v>
+        <v>1.0779049844067685</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0">
-        <v>0.19059811158798284</v>
+        <v>0.1946533905579399</v>
       </c>
       <c r="B559" s="0">
-        <v>0.017901353595087898</v>
+        <v>0.017515639841791903</v>
       </c>
       <c r="C559" s="0">
-        <v>1.1367547093974883</v>
+        <v>1.0882871871320521</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="0">
-        <v>0.19093968526466379</v>
+        <v>0.19500223175965664</v>
       </c>
       <c r="B560" s="0">
-        <v>0.01798335817951989</v>
+        <v>0.017599389204616071</v>
       </c>
       <c r="C560" s="0">
-        <v>1.1471933180137235</v>
+        <v>1.0987191503328233</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0">
-        <v>0.19128125894134479</v>
+        <v>0.19535107296137338</v>
       </c>
       <c r="B561" s="0">
-        <v>0.018065362763951903</v>
+        <v>0.017683138567440245</v>
       </c>
       <c r="C561" s="0">
-        <v>1.1576796357361123</v>
+        <v>1.1092008740090842</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0">
-        <v>0.19162283261802573</v>
+        <v>0.1956999141630901</v>
       </c>
       <c r="B562" s="0">
-        <v>0.018147367348383896</v>
+        <v>0.017766887930264413</v>
       </c>
       <c r="C562" s="0">
-        <v>1.1682136625646489</v>
+        <v>1.1197323581608323</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0">
-        <v>0.19196440629470674</v>
+        <v>0.19604875536480684</v>
       </c>
       <c r="B563" s="0">
-        <v>0.018229371932815902</v>
+        <v>0.01785063729308858</v>
       </c>
       <c r="C563" s="0">
-        <v>1.1787953984993385</v>
+        <v>1.1303136027880687</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0">
-        <v>0.19230597997138768</v>
+        <v>0.19639759656652359</v>
       </c>
       <c r="B564" s="0">
-        <v>0.018311376517247895</v>
+        <v>0.017934386655912755</v>
       </c>
       <c r="C564" s="0">
-        <v>1.1894248435401771</v>
+        <v>1.1409446078907946</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0">
-        <v>0.19264755364806868</v>
+        <v>0.19674643776824033</v>
       </c>
       <c r="B565" s="0">
-        <v>0.018393381101679901</v>
+        <v>0.018018136018736929</v>
       </c>
       <c r="C565" s="0">
-        <v>1.2001019976871681</v>
+        <v>1.1516253734690087</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="0">
-        <v>0.19298912732474966</v>
+        <v>0.19709527896995707</v>
       </c>
       <c r="B566" s="0">
-        <v>0.018475385686111907</v>
+        <v>0.018101885381561097</v>
       </c>
       <c r="C566" s="0">
-        <v>1.2108268609403099</v>
+        <v>1.162355899522711</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0">
-        <v>0.19333070100143063</v>
+        <v>0.19744412017167379</v>
       </c>
       <c r="B567" s="0">
-        <v>0.018557390270543907</v>
+        <v>0.018185634744385264</v>
       </c>
       <c r="C567" s="0">
-        <v>1.2215994332996016</v>
+        <v>1.1731361860519012</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0">
-        <v>0.1936722746781116</v>
+        <v>0.19779296137339053</v>
       </c>
       <c r="B568" s="0">
-        <v>0.018639394854975906</v>
+        <v>0.018269384107209439</v>
       </c>
       <c r="C568" s="0">
-        <v>1.232419714765044</v>
+        <v>1.1839662330565808</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0">
-        <v>0.19401384835479255</v>
+        <v>0.19814180257510727</v>
       </c>
       <c r="B569" s="0">
-        <v>0.018721399439407899</v>
+        <v>0.018353133470033606</v>
       </c>
       <c r="C569" s="0">
-        <v>1.2432877053366362</v>
+        <v>1.1948460405367478</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0">
-        <v>0.19435542203147355</v>
+        <v>0.19849064377682402</v>
       </c>
       <c r="B570" s="0">
-        <v>0.018803404023839905</v>
+        <v>0.018436882832857781</v>
       </c>
       <c r="C570" s="0">
-        <v>1.2542034050143813</v>
+        <v>1.2057756084924043</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="0">
-        <v>0.19469699570815449</v>
+        <v>0.19883948497854076</v>
       </c>
       <c r="B571" s="0">
-        <v>0.018885408608271904</v>
+        <v>0.018520632195681955</v>
       </c>
       <c r="C571" s="0">
-        <v>1.2651668137982766</v>
+        <v>1.2167549369235493</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0">
-        <v>0.19503856938483549</v>
+        <v>0.19918832618025747</v>
       </c>
       <c r="B572" s="0">
-        <v>0.018967413192703911</v>
+        <v>0.018604381558506116</v>
       </c>
       <c r="C572" s="0">
-        <v>1.2761779316883231</v>
+        <v>1.2277840258301811</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0">
-        <v>0.19538014306151644</v>
+        <v>0.19953716738197422</v>
       </c>
       <c r="B573" s="0">
-        <v>0.019049417777135903</v>
+        <v>0.018688130921330291</v>
       </c>
       <c r="C573" s="0">
-        <v>1.2872367586845186</v>
+        <v>1.238862875212303</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="0">
-        <v>0.19572171673819744</v>
+        <v>0.19988600858369096</v>
       </c>
       <c r="B574" s="0">
-        <v>0.01913142236156791</v>
+        <v>0.018771880284154465</v>
       </c>
       <c r="C574" s="0">
-        <v>1.2983432947868667</v>
+        <v>1.2499914850699132</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0">
-        <v>0.19606329041487838</v>
+        <v>0.2002348497854077</v>
       </c>
       <c r="B575" s="0">
-        <v>0.019213426945999902</v>
+        <v>0.018855629646978633</v>
       </c>
       <c r="C575" s="0">
-        <v>1.3094975399953637</v>
+        <v>1.2611698554030109</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0">
-        <v>0.19640486409155938</v>
+        <v>0.20058369098712448</v>
       </c>
       <c r="B576" s="0">
-        <v>0.019295431530431909</v>
+        <v>0.018939379009802814</v>
       </c>
       <c r="C576" s="0">
-        <v>1.3206994943100134</v>
+        <v>1.2723979862115991</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0">
-        <v>0.19674643776824033</v>
+        <v>0.20093253218884116</v>
       </c>
       <c r="B577" s="0">
-        <v>0.019377436114863908</v>
+        <v>0.019023128372626975</v>
       </c>
       <c r="C577" s="0">
-        <v>1.3319491577308131</v>
+        <v>1.2836758774956731</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0">
-        <v>0.19708801144492133</v>
+        <v>0.20128137339055791</v>
       </c>
       <c r="B578" s="0">
-        <v>0.019459440699295914</v>
+        <v>0.019106877735451142</v>
       </c>
       <c r="C578" s="0">
-        <v>1.3432465302577645</v>
+        <v>1.295003529255236</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0">
-        <v>0.19742958512160227</v>
+        <v>0.20163021459227465</v>
       </c>
       <c r="B579" s="0">
-        <v>0.019541445283727907</v>
+        <v>0.019190627098275317</v>
       </c>
       <c r="C579" s="0">
-        <v>1.3545916118908652</v>
+        <v>1.3063809414902885</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0">
-        <v>0.19777115879828328</v>
+        <v>0.20197905579399142</v>
       </c>
       <c r="B580" s="0">
-        <v>0.019623449868159913</v>
+        <v>0.019274376461099498</v>
       </c>
       <c r="C580" s="0">
-        <v>1.3659844026301182</v>
+        <v>1.3178081142008304</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0">
-        <v>0.19811273247496422</v>
+        <v>0.20232789699570811</v>
       </c>
       <c r="B581" s="0">
-        <v>0.019705454452591906</v>
+        <v>0.019358125823923652</v>
       </c>
       <c r="C581" s="0">
-        <v>1.3774249024755199</v>
+        <v>1.3292850473868572</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0">
-        <v>0.19845430615164522</v>
+        <v>0.20267673819742485</v>
       </c>
       <c r="B582" s="0">
-        <v>0.019787459037023919</v>
+        <v>0.019441875186747826</v>
       </c>
       <c r="C582" s="0">
-        <v>1.3889131114270756</v>
+        <v>1.3408117410483751</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0">
-        <v>0.19879587982832617</v>
+        <v>0.20302557939914159</v>
       </c>
       <c r="B583" s="0">
-        <v>0.019869463621455911</v>
+        <v>0.019525624549572001</v>
       </c>
       <c r="C583" s="0">
-        <v>1.4004490294847789</v>
+        <v>1.3523881951853813</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0">
-        <v>0.19913745350500714</v>
+        <v>0.20337442060085836</v>
       </c>
       <c r="B584" s="0">
-        <v>0.019951468205887911</v>
+        <v>0.019609373912396175</v>
       </c>
       <c r="C584" s="0">
-        <v>1.4120326566486341</v>
+        <v>1.3640144097978759</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0">
-        <v>0.19947902718168814</v>
+        <v>0.20372326180257511</v>
       </c>
       <c r="B585" s="0">
-        <v>0.020033472790319917</v>
+        <v>0.01969312327522035</v>
       </c>
       <c r="C585" s="0">
-        <v>1.423663992918641</v>
+        <v>1.375690384885859</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0">
-        <v>0.19982060085836909</v>
+        <v>0.20407210300429179</v>
       </c>
       <c r="B586" s="0">
-        <v>0.02011547737475191</v>
+        <v>0.019776872638044511</v>
       </c>
       <c r="C586" s="0">
-        <v>1.4353430382947974</v>
+        <v>1.3874161204493289</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="0">
-        <v>0.20016217453505009</v>
+        <v>0.20442094420600857</v>
       </c>
       <c r="B587" s="0">
-        <v>0.020197481959183923</v>
+        <v>0.019860622000868685</v>
       </c>
       <c r="C587" s="0">
-        <v>1.4470697927771063</v>
+        <v>1.3991916164882889</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="0">
-        <v>0.20050374821173103</v>
+        <v>0.20476978540772531</v>
       </c>
       <c r="B588" s="0">
-        <v>0.020279486543615916</v>
+        <v>0.01994437136369286</v>
       </c>
       <c r="C588" s="0">
-        <v>1.4588442563655642</v>
+        <v>1.4110168730027375</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0">
-        <v>0.20084532188841203</v>
+        <v>0.20511862660944205</v>
       </c>
       <c r="B589" s="0">
-        <v>0.020361491128047922</v>
+        <v>0.020028120726517034</v>
       </c>
       <c r="C589" s="0">
-        <v>1.4706664290601745</v>
+        <v>1.4228918899926744</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0">
-        <v>0.20118689556509298</v>
+        <v>0.20546746781115879</v>
       </c>
       <c r="B590" s="0">
-        <v>0.020443495712479914</v>
+        <v>0.020111870089341202</v>
       </c>
       <c r="C590" s="0">
-        <v>1.4825363108609333</v>
+        <v>1.4348166674580987</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0">
-        <v>0.20152846924177398</v>
+        <v>0.20581630901287551</v>
       </c>
       <c r="B591" s="0">
-        <v>0.020525500296911921</v>
+        <v>0.020195619452165369</v>
       </c>
       <c r="C591" s="0">
-        <v>1.4944539017678451</v>
+        <v>1.4467912053990113</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0">
-        <v>0.20187004291845492</v>
+        <v>0.20616515021459225</v>
       </c>
       <c r="B592" s="0">
-        <v>0.02060750488134392</v>
+        <v>0.020279368814989544</v>
       </c>
       <c r="C592" s="0">
-        <v>1.5064192017809066</v>
+        <v>1.458815503815414</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0">
-        <v>0.20221161659513592</v>
+        <v>0.206513991416309</v>
       </c>
       <c r="B593" s="0">
-        <v>0.020689509465775927</v>
+        <v>0.020363118177813711</v>
       </c>
       <c r="C593" s="0">
-        <v>1.51843221090012</v>
+        <v>1.4708895627073035</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0">
-        <v>0.20255319027181687</v>
+        <v>0.20686283261802574</v>
       </c>
       <c r="B594" s="0">
-        <v>0.020771514050207919</v>
+        <v>0.020446867540637886</v>
       </c>
       <c r="C594" s="0">
-        <v>1.5304929291254821</v>
+        <v>1.4830133820746827</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="0">
-        <v>0.20289476394849787</v>
+        <v>0.20721167381974248</v>
       </c>
       <c r="B595" s="0">
-        <v>0.020853518634639925</v>
+        <v>0.02053061690346206</v>
       </c>
       <c r="C595" s="0">
-        <v>1.5426013564569976</v>
+        <v>1.4951869619175502</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0">
-        <v>0.20323633762517882</v>
+        <v>0.2075605150214592</v>
       </c>
       <c r="B596" s="0">
-        <v>0.020935523219071918</v>
+        <v>0.020614366266286221</v>
       </c>
       <c r="C596" s="0">
-        <v>1.5547574928946613</v>
+        <v>1.507410302235904</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0">
-        <v>0.20357791130185982</v>
+        <v>0.20790935622317594</v>
       </c>
       <c r="B597" s="0">
-        <v>0.021017527803503924</v>
+        <v>0.020698115629110395</v>
       </c>
       <c r="C597" s="0">
-        <v>1.5669613384384777</v>
+        <v>1.519683403029749</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="0">
-        <v>0.20391948497854076</v>
+        <v>0.20825819742489268</v>
       </c>
       <c r="B598" s="0">
-        <v>0.021099532387935924</v>
+        <v>0.02078186499193457</v>
       </c>
       <c r="C598" s="0">
-        <v>1.5792128930884442</v>
+        <v>1.5320062642990817</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0">
-        <v>0.20426105865522176</v>
+        <v>0.20860703862660943</v>
       </c>
       <c r="B599" s="0">
-        <v>0.02118153697236793</v>
+        <v>0.020865614354758737</v>
       </c>
       <c r="C599" s="0">
-        <v>1.5915121568445623</v>
+        <v>1.5443788860439021</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0">
-        <v>0.20460263233190271</v>
+        <v>0.20895587982832617</v>
       </c>
       <c r="B600" s="0">
-        <v>0.021263541556799923</v>
+        <v>0.020949363717582912</v>
       </c>
       <c r="C600" s="0">
-        <v>1.6038591297068292</v>
+        <v>1.5568012682642118</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0">
-        <v>0.20494420600858368</v>
+        <v>0.20930472103004288</v>
       </c>
       <c r="B601" s="0">
-        <v>0.021345546141231922</v>
+        <v>0.021033113080407079</v>
       </c>
       <c r="C601" s="0">
-        <v>1.6162538116752479</v>
+        <v>1.5692734109600088</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0">
-        <v>0.20528577968526468</v>
+        <v>0.20965356223175963</v>
       </c>
       <c r="B602" s="0">
-        <v>0.021427550725663928</v>
+        <v>0.021116862443231247</v>
       </c>
       <c r="C602" s="0">
-        <v>1.6286962027498184</v>
+        <v>1.5817953141312948</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0">
-        <v>0.20562735336194563</v>
+        <v>0.21000240343347637</v>
       </c>
       <c r="B603" s="0">
-        <v>0.021509555310095928</v>
+        <v>0.021200611806055421</v>
       </c>
       <c r="C603" s="0">
-        <v>1.6411863029305394</v>
+        <v>1.59436697777807</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0">
-        <v>0.20596892703862663</v>
+        <v>0.21035124463519311</v>
       </c>
       <c r="B604" s="0">
-        <v>0.021591559894527934</v>
+        <v>0.021284361168879596</v>
       </c>
       <c r="C604" s="0">
-        <v>1.6537241122174116</v>
+        <v>1.6069884019003335</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0">
-        <v>0.20631050071530757</v>
+        <v>0.21070008583690986</v>
       </c>
       <c r="B605" s="0">
-        <v>0.021673564478959927</v>
+        <v>0.021368110531703764</v>
       </c>
       <c r="C605" s="0">
-        <v>1.6663096306104321</v>
+        <v>1.6196595864980843</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0">
-        <v>0.20665207439198857</v>
+        <v>0.21104892703862657</v>
       </c>
       <c r="B606" s="0">
-        <v>0.021755569063391933</v>
+        <v>0.021451859894527931</v>
       </c>
       <c r="C606" s="0">
-        <v>1.678942858109606</v>
+        <v>1.6323805315713236</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0">
-        <v>0.20699364806866952</v>
+        <v>0.21139776824034332</v>
       </c>
       <c r="B607" s="0">
-        <v>0.021837573647823926</v>
+        <v>0.021535609257352106</v>
       </c>
       <c r="C607" s="0">
-        <v>1.6916237947149284</v>
+        <v>1.6451512371200523</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0">
-        <v>0.20733522174535052</v>
+        <v>0.21174660944206006</v>
       </c>
       <c r="B608" s="0">
-        <v>0.021919578232255939</v>
+        <v>0.021619358620176273</v>
       </c>
       <c r="C608" s="0">
-        <v>1.704352440426405</v>
+        <v>1.6579717031442691</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0">
-        <v>0.20767679542203146</v>
+        <v>0.2120954506437768</v>
       </c>
       <c r="B609" s="0">
-        <v>0.022001582816687931</v>
+        <v>0.021703107983000448</v>
       </c>
       <c r="C609" s="0">
-        <v>1.7171287952440288</v>
+        <v>1.6708419296439747</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0">
-        <v>0.20801836909871246</v>
+        <v>0.21244429184549357</v>
       </c>
       <c r="B610" s="0">
-        <v>0.022083587401119938</v>
+        <v>0.021786857345824622</v>
       </c>
       <c r="C610" s="0">
-        <v>1.7299528591678057</v>
+        <v>1.6837619166191689</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0">
-        <v>0.20835994277539341</v>
+        <v>0.21279313304721026</v>
       </c>
       <c r="B611" s="0">
-        <v>0.02216559198555193</v>
+        <v>0.021870606708648783</v>
       </c>
       <c r="C611" s="0">
-        <v>1.7428246321977319</v>
+        <v>1.6967316640698493</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0">
-        <v>0.20870151645207441</v>
+        <v>0.213141974248927</v>
       </c>
       <c r="B612" s="0">
-        <v>0.022247596569983936</v>
+        <v>0.021954356071472957</v>
       </c>
       <c r="C612" s="0">
-        <v>1.7557441143338106</v>
+        <v>1.7097511719960203</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0">
-        <v>0.20904309012875536</v>
+        <v>0.21349081545064374</v>
       </c>
       <c r="B613" s="0">
-        <v>0.022329601154415936</v>
+        <v>0.022038105434297132</v>
       </c>
       <c r="C613" s="0">
-        <v>1.7687113055760388</v>
+        <v>1.7228204403976803</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0">
-        <v>0.20938466380543636</v>
+        <v>0.21383965665236052</v>
       </c>
       <c r="B614" s="0">
-        <v>0.022411605738847942</v>
+        <v>0.022121854797121306</v>
       </c>
       <c r="C614" s="0">
-        <v>1.781726205924419</v>
+        <v>1.7359394692748282</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0">
-        <v>0.2097262374821173</v>
+        <v>0.2141884978540772</v>
       </c>
       <c r="B615" s="0">
-        <v>0.022493610323279935</v>
+        <v>0.022205604159945467</v>
       </c>
       <c r="C615" s="0">
-        <v>1.7947888153789475</v>
+        <v>1.7491082586274622</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0">
-        <v>0.21006781115879827</v>
+        <v>0.21453733905579395</v>
       </c>
       <c r="B616" s="0">
-        <v>0.022575614907711934</v>
+        <v>0.022289353522769642</v>
       </c>
       <c r="C616" s="0">
-        <v>1.8078991339396282</v>
+        <v>1.7623268084555872</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0">
-        <v>0.21040938483547925</v>
+        <v>0.21488618025751072</v>
       </c>
       <c r="B617" s="0">
-        <v>0.022657619492143934</v>
+        <v>0.022373102885593816</v>
       </c>
       <c r="C617" s="0">
-        <v>1.8210571616064597</v>
+        <v>1.7755951187592003</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0">
-        <v>0.21075095851216022</v>
+        <v>0.21523502145922746</v>
       </c>
       <c r="B618" s="0">
-        <v>0.02273962407657594</v>
+        <v>0.02245685224841799</v>
       </c>
       <c r="C618" s="0">
-        <v>1.8342628983794431</v>
+        <v>1.7889131895383021</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0">
-        <v>0.21109253218884122</v>
+        <v>0.2155838626609442</v>
       </c>
       <c r="B619" s="0">
-        <v>0.022821628661007946</v>
+        <v>0.022540601611242158</v>
       </c>
       <c r="C619" s="0">
-        <v>1.8475163442585774</v>
+        <v>1.8022810207928917</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0">
-        <v>0.21143410586552217</v>
+        <v>0.21593270386266089</v>
       </c>
       <c r="B620" s="0">
-        <v>0.022903633245439939</v>
+        <v>0.022624350974066319</v>
       </c>
       <c r="C620" s="0">
-        <v>1.8608174992438604</v>
+        <v>1.8156986125229677</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0">
-        <v>0.21177567954220317</v>
+        <v>0.21628154506437766</v>
       </c>
       <c r="B621" s="0">
-        <v>0.022985637829871945</v>
+        <v>0.0227081003368905</v>
       </c>
       <c r="C621" s="0">
-        <v>1.8741663633352963</v>
+        <v>1.8291659647285361</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0">
-        <v>0.21211725321888411</v>
+        <v>0.2166303862660944</v>
       </c>
       <c r="B622" s="0">
-        <v>0.023067642414303938</v>
+        <v>0.022791849699714668</v>
       </c>
       <c r="C622" s="0">
-        <v>1.8875629365328806</v>
+        <v>1.8426830774095904</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0">
-        <v>0.21245882689556511</v>
+        <v>0.21697922746781115</v>
       </c>
       <c r="B623" s="0">
-        <v>0.023149646998735944</v>
+        <v>0.022875599062538842</v>
       </c>
       <c r="C623" s="0">
-        <v>1.9010072188366178</v>
+        <v>1.8562499505661343</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0">
-        <v>0.21280040057224606</v>
+        <v>0.21732806866952789</v>
       </c>
       <c r="B624" s="0">
-        <v>0.023231651583167943</v>
+        <v>0.022959348425363017</v>
       </c>
       <c r="C624" s="0">
-        <v>1.9144992102465048</v>
+        <v>1.8698665841981672</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0">
-        <v>0.21314197424892706</v>
+        <v>0.21767690987124461</v>
       </c>
       <c r="B625" s="0">
-        <v>0.02331365616759995</v>
+        <v>0.023043097788187177</v>
       </c>
       <c r="C625" s="0">
-        <v>1.928038910762544</v>
+        <v>1.8835329783056856</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0">
-        <v>0.213483547925608</v>
+        <v>0.21802575107296135</v>
       </c>
       <c r="B626" s="0">
-        <v>0.023395660752031942</v>
+        <v>0.023126847151011352</v>
       </c>
       <c r="C626" s="0">
-        <v>1.9416263203847319</v>
+        <v>1.8972491328886947</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0">
-        <v>0.213825121602289</v>
+        <v>0.21837459227467809</v>
       </c>
       <c r="B627" s="0">
-        <v>0.023477665336463949</v>
+        <v>0.023210596513835526</v>
       </c>
       <c r="C627" s="0">
-        <v>1.9552614391130725</v>
+        <v>1.9110150479471923</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0">
-        <v>0.21416669527896995</v>
+        <v>0.21872343347639484</v>
       </c>
       <c r="B628" s="0">
-        <v>0.023559669920895941</v>
+        <v>0.023294345876659694</v>
       </c>
       <c r="C628" s="0">
-        <v>1.9689442669475614</v>
+        <v>1.9248307234811779</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="0">
-        <v>0.21450826895565095</v>
+        <v>0.21907227467811158</v>
       </c>
       <c r="B629" s="0">
-        <v>0.023641674505327955</v>
+        <v>0.023378095239483868</v>
       </c>
       <c r="C629" s="0">
-        <v>1.9826748038882049</v>
+        <v>1.9386961594906524</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0">
-        <v>0.2148498426323319</v>
+        <v>0.21942111587982829</v>
       </c>
       <c r="B630" s="0">
-        <v>0.023723679089759947</v>
+        <v>0.023461844602308036</v>
       </c>
       <c r="C630" s="0">
-        <v>1.9964530499349955</v>
+        <v>1.9526113559756142</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0">
-        <v>0.2151914163090129</v>
+        <v>0.21976995708154504</v>
       </c>
       <c r="B631" s="0">
-        <v>0.023805683674191953</v>
+        <v>0.023545593965132204</v>
       </c>
       <c r="C631" s="0">
-        <v>2.0102790050879391</v>
+        <v>1.9665763129360645</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0">
-        <v>0.21553298998569384</v>
+        <v>0.22011879828326178</v>
       </c>
       <c r="B632" s="0">
-        <v>0.023887688258623946</v>
+        <v>0.023629343327956378</v>
       </c>
       <c r="C632" s="0">
-        <v>2.0241526693470315</v>
+        <v>1.9805910303720045</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0">
-        <v>0.21587456366237481</v>
+        <v>0.22046763948497852</v>
       </c>
       <c r="B633" s="0">
-        <v>0.023969692843055945</v>
+        <v>0.023713092690780553</v>
       </c>
       <c r="C633" s="0">
-        <v>2.0380740427122763</v>
+        <v>1.9946555082834327</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0">
-        <v>0.21621613733905579</v>
+        <v>0.22081648068669527</v>
       </c>
       <c r="B634" s="0">
-        <v>0.024051697427487952</v>
+        <v>0.02379684205360472</v>
       </c>
       <c r="C634" s="0">
-        <v>2.0520431251836726</v>
+        <v>2.0087697466703487</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0">
-        <v>0.21655771101573676</v>
+        <v>0.22116532188841198</v>
       </c>
       <c r="B635" s="0">
-        <v>0.024133702011919951</v>
+        <v>0.023880591416428888</v>
       </c>
       <c r="C635" s="0">
-        <v>2.0660599167612182</v>
+        <v>2.022933745532753</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="0">
-        <v>0.21689928469241773</v>
+        <v>0.22151416309012872</v>
       </c>
       <c r="B636" s="0">
-        <v>0.024215706596351951</v>
+        <v>0.023964340779253062</v>
       </c>
       <c r="C636" s="0">
-        <v>2.0801244174449147</v>
+        <v>2.0371475048706462</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0">
-        <v>0.21724085836909871</v>
+        <v>0.22186300429184547</v>
       </c>
       <c r="B637" s="0">
-        <v>0.02429771118078395</v>
+        <v>0.02404809014207723</v>
       </c>
       <c r="C637" s="0">
-        <v>2.0942366272347619</v>
+        <v>2.0514110246840272</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0">
-        <v>0.21758243204577971</v>
+        <v>0.22221184549356221</v>
       </c>
       <c r="B638" s="0">
-        <v>0.024379715765215956</v>
+        <v>0.024131839504901404</v>
       </c>
       <c r="C638" s="0">
-        <v>2.1083965461307614</v>
+        <v>2.0657243049728979</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0">
-        <v>0.21792400572246065</v>
+        <v>0.22256068669527895</v>
       </c>
       <c r="B639" s="0">
-        <v>0.024461720349647956</v>
+        <v>0.024215588867725579</v>
       </c>
       <c r="C639" s="0">
-        <v>2.1226041741329103</v>
+        <v>2.0800873457372573</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="0">
-        <v>0.21826557939914165</v>
+        <v>0.22290952789699567</v>
       </c>
       <c r="B640" s="0">
-        <v>0.024543724934079962</v>
+        <v>0.024299338230549739</v>
       </c>
       <c r="C640" s="0">
-        <v>2.1368595112412114</v>
+        <v>2.0945001469771021</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0">
-        <v>0.2186071530758226</v>
+        <v>0.22325836909871241</v>
       </c>
       <c r="B641" s="0">
-        <v>0.024625729518511955</v>
+        <v>0.024383087593373914</v>
       </c>
       <c r="C641" s="0">
-        <v>2.1511625574556605</v>
+        <v>2.1089627086924381</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0">
-        <v>0.2189487267525036</v>
+        <v>0.22360721030042915</v>
       </c>
       <c r="B642" s="0">
-        <v>0.024707734102943961</v>
+        <v>0.024466836956198088</v>
       </c>
       <c r="C642" s="0">
-        <v>2.1655133127762634</v>
+        <v>2.1234750308832626</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0">
-        <v>0.21929030042918454</v>
+        <v>0.2239560515021459</v>
       </c>
       <c r="B643" s="0">
-        <v>0.024789738687375953</v>
+        <v>0.024550586319022256</v>
       </c>
       <c r="C643" s="0">
-        <v>2.1799117772030145</v>
+        <v>2.1380371135495739</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="0">
-        <v>0.21963187410586554</v>
+        <v>0.22430489270386267</v>
       </c>
       <c r="B644" s="0">
-        <v>0.02487174327180796</v>
+        <v>0.024634335681846437</v>
       </c>
       <c r="C644" s="0">
-        <v>2.194357950735919</v>
+        <v>2.1526489566913765</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0">
-        <v>0.21997344778254649</v>
+        <v>0.22465373390557936</v>
       </c>
       <c r="B645" s="0">
-        <v>0.024953747856239959</v>
+        <v>0.024718085044670598</v>
       </c>
       <c r="C645" s="0">
-        <v>2.2088518333749727</v>
+        <v>2.167310560308664</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0">
-        <v>0.22031502145922749</v>
+        <v>0.2250025751072961</v>
       </c>
       <c r="B646" s="0">
-        <v>0.025035752440671966</v>
+        <v>0.024801834407494765</v>
       </c>
       <c r="C646" s="0">
-        <v>2.2233934251201783</v>
+        <v>2.1820219244014409</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="0">
-        <v>0.22065659513590844</v>
+        <v>0.22535141630901284</v>
       </c>
       <c r="B647" s="0">
-        <v>0.025117757025103958</v>
+        <v>0.02488558377031894</v>
       </c>
       <c r="C647" s="0">
-        <v>2.2379827259715324</v>
+        <v>2.1967830489697073</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="0">
-        <v>0.22099816881258941</v>
+        <v>0.22570025751072961</v>
       </c>
       <c r="B648" s="0">
-        <v>0.025199761609535958</v>
+        <v>0.024969333133143121</v>
       </c>
       <c r="C648" s="0">
-        <v>2.2526197359290387</v>
+        <v>2.2115939340134636</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0">
-        <v>0.22133974248927038</v>
+        <v>0.2260490987124463</v>
       </c>
       <c r="B649" s="0">
-        <v>0.025281766193967957</v>
+        <v>0.025053082495967275</v>
       </c>
       <c r="C649" s="0">
-        <v>2.2673044549926962</v>
+        <v>2.2264545795327035</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0">
-        <v>0.22168131616595135</v>
+        <v>0.22639793991416304</v>
       </c>
       <c r="B650" s="0">
-        <v>0.025363770778399963</v>
+        <v>0.02513683185879145</v>
       </c>
       <c r="C650" s="0">
-        <v>2.2820368831625051</v>
+        <v>2.2413649855274356</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="0">
-        <v>0.22202288984263233</v>
+        <v>0.22674678111587981</v>
       </c>
       <c r="B651" s="0">
-        <v>0.025445775362831963</v>
+        <v>0.025220581221615631</v>
       </c>
       <c r="C651" s="0">
-        <v>2.2968170204384637</v>
+        <v>2.256325151997657</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0">
-        <v>0.2223644635193133</v>
+        <v>0.22709562231759656</v>
       </c>
       <c r="B652" s="0">
-        <v>0.025527779947263962</v>
+        <v>0.025304330584439799</v>
       </c>
       <c r="C652" s="0">
-        <v>2.3116448668205729</v>
+        <v>2.2713350789433644</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0">
-        <v>0.22270603719599427</v>
+        <v>0.2274444635193133</v>
       </c>
       <c r="B653" s="0">
-        <v>0.025609784531695962</v>
+        <v>0.025388079947263973</v>
       </c>
       <c r="C653" s="0">
-        <v>2.3265204223088332</v>
+        <v>2.2863947663645616</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0">
-        <v>0.22304761087267524</v>
+        <v>0.22779330472102999</v>
       </c>
       <c r="B654" s="0">
-        <v>0.025691789116127961</v>
+        <v>0.025471829310088134</v>
       </c>
       <c r="C654" s="0">
-        <v>2.341443686903244</v>
+        <v>2.3015042142612452</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="0">
-        <v>0.22338918454935625</v>
+        <v>0.22814214592274676</v>
       </c>
       <c r="B655" s="0">
-        <v>0.025773793700559974</v>
+        <v>0.025555578672912308</v>
       </c>
       <c r="C655" s="0">
-        <v>2.3564146606038081</v>
+        <v>2.3166634226334195</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0">
-        <v>0.22373075822603719</v>
+        <v>0.2284909871244635</v>
       </c>
       <c r="B656" s="0">
-        <v>0.025855798284991967</v>
+        <v>0.025639328035736483</v>
       </c>
       <c r="C656" s="0">
-        <v>2.3714333434105193</v>
+        <v>2.3318723914810819</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0">
-        <v>0.22407233190271819</v>
+        <v>0.22883982832618025</v>
       </c>
       <c r="B657" s="0">
-        <v>0.025937802869423973</v>
+        <v>0.025723077398560657</v>
       </c>
       <c r="C657" s="0">
-        <v>2.3864997353233841</v>
+        <v>2.3471311208042329</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0">
-        <v>0.22441390557939914</v>
+        <v>0.22918866952789699</v>
       </c>
       <c r="B658" s="0">
-        <v>0.026019807453855966</v>
+        <v>0.025806826761384825</v>
       </c>
       <c r="C658" s="0">
-        <v>2.4016138363423973</v>
+        <v>2.3624396106028707</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="0">
-        <v>0.22475547925608014</v>
+        <v>0.2295375107296137</v>
       </c>
       <c r="B659" s="0">
-        <v>0.026101812038287972</v>
+        <v>0.025890576124208992</v>
       </c>
       <c r="C659" s="0">
-        <v>2.4167756464675634</v>
+        <v>2.3777978608769974</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0">
-        <v>0.22509705293276108</v>
+        <v>0.22988635193133045</v>
       </c>
       <c r="B660" s="0">
-        <v>0.026183816622719965</v>
+        <v>0.025974325487033167</v>
       </c>
       <c r="C660" s="0">
-        <v>2.4319851656988778</v>
+        <v>2.3932058716266145</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0">
-        <v>0.22543862660944208</v>
+        <v>0.23023519313304719</v>
       </c>
       <c r="B661" s="0">
-        <v>0.026265821207151978</v>
+        <v>0.026058074849857334</v>
       </c>
       <c r="C661" s="0">
-        <v>2.4472423940363472</v>
+        <v>2.4086636428517174</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0">
-        <v>0.22578020028612303</v>
+        <v>0.23058403433476393</v>
       </c>
       <c r="B662" s="0">
-        <v>0.02634782579158397</v>
+        <v>0.026141824212681509</v>
       </c>
       <c r="C662" s="0">
-        <v>2.4625473314799629</v>
+        <v>2.4241711745523107</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0">
-        <v>0.22612177396280403</v>
+        <v>0.23093287553648068</v>
       </c>
       <c r="B663" s="0">
-        <v>0.026429830376015977</v>
+        <v>0.026225573575505683</v>
       </c>
       <c r="C663" s="0">
-        <v>2.4778999780297322</v>
+        <v>2.4397284667283925</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0">
-        <v>0.22646334763948497</v>
+        <v>0.23128171673819739</v>
       </c>
       <c r="B664" s="0">
-        <v>0.026511834960447969</v>
+        <v>0.026309322938329844</v>
       </c>
       <c r="C664" s="0">
-        <v>2.4933003336856499</v>
+        <v>2.4553355193799602</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="0">
-        <v>0.22680492131616595</v>
+        <v>0.23163055793991413</v>
       </c>
       <c r="B665" s="0">
-        <v>0.026593839544879969</v>
+        <v>0.026393072301154019</v>
       </c>
       <c r="C665" s="0">
-        <v>2.5087483984477199</v>
+        <v>2.4709923325070187</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0">
-        <v>0.22714649499284692</v>
+        <v>0.23197939914163088</v>
       </c>
       <c r="B666" s="0">
-        <v>0.026675844129311975</v>
+        <v>0.026476821663978193</v>
       </c>
       <c r="C666" s="0">
-        <v>2.5242441723159419</v>
+        <v>2.4866989061095657</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0">
-        <v>0.22748806866952789</v>
+        <v>0.23232824034334762</v>
       </c>
       <c r="B667" s="0">
-        <v>0.026757848713743974</v>
+        <v>0.026560571026802361</v>
       </c>
       <c r="C667" s="0">
-        <v>2.5397876552903131</v>
+        <v>2.5024552401875995</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="0">
-        <v>0.22782964234620887</v>
+        <v>0.23267708154506436</v>
       </c>
       <c r="B668" s="0">
-        <v>0.026839853298175974</v>
+        <v>0.026644320389626535</v>
       </c>
       <c r="C668" s="0">
-        <v>2.555378847370835</v>
+        <v>2.5182613347411236</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0">
-        <v>0.22817121602288984</v>
+        <v>0.23302592274678108</v>
       </c>
       <c r="B669" s="0">
-        <v>0.026921857882607973</v>
+        <v>0.026728069752450703</v>
       </c>
       <c r="C669" s="0">
-        <v>2.5710177485575079</v>
+        <v>2.5341171897701344</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0">
-        <v>0.22851278969957078</v>
+        <v>0.23337476394849782</v>
       </c>
       <c r="B670" s="0">
-        <v>0.027003862467039966</v>
+        <v>0.02681181911527487</v>
       </c>
       <c r="C670" s="0">
-        <v>2.58670435885033</v>
+        <v>2.5500228052746343</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0">
-        <v>0.22885436337625178</v>
+        <v>0.23372360515021456</v>
       </c>
       <c r="B671" s="0">
-        <v>0.027085867051471979</v>
+        <v>0.026895568478099045</v>
       </c>
       <c r="C671" s="0">
-        <v>2.6024386782493072</v>
+        <v>2.5659781812546236</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0">
-        <v>0.22919593705293279</v>
+        <v>0.23407244635193131</v>
       </c>
       <c r="B672" s="0">
-        <v>0.027167871635903985</v>
+        <v>0.026979317840923219</v>
       </c>
       <c r="C672" s="0">
-        <v>2.6182207067544341</v>
+        <v>2.581983317710101</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="0">
-        <v>0.22953751072961373</v>
+        <v>0.23442128755364805</v>
       </c>
       <c r="B673" s="0">
-        <v>0.027249876220335978</v>
+        <v>0.027063067203747387</v>
       </c>
       <c r="C673" s="0">
-        <v>2.6340504443657094</v>
+        <v>2.5980382146410657</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="0">
-        <v>0.22987908440629473</v>
+        <v>0.23477012875536477</v>
       </c>
       <c r="B674" s="0">
-        <v>0.027331880804767984</v>
+        <v>0.027146816566571554</v>
       </c>
       <c r="C674" s="0">
-        <v>2.6499278910831374</v>
+        <v>2.6141428720475184</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0">
-        <v>0.23022065808297568</v>
+        <v>0.23511896995708151</v>
       </c>
       <c r="B675" s="0">
-        <v>0.027413885389199977</v>
+        <v>0.027230565929395729</v>
       </c>
       <c r="C675" s="0">
-        <v>2.6658530469067139</v>
+        <v>2.6302972899294623</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="0">
-        <v>0.23056223175965668</v>
+        <v>0.23546781115879825</v>
       </c>
       <c r="B676" s="0">
-        <v>0.027495889973631983</v>
+        <v>0.027314315292219896</v>
       </c>
       <c r="C676" s="0">
-        <v>2.6818259118364436</v>
+        <v>2.6465014682868922</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="0">
-        <v>0.23090380543633762</v>
+        <v>0.235816652360515</v>
       </c>
       <c r="B677" s="0">
-        <v>0.027577894558063983</v>
+        <v>0.027398064655044071</v>
       </c>
       <c r="C677" s="0">
-        <v>2.6978464858723226</v>
+        <v>2.6627554071198118</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="0">
-        <v>0.23124537911301862</v>
+        <v>0.23616549356223177</v>
       </c>
       <c r="B678" s="0">
-        <v>0.027659899142495989</v>
+        <v>0.027481814017868252</v>
       </c>
       <c r="C678" s="0">
-        <v>2.7139147690143539</v>
+        <v>2.6790591064282214</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="0">
-        <v>0.23158695278969957</v>
+        <v>0.23651433476394845</v>
       </c>
       <c r="B679" s="0">
-        <v>0.027741903726927981</v>
+        <v>0.027565563380692406</v>
       </c>
       <c r="C679" s="0">
-        <v>2.7300307612625336</v>
+        <v>2.6954125662121138</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="0">
-        <v>0.23192852646638054</v>
+        <v>0.2368631759656652</v>
       </c>
       <c r="B680" s="0">
-        <v>0.027823908311359981</v>
+        <v>0.02764931274351658</v>
       </c>
       <c r="C680" s="0">
-        <v>2.7461944626168648</v>
+        <v>2.7118157864714996</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="0">
-        <v>0.23227010014306151</v>
+        <v>0.23721201716738197</v>
       </c>
       <c r="B681" s="0">
-        <v>0.02790591289579198</v>
+        <v>0.027733062106340762</v>
       </c>
       <c r="C681" s="0">
-        <v>2.762405873077348</v>
+        <v>2.7282687672063748</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="0">
-        <v>0.23261167381974249</v>
+        <v>0.23756085836909871</v>
       </c>
       <c r="B682" s="0">
-        <v>0.027987917480223987</v>
+        <v>0.027816811469164929</v>
       </c>
       <c r="C682" s="0">
-        <v>2.7786649926439826</v>
+        <v>2.7447715084167355</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="0">
-        <v>0.23295324749642346</v>
+        <v>0.2379096995708154</v>
       </c>
       <c r="B683" s="0">
-        <v>0.028069922064655986</v>
+        <v>0.02790056083198909</v>
       </c>
       <c r="C683" s="0">
-        <v>2.7949718213167665</v>
+        <v>2.7613240101025829</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="0">
-        <v>0.23329482117310443</v>
+        <v>0.23825854077253214</v>
       </c>
       <c r="B684" s="0">
-        <v>0.028151926649087985</v>
+        <v>0.027984310194813265</v>
       </c>
       <c r="C684" s="0">
-        <v>2.8113263590957014</v>
+        <v>2.7779262722639215</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="0">
-        <v>0.23363639484978541</v>
+        <v>0.23860738197424891</v>
       </c>
       <c r="B685" s="0">
-        <v>0.028233931233519985</v>
+        <v>0.028068059557637439</v>
       </c>
       <c r="C685" s="0">
-        <v>2.8277286059807869</v>
+        <v>2.7945782949007487</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0">
-        <v>0.23397796852646638</v>
+        <v>0.23895622317596566</v>
       </c>
       <c r="B686" s="0">
-        <v>0.028315935817951984</v>
+        <v>0.028151808920461614</v>
       </c>
       <c r="C686" s="0">
-        <v>2.8441785619720235</v>
+        <v>2.8112800780130653</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0">
-        <v>0.23431954220314733</v>
+        <v>0.2393050643776824</v>
       </c>
       <c r="B687" s="0">
-        <v>0.028397940402383984</v>
+        <v>0.028235558283285788</v>
       </c>
       <c r="C687" s="0">
-        <v>2.8606762270694106</v>
+        <v>2.8280316216008696</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="0">
-        <v>0.23466111587982832</v>
+        <v>0.23965390557939908</v>
       </c>
       <c r="B688" s="0">
-        <v>0.02847994498681599</v>
+        <v>0.028319307646109942</v>
       </c>
       <c r="C688" s="0">
-        <v>2.8772216012729497</v>
+        <v>2.8448329256641576</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="0">
-        <v>0.23500268955650927</v>
+        <v>0.24000274678111586</v>
       </c>
       <c r="B689" s="0">
-        <v>0.028561949571247983</v>
+        <v>0.028403057008934123</v>
       </c>
       <c r="C689" s="0">
-        <v>2.893814684582638</v>
+        <v>2.8616839902029403</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="0">
-        <v>0.23534426323319027</v>
+        <v>0.2403515879828326</v>
       </c>
       <c r="B690" s="0">
-        <v>0.028643954155679989</v>
+        <v>0.028486806371758298</v>
       </c>
       <c r="C690" s="0">
-        <v>2.9104554769984787</v>
+        <v>2.8785848152172098</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="0">
-        <v>0.23568583690987127</v>
+        <v>0.24070042918454934</v>
       </c>
       <c r="B691" s="0">
-        <v>0.028725958740111995</v>
+        <v>0.028570555734582465</v>
       </c>
       <c r="C691" s="0">
-        <v>2.9271439785204709</v>
+        <v>2.8955354007069669</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="0">
-        <v>0.23602741058655222</v>
+        <v>0.24104927038626608</v>
       </c>
       <c r="B692" s="0">
-        <v>0.028807963324543995</v>
+        <v>0.02865430509740664</v>
       </c>
       <c r="C692" s="0">
-        <v>2.9438801891486119</v>
+        <v>2.9125357466722135</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="0">
-        <v>0.23636898426323322</v>
+        <v>0.2413981115879828</v>
       </c>
       <c r="B693" s="0">
-        <v>0.028889967908976001</v>
+        <v>0.028738054460230807</v>
       </c>
       <c r="C693" s="0">
-        <v>2.9606641088829053</v>
+        <v>2.9295858531129468</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="0">
-        <v>0.23671055793991416</v>
+        <v>0.24174695278969954</v>
       </c>
       <c r="B694" s="0">
-        <v>0.028971972493407994</v>
+        <v>0.028821803823054975</v>
       </c>
       <c r="C694" s="0">
-        <v>2.9774957377233466</v>
+        <v>2.9466857200291687</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="0">
-        <v>0.23705213161659516</v>
+        <v>0.24209579399141629</v>
       </c>
       <c r="B695" s="0">
-        <v>0.02905397707784</v>
+        <v>0.028905553185879149</v>
       </c>
       <c r="C695" s="0">
-        <v>2.9943750756699417</v>
+        <v>2.9638353474208805</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="0">
-        <v>0.23739370529327611</v>
+        <v>0.24244463519313303</v>
       </c>
       <c r="B696" s="0">
-        <v>0.029135981662271993</v>
+        <v>0.028989302548703324</v>
       </c>
       <c r="C696" s="0">
-        <v>3.011302122722685</v>
+        <v>2.9810347352880804</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="0">
-        <v>0.23773527896995708</v>
+        <v>0.24279347639484977</v>
       </c>
       <c r="B697" s="0">
-        <v>0.029217986246703999</v>
+        <v>0.029073051911527492</v>
       </c>
       <c r="C697" s="0">
-        <v>3.0282768788815817</v>
+        <v>2.9982838836307684</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="0">
-        <v>0.23807685264663805</v>
+        <v>0.24314231759656649</v>
       </c>
       <c r="B698" s="0">
-        <v>0.029299990831135998</v>
+        <v>0.029156801274351659</v>
       </c>
       <c r="C698" s="0">
-        <v>3.0452993441466276</v>
+        <v>3.015582792448944</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="0">
-        <v>0.23841842632331903</v>
+        <v>0.24349115879828323</v>
       </c>
       <c r="B699" s="0">
-        <v>0.029381995415567998</v>
+        <v>0.029240550637175834</v>
       </c>
       <c r="C699" s="0">
-        <v>3.0623695185178241</v>
+        <v>3.0329314617426095</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="0">
-        <v>0.23876</v>
+        <v>0.24383999999999997</v>
       </c>
       <c r="B700" s="0">
-        <v>0.029463999999999997</v>
+        <v>0.029324300000000001</v>
       </c>
       <c r="C700" s="0">
-        <v>3.0794874019951717</v>
+        <v>3.0503298915117618</v>
       </c>
     </row>
   </sheetData>

--- a/REGEN/Contour_Maelstrom.xlsx
+++ b/REGEN/Contour_Maelstrom.xlsx
@@ -69,7699 +69,7699 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C1" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.00034884120171673817</v>
+        <v>0.0003088698140200286</v>
       </c>
       <c r="B2" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C2" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.00069768240343347633</v>
+        <v>0.00061773962804005721</v>
       </c>
       <c r="B3" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C3" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0010465236051502146</v>
+        <v>0.00092660944206008581</v>
       </c>
       <c r="B4" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C4" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0013953648068669527</v>
+        <v>0.0012354792560801144</v>
       </c>
       <c r="B5" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C5" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0017442060085836907</v>
+        <v>0.0015443490701001429</v>
       </c>
       <c r="B6" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C6" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0020930472103004292</v>
+        <v>0.0018532188841201716</v>
       </c>
       <c r="B7" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C7" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.002441888412017167</v>
+        <v>0.0021620886981402001</v>
       </c>
       <c r="B8" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C8" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0027907296137339053</v>
+        <v>0.0024709585121602288</v>
       </c>
       <c r="B9" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C9" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0031395708154506432</v>
+        <v>0.0027798283261802571</v>
       </c>
       <c r="B10" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C10" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0034884120171673814</v>
+        <v>0.0030886981402002858</v>
       </c>
       <c r="B11" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C11" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0038372532188841197</v>
+        <v>0.0033975679542203145</v>
       </c>
       <c r="B12" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C12" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0041860944206008584</v>
+        <v>0.0037064377682403432</v>
       </c>
       <c r="B13" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C13" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0045349356223175962</v>
+        <v>0.0040153075822603719</v>
       </c>
       <c r="B14" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C14" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0048837768240343341</v>
+        <v>0.0043241773962804002</v>
       </c>
       <c r="B15" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C15" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0052326180257510719</v>
+        <v>0.0046330472103004285</v>
       </c>
       <c r="B16" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C16" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0055814592274678106</v>
+        <v>0.0049419170243204576</v>
       </c>
       <c r="B17" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C17" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0059303004291845485</v>
+        <v>0.0052507868383404859</v>
       </c>
       <c r="B18" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C18" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0062791416309012863</v>
+        <v>0.0055596566523605142</v>
       </c>
       <c r="B19" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C19" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.006627982832618025</v>
+        <v>0.0058685264663805433</v>
       </c>
       <c r="B20" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C20" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0069768240343347629</v>
+        <v>0.0061773962804005716</v>
       </c>
       <c r="B21" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C21" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0073256652360515016</v>
+        <v>0.0064862660944205999</v>
       </c>
       <c r="B22" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C22" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0076745064377682394</v>
+        <v>0.006795135908440629</v>
       </c>
       <c r="B23" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C23" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0080233476394849772</v>
+        <v>0.0071040057224606582</v>
       </c>
       <c r="B24" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C24" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0083721888412017168</v>
+        <v>0.0074128755364806865</v>
       </c>
       <c r="B25" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C25" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0087210300429184529</v>
+        <v>0.0077217453505007139</v>
       </c>
       <c r="B26" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C26" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0090698712446351925</v>
+        <v>0.0080306151645207439</v>
       </c>
       <c r="B27" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C27" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0094187124463519303</v>
+        <v>0.0083394849785407722</v>
       </c>
       <c r="B28" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C28" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0097675536480686682</v>
+        <v>0.0086483547925608004</v>
       </c>
       <c r="B29" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C29" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.010116394849785408</v>
+        <v>0.0089572246065808287</v>
       </c>
       <c r="B30" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C30" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.010465236051502144</v>
+        <v>0.009266094420600857</v>
       </c>
       <c r="B31" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C31" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.010814077253218883</v>
+        <v>0.009574964234620887</v>
       </c>
       <c r="B32" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C32" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.011162918454935621</v>
+        <v>0.0098838340486409153</v>
       </c>
       <c r="B33" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C33" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.011511759656652359</v>
+        <v>0.010192703862660942</v>
       </c>
       <c r="B34" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C34" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.011860600858369097</v>
+        <v>0.010501573676680972</v>
       </c>
       <c r="B35" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C35" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.012209442060085837</v>
+        <v>0.010810443490701002</v>
       </c>
       <c r="B36" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C36" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.012558283261802573</v>
+        <v>0.011119313304721028</v>
       </c>
       <c r="B37" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C37" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.012907124463519312</v>
+        <v>0.011428183118741057</v>
       </c>
       <c r="B38" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C38" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.01325596566523605</v>
+        <v>0.011737052932761087</v>
       </c>
       <c r="B39" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C39" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.013604806866952788</v>
+        <v>0.012045922746781115</v>
       </c>
       <c r="B40" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C40" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.013953648068669526</v>
+        <v>0.012354792560801143</v>
       </c>
       <c r="B41" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C41" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.014302489270386265</v>
+        <v>0.012663662374821172</v>
       </c>
       <c r="B42" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C42" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.014651330472103003</v>
+        <v>0.0129725321888412</v>
       </c>
       <c r="B43" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C43" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.015000171673819741</v>
+        <v>0.01328140200286123</v>
       </c>
       <c r="B44" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C44" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.015349012875536479</v>
+        <v>0.013590271816881258</v>
       </c>
       <c r="B45" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C45" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.015697854077253218</v>
+        <v>0.013899141630901286</v>
       </c>
       <c r="B46" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C46" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.016046695278969955</v>
+        <v>0.014208011444921316</v>
       </c>
       <c r="B47" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C47" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.016395536480686694</v>
+        <v>0.014516881258941345</v>
       </c>
       <c r="B48" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C48" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.016744377682403434</v>
+        <v>0.014825751072961373</v>
       </c>
       <c r="B49" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C49" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.01709321888412017</v>
+        <v>0.015134620886981399</v>
       </c>
       <c r="B50" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C50" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.017442060085836906</v>
+        <v>0.015443490701001428</v>
       </c>
       <c r="B51" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C51" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.017790901287553645</v>
+        <v>0.015752360515021459</v>
       </c>
       <c r="B52" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C52" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.018139742489270385</v>
+        <v>0.016061230329041488</v>
       </c>
       <c r="B53" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C53" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.018488583690987121</v>
+        <v>0.016370100143061516</v>
       </c>
       <c r="B54" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C54" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.018837424892703861</v>
+        <v>0.016678969957081544</v>
       </c>
       <c r="B55" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C55" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.0191862660944206</v>
+        <v>0.016987839771101573</v>
       </c>
       <c r="B56" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C56" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.019535107296137336</v>
+        <v>0.017296709585121601</v>
       </c>
       <c r="B57" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C57" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.019883948497854076</v>
+        <v>0.017605579399141629</v>
       </c>
       <c r="B58" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C58" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.020232789699570816</v>
+        <v>0.017914449213161658</v>
       </c>
       <c r="B59" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C59" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.020581630901287552</v>
+        <v>0.018223319027181686</v>
       </c>
       <c r="B60" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C60" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.020930472103004288</v>
+        <v>0.018532188841201714</v>
       </c>
       <c r="B61" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C61" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.021279313304721027</v>
+        <v>0.018841058655221742</v>
       </c>
       <c r="B62" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C62" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.021628154506437767</v>
+        <v>0.019149928469241774</v>
       </c>
       <c r="B63" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C63" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.021976995708154503</v>
+        <v>0.019458798283261802</v>
       </c>
       <c r="B64" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C64" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.022325836909871243</v>
+        <v>0.019767668097281831</v>
       </c>
       <c r="B65" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C65" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.022674678111587982</v>
+        <v>0.020076537911301859</v>
       </c>
       <c r="B66" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C66" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.023023519313304718</v>
+        <v>0.020385407725321884</v>
       </c>
       <c r="B67" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C67" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.023372360515021458</v>
+        <v>0.020694277539341915</v>
       </c>
       <c r="B68" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C68" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.023721201716738194</v>
+        <v>0.021003147353361944</v>
       </c>
       <c r="B69" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C69" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.02407004291845493</v>
+        <v>0.021312017167381972</v>
       </c>
       <c r="B70" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C70" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.024418884120171673</v>
+        <v>0.021620886981402004</v>
       </c>
       <c r="B71" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C71" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.024767725321888409</v>
+        <v>0.021929756795422029</v>
       </c>
       <c r="B72" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C72" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.025116566523605145</v>
+        <v>0.022238626609442057</v>
       </c>
       <c r="B73" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C73" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.025465407725321888</v>
+        <v>0.022547496423462085</v>
       </c>
       <c r="B74" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C74" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.025814248927038624</v>
+        <v>0.022856366237482113</v>
       </c>
       <c r="B75" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C75" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0.02616309012875536</v>
+        <v>0.023165236051502145</v>
       </c>
       <c r="B76" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C76" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.0265119313304721</v>
+        <v>0.023474105865522173</v>
       </c>
       <c r="B77" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C77" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0.02686077253218884</v>
+        <v>0.023782975679542202</v>
       </c>
       <c r="B78" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C78" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.027209613733905576</v>
+        <v>0.02409184549356223</v>
       </c>
       <c r="B79" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C79" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.027558454935622315</v>
+        <v>0.024400715307582255</v>
       </c>
       <c r="B80" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C80" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.027907296137339052</v>
+        <v>0.024709585121602287</v>
       </c>
       <c r="B81" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C81" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.028256137339055788</v>
+        <v>0.025018454935622318</v>
       </c>
       <c r="B82" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C82" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0.028604978540772531</v>
+        <v>0.025327324749642343</v>
       </c>
       <c r="B83" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C83" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>0.028953819742489267</v>
+        <v>0.025636194563662375</v>
       </c>
       <c r="B84" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C84" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0.029302660944206006</v>
+        <v>0.0259450643776824</v>
       </c>
       <c r="B85" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C85" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>0.029651502145922746</v>
+        <v>0.026253934191702428</v>
       </c>
       <c r="B86" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C86" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0.030000343347639482</v>
+        <v>0.02656280400572246</v>
       </c>
       <c r="B87" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C87" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.030349184549356222</v>
+        <v>0.026871673819742484</v>
       </c>
       <c r="B88" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C88" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.030698025751072958</v>
+        <v>0.027180543633762516</v>
       </c>
       <c r="B89" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C89" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0.031046866952789694</v>
+        <v>0.027489413447782544</v>
       </c>
       <c r="B90" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C90" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.031395708154506437</v>
+        <v>0.027798283261802573</v>
       </c>
       <c r="B91" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C91" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>0.031744549356223173</v>
+        <v>0.028107153075822601</v>
       </c>
       <c r="B92" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C92" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0.032093390557939909</v>
+        <v>0.028416022889842633</v>
       </c>
       <c r="B93" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C93" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.032442231759656652</v>
+        <v>0.028724892703862658</v>
       </c>
       <c r="B94" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C94" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0.032791072961373388</v>
+        <v>0.029033762517882689</v>
       </c>
       <c r="B95" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C95" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.033139914163090124</v>
+        <v>0.029342632331902714</v>
       </c>
       <c r="B96" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C96" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.033488755364806867</v>
+        <v>0.029651502145922746</v>
       </c>
       <c r="B97" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C97" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0.033837596566523603</v>
+        <v>0.029960371959942774</v>
       </c>
       <c r="B98" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C98" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0.034186437768240339</v>
+        <v>0.030269241773962799</v>
       </c>
       <c r="B99" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C99" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.034535278969957076</v>
+        <v>0.030578111587982831</v>
       </c>
       <c r="B100" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C100" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.034884120171673812</v>
+        <v>0.030886981402002855</v>
       </c>
       <c r="B101" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C101" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0.035232961373390555</v>
+        <v>0.031195851216022887</v>
       </c>
       <c r="B102" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C102" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>0.035581802575107291</v>
+        <v>0.031504721030042919</v>
       </c>
       <c r="B103" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C103" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0.035930643776824027</v>
+        <v>0.03181359084406294</v>
       </c>
       <c r="B104" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C104" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>0.03627948497854077</v>
+        <v>0.032122460658082976</v>
       </c>
       <c r="B105" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C105" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0.036628326180257506</v>
+        <v>0.032431330472103004</v>
       </c>
       <c r="B106" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C106" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0.036977167381974242</v>
+        <v>0.032740200286123032</v>
       </c>
       <c r="B107" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C107" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0.037326008583690985</v>
+        <v>0.03304907010014306</v>
       </c>
       <c r="B108" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C108" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>0.037674849785407721</v>
+        <v>0.033357939914163089</v>
       </c>
       <c r="B109" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C109" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>0.038023690987124457</v>
+        <v>0.033666809728183117</v>
       </c>
       <c r="B110" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C110" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0.038372532188841201</v>
+        <v>0.033975679542203145</v>
       </c>
       <c r="B111" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C111" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>0.038721373390557937</v>
+        <v>0.034284549356223174</v>
       </c>
       <c r="B112" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C112" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>0.039070214592274673</v>
+        <v>0.034593419170243202</v>
       </c>
       <c r="B113" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C113" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>0.039419055793991416</v>
+        <v>0.03490228898426323</v>
       </c>
       <c r="B114" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C114" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0.039767896995708152</v>
+        <v>0.035211158798283258</v>
       </c>
       <c r="B115" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C115" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>0.040116738197424888</v>
+        <v>0.035520028612303287</v>
       </c>
       <c r="B116" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C116" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>0.040465579399141631</v>
+        <v>0.035828898426323315</v>
       </c>
       <c r="B117" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C117" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>0.040814420600858367</v>
+        <v>0.036137768240343343</v>
       </c>
       <c r="B118" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C118" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>0.041163261802575103</v>
+        <v>0.036446638054363371</v>
       </c>
       <c r="B119" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C119" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>0.041512103004291839</v>
+        <v>0.0367555078683834</v>
       </c>
       <c r="B120" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C120" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>0.041860944206008576</v>
+        <v>0.037064377682403428</v>
       </c>
       <c r="B121" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C121" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>0.042209785407725318</v>
+        <v>0.037373247496423463</v>
       </c>
       <c r="B122" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C122" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0.042558626609442055</v>
+        <v>0.037682117310443485</v>
       </c>
       <c r="B123" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C123" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0.042907467811158791</v>
+        <v>0.03799098712446352</v>
       </c>
       <c r="B124" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C124" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0.043256309012875534</v>
+        <v>0.038299856938483548</v>
       </c>
       <c r="B125" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C125" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>0.04360515021459227</v>
+        <v>0.038608726752503569</v>
       </c>
       <c r="B126" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C126" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0.043953991416309006</v>
+        <v>0.038917596566523605</v>
       </c>
       <c r="B127" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C127" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0.044302832618025749</v>
+        <v>0.039226466380543626</v>
       </c>
       <c r="B128" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C128" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0.044651673819742485</v>
+        <v>0.039535336194563661</v>
       </c>
       <c r="B129" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C129" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>0.045000515021459221</v>
+        <v>0.039844206008583689</v>
       </c>
       <c r="B130" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C130" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0.045349356223175964</v>
+        <v>0.040153075822603718</v>
       </c>
       <c r="B131" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C131" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>0.0456981974248927</v>
+        <v>0.040461945636623746</v>
       </c>
       <c r="B132" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C132" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>0.046047038626609436</v>
+        <v>0.040770815450643767</v>
       </c>
       <c r="B133" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C133" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>0.046395879828326173</v>
+        <v>0.041079685264663802</v>
       </c>
       <c r="B134" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C134" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>0.046744721030042916</v>
+        <v>0.041388555078683831</v>
       </c>
       <c r="B135" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C135" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>0.047093562231759652</v>
+        <v>0.041697424892703859</v>
       </c>
       <c r="B136" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C136" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>0.047442403433476388</v>
+        <v>0.042006294706723887</v>
       </c>
       <c r="B137" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C137" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>0.047791244635193124</v>
+        <v>0.042315164520743916</v>
       </c>
       <c r="B138" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C138" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>0.04814008583690986</v>
+        <v>0.042624034334763944</v>
       </c>
       <c r="B139" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C139" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>0.048488927038626603</v>
+        <v>0.042932904148783972</v>
       </c>
       <c r="B140" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C140" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>0.048837768240343346</v>
+        <v>0.043241773962804007</v>
       </c>
       <c r="B141" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C141" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>0.049186609442060082</v>
+        <v>0.043550643776824029</v>
       </c>
       <c r="B142" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C142" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>0.049535450643776818</v>
+        <v>0.043859513590844057</v>
       </c>
       <c r="B143" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C143" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>0.049884291845493554</v>
+        <v>0.044168383404864085</v>
       </c>
       <c r="B144" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C144" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>0.050233133047210291</v>
+        <v>0.044477253218884114</v>
       </c>
       <c r="B145" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C145" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>0.050581974248927027</v>
+        <v>0.044786123032904149</v>
       </c>
       <c r="B146" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C146" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>0.050930815450643777</v>
+        <v>0.04509499284692417</v>
       </c>
       <c r="B147" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C147" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>0.051279656652360513</v>
+        <v>0.045403862660944205</v>
       </c>
       <c r="B148" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C148" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>0.051628497854077249</v>
+        <v>0.045712732474964227</v>
       </c>
       <c r="B149" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C149" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>0.051977339055793985</v>
+        <v>0.046021602288984262</v>
       </c>
       <c r="B150" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C150" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>0.052326180257510721</v>
+        <v>0.04633047210300429</v>
       </c>
       <c r="B151" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C151" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>0.052675021459227464</v>
+        <v>0.046639341917024312</v>
       </c>
       <c r="B152" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C152" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>0.0530238626609442</v>
+        <v>0.046948211731044347</v>
       </c>
       <c r="B153" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C153" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>0.053372703862660936</v>
+        <v>0.047257081545064375</v>
       </c>
       <c r="B154" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C154" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>0.053721545064377679</v>
+        <v>0.047565951359084403</v>
       </c>
       <c r="B155" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C155" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>0.054070386266094415</v>
+        <v>0.047874821173104425</v>
       </c>
       <c r="B156" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C156" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>0.054419227467811151</v>
+        <v>0.04818369098712446</v>
       </c>
       <c r="B157" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C157" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>0.054768068669527895</v>
+        <v>0.048492560801144488</v>
       </c>
       <c r="B158" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C158" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>0.055116909871244631</v>
+        <v>0.04880143061516451</v>
       </c>
       <c r="B159" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C159" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>0.055465751072961367</v>
+        <v>0.049110300429184552</v>
       </c>
       <c r="B160" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C160" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>0.055814592274678103</v>
+        <v>0.049419170243204573</v>
       </c>
       <c r="B161" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C161" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>0.056163433476394839</v>
+        <v>0.049728040057224601</v>
       </c>
       <c r="B162" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C162" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>0.056512274678111575</v>
+        <v>0.050036909871244636</v>
       </c>
       <c r="B163" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C163" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>0.056861115879828325</v>
+        <v>0.050345779685264658</v>
       </c>
       <c r="B164" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C164" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>0.057209957081545061</v>
+        <v>0.050654649499284686</v>
       </c>
       <c r="B165" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C165" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>0.057558798283261797</v>
+        <v>0.050963519313304721</v>
       </c>
       <c r="B166" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C166" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>0.057907639484978533</v>
+        <v>0.05127238912732475</v>
       </c>
       <c r="B167" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C167" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>0.05825648068669527</v>
+        <v>0.051581258941344771</v>
       </c>
       <c r="B168" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C168" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>0.058605321888412013</v>
+        <v>0.051890128755364799</v>
       </c>
       <c r="B169" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C169" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>0.058954163090128749</v>
+        <v>0.052198998569384834</v>
       </c>
       <c r="B170" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C170" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>0.059303004291845492</v>
+        <v>0.052507868383404856</v>
       </c>
       <c r="B171" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C171" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>0.059651845493562228</v>
+        <v>0.052816738197424884</v>
       </c>
       <c r="B172" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C172" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>0.060000686695278964</v>
+        <v>0.053125608011444919</v>
       </c>
       <c r="B173" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C173" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>0.0603495278969957</v>
+        <v>0.053434477825464947</v>
       </c>
       <c r="B174" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C174" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>0.060698369098712443</v>
+        <v>0.053743347639484969</v>
       </c>
       <c r="B175" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C175" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>0.061047210300429179</v>
+        <v>0.054052217453505004</v>
       </c>
       <c r="B176" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C176" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>0.061396051502145915</v>
+        <v>0.054361087267525032</v>
       </c>
       <c r="B177" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C177" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>0.061744892703862651</v>
+        <v>0.054669957081545054</v>
       </c>
       <c r="B178" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C178" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>0.062093733905579388</v>
+        <v>0.054978826895565089</v>
       </c>
       <c r="B179" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C179" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>0.062442575107296124</v>
+        <v>0.055287696709585117</v>
       </c>
       <c r="B180" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C180" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>0.062791416309012874</v>
+        <v>0.055596566523605145</v>
       </c>
       <c r="B181" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C181" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>0.063140257510729603</v>
+        <v>0.055905436337625181</v>
       </c>
       <c r="B182" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C182" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>0.063489098712446346</v>
+        <v>0.056214306151645202</v>
       </c>
       <c r="B183" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C183" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>0.063837939914163075</v>
+        <v>0.05652317596566523</v>
       </c>
       <c r="B184" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C184" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>0.064186781115879818</v>
+        <v>0.056832045779685266</v>
       </c>
       <c r="B185" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C185" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>0.064535622317596561</v>
+        <v>0.057140915593705287</v>
       </c>
       <c r="B186" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C186" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>0.064884463519313304</v>
+        <v>0.057449785407725315</v>
       </c>
       <c r="B187" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C187" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>0.065233304721030033</v>
+        <v>0.057758655221745343</v>
       </c>
       <c r="B188" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C188" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>0.065582145922746776</v>
+        <v>0.058067525035765379</v>
       </c>
       <c r="B189" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C189" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>0.065930987124463505</v>
+        <v>0.0583763948497854</v>
       </c>
       <c r="B190" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C190" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>0.066279828326180249</v>
+        <v>0.058685264663805428</v>
       </c>
       <c r="B191" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C191" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>0.066628669527896991</v>
+        <v>0.058994134477825463</v>
       </c>
       <c r="B192" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C192" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>0.066977510729613735</v>
+        <v>0.059303004291845492</v>
       </c>
       <c r="B193" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C193" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>0.067326351931330464</v>
+        <v>0.059611874105865513</v>
       </c>
       <c r="B194" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C194" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>0.067675193133047207</v>
+        <v>0.059920743919885548</v>
       </c>
       <c r="B195" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C195" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>0.068024034334763936</v>
+        <v>0.060229613733905576</v>
       </c>
       <c r="B196" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C196" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>0.068372875536480679</v>
+        <v>0.060538483547925598</v>
       </c>
       <c r="B197" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C197" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>0.068721716738197422</v>
+        <v>0.060847353361945633</v>
       </c>
       <c r="B198" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C198" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>0.069070557939914151</v>
+        <v>0.061156223175965661</v>
       </c>
       <c r="B199" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C199" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>0.069419399141630894</v>
+        <v>0.06146509298998569</v>
       </c>
       <c r="B200" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C200" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>0.069768240343347623</v>
+        <v>0.061773962804005711</v>
       </c>
       <c r="B201" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C201" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>0.070117081545064367</v>
+        <v>0.062082832618025746</v>
       </c>
       <c r="B202" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C202" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>0.070465922746781109</v>
+        <v>0.062391702432045774</v>
       </c>
       <c r="B203" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C203" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>0.070814763948497853</v>
+        <v>0.062700572246065803</v>
       </c>
       <c r="B204" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C204" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>0.071163605150214582</v>
+        <v>0.063009442060085838</v>
       </c>
       <c r="B205" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C205" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>0.071512446351931325</v>
+        <v>0.063318311874105859</v>
       </c>
       <c r="B206" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C206" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>0.071861287553648054</v>
+        <v>0.063627181688125881</v>
       </c>
       <c r="B207" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C207" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>0.072210128755364797</v>
+        <v>0.063936051502145916</v>
       </c>
       <c r="B208" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C208" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>0.07255896995708154</v>
+        <v>0.064244921316165951</v>
       </c>
       <c r="B209" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C209" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>0.072907811158798283</v>
+        <v>0.064553791130185972</v>
       </c>
       <c r="B210" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C210" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>0.073256652360515012</v>
+        <v>0.064862660944206008</v>
       </c>
       <c r="B211" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C211" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>0.073605493562231755</v>
+        <v>0.065171530758226029</v>
       </c>
       <c r="B212" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C212" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>0.073954334763948484</v>
+        <v>0.065480400572246064</v>
       </c>
       <c r="B213" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C213" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>0.074303175965665228</v>
+        <v>0.065789270386266099</v>
       </c>
       <c r="B214" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C214" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>0.07465201716738197</v>
+        <v>0.066098140200286121</v>
       </c>
       <c r="B215" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C215" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>0.0750008583690987</v>
+        <v>0.066407010014306142</v>
       </c>
       <c r="B216" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C216" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>0.075349699570815443</v>
+        <v>0.066715879828326177</v>
       </c>
       <c r="B217" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C217" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>0.075698540772532186</v>
+        <v>0.067024749642346199</v>
       </c>
       <c r="B218" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C218" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>0.076047381974248915</v>
+        <v>0.067333619456366234</v>
       </c>
       <c r="B219" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C219" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>0.076396223175965658</v>
+        <v>0.067642489270386255</v>
       </c>
       <c r="B220" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C220" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>0.076745064377682401</v>
+        <v>0.06795135908440629</v>
       </c>
       <c r="B221" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C221" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>0.07709390557939913</v>
+        <v>0.068260228898426312</v>
       </c>
       <c r="B222" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C222" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>0.077442746781115873</v>
+        <v>0.068569098712446347</v>
       </c>
       <c r="B223" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C223" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>0.077791587982832602</v>
+        <v>0.068877968526466382</v>
       </c>
       <c r="B224" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C224" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>0.078140429184549345</v>
+        <v>0.069186838340486403</v>
       </c>
       <c r="B225" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C225" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>0.078489270386266088</v>
+        <v>0.069495708154506425</v>
       </c>
       <c r="B226" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C226" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>0.078838111587982832</v>
+        <v>0.06980457796852646</v>
       </c>
       <c r="B227" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C227" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>0.079186952789699561</v>
+        <v>0.070113447782546495</v>
       </c>
       <c r="B228" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C228" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>0.079535793991416304</v>
+        <v>0.070422317596566517</v>
       </c>
       <c r="B229" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C229" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>0.079884635193133033</v>
+        <v>0.070731187410586552</v>
       </c>
       <c r="B230" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C230" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>0.080233476394849776</v>
+        <v>0.071040057224606573</v>
       </c>
       <c r="B231" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C231" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>0.080582317596566519</v>
+        <v>0.071348927038626595</v>
       </c>
       <c r="B232" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C232" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>0.080931158798283262</v>
+        <v>0.07165779685264663</v>
       </c>
       <c r="B233" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C233" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>0.081279999999999991</v>
+        <v>0.071966666666666665</v>
       </c>
       <c r="B234" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C234" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>0.081628841201716734</v>
+        <v>0.072275536480686686</v>
       </c>
       <c r="B235" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C235" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>0.081977682403433463</v>
+        <v>0.072584406294706708</v>
       </c>
       <c r="B236" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C236" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>0.082326523605150206</v>
+        <v>0.072893276108726743</v>
       </c>
       <c r="B237" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C237" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>0.082675364806866949</v>
+        <v>0.073202145922746778</v>
       </c>
       <c r="B238" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C238" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>0.083024206008583679</v>
+        <v>0.073511015736766799</v>
       </c>
       <c r="B239" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C239" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>0.083373047210300422</v>
+        <v>0.073819885550786835</v>
       </c>
       <c r="B240" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C240" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>0.083721888412017151</v>
+        <v>0.074128755364806856</v>
       </c>
       <c r="B241" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C241" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>0.084070729613733894</v>
+        <v>0.074437625178826891</v>
       </c>
       <c r="B242" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C242" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>0.084419570815450637</v>
+        <v>0.074746494992846926</v>
       </c>
       <c r="B243" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C243" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>0.08476841201716738</v>
+        <v>0.075055364806866948</v>
       </c>
       <c r="B244" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C244" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>0.085117253218884109</v>
+        <v>0.075364234620886969</v>
       </c>
       <c r="B245" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C245" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>0.085466094420600852</v>
+        <v>0.075673104434907004</v>
       </c>
       <c r="B246" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C246" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>0.085814935622317581</v>
+        <v>0.07598197424892704</v>
       </c>
       <c r="B247" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C247" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>0.086163776824034324</v>
+        <v>0.076290844062947061</v>
       </c>
       <c r="B248" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C248" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>0.086512618025751067</v>
+        <v>0.076599713876967096</v>
       </c>
       <c r="B249" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C249" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>0.086861459227467811</v>
+        <v>0.076908583690987117</v>
       </c>
       <c r="B250" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C250" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>0.08721030042918454</v>
+        <v>0.077217453505007139</v>
       </c>
       <c r="B251" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C251" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>0.087559141630901283</v>
+        <v>0.077526323319027174</v>
       </c>
       <c r="B252" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C252" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>0.087907982832618012</v>
+        <v>0.077835193133047209</v>
       </c>
       <c r="B253" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C253" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>0.088256824034334755</v>
+        <v>0.07814406294706723</v>
       </c>
       <c r="B254" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C254" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>0.088605665236051498</v>
+        <v>0.078452932761087252</v>
       </c>
       <c r="B255" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C255" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>0.088954506437768227</v>
+        <v>0.078761802575107287</v>
       </c>
       <c r="B256" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C256" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>0.08930334763948497</v>
+        <v>0.079070672389127322</v>
       </c>
       <c r="B257" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C257" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>0.089652188841201699</v>
+        <v>0.079379542203147344</v>
       </c>
       <c r="B258" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C258" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>0.090001030042918442</v>
+        <v>0.079688412017167379</v>
       </c>
       <c r="B259" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C259" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>0.090349871244635185</v>
+        <v>0.0799972818311874</v>
       </c>
       <c r="B260" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C260" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>0.090698712446351928</v>
+        <v>0.080306151645207435</v>
       </c>
       <c r="B261" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C261" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>0.091047553648068658</v>
+        <v>0.080615021459227471</v>
       </c>
       <c r="B262" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C262" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>0.091396394849785401</v>
+        <v>0.080923891273247492</v>
       </c>
       <c r="B263" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C263" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>0.091745236051502144</v>
+        <v>0.081232761087267513</v>
       </c>
       <c r="B264" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C264" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>0.092094077253218873</v>
+        <v>0.081541630901287535</v>
       </c>
       <c r="B265" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C265" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>0.092442918454935616</v>
+        <v>0.081850500715307584</v>
       </c>
       <c r="B266" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C266" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>0.092791759656652345</v>
+        <v>0.082159370529327605</v>
       </c>
       <c r="B267" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C267" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>0.093140600858369088</v>
+        <v>0.082468240343347626</v>
       </c>
       <c r="B268" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C268" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>0.093489442060085831</v>
+        <v>0.082777110157367662</v>
       </c>
       <c r="B269" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C269" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>0.09383828326180256</v>
+        <v>0.083085979971387683</v>
       </c>
       <c r="B270" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C270" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>0.094187124463519303</v>
+        <v>0.083394849785407718</v>
       </c>
       <c r="B271" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C271" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>0.094535965665236033</v>
+        <v>0.083703719599427753</v>
       </c>
       <c r="B272" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C272" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>0.094884806866952776</v>
+        <v>0.084012589413447775</v>
       </c>
       <c r="B273" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C273" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>0.095233648068669505</v>
+        <v>0.084321459227467796</v>
       </c>
       <c r="B274" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C274" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>0.095582489270386248</v>
+        <v>0.084630329041487831</v>
       </c>
       <c r="B275" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C275" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>0.095931330472103005</v>
+        <v>0.084939198855507866</v>
       </c>
       <c r="B276" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C276" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>0.09628017167381972</v>
+        <v>0.085248068669527888</v>
       </c>
       <c r="B277" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C277" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>0.096629012875536477</v>
+        <v>0.085556938483547923</v>
       </c>
       <c r="B278" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C278" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>0.096977854077253206</v>
+        <v>0.085865808297567944</v>
       </c>
       <c r="B279" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C279" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>0.097326695278969949</v>
+        <v>0.08617467811158798</v>
       </c>
       <c r="B280" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C280" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>0.097675536480686692</v>
+        <v>0.086483547925608015</v>
       </c>
       <c r="B281" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C281" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>0.098024377682403421</v>
+        <v>0.086792417739628036</v>
       </c>
       <c r="B282" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C282" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>0.098373218884120164</v>
+        <v>0.087101287553648057</v>
       </c>
       <c r="B283" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C283" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>0.098722060085836894</v>
+        <v>0.087410157367668079</v>
       </c>
       <c r="B284" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C284" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>0.099070901287553637</v>
+        <v>0.087719027181688114</v>
       </c>
       <c r="B285" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C285" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>0.09941974248927038</v>
+        <v>0.088027896995708149</v>
       </c>
       <c r="B286" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C286" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>0.099768583690987109</v>
+        <v>0.088336766809728171</v>
       </c>
       <c r="B287" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C287" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>0.10011742489270385</v>
+        <v>0.088645636623748206</v>
       </c>
       <c r="B288" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C288" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>0.10046626609442058</v>
+        <v>0.088954506437768227</v>
       </c>
       <c r="B289" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C289" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>0.10081510729613732</v>
+        <v>0.089263376251788262</v>
       </c>
       <c r="B290" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C290" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>0.10116394849785405</v>
+        <v>0.089572246065808298</v>
       </c>
       <c r="B291" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C291" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>0.1015127896995708</v>
+        <v>0.089881115879828319</v>
       </c>
       <c r="B292" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C292" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>0.10186163090128755</v>
+        <v>0.09018998569384834</v>
       </c>
       <c r="B293" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C293" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>0.10221047210300428</v>
+        <v>0.090498855507868376</v>
       </c>
       <c r="B294" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C294" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>0.10255931330472103</v>
+        <v>0.090807725321888411</v>
       </c>
       <c r="B295" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C295" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>0.10290815450643775</v>
+        <v>0.091116595135908432</v>
       </c>
       <c r="B296" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C296" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>0.1032569957081545</v>
+        <v>0.091425464949928453</v>
       </c>
       <c r="B297" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C297" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>0.10360583690987124</v>
+        <v>0.091734334763948489</v>
       </c>
       <c r="B298" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C298" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>0.10395467811158797</v>
+        <v>0.092043204577968524</v>
       </c>
       <c r="B299" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C299" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>0.10430351931330471</v>
+        <v>0.092352074391988545</v>
       </c>
       <c r="B300" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C300" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>0.10465236051502144</v>
+        <v>0.09266094420600858</v>
       </c>
       <c r="B301" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C301" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>0.10500120171673819</v>
+        <v>0.092969814020028616</v>
       </c>
       <c r="B302" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C302" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>0.10535004291845493</v>
+        <v>0.093278683834048623</v>
       </c>
       <c r="B303" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C303" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>0.10569888412017166</v>
+        <v>0.093587553648068658</v>
       </c>
       <c r="B304" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C304" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>0.1060477253218884</v>
+        <v>0.093896423462088693</v>
       </c>
       <c r="B305" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C305" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>0.10639656652360513</v>
+        <v>0.094205293276108715</v>
       </c>
       <c r="B306" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C306" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>0.10674540772532187</v>
+        <v>0.09451416309012875</v>
       </c>
       <c r="B307" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C307" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>0.1070942489270386</v>
+        <v>0.094823032904148771</v>
       </c>
       <c r="B308" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C308" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>0.10744309012875536</v>
+        <v>0.095131902718168806</v>
       </c>
       <c r="B309" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C309" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>0.1077919313304721</v>
+        <v>0.095440772532188842</v>
       </c>
       <c r="B310" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C310" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>0.10814077253218883</v>
+        <v>0.095749642346208849</v>
       </c>
       <c r="B311" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C311" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>0.10848961373390557</v>
+        <v>0.096058512160228884</v>
       </c>
       <c r="B312" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C312" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>0.1088384549356223</v>
+        <v>0.09636738197424892</v>
       </c>
       <c r="B313" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C313" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>0.10918729613733905</v>
+        <v>0.096676251788268941</v>
       </c>
       <c r="B314" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C314" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>0.10953613733905579</v>
+        <v>0.096985121602288976</v>
       </c>
       <c r="B315" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C315" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>0.10988497854077252</v>
+        <v>0.097293991416309011</v>
       </c>
       <c r="B316" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C316" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>0.11023381974248926</v>
+        <v>0.097602861230329019</v>
       </c>
       <c r="B317" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C317" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>0.11058266094420599</v>
+        <v>0.097911731044349054</v>
       </c>
       <c r="B318" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C318" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>0.11093150214592273</v>
+        <v>0.098220600858369103</v>
       </c>
       <c r="B319" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C319" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>0.11128034334763948</v>
+        <v>0.098529470672389111</v>
       </c>
       <c r="B320" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C320" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>0.11162918454935621</v>
+        <v>0.098838340486409146</v>
       </c>
       <c r="B321" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C321" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>0.11197802575107295</v>
+        <v>0.099147210300429181</v>
       </c>
       <c r="B322" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C322" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>0.11232686695278968</v>
+        <v>0.099456080114449202</v>
       </c>
       <c r="B323" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C323" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>0.11267570815450642</v>
+        <v>0.099764949928469238</v>
       </c>
       <c r="B324" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C324" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>0.11302454935622315</v>
+        <v>0.10007381974248927</v>
       </c>
       <c r="B325" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C325" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>0.11337339055793991</v>
+        <v>0.10038268955650928</v>
       </c>
       <c r="B326" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C326" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>0.11372223175965665</v>
+        <v>0.10069155937052932</v>
       </c>
       <c r="B327" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C327" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>0.11407107296137338</v>
+        <v>0.10100042918454935</v>
       </c>
       <c r="B328" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C328" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>0.11441991416309012</v>
+        <v>0.10130929899856937</v>
       </c>
       <c r="B329" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C329" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>0.11476875536480685</v>
+        <v>0.10161816881258941</v>
       </c>
       <c r="B330" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C330" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>0.11511759656652359</v>
+        <v>0.10192703862660944</v>
       </c>
       <c r="B331" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C331" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>0.11546643776824034</v>
+        <v>0.10223590844062946</v>
       </c>
       <c r="B332" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C332" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>0.11581527896995707</v>
+        <v>0.1025447782546495</v>
       </c>
       <c r="B333" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C333" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>0.11616412017167381</v>
+        <v>0.10285364806866953</v>
       </c>
       <c r="B334" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C334" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>0.11651296137339054</v>
+        <v>0.10316251788268954</v>
       </c>
       <c r="B335" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C335" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>0.11686180257510728</v>
+        <v>0.10347138769670958</v>
       </c>
       <c r="B336" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C336" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>0.11721064377682403</v>
+        <v>0.1037802575107296</v>
       </c>
       <c r="B337" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C337" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>0.11755948497854075</v>
+        <v>0.10408912732474963</v>
       </c>
       <c r="B338" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C338" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>0.1179083261802575</v>
+        <v>0.10439799713876967</v>
       </c>
       <c r="B339" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C339" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>0.11825716738197423</v>
+        <v>0.10470686695278968</v>
       </c>
       <c r="B340" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C340" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>0.11860600858369098</v>
+        <v>0.10501573676680971</v>
       </c>
       <c r="B341" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C341" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>0.1189548497854077</v>
+        <v>0.10532460658082975</v>
       </c>
       <c r="B342" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C342" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>0.11930369098712446</v>
+        <v>0.10563347639484977</v>
       </c>
       <c r="B343" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C343" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>0.1196525321888412</v>
+        <v>0.1059423462088698</v>
       </c>
       <c r="B344" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C344" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>0.12000137339055793</v>
+        <v>0.10625121602288984</v>
       </c>
       <c r="B345" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C345" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>0.12035021459227467</v>
+        <v>0.10656008583690986</v>
       </c>
       <c r="B346" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C346" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>0.1206990557939914</v>
+        <v>0.10686895565092989</v>
       </c>
       <c r="B347" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C347" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>0.12104789699570814</v>
+        <v>0.10717782546494993</v>
       </c>
       <c r="B348" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C348" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>0.12139673819742489</v>
+        <v>0.10748669527896994</v>
       </c>
       <c r="B349" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C349" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>0.12174557939914162</v>
+        <v>0.10779556509298997</v>
       </c>
       <c r="B350" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C350" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>0.12209442060085836</v>
+        <v>0.10810443490701001</v>
       </c>
       <c r="B351" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C351" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>0.12244326180257509</v>
+        <v>0.10841330472103003</v>
       </c>
       <c r="B352" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C352" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>0.12279210300429183</v>
+        <v>0.10872217453505006</v>
       </c>
       <c r="B353" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C353" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>0.12314094420600857</v>
+        <v>0.1090310443490701</v>
       </c>
       <c r="B354" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C354" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>0.1234897854077253</v>
+        <v>0.10933991416309011</v>
       </c>
       <c r="B355" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C355" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>0.12383862660944206</v>
+        <v>0.10964878397711014</v>
       </c>
       <c r="B356" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C356" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>0.12418746781115877</v>
+        <v>0.10995765379113018</v>
       </c>
       <c r="B357" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C357" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>0.12453630901287553</v>
+        <v>0.1102665236051502</v>
       </c>
       <c r="B358" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C358" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>0.12488515021459225</v>
+        <v>0.11057539341917023</v>
       </c>
       <c r="B359" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C359" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>0.125233991416309</v>
+        <v>0.11088426323319027</v>
       </c>
       <c r="B360" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C360" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>0.12558283261802575</v>
+        <v>0.11119313304721029</v>
       </c>
       <c r="B361" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C361" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>0.12593167381974246</v>
+        <v>0.11150200286123033</v>
       </c>
       <c r="B362" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C362" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>0.12628051502145921</v>
+        <v>0.11181087267525036</v>
       </c>
       <c r="B363" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C363" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>0.12662935622317595</v>
+        <v>0.11211974248927037</v>
       </c>
       <c r="B364" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C364" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>0.12697819742489269</v>
+        <v>0.1124286123032904</v>
       </c>
       <c r="B365" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C365" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>0.12732703862660944</v>
+        <v>0.11273748211731044</v>
       </c>
       <c r="B366" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C366" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>0.12767587982832615</v>
+        <v>0.11304635193133046</v>
       </c>
       <c r="B367" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C367" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>0.12802472103004292</v>
+        <v>0.1133552217453505</v>
       </c>
       <c r="B368" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C368" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>0.12837356223175964</v>
+        <v>0.11366409155937053</v>
       </c>
       <c r="B369" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C369" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>0.12872240343347638</v>
+        <v>0.11397296137339054</v>
       </c>
       <c r="B370" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C370" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>0.12907124463519312</v>
+        <v>0.11428183118741057</v>
       </c>
       <c r="B371" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C371" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>0.12942008583690987</v>
+        <v>0.11459070100143059</v>
       </c>
       <c r="B372" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C372" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>0.12976892703862661</v>
+        <v>0.11489957081545063</v>
       </c>
       <c r="B373" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C373" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>0.13011776824034332</v>
+        <v>0.11520844062947067</v>
       </c>
       <c r="B374" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C374" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>0.13046660944206007</v>
+        <v>0.11551731044349069</v>
       </c>
       <c r="B375" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C375" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>0.13081545064377681</v>
+        <v>0.11582618025751072</v>
       </c>
       <c r="B376" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C376" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>0.13116429184549355</v>
+        <v>0.11613505007153076</v>
       </c>
       <c r="B377" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C377" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>0.1315131330472103</v>
+        <v>0.11644391988555076</v>
       </c>
       <c r="B378" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C378" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>0.13186197424892701</v>
+        <v>0.1167527896995708</v>
       </c>
       <c r="B379" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C379" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>0.13221081545064375</v>
+        <v>0.11706165951359084</v>
       </c>
       <c r="B380" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C380" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>0.1325596566523605</v>
+        <v>0.11737052932761086</v>
       </c>
       <c r="B381" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C381" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>0.13290849785407724</v>
+        <v>0.11767939914163089</v>
       </c>
       <c r="B382" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C382" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>0.13325733905579398</v>
+        <v>0.11798826895565093</v>
       </c>
       <c r="B383" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C383" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>0.1336061802575107</v>
+        <v>0.11829713876967093</v>
       </c>
       <c r="B384" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C384" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>0.13395502145922747</v>
+        <v>0.11860600858369098</v>
       </c>
       <c r="B385" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C385" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>0.13430386266094419</v>
+        <v>0.11891487839771102</v>
       </c>
       <c r="B386" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C386" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>0.13465270386266093</v>
+        <v>0.11922374821173103</v>
       </c>
       <c r="B387" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C387" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>0.13500154506437767</v>
+        <v>0.11953261802575106</v>
       </c>
       <c r="B388" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C388" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>0.13535038626609441</v>
+        <v>0.1198414878397711</v>
       </c>
       <c r="B389" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C389" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>0.13569922746781116</v>
+        <v>0.12015035765379112</v>
       </c>
       <c r="B390" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C390" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>0.13604806866952787</v>
+        <v>0.12045922746781115</v>
       </c>
       <c r="B391" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C391" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>0.13639690987124461</v>
+        <v>0.12076809728183119</v>
       </c>
       <c r="B392" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C392" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>0.13674575107296136</v>
+        <v>0.1210769670958512</v>
       </c>
       <c r="B393" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C393" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>0.1370945922746781</v>
+        <v>0.12138583690987123</v>
       </c>
       <c r="B394" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046355</v>
       </c>
       <c r="C394" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6224640049452521</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>0.13744343347639484</v>
+        <v>0.12169470672389127</v>
       </c>
       <c r="B395" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046352077112203759</v>
       </c>
       <c r="C395" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6215027751058191</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>0.13779227467811156</v>
+        <v>0.12200357653791129</v>
       </c>
       <c r="B396" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046341688265928417</v>
       </c>
       <c r="C396" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6180867578510965</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>0.1381411158798283</v>
+        <v>0.12231244635193132</v>
       </c>
       <c r="B397" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046323762765022383</v>
       </c>
       <c r="C397" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6121943695899788</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>0.13848995708154505</v>
+        <v>0.12262131616595136</v>
       </c>
       <c r="B398" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046298268553343465</v>
       </c>
       <c r="C398" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.6038179562413983</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>0.13883879828326179</v>
+        <v>0.12293018597997138</v>
       </c>
       <c r="B399" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046265159725534189</v>
       </c>
       <c r="C399" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.5929465569316008</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>0.13918763948497853</v>
+        <v>0.12323905579399141</v>
       </c>
       <c r="B400" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046224376109058857</v>
       </c>
       <c r="C400" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.5795658041966645</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0">
-        <v>0.13953648068669525</v>
+        <v>0.12354792560801142</v>
       </c>
       <c r="B401" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046175842707839164</v>
       </c>
       <c r="C401" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.563657791138759</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0">
-        <v>0.13988532188841202</v>
+        <v>0.12385679542203146</v>
       </c>
       <c r="B402" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046119468995263827</v>
       </c>
       <c r="C402" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.5452009026172489</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0">
-        <v>0.14023416309012873</v>
+        <v>0.12416566523605149</v>
       </c>
       <c r="B403" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.046055148040620796</v>
       </c>
       <c r="C403" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.5241696066659412</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
-        <v>0.14058300429184548</v>
+        <v>0.12447453505007151</v>
       </c>
       <c r="B404" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.045982755448608831</v>
       </c>
       <c r="C404" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.5005342012790699</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0">
-        <v>0.14093184549356222</v>
+        <v>0.12478340486409155</v>
       </c>
       <c r="B405" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.045902148086312676</v>
       </c>
       <c r="C405" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.4742605104497271</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0">
-        <v>0.14128068669527896</v>
+        <v>0.12509227467811157</v>
       </c>
       <c r="B406" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.045813162565594118</v>
       </c>
       <c r="C406" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.4453095218086709</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0">
-        <v>0.14162952789699571</v>
+        <v>0.12540114449213161</v>
       </c>
       <c r="B407" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.045715613440896384</v>
       </c>
       <c r="C407" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.4136369563120725</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0">
-        <v>0.14197836909871242</v>
+        <v>0.12571001430615164</v>
       </c>
       <c r="B408" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.04560929107249867</v>
       </c>
       <c r="C408" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.3791927580483723</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0">
-        <v>0.14232721030042916</v>
+        <v>0.12601888412017168</v>
       </c>
       <c r="B409" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.045493959092643518</v>
       </c>
       <c r="C409" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.3419204892226944</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0">
-        <v>0.14267605150214591</v>
+        <v>0.12632775393419168</v>
       </c>
       <c r="B410" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.045369351395810463</v>
       </c>
       <c r="C410" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.3017566115210952</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0">
-        <v>0.14302489270386265</v>
+        <v>0.12663662374821172</v>
       </c>
       <c r="B411" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.04523516855351168</v>
       </c>
       <c r="C411" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.2586296300672917</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0">
-        <v>0.14337373390557939</v>
+        <v>0.12694549356223175</v>
       </c>
       <c r="B412" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.045091073526649317</v>
       </c>
       <c r="C412" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.2124590696574114</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0">
-        <v>0.14372257510729611</v>
+        <v>0.12725436337625176</v>
       </c>
       <c r="B413" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.04493668651231246</v>
       </c>
       <c r="C413" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.1631542443239171</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0">
-        <v>0.14407141630901285</v>
+        <v>0.1275632331902718</v>
       </c>
       <c r="B414" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.044771578713490516</v>
       </c>
       <c r="C414" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.1106127697230681</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0">
-        <v>0.14442025751072959</v>
+        <v>0.12787210300429183</v>
       </c>
       <c r="B415" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.044595264754581698</v>
       </c>
       <c r="C415" s="0">
-        <v>6.6138871255240268</v>
+        <v>7.0547187521773722</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0">
-        <v>0.14476909871244634</v>
+        <v>0.12818097281831187</v>
       </c>
       <c r="B416" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.044407193375466655</v>
       </c>
       <c r="C416" s="0">
-        <v>6.6138871255240268</v>
+        <v>6.9953405666890944</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0">
-        <v>0.14511793991416308</v>
+        <v>0.1284898426323319</v>
       </c>
       <c r="B417" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.04420673591133184</v>
       </c>
       <c r="C417" s="0">
-        <v>6.6138871255240268</v>
+        <v>6.9323281062547437</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0">
-        <v>0.14546678111587982</v>
+        <v>0.12879871244635194</v>
       </c>
       <c r="B418" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.04399317188759818</v>
       </c>
       <c r="C418" s="0">
-        <v>6.6138871255240268</v>
+        <v>6.8655093423500153</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0">
-        <v>0.14581562231759657</v>
+        <v>0.12910758226037195</v>
       </c>
       <c r="B419" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.04376567080309391</v>
       </c>
       <c r="C419" s="0">
-        <v>6.6138871255240268</v>
+        <v>6.7946859752775151</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0">
-        <v>0.14616446351931328</v>
+        <v>0.12941645207439198</v>
       </c>
       <c r="B420" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.043523268798300943</v>
       </c>
       <c r="C420" s="0">
-        <v>6.6138871255240268</v>
+        <v>6.7196278632177426</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0">
-        <v>0.14651330472103002</v>
+        <v>0.12972532188841202</v>
       </c>
       <c r="B421" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.043264838340912853</v>
       </c>
       <c r="C421" s="0">
-        <v>6.6138871255240268</v>
+        <v>6.6400657840157251</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0">
-        <v>0.14686214592274677</v>
+        <v>0.13003419170243202</v>
       </c>
       <c r="B422" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042989048193437428</v>
       </c>
       <c r="C422" s="0">
-        <v>6.6138871255240268</v>
+        <v>6.5556818766005343</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0">
-        <v>0.14721098712446351</v>
+        <v>0.13034306151645206</v>
       </c>
       <c r="B423" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042694309558385546</v>
       </c>
       <c r="C423" s="0">
-        <v>6.6138871255240268</v>
+        <v>6.4660967820115456</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0">
-        <v>0.14755982832618025</v>
+        <v>0.13065193133047209</v>
       </c>
       <c r="B424" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042385830654087853</v>
       </c>
       <c r="C424" s="0">
-        <v>6.6138871255240268</v>
+        <v>6.3729954535515123</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0">
-        <v>0.14790866952789697</v>
+        <v>0.13096080114449213</v>
       </c>
       <c r="B425" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042076960840067817</v>
       </c>
       <c r="C425" s="0">
-        <v>6.6138871255240268</v>
+        <v>6.280452552713041</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0">
-        <v>0.14825751072961371</v>
+        <v>0.13126967095851216</v>
       </c>
       <c r="B426" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.041768091026047782</v>
       </c>
       <c r="C426" s="0">
-        <v>6.6138871255240268</v>
+        <v>6.1885864873914924</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0">
-        <v>0.14860635193133046</v>
+        <v>0.1315785407725322</v>
       </c>
       <c r="B427" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.041459221212027747</v>
       </c>
       <c r="C427" s="0">
-        <v>6.6138871255240268</v>
+        <v>6.0973972575868673</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0">
-        <v>0.1489551931330472</v>
+        <v>0.13188741058655221</v>
       </c>
       <c r="B428" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.04115035139800774</v>
       </c>
       <c r="C428" s="0">
-        <v>6.6138871255240268</v>
+        <v>6.0068848632991729</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0">
-        <v>0.14930403433476394</v>
+        <v>0.13219628040057224</v>
       </c>
       <c r="B429" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.040841481583987704</v>
       </c>
       <c r="C429" s="0">
-        <v>6.6138871255240268</v>
+        <v>5.9170493045283941</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0">
-        <v>0.14965287553648066</v>
+        <v>0.13250515021459228</v>
       </c>
       <c r="B430" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.040532611769967669</v>
       </c>
       <c r="C430" s="0">
-        <v>6.6138871255240268</v>
+        <v>5.8278905812745379</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0">
-        <v>0.1500017167381974</v>
+        <v>0.13281402002861229</v>
       </c>
       <c r="B431" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.040223741955947662</v>
       </c>
       <c r="C431" s="0">
-        <v>6.6138871255240268</v>
+        <v>5.7394086935376123</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0">
-        <v>0.15035055793991414</v>
+        <v>0.13312288984263232</v>
       </c>
       <c r="B432" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.039914872141927627</v>
       </c>
       <c r="C432" s="0">
-        <v>6.6138871255240268</v>
+        <v>5.6516036413176023</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0">
-        <v>0.15069939914163089</v>
+        <v>0.13343175965665235</v>
       </c>
       <c r="B433" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.039606002327907591</v>
       </c>
       <c r="C433" s="0">
-        <v>6.6138871255240268</v>
+        <v>5.564475424614515</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0">
-        <v>0.15104824034334763</v>
+        <v>0.13374062947067236</v>
       </c>
       <c r="B434" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.039297132513887584</v>
       </c>
       <c r="C434" s="0">
-        <v>6.6138871255240268</v>
+        <v>5.4780240434283565</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0">
-        <v>0.15139708154506437</v>
+        <v>0.1340494992846924</v>
       </c>
       <c r="B435" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.038988262699867549</v>
       </c>
       <c r="C435" s="0">
-        <v>6.6138871255240268</v>
+        <v>5.3922494977591171</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0">
-        <v>0.15174592274678112</v>
+        <v>0.13435836909871243</v>
       </c>
       <c r="B436" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.038679392885847513</v>
       </c>
       <c r="C436" s="0">
-        <v>6.6138871255240268</v>
+        <v>5.3071517876067986</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0">
-        <v>0.15209476394849783</v>
+        <v>0.13466723891273247</v>
       </c>
       <c r="B437" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.038370523071827478</v>
       </c>
       <c r="C437" s="0">
-        <v>6.6138871255240268</v>
+        <v>5.2227309129714028</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0">
-        <v>0.15244360515021457</v>
+        <v>0.1349761087267525</v>
       </c>
       <c r="B438" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.038061653257807443</v>
       </c>
       <c r="C438" s="0">
-        <v>6.6138871255240268</v>
+        <v>5.1389868738529305</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0">
-        <v>0.15279244635193132</v>
+        <v>0.13528497854077251</v>
       </c>
       <c r="B439" s="0">
-        <v>0.043177435752564164</v>
+        <v>0.037752783443787436</v>
       </c>
       <c r="C439" s="0">
-        <v>6.6131016165139442</v>
+        <v>5.0559196702513871</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0">
-        <v>0.15314128755364806</v>
+        <v>0.13559384835479255</v>
       </c>
       <c r="B440" s="0">
-        <v>0.043165627234102721</v>
+        <v>0.0374439136297674</v>
       </c>
       <c r="C440" s="0">
-        <v>6.6094849008525589</v>
+        <v>4.9735293021667619</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0">
-        <v>0.1534901287553648</v>
+        <v>0.13590271816881258</v>
       </c>
       <c r="B441" s="0">
-        <v>0.043144202366777476</v>
+        <v>0.037135043815747365</v>
       </c>
       <c r="C441" s="0">
-        <v>6.6029254134361999</v>
+        <v>4.8918157695990585</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0">
-        <v>0.15383896995708152</v>
+        <v>0.13621158798283259</v>
       </c>
       <c r="B442" s="0">
-        <v>0.043113112224734872</v>
+        <v>0.036826174001727358</v>
       </c>
       <c r="C442" s="0">
-        <v>6.5934125745278536</v>
+        <v>4.810779072548284</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0">
-        <v>0.15418781115879826</v>
+        <v>0.13652045779685262</v>
       </c>
       <c r="B443" s="0">
-        <v>0.043072285217972496</v>
+        <v>0.036517304187707322</v>
       </c>
       <c r="C443" s="0">
-        <v>6.5809309034901284</v>
+        <v>4.7304192110144259</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0">
-        <v>0.154536652360515</v>
+        <v>0.13682932761087266</v>
       </c>
       <c r="B444" s="0">
-        <v>0.04302162625701951</v>
+        <v>0.036208434373687287</v>
       </c>
       <c r="C444" s="0">
-        <v>6.5654598381555589</v>
+        <v>4.6507361849974931</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0">
-        <v>0.15488549356223175</v>
+        <v>0.13713819742489269</v>
       </c>
       <c r="B445" s="0">
-        <v>0.042961015622244983</v>
+        <v>0.035899564559667252</v>
       </c>
       <c r="C445" s="0">
-        <v>6.5469734903256134</v>
+        <v>4.5717299944974821</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0">
-        <v>0.15523433476394849</v>
+        <v>0.13744706723891273</v>
       </c>
       <c r="B446" s="0">
-        <v>0.042890307505725041</v>
+        <v>0.035590694745647217</v>
       </c>
       <c r="C446" s="0">
-        <v>6.5254403304637227</v>
+        <v>4.4934006395143928</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0">
-        <v>0.15558317596566521</v>
+        <v>0.13775593705293277</v>
       </c>
       <c r="B447" s="0">
-        <v>0.042809328182936687</v>
+        <v>0.035281824931627181</v>
       </c>
       <c r="C447" s="0">
-        <v>6.5008227923419684</v>
+        <v>4.4157481200482272</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0">
-        <v>0.15593201716738195</v>
+        <v>0.13806480686695277</v>
       </c>
       <c r="B448" s="0">
-        <v>0.042717873758559045</v>
+        <v>0.034972955117607174</v>
       </c>
       <c r="C448" s="0">
-        <v>6.4730767855926663</v>
+        <v>4.3387724360989921</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0">
-        <v>0.15628085836909869</v>
+        <v>0.13837367668097281</v>
       </c>
       <c r="B449" s="0">
-        <v>0.042615707414496648</v>
+        <v>0.034664085303587139</v>
       </c>
       <c r="C449" s="0">
-        <v>6.4421511006203263</v>
+        <v>4.2624735876666726</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0">
-        <v>0.15662969957081543</v>
+        <v>0.13868254649499284</v>
       </c>
       <c r="B450" s="0">
-        <v>0.042502556067745299</v>
+        <v>0.034355215489567104</v>
       </c>
       <c r="C450" s="0">
-        <v>6.4079866858978587</v>
+        <v>4.1868515747512758</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0">
-        <v>0.15697854077253218</v>
+        <v>0.13899141630901285</v>
       </c>
       <c r="B451" s="0">
-        <v>0.042378106319320708</v>
+        <v>0.034046345675547096</v>
       </c>
       <c r="C451" s="0">
-        <v>6.3705157719620331</v>
+        <v>4.1119063973528078</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0">
-        <v>0.15732738197424892</v>
+        <v>0.13930028612303288</v>
       </c>
       <c r="B452" s="0">
-        <v>0.042241999540962798</v>
+        <v>0.033737475861527061</v>
       </c>
       <c r="C452" s="0">
-        <v>6.3296608089613793</v>
+        <v>4.0376380554712563</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0">
-        <v>0.15767622317596566</v>
+        <v>0.13960915593705292</v>
       </c>
       <c r="B453" s="0">
-        <v>0.042093825900594878</v>
+        <v>0.033428606047507026</v>
       </c>
       <c r="C453" s="0">
-        <v>6.285333174720197</v>
+        <v>3.9640465491066297</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0">
-        <v>0.15802506437768238</v>
+        <v>0.13991802575107296</v>
       </c>
       <c r="B454" s="0">
-        <v>0.041933117066066235</v>
+        <v>0.03311973623348699</v>
       </c>
       <c r="C454" s="0">
-        <v>6.2374315969942948</v>
+        <v>3.8911318782589248</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0">
-        <v>0.15837390557939912</v>
+        <v>0.14022689556509299</v>
       </c>
       <c r="B455" s="0">
-        <v>0.041759337242971165</v>
+        <v>0.032810866419466955</v>
       </c>
       <c r="C455" s="0">
-        <v>6.1858402154870706</v>
+        <v>3.8188940429281431</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0">
-        <v>0.15872274678111587</v>
+        <v>0.14053576537911303</v>
       </c>
       <c r="B456" s="0">
-        <v>0.04157187208654628</v>
+        <v>0.03250199660544692</v>
       </c>
       <c r="C456" s="0">
-        <v>6.1304261841558194</v>
+        <v>3.7473330431142844</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0">
-        <v>0.15907158798283261</v>
+        <v>0.14084463519313303</v>
       </c>
       <c r="B457" s="0">
-        <v>0.041370014864999152</v>
+        <v>0.032193126791426913</v>
       </c>
       <c r="C457" s="0">
-        <v>6.0710366791669621</v>
+        <v>3.6764488788173555</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0">
-        <v>0.15942042918454935</v>
+        <v>0.14115350500715307</v>
       </c>
       <c r="B458" s="0">
-        <v>0.041152949019248146</v>
+        <v>0.031884256977406877</v>
       </c>
       <c r="C458" s="0">
-        <v>6.0074951276104755</v>
+        <v>3.6062415500373426</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0">
-        <v>0.15976927038626607</v>
+        <v>0.1414623748211731</v>
       </c>
       <c r="B459" s="0">
-        <v>0.040919725925856847</v>
+        <v>0.031575387163386842</v>
       </c>
       <c r="C459" s="0">
-        <v>5.9395963989520793</v>
+        <v>3.5367110567742528</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0">
-        <v>0.16011811158798281</v>
+        <v>0.14177124463519311</v>
       </c>
       <c r="B460" s="0">
-        <v>0.040669236167569893</v>
+        <v>0.031266517349366835</v>
       </c>
       <c r="C460" s="0">
-        <v>5.867100592567776</v>
+        <v>3.4678573990280928</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0">
-        <v>0.16046695278969955</v>
+        <v>0.14208011444921315</v>
       </c>
       <c r="B461" s="0">
-        <v>0.040400171852442421</v>
+        <v>0.030957647535346799</v>
       </c>
       <c r="C461" s="0">
-        <v>5.7897248896243667</v>
+        <v>3.3996805767988487</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0">
-        <v>0.16081579399141629</v>
+        <v>0.14238898426323318</v>
       </c>
       <c r="B462" s="0">
-        <v>0.040110976332513593</v>
+        <v>0.030648777721326764</v>
       </c>
       <c r="C462" s="0">
-        <v>5.7071326802346913</v>
+        <v>3.3321805900865278</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0">
-        <v>0.16116463519313304</v>
+        <v>0.14269785407725319</v>
       </c>
       <c r="B463" s="0">
-        <v>0.03979977576365723</v>
+        <v>0.030339907907306757</v>
       </c>
       <c r="C463" s="0">
-        <v>5.6189187639451168</v>
+        <v>3.2653574388911362</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0">
-        <v>0.16151347639484975</v>
+        <v>0.14300672389127323</v>
       </c>
       <c r="B464" s="0">
-        <v>0.039464283782485871</v>
+        <v>0.030031038093286722</v>
       </c>
       <c r="C464" s="0">
-        <v>5.5245887370489406</v>
+        <v>3.1992111232126614</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0">
-        <v>0.16186231759656652</v>
+        <v>0.14331559370529326</v>
       </c>
       <c r="B465" s="0">
-        <v>0.039115444387993387</v>
+        <v>0.029722168279266686</v>
       </c>
       <c r="C465" s="0">
-        <v>5.4273526331602371</v>
+        <v>3.1337416430511094</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0">
-        <v>0.16221115879828324</v>
+        <v>0.1436244635193133</v>
       </c>
       <c r="B466" s="0">
-        <v>0.038766603186276671</v>
+        <v>0.029413298465246651</v>
       </c>
       <c r="C466" s="0">
-        <v>5.3309793537113848</v>
+        <v>3.0689489984064804</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0">
-        <v>0.16255999999999998</v>
+        <v>0.14393333333333333</v>
       </c>
       <c r="B467" s="0">
-        <v>0.038417761984559928</v>
+        <v>0.029104428651226616</v>
       </c>
       <c r="C467" s="0">
-        <v>5.2354694046875325</v>
+        <v>3.0048331892787745</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0">
-        <v>0.16290884120171673</v>
+        <v>0.14424220314735334</v>
       </c>
       <c r="B468" s="0">
-        <v>0.038068920782843185</v>
+        <v>0.028795558837206608</v>
       </c>
       <c r="C468" s="0">
-        <v>5.1408227860886848</v>
+        <v>2.9413942156679975</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0">
-        <v>0.16325768240343347</v>
+        <v>0.14455107296137337</v>
       </c>
       <c r="B469" s="0">
-        <v>0.037720079581126442</v>
+        <v>0.028486689023186573</v>
       </c>
       <c r="C469" s="0">
-        <v>5.0470394979148452</v>
+        <v>2.8786320775741374</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0">
-        <v>0.16360652360515021</v>
+        <v>0.14485994277539341</v>
       </c>
       <c r="B470" s="0">
-        <v>0.037371238379409699</v>
+        <v>0.028177819209166538</v>
       </c>
       <c r="C470" s="0">
-        <v>4.9541195401660101</v>
+        <v>2.8165467749972004</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0">
-        <v>0.16395536480686693</v>
+        <v>0.14516881258941342</v>
       </c>
       <c r="B471" s="0">
-        <v>0.037022397177692984</v>
+        <v>0.027868949395146531</v>
       </c>
       <c r="C471" s="0">
-        <v>4.8620629128421884</v>
+        <v>2.7551383079371923</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0">
-        <v>0.16430420600858367</v>
+        <v>0.14547768240343345</v>
       </c>
       <c r="B472" s="0">
-        <v>0.036673555975976241</v>
+        <v>0.027560079581126495</v>
       </c>
       <c r="C472" s="0">
-        <v>4.7708696159433677</v>
+        <v>2.6944066763941015</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0">
-        <v>0.16465304721030041</v>
+        <v>0.14578655221745349</v>
       </c>
       <c r="B473" s="0">
-        <v>0.036324714774259498</v>
+        <v>0.02725120976710646</v>
       </c>
       <c r="C473" s="0">
-        <v>4.6805396494695506</v>
+        <v>2.6343518803679333</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0">
-        <v>0.16500188841201716</v>
+        <v>0.14609542203147352</v>
       </c>
       <c r="B474" s="0">
-        <v>0.035975873572542755</v>
+        <v>0.026942339953086425</v>
       </c>
       <c r="C474" s="0">
-        <v>4.5910730134207416</v>
+        <v>2.5749739198586883</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0">
-        <v>0.1653507296137339</v>
+        <v>0.14640429184549356</v>
       </c>
       <c r="B475" s="0">
-        <v>0.035627032370826012</v>
+        <v>0.02663347013906639</v>
       </c>
       <c r="C475" s="0">
-        <v>4.5024697077969371</v>
+        <v>2.5162727948663659</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0">
-        <v>0.16569957081545062</v>
+        <v>0.14671316165951359</v>
       </c>
       <c r="B476" s="0">
-        <v>0.035278191169109297</v>
+        <v>0.026324600325046355</v>
       </c>
       <c r="C476" s="0">
-        <v>4.4147297325981469</v>
+        <v>2.4582485053909671</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0">
-        <v>0.16604841201716736</v>
+        <v>0.1470220314735336</v>
       </c>
       <c r="B477" s="0">
-        <v>0.034929349967392553</v>
+        <v>0.026015730511026347</v>
       </c>
       <c r="C477" s="0">
-        <v>4.327853087824356</v>
+        <v>2.4009010514324962</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0">
-        <v>0.1663972532188841</v>
+        <v>0.14733090128755363</v>
       </c>
       <c r="B478" s="0">
-        <v>0.03458050876567581</v>
+        <v>0.025706860697006312</v>
       </c>
       <c r="C478" s="0">
-        <v>4.2418397734755704</v>
+        <v>2.3442304329909431</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0">
-        <v>0.16674609442060084</v>
+        <v>0.14763977110157367</v>
       </c>
       <c r="B479" s="0">
-        <v>0.034231667563959067</v>
+        <v>0.025397990882986277</v>
       </c>
       <c r="C479" s="0">
-        <v>4.1566897895517929</v>
+        <v>2.2882366500663132</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0">
-        <v>0.16709493562231759</v>
+        <v>0.14794864091559368</v>
       </c>
       <c r="B480" s="0">
-        <v>0.033882826362242324</v>
+        <v>0.025089121068966269</v>
       </c>
       <c r="C480" s="0">
-        <v>4.0724031360530191</v>
+        <v>2.2329197026586112</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0">
-        <v>0.1674437768240343</v>
+        <v>0.14825751072961371</v>
       </c>
       <c r="B481" s="0">
-        <v>0.033533985160525609</v>
+        <v>0.024780251254946234</v>
       </c>
       <c r="C481" s="0">
-        <v>3.9889798129792595</v>
+        <v>2.178279590767827</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0">
-        <v>0.16779261802575107</v>
+        <v>0.14856638054363375</v>
       </c>
       <c r="B482" s="0">
-        <v>0.033185143958808838</v>
+        <v>0.024471381440926199</v>
       </c>
       <c r="C482" s="0">
-        <v>3.9064198203304925</v>
+        <v>2.1243163143939658</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0">
-        <v>0.16814145922746779</v>
+        <v>0.14887525035765378</v>
       </c>
       <c r="B483" s="0">
-        <v>0.032836302757092123</v>
+        <v>0.024162511626906163</v>
       </c>
       <c r="C483" s="0">
-        <v>3.8247231581067451</v>
+        <v>2.0710298735370278</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0">
-        <v>0.16849030042918453</v>
+        <v>0.14918412017167382</v>
       </c>
       <c r="B484" s="0">
-        <v>0.03248746155537538</v>
+        <v>0.023853641812886128</v>
       </c>
       <c r="C484" s="0">
-        <v>3.7438898263079974</v>
+        <v>2.0184202681970125</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0">
-        <v>0.16883914163090127</v>
+        <v>0.14949298998569385</v>
       </c>
       <c r="B485" s="0">
-        <v>0.032138620353658637</v>
+        <v>0.023544771998866093</v>
       </c>
       <c r="C485" s="0">
-        <v>3.6639198249342546</v>
+        <v>1.9664874983739202</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0">
-        <v>0.16918798283261802</v>
+        <v>0.14980185979971386</v>
       </c>
       <c r="B486" s="0">
-        <v>0.031789779151941894</v>
+        <v>0.023235902184846086</v>
       </c>
       <c r="C486" s="0">
-        <v>3.584813153985519</v>
+        <v>1.915231564067756</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0">
-        <v>0.16953682403433476</v>
+        <v>0.1501107296137339</v>
       </c>
       <c r="B487" s="0">
-        <v>0.031440937950225151</v>
+        <v>0.02292703237082605</v>
       </c>
       <c r="C487" s="0">
-        <v>3.5065698134617898</v>
+        <v>1.8646524652785097</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0">
-        <v>0.16988566523605148</v>
+        <v>0.15041959942775393</v>
       </c>
       <c r="B488" s="0">
-        <v>0.031092096748508435</v>
+        <v>0.022618162556806015</v>
       </c>
       <c r="C488" s="0">
-        <v>3.429189803363073</v>
+        <v>1.8147502020061865</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0">
-        <v>0.17023450643776822</v>
+        <v>0.15072846924177394</v>
       </c>
       <c r="B489" s="0">
-        <v>0.030743255546791692</v>
+        <v>0.022309292742786008</v>
       </c>
       <c r="C489" s="0">
-        <v>3.3526731236893563</v>
+        <v>1.7655247742507909</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0">
-        <v>0.17058334763948496</v>
+        <v>0.15103733905579397</v>
       </c>
       <c r="B490" s="0">
-        <v>0.030394414345074949</v>
+        <v>0.022000422928765972</v>
       </c>
       <c r="C490" s="0">
-        <v>3.2770197744406451</v>
+        <v>1.7169761820123135</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0">
-        <v>0.1709321888412017</v>
+        <v>0.15134620886981401</v>
       </c>
       <c r="B491" s="0">
-        <v>0.030045573143358206</v>
+        <v>0.021691553114745937</v>
       </c>
       <c r="C491" s="0">
-        <v>3.2022297556169406</v>
+        <v>1.6691044252907592</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0">
-        <v>0.17128103004291845</v>
+        <v>0.15165507868383404</v>
       </c>
       <c r="B492" s="0">
-        <v>0.029696731941641463</v>
+        <v>0.021382683300725902</v>
       </c>
       <c r="C492" s="0">
-        <v>3.1283030672182419</v>
+        <v>1.621909504086128</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0">
-        <v>0.17162987124463516</v>
+        <v>0.15196394849785408</v>
       </c>
       <c r="B493" s="0">
-        <v>0.029347890739924748</v>
+        <v>0.021073813486705867</v>
       </c>
       <c r="C493" s="0">
-        <v>3.0552397092445554</v>
+        <v>1.5753914183984197</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0">
-        <v>0.17197871244635191</v>
+        <v>0.15227281831187411</v>
       </c>
       <c r="B494" s="0">
-        <v>0.028999049538208005</v>
+        <v>0.020766294166179165</v>
       </c>
       <c r="C494" s="0">
-        <v>2.9830396816958693</v>
+        <v>1.529749129973395</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0">
-        <v>0.17232755364806865</v>
+        <v>0.15258168812589412</v>
       </c>
       <c r="B495" s="0">
-        <v>0.028650208336491262</v>
+        <v>0.020473623214706277</v>
       </c>
       <c r="C495" s="0">
-        <v>2.9117029845721891</v>
+        <v>1.4869337682594808</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0">
-        <v>0.17267639484978539</v>
+        <v>0.15289055793991416</v>
       </c>
       <c r="B496" s="0">
-        <v>0.028301367134774519</v>
+        <v>0.020198081766758205</v>
       </c>
       <c r="C496" s="0">
-        <v>2.8412296178735152</v>
+        <v>1.4471797048319599</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0">
-        <v>0.17302523605150214</v>
+        <v>0.15319942775393419</v>
       </c>
       <c r="B497" s="0">
-        <v>0.027952525933057776</v>
+        <v>0.019938361212217266</v>
       </c>
       <c r="C497" s="0">
-        <v>2.7716195815998477</v>
+        <v>1.4102013645888332</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0">
-        <v>0.17337407725321885</v>
+        <v>0.1535082975679542</v>
       </c>
       <c r="B498" s="0">
-        <v>0.02760368473134106</v>
+        <v>0.01969334754460448</v>
       </c>
       <c r="C498" s="0">
-        <v>2.7028728757511917</v>
+        <v>1.3757556403512967</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0">
-        <v>0.17372291845493562</v>
+        <v>0.15381716738197424</v>
       </c>
       <c r="B499" s="0">
-        <v>0.02725484352962429</v>
+        <v>0.019462083844363435</v>
       </c>
       <c r="C499" s="0">
-        <v>2.6349895003275314</v>
+        <v>1.3436337056734688</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0">
-        <v>0.17407175965665234</v>
+        <v>0.15412603719599424</v>
       </c>
       <c r="B500" s="0">
-        <v>0.026906002327907574</v>
+        <v>0.019243741678773955</v>
       </c>
       <c r="C500" s="0">
-        <v>2.5679694553288872</v>
+        <v>1.3136547735085651</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0">
-        <v>0.17442060085836908</v>
+        <v>0.15443490701001428</v>
       </c>
       <c r="B501" s="0">
-        <v>0.026557161126190831</v>
+        <v>0.019037598956729671</v>
       </c>
       <c r="C501" s="0">
-        <v>2.5018127407552444</v>
+        <v>1.28566126350583</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0">
-        <v>0.17476944206008582</v>
+        <v>0.15474377682403431</v>
       </c>
       <c r="B502" s="0">
-        <v>0.026208319924474088</v>
+        <v>0.018843022542870739</v>
       </c>
       <c r="C502" s="0">
-        <v>2.4365193566066075</v>
+        <v>1.2595150079310184</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0">
-        <v>0.17511828326180257</v>
+        <v>0.15505264663805435</v>
       </c>
       <c r="B503" s="0">
-        <v>0.025859478722757345</v>
+        <v>0.018659454438985354</v>
       </c>
       <c r="C503" s="0">
-        <v>2.3720893028829773</v>
+        <v>1.2350942360641157</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0">
-        <v>0.17546712446351931</v>
+        <v>0.15536151645207438</v>
       </c>
       <c r="B504" s="0">
-        <v>0.025510637521040602</v>
+        <v>0.018486400678960662</v>
       </c>
       <c r="C504" s="0">
-        <v>2.3085225795843529</v>
+        <v>1.2122911507689416</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0">
-        <v>0.17581596566523602</v>
+        <v>0.15567038626609442</v>
       </c>
       <c r="B505" s="0">
-        <v>0.025161796319323887</v>
+        <v>0.018323422315679377</v>
       </c>
       <c r="C505" s="0">
-        <v>2.2458191867107393</v>
+        <v>1.1910099615834657</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0">
-        <v>0.17616480686695277</v>
+        <v>0.15597925608011443</v>
       </c>
       <c r="B506" s="0">
-        <v>0.024812955117607144</v>
+        <v>0.018170128040447171</v>
       </c>
       <c r="C506" s="0">
-        <v>2.1839791242621276</v>
+        <v>1.1711652740737106</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0">
-        <v>0.17651364806866951</v>
+        <v>0.15628812589413446</v>
       </c>
       <c r="B507" s="0">
-        <v>0.024464113915890401</v>
+        <v>0.01802616809077049</v>
       </c>
       <c r="C507" s="0">
-        <v>2.1230023922385217</v>
+        <v>1.1526807603415357</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0">
-        <v>0.17686248927038625</v>
+        <v>0.1565969957081545</v>
       </c>
       <c r="B508" s="0">
-        <v>0.024115272714173658</v>
+        <v>0.017891229185434614</v>
       </c>
       <c r="C508" s="0">
-        <v>2.0628889906399222</v>
+        <v>1.1354880537178762</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0">
-        <v>0.177211330472103</v>
+        <v>0.1569058655221745</v>
       </c>
       <c r="B509" s="0">
-        <v>0.023766431512456915</v>
+        <v>0.017765030286642662</v>
       </c>
       <c r="C509" s="0">
-        <v>2.0036389194663284</v>
+        <v>1.1195258239436852</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0">
-        <v>0.17756017167381971</v>
+        <v>0.15721473533619454</v>
       </c>
       <c r="B510" s="0">
-        <v>0.023417590310740199</v>
+        <v>0.017647319034036615</v>
       </c>
       <c r="C510" s="0">
-        <v>1.9452521787177457</v>
+        <v>1.104738998974198</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0">
-        <v>0.17790901287553645</v>
+        <v>0.15752360515021457</v>
       </c>
       <c r="B511" s="0">
-        <v>0.023068749109023456</v>
+        <v>0.017537868729208608</v>
       </c>
       <c r="C511" s="0">
-        <v>1.8877287683941646</v>
+        <v>1.0910781069154763</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0">
-        <v>0.1782578540772532</v>
+        <v>0.15783247496423461</v>
       </c>
       <c r="B512" s="0">
-        <v>0.022719907907306713</v>
+        <v>0.017436475774927476</v>
       </c>
       <c r="C512" s="0">
-        <v>1.8310686884955898</v>
+        <v>1.0784987171924603</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0">
-        <v>0.17860669527896994</v>
+        <v>0.15814134477825465</v>
       </c>
       <c r="B513" s="0">
-        <v>0.02237106670558997</v>
+        <v>0.01734295749293023</v>
       </c>
       <c r="C513" s="0">
-        <v>1.7752719390220211</v>
+        <v>1.0669609643304148</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0">
-        <v>0.17895553648068668</v>
+        <v>0.15845021459227468</v>
       </c>
       <c r="B514" s="0">
-        <v>0.022022225503873227</v>
+        <v>0.017257150259309854</v>
       </c>
       <c r="C514" s="0">
-        <v>1.7203385199734587</v>
+        <v>1.0564291410447133</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0">
-        <v>0.1793043776824034</v>
+        <v>0.15875908440629469</v>
       </c>
       <c r="B515" s="0">
-        <v>0.021673384302156512</v>
+        <v>0.017178907908385645</v>
       </c>
       <c r="C515" s="0">
-        <v>1.6662684313499068</v>
+        <v>1.046871349920985</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0">
-        <v>0.17965321888412017</v>
+        <v>0.15906795422031472</v>
       </c>
       <c r="B516" s="0">
-        <v>0.021324543100439741</v>
+        <v>0.017108100365283617</v>
       </c>
       <c r="C516" s="0">
-        <v>1.6130616731513521</v>
+        <v>1.0382592050061457</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0">
-        <v>0.18000206008583689</v>
+        <v>0.15937682403433476</v>
       </c>
       <c r="B517" s="0">
-        <v>0.020975701898723026</v>
+        <v>0.01704461247487991</v>
       </c>
       <c r="C517" s="0">
-        <v>1.5607182453778121</v>
+        <v>1.0305675762513</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0">
-        <v>0.18035090128755363</v>
+        <v>0.15968569384835476</v>
       </c>
       <c r="B518" s="0">
-        <v>0.020633242836342443</v>
+        <v>0.016988343000715375</v>
       </c>
       <c r="C518" s="0">
-        <v>1.5101722366852397</v>
+        <v>1.0237743710470784</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0">
-        <v>0.18069974248927037</v>
+        <v>0.1599945636623748</v>
       </c>
       <c r="B519" s="0">
-        <v>0.020312779444620763</v>
+        <v>0.016939203772309272</v>
       </c>
       <c r="C519" s="0">
-        <v>1.4636263137490568</v>
+        <v>1.0178603481437836</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0">
-        <v>0.18104858369098711</v>
+        <v>0.16030343347639484</v>
       </c>
       <c r="B520" s="0">
-        <v>0.020013176347710778</v>
+        <v>0.016897118963237603</v>
       </c>
       <c r="C520" s="0">
-        <v>1.4207692443056894</v>
+        <v>1.0128089601080164</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0">
-        <v>0.18139742489270386</v>
+        <v>0.16061230329041487</v>
       </c>
       <c r="B521" s="0">
-        <v>0.019732733043301878</v>
+        <v>0.01686202448559217</v>
       </c>
       <c r="C521" s="0">
-        <v>1.3812299406336819</v>
+        <v>1.0086062211768123</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0">
-        <v>0.18174626609442057</v>
+        <v>0.16092117310443491</v>
       </c>
       <c r="B522" s="0">
-        <v>0.019470021576241441</v>
+        <v>0.016833867489150851</v>
       </c>
       <c r="C522" s="0">
-        <v>1.3446967909106771</v>
+        <v>1.0052405979626704</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0">
-        <v>0.18209510729613732</v>
+        <v>0.16123004291845494</v>
       </c>
       <c r="B523" s="0">
-        <v>0.019223830406447952</v>
+        <v>0.01681260595588558</v>
       </c>
       <c r="C523" s="0">
-        <v>1.3109054099338498</v>
+        <v>1.002702920963928</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0">
-        <v>0.18244394849785406</v>
+        <v>0.16153891273247495</v>
       </c>
       <c r="B524" s="0">
-        <v>0.018993122503165691</v>
+        <v>0.016798208382407014</v>
       </c>
       <c r="C524" s="0">
-        <v>1.2796294943469373</v>
+        <v>1.0009863152653578</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0">
-        <v>0.1827927896995708</v>
+        <v>0.16184778254649498</v>
       </c>
       <c r="B525" s="0">
-        <v>0.018777003493069263</v>
+        <v>0.016790653544668858</v>
       </c>
       <c r="C525" s="0">
-        <v>1.2506738718426849</v>
+        <v>1.0000861491901105</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0">
-        <v>0.18314163090128755</v>
+        <v>0.16215665236051502</v>
       </c>
       <c r="B526" s="0">
-        <v>0.018574697065661713</v>
+        <v>0.016789930340793943</v>
       </c>
       <c r="C526" s="0">
-        <v>1.2238691340694203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0">
-        <v>0.18349047210300429</v>
+        <v>0.16246552217453503</v>
       </c>
       <c r="B527" s="0">
-        <v>0.018385525716704251</v>
+        <v>0.016796037709290602</v>
       </c>
       <c r="C527" s="0">
-        <v>1.1990674344157737</v>
+        <v>1.0007276360480379</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0">
-        <v>0.183839313304721</v>
+        <v>0.16277439198855506</v>
       </c>
       <c r="B528" s="0">
-        <v>0.018208895484582585</v>
+        <v>0.016808984621248503</v>
       </c>
       <c r="C528" s="0">
-        <v>1.1761391571436726</v>
+        <v>1.0022710150753518</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0">
-        <v>0.18418815450643775</v>
+        <v>0.16308326180257507</v>
       </c>
       <c r="B529" s="0">
-        <v>0.018044283719124386</v>
+        <v>0.016828790146379738</v>
       </c>
       <c r="C529" s="0">
-        <v>1.1549702482701545</v>
+        <v>1.0046342986231858</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0">
-        <v>0.18453699570815449</v>
+        <v>0.16339213161659513</v>
       </c>
       <c r="B530" s="0">
-        <v>0.0178912291854346</v>
+        <v>0.016855483594043298</v>
       </c>
       <c r="C530" s="0">
-        <v>1.1354600560023946</v>
+        <v>1.0078238828083566</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0">
-        <v>0.18488583690987123</v>
+        <v>0.16370100143061517</v>
       </c>
       <c r="B531" s="0">
-        <v>0.017749323988636844</v>
+        <v>0.016889104731698881</v>
       </c>
       <c r="C531" s="0">
-        <v>1.1175195685352779</v>
+        <v>1.0118484459959545</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0">
-        <v>0.18523467811158797</v>
+        <v>0.16400987124463517</v>
       </c>
       <c r="B532" s="0">
-        <v>0.017618206935364235</v>
+        <v>0.016929704084620821</v>
       </c>
       <c r="C532" s="0">
-        <v>1.1010699653798906</v>
+        <v>1.0167190142052476</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0">
-        <v>0.18558351931330469</v>
+        <v>0.16431874105865521</v>
       </c>
       <c r="B533" s="0">
-        <v>0.017497558041411274</v>
+        <v>0.016977343322209529</v>
       </c>
       <c r="C533" s="0">
-        <v>1.0860414188100469</v>
+        <v>1.0224490454135746</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0">
-        <v>0.18593236051502143</v>
+        <v>0.16462761087267525</v>
       </c>
       <c r="B534" s="0">
-        <v>0.017387093963302076</v>
+        <v>0.017032095737917922</v>
       </c>
       <c r="C534" s="0">
-        <v>1.0723720969280806</v>
+        <v>1.0290545342896398</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0">
-        <v>0.18628120171673818</v>
+        <v>0.16493648068669525</v>
       </c>
       <c r="B535" s="0">
-        <v>0.01728656418211813</v>
+        <v>0.017094046831724427</v>
       </c>
       <c r="C535" s="0">
-        <v>1.060007330890512</v>
+        <v>1.0365541393053059</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0">
-        <v>0.18663004291845492</v>
+        <v>0.16524535050071529</v>
       </c>
       <c r="B536" s="0">
-        <v>0.017195747805842883</v>
+        <v>0.017163295006304338</v>
       </c>
       <c r="C536" s="0">
-        <v>1.0488989171079677</v>
+        <v>1.0449693346595366</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0">
-        <v>0.18697888412017166</v>
+        <v>0.16555422031473532</v>
       </c>
       <c r="B537" s="0">
-        <v>0.017114450885236124</v>
+        <v>0.017237347688240746</v>
       </c>
       <c r="C537" s="0">
-        <v>1.0390045315088019</v>
+        <v>1.0540060283084076</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0">
-        <v>0.18732772532188838</v>
+        <v>0.16586309012875533</v>
       </c>
       <c r="B538" s="0">
-        <v>0.017042504160310282</v>
+        <v>0.017311500769907975</v>
       </c>
       <c r="C538" s="0">
-        <v>1.0302872377697114</v>
+        <v>1.0630939587048438</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0">
-        <v>0.18767656652360512</v>
+        <v>0.16617195994277537</v>
       </c>
       <c r="B539" s="0">
-        <v>0.016979761171595657</v>
+        <v>0.017385653851575211</v>
       </c>
       <c r="C539" s="0">
-        <v>1.0227150751514744</v>
+        <v>1.0722209004185859</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0">
-        <v>0.18802540772532186</v>
+        <v>0.1664808297567954</v>
       </c>
       <c r="B540" s="0">
-        <v>0.016926096683813743</v>
+        <v>0.017459806933242453</v>
       </c>
       <c r="C540" s="0">
-        <v>1.0162607145091338</v>
+        <v>1.0813868534496347</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0">
-        <v>0.18837424892703861</v>
+        <v>0.16678969957081544</v>
       </c>
       <c r="B541" s="0">
-        <v>0.016881405380246017</v>
+        <v>0.017533960014909689</v>
       </c>
       <c r="C541" s="0">
-        <v>1.010901173374001</v>
+        <v>1.0905918177979888</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0">
-        <v>0.18872309012875535</v>
+        <v>0.16709856938483547</v>
       </c>
       <c r="B542" s="0">
-        <v>0.01684560079467147</v>
+        <v>0.017608113096576925</v>
       </c>
       <c r="C542" s="0">
-        <v>1.0066175828784845</v>
+        <v>1.099835793463648</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0">
-        <v>0.18907193133047207</v>
+        <v>0.16740743919885551</v>
       </c>
       <c r="B543" s="0">
-        <v>0.016818614454757193</v>
+        <v>0.017682266178244161</v>
       </c>
       <c r="C543" s="0">
-        <v>1.0033950008247155</v>
+        <v>1.1091187804466129</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0">
-        <v>0.18942077253218881</v>
+        <v>0.16771630901287552</v>
       </c>
       <c r="B544" s="0">
-        <v>0.016800395216611232</v>
+        <v>0.01775641925991139</v>
       </c>
       <c r="C544" s="0">
-        <v>1.001222266469064</v>
+        <v>1.1184407787468831</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="0">
-        <v>0.18976961373390555</v>
+        <v>0.16802517882689555</v>
       </c>
       <c r="B545" s="0">
-        <v>0.016790908775144688</v>
+        <v>0.017830572341578626</v>
       </c>
       <c r="C545" s="0">
-        <v>1.0000918936721732</v>
+        <v>1.1278017883644593</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0">
-        <v>0.19011845493562232</v>
+        <v>0.16833404864091558</v>
       </c>
       <c r="B546" s="0">
-        <v>0.016790137339178605</v>
+        <v>0.017904725423245862</v>
       </c>
       <c r="C546" s="0">
-        <v>1</v>
+        <v>1.1372018092993417</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0">
-        <v>0.19046729613733901</v>
+        <v>0.16864291845493559</v>
       </c>
       <c r="B547" s="0">
-        <v>0.016798079464064031</v>
+        <v>0.017978878504913091</v>
       </c>
       <c r="C547" s="0">
-        <v>1.0009462701977603</v>
+        <v>1.1466408415515283</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0">
-        <v>0.19081613733905575</v>
+        <v>0.16895178826895563</v>
       </c>
       <c r="B548" s="0">
-        <v>0.016814750038124094</v>
+        <v>0.018053031586580327</v>
       </c>
       <c r="C548" s="0">
-        <v>1.0029339532312873</v>
+        <v>1.1561188851210216</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0">
-        <v>0.1911649785407725</v>
+        <v>0.16926065808297566</v>
       </c>
       <c r="B549" s="0">
-        <v>0.016840180422620182</v>
+        <v>0.018127184668247562</v>
       </c>
       <c r="C549" s="0">
-        <v>1.0059698928307885</v>
+        <v>1.1656359400078209</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0">
-        <v>0.19151381974248927</v>
+        <v>0.1695695278969957</v>
       </c>
       <c r="B550" s="0">
-        <v>0.016874418748325546</v>
+        <v>0.018201337749914798</v>
       </c>
       <c r="C550" s="0">
-        <v>1.0100645922098528</v>
+        <v>1.1751920062119254</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0">
-        <v>0.19186266094420601</v>
+        <v>0.16987839771101573</v>
       </c>
       <c r="B551" s="0">
-        <v>0.016917530375294015</v>
+        <v>0.018275490831582034</v>
       </c>
       <c r="C551" s="0">
-        <v>1.015232314397291</v>
+        <v>1.1847870837333361</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0">
-        <v>0.1922115021459227</v>
+        <v>0.17018726752503577</v>
       </c>
       <c r="B552" s="0">
-        <v>0.016969598526181198</v>
+        <v>0.01834964391324927</v>
       </c>
       <c r="C552" s="0">
-        <v>1.0214912204420203</v>
+        <v>1.1944211725720522</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0">
-        <v>0.19256034334763944</v>
+        <v>0.17049613733905578</v>
       </c>
       <c r="B553" s="0">
-        <v>0.01703072510767038</v>
+        <v>0.018423796994916499</v>
       </c>
       <c r="C553" s="0">
-        <v>1.0288635486666009</v>
+        <v>1.2040942727280726</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0">
-        <v>0.19290918454935621</v>
+        <v>0.17080500715307581</v>
       </c>
       <c r="B554" s="0">
-        <v>0.017101031739362213</v>
+        <v>0.018497950076583735</v>
       </c>
       <c r="C554" s="0">
-        <v>1.037375839194036</v>
+        <v>1.2138063842014004</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0">
-        <v>0.19325802575107295</v>
+        <v>0.17111387696709585</v>
       </c>
       <c r="B555" s="0">
-        <v>0.017180642390495219</v>
+        <v>0.018572103158250971</v>
       </c>
       <c r="C555" s="0">
-        <v>1.0470569390838498</v>
+        <v>1.2235575069920333</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0">
-        <v>0.1936068669527897</v>
+        <v>0.17142274678111585</v>
       </c>
       <c r="B556" s="0">
-        <v>0.017264391753319393</v>
+        <v>0.018646256239918207</v>
       </c>
       <c r="C556" s="0">
-        <v>1.0572898603826686</v>
+        <v>1.2333476410999717</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0">
-        <v>0.19395570815450641</v>
+        <v>0.17173161659513589</v>
       </c>
       <c r="B557" s="0">
-        <v>0.017348141116143554</v>
+        <v>0.018720409321585443</v>
       </c>
       <c r="C557" s="0">
-        <v>1.0675725421569735</v>
+        <v>1.2431767865252166</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0">
-        <v>0.19430454935622316</v>
+        <v>0.17204048640915592</v>
       </c>
       <c r="B558" s="0">
-        <v>0.017431890478967729</v>
+        <v>0.018794562403252679</v>
       </c>
       <c r="C558" s="0">
-        <v>1.0779049844067685</v>
+        <v>1.2530449432677664</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0">
-        <v>0.1946533905579399</v>
+        <v>0.17234935622317596</v>
       </c>
       <c r="B559" s="0">
-        <v>0.017515639841791903</v>
+        <v>0.018868715484919914</v>
       </c>
       <c r="C559" s="0">
-        <v>1.0882871871320521</v>
+        <v>1.2629521113276225</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="0">
-        <v>0.19500223175965664</v>
+        <v>0.172658226037196</v>
       </c>
       <c r="B560" s="0">
-        <v>0.017599389204616071</v>
+        <v>0.01894286856658715</v>
       </c>
       <c r="C560" s="0">
-        <v>1.0987191503328233</v>
+        <v>1.2728982907047837</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0">
-        <v>0.19535107296137338</v>
+        <v>0.17296709585121603</v>
       </c>
       <c r="B561" s="0">
-        <v>0.017683138567440245</v>
+        <v>0.019017021648254386</v>
       </c>
       <c r="C561" s="0">
-        <v>1.1092008740090842</v>
+        <v>1.2828834813992507</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0">
-        <v>0.1956999141630901</v>
+        <v>0.17327596566523604</v>
       </c>
       <c r="B562" s="0">
-        <v>0.017766887930264413</v>
+        <v>0.019091174729921615</v>
       </c>
       <c r="C562" s="0">
-        <v>1.1197323581608323</v>
+        <v>1.2929076834110227</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0">
-        <v>0.19604875536480684</v>
+        <v>0.17358483547925607</v>
       </c>
       <c r="B563" s="0">
-        <v>0.01785063729308858</v>
+        <v>0.019165327811588851</v>
       </c>
       <c r="C563" s="0">
-        <v>1.1303136027880687</v>
+        <v>1.302970896740101</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0">
-        <v>0.19639759656652359</v>
+        <v>0.17389370529327608</v>
       </c>
       <c r="B564" s="0">
-        <v>0.017934386655912755</v>
+        <v>0.01923948089325608</v>
       </c>
       <c r="C564" s="0">
-        <v>1.1409446078907946</v>
+        <v>1.3130731213864844</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0">
-        <v>0.19674643776824033</v>
+        <v>0.17420257510729612</v>
       </c>
       <c r="B565" s="0">
-        <v>0.018018136018736929</v>
+        <v>0.019313633974923316</v>
       </c>
       <c r="C565" s="0">
-        <v>1.1516253734690087</v>
+        <v>1.3232143573501738</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="0">
-        <v>0.19709527896995707</v>
+        <v>0.17451144492131615</v>
       </c>
       <c r="B566" s="0">
-        <v>0.018101885381561097</v>
+        <v>0.019387787056590552</v>
       </c>
       <c r="C566" s="0">
-        <v>1.162355899522711</v>
+        <v>1.3333946046311691</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0">
-        <v>0.19744412017167379</v>
+        <v>0.17482031473533616</v>
       </c>
       <c r="B567" s="0">
-        <v>0.018185634744385264</v>
+        <v>0.019461940138257781</v>
       </c>
       <c r="C567" s="0">
-        <v>1.1731361860519012</v>
+        <v>1.3436138632294694</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0">
-        <v>0.19779296137339053</v>
+        <v>0.17512918454935619</v>
       </c>
       <c r="B568" s="0">
-        <v>0.018269384107209439</v>
+        <v>0.019536093219925017</v>
       </c>
       <c r="C568" s="0">
-        <v>1.1839662330565808</v>
+        <v>1.353872133145076</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0">
-        <v>0.19814180257510727</v>
+        <v>0.17543805436337623</v>
       </c>
       <c r="B569" s="0">
-        <v>0.018353133470033606</v>
+        <v>0.019610246301592253</v>
       </c>
       <c r="C569" s="0">
-        <v>1.1948460405367478</v>
+        <v>1.3641694143779888</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0">
-        <v>0.19849064377682402</v>
+        <v>0.17574692417739626</v>
       </c>
       <c r="B570" s="0">
-        <v>0.018436882832857781</v>
+        <v>0.019684399383259488</v>
       </c>
       <c r="C570" s="0">
-        <v>1.2057756084924043</v>
+        <v>1.3745057069282065</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="0">
-        <v>0.19883948497854076</v>
+        <v>0.1760557939914163</v>
       </c>
       <c r="B571" s="0">
-        <v>0.018520632195681955</v>
+        <v>0.019758552464926731</v>
       </c>
       <c r="C571" s="0">
-        <v>1.2167549369235493</v>
+        <v>1.3848810107957312</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0">
-        <v>0.19918832618025747</v>
+        <v>0.17636466380543633</v>
       </c>
       <c r="B572" s="0">
-        <v>0.018604381558506116</v>
+        <v>0.019832705546593967</v>
       </c>
       <c r="C572" s="0">
-        <v>1.2277840258301811</v>
+        <v>1.395295325980561</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0">
-        <v>0.19953716738197422</v>
+        <v>0.17667353361945634</v>
       </c>
       <c r="B573" s="0">
-        <v>0.018688130921330291</v>
+        <v>0.019906858628261196</v>
       </c>
       <c r="C573" s="0">
-        <v>1.238862875212303</v>
+        <v>1.4057486524826948</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="0">
-        <v>0.19988600858369096</v>
+        <v>0.17698240343347638</v>
       </c>
       <c r="B574" s="0">
-        <v>0.018771880284154465</v>
+        <v>0.019981011709928432</v>
       </c>
       <c r="C574" s="0">
-        <v>1.2499914850699132</v>
+        <v>1.4162409903021354</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0">
-        <v>0.2002348497854077</v>
+        <v>0.17729127324749641</v>
       </c>
       <c r="B575" s="0">
-        <v>0.018855629646978633</v>
+        <v>0.020055164791595668</v>
       </c>
       <c r="C575" s="0">
-        <v>1.2611698554030109</v>
+        <v>1.4267723394388821</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0">
-        <v>0.20058369098712448</v>
+        <v>0.17760014306151642</v>
       </c>
       <c r="B576" s="0">
-        <v>0.018939379009802814</v>
+        <v>0.020129317873262897</v>
       </c>
       <c r="C576" s="0">
-        <v>1.2723979862115991</v>
+        <v>1.4373426998929328</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0">
-        <v>0.20093253218884116</v>
+        <v>0.17790901287553645</v>
       </c>
       <c r="B577" s="0">
-        <v>0.019023128372626975</v>
+        <v>0.020203470954930133</v>
       </c>
       <c r="C577" s="0">
-        <v>1.2836758774956731</v>
+        <v>1.4479520716642911</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0">
-        <v>0.20128137339055791</v>
+        <v>0.17821788268955649</v>
       </c>
       <c r="B578" s="0">
-        <v>0.019106877735451142</v>
+        <v>0.020277624036597369</v>
       </c>
       <c r="C578" s="0">
-        <v>1.295003529255236</v>
+        <v>1.4586004547529543</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0">
-        <v>0.20163021459227465</v>
+        <v>0.17852675250357652</v>
       </c>
       <c r="B579" s="0">
-        <v>0.019190627098275317</v>
+        <v>0.020351777118264605</v>
       </c>
       <c r="C579" s="0">
-        <v>1.3063809414902885</v>
+        <v>1.4692878491589232</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0">
-        <v>0.20197905579399142</v>
+        <v>0.17883562231759656</v>
       </c>
       <c r="B580" s="0">
-        <v>0.019274376461099498</v>
+        <v>0.02042593019993184</v>
       </c>
       <c r="C580" s="0">
-        <v>1.3178081142008304</v>
+        <v>1.4800142548821982</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0">
-        <v>0.20232789699570811</v>
+        <v>0.1791444921316166</v>
       </c>
       <c r="B581" s="0">
-        <v>0.019358125823923652</v>
+        <v>0.020500083281599076</v>
       </c>
       <c r="C581" s="0">
-        <v>1.3292850473868572</v>
+        <v>1.4907796719227784</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0">
-        <v>0.20267673819742485</v>
+        <v>0.1794533619456366</v>
       </c>
       <c r="B582" s="0">
-        <v>0.019441875186747826</v>
+        <v>0.020574236363266305</v>
       </c>
       <c r="C582" s="0">
-        <v>1.3408117410483751</v>
+        <v>1.5015841002806638</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0">
-        <v>0.20302557939914159</v>
+        <v>0.17976223175965664</v>
       </c>
       <c r="B583" s="0">
-        <v>0.019525624549572001</v>
+        <v>0.020648389444933541</v>
       </c>
       <c r="C583" s="0">
-        <v>1.3523881951853813</v>
+        <v>1.5124275399558553</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0">
-        <v>0.20337442060085836</v>
+        <v>0.18007110157367667</v>
       </c>
       <c r="B584" s="0">
-        <v>0.019609373912396175</v>
+        <v>0.020722542526600777</v>
       </c>
       <c r="C584" s="0">
-        <v>1.3640144097978759</v>
+        <v>1.5233099909483525</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0">
-        <v>0.20372326180257511</v>
+        <v>0.18037997138769668</v>
       </c>
       <c r="B585" s="0">
-        <v>0.01969312327522035</v>
+        <v>0.020796695608268006</v>
       </c>
       <c r="C585" s="0">
-        <v>1.375690384885859</v>
+        <v>1.5342314532581549</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0">
-        <v>0.20407210300429179</v>
+        <v>0.18068884120171672</v>
       </c>
       <c r="B586" s="0">
-        <v>0.019776872638044511</v>
+        <v>0.020870848689935249</v>
       </c>
       <c r="C586" s="0">
-        <v>1.3874161204493289</v>
+        <v>1.5451919268852645</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="0">
-        <v>0.20442094420600857</v>
+        <v>0.18099771101573675</v>
       </c>
       <c r="B587" s="0">
-        <v>0.019860622000868685</v>
+        <v>0.020945001771602485</v>
       </c>
       <c r="C587" s="0">
-        <v>1.3991916164882889</v>
+        <v>1.5561914118296787</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="0">
-        <v>0.20476978540772531</v>
+        <v>0.18130658082975679</v>
       </c>
       <c r="B588" s="0">
-        <v>0.01994437136369286</v>
+        <v>0.021019154853269721</v>
       </c>
       <c r="C588" s="0">
-        <v>1.4110168730027375</v>
+        <v>1.5672299080913992</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0">
-        <v>0.20511862660944205</v>
+        <v>0.18161545064377682</v>
       </c>
       <c r="B589" s="0">
-        <v>0.020028120726517034</v>
+        <v>0.021093307934936956</v>
       </c>
       <c r="C589" s="0">
-        <v>1.4228918899926744</v>
+        <v>1.5783074156704247</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0">
-        <v>0.20546746781115879</v>
+        <v>0.18192432045779686</v>
       </c>
       <c r="B590" s="0">
-        <v>0.020111870089341202</v>
+        <v>0.021167461016604192</v>
       </c>
       <c r="C590" s="0">
-        <v>1.4348166674580987</v>
+        <v>1.5894239345667565</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0">
-        <v>0.20581630901287551</v>
+        <v>0.18223319027181686</v>
       </c>
       <c r="B591" s="0">
-        <v>0.020195619452165369</v>
+        <v>0.021241614098271421</v>
       </c>
       <c r="C591" s="0">
-        <v>1.4467912053990113</v>
+        <v>1.6005794647803921</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0">
-        <v>0.20616515021459225</v>
+        <v>0.1825420600858369</v>
       </c>
       <c r="B592" s="0">
-        <v>0.020279368814989544</v>
+        <v>0.021315767179938657</v>
       </c>
       <c r="C592" s="0">
-        <v>1.458815503815414</v>
+        <v>1.6117740063113346</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0">
-        <v>0.206513991416309</v>
+        <v>0.18285092989985691</v>
       </c>
       <c r="B593" s="0">
-        <v>0.020363118177813711</v>
+        <v>0.021389920261605886</v>
       </c>
       <c r="C593" s="0">
-        <v>1.4708895627073035</v>
+        <v>1.6230075591595823</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0">
-        <v>0.20686283261802574</v>
+        <v>0.18315979971387694</v>
       </c>
       <c r="B594" s="0">
-        <v>0.020446867540637886</v>
+        <v>0.021464073343273122</v>
       </c>
       <c r="C594" s="0">
-        <v>1.4830133820746827</v>
+        <v>1.6342801233251363</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="0">
-        <v>0.20721167381974248</v>
+        <v>0.18346866952789698</v>
       </c>
       <c r="B595" s="0">
-        <v>0.02053061690346206</v>
+        <v>0.021538226424940358</v>
       </c>
       <c r="C595" s="0">
-        <v>1.4951869619175502</v>
+        <v>1.6455916988079964</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0">
-        <v>0.2075605150214592</v>
+        <v>0.18377753934191701</v>
       </c>
       <c r="B596" s="0">
-        <v>0.020614366266286221</v>
+        <v>0.021612379506607594</v>
       </c>
       <c r="C596" s="0">
-        <v>1.507410302235904</v>
+        <v>1.6569422856081615</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0">
-        <v>0.20790935622317594</v>
+        <v>0.18408640915593705</v>
       </c>
       <c r="B597" s="0">
-        <v>0.020698115629110395</v>
+        <v>0.02168653258827483</v>
       </c>
       <c r="C597" s="0">
-        <v>1.519683403029749</v>
+        <v>1.6683318837256325</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="0">
-        <v>0.20825819742489268</v>
+        <v>0.18439527896995706</v>
       </c>
       <c r="B598" s="0">
-        <v>0.02078186499193457</v>
+        <v>0.021760685669942059</v>
       </c>
       <c r="C598" s="0">
-        <v>1.5320062642990817</v>
+        <v>1.6797604931604084</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0">
-        <v>0.20860703862660943</v>
+        <v>0.18470414878397709</v>
       </c>
       <c r="B599" s="0">
-        <v>0.020865614354758737</v>
+        <v>0.021834838751609295</v>
       </c>
       <c r="C599" s="0">
-        <v>1.5443788860439021</v>
+        <v>1.6912281139124905</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0">
-        <v>0.20895587982832617</v>
+        <v>0.18501301859799713</v>
       </c>
       <c r="B600" s="0">
-        <v>0.020949363717582912</v>
+        <v>0.02190899183327653</v>
       </c>
       <c r="C600" s="0">
-        <v>1.5568012682642118</v>
+        <v>1.7027347459818789</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0">
-        <v>0.20930472103004288</v>
+        <v>0.18532188841201716</v>
       </c>
       <c r="B601" s="0">
-        <v>0.021033113080407079</v>
+        <v>0.021983144914943766</v>
       </c>
       <c r="C601" s="0">
-        <v>1.5692734109600088</v>
+        <v>1.7142803893685725</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0">
-        <v>0.20965356223175963</v>
+        <v>0.1856307582260372</v>
       </c>
       <c r="B602" s="0">
-        <v>0.021116862443231247</v>
+        <v>0.022057297996611009</v>
       </c>
       <c r="C602" s="0">
-        <v>1.5817953141312948</v>
+        <v>1.7258650440725729</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0">
-        <v>0.21000240343347637</v>
+        <v>0.18593962804005723</v>
       </c>
       <c r="B603" s="0">
-        <v>0.021200611806055421</v>
+        <v>0.022131451078278245</v>
       </c>
       <c r="C603" s="0">
-        <v>1.59436697777807</v>
+        <v>1.7374887100938783</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0">
-        <v>0.21035124463519311</v>
+        <v>0.18624849785407721</v>
       </c>
       <c r="B604" s="0">
-        <v>0.021284361168879596</v>
+        <v>0.022205604159945467</v>
       </c>
       <c r="C604" s="0">
-        <v>1.6069884019003335</v>
+        <v>1.7491513874324864</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0">
-        <v>0.21070008583690986</v>
+        <v>0.18655736766809725</v>
       </c>
       <c r="B605" s="0">
-        <v>0.021368110531703764</v>
+        <v>0.022279757241612703</v>
       </c>
       <c r="C605" s="0">
-        <v>1.6196595864980843</v>
+        <v>1.7608530760884034</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0">
-        <v>0.21104892703862657</v>
+        <v>0.18686623748211728</v>
       </c>
       <c r="B606" s="0">
-        <v>0.021451859894527931</v>
+        <v>0.022353910323279939</v>
       </c>
       <c r="C606" s="0">
-        <v>1.6323805315713236</v>
+        <v>1.7725937760616253</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0">
-        <v>0.21139776824034332</v>
+        <v>0.18717510729613732</v>
       </c>
       <c r="B607" s="0">
-        <v>0.021535609257352106</v>
+        <v>0.022428063404947175</v>
       </c>
       <c r="C607" s="0">
-        <v>1.6451512371200523</v>
+        <v>1.7843734873521526</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0">
-        <v>0.21174660944206006</v>
+        <v>0.18748397711015735</v>
       </c>
       <c r="B608" s="0">
-        <v>0.021619358620176273</v>
+        <v>0.02250221648661441</v>
       </c>
       <c r="C608" s="0">
-        <v>1.6579717031442691</v>
+        <v>1.7961922099599865</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0">
-        <v>0.2120954506437768</v>
+        <v>0.18779284692417739</v>
       </c>
       <c r="B609" s="0">
-        <v>0.021703107983000448</v>
+        <v>0.022576369568281646</v>
       </c>
       <c r="C609" s="0">
-        <v>1.6708419296439747</v>
+        <v>1.8080499438851254</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0">
-        <v>0.21244429184549357</v>
+        <v>0.1881017167381974</v>
       </c>
       <c r="B610" s="0">
-        <v>0.021786857345824622</v>
+        <v>0.022650522649948875</v>
       </c>
       <c r="C610" s="0">
-        <v>1.6837619166191689</v>
+        <v>1.8199466891275693</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0">
-        <v>0.21279313304721026</v>
+        <v>0.18841058655221743</v>
       </c>
       <c r="B611" s="0">
-        <v>0.021870606708648783</v>
+        <v>0.022724675731616111</v>
       </c>
       <c r="C611" s="0">
-        <v>1.6967316640698493</v>
+        <v>1.8318824456873195</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0">
-        <v>0.213141974248927</v>
+        <v>0.18871945636623747</v>
       </c>
       <c r="B612" s="0">
-        <v>0.021954356071472957</v>
+        <v>0.022798828813283347</v>
       </c>
       <c r="C612" s="0">
-        <v>1.7097511719960203</v>
+        <v>1.8438572135643754</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0">
-        <v>0.21349081545064374</v>
+        <v>0.1890283261802575</v>
       </c>
       <c r="B613" s="0">
-        <v>0.022038105434297132</v>
+        <v>0.022872981894950583</v>
       </c>
       <c r="C613" s="0">
-        <v>1.7228204403976803</v>
+        <v>1.8558709927587376</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0">
-        <v>0.21383965665236052</v>
+        <v>0.18933719599427754</v>
       </c>
       <c r="B614" s="0">
-        <v>0.022121854797121306</v>
+        <v>0.022947134976617819</v>
       </c>
       <c r="C614" s="0">
-        <v>1.7359394692748282</v>
+        <v>1.8679237832704048</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0">
-        <v>0.2141884978540772</v>
+        <v>0.18964606580829754</v>
       </c>
       <c r="B615" s="0">
-        <v>0.022205604159945467</v>
+        <v>0.023021288058285048</v>
       </c>
       <c r="C615" s="0">
-        <v>1.7491082586274622</v>
+        <v>1.880015585099377</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0">
-        <v>0.21453733905579395</v>
+        <v>0.18995493562231758</v>
       </c>
       <c r="B616" s="0">
-        <v>0.022289353522769642</v>
+        <v>0.023095441139952284</v>
       </c>
       <c r="C616" s="0">
-        <v>1.7623268084555872</v>
+        <v>1.8921463982456554</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0">
-        <v>0.21488618025751072</v>
+        <v>0.19026380543633761</v>
       </c>
       <c r="B617" s="0">
-        <v>0.022373102885593816</v>
+        <v>0.023169594221619527</v>
       </c>
       <c r="C617" s="0">
-        <v>1.7755951187592003</v>
+        <v>1.904316222709241</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0">
-        <v>0.21523502145922746</v>
+        <v>0.19057267525035765</v>
       </c>
       <c r="B618" s="0">
-        <v>0.02245685224841799</v>
+        <v>0.023243747303286762</v>
       </c>
       <c r="C618" s="0">
-        <v>1.7889131895383021</v>
+        <v>1.9165250584901308</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0">
-        <v>0.2155838626609442</v>
+        <v>0.19088154506437768</v>
       </c>
       <c r="B619" s="0">
-        <v>0.022540601611242158</v>
+        <v>0.023317900384953998</v>
       </c>
       <c r="C619" s="0">
-        <v>1.8022810207928917</v>
+        <v>1.9287729055883269</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0">
-        <v>0.21593270386266089</v>
+        <v>0.19119041487839772</v>
       </c>
       <c r="B620" s="0">
-        <v>0.022624350974066319</v>
+        <v>0.023392053466621234</v>
       </c>
       <c r="C620" s="0">
-        <v>1.8156986125229677</v>
+        <v>1.9410597640038281</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0">
-        <v>0.21628154506437766</v>
+        <v>0.1914992846924177</v>
       </c>
       <c r="B621" s="0">
-        <v>0.0227081003368905</v>
+        <v>0.023466206548288456</v>
       </c>
       <c r="C621" s="0">
-        <v>1.8291659647285361</v>
+        <v>1.9533856337366331</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0">
-        <v>0.2166303862660944</v>
+        <v>0.19180815450643773</v>
       </c>
       <c r="B622" s="0">
-        <v>0.022791849699714668</v>
+        <v>0.023540359629955692</v>
       </c>
       <c r="C622" s="0">
-        <v>1.8426830774095904</v>
+        <v>1.9657505147867456</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0">
-        <v>0.21697922746781115</v>
+        <v>0.19211702432045777</v>
       </c>
       <c r="B623" s="0">
-        <v>0.022875599062538842</v>
+        <v>0.023614512711622928</v>
       </c>
       <c r="C623" s="0">
-        <v>1.8562499505661343</v>
+        <v>1.9781544071541644</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0">
-        <v>0.21732806866952789</v>
+        <v>0.1924258941344778</v>
       </c>
       <c r="B624" s="0">
-        <v>0.022959348425363017</v>
+        <v>0.023688665793290164</v>
       </c>
       <c r="C624" s="0">
-        <v>1.8698665841981672</v>
+        <v>1.9905973108388881</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0">
-        <v>0.21767690987124461</v>
+        <v>0.19273476394849784</v>
       </c>
       <c r="B625" s="0">
-        <v>0.023043097788187177</v>
+        <v>0.0237628188749574</v>
       </c>
       <c r="C625" s="0">
-        <v>1.8835329783056856</v>
+        <v>2.0030792258409176</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0">
-        <v>0.21802575107296135</v>
+        <v>0.19304363376251788</v>
       </c>
       <c r="B626" s="0">
-        <v>0.023126847151011352</v>
+        <v>0.023836971956624636</v>
       </c>
       <c r="C626" s="0">
-        <v>1.8972491328886947</v>
+        <v>2.0156001521602534</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0">
-        <v>0.21837459227467809</v>
+        <v>0.19335250357653788</v>
       </c>
       <c r="B627" s="0">
-        <v>0.023210596513835526</v>
+        <v>0.023911125038291865</v>
       </c>
       <c r="C627" s="0">
-        <v>1.9110150479471923</v>
+        <v>2.0281600897968932</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0">
-        <v>0.21872343347639484</v>
+        <v>0.19366137339055792</v>
       </c>
       <c r="B628" s="0">
-        <v>0.023294345876659694</v>
+        <v>0.023985278119959101</v>
       </c>
       <c r="C628" s="0">
-        <v>1.9248307234811779</v>
+        <v>2.0407590387508403</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="0">
-        <v>0.21907227467811158</v>
+        <v>0.19397024320457795</v>
       </c>
       <c r="B629" s="0">
-        <v>0.023378095239483868</v>
+        <v>0.024059431201626336</v>
       </c>
       <c r="C629" s="0">
-        <v>1.9386961594906524</v>
+        <v>2.0533969990220924</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0">
-        <v>0.21942111587982829</v>
+        <v>0.19427911301859799</v>
       </c>
       <c r="B630" s="0">
-        <v>0.023461844602308036</v>
+        <v>0.024133584283293572</v>
       </c>
       <c r="C630" s="0">
-        <v>1.9526113559756142</v>
+        <v>2.0660739706106503</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0">
-        <v>0.21976995708154504</v>
+        <v>0.19458798283261802</v>
       </c>
       <c r="B631" s="0">
-        <v>0.023545593965132204</v>
+        <v>0.024207737364960808</v>
       </c>
       <c r="C631" s="0">
-        <v>1.9665763129360645</v>
+        <v>2.0787899535165146</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0">
-        <v>0.22011879828326178</v>
+        <v>0.19489685264663806</v>
       </c>
       <c r="B632" s="0">
-        <v>0.023629343327956378</v>
+        <v>0.024281890446628051</v>
       </c>
       <c r="C632" s="0">
-        <v>1.9805910303720045</v>
+        <v>2.0915449477396848</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0">
-        <v>0.22046763948497852</v>
+        <v>0.19520572246065804</v>
       </c>
       <c r="B633" s="0">
-        <v>0.023713092690780553</v>
+        <v>0.024356043528295273</v>
       </c>
       <c r="C633" s="0">
-        <v>1.9946555082834327</v>
+        <v>2.1043389532801578</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0">
-        <v>0.22081648068669527</v>
+        <v>0.19551459227467807</v>
       </c>
       <c r="B634" s="0">
-        <v>0.02379684205360472</v>
+        <v>0.024430196609962509</v>
       </c>
       <c r="C634" s="0">
-        <v>2.0087697466703487</v>
+        <v>2.1171719701379383</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0">
-        <v>0.22116532188841198</v>
+        <v>0.19582346208869811</v>
       </c>
       <c r="B635" s="0">
-        <v>0.023880591416428888</v>
+        <v>0.024504349691629745</v>
       </c>
       <c r="C635" s="0">
-        <v>2.022933745532753</v>
+        <v>2.1300439983130244</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="0">
-        <v>0.22151416309012872</v>
+        <v>0.19613233190271814</v>
       </c>
       <c r="B636" s="0">
-        <v>0.023964340779253062</v>
+        <v>0.024578502773296981</v>
       </c>
       <c r="C636" s="0">
-        <v>2.0371475048706462</v>
+        <v>2.1429550378054172</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0">
-        <v>0.22186300429184547</v>
+        <v>0.19644120171673821</v>
       </c>
       <c r="B637" s="0">
-        <v>0.02404809014207723</v>
+        <v>0.024652655854964224</v>
       </c>
       <c r="C637" s="0">
-        <v>2.0514110246840272</v>
+        <v>2.1559050886151159</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0">
-        <v>0.22221184549356221</v>
+        <v>0.19675007153075824</v>
       </c>
       <c r="B638" s="0">
-        <v>0.024131839504901404</v>
+        <v>0.024726808936631459</v>
       </c>
       <c r="C638" s="0">
-        <v>2.0657243049728979</v>
+        <v>2.1688941507421191</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0">
-        <v>0.22256068669527895</v>
+        <v>0.19705894134477822</v>
       </c>
       <c r="B639" s="0">
-        <v>0.024215588867725579</v>
+        <v>0.024800962018298681</v>
       </c>
       <c r="C639" s="0">
-        <v>2.0800873457372573</v>
+        <v>2.181922224186426</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="0">
-        <v>0.22290952789699567</v>
+        <v>0.19736781115879826</v>
       </c>
       <c r="B640" s="0">
-        <v>0.024299338230549739</v>
+        <v>0.024875115099965917</v>
       </c>
       <c r="C640" s="0">
-        <v>2.0945001469771021</v>
+        <v>2.1949893089480406</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0">
-        <v>0.22325836909871241</v>
+        <v>0.19767668097281829</v>
       </c>
       <c r="B641" s="0">
-        <v>0.024383087593373914</v>
+        <v>0.024949268181633153</v>
       </c>
       <c r="C641" s="0">
-        <v>2.1089627086924381</v>
+        <v>2.2080954050269615</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0">
-        <v>0.22360721030042915</v>
+        <v>0.19798555078683833</v>
       </c>
       <c r="B642" s="0">
-        <v>0.024466836956198088</v>
+        <v>0.025023421263300389</v>
       </c>
       <c r="C642" s="0">
-        <v>2.1234750308832626</v>
+        <v>2.2212405124231873</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0">
-        <v>0.2239560515021459</v>
+        <v>0.19829442060085836</v>
       </c>
       <c r="B643" s="0">
-        <v>0.024550586319022256</v>
+        <v>0.025097574344967625</v>
       </c>
       <c r="C643" s="0">
-        <v>2.1380371135495739</v>
+        <v>2.2344246311367186</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="0">
-        <v>0.22430489270386267</v>
+        <v>0.19860329041487837</v>
       </c>
       <c r="B644" s="0">
-        <v>0.024634335681846437</v>
+        <v>0.025171727426634854</v>
       </c>
       <c r="C644" s="0">
-        <v>2.1526489566913765</v>
+        <v>2.2476477611675549</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0">
-        <v>0.22465373390557936</v>
+        <v>0.1989121602288984</v>
       </c>
       <c r="B645" s="0">
-        <v>0.024718085044670598</v>
+        <v>0.02524588050830209</v>
       </c>
       <c r="C645" s="0">
-        <v>2.167310560308664</v>
+        <v>2.260909902515698</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0">
-        <v>0.2250025751072961</v>
+        <v>0.19922103004291844</v>
       </c>
       <c r="B646" s="0">
-        <v>0.024801834407494765</v>
+        <v>0.025320033589969326</v>
       </c>
       <c r="C646" s="0">
-        <v>2.1820219244014409</v>
+        <v>2.274211055181147</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="0">
-        <v>0.22535141630901284</v>
+        <v>0.19952989985693848</v>
       </c>
       <c r="B647" s="0">
-        <v>0.02488558377031894</v>
+        <v>0.025394186671636569</v>
       </c>
       <c r="C647" s="0">
-        <v>2.1967830489697073</v>
+        <v>2.2875512191639027</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="0">
-        <v>0.22570025751072961</v>
+        <v>0.19983876967095851</v>
       </c>
       <c r="B648" s="0">
-        <v>0.024969333133143121</v>
+        <v>0.025468339753303804</v>
       </c>
       <c r="C648" s="0">
-        <v>2.2115939340134636</v>
+        <v>2.3009303944639625</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0">
-        <v>0.2260490987124463</v>
+        <v>0.20014763948497855</v>
       </c>
       <c r="B649" s="0">
-        <v>0.025053082495967275</v>
+        <v>0.02554249283497104</v>
       </c>
       <c r="C649" s="0">
-        <v>2.2264545795327035</v>
+        <v>2.3143485810813278</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0">
-        <v>0.22639793991416304</v>
+        <v>0.20045650929899853</v>
       </c>
       <c r="B650" s="0">
-        <v>0.02513683185879145</v>
+        <v>0.025616645916638262</v>
       </c>
       <c r="C650" s="0">
-        <v>2.2413649855274356</v>
+        <v>2.3278057790159972</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="0">
-        <v>0.22674678111587981</v>
+        <v>0.20076537911301856</v>
       </c>
       <c r="B651" s="0">
-        <v>0.025220581221615631</v>
+        <v>0.025690798998305498</v>
       </c>
       <c r="C651" s="0">
-        <v>2.256325151997657</v>
+        <v>2.3413019882679747</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0">
-        <v>0.22709562231759656</v>
+        <v>0.2010742489270386</v>
       </c>
       <c r="B652" s="0">
-        <v>0.025304330584439799</v>
+        <v>0.025764952079972734</v>
       </c>
       <c r="C652" s="0">
-        <v>2.2713350789433644</v>
+        <v>2.3548372088372571</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0">
-        <v>0.2274444635193133</v>
+        <v>0.20138311874105863</v>
       </c>
       <c r="B653" s="0">
-        <v>0.025388079947263973</v>
+        <v>0.02583910516163997</v>
       </c>
       <c r="C653" s="0">
-        <v>2.2863947663645616</v>
+        <v>2.3684114407238455</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0">
-        <v>0.22779330472102999</v>
+        <v>0.20169198855507867</v>
       </c>
       <c r="B654" s="0">
-        <v>0.025471829310088134</v>
+        <v>0.025913258243307206</v>
       </c>
       <c r="C654" s="0">
-        <v>2.3015042142612452</v>
+        <v>2.3820246839277397</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="0">
-        <v>0.22814214592274676</v>
+        <v>0.2020008583690987</v>
       </c>
       <c r="B655" s="0">
-        <v>0.025555578672912308</v>
+        <v>0.025987411324974442</v>
       </c>
       <c r="C655" s="0">
-        <v>2.3166634226334195</v>
+        <v>2.3956769384489394</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0">
-        <v>0.2284909871244635</v>
+        <v>0.20230972818311871</v>
       </c>
       <c r="B656" s="0">
-        <v>0.025639328035736483</v>
+        <v>0.026061564406641671</v>
       </c>
       <c r="C656" s="0">
-        <v>2.3318723914810819</v>
+        <v>2.4093682042874431</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0">
-        <v>0.22883982832618025</v>
+        <v>0.20261859799713875</v>
       </c>
       <c r="B657" s="0">
-        <v>0.025723077398560657</v>
+        <v>0.026135717488308906</v>
       </c>
       <c r="C657" s="0">
-        <v>2.3471311208042329</v>
+        <v>2.4230984814432546</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0">
-        <v>0.22918866952789699</v>
+        <v>0.20292746781115878</v>
       </c>
       <c r="B658" s="0">
-        <v>0.025806826761384825</v>
+        <v>0.026209870569976142</v>
       </c>
       <c r="C658" s="0">
-        <v>2.3624396106028707</v>
+        <v>2.436867769916371</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="0">
-        <v>0.2295375107296137</v>
+        <v>0.20323633762517882</v>
       </c>
       <c r="B659" s="0">
-        <v>0.025890576124208992</v>
+        <v>0.026284023651643378</v>
       </c>
       <c r="C659" s="0">
-        <v>2.3777978608769974</v>
+        <v>2.4506760697067942</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0">
-        <v>0.22988635193133045</v>
+        <v>0.20354520743919885</v>
       </c>
       <c r="B660" s="0">
-        <v>0.025974325487033167</v>
+        <v>0.026358176733310614</v>
       </c>
       <c r="C660" s="0">
-        <v>2.3932058716266145</v>
+        <v>2.4645233808145219</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0">
-        <v>0.23023519313304719</v>
+        <v>0.20385407725321888</v>
       </c>
       <c r="B661" s="0">
-        <v>0.026058074849857334</v>
+        <v>0.02643232981497785</v>
       </c>
       <c r="C661" s="0">
-        <v>2.4086636428517174</v>
+        <v>2.4784097032395551</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0">
-        <v>0.23058403433476393</v>
+        <v>0.20416294706723889</v>
       </c>
       <c r="B662" s="0">
-        <v>0.026141824212681509</v>
+        <v>0.026506482896645086</v>
       </c>
       <c r="C662" s="0">
-        <v>2.4241711745523107</v>
+        <v>2.4923350369818951</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0">
-        <v>0.23093287553648068</v>
+        <v>0.20447181688125893</v>
       </c>
       <c r="B663" s="0">
-        <v>0.026225573575505683</v>
+        <v>0.026580635978312322</v>
       </c>
       <c r="C663" s="0">
-        <v>2.4397284667283925</v>
+        <v>2.50629938204154</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0">
-        <v>0.23128171673819739</v>
+        <v>0.20478068669527896</v>
       </c>
       <c r="B664" s="0">
-        <v>0.026309322938329844</v>
+        <v>0.026654789059979558</v>
       </c>
       <c r="C664" s="0">
-        <v>2.4553355193799602</v>
+        <v>2.5203027384184904</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="0">
-        <v>0.23163055793991413</v>
+        <v>0.205089556509299</v>
       </c>
       <c r="B665" s="0">
-        <v>0.026393072301154019</v>
+        <v>0.026728942141646794</v>
       </c>
       <c r="C665" s="0">
-        <v>2.4709923325070187</v>
+        <v>2.5343451061127475</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0">
-        <v>0.23197939914163088</v>
+        <v>0.20539842632331903</v>
       </c>
       <c r="B666" s="0">
-        <v>0.026476821663978193</v>
+        <v>0.026803095223314029</v>
       </c>
       <c r="C666" s="0">
-        <v>2.4866989061095657</v>
+        <v>2.5484264851243092</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0">
-        <v>0.23232824034334762</v>
+        <v>0.20570729613733907</v>
       </c>
       <c r="B667" s="0">
-        <v>0.026560571026802361</v>
+        <v>0.026877248304981265</v>
       </c>
       <c r="C667" s="0">
-        <v>2.5024552401875995</v>
+        <v>2.5625468754531768</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="0">
-        <v>0.23267708154506436</v>
+        <v>0.20601616595135905</v>
       </c>
       <c r="B668" s="0">
-        <v>0.026644320389626535</v>
+        <v>0.026951401386648487</v>
       </c>
       <c r="C668" s="0">
-        <v>2.5182613347411236</v>
+        <v>2.5767062770993476</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0">
-        <v>0.23302592274678108</v>
+        <v>0.20632503576537908</v>
       </c>
       <c r="B669" s="0">
-        <v>0.026728069752450703</v>
+        <v>0.027025554468315723</v>
       </c>
       <c r="C669" s="0">
-        <v>2.5341171897701344</v>
+        <v>2.5909046900628265</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0">
-        <v>0.23337476394849782</v>
+        <v>0.20663390557939912</v>
       </c>
       <c r="B670" s="0">
-        <v>0.02681181911527487</v>
+        <v>0.027099707549982959</v>
       </c>
       <c r="C670" s="0">
-        <v>2.5500228052746343</v>
+        <v>2.6051421143436118</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0">
-        <v>0.23372360515021456</v>
+        <v>0.20694277539341915</v>
       </c>
       <c r="B671" s="0">
-        <v>0.026895568478099045</v>
+        <v>0.027173860631650195</v>
       </c>
       <c r="C671" s="0">
-        <v>2.5659781812546236</v>
+        <v>2.619418549941702</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0">
-        <v>0.23407244635193131</v>
+        <v>0.20725164520743919</v>
       </c>
       <c r="B672" s="0">
-        <v>0.026979317840923219</v>
+        <v>0.027248013713317431</v>
       </c>
       <c r="C672" s="0">
-        <v>2.581983317710101</v>
+        <v>2.6337339968570985</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="0">
-        <v>0.23442128755364805</v>
+        <v>0.2075605150214592</v>
       </c>
       <c r="B673" s="0">
-        <v>0.027063067203747387</v>
+        <v>0.02732216679498466</v>
       </c>
       <c r="C673" s="0">
-        <v>2.5980382146410657</v>
+        <v>2.6480884550897987</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="0">
-        <v>0.23477012875536477</v>
+        <v>0.20786938483547923</v>
       </c>
       <c r="B674" s="0">
-        <v>0.027146816566571554</v>
+        <v>0.027396319876651896</v>
       </c>
       <c r="C674" s="0">
-        <v>2.6141428720475184</v>
+        <v>2.6624819246398057</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0">
-        <v>0.23511896995708151</v>
+        <v>0.20817825464949927</v>
       </c>
       <c r="B675" s="0">
-        <v>0.027230565929395729</v>
+        <v>0.027470472958319132</v>
       </c>
       <c r="C675" s="0">
-        <v>2.6302972899294623</v>
+        <v>2.676914405507119</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="0">
-        <v>0.23546781115879825</v>
+        <v>0.2084871244635193</v>
       </c>
       <c r="B676" s="0">
-        <v>0.027314315292219896</v>
+        <v>0.027544626039986368</v>
       </c>
       <c r="C676" s="0">
-        <v>2.6465014682868922</v>
+        <v>2.6913858976917377</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="0">
-        <v>0.235816652360515</v>
+        <v>0.20879599427753934</v>
       </c>
       <c r="B677" s="0">
-        <v>0.027398064655044071</v>
+        <v>0.027618779121653603</v>
       </c>
       <c r="C677" s="0">
-        <v>2.6627554071198118</v>
+        <v>2.7058964011936624</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="0">
-        <v>0.23616549356223177</v>
+        <v>0.20910486409155937</v>
       </c>
       <c r="B678" s="0">
-        <v>0.027481814017868252</v>
+        <v>0.027692932203320846</v>
       </c>
       <c r="C678" s="0">
-        <v>2.6790591064282214</v>
+        <v>2.7204459160128938</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="0">
-        <v>0.23651433476394845</v>
+        <v>0.20941373390557935</v>
       </c>
       <c r="B679" s="0">
-        <v>0.027565563380692406</v>
+        <v>0.027767085284988068</v>
       </c>
       <c r="C679" s="0">
-        <v>2.6954125662121138</v>
+        <v>2.7350344421494266</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="0">
-        <v>0.2368631759656652</v>
+        <v>0.20972260371959939</v>
       </c>
       <c r="B680" s="0">
-        <v>0.02764931274351658</v>
+        <v>0.027841238366655304</v>
       </c>
       <c r="C680" s="0">
-        <v>2.7118157864714996</v>
+        <v>2.7496619796032684</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="0">
-        <v>0.23721201716738197</v>
+        <v>0.21003147353361942</v>
       </c>
       <c r="B681" s="0">
-        <v>0.027733062106340762</v>
+        <v>0.02791539144832254</v>
       </c>
       <c r="C681" s="0">
-        <v>2.7282687672063748</v>
+        <v>2.7643285283744152</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="0">
-        <v>0.23756085836909871</v>
+        <v>0.21034034334763946</v>
       </c>
       <c r="B682" s="0">
-        <v>0.027816811469164929</v>
+        <v>0.027989544529989776</v>
       </c>
       <c r="C682" s="0">
-        <v>2.7447715084167355</v>
+        <v>2.7790340884628684</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="0">
-        <v>0.2379096995708154</v>
+        <v>0.21064921316165949</v>
       </c>
       <c r="B683" s="0">
-        <v>0.02790056083198909</v>
+        <v>0.028063697611657012</v>
       </c>
       <c r="C683" s="0">
-        <v>2.7613240101025829</v>
+        <v>2.7937786598686265</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="0">
-        <v>0.23825854077253214</v>
+        <v>0.21095808297567953</v>
       </c>
       <c r="B684" s="0">
-        <v>0.027984310194813265</v>
+        <v>0.028137850693324248</v>
       </c>
       <c r="C684" s="0">
-        <v>2.7779262722639215</v>
+        <v>2.8085622425916905</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="0">
-        <v>0.23860738197424891</v>
+        <v>0.21126695278969954</v>
       </c>
       <c r="B685" s="0">
-        <v>0.028068059557637439</v>
+        <v>0.028212003774991477</v>
       </c>
       <c r="C685" s="0">
-        <v>2.7945782949007487</v>
+        <v>2.8233848366320591</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0">
-        <v>0.23895622317596566</v>
+        <v>0.21157582260371957</v>
       </c>
       <c r="B686" s="0">
-        <v>0.028151808920461614</v>
+        <v>0.028286156856658713</v>
       </c>
       <c r="C686" s="0">
-        <v>2.8112800780130653</v>
+        <v>2.8382464419897344</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0">
-        <v>0.2393050643776824</v>
+        <v>0.21188469241773961</v>
       </c>
       <c r="B687" s="0">
-        <v>0.028235558283285788</v>
+        <v>0.028360309938325949</v>
       </c>
       <c r="C687" s="0">
-        <v>2.8280316216008696</v>
+        <v>2.8531470586647152</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="0">
-        <v>0.23965390557939908</v>
+        <v>0.21219356223175964</v>
       </c>
       <c r="B688" s="0">
-        <v>0.028319307646109942</v>
+        <v>0.028434463019993184</v>
       </c>
       <c r="C688" s="0">
-        <v>2.8448329256641576</v>
+        <v>2.8680866866570023</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="0">
-        <v>0.24000274678111586</v>
+        <v>0.21250243204577968</v>
       </c>
       <c r="B689" s="0">
-        <v>0.028403057008934123</v>
+        <v>0.02850861610166042</v>
       </c>
       <c r="C689" s="0">
-        <v>2.8616839902029403</v>
+        <v>2.8830653259665944</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="0">
-        <v>0.2403515879828326</v>
+        <v>0.21281130185979971</v>
       </c>
       <c r="B690" s="0">
-        <v>0.028486806371758298</v>
+        <v>0.028582769183327656</v>
       </c>
       <c r="C690" s="0">
-        <v>2.8785848152172098</v>
+        <v>2.8980829765934928</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="0">
-        <v>0.24070042918454934</v>
+        <v>0.21312017167381972</v>
       </c>
       <c r="B691" s="0">
-        <v>0.028570555734582465</v>
+        <v>0.028656922264994885</v>
       </c>
       <c r="C691" s="0">
-        <v>2.8955354007069669</v>
+        <v>2.9131396385376949</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="0">
-        <v>0.24104927038626608</v>
+        <v>0.21342904148783975</v>
       </c>
       <c r="B692" s="0">
-        <v>0.02865430509740664</v>
+        <v>0.028731075346662121</v>
       </c>
       <c r="C692" s="0">
-        <v>2.9125357466722135</v>
+        <v>2.9282353117992042</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="0">
-        <v>0.2413981115879828</v>
+        <v>0.21373791130185979</v>
       </c>
       <c r="B693" s="0">
-        <v>0.028738054460230807</v>
+        <v>0.028805228428329364</v>
       </c>
       <c r="C693" s="0">
-        <v>2.9295858531129468</v>
+        <v>2.9433699963780211</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="0">
-        <v>0.24174695278969954</v>
+        <v>0.21404678111587983</v>
       </c>
       <c r="B694" s="0">
-        <v>0.028821803823054975</v>
+        <v>0.0288793815099966</v>
       </c>
       <c r="C694" s="0">
-        <v>2.9466857200291687</v>
+        <v>2.9585436922741417</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="0">
-        <v>0.24209579399141629</v>
+        <v>0.21435565092989986</v>
       </c>
       <c r="B695" s="0">
-        <v>0.028905553185879149</v>
+        <v>0.028953534591663836</v>
       </c>
       <c r="C695" s="0">
-        <v>2.9638353474208805</v>
+        <v>2.9737563994875678</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="0">
-        <v>0.24244463519313303</v>
+        <v>0.2146645207439199</v>
       </c>
       <c r="B696" s="0">
-        <v>0.028989302548703324</v>
+        <v>0.029027687673331071</v>
       </c>
       <c r="C696" s="0">
-        <v>2.9810347352880804</v>
+        <v>2.9890081180183006</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="0">
-        <v>0.24279347639484977</v>
+        <v>0.21497339055793988</v>
       </c>
       <c r="B697" s="0">
-        <v>0.029073051911527492</v>
+        <v>0.029101840754998293</v>
       </c>
       <c r="C697" s="0">
-        <v>2.9982838836307684</v>
+        <v>3.0042988478663348</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="0">
-        <v>0.24314231759656649</v>
+        <v>0.21528226037195991</v>
       </c>
       <c r="B698" s="0">
-        <v>0.029156801274351659</v>
+        <v>0.029175993836665529</v>
       </c>
       <c r="C698" s="0">
-        <v>3.015582792448944</v>
+        <v>3.0196285890316785</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="0">
-        <v>0.24349115879828323</v>
+        <v>0.21559113018597995</v>
       </c>
       <c r="B699" s="0">
-        <v>0.029240550637175834</v>
+        <v>0.029250146918332765</v>
       </c>
       <c r="C699" s="0">
-        <v>3.0329314617426095</v>
+        <v>3.0349973415143277</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="0">
-        <v>0.24383999999999997</v>
+        <v>0.21589999999999998</v>
       </c>
       <c r="B700" s="0">
         <v>0.029324300000000001</v>
       </c>
       <c r="C700" s="0">
-        <v>3.0503298915117618</v>
+        <v>3.0504051053142818</v>
       </c>
     </row>
   </sheetData>

--- a/REGEN/Contour_Maelstrom.xlsx
+++ b/REGEN/Contour_Maelstrom.xlsx
@@ -69,7699 +69,7699 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C1" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.00034157367668097283</v>
+        <v>0.00029070100143061516</v>
       </c>
       <c r="B2" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C2" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.00068314735336194566</v>
+        <v>0.00058140200286123031</v>
       </c>
       <c r="B3" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C3" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0010247210300429186</v>
+        <v>0.00087210300429184536</v>
       </c>
       <c r="B4" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C4" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0013662947067238913</v>
+        <v>0.0011628040057224606</v>
       </c>
       <c r="B5" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C5" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.001707868383404864</v>
+        <v>0.0014535050071530758</v>
       </c>
       <c r="B6" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C6" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0020494420600858372</v>
+        <v>0.0017442060085836907</v>
       </c>
       <c r="B7" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C7" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0023910157367668097</v>
+        <v>0.0020349070100143061</v>
       </c>
       <c r="B8" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C8" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0027325894134477826</v>
+        <v>0.0023256080114449213</v>
       </c>
       <c r="B9" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C9" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0030741630901287551</v>
+        <v>0.0026163090128755364</v>
       </c>
       <c r="B10" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C10" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0034157367668097281</v>
+        <v>0.0029070100143061516</v>
       </c>
       <c r="B11" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C11" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.003757310443490701</v>
+        <v>0.0031977110157367667</v>
       </c>
       <c r="B12" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C12" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0040988841201716744</v>
+        <v>0.0034884120171673814</v>
       </c>
       <c r="B13" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C13" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0044404577968526473</v>
+        <v>0.003779113018597997</v>
       </c>
       <c r="B14" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C14" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0047820314735336194</v>
+        <v>0.0040698140200286122</v>
       </c>
       <c r="B15" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C15" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0051236051502145923</v>
+        <v>0.0043605150214592273</v>
       </c>
       <c r="B16" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C16" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0054651788268955653</v>
+        <v>0.0046512160228898425</v>
       </c>
       <c r="B17" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C17" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0058067525035765373</v>
+        <v>0.0049419170243204576</v>
       </c>
       <c r="B18" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C18" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0061483261802575103</v>
+        <v>0.0052326180257510728</v>
       </c>
       <c r="B19" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C19" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0064898998569384832</v>
+        <v>0.0055233190271816879</v>
       </c>
       <c r="B20" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C20" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0068314735336194561</v>
+        <v>0.0058140200286123031</v>
       </c>
       <c r="B21" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C21" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0071730472103004291</v>
+        <v>0.0061047210300429183</v>
       </c>
       <c r="B22" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C22" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.007514620886981402</v>
+        <v>0.0063954220314735334</v>
       </c>
       <c r="B23" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C23" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0078561945636623758</v>
+        <v>0.0066861230329041477</v>
       </c>
       <c r="B24" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C24" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0081977682403433488</v>
+        <v>0.0069768240343347629</v>
       </c>
       <c r="B25" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C25" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0085393419170243217</v>
+        <v>0.0072675250357653789</v>
       </c>
       <c r="B26" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C26" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0088809155937052946</v>
+        <v>0.007558226037195994</v>
       </c>
       <c r="B27" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C27" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0092224892703862658</v>
+        <v>0.0078489270386266092</v>
       </c>
       <c r="B28" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C28" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0095640629470672388</v>
+        <v>0.0081396280400572244</v>
       </c>
       <c r="B29" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C29" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0099056366237482117</v>
+        <v>0.0084303290414878395</v>
       </c>
       <c r="B30" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C30" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.010247210300429185</v>
+        <v>0.0087210300429184547</v>
       </c>
       <c r="B31" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C31" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.010588783977110158</v>
+        <v>0.0090117310443490698</v>
       </c>
       <c r="B32" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C32" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.010930357653791131</v>
+        <v>0.009302432045779685</v>
       </c>
       <c r="B33" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C33" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.011271931330472103</v>
+        <v>0.0095931330472103001</v>
       </c>
       <c r="B34" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C34" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.011613505007153075</v>
+        <v>0.0098838340486409153</v>
       </c>
       <c r="B35" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C35" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.011955078683834049</v>
+        <v>0.01017453505007153</v>
       </c>
       <c r="B36" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C36" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.012296652360515021</v>
+        <v>0.010465236051502146</v>
       </c>
       <c r="B37" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C37" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.012638226037195995</v>
+        <v>0.010755937052932761</v>
       </c>
       <c r="B38" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C38" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.012979799713876966</v>
+        <v>0.011046638054363376</v>
       </c>
       <c r="B39" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C39" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.013321373390557941</v>
+        <v>0.011337339055793991</v>
       </c>
       <c r="B40" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C40" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.013662947067238912</v>
+        <v>0.011628040057224606</v>
       </c>
       <c r="B41" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C41" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.014004520743919887</v>
+        <v>0.01191874105865522</v>
       </c>
       <c r="B42" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C42" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.014346094420600858</v>
+        <v>0.012209442060085837</v>
       </c>
       <c r="B43" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C43" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.014687668097281829</v>
+        <v>0.012500143061516453</v>
       </c>
       <c r="B44" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C44" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.015029241773962804</v>
+        <v>0.012790844062947067</v>
       </c>
       <c r="B45" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C45" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.015370815450643775</v>
+        <v>0.013081545064377682</v>
       </c>
       <c r="B46" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C46" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.015712389127324752</v>
+        <v>0.013372246065808295</v>
       </c>
       <c r="B47" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C47" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.016053962804005721</v>
+        <v>0.013662947067238912</v>
       </c>
       <c r="B48" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C48" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.016395536480686698</v>
+        <v>0.013953648068669526</v>
       </c>
       <c r="B49" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C49" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.016737110157367667</v>
+        <v>0.014244349070100143</v>
       </c>
       <c r="B50" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C50" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.017078683834048643</v>
+        <v>0.014535050071530758</v>
       </c>
       <c r="B51" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C51" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.017420257510729613</v>
+        <v>0.014825751072961373</v>
       </c>
       <c r="B52" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C52" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.017761831187410589</v>
+        <v>0.015116452074391988</v>
       </c>
       <c r="B53" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C53" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.018103404864091559</v>
+        <v>0.015407153075822602</v>
       </c>
       <c r="B54" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C54" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.018444978540772532</v>
+        <v>0.015697854077253218</v>
       </c>
       <c r="B55" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C55" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.018786552217453505</v>
+        <v>0.015988555078683835</v>
       </c>
       <c r="B56" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C56" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.019128125894134478</v>
+        <v>0.016279256080114449</v>
       </c>
       <c r="B57" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C57" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.01946969957081545</v>
+        <v>0.016569957081545066</v>
       </c>
       <c r="B58" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C58" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.019811273247496423</v>
+        <v>0.016860658082975679</v>
       </c>
       <c r="B59" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C59" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.020152846924177396</v>
+        <v>0.017151359084406292</v>
       </c>
       <c r="B60" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C60" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>0.020494420600858369</v>
+        <v>0.017442060085836909</v>
       </c>
       <c r="B61" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C61" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.020835994277539342</v>
+        <v>0.017732761087267523</v>
       </c>
       <c r="B62" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C62" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.021177567954220315</v>
+        <v>0.01802346208869814</v>
       </c>
       <c r="B63" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C63" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0.021519141630901288</v>
+        <v>0.018314163090128753</v>
       </c>
       <c r="B64" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C64" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>0.021860715307582261</v>
+        <v>0.01860486409155937</v>
       </c>
       <c r="B65" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C65" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.022202288984263231</v>
+        <v>0.018895565092989987</v>
       </c>
       <c r="B66" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C66" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.022543862660944207</v>
+        <v>0.0191862660944206</v>
       </c>
       <c r="B67" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C67" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.022885436337625177</v>
+        <v>0.019476967095851217</v>
       </c>
       <c r="B68" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C68" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.023227010014306149</v>
+        <v>0.019767668097281831</v>
       </c>
       <c r="B69" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C69" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.023568583690987126</v>
+        <v>0.020058369098712444</v>
       </c>
       <c r="B70" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C70" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.023910157367668099</v>
+        <v>0.020349070100143061</v>
       </c>
       <c r="B71" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C71" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.024251731044349068</v>
+        <v>0.020639771101573674</v>
       </c>
       <c r="B72" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C72" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.024593304721030041</v>
+        <v>0.020930472103004291</v>
       </c>
       <c r="B73" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C73" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.024934878397711018</v>
+        <v>0.021221173104434905</v>
       </c>
       <c r="B74" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C74" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.02527645207439199</v>
+        <v>0.021511874105865521</v>
       </c>
       <c r="B75" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C75" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0.02561802575107296</v>
+        <v>0.021802575107296138</v>
       </c>
       <c r="B76" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C76" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.025959599427753933</v>
+        <v>0.022093276108726752</v>
       </c>
       <c r="B77" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C77" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0.026301173104434906</v>
+        <v>0.022383977110157369</v>
       </c>
       <c r="B78" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C78" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.026642746781115882</v>
+        <v>0.022674678111587982</v>
       </c>
       <c r="B79" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C79" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.026984320457796852</v>
+        <v>0.022965379113018596</v>
       </c>
       <c r="B80" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C80" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.027325894134477825</v>
+        <v>0.023256080114449213</v>
       </c>
       <c r="B81" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C81" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>0.027667467811158798</v>
+        <v>0.023546781115879826</v>
       </c>
       <c r="B82" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C82" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>0.028009041487839774</v>
+        <v>0.023837482117310439</v>
       </c>
       <c r="B83" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C83" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>0.028350615164520743</v>
+        <v>0.02412818311874106</v>
       </c>
       <c r="B84" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C84" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>0.028692188841201716</v>
+        <v>0.024418884120171673</v>
       </c>
       <c r="B85" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C85" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>0.029033762517882689</v>
+        <v>0.024709585121602287</v>
       </c>
       <c r="B86" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C86" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>0.029375336194563659</v>
+        <v>0.025000286123032907</v>
       </c>
       <c r="B87" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C87" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>0.029716909871244635</v>
+        <v>0.02529098712446352</v>
       </c>
       <c r="B88" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C88" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>0.030058483547925608</v>
+        <v>0.025581688125894134</v>
       </c>
       <c r="B89" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C89" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>0.030400057224606581</v>
+        <v>0.025872389127324747</v>
       </c>
       <c r="B90" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C90" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>0.030741630901287551</v>
+        <v>0.026163090128755364</v>
       </c>
       <c r="B91" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C91" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>0.031083204577968527</v>
+        <v>0.026453791130185977</v>
       </c>
       <c r="B92" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C92" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>0.031424778254649503</v>
+        <v>0.026744492131616591</v>
       </c>
       <c r="B93" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C93" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>0.031766351931330469</v>
+        <v>0.027035193133047211</v>
       </c>
       <c r="B94" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C94" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>0.032107925608011442</v>
+        <v>0.027325894134477825</v>
       </c>
       <c r="B95" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C95" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>0.032449499284692422</v>
+        <v>0.027616595135908438</v>
       </c>
       <c r="B96" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C96" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>0.032791072961373395</v>
+        <v>0.027907296137339052</v>
       </c>
       <c r="B97" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C97" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>0.033132646638054361</v>
+        <v>0.028197997138769672</v>
       </c>
       <c r="B98" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C98" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>0.033474220314735334</v>
+        <v>0.028488698140200285</v>
       </c>
       <c r="B99" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C99" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
-        <v>0.033815793991416307</v>
+        <v>0.028779399141630899</v>
       </c>
       <c r="B100" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C100" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
-        <v>0.034157367668097287</v>
+        <v>0.029070100143061516</v>
       </c>
       <c r="B101" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C101" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
-        <v>0.034498941344778253</v>
+        <v>0.029360801144492129</v>
       </c>
       <c r="B102" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C102" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
-        <v>0.034840515021459226</v>
+        <v>0.029651502145922746</v>
       </c>
       <c r="B103" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C103" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
-        <v>0.035182088698140199</v>
+        <v>0.029942203147353363</v>
       </c>
       <c r="B104" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C104" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
-        <v>0.035523662374821179</v>
+        <v>0.030232904148783976</v>
       </c>
       <c r="B105" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C105" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
-        <v>0.035865236051502145</v>
+        <v>0.03052360515021459</v>
       </c>
       <c r="B106" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C106" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
-        <v>0.036206809728183117</v>
+        <v>0.030814306151645203</v>
       </c>
       <c r="B107" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C107" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
-        <v>0.03654838340486409</v>
+        <v>0.031105007153075823</v>
       </c>
       <c r="B108" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C108" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
-        <v>0.036889957081545063</v>
+        <v>0.031395708154506437</v>
       </c>
       <c r="B109" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C109" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
-        <v>0.037231530758226036</v>
+        <v>0.031686409155937047</v>
       </c>
       <c r="B110" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C110" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
-        <v>0.037573104434907009</v>
+        <v>0.031977110157367671</v>
       </c>
       <c r="B111" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C111" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
-        <v>0.037914678111587982</v>
+        <v>0.03226781115879828</v>
       </c>
       <c r="B112" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C112" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
-        <v>0.038256251788268955</v>
+        <v>0.032558512160228897</v>
       </c>
       <c r="B113" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C113" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
-        <v>0.038597825464949928</v>
+        <v>0.032849213161659514</v>
       </c>
       <c r="B114" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C114" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
-        <v>0.038939399141630901</v>
+        <v>0.033139914163090131</v>
       </c>
       <c r="B115" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C115" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
-        <v>0.039280972818311874</v>
+        <v>0.033430615164520741</v>
       </c>
       <c r="B116" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C116" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
-        <v>0.039622546494992847</v>
+        <v>0.033721316165951358</v>
       </c>
       <c r="B117" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C117" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
-        <v>0.03996412017167382</v>
+        <v>0.034012017167381975</v>
       </c>
       <c r="B118" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C118" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
-        <v>0.040305693848354793</v>
+        <v>0.034302718168812585</v>
       </c>
       <c r="B119" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C119" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
-        <v>0.040647267525035766</v>
+        <v>0.034593419170243202</v>
       </c>
       <c r="B120" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C120" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
-        <v>0.040988841201716739</v>
+        <v>0.034884120171673819</v>
       </c>
       <c r="B121" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C121" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
-        <v>0.041330414878397712</v>
+        <v>0.035174821173104436</v>
       </c>
       <c r="B122" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C122" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
-        <v>0.041671988555078684</v>
+        <v>0.035465522174535046</v>
       </c>
       <c r="B123" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C123" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
-        <v>0.042013562231759657</v>
+        <v>0.035756223175965669</v>
       </c>
       <c r="B124" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C124" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
-        <v>0.04235513590844063</v>
+        <v>0.036046924177396279</v>
       </c>
       <c r="B125" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C125" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
-        <v>0.042696709585121603</v>
+        <v>0.036337625178826896</v>
       </c>
       <c r="B126" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C126" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
-        <v>0.043038283261802576</v>
+        <v>0.036628326180257506</v>
       </c>
       <c r="B127" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C127" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
-        <v>0.043379856938483549</v>
+        <v>0.036919027181688123</v>
       </c>
       <c r="B128" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C128" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
-        <v>0.043721430615164522</v>
+        <v>0.03720972818311874</v>
       </c>
       <c r="B129" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C129" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
-        <v>0.044063004291845495</v>
+        <v>0.03750042918454935</v>
       </c>
       <c r="B130" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C130" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
-        <v>0.044404577968526461</v>
+        <v>0.037791130185979974</v>
       </c>
       <c r="B131" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C131" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
-        <v>0.044746151645207441</v>
+        <v>0.038081831187410584</v>
       </c>
       <c r="B132" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C132" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
-        <v>0.045087725321888414</v>
+        <v>0.038372532188841201</v>
       </c>
       <c r="B133" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C133" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
-        <v>0.045429298998569387</v>
+        <v>0.03866323319027181</v>
       </c>
       <c r="B134" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C134" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0">
-        <v>0.045770872675250353</v>
+        <v>0.038953934191702434</v>
       </c>
       <c r="B135" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C135" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
-        <v>0.046112446351931326</v>
+        <v>0.039244635193133044</v>
       </c>
       <c r="B136" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C136" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
-        <v>0.046454020028612299</v>
+        <v>0.039535336194563661</v>
       </c>
       <c r="B137" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C137" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
-        <v>0.046795593705293279</v>
+        <v>0.039826037195994278</v>
       </c>
       <c r="B138" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C138" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
-        <v>0.047137167381974252</v>
+        <v>0.040116738197424888</v>
       </c>
       <c r="B139" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C139" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
-        <v>0.047478741058655225</v>
+        <v>0.040407439198855505</v>
       </c>
       <c r="B140" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C140" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
-        <v>0.047820314735336197</v>
+        <v>0.040698140200286122</v>
       </c>
       <c r="B141" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C141" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
-        <v>0.04816188841201717</v>
+        <v>0.040988841201716739</v>
       </c>
       <c r="B142" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C142" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
-        <v>0.048503462088698136</v>
+        <v>0.041279542203147349</v>
       </c>
       <c r="B143" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C143" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
-        <v>0.048845035765379109</v>
+        <v>0.041570243204577965</v>
       </c>
       <c r="B144" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C144" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
-        <v>0.049186609442060082</v>
+        <v>0.041860944206008582</v>
       </c>
       <c r="B145" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C145" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
-        <v>0.049528183118741055</v>
+        <v>0.042151645207439199</v>
       </c>
       <c r="B146" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C146" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
-        <v>0.049869756795422035</v>
+        <v>0.042442346208869809</v>
       </c>
       <c r="B147" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C147" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
-        <v>0.050211330472103008</v>
+        <v>0.042733047210300426</v>
       </c>
       <c r="B148" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C148" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
-        <v>0.050552904148783981</v>
+        <v>0.043023748211731043</v>
       </c>
       <c r="B149" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C149" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
-        <v>0.050894477825464954</v>
+        <v>0.04331444921316166</v>
       </c>
       <c r="B150" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C150" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
-        <v>0.05123605150214592</v>
+        <v>0.043605150214592277</v>
       </c>
       <c r="B151" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C151" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
-        <v>0.051577625178826893</v>
+        <v>0.043895851216022887</v>
       </c>
       <c r="B152" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C152" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
-        <v>0.051919198855507866</v>
+        <v>0.044186552217453504</v>
       </c>
       <c r="B153" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C153" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
-        <v>0.052260772532188839</v>
+        <v>0.044477253218884114</v>
       </c>
       <c r="B154" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C154" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
-        <v>0.052602346208869812</v>
+        <v>0.044767954220314737</v>
       </c>
       <c r="B155" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C155" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
-        <v>0.052943919885550791</v>
+        <v>0.045058655221745347</v>
       </c>
       <c r="B156" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C156" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
-        <v>0.053285493562231764</v>
+        <v>0.045349356223175964</v>
       </c>
       <c r="B157" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C157" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
-        <v>0.053627067238912737</v>
+        <v>0.045640057224606581</v>
       </c>
       <c r="B158" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C158" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
-        <v>0.053968640915593703</v>
+        <v>0.045930758226037191</v>
       </c>
       <c r="B159" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C159" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
-        <v>0.054310214592274676</v>
+        <v>0.046221459227467808</v>
       </c>
       <c r="B160" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C160" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
-        <v>0.054651788268955649</v>
+        <v>0.046512160228898425</v>
       </c>
       <c r="B161" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C161" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
-        <v>0.054993361945636622</v>
+        <v>0.046802861230329035</v>
       </c>
       <c r="B162" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C162" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
-        <v>0.055334935622317595</v>
+        <v>0.047093562231759652</v>
       </c>
       <c r="B163" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C163" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
-        <v>0.055676509298998568</v>
+        <v>0.047384263233190276</v>
       </c>
       <c r="B164" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C164" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
-        <v>0.056018082975679548</v>
+        <v>0.047674964234620879</v>
       </c>
       <c r="B165" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C165" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
-        <v>0.056359656652360521</v>
+        <v>0.047965665236051502</v>
       </c>
       <c r="B166" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C166" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
-        <v>0.056701230329041487</v>
+        <v>0.048256366237482119</v>
       </c>
       <c r="B167" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C167" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
-        <v>0.05704280400572246</v>
+        <v>0.048547067238912729</v>
       </c>
       <c r="B168" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C168" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
-        <v>0.057384377682403433</v>
+        <v>0.048837768240343346</v>
       </c>
       <c r="B169" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C169" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
-        <v>0.057725951359084406</v>
+        <v>0.049128469241773963</v>
       </c>
       <c r="B170" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C170" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
-        <v>0.058067525035765379</v>
+        <v>0.049419170243204573</v>
       </c>
       <c r="B171" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C171" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
-        <v>0.058409098712446351</v>
+        <v>0.04970987124463519</v>
       </c>
       <c r="B172" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C172" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
-        <v>0.058750672389127318</v>
+        <v>0.050000572246065814</v>
       </c>
       <c r="B173" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C173" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
-        <v>0.059092246065808304</v>
+        <v>0.050291273247496417</v>
       </c>
       <c r="B174" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C174" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
-        <v>0.05943381974248927</v>
+        <v>0.05058197424892704</v>
       </c>
       <c r="B175" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C175" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0">
-        <v>0.059775393419170243</v>
+        <v>0.050872675250357644</v>
       </c>
       <c r="B176" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C176" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
-        <v>0.060116967095851216</v>
+        <v>0.051163376251788267</v>
       </c>
       <c r="B177" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C177" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
-        <v>0.060458540772532189</v>
+        <v>0.051454077253218884</v>
       </c>
       <c r="B178" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C178" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
-        <v>0.060800114449213162</v>
+        <v>0.051744778254649494</v>
       </c>
       <c r="B179" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C179" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
-        <v>0.061141688125894135</v>
+        <v>0.052035479256080111</v>
       </c>
       <c r="B180" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C180" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
-        <v>0.061483261802575101</v>
+        <v>0.052326180257510728</v>
       </c>
       <c r="B181" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C181" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
-        <v>0.061824835479256088</v>
+        <v>0.052616881258941338</v>
       </c>
       <c r="B182" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C182" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
-        <v>0.062166409155937054</v>
+        <v>0.052907582260371955</v>
       </c>
       <c r="B183" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C183" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
-        <v>0.062507982832618034</v>
+        <v>0.053198283261802579</v>
       </c>
       <c r="B184" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C184" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
-        <v>0.062849556509299007</v>
+        <v>0.053488984263233182</v>
       </c>
       <c r="B185" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C185" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
-        <v>0.063191130185979966</v>
+        <v>0.053779685264663806</v>
       </c>
       <c r="B186" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C186" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
-        <v>0.063532703862660939</v>
+        <v>0.054070386266094422</v>
       </c>
       <c r="B187" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C187" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
-        <v>0.063874277539341912</v>
+        <v>0.054361087267525032</v>
       </c>
       <c r="B188" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C188" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
-        <v>0.064215851216022885</v>
+        <v>0.054651788268955649</v>
       </c>
       <c r="B189" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C189" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0">
-        <v>0.064557424892703858</v>
+        <v>0.054942489270386266</v>
       </c>
       <c r="B190" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C190" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
-        <v>0.064898998569384844</v>
+        <v>0.055233190271816876</v>
       </c>
       <c r="B191" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C191" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
-        <v>0.065240572246065817</v>
+        <v>0.055523891273247493</v>
       </c>
       <c r="B192" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C192" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
-        <v>0.06558214592274679</v>
+        <v>0.055814592274678103</v>
       </c>
       <c r="B193" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C193" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
-        <v>0.065923719599427749</v>
+        <v>0.05610529327610872</v>
       </c>
       <c r="B194" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C194" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
-        <v>0.066265293276108722</v>
+        <v>0.056395994277539344</v>
       </c>
       <c r="B195" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C195" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
-        <v>0.066606866952789695</v>
+        <v>0.056686695278969954</v>
       </c>
       <c r="B196" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C196" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0">
-        <v>0.066948440629470668</v>
+        <v>0.05697739628040057</v>
       </c>
       <c r="B197" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C197" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
-        <v>0.067290014306151641</v>
+        <v>0.057268097281831187</v>
       </c>
       <c r="B198" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C198" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
-        <v>0.067631587982832614</v>
+        <v>0.057558798283261797</v>
       </c>
       <c r="B199" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C199" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
-        <v>0.067973161659513601</v>
+        <v>0.057849499284692414</v>
       </c>
       <c r="B200" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C200" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
-        <v>0.068314735336194574</v>
+        <v>0.058140200286123031</v>
       </c>
       <c r="B201" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C201" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
-        <v>0.068656309012875533</v>
+        <v>0.058430901287553641</v>
       </c>
       <c r="B202" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C202" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
-        <v>0.068997882689556506</v>
+        <v>0.058721602288984258</v>
       </c>
       <c r="B203" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C203" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0">
-        <v>0.069339456366237479</v>
+        <v>0.059012303290414882</v>
       </c>
       <c r="B204" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C204" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
-        <v>0.069681030042918451</v>
+        <v>0.059303004291845492</v>
       </c>
       <c r="B205" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C205" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
-        <v>0.070022603719599424</v>
+        <v>0.059593705293276109</v>
       </c>
       <c r="B206" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C206" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
-        <v>0.070364177396280397</v>
+        <v>0.059884406294706726</v>
       </c>
       <c r="B207" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C207" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
-        <v>0.07070575107296137</v>
+        <v>0.060175107296137335</v>
       </c>
       <c r="B208" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C208" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
-        <v>0.071047324749642357</v>
+        <v>0.060465808297567952</v>
       </c>
       <c r="B209" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C209" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
-        <v>0.071388898426323316</v>
+        <v>0.060756509298998569</v>
       </c>
       <c r="B210" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C210" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
-        <v>0.071730472103004289</v>
+        <v>0.061047210300429179</v>
       </c>
       <c r="B211" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C211" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
-        <v>0.072072045779685262</v>
+        <v>0.061337911301859796</v>
       </c>
       <c r="B212" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C212" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
-        <v>0.072413619456366235</v>
+        <v>0.061628612303290406</v>
       </c>
       <c r="B213" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C213" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
-        <v>0.072755193133047208</v>
+        <v>0.06191931330472103</v>
       </c>
       <c r="B214" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C214" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
-        <v>0.073096766809728181</v>
+        <v>0.062210014306151647</v>
       </c>
       <c r="B215" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C215" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
-        <v>0.073438340486409154</v>
+        <v>0.06250071530758225</v>
       </c>
       <c r="B216" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C216" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
-        <v>0.073779914163090127</v>
+        <v>0.062791416309012874</v>
       </c>
       <c r="B217" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C217" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0">
-        <v>0.0741214878397711</v>
+        <v>0.063082117310443497</v>
       </c>
       <c r="B218" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C218" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
-        <v>0.074463061516452073</v>
+        <v>0.063372818311874094</v>
       </c>
       <c r="B219" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C219" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
-        <v>0.074804635193133046</v>
+        <v>0.063663519313304717</v>
       </c>
       <c r="B220" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C220" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
-        <v>0.075146208869814018</v>
+        <v>0.063954220314735341</v>
       </c>
       <c r="B221" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C221" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
-        <v>0.075487782546494991</v>
+        <v>0.064244921316165951</v>
       </c>
       <c r="B222" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C222" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
-        <v>0.075829356223175964</v>
+        <v>0.064535622317596561</v>
       </c>
       <c r="B223" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C223" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
-        <v>0.076170929899856937</v>
+        <v>0.064826323319027185</v>
       </c>
       <c r="B224" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C224" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
-        <v>0.07651250357653791</v>
+        <v>0.065117024320457795</v>
       </c>
       <c r="B225" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C225" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
-        <v>0.076854077253218883</v>
+        <v>0.065407725321888405</v>
       </c>
       <c r="B226" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C226" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
-        <v>0.077195650929899856</v>
+        <v>0.065698426323319029</v>
       </c>
       <c r="B227" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C227" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
-        <v>0.077537224606580829</v>
+        <v>0.065989127324749639</v>
       </c>
       <c r="B228" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C228" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
-        <v>0.077878798283261802</v>
+        <v>0.066279828326180262</v>
       </c>
       <c r="B229" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C229" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
-        <v>0.078220371959942775</v>
+        <v>0.066570529327610858</v>
       </c>
       <c r="B230" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C230" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
-        <v>0.078561945636623748</v>
+        <v>0.066861230329041482</v>
       </c>
       <c r="B231" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C231" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
-        <v>0.078903519313304721</v>
+        <v>0.067151931330472106</v>
       </c>
       <c r="B232" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C232" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
-        <v>0.079245092989985694</v>
+        <v>0.067442632331902716</v>
       </c>
       <c r="B233" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C233" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
-        <v>0.079586666666666667</v>
+        <v>0.067733333333333326</v>
       </c>
       <c r="B234" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C234" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
-        <v>0.07992824034334764</v>
+        <v>0.06802403433476395</v>
       </c>
       <c r="B235" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C235" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
-        <v>0.080269814020028613</v>
+        <v>0.06831473533619456</v>
       </c>
       <c r="B236" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C236" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
-        <v>0.080611387696709585</v>
+        <v>0.06860543633762517</v>
       </c>
       <c r="B237" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C237" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0">
-        <v>0.080952961373390558</v>
+        <v>0.068896137339055794</v>
       </c>
       <c r="B238" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C238" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
-        <v>0.081294535050071531</v>
+        <v>0.069186838340486403</v>
       </c>
       <c r="B239" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C239" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
-        <v>0.081636108726752504</v>
+        <v>0.069477539341917027</v>
       </c>
       <c r="B240" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C240" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
-        <v>0.081977682403433477</v>
+        <v>0.069768240343347637</v>
       </c>
       <c r="B241" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C241" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
-        <v>0.08231925608011445</v>
+        <v>0.070058941344778247</v>
       </c>
       <c r="B242" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C242" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
-        <v>0.082660829756795423</v>
+        <v>0.070349642346208871</v>
       </c>
       <c r="B243" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C243" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
-        <v>0.083002403433476396</v>
+        <v>0.070640343347639481</v>
       </c>
       <c r="B244" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C244" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
-        <v>0.083343977110157369</v>
+        <v>0.070931044349070091</v>
       </c>
       <c r="B245" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C245" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
-        <v>0.083685550786838342</v>
+        <v>0.071221745350500715</v>
       </c>
       <c r="B246" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C246" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
-        <v>0.084027124463519315</v>
+        <v>0.071512446351931339</v>
       </c>
       <c r="B247" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C247" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
-        <v>0.084368698140200288</v>
+        <v>0.071803147353361935</v>
       </c>
       <c r="B248" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C248" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
-        <v>0.084710271816881261</v>
+        <v>0.072093848354792559</v>
       </c>
       <c r="B249" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C249" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
-        <v>0.085051845493562234</v>
+        <v>0.072384549356223168</v>
       </c>
       <c r="B250" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C250" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
-        <v>0.085393419170243207</v>
+        <v>0.072675250357653792</v>
       </c>
       <c r="B251" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C251" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0">
-        <v>0.08573499284692418</v>
+        <v>0.072965951359084402</v>
       </c>
       <c r="B252" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C252" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
-        <v>0.086076566523605153</v>
+        <v>0.073256652360515012</v>
       </c>
       <c r="B253" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C253" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
-        <v>0.086418140200286126</v>
+        <v>0.073547353361945636</v>
       </c>
       <c r="B254" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C254" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
-        <v>0.086759713876967098</v>
+        <v>0.073838054363376246</v>
       </c>
       <c r="B255" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C255" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
-        <v>0.087101287553648071</v>
+        <v>0.074128755364806856</v>
       </c>
       <c r="B256" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C256" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0">
-        <v>0.087442861230329044</v>
+        <v>0.07441945636623748</v>
       </c>
       <c r="B257" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C257" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0">
-        <v>0.087784434907010017</v>
+        <v>0.074710157367668104</v>
       </c>
       <c r="B258" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C258" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0">
-        <v>0.08812600858369099</v>
+        <v>0.0750008583690987</v>
       </c>
       <c r="B259" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C259" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0">
-        <v>0.088467582260371963</v>
+        <v>0.075291559370529323</v>
       </c>
       <c r="B260" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C260" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0">
-        <v>0.088809155937052922</v>
+        <v>0.075582260371959947</v>
       </c>
       <c r="B261" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C261" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0">
-        <v>0.089150729613733909</v>
+        <v>0.075872961373390557</v>
       </c>
       <c r="B262" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C262" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0">
-        <v>0.089492303290414882</v>
+        <v>0.076163662374821167</v>
       </c>
       <c r="B263" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C263" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0">
-        <v>0.089833876967095855</v>
+        <v>0.076454363376251791</v>
       </c>
       <c r="B264" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C264" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0">
-        <v>0.090175450643776828</v>
+        <v>0.076745064377682401</v>
       </c>
       <c r="B265" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C265" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0">
-        <v>0.090517024320457801</v>
+        <v>0.077035765379113011</v>
       </c>
       <c r="B266" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C266" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0">
-        <v>0.090858597997138774</v>
+        <v>0.077326466380543621</v>
       </c>
       <c r="B267" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C267" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0">
-        <v>0.091200171673819747</v>
+        <v>0.077617167381974245</v>
       </c>
       <c r="B268" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C268" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0">
-        <v>0.091541745350500706</v>
+        <v>0.077907868383404869</v>
       </c>
       <c r="B269" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C269" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0">
-        <v>0.091883319027181679</v>
+        <v>0.078198569384835479</v>
       </c>
       <c r="B270" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C270" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0">
-        <v>0.092224892703862652</v>
+        <v>0.078489270386266088</v>
       </c>
       <c r="B271" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C271" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0">
-        <v>0.092566466380543625</v>
+        <v>0.078779971387696712</v>
       </c>
       <c r="B272" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C272" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0">
-        <v>0.092908040057224597</v>
+        <v>0.079070672389127322</v>
       </c>
       <c r="B273" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C273" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0">
-        <v>0.09324961373390557</v>
+        <v>0.079361373390557932</v>
       </c>
       <c r="B274" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C274" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0">
-        <v>0.093591187410586557</v>
+        <v>0.079652074391988556</v>
       </c>
       <c r="B275" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C275" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0">
-        <v>0.09393276108726753</v>
+        <v>0.079942775393419166</v>
       </c>
       <c r="B276" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C276" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0">
-        <v>0.094274334763948503</v>
+        <v>0.080233476394849776</v>
       </c>
       <c r="B277" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C277" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0">
-        <v>0.094615908440629476</v>
+        <v>0.0805241773962804</v>
       </c>
       <c r="B278" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C278" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0">
-        <v>0.094957482117310449</v>
+        <v>0.08081487839771101</v>
       </c>
       <c r="B279" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C279" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0">
-        <v>0.095299055793991422</v>
+        <v>0.081105579399141634</v>
       </c>
       <c r="B280" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C280" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0">
-        <v>0.095640629470672395</v>
+        <v>0.081396280400572244</v>
       </c>
       <c r="B281" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C281" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0">
-        <v>0.095982203147353368</v>
+        <v>0.081686981402002854</v>
       </c>
       <c r="B282" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C282" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0">
-        <v>0.096323776824034341</v>
+        <v>0.081977682403433477</v>
       </c>
       <c r="B283" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C283" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0">
-        <v>0.096665350500715314</v>
+        <v>0.082268383404864087</v>
       </c>
       <c r="B284" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C284" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0">
-        <v>0.097006924177396273</v>
+        <v>0.082559084406294697</v>
       </c>
       <c r="B285" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C285" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0">
-        <v>0.097348497854077246</v>
+        <v>0.082849785407725321</v>
       </c>
       <c r="B286" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C286" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0">
-        <v>0.097690071530758219</v>
+        <v>0.083140486409155931</v>
       </c>
       <c r="B287" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C287" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0">
-        <v>0.098031645207439192</v>
+        <v>0.083431187410586541</v>
       </c>
       <c r="B288" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C288" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0">
-        <v>0.098373218884120164</v>
+        <v>0.083721888412017165</v>
       </c>
       <c r="B289" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C289" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0">
-        <v>0.098714792560801137</v>
+        <v>0.084012589413447775</v>
       </c>
       <c r="B290" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C290" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0">
-        <v>0.09905636623748211</v>
+        <v>0.084303290414878399</v>
       </c>
       <c r="B291" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C291" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0">
-        <v>0.099397939914163083</v>
+        <v>0.084593991416309008</v>
       </c>
       <c r="B292" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C292" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0">
-        <v>0.09973951359084407</v>
+        <v>0.084884692417739618</v>
       </c>
       <c r="B293" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C293" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0">
-        <v>0.10008108726752504</v>
+        <v>0.085175393419170242</v>
       </c>
       <c r="B294" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C294" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0">
-        <v>0.10042266094420602</v>
+        <v>0.085466094420600852</v>
       </c>
       <c r="B295" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C295" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0">
-        <v>0.10076423462088699</v>
+        <v>0.085756795422031462</v>
       </c>
       <c r="B296" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C296" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0">
-        <v>0.10110580829756796</v>
+        <v>0.086047496423462086</v>
       </c>
       <c r="B297" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C297" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0">
-        <v>0.10144738197424893</v>
+        <v>0.08633819742489271</v>
       </c>
       <c r="B298" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C298" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0">
-        <v>0.10178895565092991</v>
+        <v>0.08662889842632332</v>
       </c>
       <c r="B299" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C299" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0">
-        <v>0.10213052932761088</v>
+        <v>0.08691959942775393</v>
       </c>
       <c r="B300" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C300" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0">
-        <v>0.10247210300429184</v>
+        <v>0.087210300429184553</v>
       </c>
       <c r="B301" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C301" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0">
-        <v>0.10281367668097281</v>
+        <v>0.087501001430615164</v>
       </c>
       <c r="B302" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C302" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0">
-        <v>0.10315525035765379</v>
+        <v>0.087791702432045773</v>
       </c>
       <c r="B303" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C303" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0">
-        <v>0.10349682403433476</v>
+        <v>0.088082403433476383</v>
       </c>
       <c r="B304" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C304" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0">
-        <v>0.10383839771101573</v>
+        <v>0.088373104434907007</v>
       </c>
       <c r="B305" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C305" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0">
-        <v>0.1041799713876967</v>
+        <v>0.088663805436337617</v>
       </c>
       <c r="B306" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C306" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0">
-        <v>0.10452154506437768</v>
+        <v>0.088954506437768227</v>
       </c>
       <c r="B307" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C307" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0">
-        <v>0.10486311874105865</v>
+        <v>0.089245207439198851</v>
       </c>
       <c r="B308" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C308" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0">
-        <v>0.10520469241773962</v>
+        <v>0.089535908440629475</v>
       </c>
       <c r="B309" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C309" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0">
-        <v>0.10554626609442061</v>
+        <v>0.089826609442060085</v>
       </c>
       <c r="B310" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C310" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0">
-        <v>0.10588783977110158</v>
+        <v>0.090117310443490695</v>
       </c>
       <c r="B311" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C311" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0">
-        <v>0.10622941344778256</v>
+        <v>0.090408011444921318</v>
       </c>
       <c r="B312" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C312" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0">
-        <v>0.10657098712446353</v>
+        <v>0.090698712446351928</v>
       </c>
       <c r="B313" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C313" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0">
-        <v>0.1069125608011445</v>
+        <v>0.090989413447782538</v>
       </c>
       <c r="B314" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C314" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0">
-        <v>0.10725413447782547</v>
+        <v>0.091280114449213162</v>
       </c>
       <c r="B315" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C315" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0">
-        <v>0.10759570815450645</v>
+        <v>0.091570815450643772</v>
       </c>
       <c r="B316" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C316" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0">
-        <v>0.10793728183118741</v>
+        <v>0.091861516452074382</v>
       </c>
       <c r="B317" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C317" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0">
-        <v>0.10827885550786838</v>
+        <v>0.092152217453505006</v>
       </c>
       <c r="B318" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C318" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0">
-        <v>0.10862042918454935</v>
+        <v>0.092442918454935616</v>
       </c>
       <c r="B319" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C319" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0">
-        <v>0.10896200286123033</v>
+        <v>0.092733619456366226</v>
       </c>
       <c r="B320" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C320" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0">
-        <v>0.1093035765379113</v>
+        <v>0.09302432045779685</v>
       </c>
       <c r="B321" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C321" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0">
-        <v>0.10964515021459227</v>
+        <v>0.09331502145922746</v>
       </c>
       <c r="B322" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C322" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0">
-        <v>0.10998672389127324</v>
+        <v>0.09360572246065807</v>
       </c>
       <c r="B323" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C323" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0">
-        <v>0.11032829756795422</v>
+        <v>0.093896423462088693</v>
       </c>
       <c r="B324" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C324" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0">
-        <v>0.11066987124463519</v>
+        <v>0.094187124463519303</v>
       </c>
       <c r="B325" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C325" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0">
-        <v>0.11101144492131616</v>
+        <v>0.094477825464949913</v>
       </c>
       <c r="B326" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C326" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0">
-        <v>0.11135301859799714</v>
+        <v>0.094768526466380551</v>
       </c>
       <c r="B327" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C327" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0">
-        <v>0.11169459227467812</v>
+        <v>0.095059227467811161</v>
       </c>
       <c r="B328" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C328" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0">
-        <v>0.1120361659513591</v>
+        <v>0.095349928469241757</v>
       </c>
       <c r="B329" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C329" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0">
-        <v>0.11237773962804007</v>
+        <v>0.095640629470672395</v>
       </c>
       <c r="B330" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C330" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0">
-        <v>0.11271931330472104</v>
+        <v>0.095931330472103005</v>
       </c>
       <c r="B331" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C331" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0">
-        <v>0.11306088698140201</v>
+        <v>0.096222031473533615</v>
       </c>
       <c r="B332" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C332" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0">
-        <v>0.11340246065808297</v>
+        <v>0.096512732474964238</v>
       </c>
       <c r="B333" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C333" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0">
-        <v>0.11374403433476395</v>
+        <v>0.096803433476394849</v>
       </c>
       <c r="B334" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C334" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0">
-        <v>0.11408560801144492</v>
+        <v>0.097094134477825458</v>
       </c>
       <c r="B335" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C335" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0">
-        <v>0.11442718168812589</v>
+        <v>0.097384835479256082</v>
       </c>
       <c r="B336" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C336" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0">
-        <v>0.11476875536480687</v>
+        <v>0.097675536480686692</v>
       </c>
       <c r="B337" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C337" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0">
-        <v>0.11511032904148784</v>
+        <v>0.097966237482117302</v>
       </c>
       <c r="B338" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C338" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0">
-        <v>0.11545190271816881</v>
+        <v>0.098256938483547926</v>
       </c>
       <c r="B339" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C339" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0">
-        <v>0.11579347639484978</v>
+        <v>0.098547639484978536</v>
       </c>
       <c r="B340" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C340" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0">
-        <v>0.11613505007153076</v>
+        <v>0.098838340486409146</v>
       </c>
       <c r="B341" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C341" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0">
-        <v>0.11647662374821173</v>
+        <v>0.09912904148783977</v>
       </c>
       <c r="B342" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C342" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0">
-        <v>0.1168181974248927</v>
+        <v>0.09941974248927038</v>
       </c>
       <c r="B343" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C343" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0">
-        <v>0.11715977110157366</v>
+        <v>0.09971044349070099</v>
       </c>
       <c r="B344" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C344" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0">
-        <v>0.11750134477825464</v>
+        <v>0.10000114449213163</v>
       </c>
       <c r="B345" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C345" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0">
-        <v>0.11784291845493564</v>
+        <v>0.10029184549356224</v>
       </c>
       <c r="B346" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C346" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0">
-        <v>0.11818449213161661</v>
+        <v>0.10058254649499283</v>
       </c>
       <c r="B347" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C347" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0">
-        <v>0.11852606580829758</v>
+        <v>0.10087324749642347</v>
       </c>
       <c r="B348" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C348" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0">
-        <v>0.11886763948497854</v>
+        <v>0.10116394849785408</v>
       </c>
       <c r="B349" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C349" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0">
-        <v>0.11920921316165951</v>
+        <v>0.10145464949928469</v>
       </c>
       <c r="B350" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C350" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0">
-        <v>0.11955078683834049</v>
+        <v>0.10174535050071529</v>
       </c>
       <c r="B351" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C351" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0">
-        <v>0.11989236051502146</v>
+        <v>0.10203605150214592</v>
       </c>
       <c r="B352" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C352" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0">
-        <v>0.12023393419170243</v>
+        <v>0.10232675250357653</v>
       </c>
       <c r="B353" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C353" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0">
-        <v>0.12057550786838341</v>
+        <v>0.10261745350500714</v>
       </c>
       <c r="B354" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C354" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0">
-        <v>0.12091708154506438</v>
+        <v>0.10290815450643777</v>
       </c>
       <c r="B355" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C355" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0">
-        <v>0.12125865522174535</v>
+        <v>0.10319885550786838</v>
       </c>
       <c r="B356" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C356" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0">
-        <v>0.12160022889842632</v>
+        <v>0.10348955650929899</v>
       </c>
       <c r="B357" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C357" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0">
-        <v>0.1219418025751073</v>
+        <v>0.10378025751072961</v>
       </c>
       <c r="B358" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C358" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0">
-        <v>0.12228337625178827</v>
+        <v>0.10407095851216022</v>
       </c>
       <c r="B359" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C359" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0">
-        <v>0.12262494992846923</v>
+        <v>0.10436165951359083</v>
       </c>
       <c r="B360" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C360" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0">
-        <v>0.1229665236051502</v>
+        <v>0.10465236051502146</v>
       </c>
       <c r="B361" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C361" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0">
-        <v>0.12330809728183117</v>
+        <v>0.10494306151645207</v>
       </c>
       <c r="B362" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C362" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0">
-        <v>0.12364967095851218</v>
+        <v>0.10523376251788268</v>
       </c>
       <c r="B363" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C363" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0">
-        <v>0.12399124463519315</v>
+        <v>0.10552446351931331</v>
       </c>
       <c r="B364" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C364" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0">
-        <v>0.12433281831187411</v>
+        <v>0.10581516452074391</v>
       </c>
       <c r="B365" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C365" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0">
-        <v>0.12467439198855508</v>
+        <v>0.10610586552217452</v>
       </c>
       <c r="B366" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C366" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0">
-        <v>0.12501596566523607</v>
+        <v>0.10639656652360516</v>
       </c>
       <c r="B367" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C367" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0">
-        <v>0.12535753934191704</v>
+        <v>0.10668726752503577</v>
       </c>
       <c r="B368" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C368" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0">
-        <v>0.12569911301859801</v>
+        <v>0.10697796852646636</v>
       </c>
       <c r="B369" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C369" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0">
-        <v>0.12604068669527896</v>
+        <v>0.107268669527897</v>
       </c>
       <c r="B370" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C370" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0">
-        <v>0.12638226037195993</v>
+        <v>0.10755937052932761</v>
       </c>
       <c r="B371" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C371" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0">
-        <v>0.12672383404864091</v>
+        <v>0.10785007153075822</v>
       </c>
       <c r="B372" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C372" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0">
-        <v>0.12706540772532188</v>
+        <v>0.10814077253218884</v>
       </c>
       <c r="B373" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C373" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0">
-        <v>0.12740698140200285</v>
+        <v>0.10843147353361945</v>
       </c>
       <c r="B374" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C374" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0">
-        <v>0.12774855507868382</v>
+        <v>0.10872217453505006</v>
       </c>
       <c r="B375" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C375" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0">
-        <v>0.1280901287553648</v>
+        <v>0.10901287553648069</v>
       </c>
       <c r="B376" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C376" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0">
-        <v>0.12843170243204577</v>
+        <v>0.1093035765379113</v>
       </c>
       <c r="B377" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C377" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0">
-        <v>0.12877327610872674</v>
+        <v>0.10959427753934191</v>
       </c>
       <c r="B378" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C378" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0">
-        <v>0.12911484978540771</v>
+        <v>0.10988497854077253</v>
       </c>
       <c r="B379" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C379" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0">
-        <v>0.12945642346208869</v>
+        <v>0.11017567954220314</v>
       </c>
       <c r="B380" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C380" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0">
-        <v>0.12979799713876969</v>
+        <v>0.11046638054363375</v>
       </c>
       <c r="B381" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C381" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0">
-        <v>0.13013957081545066</v>
+        <v>0.11075708154506438</v>
       </c>
       <c r="B382" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C382" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0">
-        <v>0.13048114449213163</v>
+        <v>0.11104778254649499</v>
       </c>
       <c r="B383" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C383" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0">
-        <v>0.13082271816881261</v>
+        <v>0.1113384835479256</v>
       </c>
       <c r="B384" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C384" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0">
-        <v>0.13116429184549358</v>
+        <v>0.11162918454935621</v>
       </c>
       <c r="B385" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C385" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0">
-        <v>0.13150586552217453</v>
+        <v>0.11191988555078684</v>
       </c>
       <c r="B386" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C386" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0">
-        <v>0.1318474391988555</v>
+        <v>0.11221058655221744</v>
       </c>
       <c r="B387" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C387" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0">
-        <v>0.13218901287553647</v>
+        <v>0.11250128755364805</v>
       </c>
       <c r="B388" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C388" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0">
-        <v>0.13253058655221744</v>
+        <v>0.11279198855507869</v>
       </c>
       <c r="B389" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042227500000000001</v>
       </c>
       <c r="C389" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3256751915533549</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0">
-        <v>0.13287216022889842</v>
+        <v>0.1130826895565093</v>
       </c>
       <c r="B390" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042225363562151425</v>
       </c>
       <c r="C390" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3250351314017372</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0">
-        <v>0.13321373390557939</v>
+        <v>0.11337339055793991</v>
       </c>
       <c r="B391" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042216700144072257</v>
       </c>
       <c r="C391" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3224399706846084</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0">
-        <v>0.13355530758226036</v>
+        <v>0.11366409155937053</v>
       </c>
       <c r="B392" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.04220136473831753</v>
       </c>
       <c r="C392" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3178474955781319</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0">
-        <v>0.13389688125894134</v>
+        <v>0.11395479256080114</v>
       </c>
       <c r="B393" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042179333083373648</v>
       </c>
       <c r="C393" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3112526234263671</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0">
-        <v>0.13423845493562231</v>
+        <v>0.11424549356223175</v>
       </c>
       <c r="B394" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042150570117426345</v>
       </c>
       <c r="C394" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.3026480089687613</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0">
-        <v>0.13458002861230328</v>
+        <v>0.11453619456366237</v>
       </c>
       <c r="B395" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042115029696684347</v>
       </c>
       <c r="C395" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.2920239853304922</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0">
-        <v>0.13492160228898426</v>
+        <v>0.11482689556509298</v>
       </c>
       <c r="B396" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042072654219693487</v>
       </c>
       <c r="C396" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.2793684853182938</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0">
-        <v>0.13526317596566523</v>
+        <v>0.11511759656652359</v>
       </c>
       <c r="B397" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.042023374150391028</v>
       </c>
       <c r="C397" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.2646669415029255</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0">
-        <v>0.1356047496423462</v>
+        <v>0.11540829756795422</v>
       </c>
       <c r="B398" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.041967107430480377</v>
       </c>
       <c r="C398" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.2479021631148459</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0">
-        <v>0.1359463233190272</v>
+        <v>0.11569899856938483</v>
       </c>
       <c r="B399" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.041903758769193902</v>
       </c>
       <c r="C399" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.22905418725336</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0">
-        <v>0.13628789699570818</v>
+        <v>0.11598969957081544</v>
       </c>
       <c r="B400" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.0418332187955507</v>
       </c>
       <c r="C400" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.2081001012892134</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0">
-        <v>0.13662947067238915</v>
+        <v>0.11628040057224606</v>
       </c>
       <c r="B401" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.04175536305467252</v>
       </c>
       <c r="C401" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.1850138325981972</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0">
-        <v>0.13697104434907009</v>
+        <v>0.11657110157367667</v>
       </c>
       <c r="B402" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.04167005082542441</v>
       </c>
       <c r="C402" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.1597659008632535</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0">
-        <v>0.13731261802575107</v>
+        <v>0.11686180257510728</v>
       </c>
       <c r="B403" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.041577123731375981</v>
       </c>
       <c r="C403" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.1323231270783776</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0">
-        <v>0.13765419170243204</v>
+        <v>0.11715250357653792</v>
       </c>
       <c r="B404" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.041476404110544943</v>
       </c>
       <c r="C404" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.1026482920186895</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0">
-        <v>0.13799576537911301</v>
+        <v>0.11744320457796852</v>
       </c>
       <c r="B405" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.041367693101203681</v>
       </c>
       <c r="C405" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.0706997352272722</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0">
-        <v>0.13833733905579398</v>
+        <v>0.11773390557939913</v>
       </c>
       <c r="B406" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.041250768390688621</v>
       </c>
       <c r="C406" s="0">
-        <v>6.6139406894813062</v>
+        <v>6.0364308834028924</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0">
-        <v>0.13867891273247496</v>
+        <v>0.11802460658082976</v>
       </c>
       <c r="B407" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.041125381560956763</v>
       </c>
       <c r="C407" s="0">
-        <v>6.6139406894813062</v>
+        <v>5.9997896943084523</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0">
-        <v>0.13902048640915593</v>
+        <v>0.11831530758226037</v>
       </c>
       <c r="B408" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.040991254947632887</v>
       </c>
       <c r="C408" s="0">
-        <v>6.6139406894813062</v>
+        <v>5.9607179987583567</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0">
-        <v>0.1393620600858369</v>
+        <v>0.11860600858369098</v>
       </c>
       <c r="B409" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.040848077907170141</v>
       </c>
       <c r="C409" s="0">
-        <v>6.6139406894813062</v>
+        <v>5.9191507186088295</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0">
-        <v>0.13970363376251788</v>
+        <v>0.11889670958512161</v>
       </c>
       <c r="B410" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.040695502357663352</v>
       </c>
       <c r="C410" s="0">
-        <v>6.6139406894813062</v>
+        <v>5.8750149325824106</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0">
-        <v>0.14004520743919885</v>
+        <v>0.11918741058655222</v>
       </c>
       <c r="B411" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.040533137420193995</v>
       </c>
       <c r="C411" s="0">
-        <v>6.6139406894813062</v>
+        <v>5.8282287536587054</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0">
-        <v>0.14038678111587982</v>
+        <v>0.11947811158798283</v>
       </c>
       <c r="B412" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.040360542935588731</v>
       </c>
       <c r="C412" s="0">
-        <v>6.6139406894813062</v>
+        <v>5.7786999708703286</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0">
-        <v>0.1407283547925608</v>
+        <v>0.11976881258941345</v>
       </c>
       <c r="B413" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.040177221560650199</v>
       </c>
       <c r="C413" s="0">
-        <v>6.6139406894813062</v>
+        <v>5.7263243935059922</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0">
-        <v>0.14106992846924177</v>
+        <v>0.12005951359084406</v>
       </c>
       <c r="B414" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.039982609050123838</v>
       </c>
       <c r="C414" s="0">
-        <v>6.6139406894813062</v>
+        <v>5.6709838152350933</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0">
-        <v>0.14141150214592274</v>
+        <v>0.12035021459227467</v>
       </c>
       <c r="B415" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.039776062193601566</v>
       </c>
       <c r="C415" s="0">
-        <v>6.6139406894813062</v>
+        <v>5.612543486954233</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0">
-        <v>0.14175307582260374</v>
+        <v>0.12064091559370529</v>
       </c>
       <c r="B416" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.039556843681307949</v>
       </c>
       <c r="C416" s="0">
-        <v>6.6139406894813062</v>
+        <v>5.5508489462512376</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0">
-        <v>0.14209464949928472</v>
+        <v>0.1209316165951359</v>
       </c>
       <c r="B417" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.0393241028895224</v>
       </c>
       <c r="C417" s="0">
-        <v>6.6139406894813062</v>
+        <v>5.4857219920549882</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0">
-        <v>0.14243622317596566</v>
+        <v>0.12122231759656651</v>
       </c>
       <c r="B418" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.039076851157421121</v>
       </c>
       <c r="C418" s="0">
-        <v>6.6139406894813062</v>
+        <v>5.4169555052674463</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0">
-        <v>0.14277779685264663</v>
+        <v>0.12151301859799714</v>
       </c>
       <c r="B419" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.038813929493406805</v>
       </c>
       <c r="C419" s="0">
-        <v>6.6139406894813062</v>
+        <v>5.3443066834143034</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0">
-        <v>0.14311937052932761</v>
+        <v>0.12180371959942775</v>
       </c>
       <c r="B420" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.038533965666388025</v>
       </c>
       <c r="C420" s="0">
-        <v>6.6139406894813062</v>
+        <v>5.2674880514999787</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0">
-        <v>0.14346094420600858</v>
+        <v>0.12209442060085836</v>
       </c>
       <c r="B421" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.038243341383701599</v>
       </c>
       <c r="C421" s="0">
-        <v>6.6139406894813062</v>
+        <v>5.1883325835791041</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0">
-        <v>0.14380251788268955</v>
+        <v>0.12238512160228897</v>
       </c>
       <c r="B422" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.037952640382270989</v>
       </c>
       <c r="C422" s="0">
-        <v>6.6139406894813062</v>
+        <v>5.1097557101900559</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0">
-        <v>0.14414409155937053</v>
+        <v>0.12267582260371959</v>
       </c>
       <c r="B423" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.037661939380840365</v>
       </c>
       <c r="C423" s="0">
-        <v>6.6139406894813062</v>
+        <v>5.031778405840055</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0">
-        <v>0.1444856652360515</v>
+        <v>0.1229665236051502</v>
       </c>
       <c r="B424" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.037371238379409755</v>
       </c>
       <c r="C424" s="0">
-        <v>6.6139406894813062</v>
+        <v>4.9544006705291084</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0">
-        <v>0.14482723891273247</v>
+        <v>0.12325722460658081</v>
       </c>
       <c r="B425" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.037080537377979145</v>
       </c>
       <c r="C425" s="0">
-        <v>6.6139406894813062</v>
+        <v>4.8776225042572134</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0">
-        <v>0.14516881258941344</v>
+        <v>0.12354792560801145</v>
       </c>
       <c r="B426" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.036789836376548507</v>
       </c>
       <c r="C426" s="0">
-        <v>6.6139406894813062</v>
+        <v>4.8014439070243604</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0">
-        <v>0.14551038626609442</v>
+        <v>0.12383862660944206</v>
       </c>
       <c r="B427" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.036499135375117897</v>
       </c>
       <c r="C427" s="0">
-        <v>6.6139406894813062</v>
+        <v>4.7258648788305671</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0">
-        <v>0.14585195994277539</v>
+        <v>0.12412932761087266</v>
       </c>
       <c r="B428" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.036208434373687301</v>
       </c>
       <c r="C428" s="0">
-        <v>6.6139406894813062</v>
+        <v>4.6508854196758289</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0">
-        <v>0.14619353361945636</v>
+        <v>0.12442002861230329</v>
       </c>
       <c r="B429" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.035917733372256663</v>
       </c>
       <c r="C429" s="0">
-        <v>6.6139406894813062</v>
+        <v>4.5765055295601309</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0">
-        <v>0.14653510729613734</v>
+        <v>0.1247107296137339</v>
       </c>
       <c r="B430" s="0">
-        <v>0.043179999999999996</v>
+        <v>0.035627032370826053</v>
       </c>
       <c r="C430" s="0">
-        <v>6.6139406894813062</v>
+        <v>4.5027252084834908</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0">
-        <v>0.14687668097281831</v>
+        <v>0.1250014306151645</v>
       </c>
       <c r="B431" s="0">
-        <v>0.043179999931026024</v>
+        <v>0.035336331369395457</v>
       </c>
       <c r="C431" s="0">
-        <v>6.6139406683516277</v>
+        <v>4.429544456445905</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0">
-        <v>0.14721825464949928</v>
+        <v>0.12529213161659514</v>
       </c>
       <c r="B432" s="0">
-        <v>0.043175370079362299</v>
+        <v>0.03504563036796482</v>
       </c>
       <c r="C432" s="0">
-        <v>6.6125224227471193</v>
+        <v>4.3569632734473585</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0">
-        <v>0.14755982832618025</v>
+        <v>0.12558283261802575</v>
       </c>
       <c r="B433" s="0">
-        <v>0.043161541684774415</v>
+        <v>0.03475492936653421</v>
       </c>
       <c r="C433" s="0">
-        <v>6.6082873264121442</v>
+        <v>4.2849816594878707</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0">
-        <v>0.14790140200286123</v>
+        <v>0.12587353361945636</v>
       </c>
       <c r="B434" s="0">
-        <v>0.04313848460125351</v>
+        <v>0.0344642283651036</v>
       </c>
       <c r="C434" s="0">
-        <v>6.6012288605145253</v>
+        <v>4.2135996145674337</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0">
-        <v>0.1482429756795422</v>
+        <v>0.12616423462088699</v>
       </c>
       <c r="B435" s="0">
-        <v>0.043106148270334488</v>
+        <v>0.034173527363672962</v>
       </c>
       <c r="C435" s="0">
-        <v>6.5913360921924404</v>
+        <v>4.1428171386860422</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0">
-        <v>0.14858454935622317</v>
+        <v>0.12645493562231758</v>
       </c>
       <c r="B436" s="0">
-        <v>0.043064461161907812</v>
+        <v>0.03388282636224238</v>
       </c>
       <c r="C436" s="0">
-        <v>6.5785935536344722</v>
+        <v>4.0726342318437139</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0">
-        <v>0.14892612303290415</v>
+        <v>0.12674563662374819</v>
       </c>
       <c r="B437" s="0">
-        <v>0.043013329971458458</v>
+        <v>0.03359212536081177</v>
       </c>
       <c r="C437" s="0">
-        <v>6.5629810684889858</v>
+        <v>4.0030508940404293</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0">
-        <v>0.14926769670958512</v>
+        <v>0.12703633762517883</v>
       </c>
       <c r="B438" s="0">
-        <v>0.042952638552373315</v>
+        <v>0.033301424359381132</v>
       </c>
       <c r="C438" s="0">
-        <v>6.5444735209841767</v>
+        <v>3.9340671252761892</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0">
-        <v>0.14960927038626609</v>
+        <v>0.12732703862660944</v>
       </c>
       <c r="B439" s="0">
-        <v>0.042882246554138345</v>
+        <v>0.033010723357950522</v>
       </c>
       <c r="C439" s="0">
-        <v>6.5230405614491573</v>
+        <v>3.865682925551007</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0">
-        <v>0.14995084406294707</v>
+        <v>0.12761773962804005</v>
       </c>
       <c r="B440" s="0">
-        <v>0.042801987727956931</v>
+        <v>0.032720022356519912</v>
       </c>
       <c r="C440" s="0">
-        <v>6.4986462399175284</v>
+        <v>3.7978982948648752</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0">
-        <v>0.15029241773962804</v>
+        <v>0.12790844062947068</v>
       </c>
       <c r="B441" s="0">
-        <v>0.042711667850011431</v>
+        <v>0.032429321355089274</v>
       </c>
       <c r="C441" s="0">
-        <v>6.4712485570493907</v>
+        <v>3.7307132332177888</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0">
-        <v>0.15063399141630901</v>
+        <v>0.12819914163090129</v>
       </c>
       <c r="B442" s="0">
-        <v>0.042611062198541501</v>
+        <v>0.032138620353658665</v>
       </c>
       <c r="C442" s="0">
-        <v>6.4407989185697909</v>
+        <v>3.6641277406097594</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0">
-        <v>0.15097556509298998</v>
+        <v>0.1284898426323319</v>
       </c>
       <c r="B443" s="0">
-        <v>0.042499912503157378</v>
+        <v>0.031847919352228055</v>
       </c>
       <c r="C443" s="0">
-        <v>6.4072414755822473</v>
+        <v>3.5981418170407813</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0">
-        <v>0.15131713876967096</v>
+        <v>0.12878054363376251</v>
       </c>
       <c r="B444" s="0">
-        <v>0.042377923262024886</v>
+        <v>0.031557218350797445</v>
       </c>
       <c r="C444" s="0">
-        <v>6.370512328189589</v>
+        <v>3.5327554625108535</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0">
-        <v>0.15165871244635193</v>
+        <v>0.12907124463519312</v>
       </c>
       <c r="B445" s="0">
-        <v>0.042244757292919565</v>
+        <v>0.031266517349366835</v>
       </c>
       <c r="C445" s="0">
-        <v>6.3305385634451659</v>
+        <v>3.4679686770199769</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0">
-        <v>0.1520002861230329</v>
+        <v>0.12936194563662373</v>
       </c>
       <c r="B446" s="0">
-        <v>0.042100030345071073</v>
+        <v>0.030975816347936225</v>
       </c>
       <c r="C446" s="0">
-        <v>6.287237090207487</v>
+        <v>3.4037814605681507</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0">
-        <v>0.15234185979971388</v>
+        <v>0.12965264663805437</v>
       </c>
       <c r="B447" s="0">
-        <v>0.041943304546518789</v>
+        <v>0.030685115346505587</v>
       </c>
       <c r="C447" s="0">
-        <v>6.2405132221835435</v>
+        <v>3.3401938131553703</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0">
-        <v>0.15268343347639485</v>
+        <v>0.12994334763948498</v>
       </c>
       <c r="B448" s="0">
-        <v>0.04177408039102349</v>
+        <v>0.030394414345074977</v>
       </c>
       <c r="C448" s="0">
-        <v>6.1902589451628227</v>
+        <v>3.2772057347816461</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0">
-        <v>0.15302500715307582</v>
+        <v>0.13023404864091559</v>
       </c>
       <c r="B449" s="0">
-        <v>0.041591786871532477</v>
+        <v>0.030103713343644367</v>
       </c>
       <c r="C449" s="0">
-        <v>6.1363507834584405</v>
+        <v>3.2148172254469731</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0">
-        <v>0.15336658082975679</v>
+        <v>0.1305247496423462</v>
       </c>
       <c r="B450" s="0">
-        <v>0.041395769231924021</v>
+        <v>0.029813012342213757</v>
       </c>
       <c r="C450" s="0">
-        <v>6.078647151320288</v>
+        <v>3.1530282851513509</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0">
-        <v>0.15370815450643777</v>
+        <v>0.13081545064377681</v>
       </c>
       <c r="B451" s="0">
-        <v>0.041185273617132534</v>
+        <v>0.029522311340783147</v>
       </c>
       <c r="C451" s="0">
-        <v>6.0169850336479431</v>
+        <v>3.0918389138947804</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0">
-        <v>0.15404972818311874</v>
+        <v>0.13110615164520742</v>
       </c>
       <c r="B452" s="0">
-        <v>0.040959427625472972</v>
+        <v>0.029231610339352537</v>
       </c>
       <c r="C452" s="0">
-        <v>5.9511757805870991</v>
+        <v>3.0312491116772597</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0">
-        <v>0.15439130185979971</v>
+        <v>0.13139685264663806</v>
       </c>
       <c r="B453" s="0">
-        <v>0.040717215360837902</v>
+        <v>0.0289409093379219</v>
       </c>
       <c r="C453" s="0">
-        <v>5.8809997127676326</v>
+        <v>2.9712588784987841</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0">
-        <v>0.15473287553648069</v>
+        <v>0.13168755364806867</v>
       </c>
       <c r="B454" s="0">
-        <v>0.040457444972417649</v>
+        <v>0.02865020833649129</v>
       </c>
       <c r="C454" s="0">
-        <v>5.8061991020289323</v>
+        <v>2.9118682143593664</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0">
-        <v>0.15507444921316166</v>
+        <v>0.13197825464949928</v>
       </c>
       <c r="B455" s="0">
-        <v>0.04017870573106877</v>
+        <v>0.02835950733506068</v>
       </c>
       <c r="C455" s="0">
-        <v>5.7264688895294738</v>
+        <v>2.853077119258999</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0">
-        <v>0.15541602288984263</v>
+        <v>0.13226895565092992</v>
       </c>
       <c r="B456" s="0">
-        <v>0.039879310207930549</v>
+        <v>0.028068806333630042</v>
       </c>
       <c r="C456" s="0">
-        <v>5.6414441823372634</v>
+        <v>2.7948855931976771</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0">
-        <v>0.1557575965665236</v>
+        <v>0.13255965665236053</v>
       </c>
       <c r="B457" s="0">
-        <v>0.039557214702690802</v>
+        <v>0.027778105332199432</v>
       </c>
       <c r="C457" s="0">
-        <v>5.5506830466817005</v>
+        <v>2.7372936361754112</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0">
-        <v>0.15609917024320458</v>
+        <v>0.13285035765379114</v>
       </c>
       <c r="B458" s="0">
-        <v>0.039216699363473745</v>
+        <v>0.027487404330768822</v>
       </c>
       <c r="C458" s="0">
-        <v>5.4555318783141136</v>
+        <v>2.6803012481921966</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0">
-        <v>0.15644074391988555</v>
+        <v>0.13314105865522172</v>
       </c>
       <c r="B459" s="0">
-        <v>0.038875125686792772</v>
+        <v>0.02719670332933824</v>
       </c>
       <c r="C459" s="0">
-        <v>5.3609114330988499</v>
+        <v>2.6239084292480381</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0">
-        <v>0.15678231759656652</v>
+        <v>0.13343175965665235</v>
       </c>
       <c r="B460" s="0">
-        <v>0.038533552010111799</v>
+        <v>0.026906002327907602</v>
       </c>
       <c r="C460" s="0">
-        <v>5.267118727620506</v>
+        <v>2.5681151793429193</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0">
-        <v>0.1571238912732475</v>
+        <v>0.13372246065808296</v>
       </c>
       <c r="B461" s="0">
-        <v>0.038191978333430826</v>
+        <v>0.026615301326476992</v>
       </c>
       <c r="C461" s="0">
-        <v>5.1741537618790856</v>
+        <v>2.5129214984768575</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0">
-        <v>0.15746546494992847</v>
+        <v>0.13401316165951357</v>
       </c>
       <c r="B462" s="0">
-        <v>0.037850404656749853</v>
+        <v>0.026324600325046382</v>
       </c>
       <c r="C462" s="0">
-        <v>5.0820165358745824</v>
+        <v>2.458327386649847</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0">
-        <v>0.15780703862660944</v>
+        <v>0.13430386266094421</v>
       </c>
       <c r="B463" s="0">
-        <v>0.03750883098006888</v>
+        <v>0.026033899323615745</v>
       </c>
       <c r="C463" s="0">
-        <v>4.9907070496069998</v>
+        <v>2.4043328438618814</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0">
-        <v>0.15814861230329041</v>
+        <v>0.13459456366237482</v>
       </c>
       <c r="B464" s="0">
-        <v>0.037167257303387907</v>
+        <v>0.025743198322185135</v>
       </c>
       <c r="C464" s="0">
-        <v>4.9002253030763399</v>
+        <v>2.3509378701129728</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0">
-        <v>0.15849018597997139</v>
+        <v>0.13488526466380543</v>
       </c>
       <c r="B465" s="0">
-        <v>0.036825683626706934</v>
+        <v>0.025452497320754525</v>
       </c>
       <c r="C465" s="0">
-        <v>4.8105712962825979</v>
+        <v>2.2981424654031142</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0">
-        <v>0.15883175965665236</v>
+        <v>0.13517596566523604</v>
       </c>
       <c r="B466" s="0">
-        <v>0.036484109950025961</v>
+        <v>0.025161796319323915</v>
       </c>
       <c r="C466" s="0">
-        <v>4.7217450292257768</v>
+        <v>2.2459466297323068</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0">
-        <v>0.15917333333333333</v>
+        <v>0.13546666666666665</v>
       </c>
       <c r="B467" s="0">
-        <v>0.036142536273344988</v>
+        <v>0.024871095317893305</v>
       </c>
       <c r="C467" s="0">
-        <v>4.6337465019058781</v>
+        <v>2.1943503631005501</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0">
-        <v>0.15951490701001431</v>
+        <v>0.13575736766809726</v>
       </c>
       <c r="B468" s="0">
-        <v>0.035800962596664015</v>
+        <v>0.024580394316462695</v>
       </c>
       <c r="C468" s="0">
-        <v>4.5465757143228966</v>
+        <v>2.1433536655078447</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0">
-        <v>0.15985648068669528</v>
+        <v>0.1360480686695279</v>
       </c>
       <c r="B469" s="0">
-        <v>0.035459388919983043</v>
+        <v>0.024289693315032057</v>
       </c>
       <c r="C469" s="0">
-        <v>4.4602326664768368</v>
+        <v>2.0929565369541856</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0">
-        <v>0.16019805436337625</v>
+        <v>0.13633876967095851</v>
       </c>
       <c r="B470" s="0">
-        <v>0.03511781524330207</v>
+        <v>0.023998992313601447</v>
       </c>
       <c r="C470" s="0">
-        <v>4.3747173583676968</v>
+        <v>2.0431589774395818</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0">
-        <v>0.16053962804005723</v>
+        <v>0.13662947067238912</v>
       </c>
       <c r="B471" s="0">
-        <v>0.034776241566621097</v>
+        <v>0.023708291312170837</v>
       </c>
       <c r="C471" s="0">
-        <v>4.2900297899954785</v>
+        <v>1.9939609869640289</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0">
-        <v>0.1608812017167382</v>
+        <v>0.13692017167381973</v>
       </c>
       <c r="B472" s="0">
-        <v>0.034434667889940124</v>
+        <v>0.023417590310740227</v>
       </c>
       <c r="C472" s="0">
-        <v>4.2061699613601791</v>
+        <v>1.9453625655275275</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0">
-        <v>0.16122277539341917</v>
+        <v>0.13721087267525034</v>
       </c>
       <c r="B473" s="0">
-        <v>0.034093094213259151</v>
+        <v>0.023126889309309617</v>
       </c>
       <c r="C473" s="0">
-        <v>4.1231378724618004</v>
+        <v>1.8973637131300767</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0">
-        <v>0.16156434907010014</v>
+        <v>0.13750157367668095</v>
       </c>
       <c r="B474" s="0">
-        <v>0.033751520536578178</v>
+        <v>0.022836188307879007</v>
       </c>
       <c r="C474" s="0">
-        <v>4.0409335233003434</v>
+        <v>1.8499644297716764</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0">
-        <v>0.16190592274678112</v>
+        <v>0.13779227467811159</v>
       </c>
       <c r="B475" s="0">
-        <v>0.033409946859897205</v>
+        <v>0.02254548730644837</v>
       </c>
       <c r="C475" s="0">
-        <v>3.9595569138758053</v>
+        <v>1.8031647154523232</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0">
-        <v>0.16224749642346209</v>
+        <v>0.1380829756795422</v>
       </c>
       <c r="B476" s="0">
-        <v>0.033068373183216232</v>
+        <v>0.02225478630501776</v>
       </c>
       <c r="C476" s="0">
-        <v>3.879008044188188</v>
+        <v>1.7569645701720249</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0">
-        <v>0.16258907010014306</v>
+        <v>0.13837367668097281</v>
       </c>
       <c r="B477" s="0">
-        <v>0.032726799506535259</v>
+        <v>0.02196408530358715</v>
       </c>
       <c r="C477" s="0">
-        <v>3.799286914237491</v>
+        <v>1.7113639939307776</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0">
-        <v>0.16293064377682404</v>
+        <v>0.13866437768240344</v>
       </c>
       <c r="B478" s="0">
-        <v>0.032385225829854286</v>
+        <v>0.021673384302156512</v>
       </c>
       <c r="C478" s="0">
-        <v>3.7203935240237138</v>
+        <v>1.6663629867285772</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0">
-        <v>0.16327221745350501</v>
+        <v>0.13895507868383405</v>
       </c>
       <c r="B479" s="0">
-        <v>0.032043652153173313</v>
+        <v>0.021382683300725902</v>
       </c>
       <c r="C479" s="0">
-        <v>3.6423278735468574</v>
+        <v>1.621961548565432</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0">
-        <v>0.16361379113018598</v>
+        <v>0.13924577968526467</v>
       </c>
       <c r="B480" s="0">
-        <v>0.03170207847649234</v>
+        <v>0.021091982299295292</v>
       </c>
       <c r="C480" s="0">
-        <v>3.5650899628069217</v>
+        <v>1.5781596794413373</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0">
-        <v>0.16395536480686695</v>
+        <v>0.13953648068669528</v>
       </c>
       <c r="B481" s="0">
-        <v>0.031360504799811367</v>
+        <v>0.020801921393314868</v>
       </c>
       <c r="C481" s="0">
-        <v>3.4886797918039054</v>
+        <v>1.5350518479938444</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0">
-        <v>0.16429693848354793</v>
+        <v>0.13982718168812589</v>
       </c>
       <c r="B482" s="0">
-        <v>0.031018931123130394</v>
+        <v>0.020523985570618061</v>
       </c>
       <c r="C482" s="0">
-        <v>3.4130973605378103</v>
+        <v>1.4943060275992655</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0">
-        <v>0.1646385121602289</v>
+        <v>0.1401178826895565</v>
       </c>
       <c r="B483" s="0">
-        <v>0.030677357446449421</v>
+        <v>0.020261446735894542</v>
       </c>
       <c r="C483" s="0">
-        <v>3.3383426690086355</v>
+        <v>1.4563207967369989</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0">
-        <v>0.16498008583690987</v>
+        <v>0.14040858369098713</v>
       </c>
       <c r="B484" s="0">
-        <v>0.030335783769768448</v>
+        <v>0.020013176347710805</v>
       </c>
       <c r="C484" s="0">
-        <v>3.2644157172163801</v>
+        <v>1.4208498683944484</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0">
-        <v>0.16532165951359085</v>
+        <v>0.14069928469241774</v>
       </c>
       <c r="B485" s="0">
-        <v>0.029994210093087476</v>
+        <v>0.019778206590801199</v>
       </c>
       <c r="C485" s="0">
-        <v>3.1913165051610459</v>
+        <v>1.3876820316019074</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0">
-        <v>0.16566323319027182</v>
+        <v>0.14098998569384835</v>
       </c>
       <c r="B486" s="0">
-        <v>0.029652636416406503</v>
+        <v>0.019555700590832642</v>
       </c>
       <c r="C486" s="0">
-        <v>3.119045032842632</v>
+        <v>1.3566346512577354</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0">
-        <v>0.16600480686695279</v>
+        <v>0.14128068669527896</v>
       </c>
       <c r="B487" s="0">
-        <v>0.02931106273972553</v>
+        <v>0.019344929444286202</v>
       </c>
       <c r="C487" s="0">
-        <v>3.0476013002611375</v>
+        <v>1.3275486552491871</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0">
-        <v>0.16634638054363377</v>
+        <v>0.14157138769670957</v>
       </c>
       <c r="B488" s="0">
-        <v>0.028969489063044557</v>
+        <v>0.019145254248414477</v>
       </c>
       <c r="C488" s="0">
-        <v>2.9769853074165642</v>
+        <v>1.3002846127637771</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0">
-        <v>0.16668795422031474</v>
+        <v>0.14186208869814018</v>
       </c>
       <c r="B489" s="0">
-        <v>0.028627915386363584</v>
+        <v>0.01895611186209447</v>
       </c>
       <c r="C489" s="0">
-        <v>2.9071970543089107</v>
+        <v>1.2747196268118721</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0">
-        <v>0.16702952789699571</v>
+        <v>0.14215278969957082</v>
       </c>
       <c r="B490" s="0">
-        <v>0.028286341709682611</v>
+        <v>0.01877700349306928</v>
       </c>
       <c r="C490" s="0">
-        <v>2.838236540938178</v>
+        <v>1.2507448435656825</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0">
-        <v>0.16737110157367668</v>
+        <v>0.14244349070100143</v>
       </c>
       <c r="B491" s="0">
-        <v>0.027944768033001638</v>
+        <v>0.01860748545587471</v>
       </c>
       <c r="C491" s="0">
-        <v>2.7701037673043656</v>
+        <v>1.2282634354172273</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0">
-        <v>0.16771267525035766</v>
+        <v>0.14273419170243204</v>
       </c>
       <c r="B492" s="0">
-        <v>0.027603194356320665</v>
+        <v>0.018447161617736747</v>
       </c>
       <c r="C492" s="0">
-        <v>2.702798733407473</v>
+        <v>1.2071889524103023</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0">
-        <v>0.16805424892703863</v>
+        <v>0.14302489270386268</v>
       </c>
       <c r="B493" s="0">
-        <v>0.027261620679639692</v>
+        <v>0.018295677172082012</v>
       </c>
       <c r="C493" s="0">
-        <v>2.6363214392475012</v>
+        <v>1.1874439634037801</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0">
-        <v>0.1683958226037196</v>
+        <v>0.14331559370529329</v>
       </c>
       <c r="B494" s="0">
-        <v>0.026920047002958719</v>
+        <v>0.018152713467203777</v>
       </c>
       <c r="C494" s="0">
-        <v>2.5706718848244501</v>
+        <v>1.1689589275065762</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0">
-        <v>0.16873739628040058</v>
+        <v>0.14360629470672387</v>
       </c>
       <c r="B495" s="0">
-        <v>0.026578473326277746</v>
+        <v>0.01801798368168038</v>
       </c>
       <c r="C495" s="0">
-        <v>2.5058500701383184</v>
+        <v>1.151671250303463</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0">
-        <v>0.16907896995708155</v>
+        <v>0.14389699570815448</v>
       </c>
       <c r="B496" s="0">
-        <v>0.026236899649596773</v>
+        <v>0.017891229185434624</v>
       </c>
       <c r="C496" s="0">
-        <v>2.4418559951891079</v>
+        <v>1.1355244897116013</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0">
-        <v>0.16942054363376252</v>
+        <v>0.14418769670958512</v>
       </c>
       <c r="B497" s="0">
-        <v>0.0258953259729158</v>
+        <v>0.01777221646066178</v>
       </c>
       <c r="C497" s="0">
-        <v>2.3786896599768173</v>
+        <v>1.1204676840198764</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0">
-        <v>0.16976211731044349</v>
+        <v>0.14447839771101573</v>
       </c>
       <c r="B498" s="0">
-        <v>0.025553752296234827</v>
+        <v>0.017660734483558368</v>
       </c>
       <c r="C498" s="0">
-        <v>2.3163510645014469</v>
+        <v>1.1064547804910068</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0">
-        <v>0.17010369098712447</v>
+        <v>0.14476909871244634</v>
       </c>
       <c r="B499" s="0">
-        <v>0.025212178619553855</v>
+        <v>0.017556592488174677</v>
       </c>
       <c r="C499" s="0">
-        <v>2.2548402087629973</v>
+        <v>1.0934441473563548</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0">
-        <v>0.17044526466380544</v>
+        <v>0.14505979971387697</v>
       </c>
       <c r="B500" s="0">
-        <v>0.024870604942872881</v>
+        <v>0.017459618049436298</v>
       </c>
       <c r="C500" s="0">
-        <v>2.194157092761468</v>
+        <v>1.081398155464512</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0">
-        <v>0.17078683834048641</v>
+        <v>0.14535050071530758</v>
       </c>
       <c r="B501" s="0">
-        <v>0.024529031266191909</v>
+        <v>0.017369655434613288</v>
       </c>
       <c r="C501" s="0">
-        <v>2.1343017164968581</v>
+        <v>1.0702828185145013</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0">
-        <v>0.17112841201716739</v>
+        <v>0.1456412017167382</v>
       </c>
       <c r="B502" s="0">
-        <v>0.024187457589510936</v>
+        <v>0.017286564182118137</v>
       </c>
       <c r="C502" s="0">
-        <v>2.0752740799691693</v>
+        <v>1.0600674829000452</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0">
-        <v>0.17146998569384836</v>
+        <v>0.1459319027181688</v>
       </c>
       <c r="B503" s="0">
-        <v>0.023845883912829963</v>
+        <v>0.017210217874113861</v>
       </c>
       <c r="C503" s="0">
-        <v>2.0170741831784009</v>
+        <v>1.0507245598499337</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0">
-        <v>0.17181155937052931</v>
+        <v>0.14622260371959942</v>
       </c>
       <c r="B504" s="0">
-        <v>0.023504310236149018</v>
+        <v>0.017140503075476384</v>
       </c>
       <c r="C504" s="0">
-        <v>1.9597020261245575</v>
+        <v>1.0422292938726954</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0">
-        <v>0.1721531330472103</v>
+        <v>0.14651330472103002</v>
       </c>
       <c r="B505" s="0">
-        <v>0.023162736559468017</v>
+        <v>0.017077318416531068</v>
       </c>
       <c r="C505" s="0">
-        <v>1.9031576088076247</v>
+        <v>1.0345595625777884</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0">
-        <v>0.17249470672389128</v>
+        <v>0.14680400572246066</v>
       </c>
       <c r="B506" s="0">
-        <v>0.022821162882787044</v>
+        <v>0.017020573800934254</v>
       </c>
       <c r="C506" s="0">
-        <v>1.8474409312276172</v>
+        <v>1.0276957038077899</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0">
-        <v>0.17283628040057225</v>
+        <v>0.14709470672389127</v>
       </c>
       <c r="B507" s="0">
-        <v>0.022479589206106071</v>
+        <v>0.016970189723297956</v>
       </c>
       <c r="C507" s="0">
-        <v>1.7925519933845298</v>
+        <v>1.0216203667203525</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0">
-        <v>0.17317785407725322</v>
+        <v>0.14738540772532188</v>
       </c>
       <c r="B508" s="0">
-        <v>0.022138015529425098</v>
+        <v>0.016926096683813747</v>
       </c>
       <c r="C508" s="0">
-        <v>1.7384907952783628</v>
+        <v>1.0163183840387731</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0">
-        <v>0.1735194277539342</v>
+        <v>0.14767610872675249</v>
       </c>
       <c r="B509" s="0">
-        <v>0.021796441852744125</v>
+        <v>0.016888234689340323</v>
       </c>
       <c r="C509" s="0">
-        <v>1.6852573369091166</v>
+        <v>1.0117766631719347</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0">
-        <v>0.17386100143061517</v>
+        <v>0.1479668097281831</v>
       </c>
       <c r="B510" s="0">
-        <v>0.021454868176063152</v>
+        <v>0.016856552832271304</v>
       </c>
       <c r="C510" s="0">
-        <v>1.6328516182767898</v>
+        <v>1.0079840943086062</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0">
-        <v>0.17420257510729614</v>
+        <v>0.14825751072961371</v>
       </c>
       <c r="B511" s="0">
-        <v>0.021113294499382179</v>
+        <v>0.016831008940070301</v>
       </c>
       <c r="C511" s="0">
-        <v>1.581273639381384</v>
+        <v>1.0049314739337949</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0">
-        <v>0.17454414878397712</v>
+        <v>0.14854821173104435</v>
       </c>
       <c r="B512" s="0">
-        <v>0.020772919151017873</v>
+        <v>0.016811569289707742</v>
       </c>
       <c r="C512" s="0">
-        <v>1.5306999982476399</v>
+        <v>1.002611442508931</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0">
-        <v>0.17488572246065809</v>
+        <v>0.14883891273247496</v>
       </c>
       <c r="B513" s="0">
-        <v>0.02044985516922055</v>
+        <v>0.016798208382407014</v>
       </c>
       <c r="C513" s="0">
-        <v>1.4834588137532161</v>
+        <v>1.001018435313632</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0">
-        <v>0.17522729613733906</v>
+        <v>0.14912961373390557</v>
       </c>
       <c r="B514" s="0">
-        <v>0.020147600702264807</v>
+        <v>0.016790908775144688</v>
       </c>
       <c r="C514" s="0">
-        <v>1.4399310288890419</v>
+        <v>1.000148645673191</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0">
-        <v>0.17556886981402003</v>
+        <v>0.14942031473533621</v>
       </c>
       <c r="B515" s="0">
-        <v>0.019864423685212886</v>
+        <v>0.016789660966284821</v>
       </c>
       <c r="C515" s="0">
-        <v>1.3997386651998181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0">
-        <v>0.17591044349070101</v>
+        <v>0.14971101573676682</v>
       </c>
       <c r="B516" s="0">
-        <v>0.019598871862365627</v>
+        <v>0.016794463333588451</v>
       </c>
       <c r="C516" s="0">
-        <v>1.3625648053726305</v>
+        <v>1.0005721442650664</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0">
-        <v>0.17625201716738198</v>
+        <v>0.1500017167381974</v>
       </c>
       <c r="B517" s="0">
-        <v>0.019349714528047575</v>
+        <v>0.016805322123651437</v>
       </c>
       <c r="C517" s="0">
-        <v>1.328140879667397</v>
+        <v>1.0018664416929797</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0">
-        <v>0.17659359084406295</v>
+        <v>0.15029241773962804</v>
       </c>
       <c r="B518" s="0">
-        <v>0.019115899165902325</v>
+        <v>0.016822251492609776</v>
       </c>
       <c r="C518" s="0">
-        <v>1.2962372035625409</v>
+        <v>1.0038859816452295</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0">
-        <v>0.17693516452074393</v>
+        <v>0.15058311874105865</v>
       </c>
       <c r="B519" s="0">
-        <v>0.018896518578305627</v>
+        <v>0.016845273598733078</v>
       </c>
       <c r="C519" s="0">
-        <v>1.2666558045980283</v>
+        <v>1.0066355998273249</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0">
-        <v>0.17727673819742487</v>
+        <v>0.15087381974248926</v>
       </c>
       <c r="B520" s="0">
-        <v>0.018690785563225305</v>
+        <v>0.016874418748325543</v>
       </c>
       <c r="C520" s="0">
-        <v>1.2392248962538237</v>
+        <v>1.0101219101294632</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0">
-        <v>0.17761831187410585</v>
+        <v>0.1511645207439199</v>
       </c>
       <c r="B521" s="0">
-        <v>0.018498013126213277</v>
+        <v>0.016909725597191692</v>
       </c>
       <c r="C521" s="0">
-        <v>1.2137945597280284</v>
+        <v>1.0143533485933631</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0">
-        <v>0.17795988555078685</v>
+        <v>0.1514552217453505</v>
       </c>
       <c r="B522" s="0">
-        <v>0.018317598821689447</v>
+        <v>0.016951241410825602</v>
       </c>
       <c r="C522" s="0">
-        <v>1.1902333268263485</v>
+        <v>1.019340230194612</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0">
-        <v>0.17830145922746782</v>
+        <v>0.15174592274678112</v>
       </c>
       <c r="B523" s="0">
-        <v>0.018149012222483114</v>
+        <v>0.016999022387473799</v>
       </c>
       <c r="C523" s="0">
-        <v>1.1684254455130117</v>
+        <v>1.0250948193462297</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0">
-        <v>0.17864303290414879</v>
+        <v>0.15203662374821172</v>
       </c>
       <c r="B524" s="0">
-        <v>0.017991784792574538</v>
+        <v>0.017053134049334652</v>
       </c>
       <c r="C524" s="0">
-        <v>1.14826866989808</v>
+        <v>1.0316314152719883</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0">
-        <v>0.17898460658082976</v>
+        <v>0.15232732474964234</v>
       </c>
       <c r="B525" s="0">
-        <v>0.017845501629747358</v>
+        <v>0.017113651708427317</v>
       </c>
       <c r="C525" s="0">
-        <v>1.1296724582845186</v>
+        <v>1.0389664536752308</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0">
-        <v>0.17932618025751074</v>
+        <v>0.15261802575107295</v>
       </c>
       <c r="B526" s="0">
-        <v>0.017709794680437915</v>
+        <v>0.017180642390495212</v>
       </c>
       <c r="C526" s="0">
-        <v>1.1125564924842342</v>
+        <v>1.0471163562002648</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0">
-        <v>0.17966775393419171</v>
+        <v>0.15290872675250358</v>
       </c>
       <c r="B527" s="0">
-        <v>0.0175843371264396</v>
+        <v>0.017250433526182028</v>
       </c>
       <c r="C527" s="0">
-        <v>1.0968494528612221</v>
+        <v>1.0556408187357764</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0">
-        <v>0.18000932761087268</v>
+        <v>0.15319942775393419</v>
       </c>
       <c r="B528" s="0">
-        <v>0.017468838714072555</v>
+        <v>0.017320224661868836</v>
       </c>
       <c r="C528" s="0">
-        <v>1.0824879990434411</v>
+        <v>1.0641998391179792</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0">
-        <v>0.18035090128755366</v>
+        <v>0.1534901287553648</v>
       </c>
       <c r="B529" s="0">
-        <v>0.017363041848826435</v>
+        <v>0.017390015797555645</v>
       </c>
       <c r="C529" s="0">
-        <v>1.0694159176794216</v>
+        <v>1.0727934173468732</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0">
-        <v>0.18069247496423463</v>
+        <v>0.15378082975679541</v>
       </c>
       <c r="B530" s="0">
-        <v>0.017266718317664468</v>
+        <v>0.017459806933242447</v>
       </c>
       <c r="C530" s="0">
-        <v>1.0575834071657497</v>
+        <v>1.0814215534224576</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0">
-        <v>0.1810340486409156</v>
+        <v>0.15407153075822602</v>
       </c>
       <c r="B531" s="0">
-        <v>0.017179666530820703</v>
+        <v>0.017529598068929255</v>
       </c>
       <c r="C531" s="0">
-        <v>1.046946475740524</v>
+        <v>1.0900842473447339</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0">
-        <v>0.18137562231759658</v>
+        <v>0.15436223175965663</v>
       </c>
       <c r="B532" s="0">
-        <v>0.017101709197603669</v>
+        <v>0.017599389204616064</v>
       </c>
       <c r="C532" s="0">
-        <v>1.0374664342875115</v>
+        <v>1.0987814991137019</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0">
-        <v>0.18171719599427755</v>
+        <v>0.15465293276108724</v>
       </c>
       <c r="B533" s="0">
-        <v>0.017032691368264147</v>
+        <v>0.017669180340302872</v>
       </c>
       <c r="C533" s="0">
-        <v>1.0291094690243405</v>
+        <v>1.1075133087293614</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0">
-        <v>0.18205876967095852</v>
+        <v>0.15494363376251788</v>
       </c>
       <c r="B534" s="0">
-        <v>0.016972478787703214</v>
+        <v>0.017738971475989688</v>
       </c>
       <c r="C534" s="0">
-        <v>1.0218462822417849</v>
+        <v>1.1162796761917124</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0">
-        <v>0.18240034334763949</v>
+        <v>0.15523433476394849</v>
       </c>
       <c r="B535" s="0">
-        <v>0.016920956517643186</v>
+        <v>0.017808762611676496</v>
       </c>
       <c r="C535" s="0">
-        <v>1.0156517916281438</v>
+        <v>1.1250806015007544</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0">
-        <v>0.18274191702432044</v>
+        <v>0.1555250357653791</v>
       </c>
       <c r="B536" s="0">
-        <v>0.016878027792560067</v>
+        <v>0.017878553747363305</v>
       </c>
       <c r="C536" s="0">
-        <v>1.0105048806060377</v>
+        <v>1.1339160846564877</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0">
-        <v>0.18308349070100141</v>
+        <v>0.15581573676680974</v>
       </c>
       <c r="B537" s="0">
-        <v>0.016843613081705181</v>
+        <v>0.017948344883050121</v>
       </c>
       <c r="C537" s="0">
-        <v>1.0063881936428434</v>
+        <v>1.1427861256589129</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0">
-        <v>0.18342506437768241</v>
+        <v>0.15610643776824035</v>
       </c>
       <c r="B538" s="0">
-        <v>0.016817649335320838</v>
+        <v>0.018018136018736922</v>
       </c>
       <c r="C538" s="0">
-        <v>1.0032879717567231</v>
+        <v>1.1516907245080279</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0">
-        <v>0.18376663805436336</v>
+        <v>0.15639713876967096</v>
       </c>
       <c r="B539" s="0">
-        <v>0.016800089397983303</v>
+        <v>0.018087927154423731</v>
       </c>
       <c r="C539" s="0">
-        <v>1.0011939244938763</v>
+        <v>1.1606298812038354</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0">
-        <v>0.18410821173104436</v>
+        <v>0.15668783977110157</v>
       </c>
       <c r="B540" s="0">
-        <v>0.016790901576122543</v>
+        <v>0.01815771829011054</v>
       </c>
       <c r="C540" s="0">
-        <v>1.0000991355508882</v>
+        <v>1.169603595746334</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0">
-        <v>0.1844497854077253</v>
+        <v>0.15697854077253218</v>
       </c>
       <c r="B541" s="0">
-        <v>0.016790069350360572</v>
+        <v>0.018227509425797348</v>
       </c>
       <c r="C541" s="0">
-        <v>1</v>
+        <v>1.1786118681355238</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0">
-        <v>0.1847913590844063</v>
+        <v>0.15726924177396279</v>
       </c>
       <c r="B542" s="0">
-        <v>0.016797591226533674</v>
+        <v>0.018297300561484157</v>
       </c>
       <c r="C542" s="0">
-        <v>1.0008961917785562</v>
+        <v>1.1876546983714047</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0">
-        <v>0.18513293276108725</v>
+        <v>0.15755994277539343</v>
       </c>
       <c r="B543" s="0">
-        <v>0.016813480722249807</v>
+        <v>0.018367091697170972</v>
       </c>
       <c r="C543" s="0">
-        <v>1.0027906607555042</v>
+        <v>1.1967320864539783</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0">
-        <v>0.18547450643776825</v>
+        <v>0.15785064377682403</v>
       </c>
       <c r="B544" s="0">
-        <v>0.016837766488698079</v>
+        <v>0.018436882832857781</v>
       </c>
       <c r="C544" s="0">
-        <v>1.0056896593131683</v>
+        <v>1.2058440323832422</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="0">
-        <v>0.18581608011444919</v>
+        <v>0.15814134477825465</v>
       </c>
       <c r="B545" s="0">
-        <v>0.016870492570281764</v>
+        <v>0.01850667396854459</v>
       </c>
       <c r="C545" s="0">
-        <v>1.0096027990054535</v>
+        <v>1.2149905361591971</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0">
-        <v>0.1861576537911302</v>
+        <v>0.15843204577968525</v>
       </c>
       <c r="B546" s="0">
-        <v>0.016911718807599691</v>
+        <v>0.018576465104231398</v>
       </c>
       <c r="C546" s="0">
-        <v>1.0145431384981252</v>
+        <v>1.2241715977818437</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0">
-        <v>0.18649922746781114</v>
+        <v>0.15872274678111587</v>
       </c>
       <c r="B547" s="0">
-        <v>0.016961521392466539</v>
+        <v>0.0186462562399182</v>
       </c>
       <c r="C547" s="0">
-        <v>1.0205273046876666</v>
+        <v>1.2333872172511806</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0">
-        <v>0.18684080114449214</v>
+        <v>0.15901344778254647</v>
       </c>
       <c r="B548" s="0">
-        <v>0.017019993587170552</v>
+        <v>0.018716047375605008</v>
       </c>
       <c r="C548" s="0">
-        <v>1.027575649660698</v>
+        <v>1.2426373945672098</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0">
-        <v>0.18718237482117312</v>
+        <v>0.15930414878397711</v>
       </c>
       <c r="B549" s="0">
-        <v>0.017087246624164661</v>
+        <v>0.018785838511291824</v>
       </c>
       <c r="C549" s="0">
-        <v>1.0357124470283423</v>
+        <v>1.251922129729931</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0">
-        <v>0.18752394849785409</v>
+        <v>0.15959484978540772</v>
       </c>
       <c r="B550" s="0">
-        <v>0.017163410807056748</v>
+        <v>0.018855629646978633</v>
       </c>
       <c r="C550" s="0">
-        <v>1.0449661321889241</v>
+        <v>1.2612414227393429</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0">
-        <v>0.18786552217453506</v>
+        <v>0.15988555078683833</v>
       </c>
       <c r="B551" s="0">
-        <v>0.017245316919631895</v>
+        <v>0.018925420782665441</v>
       </c>
       <c r="C551" s="0">
-        <v>1.0549633682890272</v>
+        <v>1.270595273595446</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0">
-        <v>0.18820709585121601</v>
+        <v>0.16017625178826897</v>
       </c>
       <c r="B552" s="0">
-        <v>0.017327321504063888</v>
+        <v>0.018995211918352257</v>
       </c>
       <c r="C552" s="0">
-        <v>1.065020304056056</v>
+        <v>1.2799836822982418</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0">
-        <v>0.18854866952789701</v>
+        <v>0.16046695278969955</v>
       </c>
       <c r="B553" s="0">
-        <v>0.017409326088495894</v>
+        <v>0.019065003054039059</v>
       </c>
       <c r="C553" s="0">
-        <v>1.0751249489292374</v>
+        <v>1.2894066488477261</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0">
-        <v>0.18889024320457795</v>
+        <v>0.16075765379113016</v>
       </c>
       <c r="B554" s="0">
-        <v>0.017491330672927887</v>
+        <v>0.019134794189725867</v>
       </c>
       <c r="C554" s="0">
-        <v>1.0852773029085678</v>
+        <v>1.2988641732439032</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0">
-        <v>0.18923181688125895</v>
+        <v>0.1610483547925608</v>
       </c>
       <c r="B555" s="0">
-        <v>0.017573335257359893</v>
+        <v>0.019204585325412683</v>
       </c>
       <c r="C555" s="0">
-        <v>1.0954773659940507</v>
+        <v>1.3083562554867729</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0">
-        <v>0.1895733905579399</v>
+        <v>0.16133905579399141</v>
       </c>
       <c r="B556" s="0">
-        <v>0.017655339841791892</v>
+        <v>0.019274376461099484</v>
       </c>
       <c r="C556" s="0">
-        <v>1.1057251381856841</v>
+        <v>1.3178828955763318</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0">
-        <v>0.1899149642346209</v>
+        <v>0.16162975679542202</v>
       </c>
       <c r="B557" s="0">
-        <v>0.017737344426223899</v>
+        <v>0.019344167596786293</v>
       </c>
       <c r="C557" s="0">
-        <v>1.1160206194834688</v>
+        <v>1.3274440935125824</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0">
-        <v>0.19025653791130184</v>
+        <v>0.16192045779685266</v>
       </c>
       <c r="B558" s="0">
-        <v>0.017819349010655891</v>
+        <v>0.019413958732473108</v>
       </c>
       <c r="C558" s="0">
-        <v>1.1263638098874023</v>
+        <v>1.337039849295526</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0">
-        <v>0.19059811158798284</v>
+        <v>0.16221115879828327</v>
       </c>
       <c r="B559" s="0">
-        <v>0.017901353595087898</v>
+        <v>0.019483749868159917</v>
       </c>
       <c r="C559" s="0">
-        <v>1.1367547093974883</v>
+        <v>1.3466701629251598</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="0">
-        <v>0.19093968526466379</v>
+        <v>0.16250185979971388</v>
       </c>
       <c r="B560" s="0">
-        <v>0.01798335817951989</v>
+        <v>0.019553541003846726</v>
       </c>
       <c r="C560" s="0">
-        <v>1.1471933180137235</v>
+        <v>1.3563350344014846</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0">
-        <v>0.19128125894134479</v>
+        <v>0.16279256080114449</v>
       </c>
       <c r="B561" s="0">
-        <v>0.018065362763951903</v>
+        <v>0.019623332139533534</v>
       </c>
       <c r="C561" s="0">
-        <v>1.1576796357361123</v>
+        <v>1.366034463724501</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0">
-        <v>0.19162283261802573</v>
+        <v>0.1630832618025751</v>
       </c>
       <c r="B562" s="0">
-        <v>0.018147367348383896</v>
+        <v>0.019693123275220343</v>
       </c>
       <c r="C562" s="0">
-        <v>1.1682136625646489</v>
+        <v>1.375768450894209</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0">
-        <v>0.19196440629470674</v>
+        <v>0.16337396280400571</v>
       </c>
       <c r="B563" s="0">
-        <v>0.018229371932815902</v>
+        <v>0.019762914410907152</v>
       </c>
       <c r="C563" s="0">
-        <v>1.1787953984993385</v>
+        <v>1.3855369959106081</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0">
-        <v>0.19230597997138768</v>
+        <v>0.16366466380543635</v>
       </c>
       <c r="B564" s="0">
-        <v>0.018311376517247895</v>
+        <v>0.019832705546593967</v>
       </c>
       <c r="C564" s="0">
-        <v>1.1894248435401771</v>
+        <v>1.395340098773699</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0">
-        <v>0.19264755364806868</v>
+        <v>0.16395536480686695</v>
       </c>
       <c r="B565" s="0">
-        <v>0.018393381101679901</v>
+        <v>0.019902496682280769</v>
       </c>
       <c r="C565" s="0">
-        <v>1.2001019976871681</v>
+        <v>1.4051777594834798</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="0">
-        <v>0.19298912732474966</v>
+        <v>0.16424606580829757</v>
       </c>
       <c r="B566" s="0">
-        <v>0.018475385686111907</v>
+        <v>0.019972287817967577</v>
       </c>
       <c r="C566" s="0">
-        <v>1.2108268609403099</v>
+        <v>1.415049978039953</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0">
-        <v>0.19333070100143063</v>
+        <v>0.16453676680972817</v>
       </c>
       <c r="B567" s="0">
-        <v>0.018557390270543907</v>
+        <v>0.020042078953654386</v>
       </c>
       <c r="C567" s="0">
-        <v>1.2215994332996016</v>
+        <v>1.4249567544431174</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0">
-        <v>0.1936722746781116</v>
+        <v>0.16482746781115878</v>
       </c>
       <c r="B568" s="0">
-        <v>0.018639394854975906</v>
+        <v>0.020111870089341195</v>
       </c>
       <c r="C568" s="0">
-        <v>1.232419714765044</v>
+        <v>1.4348980886929728</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0">
-        <v>0.19401384835479255</v>
+        <v>0.1651181688125894</v>
       </c>
       <c r="B569" s="0">
-        <v>0.018721399439407899</v>
+        <v>0.020181661225028003</v>
       </c>
       <c r="C569" s="0">
-        <v>1.2432877053366362</v>
+        <v>1.4448739807895199</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0">
-        <v>0.19435542203147355</v>
+        <v>0.16540886981402</v>
       </c>
       <c r="B570" s="0">
-        <v>0.018803404023839905</v>
+        <v>0.020251452360714812</v>
       </c>
       <c r="C570" s="0">
-        <v>1.2542034050143813</v>
+        <v>1.4548844307327584</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="0">
-        <v>0.19469699570815449</v>
+        <v>0.16569957081545064</v>
       </c>
       <c r="B571" s="0">
-        <v>0.018885408608271904</v>
+        <v>0.020321243496401627</v>
       </c>
       <c r="C571" s="0">
-        <v>1.2651668137982766</v>
+        <v>1.4649294385226892</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0">
-        <v>0.19503856938483549</v>
+        <v>0.16599027181688125</v>
       </c>
       <c r="B572" s="0">
-        <v>0.018967413192703911</v>
+        <v>0.020391034632088436</v>
       </c>
       <c r="C572" s="0">
-        <v>1.2761779316883231</v>
+        <v>1.4750090041593098</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0">
-        <v>0.19538014306151644</v>
+        <v>0.16628097281831186</v>
       </c>
       <c r="B573" s="0">
-        <v>0.019049417777135903</v>
+        <v>0.020460825767775245</v>
       </c>
       <c r="C573" s="0">
-        <v>1.2872367586845186</v>
+        <v>1.4851231276426222</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="0">
-        <v>0.19572171673819744</v>
+        <v>0.1665716738197425</v>
       </c>
       <c r="B574" s="0">
-        <v>0.01913142236156791</v>
+        <v>0.020530616903462053</v>
       </c>
       <c r="C574" s="0">
-        <v>1.2983432947868667</v>
+        <v>1.495271808972626</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0">
-        <v>0.19606329041487838</v>
+        <v>0.16686237482117308</v>
       </c>
       <c r="B575" s="0">
-        <v>0.019213426945999902</v>
+        <v>0.020600408039148855</v>
       </c>
       <c r="C575" s="0">
-        <v>1.3094975399953637</v>
+        <v>1.5054550481493201</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0">
-        <v>0.19640486409155938</v>
+        <v>0.16715307582260369</v>
       </c>
       <c r="B576" s="0">
-        <v>0.019295431530431909</v>
+        <v>0.020670199174835664</v>
       </c>
       <c r="C576" s="0">
-        <v>1.3206994943100134</v>
+        <v>1.515672845172706</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0">
-        <v>0.19674643776824033</v>
+        <v>0.16744377682403433</v>
       </c>
       <c r="B577" s="0">
-        <v>0.019377436114863908</v>
+        <v>0.020739990310522479</v>
       </c>
       <c r="C577" s="0">
-        <v>1.3319491577308131</v>
+        <v>1.5259252000427848</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0">
-        <v>0.19708801144492133</v>
+        <v>0.16773447782546494</v>
       </c>
       <c r="B578" s="0">
-        <v>0.019459440699295914</v>
+        <v>0.020809781446209288</v>
       </c>
       <c r="C578" s="0">
-        <v>1.3432465302577645</v>
+        <v>1.5362121127595538</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0">
-        <v>0.19742958512160227</v>
+        <v>0.16802517882689555</v>
       </c>
       <c r="B579" s="0">
-        <v>0.019541445283727907</v>
+        <v>0.020879572581896096</v>
       </c>
       <c r="C579" s="0">
-        <v>1.3545916118908652</v>
+        <v>1.5465335833230143</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0">
-        <v>0.19777115879828328</v>
+        <v>0.16831587982832619</v>
       </c>
       <c r="B580" s="0">
-        <v>0.019623449868159913</v>
+        <v>0.020949363717582912</v>
       </c>
       <c r="C580" s="0">
-        <v>1.3659844026301182</v>
+        <v>1.5568896117331668</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0">
-        <v>0.19811273247496422</v>
+        <v>0.1686065808297568</v>
       </c>
       <c r="B581" s="0">
-        <v>0.019705454452591906</v>
+        <v>0.021019154853269721</v>
       </c>
       <c r="C581" s="0">
-        <v>1.3774249024755199</v>
+        <v>1.5672801979900097</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0">
-        <v>0.19845430615164522</v>
+        <v>0.16889728183118741</v>
       </c>
       <c r="B582" s="0">
-        <v>0.019787459037023919</v>
+        <v>0.021088945988956522</v>
       </c>
       <c r="C582" s="0">
-        <v>1.3889131114270756</v>
+        <v>1.577705342093543</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0">
-        <v>0.19879587982832617</v>
+        <v>0.16918798283261802</v>
       </c>
       <c r="B583" s="0">
-        <v>0.019869463621455911</v>
+        <v>0.021158737124643331</v>
       </c>
       <c r="C583" s="0">
-        <v>1.4004490294847789</v>
+        <v>1.5881650440437687</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0">
-        <v>0.19913745350500714</v>
+        <v>0.16947868383404863</v>
       </c>
       <c r="B584" s="0">
-        <v>0.019951468205887911</v>
+        <v>0.021228528260330139</v>
       </c>
       <c r="C584" s="0">
-        <v>1.4120326566486341</v>
+        <v>1.5986593038406853</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0">
-        <v>0.19947902718168814</v>
+        <v>0.16976938483547924</v>
       </c>
       <c r="B585" s="0">
-        <v>0.020033472790319917</v>
+        <v>0.021298319396016948</v>
       </c>
       <c r="C585" s="0">
-        <v>1.423663992918641</v>
+        <v>1.6091881214842936</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0">
-        <v>0.19982060085836909</v>
+        <v>0.17006008583690988</v>
       </c>
       <c r="B586" s="0">
-        <v>0.02011547737475191</v>
+        <v>0.021368110531703764</v>
       </c>
       <c r="C586" s="0">
-        <v>1.4353430382947974</v>
+        <v>1.6197514969745945</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="0">
-        <v>0.20016217453505009</v>
+        <v>0.17035078683834048</v>
       </c>
       <c r="B587" s="0">
-        <v>0.020197481959183923</v>
+        <v>0.021437901667390572</v>
       </c>
       <c r="C587" s="0">
-        <v>1.4470697927771063</v>
+        <v>1.6303494303115849</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="0">
-        <v>0.20050374821173103</v>
+        <v>0.1706414878397711</v>
       </c>
       <c r="B588" s="0">
-        <v>0.020279486543615916</v>
+        <v>0.021507692803077381</v>
       </c>
       <c r="C588" s="0">
-        <v>1.4588442563655642</v>
+        <v>1.6409819214952672</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0">
-        <v>0.20084532188841203</v>
+        <v>0.1709321888412017</v>
       </c>
       <c r="B589" s="0">
-        <v>0.020361491128047922</v>
+        <v>0.021577483938764189</v>
       </c>
       <c r="C589" s="0">
-        <v>1.4706664290601745</v>
+        <v>1.651648970525641</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0">
-        <v>0.20118689556509298</v>
+        <v>0.17122288984263232</v>
       </c>
       <c r="B590" s="0">
-        <v>0.020443495712479914</v>
+        <v>0.021647275074450998</v>
       </c>
       <c r="C590" s="0">
-        <v>1.4825363108609333</v>
+        <v>1.6623505774027061</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0">
-        <v>0.20152846924177398</v>
+        <v>0.17151359084406292</v>
       </c>
       <c r="B591" s="0">
-        <v>0.020525500296911921</v>
+        <v>0.0217170662101378</v>
       </c>
       <c r="C591" s="0">
-        <v>1.4944539017678451</v>
+        <v>1.6730867421264606</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0">
-        <v>0.20187004291845492</v>
+        <v>0.17180429184549356</v>
       </c>
       <c r="B592" s="0">
-        <v>0.02060750488134392</v>
+        <v>0.021786857345824615</v>
       </c>
       <c r="C592" s="0">
-        <v>1.5064192017809066</v>
+        <v>1.6838574646969093</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0">
-        <v>0.20221161659513592</v>
+        <v>0.17209499284692417</v>
       </c>
       <c r="B593" s="0">
-        <v>0.020689509465775927</v>
+        <v>0.021856648481511424</v>
       </c>
       <c r="C593" s="0">
-        <v>1.51843221090012</v>
+        <v>1.6946627451140484</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0">
-        <v>0.20255319027181687</v>
+        <v>0.17238569384835478</v>
       </c>
       <c r="B594" s="0">
-        <v>0.020771514050207919</v>
+        <v>0.021926439617198233</v>
       </c>
       <c r="C594" s="0">
-        <v>1.5304929291254821</v>
+        <v>1.7055025833778787</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="0">
-        <v>0.20289476394849787</v>
+        <v>0.17267639484978542</v>
       </c>
       <c r="B595" s="0">
-        <v>0.020853518634639925</v>
+        <v>0.021996230752885048</v>
       </c>
       <c r="C595" s="0">
-        <v>1.5426013564569976</v>
+        <v>1.716376979488401</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0">
-        <v>0.20323633762517882</v>
+        <v>0.17296709585121603</v>
       </c>
       <c r="B596" s="0">
-        <v>0.020935523219071918</v>
+        <v>0.022066021888571857</v>
       </c>
       <c r="C596" s="0">
-        <v>1.5547574928946613</v>
+        <v>1.7272859334456141</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0">
-        <v>0.20357791130185982</v>
+        <v>0.17325779685264664</v>
       </c>
       <c r="B597" s="0">
-        <v>0.021017527803503924</v>
+        <v>0.022135813024258665</v>
       </c>
       <c r="C597" s="0">
-        <v>1.5669613384384777</v>
+        <v>1.7382294452495184</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="0">
-        <v>0.20391948497854076</v>
+        <v>0.17354849785407725</v>
       </c>
       <c r="B598" s="0">
-        <v>0.021099532387935924</v>
+        <v>0.022205604159945474</v>
       </c>
       <c r="C598" s="0">
-        <v>1.5792128930884442</v>
+        <v>1.7492075149001134</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0">
-        <v>0.20426105865522176</v>
+        <v>0.17383919885550786</v>
       </c>
       <c r="B599" s="0">
-        <v>0.02118153697236793</v>
+        <v>0.022275395295632282</v>
       </c>
       <c r="C599" s="0">
-        <v>1.5915121568445623</v>
+        <v>1.7602201423974004</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0">
-        <v>0.20460263233190271</v>
+        <v>0.17412989985693847</v>
       </c>
       <c r="B600" s="0">
-        <v>0.021263541556799923</v>
+        <v>0.022345186431319084</v>
       </c>
       <c r="C600" s="0">
-        <v>1.6038591297068292</v>
+        <v>1.7712673277413775</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0">
-        <v>0.20494420600858368</v>
+        <v>0.17442060085836911</v>
       </c>
       <c r="B601" s="0">
-        <v>0.021345546141231922</v>
+        <v>0.0224149775670059</v>
       </c>
       <c r="C601" s="0">
-        <v>1.6162538116752479</v>
+        <v>1.7823490709320482</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0">
-        <v>0.20528577968526468</v>
+        <v>0.17471130185979972</v>
       </c>
       <c r="B602" s="0">
-        <v>0.021427550725663928</v>
+        <v>0.022484768702692708</v>
       </c>
       <c r="C602" s="0">
-        <v>1.6286962027498184</v>
+        <v>1.7934653719694087</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0">
-        <v>0.20562735336194563</v>
+        <v>0.17500200286123033</v>
       </c>
       <c r="B603" s="0">
-        <v>0.021509555310095928</v>
+        <v>0.022554559838379517</v>
       </c>
       <c r="C603" s="0">
-        <v>1.6411863029305394</v>
+        <v>1.8046162308534608</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0">
-        <v>0.20596892703862663</v>
+        <v>0.17529270386266094</v>
       </c>
       <c r="B604" s="0">
-        <v>0.021591559894527934</v>
+        <v>0.022624350974066326</v>
       </c>
       <c r="C604" s="0">
-        <v>1.6537241122174116</v>
+        <v>1.8158016475842045</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0">
-        <v>0.20631050071530757</v>
+        <v>0.17558340486409155</v>
       </c>
       <c r="B605" s="0">
-        <v>0.021673564478959927</v>
+        <v>0.022694142109753134</v>
       </c>
       <c r="C605" s="0">
-        <v>1.6663096306104321</v>
+        <v>1.8270216221616393</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0">
-        <v>0.20665207439198857</v>
+        <v>0.17587410586552216</v>
       </c>
       <c r="B606" s="0">
-        <v>0.021755569063391933</v>
+        <v>0.022763933245439943</v>
       </c>
       <c r="C606" s="0">
-        <v>1.678942858109606</v>
+        <v>1.8382761545857651</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0">
-        <v>0.20699364806866952</v>
+        <v>0.17616480686695277</v>
       </c>
       <c r="B607" s="0">
-        <v>0.021837573647823926</v>
+        <v>0.022833724381126751</v>
       </c>
       <c r="C607" s="0">
-        <v>1.6916237947149284</v>
+        <v>1.8495652448565827</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0">
-        <v>0.20733522174535052</v>
+        <v>0.1764555078683834</v>
       </c>
       <c r="B608" s="0">
-        <v>0.021919578232255939</v>
+        <v>0.02290351551681356</v>
       </c>
       <c r="C608" s="0">
-        <v>1.704352440426405</v>
+        <v>1.8608888929740917</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0">
-        <v>0.20767679542203146</v>
+        <v>0.17674620886981402</v>
       </c>
       <c r="B609" s="0">
-        <v>0.022001582816687931</v>
+        <v>0.022973306652500369</v>
       </c>
       <c r="C609" s="0">
-        <v>1.7171287952440288</v>
+        <v>1.8722470989382918</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0">
-        <v>0.20801836909871246</v>
+        <v>0.17703690987124463</v>
       </c>
       <c r="B610" s="0">
-        <v>0.022083587401119938</v>
+        <v>0.023043097788187177</v>
       </c>
       <c r="C610" s="0">
-        <v>1.7299528591678057</v>
+        <v>1.8836398627491828</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0">
-        <v>0.20835994277539341</v>
+        <v>0.17732761087267523</v>
       </c>
       <c r="B611" s="0">
-        <v>0.02216559198555193</v>
+        <v>0.023112888923873986</v>
       </c>
       <c r="C611" s="0">
-        <v>1.7428246321977319</v>
+        <v>1.8950671844067657</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0">
-        <v>0.20870151645207441</v>
+        <v>0.17761831187410585</v>
       </c>
       <c r="B612" s="0">
-        <v>0.022247596569983936</v>
+        <v>0.023182680059560794</v>
       </c>
       <c r="C612" s="0">
-        <v>1.7557441143338106</v>
+        <v>1.9065290639110399</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0">
-        <v>0.20904309012875536</v>
+        <v>0.17790901287553645</v>
       </c>
       <c r="B613" s="0">
-        <v>0.022329601154415936</v>
+        <v>0.023252471195247603</v>
       </c>
       <c r="C613" s="0">
-        <v>1.7687113055760388</v>
+        <v>1.9180255012620055</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0">
-        <v>0.20938466380543636</v>
+        <v>0.17819971387696709</v>
       </c>
       <c r="B614" s="0">
-        <v>0.022411605738847942</v>
+        <v>0.023322262330934419</v>
       </c>
       <c r="C614" s="0">
-        <v>1.781726205924419</v>
+        <v>1.929556496459663</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0">
-        <v>0.2097262374821173</v>
+        <v>0.1784904148783977</v>
       </c>
       <c r="B615" s="0">
-        <v>0.022493610323279935</v>
+        <v>0.023392053466621227</v>
       </c>
       <c r="C615" s="0">
-        <v>1.7947888153789475</v>
+        <v>1.9411220495040111</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0">
-        <v>0.21006781115879827</v>
+        <v>0.17878111587982831</v>
       </c>
       <c r="B616" s="0">
-        <v>0.022575614907711934</v>
+        <v>0.023461844602308036</v>
       </c>
       <c r="C616" s="0">
-        <v>1.8078991339396282</v>
+        <v>1.9527221603950506</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0">
-        <v>0.21040938483547925</v>
+        <v>0.17907181688125895</v>
       </c>
       <c r="B617" s="0">
-        <v>0.022657619492143934</v>
+        <v>0.023531635737994845</v>
       </c>
       <c r="C617" s="0">
-        <v>1.8210571616064597</v>
+        <v>1.9643568291327809</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0">
-        <v>0.21075095851216022</v>
+        <v>0.17936251788268956</v>
       </c>
       <c r="B618" s="0">
-        <v>0.02273962407657594</v>
+        <v>0.023601426873681653</v>
       </c>
       <c r="C618" s="0">
-        <v>1.8342628983794431</v>
+        <v>1.9760260557172031</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0">
-        <v>0.21109253218884122</v>
+        <v>0.17965321888412017</v>
       </c>
       <c r="B619" s="0">
-        <v>0.022821628661007946</v>
+        <v>0.023671218009368462</v>
       </c>
       <c r="C619" s="0">
-        <v>1.8475163442585774</v>
+        <v>1.9877298401483166</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0">
-        <v>0.21143410586552217</v>
+        <v>0.17994391988555078</v>
       </c>
       <c r="B620" s="0">
-        <v>0.022903633245439939</v>
+        <v>0.02374100914505527</v>
       </c>
       <c r="C620" s="0">
-        <v>1.8608174992438604</v>
+        <v>1.9994681824261216</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0">
-        <v>0.21177567954220317</v>
+        <v>0.18023462088698139</v>
       </c>
       <c r="B621" s="0">
-        <v>0.022985637829871945</v>
+        <v>0.023810800280742079</v>
       </c>
       <c r="C621" s="0">
-        <v>1.8741663633352963</v>
+        <v>2.0112410825506171</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0">
-        <v>0.21211725321888411</v>
+        <v>0.180525321888412</v>
       </c>
       <c r="B622" s="0">
-        <v>0.023067642414303938</v>
+        <v>0.023880591416428888</v>
       </c>
       <c r="C622" s="0">
-        <v>1.8875629365328806</v>
+        <v>2.0230485405218044</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0">
-        <v>0.21245882689556511</v>
+        <v>0.18081602288984264</v>
       </c>
       <c r="B623" s="0">
-        <v>0.023149646998735944</v>
+        <v>0.023950382552115703</v>
       </c>
       <c r="C623" s="0">
-        <v>1.9010072188366178</v>
+        <v>2.0348905563396844</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0">
-        <v>0.21280040057224606</v>
+        <v>0.18110672389127325</v>
       </c>
       <c r="B624" s="0">
-        <v>0.023231651583167943</v>
+        <v>0.024020173687802512</v>
       </c>
       <c r="C624" s="0">
-        <v>1.9144992102465048</v>
+        <v>2.0467671300042549</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0">
-        <v>0.21314197424892706</v>
+        <v>0.18139742489270386</v>
       </c>
       <c r="B625" s="0">
-        <v>0.02331365616759995</v>
+        <v>0.02408996482348932</v>
       </c>
       <c r="C625" s="0">
-        <v>1.928038910762544</v>
+        <v>2.0586782615155155</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0">
-        <v>0.213483547925608</v>
+        <v>0.18168812589413447</v>
       </c>
       <c r="B626" s="0">
-        <v>0.023395660752031942</v>
+        <v>0.024159755959176122</v>
       </c>
       <c r="C626" s="0">
-        <v>1.9416263203847319</v>
+        <v>2.070623950873467</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0">
-        <v>0.213825121602289</v>
+        <v>0.18197882689556508</v>
       </c>
       <c r="B627" s="0">
-        <v>0.023477665336463949</v>
+        <v>0.024229547094862931</v>
       </c>
       <c r="C627" s="0">
-        <v>1.9552614391130725</v>
+        <v>2.0826041980781111</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0">
-        <v>0.21416669527896995</v>
+        <v>0.18226952789699569</v>
       </c>
       <c r="B628" s="0">
-        <v>0.023559669920895941</v>
+        <v>0.024299338230549739</v>
       </c>
       <c r="C628" s="0">
-        <v>1.9689442669475614</v>
+        <v>2.0946190031294467</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="0">
-        <v>0.21450826895565095</v>
+        <v>0.18256022889842633</v>
       </c>
       <c r="B629" s="0">
-        <v>0.023641674505327955</v>
+        <v>0.024369129366236555</v>
       </c>
       <c r="C629" s="0">
-        <v>1.9826748038882049</v>
+        <v>2.1066683660274741</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0">
-        <v>0.2148498426323319</v>
+        <v>0.18285092989985693</v>
       </c>
       <c r="B630" s="0">
-        <v>0.023723679089759947</v>
+        <v>0.024438920501923363</v>
       </c>
       <c r="C630" s="0">
-        <v>1.9964530499349955</v>
+        <v>2.1187522867721924</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0">
-        <v>0.2151914163090129</v>
+        <v>0.18314163090128755</v>
       </c>
       <c r="B631" s="0">
-        <v>0.023805683674191953</v>
+        <v>0.024508711637610172</v>
       </c>
       <c r="C631" s="0">
-        <v>2.0102790050879391</v>
+        <v>2.1308707653636016</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0">
-        <v>0.21553298998569384</v>
+        <v>0.18343233190271818</v>
       </c>
       <c r="B632" s="0">
-        <v>0.023887688258623946</v>
+        <v>0.024578502773296988</v>
       </c>
       <c r="C632" s="0">
-        <v>2.0241526693470315</v>
+        <v>2.1430238018017032</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0">
-        <v>0.21587456366237481</v>
+        <v>0.18372303290414877</v>
       </c>
       <c r="B633" s="0">
-        <v>0.023969692843055945</v>
+        <v>0.024648293908983789</v>
       </c>
       <c r="C633" s="0">
-        <v>2.0380740427122763</v>
+        <v>2.1552113960864938</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0">
-        <v>0.21621613733905579</v>
+        <v>0.18401373390557937</v>
       </c>
       <c r="B634" s="0">
-        <v>0.024051697427487952</v>
+        <v>0.024718085044670598</v>
       </c>
       <c r="C634" s="0">
-        <v>2.0520431251836726</v>
+        <v>2.1674335482179776</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0">
-        <v>0.21655771101573676</v>
+        <v>0.18430443490701001</v>
       </c>
       <c r="B635" s="0">
-        <v>0.024133702011919951</v>
+        <v>0.024787876180357407</v>
       </c>
       <c r="C635" s="0">
-        <v>2.0660599167612182</v>
+        <v>2.1796902581961524</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="0">
-        <v>0.21689928469241773</v>
+        <v>0.1845951359084406</v>
       </c>
       <c r="B636" s="0">
-        <v>0.024215706596351951</v>
+        <v>0.024857667316044208</v>
       </c>
       <c r="C636" s="0">
-        <v>2.0801244174449147</v>
+        <v>2.1919815260210172</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0">
-        <v>0.21724085836909871</v>
+        <v>0.18488583690987123</v>
       </c>
       <c r="B637" s="0">
-        <v>0.02429771118078395</v>
+        <v>0.024927458451731024</v>
       </c>
       <c r="C637" s="0">
-        <v>2.0942366272347619</v>
+        <v>2.2043073516925751</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0">
-        <v>0.21758243204577971</v>
+        <v>0.18517653791130187</v>
       </c>
       <c r="B638" s="0">
-        <v>0.024379715765215956</v>
+        <v>0.024997249587417839</v>
       </c>
       <c r="C638" s="0">
-        <v>2.1083965461307614</v>
+        <v>2.2166677352108253</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0">
-        <v>0.21792400572246065</v>
+        <v>0.18546723891273245</v>
       </c>
       <c r="B639" s="0">
-        <v>0.024461720349647956</v>
+        <v>0.025067040723104641</v>
       </c>
       <c r="C639" s="0">
-        <v>2.1226041741329103</v>
+        <v>2.2290626765757637</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="0">
-        <v>0.21826557939914165</v>
+        <v>0.18575793991416309</v>
       </c>
       <c r="B640" s="0">
-        <v>0.024543724934079962</v>
+        <v>0.025136831858791456</v>
       </c>
       <c r="C640" s="0">
-        <v>2.1368595112412114</v>
+        <v>2.2414921757873958</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0">
-        <v>0.2186071530758226</v>
+        <v>0.1860486409155937</v>
       </c>
       <c r="B641" s="0">
-        <v>0.024625729518511955</v>
+        <v>0.025206622994478265</v>
       </c>
       <c r="C641" s="0">
-        <v>2.1511625574556605</v>
+        <v>2.2539562328457188</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0">
-        <v>0.2189487267525036</v>
+        <v>0.18633934191702431</v>
       </c>
       <c r="B642" s="0">
-        <v>0.024707734102943961</v>
+        <v>0.025276414130165074</v>
       </c>
       <c r="C642" s="0">
-        <v>2.1655133127762634</v>
+        <v>2.2664548477507327</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0">
-        <v>0.21929030042918454</v>
+        <v>0.18663004291845492</v>
       </c>
       <c r="B643" s="0">
-        <v>0.024789738687375953</v>
+        <v>0.025346205265851875</v>
       </c>
       <c r="C643" s="0">
-        <v>2.1799117772030145</v>
+        <v>2.2789880205024367</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="0">
-        <v>0.21963187410586554</v>
+        <v>0.18692074391988556</v>
       </c>
       <c r="B644" s="0">
-        <v>0.02487174327180796</v>
+        <v>0.025415996401538691</v>
       </c>
       <c r="C644" s="0">
-        <v>2.194357950735919</v>
+        <v>2.2915557511008342</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0">
-        <v>0.21997344778254649</v>
+        <v>0.18721144492131614</v>
       </c>
       <c r="B645" s="0">
-        <v>0.024953747856239959</v>
+        <v>0.025485787537225493</v>
       </c>
       <c r="C645" s="0">
-        <v>2.2088518333749727</v>
+        <v>2.3041580395459209</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0">
-        <v>0.22031502145922749</v>
+        <v>0.18750214592274678</v>
       </c>
       <c r="B646" s="0">
-        <v>0.025035752440671966</v>
+        <v>0.025555578672912308</v>
       </c>
       <c r="C646" s="0">
-        <v>2.2233934251201783</v>
+        <v>2.3167948858377017</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="0">
-        <v>0.22065659513590844</v>
+        <v>0.18779284692417739</v>
       </c>
       <c r="B647" s="0">
-        <v>0.025117757025103958</v>
+        <v>0.025625369808599117</v>
       </c>
       <c r="C647" s="0">
-        <v>2.2379827259715324</v>
+        <v>2.329466289976172</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="0">
-        <v>0.22099816881258941</v>
+        <v>0.188083547925608</v>
       </c>
       <c r="B648" s="0">
-        <v>0.025199761609535958</v>
+        <v>0.025695160944285925</v>
       </c>
       <c r="C648" s="0">
-        <v>2.2526197359290387</v>
+        <v>2.3421722519613333</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0">
-        <v>0.22133974248927038</v>
+        <v>0.18837424892703861</v>
       </c>
       <c r="B649" s="0">
-        <v>0.025281766193967957</v>
+        <v>0.025764952079972734</v>
       </c>
       <c r="C649" s="0">
-        <v>2.2673044549926962</v>
+        <v>2.3549127717931868</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0">
-        <v>0.22168131616595135</v>
+        <v>0.18866494992846925</v>
       </c>
       <c r="B650" s="0">
-        <v>0.025363770778399963</v>
+        <v>0.02583474321565955</v>
       </c>
       <c r="C650" s="0">
-        <v>2.2820368831625051</v>
+        <v>2.3676878494717331</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="0">
-        <v>0.22202288984263233</v>
+        <v>0.18895565092989983</v>
       </c>
       <c r="B651" s="0">
-        <v>0.025445775362831963</v>
+        <v>0.025904534351346351</v>
       </c>
       <c r="C651" s="0">
-        <v>2.2968170204384637</v>
+        <v>2.3804974849969676</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0">
-        <v>0.2223644635193133</v>
+        <v>0.18924635193133046</v>
       </c>
       <c r="B652" s="0">
-        <v>0.025527779947263962</v>
+        <v>0.02597432548703316</v>
       </c>
       <c r="C652" s="0">
-        <v>2.3116448668205729</v>
+        <v>2.3933416783688943</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0">
-        <v>0.22270603719599427</v>
+        <v>0.1895370529327611</v>
       </c>
       <c r="B653" s="0">
-        <v>0.025609784531695962</v>
+        <v>0.026044116622719975</v>
       </c>
       <c r="C653" s="0">
-        <v>2.3265204223088332</v>
+        <v>2.4062204295875143</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0">
-        <v>0.22304761087267524</v>
+        <v>0.18982775393419168</v>
       </c>
       <c r="B654" s="0">
-        <v>0.025691789116127961</v>
+        <v>0.026113907758406777</v>
       </c>
       <c r="C654" s="0">
-        <v>2.341443686903244</v>
+        <v>2.4191337386528229</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="0">
-        <v>0.22338918454935625</v>
+        <v>0.19011845493562232</v>
       </c>
       <c r="B655" s="0">
-        <v>0.025773793700559974</v>
+        <v>0.026183698894093593</v>
       </c>
       <c r="C655" s="0">
-        <v>2.3564146606038081</v>
+        <v>2.4320816055648247</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0">
-        <v>0.22373075822603719</v>
+        <v>0.19040915593705293</v>
       </c>
       <c r="B656" s="0">
-        <v>0.025855798284991967</v>
+        <v>0.026253490029780401</v>
       </c>
       <c r="C656" s="0">
-        <v>2.3714333434105193</v>
+        <v>2.4450640303235174</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0">
-        <v>0.22407233190271819</v>
+        <v>0.19069985693848352</v>
       </c>
       <c r="B657" s="0">
-        <v>0.025937802869423973</v>
+        <v>0.026323281165467203</v>
       </c>
       <c r="C657" s="0">
-        <v>2.3864997353233841</v>
+        <v>2.4580810129289001</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0">
-        <v>0.22441390557939914</v>
+        <v>0.19099055793991415</v>
       </c>
       <c r="B658" s="0">
-        <v>0.026019807453855966</v>
+        <v>0.026393072301154019</v>
       </c>
       <c r="C658" s="0">
-        <v>2.4016138363423973</v>
+        <v>2.4711325533809765</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="0">
-        <v>0.22475547925608014</v>
+        <v>0.19128125894134479</v>
       </c>
       <c r="B659" s="0">
-        <v>0.026101812038287972</v>
+        <v>0.026462863436840834</v>
       </c>
       <c r="C659" s="0">
-        <v>2.4167756464675634</v>
+        <v>2.4842186516797438</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0">
-        <v>0.22509705293276108</v>
+        <v>0.19157195994277537</v>
       </c>
       <c r="B660" s="0">
-        <v>0.026183816622719965</v>
+        <v>0.026532654572527636</v>
       </c>
       <c r="C660" s="0">
-        <v>2.4319851656988778</v>
+        <v>2.4973393078252006</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0">
-        <v>0.22543862660944208</v>
+        <v>0.19186266094420601</v>
       </c>
       <c r="B661" s="0">
-        <v>0.026265821207151978</v>
+        <v>0.026602445708214444</v>
       </c>
       <c r="C661" s="0">
-        <v>2.4472423940363472</v>
+        <v>2.5104945218173498</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0">
-        <v>0.22578020028612303</v>
+        <v>0.19215336194563662</v>
       </c>
       <c r="B662" s="0">
-        <v>0.02634782579158397</v>
+        <v>0.026672236843901253</v>
       </c>
       <c r="C662" s="0">
-        <v>2.4625473314799629</v>
+        <v>2.5236842936561903</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0">
-        <v>0.22612177396280403</v>
+        <v>0.19244406294706723</v>
       </c>
       <c r="B663" s="0">
-        <v>0.026429830376015977</v>
+        <v>0.026742027979588062</v>
       </c>
       <c r="C663" s="0">
-        <v>2.4778999780297322</v>
+        <v>2.5369086233417217</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0">
-        <v>0.22646334763948497</v>
+        <v>0.19273476394849784</v>
       </c>
       <c r="B664" s="0">
-        <v>0.026511834960447969</v>
+        <v>0.02681181911527487</v>
       </c>
       <c r="C664" s="0">
-        <v>2.4933003336856499</v>
+        <v>2.550167510873945</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="0">
-        <v>0.22680492131616595</v>
+        <v>0.19302546494992848</v>
       </c>
       <c r="B665" s="0">
-        <v>0.026593839544879969</v>
+        <v>0.026881610250961686</v>
       </c>
       <c r="C665" s="0">
-        <v>2.5087483984477199</v>
+        <v>2.563460956252861</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0">
-        <v>0.22714649499284692</v>
+        <v>0.19331616595135906</v>
       </c>
       <c r="B666" s="0">
-        <v>0.026675844129311975</v>
+        <v>0.026951401386648487</v>
       </c>
       <c r="C666" s="0">
-        <v>2.5242441723159419</v>
+        <v>2.5767889594784652</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0">
-        <v>0.22748806866952789</v>
+        <v>0.1936068669527897</v>
       </c>
       <c r="B667" s="0">
-        <v>0.026757848713743974</v>
+        <v>0.027021192522335303</v>
       </c>
       <c r="C667" s="0">
-        <v>2.5397876552903131</v>
+        <v>2.5901515205507635</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="0">
-        <v>0.22782964234620887</v>
+        <v>0.19389756795422033</v>
       </c>
       <c r="B668" s="0">
-        <v>0.026839853298175974</v>
+        <v>0.027090983658022118</v>
       </c>
       <c r="C668" s="0">
-        <v>2.555378847370835</v>
+        <v>2.6035486394697531</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0">
-        <v>0.22817121602288984</v>
+        <v>0.19418826895565092</v>
       </c>
       <c r="B669" s="0">
-        <v>0.026921857882607973</v>
+        <v>0.02716077479370892</v>
       </c>
       <c r="C669" s="0">
-        <v>2.5710177485575079</v>
+        <v>2.6169803162354319</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0">
-        <v>0.22851278969957078</v>
+        <v>0.19447896995708153</v>
       </c>
       <c r="B670" s="0">
-        <v>0.027003862467039966</v>
+        <v>0.027230565929395722</v>
       </c>
       <c r="C670" s="0">
-        <v>2.58670435885033</v>
+        <v>2.6304465508478017</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0">
-        <v>0.22885436337625178</v>
+        <v>0.19476967095851216</v>
       </c>
       <c r="B671" s="0">
-        <v>0.027085867051471979</v>
+        <v>0.027300357065082537</v>
       </c>
       <c r="C671" s="0">
-        <v>2.6024386782493072</v>
+        <v>2.643947343306865</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0">
-        <v>0.22919593705293279</v>
+        <v>0.19506037195994275</v>
       </c>
       <c r="B672" s="0">
-        <v>0.027167871635903985</v>
+        <v>0.027370148200769339</v>
       </c>
       <c r="C672" s="0">
-        <v>2.6182207067544341</v>
+        <v>2.6574826936126175</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="0">
-        <v>0.22953751072961373</v>
+        <v>0.19535107296137338</v>
       </c>
       <c r="B673" s="0">
-        <v>0.027249876220335978</v>
+        <v>0.027439939336456155</v>
       </c>
       <c r="C673" s="0">
-        <v>2.6340504443657094</v>
+        <v>2.671052601765064</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="0">
-        <v>0.22987908440629473</v>
+        <v>0.19564177396280402</v>
       </c>
       <c r="B674" s="0">
-        <v>0.027331880804767984</v>
+        <v>0.02750973047214297</v>
       </c>
       <c r="C674" s="0">
-        <v>2.6499278910831374</v>
+        <v>2.684657067764201</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0">
-        <v>0.23022065808297568</v>
+        <v>0.1959324749642346</v>
       </c>
       <c r="B675" s="0">
-        <v>0.027413885389199977</v>
+        <v>0.027579521607829772</v>
       </c>
       <c r="C675" s="0">
-        <v>2.6658530469067139</v>
+        <v>2.6982960916100276</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="0">
-        <v>0.23056223175965668</v>
+        <v>0.19622317596566524</v>
       </c>
       <c r="B676" s="0">
-        <v>0.027495889973631983</v>
+        <v>0.027649312743516587</v>
       </c>
       <c r="C676" s="0">
-        <v>2.6818259118364436</v>
+        <v>2.7119696733025482</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="0">
-        <v>0.23090380543633762</v>
+        <v>0.19651387696709585</v>
       </c>
       <c r="B677" s="0">
-        <v>0.027577894558063983</v>
+        <v>0.027719103879203396</v>
       </c>
       <c r="C677" s="0">
-        <v>2.6978464858723226</v>
+        <v>2.7256778128417589</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="0">
-        <v>0.23124537911301862</v>
+        <v>0.19680457796852646</v>
       </c>
       <c r="B678" s="0">
-        <v>0.027659899142495989</v>
+        <v>0.027788895014890198</v>
       </c>
       <c r="C678" s="0">
-        <v>2.7139147690143539</v>
+        <v>2.7394205102276583</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="0">
-        <v>0.23158695278969957</v>
+        <v>0.19709527896995707</v>
       </c>
       <c r="B679" s="0">
-        <v>0.027741903726927981</v>
+        <v>0.027858686150577006</v>
       </c>
       <c r="C679" s="0">
-        <v>2.7300307612625336</v>
+        <v>2.7531977654602518</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="0">
-        <v>0.23192852646638054</v>
+        <v>0.19738597997138771</v>
       </c>
       <c r="B680" s="0">
-        <v>0.027823908311359981</v>
+        <v>0.027928477286263822</v>
       </c>
       <c r="C680" s="0">
-        <v>2.7461944626168648</v>
+        <v>2.7670095785395374</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="0">
-        <v>0.23227010014306151</v>
+        <v>0.19767668097281829</v>
       </c>
       <c r="B681" s="0">
-        <v>0.02790591289579198</v>
+        <v>0.027998268421950624</v>
       </c>
       <c r="C681" s="0">
-        <v>2.762405873077348</v>
+        <v>2.7808559494655119</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="0">
-        <v>0.23261167381974249</v>
+        <v>0.19796738197424893</v>
       </c>
       <c r="B682" s="0">
-        <v>0.027987917480223987</v>
+        <v>0.028068059557637439</v>
       </c>
       <c r="C682" s="0">
-        <v>2.7786649926439826</v>
+        <v>2.7947368782381798</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="0">
-        <v>0.23295324749642346</v>
+        <v>0.19825808297567954</v>
       </c>
       <c r="B683" s="0">
-        <v>0.028069922064655986</v>
+        <v>0.028137850693324248</v>
       </c>
       <c r="C683" s="0">
-        <v>2.7949718213167665</v>
+        <v>2.8086523648575383</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="0">
-        <v>0.23329482117310443</v>
+        <v>0.19854878397711015</v>
       </c>
       <c r="B684" s="0">
-        <v>0.028151926649087985</v>
+        <v>0.028207641829011056</v>
       </c>
       <c r="C684" s="0">
-        <v>2.8113263590957014</v>
+        <v>2.8226024093235882</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="0">
-        <v>0.23363639484978541</v>
+        <v>0.19883948497854076</v>
       </c>
       <c r="B685" s="0">
-        <v>0.028233931233519985</v>
+        <v>0.028277432964697865</v>
       </c>
       <c r="C685" s="0">
-        <v>2.8277286059807869</v>
+        <v>2.8365870116363294</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0">
-        <v>0.23397796852646638</v>
+        <v>0.1991301859799714</v>
       </c>
       <c r="B686" s="0">
-        <v>0.028315935817951984</v>
+        <v>0.028347224100384681</v>
       </c>
       <c r="C686" s="0">
-        <v>2.8441785619720235</v>
+        <v>2.8506061717957625</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0">
-        <v>0.23431954220314733</v>
+        <v>0.19942088698140198</v>
       </c>
       <c r="B687" s="0">
-        <v>0.028397940402383984</v>
+        <v>0.028417015236071475</v>
       </c>
       <c r="C687" s="0">
-        <v>2.8606762270694106</v>
+        <v>2.8646598898018834</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="0">
-        <v>0.23466111587982832</v>
+        <v>0.19971158798283262</v>
       </c>
       <c r="B688" s="0">
-        <v>0.02847994498681599</v>
+        <v>0.028486806371758291</v>
       </c>
       <c r="C688" s="0">
-        <v>2.8772216012729497</v>
+        <v>2.8787481656547001</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="0">
-        <v>0.23500268955650927</v>
+        <v>0.20000228898426326</v>
       </c>
       <c r="B689" s="0">
-        <v>0.028561949571247983</v>
+        <v>0.028556597507445106</v>
       </c>
       <c r="C689" s="0">
-        <v>2.893814684582638</v>
+        <v>2.8928709993542072</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="0">
-        <v>0.23534426323319027</v>
+        <v>0.20029298998569384</v>
       </c>
       <c r="B690" s="0">
-        <v>0.028643954155679989</v>
+        <v>0.028626388643131908</v>
       </c>
       <c r="C690" s="0">
-        <v>2.9104554769984787</v>
+        <v>2.9070283909004031</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="0">
-        <v>0.23568583690987127</v>
+        <v>0.20058369098712448</v>
       </c>
       <c r="B691" s="0">
-        <v>0.028725958740111995</v>
+        <v>0.028696179778818724</v>
       </c>
       <c r="C691" s="0">
-        <v>2.9271439785204709</v>
+        <v>2.9212203402932939</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="0">
-        <v>0.23602741058655222</v>
+        <v>0.20087439198855508</v>
       </c>
       <c r="B692" s="0">
-        <v>0.028807963324543995</v>
+        <v>0.028765970914505532</v>
       </c>
       <c r="C692" s="0">
-        <v>2.9438801891486119</v>
+        <v>2.9354468475328743</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="0">
-        <v>0.23636898426323322</v>
+        <v>0.20116509298998567</v>
       </c>
       <c r="B693" s="0">
-        <v>0.028889967908976001</v>
+        <v>0.028835762050192334</v>
       </c>
       <c r="C693" s="0">
-        <v>2.9606641088829053</v>
+        <v>2.9497079126191448</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="0">
-        <v>0.23671055793991416</v>
+        <v>0.20145579399141631</v>
       </c>
       <c r="B694" s="0">
-        <v>0.028971972493407994</v>
+        <v>0.028905553185879149</v>
       </c>
       <c r="C694" s="0">
-        <v>2.9774957377233466</v>
+        <v>2.9640035355521084</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="0">
-        <v>0.23705213161659516</v>
+        <v>0.20174649499284694</v>
       </c>
       <c r="B695" s="0">
-        <v>0.02905397707784</v>
+        <v>0.028975344321565958</v>
       </c>
       <c r="C695" s="0">
-        <v>2.9943750756699417</v>
+        <v>2.9783337163317629</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="0">
-        <v>0.23739370529327611</v>
+        <v>0.20203719599427753</v>
       </c>
       <c r="B696" s="0">
-        <v>0.029135981662271993</v>
+        <v>0.02904513545725276</v>
       </c>
       <c r="C696" s="0">
-        <v>3.011302122722685</v>
+        <v>2.992698454958107</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="0">
-        <v>0.23773527896995708</v>
+        <v>0.20232789699570816</v>
       </c>
       <c r="B697" s="0">
-        <v>0.029217986246703999</v>
+        <v>0.029114926592939575</v>
       </c>
       <c r="C697" s="0">
-        <v>3.0282768788815817</v>
+        <v>3.0070977514311448</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="0">
-        <v>0.23807685264663805</v>
+        <v>0.20261859799713875</v>
       </c>
       <c r="B698" s="0">
-        <v>0.029299990831135998</v>
+        <v>0.029184717728626377</v>
       </c>
       <c r="C698" s="0">
-        <v>3.0452993441466276</v>
+        <v>3.0215316057508717</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="0">
-        <v>0.23841842632331903</v>
+        <v>0.20290929899856938</v>
       </c>
       <c r="B699" s="0">
-        <v>0.029381995415567998</v>
+        <v>0.029254508864313192</v>
       </c>
       <c r="C699" s="0">
-        <v>3.0623695185178241</v>
+        <v>3.036000017917293</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="0">
-        <v>0.23876</v>
+        <v>0.20319999999999999</v>
       </c>
       <c r="B700" s="0">
-        <v>0.029463999999999997</v>
+        <v>0.029324300000000001</v>
       </c>
       <c r="C700" s="0">
-        <v>3.0794874019951717</v>
+        <v>3.050502987930404</v>
       </c>
     </row>
   </sheetData>
